--- a/Diseño de Base de Datos/Normalizacion_2021_B(1).xlsx
+++ b/Diseño de Base de Datos/Normalizacion_2021_B(1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\UPC\Diseño de Base de Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upcedupe-my.sharepoint.com/personal/pcsirfel_upc_edu_pe/Documents/EPE/2021-2 B/Diseño de Base de Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57CAC66-9D3E-4D0A-B955-0AA31E15172F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="447" documentId="8_{A62AD15D-5DD5-4A40-893B-66523FE1C060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B327A772-9340-4AA4-AF16-B4677E4E8583}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E2360DB0-91C3-43A9-9ADB-6EEE0ED629B2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{E2360DB0-91C3-43A9-9ADB-6EEE0ED629B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="232">
   <si>
     <t>ALUMNO</t>
   </si>
@@ -971,6 +971,12 @@
     <t>AG1</t>
   </si>
   <si>
+    <t>PK = (Co_Reserva,Co_Placa,Co_Accesorio)</t>
+  </si>
+  <si>
+    <t>VEHICULO:ACCESORIO</t>
+  </si>
+  <si>
     <t>Nu_policía</t>
   </si>
   <si>
@@ -1024,55 +1030,12 @@
   <si>
     <t>Co_cargo</t>
   </si>
-  <si>
-    <t xml:space="preserve">PAPELETA_POLICIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nu_PAPELETA </t>
-  </si>
-  <si>
-    <r>
-      <t>PK = (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Co_Reserva,Co_Placa,Co_Accesorio</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>VEHICULO_RESERVA</t>
-  </si>
-  <si>
-    <t>RESERVA</t>
-  </si>
-  <si>
-    <t>GARAJE</t>
-  </si>
-  <si>
-    <t>AGENCIA</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1199,15 +1162,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1223,24 +1179,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,7 +1210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1303,19 +1241,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10670,8 +10595,8 @@
       <xdr:row>89</xdr:row>
       <xdr:rowOff>15951</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId186">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="71" name="Entrada de lápiz 70">
@@ -10690,7 +10615,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="71" name="Entrada de lápiz 70">
@@ -10735,8 +10660,8 @@
       <xdr:row>95</xdr:row>
       <xdr:rowOff>60824</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId188">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="84" name="Entrada de lápiz 83">
@@ -10755,7 +10680,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="84" name="Entrada de lápiz 83">
@@ -10800,8 +10725,8 @@
       <xdr:row>86</xdr:row>
       <xdr:rowOff>49686</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId190">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="92" name="Entrada de lápiz 91">
@@ -10820,7 +10745,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="92" name="Entrada de lápiz 91">
@@ -10865,8 +10790,8 @@
       <xdr:row>88</xdr:row>
       <xdr:rowOff>80201</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId192">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="98" name="Entrada de lápiz 97">
@@ -10885,7 +10810,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="98" name="Entrada de lápiz 97">
@@ -10930,8 +10855,8 @@
       <xdr:row>84</xdr:row>
       <xdr:rowOff>174691</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId194">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="101" name="Entrada de lápiz 100">
@@ -10950,7 +10875,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="101" name="Entrada de lápiz 100">
@@ -10995,8 +10920,8 @@
       <xdr:row>99</xdr:row>
       <xdr:rowOff>60013</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId196">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="115" name="Entrada de lápiz 114">
@@ -11015,7 +10940,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="115" name="Entrada de lápiz 114">
@@ -11060,8 +10985,8 @@
       <xdr:row>106</xdr:row>
       <xdr:rowOff>69307</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId198">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="138" name="Entrada de lápiz 137">
@@ -11080,7 +11005,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="138" name="Entrada de lápiz 137">
@@ -11247,8 +11172,8 @@
       <xdr:row>103</xdr:row>
       <xdr:rowOff>116955</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId200">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="140" name="Entrada de lápiz 139">
@@ -11267,7 +11192,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="140" name="Entrada de lápiz 139">
@@ -11312,8 +11237,8 @@
       <xdr:row>104</xdr:row>
       <xdr:rowOff>164432</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId202">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="141" name="Entrada de lápiz 140">
@@ -11332,7 +11257,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="141" name="Entrada de lápiz 140">
@@ -11377,8 +11302,8 @@
       <xdr:row>98</xdr:row>
       <xdr:rowOff>120175</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId204">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="147" name="Entrada de lápiz 146">
@@ -11397,7 +11322,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="147" name="Entrada de lápiz 146">
@@ -11442,8 +11367,8 @@
       <xdr:row>124</xdr:row>
       <xdr:rowOff>76742</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId206">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="164" name="Entrada de lápiz 163">
@@ -11462,7 +11387,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="164" name="Entrada de lápiz 163">
@@ -11507,8 +11432,8 @@
       <xdr:row>119</xdr:row>
       <xdr:rowOff>35555</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId208">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="171" name="Entrada de lápiz 170">
@@ -11527,7 +11452,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="171" name="Entrada de lápiz 170">
@@ -11572,8 +11497,8 @@
       <xdr:row>119</xdr:row>
       <xdr:rowOff>176046</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId210">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="195" name="Entrada de lápiz 194">
@@ -11592,7 +11517,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="195" name="Entrada de lápiz 194">
@@ -11778,8 +11703,8 @@
       <xdr:row>131</xdr:row>
       <xdr:rowOff>139049</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId212">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="196" name="Entrada de lápiz 195">
@@ -11798,7 +11723,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="196" name="Entrada de lápiz 195">
@@ -11843,8 +11768,8 @@
       <xdr:row>129</xdr:row>
       <xdr:rowOff>102054</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId214">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="201" name="Entrada de lápiz 200">
@@ -11863,7 +11788,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="201" name="Entrada de lápiz 200">
@@ -12375,8 +12300,8 @@
       <xdr:row>190</xdr:row>
       <xdr:rowOff>30442</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId217">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="206" name="Entrada de lápiz 205">
@@ -12395,7 +12320,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="206" name="Entrada de lápiz 205">
@@ -13429,8 +13354,8 @@
       <xdr:row>207</xdr:row>
       <xdr:rowOff>116345</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId219">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="233" name="Entrada de lápiz 232">
@@ -13449,7 +13374,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="233" name="Entrada de lápiz 232">
@@ -13494,8 +13419,8 @@
       <xdr:row>214</xdr:row>
       <xdr:rowOff>131899</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId221">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="237" name="Entrada de lápiz 236">
@@ -13514,7 +13439,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="237" name="Entrada de lápiz 236">
@@ -15600,8 +15525,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>131885</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="83" name="Entrada de lápiz 82">
@@ -15620,7 +15545,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="83" name="Entrada de lápiz 82">
@@ -15665,8 +15590,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>116363</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="84" name="Entrada de lápiz 83">
@@ -15685,7 +15610,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="84" name="Entrada de lápiz 83">
@@ -15730,8 +15655,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>169600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="87" name="Entrada de lápiz 86">
@@ -15750,7 +15675,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="87" name="Entrada de lápiz 86">
@@ -15795,8 +15720,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>113610</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="102" name="Entrada de lápiz 101">
@@ -15815,7 +15740,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="102" name="Entrada de lápiz 101">
@@ -15860,8 +15785,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>136968</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="103" name="Entrada de lápiz 102">
@@ -15880,7 +15805,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="103" name="Entrada de lápiz 102">
@@ -16005,10 +15930,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>73248</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>29577</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>701898</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>105777</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5751163" cy="5343029"/>
     <xdr:pic>
@@ -16039,7 +15964,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14551248" y="8983077"/>
+          <a:off x="9845898" y="7525752"/>
           <a:ext cx="5751163" cy="5343029"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16062,15 +15987,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>120945</xdr:rowOff>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>178095</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>55401</xdr:rowOff>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>112551</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16093,8 +16018,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9058275" y="8883945"/>
-          <a:ext cx="4967287" cy="5077956"/>
+          <a:off x="9039225" y="5426370"/>
+          <a:ext cx="4967287" cy="4820781"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16483,8 +16408,8 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>49140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="17" name="Entrada de lápiz 16">
@@ -16503,7 +16428,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="17" name="Entrada de lápiz 16">
@@ -16601,8 +16526,8 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>26070</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="24" name="Entrada de lápiz 23">
@@ -16621,7 +16546,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="24" name="Entrada de lápiz 23">
@@ -16927,8 +16852,8 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>170895</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="71" name="Entrada de lápiz 70">
@@ -16947,7 +16872,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="71" name="Entrada de lápiz 70">
@@ -16987,13 +16912,13 @@
       <xdr:rowOff>77550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>517560</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>159015</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="72" name="Entrada de lápiz 71">
@@ -17012,7 +16937,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="72" name="Entrada de lápiz 71">
@@ -17057,8 +16982,8 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>149775</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="110" name="Entrada de lápiz 109">
@@ -17077,7 +17002,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="110" name="Entrada de lápiz 109">
@@ -17117,13 +17042,13 @@
       <xdr:rowOff>85380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>690000</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>129975</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="125" name="Entrada de lápiz 124">
@@ -17142,7 +17067,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="125" name="Entrada de lápiz 124">
@@ -17182,13 +17107,13 @@
       <xdr:rowOff>91740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>303480</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>108720</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>125790</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="127" name="Entrada de lápiz 126">
@@ -17207,7 +17132,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="127" name="Entrada de lápiz 126">
@@ -18752,16 +18677,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>646832</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:colOff>456332</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18776,8 +18701,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9210675" y="4014788"/>
-          <a:ext cx="1342157" cy="1390650"/>
+          <a:off x="9020175" y="1681163"/>
+          <a:ext cx="1342157" cy="1323975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18839,6 +18764,142 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>614363</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>376238</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="Rectángulo 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2681061-A317-41E7-A705-9D7706D7D9B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10520363" y="1104900"/>
+          <a:ext cx="7381875" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>TAREA TERMINAR</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FD20CD7-F72B-46A7-ABF2-82E99AE7FB4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4586287" y="1276350"/>
+          <a:ext cx="7381875" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>TAREA : 1 punto + para la</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
+            <a:t> PC1</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18870,14 +18931,14 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">316 122 6448 0 0,'0'-9'669'0'0,"-4"-9"-451"0"0,3 12 805 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-7-11 1425 0 0,9 18-2424 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-2 0 0 0,0 1 0 0 0,0 3 0 0 0,13 207 51 0 0,16-1 350 0 0,-17-126-472 0 0,-7-60-7 0 0,1 1-1 0 0,1-1 1 0 0,1-1 0 0 0,16 38 0 0 0,-11-31 40 0 0,-3-7 14 0 0,2 0 0 0 0,22 33 0 0 0,-22-38 0 0 0,6 8 152 0 0,24 28 0 0 0,-29-39-96 0 0,18 16 87 0 0,-1-3-89 0 0,-25-24-52 0 0,-1-1 1 0 0,1 1-1 0 0,-1-2 1 0 0,2 1-1 0 0,-2-1 1 0 0,2 0 0 0 0,6 3-1 0 0,-9-4 21 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,7-2 1 0 0,-8 1-3 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-2 0 0 0 0,1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-5 0 0 0,9-33 316 0 0,-7 27-249 0 0,4-29-104 0 0,0-41-1 0 0,0 3-669 0 0,-5 66 40 0 0,-1-25 0 0 0,0-5-1125 0 0,1-17 248 0 0,-1 4-11 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="400.3">801 110 11024 0 0,'0'0'248'0'0,"-4"8"338"0"0,3-1-537 0 0,1 2 1 0 0,0-1-1 0 0,0-1 0 0 0,0 2 0 0 0,1-2 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,4 10 1 0 0,6 27 103 0 0,10 76 120 0 0,12 75-241 0 0,-18-121-177 0 0,1 5-103 0 0,-14-58 184 0 0,1 0 0 0 0,9 29 0 0 0,-9-39 64 0 0,4 11 0 0 0,-3-12 46 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="779.74">821 385 2760 0 0,'-5'-31'-486'0'0,"-6"-61"5006"0"0,10 81-4005 0 0,1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 2 0 0 0,1-2-1 0 0,3-17 1 0 0,0 12-175 0 0,-3 9-184 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 2-1 0 0,2-1 1 0 0,6-9 0 0 0,-8 14-146 0 0,2-6 37 0 0,2 1 1 0 0,-1 1-1 0 0,2-1 1 0 0,-2 1-1 0 0,2 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 2-1 0 0,9-4 1 0 0,-10 5-12 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-2 0-1 0 0,2 1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-2 0 1 0 0,2 0-1 0 0,-1 1 1 0 0,0 0 0 0 0,-1 1-1 0 0,2-1 1 0 0,-2 1-1 0 0,1 1 1 0 0,5 4 0 0 0,7 8 16 0 0,-1 0 1 0 0,-1 1 0 0 0,0 1-1 0 0,-2 0 1 0 0,17 27 0 0 0,-28-40-55 0 0,0 0 0 0 0,1-1 0 0 0,-1 2 0 0 0,-1-2 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 2 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2 8 0 0 0,0 5 0 0 0,0 1 0 0 0,-10 29 0 0 0,6-30 0 0 0,-1 1 0 0 0,0-1 0 0 0,-13 21 0 0 0,16-31 0 0 0,-2 2-1 0 0,-1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-2-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-11 4 0 0 0,9-3-116 0 0,5-5-82 0 0,0-1 0 0 0,0 2 0 0 0,-1-2 0 0 0,2 0 0 0 0,-2 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-2 0 0 0,-10 2 0 0 0,8-3-486 0 0,2 0-3 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1212.01">1384 104 11544 0 0,'0'0'1046'0'0,"-3"-18"-60"0"0,3 17-982 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-2 1 0 0,0 2 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,-1-1 0 0 0,1 1-39 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 27 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 3 1 0 0,-7 7-7 0 0,5-6 16 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,2-1 0 0 0,-1 0 0 0 0,-2 11 0 0 0,-7 17 104 0 0,2-9-3 0 0,1 0 1 0 0,1 1 0 0 0,2-1-1 0 0,-1 0 1 0 0,3 2-1 0 0,-3 29 1 0 0,3-25-106 0 0,1-15 0 0 0,0 29 0 0 0,1 4 0 0 0,0-39 0 0 0,1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,4 14 0 0 0,0-9-4 0 0,0-1 0 0 0,2-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,1-1-1 0 0,13 20 1 0 0,-15-27 59 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,2-1 1 0 0,-1 2 0 0 0,0-3 0 0 0,1 1-1 0 0,0-1 1 0 0,9 2 0 0 0,8 1 205 0 0,-1-2 0 0 0,2-1 1 0 0,-2-1-1 0 0,36-4 1 0 0,77-13-1159 0 0,-120 15-482 0 0,-3 0-3588 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2582.03">123 1411 12440 0 0,'0'0'957'0'0,"1"-1"-490"0"0,2-1-177 0 0,0 0 0 0 0,-2 0 1 0 0,2-1-1 0 0,0 1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,4-1 1 0 0,39-4 561 0 0,-16 3-682 0 0,94-11 26 0 0,278-19-196 0 0,-233 21 162 0 0,146-5 396 0 0,225-19-246 0 0,-540 36-312 0 0,36-3-3 0 0,127-9 70 0 0,104-20 115 0 0,-225 24-172 0 0,48-20 1 0 0,-90 28-3 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-10-11 74 0 0,-17 0-79 0 0,-18 2 66 0 0,-86-2 0 0 0,91 10-68 0 0,-42 2 0 0 0,-104 7-82 0 0,-47 6 2 0 0,-49-2-210 0 0,100-7 294 0 0,-32 2-4 0 0,-15 4 0 0 0,-86 7-13 0 0,255-14-70 0 0,-74 2-29 0 0,89-9-96 0 0,44 3 144 0 0,4 0-144 0 0,279-7-176 0 0,-71 6 369 0 0,-18 2-54 0 0,56-6 12 0 0,-156 6 54 0 0,146 8-5 0 0,-4 0 166 0 0,157-3 36 0 0,-386-6-193 0 0,199-6 134 0 0,-173 4-97 0 0,-8 1 17 0 0,0-1 0 0 0,32-7 0 0 0,-45 3-21 0 0,3 1 297 0 0,-32-2-139 0 0,-20-1-165 0 0,0 2-1 0 0,1 3 1 0 0,-40 1-1 0 0,-114 14 70 0 0,81-2-176 0 0,-251 25-18 0 0,-392 26 18 0 0,541-49 91 0 0,33-1 42 0 0,44-6 0 0 0,-52 2-42 0 0,79 1-91 0 0,227-4-174 0 0,-44-3 144 0 0,-38 0-1078 0 0,-1 0-3447 0 0,-8-1-1289 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5745.22">618 175 2304 0 0,'-2'-12'10806'0'0,"4"16"-10704"0"0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 6 0 0 0,5 20 122 0 0,12 50 32 0 0,2 14-38 0 0,-15-61-167 0 0,-5-26-30 0 0,0 2 0 0 0,5 13 0 0 0,10 43 55 0 0,1-15 18 0 0,13 43 80 0 0,-24-73-113 0 0,-5-16-22 0 0,0-2-1 0 0,1 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1 8 0 0 0,0-8 60 0 0,2 2-30 0 0,-2-5-69 0 0,-1 2 0 0 0,1-1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 2-1 0 0,1 2 23 0 0,1-3-14 0 0,0 10 73 0 0,-1-11 153 0 0,0-11-101 0 0,-7-58 3 0 0,3 30 4 0 0,1 18-102 0 0,1 6 6 0 0,-1 0-1 0 0,-4-13 0 0 0,-1-9-18 0 0,2 4 19 0 0,4 19-27 0 0,0 1 0 0 0,0-1 1 0 0,-2 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-6-13 0 0 0,-15-24 59 0 0,21 36-13 0 0,-1 5-66 0 0,1 4 17 0 0,5 4-11 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1 7 40 0 0,-1-8-51 0 0,4 24-28 0 0,11 28 0 0 0,0 11 36 0 0,-6-20 0 0 0,-6-34 0 0 0,1 2 0 0 0,-1-1 0 0 0,2 17 0 0 0,-4-23 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,2 5 0 0 0,-3-6-19 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 2 0 0 0,0-2 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 7 0 0 0,-1-8 1 0 0,0 7 32 0 0,0 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 2-1 0 0,2 7 1 0 0,2-9-5 0 0,-5-8-11 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 2 0 0 0,-5 26 58 0 0,-2-1 17 0 0,-5 13 53 0 0,11-34-105 0 0,0-4-14 0 0,1 2 1 0 0,0-2-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,0 3 0 0 0,-1-4 2 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 3 1 0 0,-16 24 247 0 0,11-17-535 0 0,-12 27 487 0 0,6-21-412 0 0,12-16 202 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-6 2 17 0 0,5-1 18 0 0,0 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-5 1 1 0 0,4-1-34 0 0,-2-1 1 0 0,1 1-1 0 0,1-1 0 0 0,-2 0 0 0 0,-4-2 0 0 0,-6 1-2 0 0,12 2 0 0 0,0-2 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-3-2 0 0 0,-4 0 0 0 0,10 2 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-14-9 0 0 0,13 8 8 0 0,-1 1 1 0 0,2-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,2 1 0 0 0,-2-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1-4 0 0 0,2 4 13 0 0,-1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,-4-3-1 0 0,0 0 0 0 0,6 6-19 0 0,-1 0 0 0 0,1-2-1 0 0,0 2 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1-1 0 0 0,-16-31 73 0 0,13 13 82 0 0,3 17-136 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-3 0 0 0,-1 0 2 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-7 0 0 0,-2-13 15 0 0,2 25-35 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-2 1 0 0,1 2-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,0-2 0 0 0,-1 2 2 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1-2-1 0 0,-2-9-2 0 0,0 0-1 0 0,0 1 0 0 0,2-1 0 0 0,-2-13 0 0 0,-2-14 77 0 0,-4 8-23 0 0,6 25-50 0 0,2 0 0 0 0,-1 0-1 0 0,-3-12 1 0 0,2-12-3 0 0,3 24 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 2 0 0 0,-4-11 0 0 0,-5-31-70 0 0,-1 3-25 0 0,9 33 125 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-10-20 0 0 0,-4-11-30 0 0,7 14 0 0 0,8 21 0 0 0,-1-2 0 0 0,-6-12 0 0 0,7 17 0 0 0,1 3 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,-3-33 72 0 0,3 32-56 0 0,0 3-19 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,3 2-4 0 0,1 9 3 0 0,-3-6 4 0 0,2 3 0 0 0,2 2 0 0 0,-2 1 0 0 0,0 1 0 0 0,4 21 0 0 0,-1 35 0 0 0,-3 73 0 0 0,-3-128 0 0 0,2 9 0 0 0,-1-18 0 0 0,-1 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 7 0 0 0,-1-5 0 0 0,1 1 0 0 0,0 0 0 0 0,2 9 0 0 0,-1 9 0 0 0,3-2 0 0 0,-3-18 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 8 0 0 0,8 44 0 0 0,-8-55 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 2 0 0 0,0-2 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 2 0 0 0,1 0 0 0 0,3 10 0 0 0,6 57 0 0 0,-9-63 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-2 0 0 0,-1 2 0 0 0,2-2 0 0 0,5 8 0 0 0,7 19 104 0 0,-1-6 118 0 0,-1 2 164 0 0,-7-15-274 0 0,-7-12-107 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,4 2-1 0 0,3 4-5 0 0,-7-7 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,4 4 0 0 0,-4-3 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,2-1 0 0 0,36 3 0 0 0,-15 0 0 0 0,-20-3 0 0 0,-3 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,2-1-1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-2 0 0 0 0,1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,-1-2 0 0 0,3-2-1 0 0,-2 2 5 0 0,-1 0-1 0 0,0-1 0 0 0,0 2 1 0 0,0-1-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-6 1 0 0,1-15-36 0 0,1 9 85 0 0,-2 1 1 0 0,1-1-1 0 0,-2 0 0 0 0,-2-16 0 0 0,3 24-67 0 0,-2 1-1 0 0,0 0 0 0 0,-3-8 0 0 0,-2-15 7 0 0,6 26 24 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,2 1 1 0 0,-4-5-1 0 0,-4-13 43 0 0,-16-69-110 0 0,23 85 60 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 2 0 0 0,0-1 0 0 0,1-8 0 0 0,-1 6-7 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-2-9 0 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 2 0 0 0,3-20 0 0 0,-1 18-12 0 0,-2 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,-3-23 0 0 0,-2 17 13 0 0,5 20 0 0 0,1 1 0 0 0,-1-2 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-2 0 0 0,-1 4 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-2 0 0 0,0 2 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,-29-64-64 0 0,29 64 64 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1-3 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-2 1 0 0,0 2-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-2-2-9 0 0,1 3-48 0 0,3-1 0 0 0,4 0 32 0 0,-4 1-173 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 1 0 0 0,1 1-87 0 0,5 4-862 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8097.69">831 235 3680 0 0,'0'0'167'0'0,"0"-1"-7"0"0,0-4 80 0 0,-3-23 5847 0 0,3 27-5995 0 0,0-1-33 0 0,0-3 1913 0 0,7 9-444 0 0,-4 1-1335 0 0,0 2 1 0 0,-1-1 0 0 0,-1 2-1 0 0,1-2 1 0 0,2 13-1 0 0,3 40 634 0 0,-5-32-648 0 0,2 45 161 0 0,-2-8-187 0 0,1 42-87 0 0,1 4-2 0 0,-1-76-64 0 0,-3-20 0 0 0,1-2 0 0 0,1 1 0 0 0,0 0 0 0 0,4 14 0 0 0,1 4 376 0 0,-7-29 410 0 0,0-20-842 0 0,-4-7-23 0 0,4 16 99 0 0,-1 2 0 0 0,0-1 0 0 0,-3-12 0 0 0,2 11 14 0 0,-1-2 0 0 0,0-18-1 0 0,2 12-17 0 0,-1 2-16 0 0,0-1 0 0 0,-2 0 0 0 0,-7-27 0 0 0,7 26 30 0 0,-6-28-1 0 0,1 1-13 0 0,-1-13 48 0 0,5 38-12 0 0,1-1 1 0 0,1 1-1 0 0,-3-39 0 0 0,6 52-32 0 0,-1 1 0 0 0,1 1-1 0 0,0-2 1 0 0,-1 1 0 0 0,0 0-1 0 0,-3-7 1 0 0,3 9 46 0 0,8 91-84 0 0,-7-81 28 0 0,14 90-63 0 0,-4-20 41 0 0,-8-50 13 0 0,7 30-1 0 0,5 9 0 0 0,-8-22 0 0 0,-1-10 0 0 0,7 63 0 0 0,-5-45 0 0 0,-6-48 1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 6 0 0 0,-3 29 333 0 0,4-45-308 0 0,-1 2-1 0 0,1-1 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 2-1 0 0,-3-11 1 0 0,-4-18 7 0 0,-1-27 21 0 0,5 40-28 0 0,-2-25 1 0 0,0 0-16 0 0,3 33-11 0 0,2 0 0 0 0,-2-22-1 0 0,-3-66 1 0 0,2-2 0 0 0,4 67 0 0 0,-2 0 0 0 0,-6-37 0 0 0,7 56 0 0 0,0 0 0 0 0,0 0 0 0 0,3-18 0 0 0,-1-4 0 0 0,-3 24 1 0 0,1 12-5 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-3-1 0 0,1-3-3 0 0,-1 1-1 0 0,2 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 1-1 0 0,2-2 1 0 0,0 2-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 2-1 0 0,5-7 1 0 0,-2 4 11 0 0,-2 2-41 0 0,-1-2 34 0 0,1 3 0 0 0,-1-1 1 0 0,2 0-1 0 0,-2 0 0 0 0,8-3 0 0 0,-9 6 4 0 0,3 0-1 0 0,3 3 10 0 0,-8-1-5 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,2 2-1 0 0,6 2-6 0 0,37 21 1 0 0,-33-19 20 0 0,-1 0 0 0 0,29 7 0 0 0,-42-14-7 0 0,1 2 0 0 0,0-2 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-2 3 0 0 0,2-3-2 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 9 7 0 0,0-8-38 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 2 0 0 0,-1 16-60 0 0,-1-12 134 0 0,0 0 0 0 0,1-1-1 0 0,-1 2 1 0 0,1-2-1 0 0,1 1 1 0 0,1 11-1 0 0,-2 32 12 0 0,0-48-64 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 4 0 0 0,-2 14 0 0 0,4-19 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 2 0 0 0,0-2 0 0 0,-2 3 0 0 0,1-3 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 2 0 0 0,1-2 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,-5 14 0 0 0,6-13-4 0 0,0 0 0 0 0,-1 2 0 0 0,0-2 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,-3 4 0 0 0,3-2-75 0 0,-1 0 0 0 0,1-1 0 0 0,-4 10 0 0 0,7-14 78 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 2 0 0 0,1-1 6 0 0,0 0-1 0 0,1 0 1 0 0,-2 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-3 1 0 0 0,3-2-2 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 2 0 0 0,-1-1 0 0 0,0-1 0 0 0,2 1 0 0 0,-4 3 0 0 0,4-4 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 2 1 0 0,-1-2-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,-1-1-1 0 0,2 1 5 0 0,-8 2 48 0 0,3-1 23 0 0,3-1 9 0 0,2-1-58 0 0,-2 3 40 0 0,-11-2-88 0 0,12-1-42 0 0,2 0 0 0 0,4 0 48 0 0,-3 0 6 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 7 0 0,0-1 0 0 0,0 2 0 0 0,0-2 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-2 0 0 0,1 1-1 0 0,24-2 1 0 0,-20 3 0 0 0,-2 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,8-4 0 0 0,-4-2 2 0 0,-3 4 0 0 0,0-1-1 0 0,0 1 1 0 0,0-2 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,5-6-1 0 0,-8 8 30 0 0,0 1 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-2 1 0 0,5-1 0 0 0,-4 2-25 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,2-3 0 0 0,11-10-97 0 0,-14 14 100 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0-1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 2 0 0 0,-2-1 0 0 0,2 1 0 0 0,0-1 0 0 0,2-1 1 0 0,-2 0-10 0 0,0 2 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-2 1 1 0 0,4-5-1 0 0,0-4 1 0 0,-2 0 0 0 0,7-21 0 0 0,-9 26 0 0 0,0 2 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-10 0 0 0,-10-48 0 0 0,11 39 0 0 0,2 17 0 0 0,-3-7 7 0 0,3 14-5 0 0,-1-2 0 0 0,1 2 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-2 1 0 0,-1 2-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,0-3 1 0 0,0 3-9 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1-1 0 0 0,0 1-16 0 0,1 1 1 0 0,-1-2-1 0 0,1 1 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,1 0 0 0 0,-1-2 1 0 0,6-15-2121 0 0,-6 15 1218 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9449.33">1457 0 4144 0 0,'0'0'631'0'0,"-7"3"1840"0"0,-25 15 1038 0 0,-14 15-3885 0 0,31-22 850 0 0,0 1 452 0 0,-17 19 1 0 0,3-4 55 0 0,23-21-886 0 0,-1 1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-7 14 1 0 0,-21 49 221 0 0,28-55-246 0 0,-6 25 1 0 0,3-10-53 0 0,7-23 75 0 0,0 0-1 0 0,0-1 1 0 0,1 2 0 0 0,0-2 0 0 0,1 2-1 0 0,-1-1 1 0 0,2 0 0 0 0,-1 0 0 0 0,3 13-1 0 0,1 1 96 0 0,0 1 0 0 0,10 23 0 0 0,-9-22-94 0 0,-5-20-55 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1-1 0 0 0,1 7 0 0 0,11 17 205 0 0,-12-21-208 0 0,0-2 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,2-1 0 0 0,0-1 0 0 0,4 6-1 0 0,69 36 374 0 0,-73-42-400 0 0,1 0 0 0 0,-1 0 1 0 0,2 0-1 0 0,-2-1 0 0 0,1 0 0 0 0,7 0 0 0 0,16 4 95 0 0,-26-5-96 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,4 0-1 0 0,9-1 69 0 0,-5 1 2 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1-1 1 0 0,9-3 0 0 0,-19 6-79 0 0,30-7 69 0 0,-11 5-68 0 0,23-8 9 0 0,-35 10-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,12 2 0 0 0,-5-1 3 0 0,7 0 114 0 0,-23 1-45 0 0,-12 11-86 0 0,6-8 14 0 0,1-1 1 0 0,-1 1-1 0 0,0-2 0 0 0,0 0 0 0 0,1 0 0 0 0,-14 0 0 0 0,14-1-9 0 0,-38 4 31 0 0,-68 0 0 0 0,63-10-32 0 0,47 4 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,2-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-3-3 1 0 0,-6-5 49 0 0,8 7-44 0 0,2 1 0 0 0,-2 0 1 0 0,0-1-1 0 0,2-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,2-1 0 0 0,-2 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1-8 0 0 0,-2-7 19 0 0,1 1-1 0 0,-1-22 1 0 0,1 14-34 0 0,0-19 9 0 0,1 0 0 0 0,3-53 0 0 0,1 42 0 0 0,-3 21-42 0 0,1 25 37 0 0,1 0-1 0 0,0 1 1 0 0,2-20-1 0 0,-2 28-1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-3 1 0 0,-1-17-131 0 0,3 17 54 0 0,-1 0 0 0 0,1 0 0 0 0,-2-11 0 0 0,0-5-2014 0 0,1 15-3979 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">347 115 6448 0 0,'-1'-8'669'0'0,"-3"-9"-451"0"0,3 11 805 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-6-10 1425 0 0,9 17-2424 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 3 0 0 0,14 195 51 0 0,18-1 350 0 0,-19-119-472 0 0,-7-56-7 0 0,0 0-1 0 0,2 0 1 0 0,1-1 0 0 0,17 35 0 0 0,-12-29 40 0 0,-2-6 14 0 0,1 0 0 0 0,24 30 0 0 0,-24-35 0 0 0,7 8 152 0 0,26 26 0 0 0,-32-37-96 0 0,20 15 87 0 0,-1-3-89 0 0,-28-22-52 0 0,0-1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,7 2-1 0 0,-9-3 21 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,7-2 1 0 0,-9 1-3 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-4 0 0 0,8-32 316 0 0,-6 25-249 0 0,3-26-104 0 0,1-40-1 0 0,-1 4-669 0 0,-5 62 40 0 0,-1-24 0 0 0,0-5-1125 0 0,1-15 248 0 0,0 3-11 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="400.3">878 104 11024 0 0,'0'0'248'0'0,"-4"7"338"0"0,3 0-537 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,3 9 1 0 0,7 25 103 0 0,11 73 120 0 0,13 70-241 0 0,-19-115-177 0 0,0 6-103 0 0,-15-55 184 0 0,2 0 0 0 0,9 27 0 0 0,-10-37 64 0 0,5 11 0 0 0,-4-12 46 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="779.74">900 363 2760 0 0,'-5'-29'-486'0'0,"-7"-58"5006"0"0,11 77-4005 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,4-17 1 0 0,-1 12-175 0 0,-3 9-184 0 0,-1-1 1 0 0,1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,7-8 0 0 0,-9 13-146 0 0,3-5 37 0 0,1 0 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,11-4 1 0 0,-12 5-12 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,6 5 0 0 0,8 7 16 0 0,-2 0 1 0 0,0 1 0 0 0,-1 1-1 0 0,-1 0 1 0 0,17 26 0 0 0,-29-39-55 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2 7 0 0 0,0 5 0 0 0,-1 1 0 0 0,-10 27 0 0 0,7-28 0 0 0,-2 1 0 0 0,0-1 0 0 0,-13 20 0 0 0,16-30 0 0 0,-2 3-1 0 0,0-1 0 0 0,-1 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-12 5 0 0 0,10-4-116 0 0,6-4-82 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-12 2 0 0 0,10-3-486 0 0,1 0-3 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1212.01">1518 98 11544 0 0,'0'0'1046'0'0,"-4"-17"-60"0"0,4 16-982 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,-2-1 0 0 0,2 1-39 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-2 1 0 0 0,1 0 27 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,-1 3 1 0 0,-6 6-7 0 0,4-5 16 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-2 10 0 0 0,-9 16 104 0 0,3-9-3 0 0,2 1 1 0 0,0 0 0 0 0,2 0-1 0 0,0 0 1 0 0,2 1-1 0 0,-3 28 1 0 0,4-24-106 0 0,1-14 0 0 0,0 28 0 0 0,0 3 0 0 0,1-37 0 0 0,1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,5 14 0 0 0,-1-9-4 0 0,1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0-1-1 0 0,16 19 1 0 0,-18-25 59 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0-2 0 0 0,1 1-1 0 0,-1-1 1 0 0,11 2 0 0 0,8 0 205 0 0,0-1 0 0 0,1-1 1 0 0,-1-1-1 0 0,38-4 1 0 0,86-12-1159 0 0,-133 14-482 0 0,-2 0-3588 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2582.03">135 1331 12440 0 0,'0'0'957'0'0,"1"-1"-490"0"0,2-1-177 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,4-1 1 0 0,44-3 561 0 0,-18 2-682 0 0,103-10 26 0 0,305-19-196 0 0,-256 21 162 0 0,160-5 396 0 0,247-18-246 0 0,-592 34-312 0 0,40-3-3 0 0,139-8 70 0 0,114-19 115 0 0,-248 22-172 0 0,54-18 1 0 0,-99 26-3 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-11-10 74 0 0,-19-1-79 0 0,-19 3 66 0 0,-95-2 0 0 0,100 9-68 0 0,-46 2 0 0 0,-114 6-82 0 0,-51 6 2 0 0,-54-1-210 0 0,109-8 294 0 0,-34 3-4 0 0,-18 3 0 0 0,-93 7-13 0 0,279-13-70 0 0,-81 2-29 0 0,98-9-96 0 0,48 3 144 0 0,4 0-144 0 0,306-7-176 0 0,-77 6 369 0 0,-21 2-54 0 0,62-5 12 0 0,-171 5 54 0 0,160 7-5 0 0,-4 1 166 0 0,172-4 36 0 0,-423-5-193 0 0,217-5 134 0 0,-188 3-97 0 0,-10 1 17 0 0,0-1 0 0 0,35-7 0 0 0,-48 4-21 0 0,2 0 297 0 0,-35-2-139 0 0,-21 0-165 0 0,-1 1-1 0 0,1 3 1 0 0,-43 1-1 0 0,-126 14 70 0 0,90-3-176 0 0,-276 24-18 0 0,-430 25 18 0 0,594-47 91 0 0,35-1 42 0 0,50-5 0 0 0,-59 2-42 0 0,88 0-91 0 0,249-3-174 0 0,-49-3 144 0 0,-42 0-1078 0 0,0 0-3447 0 0,-10-1-1289 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5745.22">678 165 2304 0 0,'-3'-11'10806'0'0,"6"15"-10704"0"0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 7 0 0 0,6 18 122 0 0,13 47 32 0 0,2 14-38 0 0,-17-58-167 0 0,-4-24-30 0 0,-1 1 0 0 0,5 13 0 0 0,12 40 55 0 0,1-14 18 0 0,13 41 80 0 0,-25-69-113 0 0,-6-16-22 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,2 7 0 0 0,-1-7 60 0 0,2 2-30 0 0,-2-5-69 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 3 23 0 0,1-3-14 0 0,1 9 73 0 0,-2-10 153 0 0,0-10-101 0 0,-8-55 3 0 0,4 28 4 0 0,0 17-102 0 0,2 6 6 0 0,-1 0-1 0 0,-5-13 0 0 0,-1-8-18 0 0,3 4 19 0 0,4 18-27 0 0,-1 0 0 0 0,1 0 1 0 0,-2 1-1 0 0,1-1 0 0 0,-2 1 0 0 0,0 0 0 0 0,-7-13 0 0 0,-17-22 59 0 0,24 34-13 0 0,-2 4-66 0 0,1 4 17 0 0,6 4-11 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1 7 40 0 0,-1-8-51 0 0,5 22-28 0 0,11 27 0 0 0,0 11 36 0 0,-6-20 0 0 0,-6-31 0 0 0,0 1 0 0 0,-1 0 0 0 0,3 15 0 0 0,-5-21 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,3 4 0 0 0,-4-5-19 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 6 0 0 0,-1-7 1 0 0,0 6 32 0 0,0 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,3 7 1 0 0,1-8-5 0 0,-5-8-11 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,-5 26 58 0 0,-3-2 17 0 0,-5 13 53 0 0,12-32-105 0 0,0-4-14 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,0 4 0 0 0,-1-4 2 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,-1 3 1 0 0,-16 22 247 0 0,11-16-535 0 0,-13 26 487 0 0,7-20-412 0 0,13-15 202 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-6 2 17 0 0,4-1 18 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,-4 1 1 0 0,3-1-34 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,-5-2 0 0 0,-7 1-2 0 0,14 2 0 0 0,0-2 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-4-2 0 0 0,-4 0 0 0 0,11 2 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-16-8 0 0 0,15 7 8 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-5 0 0 0,1 4 13 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-4-3-1 0 0,-1 0 0 0 0,7 6-19 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1-1 0 0 0,-18-29 73 0 0,15 12 82 0 0,3 17-136 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,-1-2 0 0 0,0-1 2 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0-6 0 0 0,-2-13 15 0 0,2 24-35 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,0-2 0 0 0,-1 2 2 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1-2-1 0 0,-2-8-2 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-13 0 0 0,-2-12 77 0 0,-5 6-23 0 0,7 25-50 0 0,1-1 0 0 0,0 0-1 0 0,-3-11 1 0 0,2-11-3 0 0,3 22 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-4-10 0 0 0,-6-29-70 0 0,-1 2-25 0 0,10 32 125 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,-10-18 0 0 0,-4-11-30 0 0,7 14 0 0 0,8 19 0 0 0,0-1 0 0 0,-7-12 0 0 0,8 16 0 0 0,1 3 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,-4-31 72 0 0,4 30-56 0 0,0 3-19 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,3 2-4 0 0,1 8 3 0 0,-2-5 4 0 0,1 2 0 0 0,2 3 0 0 0,-1 0 0 0 0,-1 1 0 0 0,5 21 0 0 0,-2 32 0 0 0,-3 69 0 0 0,-3-121 0 0 0,3 9 0 0 0,-2-17 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 6 0 0 0,-1-4 0 0 0,1 0 0 0 0,0 1 0 0 0,2 8 0 0 0,-1 9 0 0 0,3-3 0 0 0,-2-16 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 9 0 0 0,9 40 0 0 0,-9-51 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,2 1 0 0 0,2 9 0 0 0,7 54 0 0 0,-10-59 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,6 7 0 0 0,8 18 104 0 0,-2-5 118 0 0,0 1 164 0 0,-8-14-274 0 0,-8-11-107 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,3 3-1 0 0,4 4-5 0 0,-8-7 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,5 4 0 0 0,-5-3 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,3 0 0 0 0,38 3 0 0 0,-15 0 0 0 0,-23-3 0 0 0,-3 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,2-1-1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2-3-1 0 0,-2 2 5 0 0,-1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-5 1 0 0,1-15-36 0 0,1 9 85 0 0,-2 1 1 0 0,1-1-1 0 0,-2 0 0 0 0,-2-16 0 0 0,2 24-67 0 0,-1 0-1 0 0,0 1 0 0 0,-3-8 0 0 0,-3-15 7 0 0,7 25 24 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-3-4-1 0 0,-5-13 43 0 0,-17-65-110 0 0,25 80 60 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-7 0 0 0,-1 5-7 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-2-8 0 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,3-18 0 0 0,-1 17-12 0 0,-2 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,-3-22 0 0 0,-3 16 13 0 0,6 19 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,-1 4 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,-31-60-64 0 0,31 60 64 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1-3 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-3-2-9 0 0,2 3-48 0 0,3-1 0 0 0,5 0 32 0 0,-5 1-173 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,2 1 0 0 0,0 1-87 0 0,6 3-862 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8097.69">911 222 3680 0 0,'0'0'167'0'0,"0"-1"-7"0"0,0-4 80 0 0,-3-21 5847 0 0,3 25-5995 0 0,0-1-33 0 0,0-3 1913 0 0,8 9-444 0 0,-5 1-1335 0 0,0 1 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,2 12-1 0 0,4 38 634 0 0,-6-31-648 0 0,2 43 161 0 0,-2-8-187 0 0,2 40-87 0 0,0 4-2 0 0,-1-72-64 0 0,-2-19 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,5 14 0 0 0,0 3 376 0 0,-7-27 410 0 0,0-19-842 0 0,-4-7-23 0 0,4 16 99 0 0,-1 1 0 0 0,0 0 0 0 0,-4-12 0 0 0,3 10 14 0 0,-1-1 0 0 0,0-17-1 0 0,1 11-17 0 0,0 1-16 0 0,0 0 0 0 0,-2 0 0 0 0,-8-25 0 0 0,7 24 30 0 0,-6-27-1 0 0,1 2-13 0 0,-1-13 48 0 0,6 36-12 0 0,0-1 1 0 0,2 1-1 0 0,-3-37 0 0 0,6 50-32 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-3-6 1 0 0,3 8 46 0 0,8 86-84 0 0,-6-76 28 0 0,14 84-63 0 0,-4-18 41 0 0,-9-48 13 0 0,8 29-1 0 0,5 8 0 0 0,-8-20 0 0 0,-2-10 0 0 0,9 59 0 0 0,-7-42 0 0 0,-6-45 1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 5 0 0 0,-3 28 333 0 0,4-42-308 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,-4-10 1 0 0,-4-17 7 0 0,-1-26 21 0 0,6 38-28 0 0,-2-23 1 0 0,-1-1-16 0 0,4 32-11 0 0,1 0 0 0 0,-1-21-1 0 0,-3-63 1 0 0,1-1 0 0 0,5 63 0 0 0,-2 0 0 0 0,-7-35 0 0 0,8 53 0 0 0,0 0 0 0 0,0 0 0 0 0,3-17 0 0 0,-1-4 0 0 0,-3 23 1 0 0,1 11-5 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-3-1 0 0,1-2-3 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,6-6 1 0 0,-2 3 11 0 0,-3 2-41 0 0,0-1 34 0 0,0 2 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,8-4 0 0 0,-10 6 4 0 0,4 0-1 0 0,2 3 10 0 0,-7-1-5 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,2 2-1 0 0,7 2-6 0 0,41 19 1 0 0,-37-17 20 0 0,0-1 0 0 0,30 8 0 0 0,-44-14-7 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-2 3 0 0 0,2-3-2 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 8 7 0 0,0-7-38 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 2 0 0 0,-1 15-60 0 0,-1-11 134 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,1 1 1 0 0,1 10-1 0 0,-2 30 12 0 0,0-45-64 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 3 0 0 0,-2 14 0 0 0,4-18 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-2 3 0 0 0,1-3 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 3 0 0 0,1-2 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,-6 13 0 0 0,7-12-4 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-3 4 0 0 0,2-3-75 0 0,0 1 0 0 0,1-1 0 0 0,-5 9 0 0 0,8-13 78 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-2 0 0 0 0,2-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 2 0 0 0,1-1 6 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-3 1 0 0 0,2-2-2 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-3 3 0 0 0,4-4 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,-1-1-1 0 0,2 1 5 0 0,-8 2 48 0 0,2-1 23 0 0,4-1 9 0 0,2-1-58 0 0,-2 3 40 0 0,-13-2-88 0 0,14-1-42 0 0,2 0 0 0 0,5 0 48 0 0,-4 0 6 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,1 0-1 0 0,-2 0 7 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0-1 0 0,27-2 1 0 0,-23 3 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,9-4 0 0 0,-4-1 2 0 0,-3 3 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,5-5-1 0 0,-9 7 30 0 0,0 1 0 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,6-2 0 0 0,-5 2-25 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,2-2 0 0 0,13-10-97 0 0,-16 13 100 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1-2-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,3-1 1 0 0,-3 1-10 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,3-5-1 0 0,0-3 1 0 0,-1 0 0 0 0,7-21 0 0 0,-10 26 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-3-9 0 0 0,-12-45 0 0 0,13 36 0 0 0,2 17 0 0 0,-3-8 7 0 0,3 14-5 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,0-3 1 0 0,0 3-9 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1-1 0 0 0,0 1-16 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,1 0 0 0 0,-1-2 1 0 0,6-13-2121 0 0,-6 13 1218 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9449.33">1598 0 4144 0 0,'0'0'631'0'0,"-8"3"1840"0"0,-27 14 1038 0 0,-16 14-3885 0 0,35-21 850 0 0,-1 2 452 0 0,-18 17 1 0 0,4-4 55 0 0,24-19-886 0 0,-1 1 0 0 0,2 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-9 14 1 0 0,-22 46 221 0 0,30-52-246 0 0,-6 24 1 0 0,3-10-53 0 0,8-21 75 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,2-1 0 0 0,-1 1 0 0 0,3 12-1 0 0,1 1 96 0 0,1 0 0 0 0,10 23 0 0 0,-9-22-94 0 0,-6-18-55 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,2 6 0 0 0,11 17 205 0 0,-13-21-208 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,0-1 0 0 0,5 5-1 0 0,75 35 374 0 0,-79-40-400 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,8 0 0 0 0,18 4 95 0 0,-29-5-96 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,3 0-1 0 0,10-1 69 0 0,-5 1 2 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-2 1 0 0,10-3 0 0 0,-21 6-79 0 0,33-6 69 0 0,-12 4-68 0 0,25-7 9 0 0,-39 9-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,14 2 0 0 0,-5-1 3 0 0,7 0 114 0 0,-26 1-45 0 0,-12 10-86 0 0,6-7 14 0 0,1-1 1 0 0,0 0-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-14 0 0 0 0,14-1-9 0 0,-42 4 31 0 0,-73-1 0 0 0,68-8-32 0 0,52 3 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-4-4 1 0 0,-6-4 49 0 0,9 6-44 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-2-7 0 0 0,-1-7 19 0 0,1 1-1 0 0,-2-20 1 0 0,2 12-34 0 0,-1-17 9 0 0,2-1 0 0 0,3-49 0 0 0,1 39 0 0 0,-3 20-42 0 0,1 24 37 0 0,1 0-1 0 0,0 0 1 0 0,2-18-1 0 0,-2 26-1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-3 1 0 0,-1-16-131 0 0,3 17 54 0 0,-1-1 0 0 0,1 0 0 0 0,-2-10 0 0 0,0-4-2014 0 0,1 13-3979 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18909,22 +18970,22 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32 0 13824 0 0,'0'2'167'0'0,"0"0"1"0"0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-2 3-1 0 0,-6 16 1198 0 0,5 5 427 0 0,1-1 0 0 0,1 45-1 0 0,0 4-427 0 0,-1-26-910 0 0,3 2 1 0 0,6 57 0 0 0,6 107-10 0 0,13 13 404 0 0,4-58-328 0 0,-3-17-303 0 0,-11-27-156 0 0,37 419 249 0 0,-28-178-527 0 0,-23-348-198 0 0,4 47-860 0 0,-4-58-93 0 0,0 1 0 0 0,1-1 0 0 0,4 12 0 0 0,-3-10-6140 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2389.93">988 1154 11976 0 0,'0'0'546'0'0,"0"-2"-10"0"0,0 1-461 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,-5-10 8175 0 0,5 13-7265 0 0,-1 4-918 0 0,1 0 0 0 0,-1 0 0 0 0,2 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 9 0 0 0,0-7 153 0 0,0 2 0 0 0,-1-2 0 0 0,-2 10 1 0 0,-9 59 904 0 0,6-33-1130 0 0,-6 75 6 0 0,-1 1 0 0 0,1-18 0 0 0,11-77 0 0 0,1-20 0 0 0,0-2 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-2 5 0 0 0,-1 8 0 0 0,4-18-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 2 0 0 0,-1-2 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0-25 0 0,-1 0-311 0 0,4-9-1088 0 0,-1 0 1398 0 0,0-2 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-18 1 0 0,-1-55 19 0 0,8-132 7 0 0,-7 168 0 0 0,-2 32 0 0 0,-1 1 0 0 0,7-27 0 0 0,-5 29 0 0 0,0 1 0 0 0,0-19 0 0 0,-2 19 0 0 0,1 0 0 0 0,3-16 0 0 0,-2 20 0 0 0,0 1 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-2-1 0 0 0,2 1 0 0 0,0 1 0 0 0,1 0 0 0 0,4-7 0 0 0,-7 12 34 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,3 1 0 0 0,4 3 226 0 0,0 2 1 0 0,0-1-1 0 0,10 10 1 0 0,-17-13-254 0 0,15 14 143 0 0,0 1-1 0 0,-3 1 1 0 0,1 0-1 0 0,-1 1 1 0 0,-2 1-1 0 0,13 27 1 0 0,87 243 153 0 0,-105-268-301 0 0,21 44-626 0 0,-18-48 220 0 0,-7-17 215 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 5 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2776.41">785 1552 12440 0 0,'-1'3'103'0'0,"1"0"0"0"0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,1 5 0 0 0,-2-7 86 0 0,1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 2-1 0 0,1-2 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,2 1 0 0 0,15 1 901 0 0,-2 0 0 0 0,26-3 1 0 0,-17 1-282 0 0,-16-1-455 0 0,-1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,0-1 0 0 0,0-1 0 0 0,15-6 0 0 0,1-2 114 0 0,19-8-2147 0 0,55-33 0 0 0,-23 1-2136 0 0,-35 26 1865 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3214.77">1401 1132 16783 0 0,'-1'2'147'0'0,"0"2"-1"0"0,1-2 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 4 0 0 0,1 10 827 0 0,7 124 4323 0 0,-8-123-5142 0 0,1-1 0 0 0,1 1 0 0 0,6 21 0 0 0,-3-11-154 0 0,-2-9 0 0 0,-1 0 0 0 0,2 0 0 0 0,1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,12 22 0 0 0,-8-21 0 0 0,-7-12 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,8 9 0 0 0,-6-9-13 0 0,0 0 0 0 0,1 1 0 0 0,-2-2 0 0 0,2 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,0-2 1 0 0,0 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,10 1 0 0 0,-15-1-60 0 0,0 0 0 0 0,1-1 1 0 0,-2 1-1 0 0,1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-2-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,4-4 1 0 0,-4 3-16 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,4-10 0 0 0,0-4-145 0 0,-2 1 0 0 0,1-1 0 0 0,6-35 0 0 0,-10 47 171 0 0,9-77-645 0 0,-8 42 384 0 0,2-11 1193 0 0,-2-55 1 0 0,-3 105 225 0 0,-1 3-1041 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 3-1 0 0,-1-2-4 0 0,0 4-50 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,4 7 0 0 0,5 11 6 0 0,1-1 1 0 0,13 21 0 0 0,-7-13 50 0 0,-12-21-26 0 0,0-1 0 0 0,2 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,1 0 0 0 0,9 9 0 0 0,-11-13-48 0 0,-1 0 0 0 0,1-1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-2 0 0 0,-1 1 0 0 0,9 1 1 0 0,-13-3 9 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-2-1 0 0 0,1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,2-2 0 0 0,-1 2 12 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,2-6 0 0 0,1-7 90 0 0,-2 2-1 0 0,0-2 1 0 0,0 0-1 0 0,-2-22 1 0 0,0 36-73 0 0,0-7-25 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-2-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,-1-2 0 0 0,-1 2 0 0 0,0-1 0 0 0,0 1 0 0 0,-8-9 0 0 0,11 16-23 0 0,1 0 0 0 0,-1-1-1 0 0,2 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-4 0 0 0,1 5-126 0 0,1-4-1110 0 0,0-8-5352 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3764.7">2187 1167 19351 0 0,'0'0'439'0'0,"0"2"62"0"0,15 35 600 0 0,-10-26-1075 0 0,-1-2 1 0 0,4 16-1 0 0,-1 0 174 0 0,-5-19 120 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 10 1 0 0,0 15 674 0 0,-1-26-780 0 0,0 0 0 0 0,-1 1-1 0 0,0 0 1 0 0,-1 13 0 0 0,1-12-133 0 0,-1 1 0 0 0,1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,3 15 0 0 0,1 15-110 0 0,0 6-137 0 0,-4-31 83 0 0,0 0-1 0 0,0-1 1 0 0,-2 26 0 0 0,1-33 82 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,2 4 0 0 0,-1 3 0 0 0,0-7 0 0 0,-2-5 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-4 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-2-9 0 0 0,-3-7 0 0 0,-12-95-496 0 0,-19-21 187 0 0,25 89 297 0 0,8 28 16 0 0,-1 1 0 0 0,-9-25 0 0 0,12 39 265 0 0,7 16-5 0 0,6 8-66 0 0,2 1 0 0 0,1-2 0 0 0,18 24 0 0 0,-24-35-254 0 0,0 0 0 0 0,1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,1 0 0 0 0,12 4 0 0 0,-15-8 56 0 0,1 1 0 0 0,-1-2 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,11-2 0 0 0,-4 1 0 0 0,-12 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,6-4 0 0 0,-4 3 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-2 0 0 0,-1 2 0 0 0,1-8 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,0-2 0 0 0,-1 0 0 0 0,0 2 0 0 0,-2-16 0 0 0,1 17 0 0 0,0-9 0 0 0,-4-1 0 0 0,0 3 0 0 0,4 17 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 12 0 0 0,1-12 0 0 0,6 80 0 0 0,-4-65 0 0 0,2 20 0 0 0,3 1 0 0 0,15 57 0 0 0,-17-76-45 0 0,0-2-1 0 0,1 1 0 0 0,9 16 0 0 0,6-3-2771 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4337.91">2914 1137 21191 0 0,'0'0'480'0'0,"-2"7"646"0"0,-10 113 1036 0 0,10-84-1618 0 0,2-2-1 0 0,2 2 1 0 0,10 59 0 0 0,-2-13-63 0 0,-9-41-475 0 0,-1-15-50 0 0,0-25-162 0 0,-1-2-406 0 0,-7-18 390 0 0,0-1-1 0 0,2 0 1 0 0,0 0 0 0 0,-2-23-1 0 0,-15-69 223 0 0,9 2 0 0 0,12 99 0 0 0,1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-2 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,5-15 0 0 0,-7 26 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,2 3 0 0 0,23 33 0 0 0,-26-36 0 0 0,137 224 1184 0 0,-125-208-1371 0 0,23 26-1 0 0,-31-39 25 0 0,-3-2 85 0 0,1-1 0 0 0,0 2 0 0 0,0-2 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,7 3 0 0 0,-9-4 92 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-2 0 1 0 0,2 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 0 1 0 0,3-2-1 0 0,-2 0 111 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0-1-1 0 0,2-4 1 0 0,-2-6-102 0 0,1 1-1 0 0,-2-1 1 0 0,0 2 0 0 0,-1-2 0 0 0,-1 1 0 0 0,0-1-1 0 0,-1 2 1 0 0,0-2 0 0 0,-1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,-7-17 1 0 0,4 14-22 0 0,3 7 0 0 0,0-1 0 0 0,-13-20 0 0 0,16 29-41 0 0,-6-7-637 0 0,1 0 0 0 0,1-2 0 0 0,-8-16 0 0 0,14 26 143 0 0,0 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-2 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4715.3">3407 981 9672 0 0,'1'7'206'0'0,"1"0"0"0"0,-1-1 0 0 0,1 0 0 0 0,5 11 0 0 0,-4-11-39 0 0,-1 1 0 0 0,1-1 0 0 0,-2 0 0 0 0,3 10 0 0 0,-2 3 3967 0 0,1 27 0 0 0,-1-12-876 0 0,2-1-3420 0 0,-2-23 402 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1-1-1 0 0,0 2 1 0 0,1-2 0 0 0,11 15 0 0 0,-3-3-223 0 0,-11-15-18 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,6 4 1 0 0,1 1 0 0 0,1-1 0 0 0,0-1 0 0 0,26 15 0 0 0,-33-21 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,10-3 0 0 0,-8 1 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-2 0 0 0,-1 1 0 0 0,1-1 0 0 0,0-1 0 0 0,0 2 0 0 0,-1-2 0 0 0,7-12 0 0 0,-7 10 0 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-2 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 0 0 0,0 1 0 0 0,0-12 0 0 0,-2 4 153 0 0,0 0 1 0 0,-1 0-1 0 0,-5-17 0 0 0,0 2 122 0 0,3 13-212 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-2 3 0 0 0,-16-33 0 0 0,19 41-27 0 0,0 0-1 0 0,0 1 0 0 0,-1 1 0 0 0,0-2 1 0 0,0 2-1 0 0,1 0 0 0 0,-2-1 1 0 0,0 2-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,-14-5 0 0 0,5 6-146 0 0,0 0-1 0 0,0 2 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 1 0 0,-27 9-1 0 0,23-5-646 0 0,-1 2 1 0 0,-27 15-1 0 0,-8 10-5021 0 0,35-15-2195 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-201002.16">4222 2367 9672 0 0,'0'0'748'0'0,"0"1"-492"0"0,-8 15 4397 0 0,4 3 1860 0 0,6-16-6210 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,3 3 0 0 0,-5-4-130 0 0,8 7 90 0 0,-1-1 0 0 0,-1 0-1 0 0,0 2 1 0 0,-1-1 0 0 0,0 2-1 0 0,0-2 1 0 0,0 2 0 0 0,-1-1-1 0 0,0 2 1 0 0,-1-1 0 0 0,2 14-1 0 0,17 60 59 0 0,53 177 1414 0 0,-41-170-1717 0 0,14 44 37 0 0,-29-71-8 0 0,2-3 0 0 0,57 111-1 0 0,-8-46-126 0 0,-63-113 63 0 0,1 0 0 0 0,1 1-1 0 0,17 21 1 0 0,-19-24 43 0 0,-7-11-142 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,2 2 0 0 0,-2-1-897 0 0,0-1 646 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,2 1 0 0 0,1-2-1169 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-198900.23">4750 3714 12032 0 0,'0'0'1090'0'0,"7"3"-791"0"0,24 30 658 0 0,-25-28-699 0 0,5 2 642 0 0,0 2 1 0 0,20 9-1 0 0,70 23 880 0 0,-68-30-1451 0 0,-28-9-292 0 0,27 11 249 0 0,41 8 0 0 0,75 25 458 0 0,-11-1-64 0 0,-110-39-559 0 0,334 76 813 0 0,144 11-354 0 0,1-22 67 0 0,-451-65-512 0 0,252 22 296 0 0,8-25-367 0 0,121-44 60 0 0,-399 35-112 0 0,183-39 60 0 0,77-47 83 0 0,-265 79-127 0 0,-1-2-1 0 0,-1 0 1 0 0,0-2-1 0 0,-1-2 1 0 0,0 0 0 0 0,34-34-1 0 0,-60 50-27 0 0,12-10 30 0 0,18-19 0 0 0,-29 27-18 0 0,0-2 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,3-9 1 0 0,0-3-3 0 0,-2-1-1 0 0,1 1 1 0 0,-2-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-2 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0-1 0 0,-5-24 1 0 0,4 29-10 0 0,-1 0 0 0 0,1 2 0 0 0,-2-2 0 0 0,0 1 0 0 0,0 1 0 0 0,-2-1 0 0 0,1 0 0 0 0,-1 2 0 0 0,0-1 0 0 0,-1 2 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-2 2 0 0 0,-15-11 0 0 0,-14-11 0 0 0,25 20 0 0 0,-25-17 0 0 0,-190-91-280 0 0,209 111 280 0 0,-26-7 0 0 0,18 7 0 0 0,-20-4 18 0 0,0 2 0 0 0,-75-5-1 0 0,41 5-18 0 0,-296-26-211 0 0,253 18 185 0 0,77 9 8 0 0,-54-1 1 0 0,-61 2-3 0 0,-92 1-22 0 0,-147 14 115 0 0,292-4-120 0 0,0 6 0 0 0,-164 35 0 0 0,262-41 48 0 0,0 0 0 0 0,0 2 0 0 0,2-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 1 0 0 0,-11 9 0 0 0,-14 9 0 0 0,-69 37 0 0 0,-43 9 0 0 0,114-57 0 0 0,-26 20 0 0 0,41-22 0 0 0,-34 14 0 0 0,-13 7 0 0 0,45-22 0 0 0,-36 14 0 0 0,5-4 44 0 0,-60 36 0 0 0,95-47-44 0 0,-23 19 0 0 0,-2 2 0 0 0,19-15-34 0 0,2-1 1 0 0,-1 3-1 0 0,2 1 0 0 0,-1 0 0 0 0,-17 24 1 0 0,10-10-1615 0 0,20-15 682 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-195251.92">6050 3326 10592 0 0,'0'0'2329'0'0,"-1"2"-996"0"0,-9 37 6023 0 0,5 25-3864 0 0,-2 3-3027 0 0,0 2-471 0 0,0 5 84 0 0,3-28 817 0 0,3-33-540 0 0,0 1 0 0 0,-4 13 0 0 0,2-5-347 0 0,0 24 0 0 0,9-72-207 0 0,-4 21 137 0 0,-1 0 0 0 0,0 1 0 0 0,0-2-1 0 0,0 1 1 0 0,0-8 0 0 0,0-10 41 0 0,6-32 0 0 0,-5 31 97 0 0,2-32 1 0 0,-3 39 109 0 0,4-26 1 0 0,-3 24-422 0 0,1-32 1 0 0,13 65 167 0 0,-13-9 70 0 0,1-1-1 0 0,-2 2 1 0 0,1-1 0 0 0,2 6-1 0 0,3 7 125 0 0,3 1 129 0 0,-2 0-183 0 0,1-1 1 0 0,18 24-1 0 0,-13-25-167 0 0,0 0-1 0 0,0-1 1 0 0,1-2 0 0 0,24 18-1 0 0,-16-11 3 0 0,-19-16 75 0 0,1 0 0 0 0,-1 0-1 0 0,7 4 1 0 0,-10-8 15 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 2 0 0 0,-1-2 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,3 0-1 0 0,-3-2 2 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,2-3 0 0 0,-2 2 19 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-2 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1-3-1 0 0,-1-13 61 0 0,1-6-13 0 0,-2 0 1 0 0,0-1-1 0 0,-10-36 0 0 0,8 44-55 0 0,2-2-155 0 0,3 18 72 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-3-6 1 0 0,4 8-573 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-194858.63">6424 3629 4144 0 0,'0'1'71'0'0,"-1"-1"1"0"0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,2 7 2220 0 0,0 5 1632 0 0,-2-9-3107 0 0,1 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,4 9 0 0 0,-2-8-480 0 0,0 0 0 0 0,1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-2-1-1 0 0,12 7 1 0 0,-3-3 363 0 0,0-1 0 0 0,25 10-1 0 0,-35-16-637 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2-2 0 0 0,4-1 165 0 0,-3 2-223 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-2 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-2-1 0 0,-2 1 1 0 0,2 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-2 1 0 0,1-7-1 0 0,-2 8 60 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,1 1 0 0 0,-2 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-6-4 0 0 0,5 4-22 0 0,0-1-1 0 0,0 2 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-9 1 0 0 0,9 0-63 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-5 6 0 0 0,-2 0-182 0 0,1-1-1606 0 0,3-1-3781 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-194184.06">6934 3368 9216 0 0,'0'0'2986'0'0,"0"8"1631"0"0,0 8-2469 0 0,-1 0-1 0 0,-5 24 0 0 0,-21 66-139 0 0,4-14-1324 0 0,15-54-554 0 0,4-12-48 0 0,-11 31 0 0 0,14-54-80 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1-1-1 0 0,0 1 1 0 0,1 6 0 0 0,-2 20 46 0 0,1-27 0 0 0,0 0 0 0 0,0 2-1 0 0,0-2 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,2 7 0 0 0,2 11-1609 0 0,-6-9-3288 0 0,5-23-392 0 0,2-4-1273 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-193795.81">6920 3340 15664 0 0,'0'0'356'0'0,"4"10"2096"0"0,7 16-595 0 0,8 21 231 0 0,-11-30-1533 0 0,0 1 0 0 0,4 19 0 0 0,-6-15 55 0 0,14 29-1 0 0,4 18-85 0 0,13 35-502 0 0,-32-87-120 0 0,0-1 0 0 0,3 22 0 0 0,-6-6-5761 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-193299.46">6692 3724 11976 0 0,'0'0'266'0'0,"0"0"-231"0"0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 2 1 0 0,0-2-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,5 1 63 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,8 3-1 0 0,-7-3 343 0 0,2 1 169 0 0,0 0 0 0 0,0-2 1 0 0,1 1-1 0 0,-1-1 0 0 0,1-1 0 0 0,-1 0 0 0 0,18-2 0 0 0,63-17 9 0 0,-70 13-510 0 0,-12 5-127 0 0,1-1-1 0 0,1-1 0 0 0,-1 0 0 0 0,-2 0 1 0 0,2 0-1 0 0,0-3 0 0 0,-1 2 0 0 0,0-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,6-8 0 0 0,2-2-352 0 0,-12 12 274 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,0-3-1 0 0,4-10 91 0 0,-5 15-53 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-6-1 0 0,3-7 3844 0 0,-7 27-2597 0 0,-2 29 188 0 0,1-9-609 0 0,0-15-607 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,1-1 0 0 0,0 2 0 0 0,8 26 0 0 0,-5-24-402 0 0,-4-15 239 0 0,-1-1 1 0 0,1 2-1 0 0,0-1 1 0 0,-1-1-1 0 0,1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,2 4-1 0 0,4 4 597 0 0,-6-7-531 0 0,0 1-1 0 0,0-2 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,4 2 0 0 0,-4-2-123 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,3-3-1 0 0,13-4 63 0 0,-15 7 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,2-2 0 0 0,11-22 0 0 0,-12 23 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,8-6 0 0 0,-9 7 0 0 0,0 2 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-3 0 0 0,5-10 0 0 0,-2 10-1 0 0,-4 4 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 40-67 0 0,0-32 67 0 0,0-1 0 0 0,0 2-1 0 0,1-1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 1-1 0 0,1-2 1 0 0,4 8 0 0 0,4 20 602 0 0,-9-31-549 0 0,1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 2 0 0 0,3-1-1 0 0,-1 1-26 0 0,0 0-1 0 0,0-1 0 0 0,1 0 0 0 0,0 0 1 0 0,5 3-1 0 0,-6-3-9 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-2 0 0 0 0,2-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,6-2 0 0 0,-8 2-13 0 0,6-2 17 0 0,1 1 1 0 0,-1-2-1 0 0,1 1 0 0 0,7-4 0 0 0,-12 4-15 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,3-6-1 0 0,-2 6-25 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1-1 1 0 0,-1 2-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-2-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-2-1 0 0,-1 1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,-2-5-1 0 0,-13-20-669 0 0,13 21 244 0 0,-1-1 1 0 0,0 1 0 0 0,-8-12-1 0 0,12 18 316 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-2 0 0 0,0 1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0-3-844 0 0,0-3-961 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-192743.67">7582 3616 13648 0 0,'0'0'628'0'0,"1"1"-18"0"0,3 5-293 0 0,1 2-1 0 0,0-2 0 0 0,5 13 1 0 0,8 12 4560 0 0,-11-20-3957 0 0,0 2 0 0 0,-1-1 0 0 0,-1 2 0 0 0,7 22 0 0 0,-3-7-1006 0 0,8 33 86 0 0,-17-62 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-3 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-2 0 0 0,-1 2 0 0 0,0-4 0 0 0,-2-13 0 0 0,3 10-71 0 0,0 2 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,2 2 0 0 0,0-1 0 0 0,0-1 0 0 0,7-10 0 0 0,-10 18 85 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 2 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,2 2 1 0 0,0 1 16 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,-1-1 0 0 0,2 1 0 0 0,-1-1 0 0 0,0 2 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,1 4 1 0 0,7 14-30 0 0,-6-12 0 0 0,-1 0 0 0 0,5 16 0 0 0,-7-22 0 0 0,-1 1 0 0 0,2-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,4 5 0 0 0,-2-3 0 0 0,-3-2 0 0 0,-1-4 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-2 0 0 0,-1 2 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,1-1 0 0 0,0-2 0 0 0,1-10 0 0 0,2 0 0 0 0,0 2 0 0 0,1-1 0 0 0,0 0 0 0 0,13-22 0 0 0,-11 22 0 0 0,-7 12 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,2 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 2 0 0 0,0-2 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 2 0 0 0,-2-2 0 0 0,3 5 0 0 0,1-1 0 0 0,-2-1 0 0 0,0-2 0 0 0,0 1 0 0 0,-1 1 0 0 0,4 7 0 0 0,20 37 0 0 0,-15-31-2096 0 0,-7-15-288 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-192061.25">8106 3658 2304 0 0,'0'2'6506'0'0,"11"42"3426"0"0,5 28-5188 0 0,-15-67-4740 0 0,0-1 1 0 0,0 2-1 0 0,1-2 1 0 0,0 1-1 0 0,3 8 0 0 0,7 11-5 0 0,-6-10 1 0 0,-3-11 0 0 0,0-2 0 0 0,3 5 0 0 0,-5-6 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,3-2 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-2 0 0 0,-1 2 0 0 0,0-1 0 0 0,0 1 0 0 0,-2-1 0 0 0,6-8 0 0 0,1-5 0 0 0,10-26 0 0 0,-11 22 0 0 0,-2 1 0 0 0,-4 18 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,2-1 0 0 0,2-4-2 0 0,5-4 78 0 0,-3 27 1298 0 0,-3-8-1306 0 0,-1 0-1 0 0,0 1 1 0 0,0-2-1 0 0,-1 1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 2 1 0 0,-1 9-1 0 0,0-15-67 0 0,-1-1 0 0 0,1 1 0 0 0,0 1 0 0 0,-1-2 0 0 0,2 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-2 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,5 5 0 0 0,5-2 0 0 0,-9-6 0 0 0,-2 0 0 0 0,1 1-105 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,2-5 0 0 0,19-38 105 0 0,-22 45 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,2 0 0 0 0,5 3 0 0 0,-4-2 0 0 0,16 13 781 0 0,-17-12-649 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,3 1 1 0 0,21 7-115 0 0,6 0-20 0 0,-33-9 2 0 0,3 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3 0 0 0 0,-6 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,-2-2-61 0 0,-1-1 1 0 0,1 1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,2 1 0 0 0,-2-1 0 0 0,-8-2 0 0 0,-4 0-303 0 0,1 0 0 0 0,-20-2 1 0 0,6 2 192 0 0,-73-22-3843 0 0,86 22-3171 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">33 0 13824 0 0,'0'2'167'0'0,"0"0"1"0"0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-2 3-1 0 0,-7 15 1198 0 0,6 4 427 0 0,1 0 0 0 0,1 43-1 0 0,0 3-427 0 0,-1-24-910 0 0,3 1 1 0 0,6 55 0 0 0,6 101-10 0 0,14 13 404 0 0,4-56-328 0 0,-3-15-303 0 0,-12-26-156 0 0,38 398 249 0 0,-28-170-527 0 0,-24-330-198 0 0,4 45-860 0 0,-4-55-93 0 0,0 0 0 0 0,1 0 0 0 0,4 11 0 0 0,-2-9-6140 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2389.93">1014 1097 11976 0 0,'0'0'546'0'0,"0"-2"-10"0"0,0 1-461 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,-5-9 8175 0 0,5 12-7265 0 0,-1 3-918 0 0,1 1 0 0 0,-1 0 0 0 0,2 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 8 0 0 0,0-6 153 0 0,0 1 0 0 0,-1-1 0 0 0,-2 9 1 0 0,-9 56 904 0 0,6-31-1130 0 0,-7 71 6 0 0,0 1 0 0 0,1-17 0 0 0,10-73 0 0 0,2-20 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 6 0 0 0,-1 7 0 0 0,4-17-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0-25 0 0,-1 0-311 0 0,5-8-1088 0 0,-2-1 1398 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-16 1 0 0,-1-53 19 0 0,8-125 7 0 0,-7 159 0 0 0,-2 31 0 0 0,0 0 0 0 0,6-25 0 0 0,-5 28 0 0 0,0 1 0 0 0,0-19 0 0 0,-2 19 0 0 0,1-1 0 0 0,3-14 0 0 0,-2 18 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,4-6 0 0 0,-7 11 34 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,3 1 0 0 0,5 3 226 0 0,-1 1 1 0 0,0 0-1 0 0,10 9 1 0 0,-16-12-254 0 0,14 13 143 0 0,0 1-1 0 0,-2 1 1 0 0,0 0-1 0 0,-1 1 1 0 0,-1 1-1 0 0,12 26 1 0 0,90 231 153 0 0,-107-256-301 0 0,20 43-626 0 0,-17-46 220 0 0,-8-16 215 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 5 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2776.41">806 1475 12440 0 0,'-1'3'103'0'0,"1"-1"0"0"0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,1 4 0 0 0,-2-6 86 0 0,1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,2 1 0 0 0,15 1 901 0 0,-1 0 0 0 0,26-3 1 0 0,-17 1-282 0 0,-17-1-455 0 0,-1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0 0 0 0,16-7 0 0 0,1-1 114 0 0,19-8-2147 0 0,56-32 0 0 0,-23 2-2136 0 0,-35 24 1865 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3214.77">1439 1076 16783 0 0,'-1'2'147'0'0,"0"1"-1"0"0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0 4 0 0 0,1 9 827 0 0,7 118 4323 0 0,-8-117-5142 0 0,1-1 0 0 0,1 1 0 0 0,6 20 0 0 0,-3-10-154 0 0,-2-9 0 0 0,0 0 0 0 0,1 0 0 0 0,1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,13 21 0 0 0,-9-20 0 0 0,-7-11 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,7 8 0 0 0,-6-8-13 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-2 1 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,10 1 0 0 0,-15-1-60 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-2-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,4-3 1 0 0,-3 2-16 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4-9 0 0 0,0-4-145 0 0,-1 0 0 0 0,0 0 0 0 0,6-33 0 0 0,-10 44 171 0 0,9-73-645 0 0,-7 40 384 0 0,1-10 1193 0 0,-2-53 1 0 0,-3 100 225 0 0,-1 3-1041 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 2-1 0 0,-1-1-4 0 0,0 4-50 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,4 8 0 0 0,5 9 6 0 0,1 0 1 0 0,14 20 0 0 0,-8-12 50 0 0,-12-21-26 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,1 1 0 0 0,10 8 0 0 0,-12-12-48 0 0,-1-1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-2 0 0 0,0 1 0 0 0,8 1 1 0 0,-13-3 9 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,2-1 0 0 0,-1 1 12 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,2-5 0 0 0,1-7 90 0 0,-2 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-2-21 1 0 0,0 34-73 0 0,0-6-25 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-2 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-8-8 0 0 0,11 15-23 0 0,1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-5 0 0 0,1 5-126 0 0,1-4-1110 0 0,0-7-5352 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3764.7">2246 1109 19351 0 0,'0'0'439'0'0,"0"2"62"0"0,15 33 600 0 0,-10-25-1075 0 0,-1-1 1 0 0,5 15-1 0 0,-2-1 174 0 0,-5-17 120 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,1 9 1 0 0,0 14 674 0 0,-1-24-780 0 0,0 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,-1 12 0 0 0,1-11-133 0 0,-1 0 0 0 0,1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,3 14 0 0 0,1 14-110 0 0,0 6-137 0 0,-3-30 83 0 0,-1 0-1 0 0,0 0 1 0 0,-2 24 0 0 0,1-31 82 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,2 4 0 0 0,-1 2 0 0 0,0-6 0 0 0,-2-5 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-4 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-2-8 0 0 0,-3-7 0 0 0,-13-91-496 0 0,-19-19 187 0 0,26 84 297 0 0,8 27 16 0 0,-1 1 0 0 0,-10-24 0 0 0,13 37 265 0 0,7 16-5 0 0,7 7-66 0 0,1 1 0 0 0,1-2 0 0 0,19 22 0 0 0,-25-32-254 0 0,1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,13 5 0 0 0,-16-8 56 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,11-2 0 0 0,-3 1 0 0 0,-13 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,5-3 0 0 0,-4 2 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,2-8 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-2-15 0 0 0,1 17 0 0 0,0-9 0 0 0,-4-1 0 0 0,0 3 0 0 0,4 16 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 11 0 0 0,1-11 0 0 0,6 76 0 0 0,-4-62 0 0 0,2 20 0 0 0,3 0 0 0 0,16 54 0 0 0,-18-72-45 0 0,0-1-1 0 0,1 0 0 0 0,9 15 0 0 0,7-2-2771 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4337.91">2992 1080 21191 0 0,'0'0'480'0'0,"-2"7"646"0"0,-10 107 1036 0 0,10-80-1618 0 0,2-1-1 0 0,2 1 1 0 0,10 56 0 0 0,-2-12-63 0 0,-9-39-475 0 0,-1-14-50 0 0,0-24-162 0 0,-1-2-406 0 0,-7-17 390 0 0,0-1-1 0 0,2 0 1 0 0,0 0 0 0 0,-3-22-1 0 0,-14-66 223 0 0,8 3 0 0 0,13 93 0 0 0,1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 1 0 0 0,4-15 0 0 0,-7 25 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,2 3 0 0 0,24 31 0 0 0,-27-34 0 0 0,141 213 1184 0 0,-129-198-1371 0 0,24 24-1 0 0,-32-36 25 0 0,-3-2 85 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,7 3 0 0 0,-9-4 92 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 0 1 0 0,3-1-1 0 0,-2-1 111 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,2-5 1 0 0,-2-5-102 0 0,1 1-1 0 0,-2-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,-8-16 1 0 0,5 13-22 0 0,3 6 0 0 0,0 0 0 0 0,-14-20 0 0 0,17 28-41 0 0,-6-6-637 0 0,1-1 0 0 0,1-1 0 0 0,-9-16 0 0 0,15 26 143 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-2 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4715.3">3498 932 9672 0 0,'1'7'206'0'0,"1"-1"0"0"0,0 0 0 0 0,0 0 0 0 0,5 10 0 0 0,-4-10-39 0 0,-1 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,3 9 0 0 0,-2 3 3967 0 0,1 26 0 0 0,-1-12-876 0 0,2-1-3420 0 0,-2-21 402 0 0,0-1 1 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,12 14 0 0 0,-4-3-223 0 0,-11-15-18 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0-1 0 0,6 5 1 0 0,1 0 0 0 0,2 0 0 0 0,-1-1 0 0 0,27 13 0 0 0,-34-19 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,10-3 0 0 0,-8 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-2 0 0 0,8-11 0 0 0,-8 10 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-2 0 0 0 0,1 0 0 0 0,-1-11 0 0 0,-2 4 153 0 0,-1 0 1 0 0,0 0-1 0 0,-5-17 0 0 0,0 3 122 0 0,3 12-212 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,-1 2 0 0 0,-17-30 0 0 0,20 38-27 0 0,0 1-1 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,-15-4 0 0 0,6 5-146 0 0,-1 0-1 0 0,1 2 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 1 0 0,-28 8-1 0 0,23-4-646 0 0,0 1 1 0 0,-29 15-1 0 0,-7 10-5021 0 0,35-15-2195 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-201002.16">4335 2249 9672 0 0,'0'0'748'0'0,"0"1"-492"0"0,-8 14 4397 0 0,4 3 1860 0 0,6-15-6210 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4 3 0 0 0,-6-4-130 0 0,8 6 90 0 0,-1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,3 14-1 0 0,16 57 59 0 0,55 168 1414 0 0,-42-162-1717 0 0,15 43 37 0 0,-31-69-8 0 0,3-2 0 0 0,58 106-1 0 0,-8-45-126 0 0,-65-106 63 0 0,1-1 0 0 0,1 1-1 0 0,18 20 1 0 0,-20-22 43 0 0,-7-11-142 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,2 2 0 0 0,-2-1-897 0 0,0-1 646 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,2 1 0 0 0,1-2-1169 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-198900.23">4877 3529 12032 0 0,'0'0'1090'0'0,"8"3"-791"0"0,23 28 658 0 0,-24-26-699 0 0,4 2 642 0 0,0 1 1 0 0,21 9-1 0 0,72 22 880 0 0,-70-28-1451 0 0,-29-9-292 0 0,28 10 249 0 0,42 8 0 0 0,77 24 458 0 0,-12-2-64 0 0,-112-36-559 0 0,343 72 813 0 0,147 10-354 0 0,2-20 67 0 0,-464-62-512 0 0,259 20 296 0 0,9-23-367 0 0,124-42 60 0 0,-410 33-112 0 0,188-36 60 0 0,79-46 83 0 0,-273 76-127 0 0,0-2-1 0 0,-1-1 1 0 0,0-1-1 0 0,-1-2 1 0 0,-1 0 0 0 0,36-32-1 0 0,-62 47-27 0 0,13-9 30 0 0,17-19 0 0 0,-28 26-18 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,3-8 1 0 0,0-3-3 0 0,-1-1-1 0 0,0 1 1 0 0,-2-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-2-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,-1 0-1 0 0,-5-23 1 0 0,4 28-10 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-2 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-16-10 0 0 0,-14-10 0 0 0,26 18 0 0 0,-26-15 0 0 0,-195-87-280 0 0,214 105 280 0 0,-26-6 0 0 0,18 6 0 0 0,-20-3 18 0 0,0 1 0 0 0,-78-4-1 0 0,43 5-18 0 0,-304-26-211 0 0,260 18 185 0 0,78 9 8 0 0,-54-2 1 0 0,-64 3-3 0 0,-93 0-22 0 0,-152 14 115 0 0,300-4-120 0 0,0 5 0 0 0,-169 34 0 0 0,270-39 48 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 2 0 0 0,-11 8 0 0 0,-15 9 0 0 0,-71 35 0 0 0,-44 8 0 0 0,117-53 0 0 0,-27 18 0 0 0,43-21 0 0 0,-36 14 0 0 0,-12 6 0 0 0,45-20 0 0 0,-37 13 0 0 0,6-4 44 0 0,-62 34 0 0 0,98-45-44 0 0,-25 19 0 0 0,-1 1 0 0 0,20-14-34 0 0,1 0 1 0 0,0 2-1 0 0,1 1 0 0 0,0 0 0 0 0,-19 23 1 0 0,12-10-1615 0 0,20-14 682 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-195251.92">6212 3160 10592 0 0,'0'0'2329'0'0,"-1"2"-996"0"0,-9 35 6023 0 0,5 24-3864 0 0,-2 3-3027 0 0,0 1-471 0 0,-1 6 84 0 0,4-28 817 0 0,3-30-540 0 0,0 0 0 0 0,-4 13 0 0 0,2-5-347 0 0,0 22 0 0 0,9-67-207 0 0,-4 19 137 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0-7 0 0 0,0-10 41 0 0,6-31 0 0 0,-4 31 97 0 0,1-32 1 0 0,-3 38 109 0 0,4-25 1 0 0,-3 23-422 0 0,1-30 1 0 0,13 61 167 0 0,-13-8 70 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,2 6-1 0 0,3 6 125 0 0,3 1 129 0 0,-1 0-183 0 0,0-1 1 0 0,19 23-1 0 0,-14-24-167 0 0,0 0-1 0 0,1-1 1 0 0,0-1 0 0 0,25 16-1 0 0,-16-10 3 0 0,-20-15 75 0 0,1 0 0 0 0,-1-1-1 0 0,8 5 1 0 0,-11-8 15 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,4 0-1 0 0,-4-1 2 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,3-2 0 0 0,-3 1 19 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-2 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1-4-1 0 0,-1-12 61 0 0,1-6-13 0 0,-2 0 1 0 0,-1 0-1 0 0,-9-35 0 0 0,8 42-55 0 0,2-2-155 0 0,3 17 72 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-3-5 1 0 0,4 7-573 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-194858.63">6596 3448 4144 0 0,'0'1'71'0'0,"-1"-1"1"0"0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,2 6 2220 0 0,0 6 1632 0 0,-2-10-3107 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,3 8 0 0 0,-2-7-480 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,11 7 1 0 0,-3-4 363 0 0,1 0 0 0 0,25 9-1 0 0,-36-15-637 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2-1 0 0 0,4-2 165 0 0,-2 2-223 0 0,-2 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1-8-1 0 0,-2 9 60 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-6-4 0 0 0,5 4-22 0 0,0 0-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-9 1 0 0 0,9 0-63 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-6 5 0 0 0,-1 1-182 0 0,1-1-1606 0 0,3-2-3781 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-194184.06">7120 3200 9216 0 0,'0'0'2986'0'0,"0"8"1631"0"0,0 7-2469 0 0,-1 0-1 0 0,-5 23 0 0 0,-22 63-139 0 0,4-14-1324 0 0,16-50-554 0 0,4-13-48 0 0,-11 30 0 0 0,14-51-80 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,1 5 0 0 0,-2 20 46 0 0,1-26 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,2 6 0 0 0,2 11-1609 0 0,-6-8-3288 0 0,5-23-392 0 0,2-3-1273 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-193795.81">7106 3174 15664 0 0,'0'0'356'0'0,"4"9"2096"0"0,7 16-595 0 0,9 20 231 0 0,-12-29-1533 0 0,0 1 0 0 0,4 18 0 0 0,-5-14 55 0 0,13 27-1 0 0,5 18-85 0 0,13 33-502 0 0,-33-83-120 0 0,0-1 0 0 0,3 21 0 0 0,-6-5-5761 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-193299.46">6872 3539 11976 0 0,'0'0'266'0'0,"0"0"-231"0"0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,5 1 63 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,9 3-1 0 0,-8-3 343 0 0,2 1 169 0 0,0-1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1-1 0 0 0,0 0 0 0 0,17-2 0 0 0,66-16 9 0 0,-73 13-510 0 0,-11 4-127 0 0,0-1-1 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-2 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,6-7 0 0 0,3-3-352 0 0,-13 13 274 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0-4-1 0 0,4-9 91 0 0,-5 14-53 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1-5-1 0 0,3-7 3844 0 0,-7 25-2597 0 0,-2 28 188 0 0,1-8-609 0 0,0-15-607 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,8 25 0 0 0,-5-23-402 0 0,-4-14 239 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,2 3-1 0 0,4 5 597 0 0,-6-7-531 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,5 2 0 0 0,-5-3-123 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,3-2-1 0 0,14-5 63 0 0,-16 7 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,2-2 0 0 0,11-20 0 0 0,-12 21 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,7-6 0 0 0,-9 8 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-3 0 0 0,5-9 0 0 0,-2 9-1 0 0,-4 4 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 38-67 0 0,0-30 67 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,4 7 0 0 0,4 20 602 0 0,-9-30-549 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,3 0-1 0 0,-1 1-26 0 0,1 0-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,5 2-1 0 0,-6-2-9 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,7-2 0 0 0,-9 2-13 0 0,6-2 17 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,8-4 0 0 0,-13 4-15 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,2-5-1 0 0,-2 5-25 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,-3-4-1 0 0,-12-20-669 0 0,13 20 244 0 0,-1 0 1 0 0,0 0 0 0 0,-9-11-1 0 0,13 17 316 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0-3-844 0 0,0-3-961 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-192743.67">7785 3436 13648 0 0,'0'0'628'0'0,"1"1"-18"0"0,4 5-293 0 0,0 1-1 0 0,0-1 0 0 0,5 12 1 0 0,9 11 4560 0 0,-12-18-3957 0 0,0 1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,8 21 0 0 0,-4-6-1006 0 0,8 31 86 0 0,-17-59 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-3 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-4 0 0 0,-2-12 0 0 0,3 10-71 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,7-10 0 0 0,-10 17 85 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,2 2 1 0 0,0 0 16 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,1 4 1 0 0,7 13-30 0 0,-6-12 0 0 0,-1 1 0 0 0,6 14 0 0 0,-8-20 0 0 0,-1 1 0 0 0,2-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,4 4 0 0 0,-2-2 0 0 0,-3-2 0 0 0,-1-4 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,1-1 0 0 0,0-2 0 0 0,2-9 0 0 0,1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,14-21 0 0 0,-12 20 0 0 0,-7 12 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,2 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 5 0 0 0,1-1 0 0 0,-2-2 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,4 6 0 0 0,21 36 0 0 0,-16-30-2096 0 0,-7-14-288 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-192061.24">8324 3476 2304 0 0,'0'2'6506'0'0,"11"40"3426"0"0,5 26-5188 0 0,-15-63-4740 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,0 1-1 0 0,4 7 0 0 0,6 11-5 0 0,-6-10 1 0 0,-3-10 0 0 0,0-2 0 0 0,3 5 0 0 0,-5-6 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,3-2 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,5-7 0 0 0,1-5 0 0 0,10-25 0 0 0,-10 21 0 0 0,-3 1 0 0 0,-4 17 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,2-1 0 0 0,2-3-2 0 0,5-5 78 0 0,-2 27 1298 0 0,-4-9-1306 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1 9-1 0 0,0-14-67 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,2 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,6 4 0 0 0,4-1 0 0 0,-9-6 0 0 0,-2 0 0 0 0,1 1-105 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,2-4 0 0 0,20-37 105 0 0,-23 43 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,2 0 0 0 0,5 3 0 0 0,-4-2 0 0 0,17 12 781 0 0,-18-11-649 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,4 1 1 0 0,20 6-115 0 0,7 1-20 0 0,-34-9 2 0 0,3 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3 0 0 0 0,-6 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,-2-2-61 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,-8-2 0 0 0,-4 0-303 0 0,0 1 0 0 0,-20-3 1 0 0,6 2 192 0 0,-74-20-3843 0 0,87 20-3171 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19054,8 +19115,8 @@
       <inkml:brushProperty name="color" value="#FFC114"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1101 25 8264 0 0,'0'0'5865'0'0,"-11"-6"-4330"0"0,-3 1-1076 0 0,0 1 0 0 0,0 1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1 1-1 0 0,-1 0 1 0 0,-15 2-1 0 0,-106 17-855 0 0,42-4 564 0 0,3 4-168 0 0,1-4 347 0 0,-90 29-1 0 0,137-33-199 0 0,1 1 299 0 0,0 3-1 0 0,-76 35 0 0 0,80-31 236 0 0,20-11-265 0 0,-27 18-1 0 0,42-24-402 0 0,2 0-13 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-2 3 0 0 0,1-2 1 0 0,0 1-3 0 0,3 10 14 0 0,1-2 80 0 0,0 0 1 0 0,8 17-1 0 0,-5 1-92 0 0,-4-21 28 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-2 0 1 0 0,1-1-1 0 0,-1 2 1 0 0,-1 11-1 0 0,1 1 11 0 0,-1 6 45 0 0,1-8 73 0 0,0 0 0 0 0,1 0 0 0 0,6 33-1 0 0,5 11-155 0 0,-7-36 61 0 0,4 37-1 0 0,2 16 55 0 0,7-2-89 0 0,16 89 8 0 0,-27-127-106 0 0,2 0 0 0 0,14 39 0 0 0,-10-54 171 0 0,-6-14-63 0 0,-1-1 1 0 0,5 15-1 0 0,-10-24-110 0 0,-1 0-49 0 0,3 1 70 0 0,-2 2 107 0 0,0-3-876 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1952.13">1335 1202 5984 0 0,'0'0'541'0'0,"0"10"1027"0"0,-11 14 5695 0 0,10-23-6995 0 0,-20 10 1205 0 0,-2-8-1050 0 0,-30 0 0 0 0,42-2-471 0 0,0 0 0 0 0,1 1 0 0 0,-1 0-1 0 0,-13 6 1 0 0,-7 1-183 0 0,-21 1 33 0 0,-37 12 864 0 0,52-14-638 0 0,27-7 23 0 0,1 1 0 0 0,-14 4-1 0 0,4 0 56 0 0,12-4-101 0 0,0 0 1 0 0,0 0 0 0 0,-9 5-1 0 0,13-7-4 0 0,3 0 2 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,-4 3 65 0 0,2 0 11 0 0,1-3-84 0 0,-5 2 155 0 0,6-3 167 0 0,0 1-243 0 0,-2 6-60 0 0,-8 20 682 0 0,1 6 107 0 0,9-32-763 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 3-1 0 0,1 2 82 0 0,-26 113 1394 0 0,19-85-1497 0 0,1 1 0 0 0,1 42-1 0 0,4-73-23 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 2 0 0 0,0-2 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,1 2 0 0 0,-1-2 1 0 0,5 2-1 0 0,8 1-14 0 0,-1-1-1 0 0,1-1 1 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-2-1 0 0,25-3 1 0 0,-11 2 20 0 0,-22 2 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,14-7 0 0 0,25-16-90 0 0,-37 16 7 0 0,1-3 234 0 0,-10 9-193 0 0,4 1 216 0 0,-2 2-170 0 0,-3-1-4 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,7 10-2 0 0,-4-8 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,5 8-1 0 0,9 33 279 0 0,-16-39-211 0 0,1-4 1 0 0,2 7-39 0 0,-6-7 6 0 0,-6-6-15 0 0,9 5-23 0 0,-7-6 4 0 0,1-2 0 0 0,0 1 0 0 0,0-2 0 0 0,0 2 0 0 0,1-2 0 0 0,1 0 0 0 0,-6-12 0 0 0,4 9-41 0 0,0 1-1 0 0,0 1 1 0 0,-1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-16-13 1 0 0,25 25 49 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,5 0 1 0 0,3 1-8 0 0,78 22-1 0 0,-40-10 131 0 0,-9 6 122 0 0,-35-18-185 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,3 7 0 0 0,2-1 64 0 0,-8-7-80 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-2 4-1 0 0,1-5-50 0 0,0-1 1 0 0,0 1-1 0 0,0 1 0 0 0,0-2 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,-2 1 35 0 0,-26 23-229 0 0,22-20-206 0 0,0 2 0 0 0,0 0 1 0 0,-9 10-1 0 0,0-3-2060 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1101 24 8264 0 0,'0'0'5865'0'0,"-11"-6"-4330"0"0,-3 2-1076 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1 1-1 0 0,-1 0 1 0 0,-15 2-1 0 0,-106 16-855 0 0,42-3 564 0 0,3 3-168 0 0,1-3 347 0 0,-90 27-1 0 0,137-31-199 0 0,1 1 299 0 0,0 2-1 0 0,-76 34 0 0 0,80-29 236 0 0,20-11-265 0 0,-27 17-1 0 0,42-23-402 0 0,2 0-13 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-2 3 0 0 0,1-2 1 0 0,0 1-3 0 0,3 9 14 0 0,1-1 80 0 0,0 0 1 0 0,8 16-1 0 0,-5 1-92 0 0,-4-21 28 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-2 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,-1 12-1 0 0,1 0 11 0 0,-1 6 45 0 0,1-8 73 0 0,0 1 0 0 0,1-1 0 0 0,6 32-1 0 0,5 11-155 0 0,-7-35 61 0 0,4 36-1 0 0,2 15 55 0 0,7-1-89 0 0,16 85 8 0 0,-27-122-106 0 0,2-1 0 0 0,14 39 0 0 0,-10-53 171 0 0,-6-14-63 0 0,-1 0 1 0 0,5 14-1 0 0,-10-23-110 0 0,-1 0-49 0 0,3 1 70 0 0,-2 2 107 0 0,0-3-876 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1952.13">1335 1161 5984 0 0,'0'0'541'0'0,"0"9"1027"0"0,-11 15 5695 0 0,10-23-6995 0 0,-20 9 1205 0 0,-2-7-1050 0 0,-30 0 0 0 0,42-2-471 0 0,0 0 0 0 0,1 1 0 0 0,-1 0-1 0 0,-13 6 1 0 0,-7 0-183 0 0,-21 2 33 0 0,-37 11 864 0 0,52-13-638 0 0,27-7 23 0 0,1 1 0 0 0,-14 4-1 0 0,4-1 56 0 0,12-3-101 0 0,0 0 1 0 0,0 0 0 0 0,-9 5-1 0 0,13-7-4 0 0,3 0 2 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,-4 3 65 0 0,2-1 11 0 0,1-2-84 0 0,-5 2 155 0 0,6-3 167 0 0,0 1-243 0 0,-2 6-60 0 0,-8 19 682 0 0,1 6 107 0 0,9-31-763 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 2-1 0 0,1 3 82 0 0,-26 109 1394 0 0,19-82-1497 0 0,1 1 0 0 0,1 40-1 0 0,4-70-23 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,5 2-1 0 0,8 1-14 0 0,-1-1-1 0 0,1-1 1 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-2-1 0 0,25-3 1 0 0,-11 2 20 0 0,-22 2 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,14-7 0 0 0,25-15-90 0 0,-37 15 7 0 0,1-2 234 0 0,-10 8-193 0 0,4 1 216 0 0,-2 2-170 0 0,-3-1-4 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,7 9-2 0 0,-4-7 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,5 8-1 0 0,9 31 279 0 0,-16-37-211 0 0,1-4 1 0 0,2 7-39 0 0,-6-7 6 0 0,-6-6-15 0 0,9 5-23 0 0,-7-6 4 0 0,1-2 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-2 0 0 0,1 1 0 0 0,-6-13 0 0 0,4 10-41 0 0,0 0-1 0 0,0 1 1 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-16-14 1 0 0,25 25 49 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,5 0 1 0 0,3 1-8 0 0,78 21-1 0 0,-40-9 131 0 0,-9 5 122 0 0,-35-17-185 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,3 6 0 0 0,2 0 64 0 0,-8-7-80 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-2 4-1 0 0,1-5-50 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,-2 1 35 0 0,-26 22-229 0 0,22-19-206 0 0,0 1 0 0 0,0 1 1 0 0,-9 10-1 0 0,0-4-2060 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19087,13 +19148,13 @@
       <inkml:brushProperty name="color" value="#FFC114"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1114 54 12752 0 0,'0'0'2832'0'0,"-7"-9"-1810"0"0,5 6-929 0 0,-1 0 1 0 0,0-1-1 0 0,0 2 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,-6-1 0 0 0,-3-2 195 0 0,-1 2-1 0 0,-20 0 1 0 0,12 1-192 0 0,-142-3 1664 0 0,125 4-1586 0 0,-112 5 135 0 0,148-5-306 0 0,-138 6 7 0 0,81-3 14 0 0,-30 3 288 0 0,44-2-4 0 0,32-4-255 0 0,1 1 0 0 0,-1 0 0 0 0,-14 5 0 0 0,-15-2-53 0 0,42-4 29 0 0,0 0-18 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,0-2 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 329 0 0,-1 1-267 0 0,-2 2-7 0 0,0 4-11 0 0,2-6-51 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 2-1 0 0,0-2 1 0 0,0 0 0 0 0,0 3 0 0 0,-2 4 25 0 0,0-2-29 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 2 0 0 0,0-2 0 0 0,0 0 0 0 0,2 8 0 0 0,-1 8 0 0 0,-11 100 0 0 0,2-40 0 0 0,6-68 0 0 0,1 0 0 0 0,1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,1-1 0 0 0,6 19 0 0 0,-5-26 1 0 0,0 1-1 0 0,1-2 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-2-1 0 0,1 1 1 0 0,9 7-1 0 0,-5-5 7 0 0,27 16 46 0 0,-8-16-53 0 0,-23-6-12 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-2 1 0 0,13 1-1 0 0,-11-1 28 0 0,0-1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,13-9 1 0 0,5 1-94 0 0,-9 4 80 0 0,9-6-1 0 0,-19 9 0 0 0,-5 5 0 0 0,2 0 0 0 0,11-10 0 0 0,-7 7-10 0 0,-1 9-33 0 0,-6-5 39 0 0,0 1 1 0 0,0-1-1 0 0,0 2 1 0 0,0-2-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 2 1 0 0,0 6-6 0 0,1-8 9 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 2 0 0 0,0-2 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-3 3 0 0 0,1-1 0 0 0,-3 0 0 0 0,5-4-9 0 0,0 2 0 0 0,0-2-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-2 1 0 0,0 2 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-3 0 0 0,-7-3-70 0 0,-8-13-145 0 0,7 13 137 0 0,6 4 69 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-4-7 0 0 0,-9-12-146 0 0,15 21 223 0 0,-1 0 6 0 0,-5-5-108 0 0,8 2-139 0 0,5 2 10 0 0,-7 2 217 0 0,8-2-56 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,13 2 0 0 0,10 0 9 0 0,-23-1 4 0 0,1 0-1 0 0,0 0 0 0 0,10 3 0 0 0,-10-2 75 0 0,-1 0 1 0 0,1 0-1 0 0,12-1 1 0 0,-18-1-45 0 0,13 5 113 0 0,-14-4-133 0 0,11 2-8 0 0,-7-3 8 0 0,-5 0 112 0 0,-8 14 4 0 0,4-10-128 0 0,-1 1 0 0 0,0-2-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,-7 2-1 0 0,0 0-10 0 0,3 0-120 0 0,4-3-165 0 0,0 0-1 0 0,0 1 0 0 0,0 1 1 0 0,1-1-1 0 0,-7 5 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1968.7">1158 690 6912 0 0,'0'0'2725'0'0,"-1"-7"619"0"0,-2-3-1995 0 0,-12-1-154 0 0,9 9-1049 0 0,0 0 0 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-7 4 0 0 0,-29 0 620 0 0,26-4-557 0 0,-30 7-1 0 0,31-5-26 0 0,-31 3-1 0 0,-66 4 12 0 0,104-9-147 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,1 1 0 0 0,-13 6 0 0 0,3-1 66 0 0,3-5-47 0 0,12-3-55 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-3 1 1 0 0,0-2 25 0 0,3 0-34 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,-2 3 447 0 0,3-3-391 0 0,0 3-37 0 0,0-2 22 0 0,2 4-33 0 0,1 1-10 0 0,0 0 11 0 0,0 2 33 0 0,-1-1-1 0 0,-1 2 1 0 0,1-2-1 0 0,-1 2 1 0 0,0 10-1 0 0,-2-7-42 0 0,0 0-1 0 0,1 1 1 0 0,1-2 0 0 0,2 16-1 0 0,-1-12 9 0 0,19 125 169 0 0,-19-130-166 0 0,2 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,1-1 1 0 0,9 15-1 0 0,24 27 379 0 0,-35-48-297 0 0,16 15 177 0 0,-19-18-270 0 0,1-1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,5 1-1 0 0,-6 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,2 1-1 0 0,10-1 115 0 0,-11 1-92 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0-1-1 0 0,3-1 1 0 0,13-5-49 0 0,-15 6-6 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,3-3 0 0 0,7-7 173 0 0,-11 10-217 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1-1 0 0 0,-1 2 0 0 0,0-1-1 0 0,0 0 1 0 0,3-6 0 0 0,-5 8 50 0 0,0 1 24 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-2 1 0 0,-1 2-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-2-45 0 0,-1-2 47 0 0,0 4 8 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,4 2 7 0 0,-2-1-37 0 0,-1 0 9 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,1 3 1 0 0,0 0 17 0 0,19 26 244 0 0,-21-30-214 0 0,-12-4 31 0 0,-11-17-248 0 0,17 16 180 0 0,-1-1 1 0 0,1 1 0 0 0,1-2-1 0 0,-1 0 1 0 0,1 1 0 0 0,-8-13-1 0 0,12 16 4 0 0,1 3 0 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,0-1-75 0 0,1-1 76 0 0,1 2-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,20-1 1 0 0,-6 0-2 0 0,-8 0 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,11 5 0 0 0,-1-1 0 0 0,1-2 0 0 0,-6-2 0 0 0,-6 0 0 0 0,1 1 11 0 0,-8-3-5 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 2 0 0 0,0-2 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-9 9 118 0 0,-16 5 279 0 0,10-9-709 0 0,1 1-1 0 0,0 1 0 0 0,-22 17 0 0 0,21-14-107 0 0,10-2-707 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3212.83">777 1189 3224 0 0,'0'0'6034'0'0,"9"13"-1338"0"0,-8 17-3402 0 0,0-15-521 0 0,0 1 0 0 0,-3 21 0 0 0,-17 137 1426 0 0,10-96-1894 0 0,6 0-173 0 0,1-47-78 0 0,2 40 0 0 0,1-24-22 0 0,1-37-32 0 0,2 7 0 0 0,-3-10-26 0 0,-1-6-104 0 0,12 2-265 0 0,-11-2 406 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,3-1 0 0 0,3-1-117 0 0,0-2 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,5-6 0 0 0,-2 2-51 0 0,1 0 0 0 0,11-7-1 0 0,-9 6 78 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,10-13-1 0 0,15-13 72 0 0,-35 35-2 0 0,2-1 91 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 1 0 0,0 0-1 0 0,4-2 0 0 0,-6 4-47 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 2 0 0 0,10 17 392 0 0,-7-14-349 0 0,-3-4-16 0 0,0 15-48 0 0,2-2-12 0 0,-1-7 1 0 0,1-2-13 0 0,-1 6-75 0 0,0-7-40 0 0,-2-9 49 0 0,0-2 46 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-7-8 0 0 0,-3-5-168 0 0,-20-25-1 0 0,30 41 202 0 0,2 4 0 0 0,0-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-2-1 0 0 0,2 0-69 0 0,9 2 29 0 0,0 1 68 0 0,0-1-1 0 0,1 2 1 0 0,11 3-1 0 0,1 1 41 0 0,51 16 349 0 0,-39-6-374 0 0,-33-16 132 0 0,-1 3 53 0 0,0-3-203 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 2 0 0 0,-6 4 12 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1-1-1 0 0,0 1 1 0 0,-10 4-1 0 0,13-6-31 0 0,-12 5-167 0 0,0-1 1 0 0,-22 7 0 0 0,-2 1-1462 0 0,24-7 670 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4676.69">240 475 6072 0 0,'0'0'548'0'0,"6"-3"272"0"0,-4 2-818 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0-1-1 0 0,2-4 54 0 0,-2 6-498 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6842.51">1 487 2760 0 0,'0'0'8904'0'0,"1"0"-8771"0"0,5 0-80 0 0,-4 0 401 0 0,3 0-222 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,5-3 1 0 0,-9 3-87 0 0,6-3 174 0 0,18-19-364 0 0,-20 18 3225 0 0,-4 8-2921 0 0,-2-1-231 0 0,1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 2 0 0 0,0-2 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 2 0 0 0,0-2 43 0 0,-1 14 210 0 0,-6 26 1558 0 0,4-37-1692 0 0,-1 4-66 0 0,8 9 312 0 0,1 27 414 0 0,0-3-808 0 0,-6-32-1 0 0,1 1-1 0 0,0-2 1 0 0,1 0-1 0 0,0 2 1 0 0,0-2-1 0 0,6 15 1 0 0,7 25-53 0 0,-9-18 84 0 0,-2-10 4 0 0,4 36-296 0 0,-6-38 371 0 0,0-1 0 0 0,5 17-1 0 0,8 33 84 0 0,1 15-430 0 0,0 14 132 0 0,-13-75 106 0 0,0 24 0 0 0,0-4 0 0 0,10 90 0 0 0,-9-96 0 0 0,7 44 0 0 0,2 26 84 0 0,-4-21 94 0 0,2 9-284 0 0,1 9 46 0 0,-8-69 60 0 0,6 24 0 0 0,-5-34 24 0 0,3 29-1 0 0,2 10 48 0 0,1-9 115 0 0,0-25-170 0 0,-2 13-16 0 0,4-6 64 0 0,-10-26-53 0 0,5 3 33 0 0,3-1 97 0 0,-11-9-128 0 0,1 1-11 0 0,16 4-5 0 0,-7 0 14 0 0,-9-5 32 0 0,1 3-22 0 0,-2-4 32 0 0,1-1 1 0 0,4 2-54 0 0,-3-3-43 0 0,0-2 20 0 0,3-2-37 0 0,3 2 34 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,14-1 1 0 0,-3-1 4 0 0,-13 3 22 0 0,-2 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,4 2 0 0 0,-1 0 0 0 0,-2-4 0 0 0,11 5 0 0 0,15 5 0 0 0,-22-8 0 0 0,1 0 0 0 0,-1 0 0 0 0,-3 0-13 0 0,-3 0-40 0 0,6-7-35 0 0,-8 6 64 0 0,1 0-52 0 0,-1 1-43 0 0,3-3 98 0 0,-3 3-38 0 0,1 1-321 0 0,1 4 308 0 0,-1-4 0 0 0,-17-9-863 0 0,15 8 922 0 0,-11-10-39 0 0,0-1-1 0 0,1-1 0 0 0,-11-15 0 0 0,13 19-13 0 0,9 8 65 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,8 0-2 0 0,7 1 57 0 0,129 19-124 0 0,-141-19 70 0 0,13 2-70 0 0,-15-3 306 0 0,-1 1-231 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-18 19 62 0 0,12-15-184 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1-1 1 0 0,-10 3-1 0 0,10-3-278 0 0,-6 5-447 0 0,1-2-5060 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8687.77">1117 2216 10680 0 0,'0'0'1389'0'0,"-20"5"-402"0"0,16-4-983 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-2 1 0 0,1 1-1 0 0,-8-1 1 0 0,9 1 57 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,-2 1 1 0 0,-11 3 198 0 0,-39 7 563 0 0,39-9-603 0 0,0 0-1 0 0,0 0 0 0 0,-19 0 1 0 0,18 3 469 0 0,16-6-674 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,0 3 77 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 1 0 0 0,-2 3 0 0 0,1-3-141 0 0,1 7 73 0 0,-1-8 7 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-3 7 1 0 0,1-5-16 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,2 1 0 0 0,-1 8 0 0 0,-4 24 45 0 0,-1-11 41 0 0,2 1 0 0 0,0 0 0 0 0,2-1-1 0 0,2 40 1 0 0,0-64-71 0 0,3 48 393 0 0,-2-47-330 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,3 8 1 0 0,2 5-62 0 0,-5-12-71 0 0,0-1-1 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-2 1 0 0,7 7-1 0 0,-5-6 75 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,2 5 1 0 0,-5-8-2 0 0,-1-1-8 0 0,11 6 29 0 0,7 6-54 0 0,-12-10 20 0 0,-2-1 24 0 0,-1-1 0 0 0,1 2 0 0 0,-1-2 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,5 0 0 0 0,-3-1-9 0 0,1 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-2 1 0 0,4-1-1 0 0,-8 4-34 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3-2 0 0 0,4-3 0 0 0,-6 5-1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1-1 0 0 0,-1 2-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0-3-1 0 0,8-19-217 0 0,-8 22 193 0 0,0 1 5 0 0,2-14 50 0 0,-3 10-29 0 0,0 5-58 0 0,1 5 30 0 0,-1-2-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,3 4-1 0 0,3 9 33 0 0,-4-8-4 0 0,4 18 11 0 0,-3-17 32 0 0,0-2-22 0 0,-4-4 96 0 0,-11-19-57 0 0,9 13-56 0 0,-1 0-8 0 0,0 0-1 0 0,-1 1 1 0 0,0-2-1 0 0,-5-3 1 0 0,5 5-4 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-4-6-1 0 0,6 8 9 0 0,-4-7-162 0 0,6 8 121 0 0,0 1 0 0 0,1-1 1 0 0,-1-1-1 0 0,0 2 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 0 78 0 0,2-1-66 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,4 1-1 0 0,1-1 43 0 0,-4 1-7 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,5 2-1 0 0,9 3 195 0 0,-17-7-57 0 0,16 9 551 0 0,-13-7-717 0 0,-1-2-128 0 0,1 1 15 0 0,-4 13 164 0 0,-1-10 5 0 0,0-1-21 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-2 2 1 0 0,-12 22-957 0 0,14-25 774 0 0,-7 12-783 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9931.89">843 2800 2304 0 0,'10'-7'12942'0'0,"-8"13"-12654"0"0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-2 9-1 0 0,1 12 277 0 0,2-5-143 0 0,6 36-1 0 0,-3-36-340 0 0,0 36 0 0 0,-2-11-80 0 0,8 48 0 0 0,0-66 9 0 0,-4-11 113 0 0,-4-12-94 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,7 6 0 0 0,-8-8-68 0 0,1 1 0 0 0,0-2 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,7-1 0 0 0,8-2-20 0 0,-14 2 25 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-2 1 0 0,5-5-1 0 0,-3 3-51 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-2-1-1 0 0,1-1 0 0 0,-1 1 0 0 0,4-11 0 0 0,7-39-148 0 0,-15 56 236 0 0,9-11 8 0 0,-8 11-8 0 0,10 19 196 0 0,-3 32-2 0 0,-7-46-178 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 6 1 0 0,2 1-5 0 0,-1-7 47 0 0,-1 6 9 0 0,0-2 25 0 0,2-9-78 0 0,-1-14-78 0 0,-6-18-152 0 0,5 28 177 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,-1 1 1 0 0,-2-10-1 0 0,2 3 58 0 0,1-7 142 0 0,-1 14-164 0 0,2 4-63 0 0,2 1 56 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 1-1 0 0,3 0 0 0 0,7 4 45 0 0,-10-5-35 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2 4 0 0 0,18 9 134 0 0,-21-14-117 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,-1 3 27 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-4 8 0 0 0,-20 21-208 0 0,24-29-170 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,-4 4-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1113 52 12752 0 0,'0'0'2832'0'0,"-7"-9"-1810"0"0,5 6-929 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,-6-1 0 0 0,-3-1 195 0 0,-1 1-1 0 0,-20 0 1 0 0,12 1-192 0 0,-142-3 1664 0 0,125 4-1586 0 0,-111 5 135 0 0,147-5-306 0 0,-138 6 7 0 0,81-4 14 0 0,-30 4 288 0 0,44-2-4 0 0,32-4-255 0 0,1 1 0 0 0,-1 0 0 0 0,-14 5 0 0 0,-15-2-53 0 0,42-4 29 0 0,0 0-18 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 329 0 0,-1 1-267 0 0,-2 2-7 0 0,0 4-11 0 0,2-6-51 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 3 0 0 0,-2 4 25 0 0,0-2-29 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,2 7 0 0 0,-1 8 0 0 0,-11 96 0 0 0,2-38 0 0 0,6-66 0 0 0,1 1 0 0 0,1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,1-1 0 0 0,6 19 0 0 0,-5-25 1 0 0,0 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,9 6-1 0 0,-5-4 7 0 0,27 15 46 0 0,-8-15-53 0 0,-23-6-12 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0-1 1 0 0,13 1-1 0 0,-11-1 28 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,13-8 1 0 0,5 0-94 0 0,-9 5 80 0 0,9-7-1 0 0,-19 9 0 0 0,-5 5 0 0 0,2 0 0 0 0,11-9 0 0 0,-7 6-10 0 0,-1 9-33 0 0,-6-5 39 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 2 1 0 0,0 6-6 0 0,1-8 9 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-3 3 0 0 0,1-1 0 0 0,-3 0 0 0 0,5-4-9 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-3 0 0 0,-7-3-70 0 0,-8-12-145 0 0,7 12 137 0 0,6 4 69 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-4-6 0 0 0,-9-12-146 0 0,15 20 223 0 0,-1 0 6 0 0,-5-5-108 0 0,8 2-139 0 0,5 2 10 0 0,-7 2 217 0 0,8-2-56 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,13 2 0 0 0,10 0 9 0 0,-23-1 4 0 0,1 0-1 0 0,0 0 0 0 0,10 3 0 0 0,-10-2 75 0 0,-1 0 1 0 0,1 0-1 0 0,11-1 1 0 0,-17-1-45 0 0,13 4 113 0 0,-14-3-133 0 0,11 2-8 0 0,-7-3 8 0 0,-5 0 112 0 0,-8 14 4 0 0,4-10-128 0 0,-1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,-6 3-1 0 0,-1 0-10 0 0,3 0-120 0 0,4-3-165 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-7 5 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1968.7">1157 662 6912 0 0,'0'0'2725'0'0,"-1"-7"619"0"0,-2-2-1995 0 0,-12-2-154 0 0,9 9-1049 0 0,0 0 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-7 3 0 0 0,-29 1 620 0 0,26-4-557 0 0,-30 7-1 0 0,31-5-26 0 0,-31 3-1 0 0,-66 3 12 0 0,104-8-147 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,1 1 0 0 0,-13 5 0 0 0,3 0 66 0 0,3-5-47 0 0,12-3-55 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-3 1 1 0 0,0-2 25 0 0,3 0-34 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,-2 2 447 0 0,3-2-391 0 0,0 3-37 0 0,0-2 22 0 0,2 4-33 0 0,1 1-10 0 0,0-1 11 0 0,0 3 33 0 0,-1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 11-1 0 0,-2-8-42 0 0,0 1-1 0 0,1 0 1 0 0,1-1 0 0 0,2 14-1 0 0,-1-10 9 0 0,19 119 169 0 0,-19-124-166 0 0,2 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,1 0 1 0 0,9 14-1 0 0,24 26 379 0 0,-35-47-297 0 0,16 16 177 0 0,-19-19-270 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,5 1-1 0 0,-6 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,2 1-1 0 0,10-1 115 0 0,-11 1-92 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0-1-1 0 0,3 0 1 0 0,13-6-49 0 0,-15 6-6 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,3-3 0 0 0,7-6 173 0 0,-11 9-217 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,3-6 0 0 0,-5 8 50 0 0,0 1 24 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-2-45 0 0,-1-2 47 0 0,0 4 8 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,4 2 7 0 0,-2-1-37 0 0,-1 0 9 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,1 3 1 0 0,0 0 17 0 0,19 25 244 0 0,-21-29-214 0 0,-12-4 31 0 0,-11-16-248 0 0,17 15 180 0 0,-1-1 1 0 0,1 1 0 0 0,1-1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-8-12-1 0 0,12 15 4 0 0,1 3 0 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,0-1-75 0 0,1 0 76 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,20-1 1 0 0,-6 0-2 0 0,-8 0 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,11 4 0 0 0,-1 0 0 0 0,1-2 0 0 0,-6-2 0 0 0,-6 0 0 0 0,1 1 11 0 0,-8-3-5 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-9 9 118 0 0,-16 4 279 0 0,10-8-709 0 0,1 1-1 0 0,0 1 0 0 0,-22 16 0 0 0,21-14-107 0 0,10-1-707 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3212.83">776 1141 3224 0 0,'0'0'6034'0'0,"9"12"-1338"0"0,-8 17-3402 0 0,0-14-521 0 0,0 0 0 0 0,-3 20 0 0 0,-17 132 1426 0 0,10-92-1894 0 0,6 0-173 0 0,1-45-78 0 0,2 38 0 0 0,1-23-22 0 0,1-35-32 0 0,2 6 0 0 0,-3-9-26 0 0,-1-6-104 0 0,12 1-265 0 0,-11-1 406 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,3-1 0 0 0,3-1-117 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,5-6 0 0 0,-2 2-51 0 0,1 1 0 0 0,11-8-1 0 0,-9 7 78 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,10-13-1 0 0,15-13 72 0 0,-35 34-2 0 0,2-1 91 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,4-2 0 0 0,-6 4-47 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,10 18 392 0 0,-7-15-349 0 0,-3-3-16 0 0,0 15-48 0 0,2-3-12 0 0,-1-6 1 0 0,1-2-13 0 0,-1 5-75 0 0,0-6-40 0 0,-2-9 49 0 0,0-1 46 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-7-9 0 0 0,-3-4-168 0 0,-20-24-1 0 0,30 39 202 0 0,2 4 0 0 0,0-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-2-1 0 0 0,2 0-69 0 0,9 2 29 0 0,0 1 68 0 0,0-1-1 0 0,1 2 1 0 0,11 3-1 0 0,1 1 41 0 0,51 15 349 0 0,-39-6-374 0 0,-33-15 132 0 0,-1 3 53 0 0,0-3-203 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 2 0 0 0,-6 4 12 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1-1-1 0 0,0 1 1 0 0,-10 3-1 0 0,13-5-31 0 0,-12 5-167 0 0,0-1 1 0 0,-22 6 0 0 0,-2 1-1462 0 0,24-6 670 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4676.69">240 456 6072 0 0,'0'0'548'0'0,"6"-3"272"0"0,-4 2-818 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0-2-1 0 0,2-4 54 0 0,-2 6-498 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6842.51">1 467 2760 0 0,'0'0'8904'0'0,"1"0"-8771"0"0,5 0-80 0 0,-4 0 401 0 0,3 0-222 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,5-2 1 0 0,-9 2-87 0 0,6-3 174 0 0,18-18-364 0 0,-20 17 3225 0 0,-4 8-2921 0 0,-2-1-231 0 0,1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 2 0 0 0,0-2 43 0 0,-1 13 210 0 0,-6 26 1558 0 0,4-36-1692 0 0,-1 3-66 0 0,8 10 312 0 0,1 25 414 0 0,0-3-808 0 0,-6-30-1 0 0,1 0-1 0 0,0-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,6 14 1 0 0,7 24-53 0 0,-9-17 84 0 0,-2-10 4 0 0,4 35-296 0 0,-6-37 371 0 0,0-1 0 0 0,5 17-1 0 0,8 31 84 0 0,1 15-430 0 0,0 13 132 0 0,-13-72 106 0 0,0 23 0 0 0,0-3 0 0 0,10 85 0 0 0,-9-91 0 0 0,7 42 0 0 0,2 25 84 0 0,-4-21 94 0 0,2 9-284 0 0,1 9 46 0 0,-8-66 60 0 0,6 23 0 0 0,-5-33 24 0 0,3 28-1 0 0,2 9 48 0 0,1-8 115 0 0,0-24-170 0 0,-2 12-16 0 0,4-5 64 0 0,-10-26-53 0 0,5 4 33 0 0,3-2 97 0 0,-11-8-128 0 0,1 1-11 0 0,16 4-5 0 0,-7 0 14 0 0,-9-5 32 0 0,1 2-22 0 0,-2-3 32 0 0,1-1 1 0 0,4 2-54 0 0,-3-3-43 0 0,0-2 20 0 0,3-1-37 0 0,3 1 34 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,14-1 1 0 0,-3 0 4 0 0,-13 2 22 0 0,-2 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,4 2 0 0 0,-1-1 0 0 0,-2-2 0 0 0,11 3 0 0 0,15 6 0 0 0,-22-8 0 0 0,1 0 0 0 0,-2 0 0 0 0,-2 0-13 0 0,-3 0-40 0 0,6-7-35 0 0,-8 6 64 0 0,1 0-52 0 0,-1 1-43 0 0,3-2 98 0 0,-3 2-38 0 0,1 1-321 0 0,1 3 308 0 0,-1-3 0 0 0,-17-8-863 0 0,15 7 922 0 0,-11-10-39 0 0,1-1-1 0 0,0 0 0 0 0,-11-15 0 0 0,13 18-13 0 0,9 8 65 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,8 0-2 0 0,7 1 57 0 0,128 19-124 0 0,-140-19 70 0 0,13 1-70 0 0,-15-2 306 0 0,-1 1-231 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-18 18 62 0 0,12-14-184 0 0,0 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,-10 3-1 0 0,10-3-278 0 0,-6 4-447 0 0,1-1-5060 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8687.77">1116 2126 10680 0 0,'0'0'1389'0'0,"-20"5"-402"0"0,16-4-983 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-2 1 0 0,1 1-1 0 0,-8-1 1 0 0,9 1 57 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,-2 1 1 0 0,-11 3 198 0 0,-39 6 563 0 0,39-8-603 0 0,0 0-1 0 0,0 0 0 0 0,-19 0 1 0 0,18 2 469 0 0,16-5-674 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,0 3 77 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-2 4 0 0 0,1-3-141 0 0,1 6 73 0 0,-1-7 7 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-3 7 1 0 0,1-5-16 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,2 0 0 0 0,-1 9 0 0 0,-4 22 45 0 0,-1-10 41 0 0,2 1 0 0 0,0 0 0 0 0,2-1-1 0 0,2 38 1 0 0,0-61-71 0 0,3 46 393 0 0,-2-46-330 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,3 7 1 0 0,2 5-62 0 0,-5-11-71 0 0,0-1-1 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,7 7-1 0 0,-5-6 75 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,2 5 1 0 0,-5-8-2 0 0,-1-1-8 0 0,11 5 29 0 0,7 7-54 0 0,-12-10 20 0 0,-2-1 24 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,5 0 0 0 0,-3-1-9 0 0,1 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,4-2-1 0 0,-8 4-34 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3-2 0 0 0,4-2 0 0 0,-6 4-1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0-3-1 0 0,8-18-217 0 0,-8 22 193 0 0,0 0 5 0 0,2-14 50 0 0,-3 11-29 0 0,0 4-58 0 0,1 4 30 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,3 4-1 0 0,3 8 33 0 0,-4-7-4 0 0,4 17 11 0 0,-3-17 32 0 0,0-1-22 0 0,-4-4 96 0 0,-11-18-57 0 0,9 12-56 0 0,-1 0-8 0 0,0 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,-5-4 1 0 0,5 5-4 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-4-7-1 0 0,6 8 9 0 0,-4-7-162 0 0,6 8 121 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 0 78 0 0,2-1-66 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,4 1-1 0 0,1-1 43 0 0,-4 1-7 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,5 2-1 0 0,9 3 195 0 0,-17-7-57 0 0,16 8 551 0 0,-13-6-717 0 0,-1-2-128 0 0,1 1 15 0 0,-4 13 164 0 0,-1-11 5 0 0,0 0-21 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-2 2 1 0 0,-12 21-957 0 0,14-24 774 0 0,-7 11-783 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9931.89">842 2687 2304 0 0,'10'-7'12942'0'0,"-8"13"-12654"0"0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-2 8-1 0 0,1 12 277 0 0,2-5-143 0 0,6 35-1 0 0,-3-35-340 0 0,0 35 0 0 0,-2-11-80 0 0,8 46 0 0 0,0-63 9 0 0,-4-11 113 0 0,-4-11-94 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,7 6 0 0 0,-8-8-68 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,7-1 0 0 0,8-2-20 0 0,-14 2 25 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,5-6-1 0 0,-3 3-51 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-2-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,4-10 0 0 0,7-38-148 0 0,-15 54 236 0 0,9-10 8 0 0,-8 10-8 0 0,10 18 196 0 0,-3 31-2 0 0,-7-44-178 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 5 1 0 0,2 2-5 0 0,-1-7 47 0 0,-1 5 9 0 0,0-1 25 0 0,2-9-78 0 0,-1-13-78 0 0,-6-18-152 0 0,5 27 177 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,-1 1 1 0 0,-2-9-1 0 0,2 2 58 0 0,1-6 142 0 0,-1 13-164 0 0,2 4-63 0 0,2 1 56 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 1-1 0 0,3 0 0 0 0,7 4 45 0 0,-10-5-35 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2 3 0 0 0,18 10 134 0 0,-21-14-117 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,-1 2 27 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-4 7 0 0 0,-20 21-208 0 0,24-28-170 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,-4 3-1 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19125,7 +19186,7 @@
       <inkml:brushProperty name="color" value="#FFC114"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 6336 0 0,'0'0'10361'0'0,"0"10"-9175"0"0,0-2-1174 0 0,0 0-12 0 0,3 32 432 0 0,-2-37-358 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 6 0 0 0,1-3 41 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,1 9-1 0 0,2 9 228 0 0,23 359 20 0 0,1-161-298 0 0,-18-136-64 0 0,3 12 64 0 0,-10-83-64 0 0,-1 2 0 0 0,0 24 0 0 0,-1-30 0 0 0,0 0 0 0 0,3 17 0 0 0,1 7 0 0 0,-2-23 55 0 0,-1 2 0 0 0,1-1 0 0 0,8 18 0 0 0,2 9 101 0 0,-9-21-82 0 0,2 1-10 0 0,-2 0 1 0 0,4 28-1 0 0,-5-26 16 0 0,1-1-1 0 0,12 39 1 0 0,-1-5 130 0 0,-14-52-154 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,3 3 0 0 0,15 24 59 0 0,-13-21-114 0 0,-6-8 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,9 0 0 0 0,-5 1-16 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,9-2 0 0 0,5 1-19 0 0,-15 0 20 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-3 0 0 0,0 2 1 0 0,0 0-1 0 0,-1 0 1 0 0,3-4-1 0 0,-1 3-20 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,6-3 0 0 0,14-12-84 0 0,20-31-24 0 0,-40 46 144 0 0,-4 3 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,4 5-16 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,3 10 0 0 0,7 9-25 0 0,7 8 91 0 0,-19-29-109 0 0,1 1 55 0 0,-1-2 96 0 0,-8-10-279 0 0,-2-3 148 0 0,1-1-1 0 0,0 1 0 0 0,-8-19 1 0 0,1 4-61 0 0,11 22 76 0 0,1 0-1 0 0,-1-2 1 0 0,-4-10-1 0 0,1 4-10 0 0,6 11 30 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-4 0 0 0,24 27 27 0 0,-12-12 33 0 0,0-1 0 0 0,17 10-1 0 0,7 5-14 0 0,-27-19-40 0 0,-1 0 0 0 0,1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,8 0 0 0 0,-14-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 2 0 0 0,0-2 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 1 0 0 0,1 0 0 0 0,-1-2 15 0 0,1 1-45 0 0,4 7 293 0 0,-6-7-263 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 1 0 0 0,-1-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 3 0 0 0,3-4 0 0 0,-3 6-5 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 2 0 0 0,0-2 0 0 0,-1-1 1 0 0,-7 6-1 0 0,-4 4-547 0 0,-30 16 0 0 0,19-13-1480 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 6336 0 0,'0'0'10361'0'0,"0"10"-9175"0"0,0-3-1174 0 0,0 1-12 0 0,3 30 432 0 0,-2-35-358 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 6 0 0 0,1-3 41 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,1 8-1 0 0,2 9 228 0 0,23 344 20 0 0,1-154-298 0 0,-18-131-64 0 0,3 12 64 0 0,-10-79-64 0 0,-1 1 0 0 0,0 23 0 0 0,-1-28 0 0 0,0 0 0 0 0,3 15 0 0 0,1 8 0 0 0,-2-22 55 0 0,-1 1 0 0 0,1-1 0 0 0,8 18 0 0 0,2 9 101 0 0,-9-21-82 0 0,2 1-10 0 0,-2 0 1 0 0,4 27-1 0 0,-5-25 16 0 0,1 0-1 0 0,12 36 1 0 0,-1-4 130 0 0,-14-50-154 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,3 3 0 0 0,15 23 59 0 0,-13-21-114 0 0,-6-7 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,9 0 0 0 0,-5 1-16 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,9-2 0 0 0,5 1-19 0 0,-15 0 20 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-2 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,3-4-1 0 0,-1 3-20 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,6-3 0 0 0,14-11-84 0 0,20-30-24 0 0,-40 44 144 0 0,-4 3 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,4 4-16 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,3 9 0 0 0,7 9-25 0 0,7 8 91 0 0,-19-28-109 0 0,1 1 55 0 0,-1-2 96 0 0,-8-10-279 0 0,-2-3 148 0 0,1 0-1 0 0,0 0 0 0 0,-8-17 1 0 0,1 3-61 0 0,11 21 76 0 0,1 0-1 0 0,-1-1 1 0 0,-4-11-1 0 0,1 5-10 0 0,6 10 30 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-4 0 0 0,24 26 27 0 0,-12-11 33 0 0,0-2 0 0 0,17 11-1 0 0,7 4-14 0 0,-27-19-40 0 0,-1 1 0 0 0,1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,8 0 0 0 0,-14-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 1 0 0 0,1 0 0 0 0,-1-2 15 0 0,1 1-45 0 0,4 7 293 0 0,-6-7-263 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 3 0 0 0,3-4 0 0 0,-3 6-5 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1-1 1 0 0,-7 6-1 0 0,-4 3-547 0 0,-30 16 0 0 0,19-13-1480 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19157,8 +19218,8 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">197 129 16727 0 0,'-3'7'1514'0'0,"2"-3"-1479"0"0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1-1-1 0 0,1 1 0 0 0,1 7 1 0 0,19 36 543 0 0,58 99 427 0 0,-59-112-981 0 0,1 0 0 0 0,2 0 1 0 0,37 38-1 0 0,-17-26 28 0 0,71 55 1 0 0,-77-73-54 0 0,55 30 0 0 0,-48-31 0 0 0,-20-11 0 0 0,21 11 0 0 0,-2 1 0 0 0,57 50 0 0 0,-65-46-53 0 0,-20-19-221 0 0,0-1 1 0 0,-1 3-1 0 0,-1 0 1 0 0,17 22-1 0 0,-19-15-1225 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="356.61">744 0 10592 0 0,'0'0'818'0'0,"-2"2"-532"0"0,-7 8 707 0 0,-1 0 1 0 0,2 1-1 0 0,-1-1 1 0 0,1 2-1 0 0,1-1 1 0 0,-11 24-1 0 0,-68 178-869 0 0,45-106-123 0 0,13-34-8 0 0,-88 199 105 0 0,79-199-61 0 0,-117 211 257 0 0,-19 58-1477 0 0,154-300-3217 0 0,1-5-1454 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">197 122 16727 0 0,'-3'7'1514'0'0,"2"-3"-1479"0"0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,1 1 0 0 0,1 6 1 0 0,19 35 543 0 0,58 93 427 0 0,-59-105-981 0 0,1-1 0 0 0,2 0 1 0 0,37 37-1 0 0,-17-26 28 0 0,70 53 1 0 0,-76-69-54 0 0,55 28 0 0 0,-48-30 0 0 0,-20-10 0 0 0,21 11 0 0 0,-2 1 0 0 0,57 47 0 0 0,-65-44-53 0 0,-20-18-221 0 0,0 0 1 0 0,-1 2-1 0 0,-1 0 1 0 0,17 21-1 0 0,-19-14-1225 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="356.61">743 0 10592 0 0,'0'0'818'0'0,"-2"2"-532"0"0,-7 7 707 0 0,-1 1 1 0 0,2 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,1 0 1 0 0,-11 22-1 0 0,-68 169-869 0 0,46-101-123 0 0,12-31-8 0 0,-88 188 105 0 0,79-189-61 0 0,-117 201 257 0 0,-19 54-1477 0 0,154-284-3217 0 0,1-5-1454 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19190,10 +19251,10 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">164 864 7920 0 0,'-37'-1'772'0'0,"19"0"-360"0"0,1 1 0 0 0,-27 3 0 0 0,34 0-327 0 0,8-2 266 0 0,0 0 86 0 0,1 0-336 0 0,-1 0-1 0 0,0 0 1 0 0,0 2 0 0 0,0-2 0 0 0,1 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 5 0 0 0,-3 5 202 0 0,3-11-290 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 2 0 0 0,5 4 38 0 0,-5-6-44 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 2 0 0 0,0-1-3 0 0,0 0 0 0 0,0 2 0 0 0,-1-2 0 0 0,2 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 2 0 0 0,17 19 46 0 0,7 4 7 0 0,4-1 98 0 0,1-2-1 0 0,1-1 1 0 0,63 29 0 0 0,-84-46-98 0 0,0-2 1 0 0,0 0-1 0 0,16 2 1 0 0,2 1 48 0 0,-10-4-55 0 0,1-1 0 0 0,0 0 0 0 0,-1-2 0 0 0,40-6 1 0 0,-37 3-48 0 0,1-2 1 0 0,-1-1-1 0 0,0-1 1 0 0,33-17-1 0 0,-16 8 43 0 0,-21 7 114 0 0,0 0 0 0 0,0-2 0 0 0,26-20-1 0 0,-3 2 18 0 0,-33 24-121 0 0,0-2 0 0 0,0 1 1 0 0,0-2-1 0 0,-1 2 0 0 0,0-3 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,4-12 0 0 0,-9 17 38 0 0,0 1-1 0 0,0 0 1 0 0,-1-2 0 0 0,1 2 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,-3-10 0 0 0,2-2 228 0 0,0 12-234 0 0,-1 2-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,-1-2 0 0 0,1 2 0 0 0,-1 0-1 0 0,-3-6 1 0 0,-8-14 382 0 0,9 14-337 0 0,0 0 0 0 0,0 2 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 2-1 0 0,-2-1 1 0 0,-8-7 0 0 0,3 5-40 0 0,0 0-1 0 0,0 1 1 0 0,0 1-1 0 0,-21-9 0 0 0,21 11-42 0 0,-5-2 124 0 0,0 0 1 0 0,-1 1-1 0 0,1 1 1 0 0,-29-4-1 0 0,22 8-189 0 0,-1 1 0 0 0,0 1 0 0 0,0 2 0 0 0,0 0 0 0 0,1 2 0 0 0,-1 1 0 0 0,1 2 0 0 0,0 0 0 0 0,1 2 0 0 0,0 1 0 0 0,-32 17 0 0 0,-34 14-794 0 0,82-36 518 0 0,7-5 126 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 2 0 0 0,0-2 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,4 5-1689 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1134.55">891 969 7920 0 0,'7'0'5168'0'0,"9"-8"-2880"0"0,12 13-1840 0 0,-23-4-372 0 0,1 1 0 0 0,0-1 0 0 0,10 1 0 0 0,118 2 531 0 0,247-4 348 0 0,-274-5-771 0 0,-55 1-163 0 0,54-5 34 0 0,31-2 709 0 0,-135 11 49 0 0,-9-4-685 0 0,-17-16 442 0 0,17 15-537 0 0,1 5 22 0 0,5 0-51 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 2 0 0 0,1-2 0 0 0,-2 2 0 0 0,1-1 1 0 0,0 0-5 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1 15 1 0 0,0-14-6 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2 3 0 0 0,-1 0 3 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 5 0 0 0,0-5 3 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,3 9 0 0 0,0-7 0 0 0,0 3-17 0 0,-3-9-64 0 0,2-1-50 0 0,4 0 110 0 0,-5 0 21 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-2-1 0 0,-1 2 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1-1 14 0 0,1 1-3 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-2 0 0 0,0 0-21 0 0,0 0-11 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-2 1 0 0,1 2-1 0 0,-1 0 1 0 0,-1-3-1 0 0,-14-26 47 0 0,11 22-3 0 0,-6-15-23 0 0,8 17 0 0 0,0 1 0 0 0,1 0 0 0 0,-2 0 0 0 0,-6-9 0 0 0,6 3 3 0 0,3 11-6 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1-1-1 0 0,-1 1 0 0 0,29 6 57 0 0,82 44-53 0 0,-59-31 0 0 0,-43-15-4 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1-1-1 0 0,8 2 0 0 0,-14-3 20 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 2 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 2 0 0 0,1-2-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 1-1 0 0,-1 1 69 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-2 5 0 0 0,3-7-76 0 0,-3 4 38 0 0,0 1 1 0 0,0-2-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,-7 8 0 0 0,-2-1-12 0 0,-19 13-1 0 0,26-21-52 0 0,4-2-82 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4519.89">58 339 7688 0 0,'-31'4'166'0'0,"25"-3"238"0"0,13 13-146 0 0,-7-12-197 0 0,1 0-1 0 0,-1-1 1 0 0,1 2 0 0 0,-1-1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-3 4 0 0 0,2-2-22 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 5 0 0 0,-4 17 178 0 0,4-22-167 0 0,-1-1 0 0 0,1 2 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 1 0 0 0,-1-2 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,2 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,2 5 0 0 0,0-2 57 0 0,-3-3-78 0 0,-1-1-1 0 0,1 1 1 0 0,-1 1-1 0 0,1-2 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 2-1 0 0,0-3-18 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 2 1 0 0,-1-2-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 2-1 0 0,51 50 270 0 0,-48-48-257 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 0 0 0 0,5 2 0 0 0,9 7 50 0 0,1-1 155 0 0,0-2 1 0 0,0 1 0 0 0,1-1 0 0 0,0-3 0 0 0,0 0-1 0 0,35 5 1 0 0,-38-10 126 0 0,1 0 0 0 0,0-2 0 0 0,0 0-1 0 0,24-6 1 0 0,-10 2-261 0 0,-17 2-1 0 0,-1-1 1 0 0,24-8-1 0 0,4-2 102 0 0,-30 9-111 0 0,0 0 0 0 0,0-2 0 0 0,-1 0 0 0 0,13-8-1 0 0,-21 11-62 0 0,20-12 166 0 0,-2-2 0 0 0,0 0 0 0 0,25-27 0 0 0,-45 43-129 0 0,1-4 4 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,3-17 0 0 0,-4 17-11 0 0,-1-2 1 0 0,0 1-1 0 0,0-1 0 0 0,0-9 0 0 0,0-7 74 0 0,0 10-62 0 0,-2-1 0 0 0,1 1 0 0 0,-2 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-7-20-1 0 0,3 16 44 0 0,-15-36 0 0 0,14 40-59 0 0,3 6-2 0 0,0-1 0 0 0,-1 2 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-14-10 1 0 0,-5-1 255 0 0,-41-22-1 0 0,64 38-287 0 0,-16-6 5 0 0,0 0-1 0 0,0 1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-26-1-1 0 0,6 0-20 0 0,19 2 5 0 0,-1 1 0 0 0,-36 1 0 0 0,47 2 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-13 8 0 0 0,-7 4 1 0 0,21-11-13 0 0,0-1 1 0 0,1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,-13 12 0 0 0,-12 11-10 0 0,25-23 10 0 0,-1 1 0 0 0,2 2 1 0 0,-1-2-1 0 0,1 1 0 0 0,-6 8 0 0 0,-46 68-73 0 0,56-80 78 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 6 0 0 0,1-6 7 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,-2 2-1 0 0,0 0 6 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-2 7-1 0 0,-6 25-100 0 0,7-30 97 0 0,0-2 0 0 0,0 2 0 0 0,1-2 0 0 0,0 2 0 0 0,0 8 0 0 0,0 12 104 0 0,0-21-125 0 0,1 1 0 0 0,-1-1 0 0 0,2 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,3 14 1 0 0,-4-19 14 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 2 0 0 0,-1-1 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 1 0 0,0 5-1 0 0,1-5 5 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 2 0 0 0,0-2 0 0 0,1 3-1 0 0,7 12-8 0 0,-7-14 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 2 0 0 0,0-2 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 2 0 0 0,0-1 0 0 0,0-1 0 0 0,0 4 0 0 0,0-4-5 0 0,0 1 1 0 0,0-1-1 0 0,0 2 0 0 0,1-2 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1 1 0 0 0,8 11-275 0 0,-8-9 168 0 0,7 9-1212 0 0,2-8-3045 0 0,5 2-1432 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5853.75">845 356 5152 0 0,'-4'-1'154'0'0,"0"-1"0"0"0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-5-5 0 0 0,5 1 683 0 0,-2 0-572 0 0,0 4 4233 0 0,38-6-2402 0 0,63 16-326 0 0,-89-8-1772 0 0,116 4 701 0 0,-26-2-271 0 0,89 2 153 0 0,-143-4-516 0 0,132-4 228 0 0,138-11-144 0 0,-154-1-10 0 0,-151 16-110 0 0,-5 0-4 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 1 0 0,4-1-1 0 0,-5 1 144 0 0,-14-14 61 0 0,-6 1-229 0 0,15 12 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-4-8 0 0 0,3 7 1 0 0,-7-14-15 0 0,10 16-50 0 0,3 2-3 0 0,4 5 3 0 0,6 4-3 0 0,6 23 70 0 0,-14-25-3 0 0,0 1 11 0 0,-4-8 257 0 0,-6-27-203 0 0,0 2-77 0 0,4 17-1 0 0,1 2-1 0 0,-1 0 1 0 0,1-2 0 0 0,0-7 0 0 0,-2-11-98 0 0,3 19 108 0 0,-1 1-1 0 0,1 1 1 0 0,-1-2 0 0 0,1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,0-6-1 0 0,2 3 4 0 0,-3 7-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1-1-16 0 0,22 6-47 0 0,-17-4 63 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 2-1 0 0,7 4 1 0 0,22 16 76 0 0,-32-22-49 0 0,-2-3-26 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,21 16 174 0 0,-20-15-159 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 1 0 0 0,-1-2 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 2 0 0 0,-7 14 236 0 0,-26 30 451 0 0,11-21-675 0 0,-19 24-984 0 0,11-25-3378 0 0,27-23 2705 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">164 808 7920 0 0,'-37'-1'772'0'0,"19"0"-360"0"0,1 1 0 0 0,-27 3 0 0 0,34 0-327 0 0,8-2 266 0 0,0 0 86 0 0,1 0-336 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 4 0 0 0,-3 5 202 0 0,3-10-290 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 2 0 0 0,5 3 38 0 0,-5-5-44 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 2 0 0 0,0-1-3 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,2 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 2 0 0 0,17 17 46 0 0,7 5 7 0 0,4-2 98 0 0,1-2-1 0 0,1 0 1 0 0,63 27 0 0 0,-84-44-98 0 0,0-1 1 0 0,0 0-1 0 0,16 2 1 0 0,2 0 48 0 0,-10-3-55 0 0,1-1 0 0 0,0 0 0 0 0,-1-2 0 0 0,40-5 1 0 0,-37 2-48 0 0,1-2 1 0 0,-1 0-1 0 0,0-2 1 0 0,33-15-1 0 0,-16 7 43 0 0,-21 7 114 0 0,0-1 0 0 0,0-1 0 0 0,26-19-1 0 0,-3 2 18 0 0,-33 22-121 0 0,0-1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,0-2 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,4-12 0 0 0,-9 17 38 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-3-9 0 0 0,2-2 228 0 0,0 12-234 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,-3-5 1 0 0,-8-14 382 0 0,9 14-337 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-2 0 1 0 0,-8-7 0 0 0,3 4-40 0 0,0 1-1 0 0,0 1 1 0 0,0 0-1 0 0,-21-8 0 0 0,21 11-42 0 0,-5-3 124 0 0,0 1 1 0 0,-1 0-1 0 0,1 2 1 0 0,-29-5-1 0 0,22 8-189 0 0,-1 1 0 0 0,0 1 0 0 0,0 2 0 0 0,0 0 0 0 0,1 2 0 0 0,-1 1 0 0 0,1 1 0 0 0,0 1 0 0 0,1 1 0 0 0,0 1 0 0 0,-32 17 0 0 0,-34 12-794 0 0,82-33 518 0 0,7-5 126 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,4 5-1689 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1134.55">891 906 7920 0 0,'7'0'5168'0'0,"9"-7"-2880"0"0,12 12-1840 0 0,-23-4-372 0 0,1 0 0 0 0,0 0 0 0 0,10 1 0 0 0,118 2 531 0 0,247-4 348 0 0,-274-5-771 0 0,-55 2-163 0 0,54-6 34 0 0,31-1 709 0 0,-135 10 49 0 0,-9-4-685 0 0,-17-15 442 0 0,17 15-537 0 0,1 4 22 0 0,5 0-51 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-2 2 0 0 0,1-1 1 0 0,0 0-5 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1 14 1 0 0,0-14-6 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,2 3 0 0 0,-1-1 3 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 6 0 0 0,0-6 3 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,3 9 0 0 0,0-6 0 0 0,0 2-17 0 0,-3-8-64 0 0,2-1-50 0 0,4 0 110 0 0,-5 0 21 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1-1 14 0 0,1 1-3 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-2 0 0 0,0 0-21 0 0,0 0-11 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,-1-3-1 0 0,-14-24 47 0 0,11 21-3 0 0,-6-15-23 0 0,8 17 0 0 0,0 0 0 0 0,1 1 0 0 0,-2-1 0 0 0,-6-8 0 0 0,6 3 3 0 0,3 10-6 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,-1 0 0 0 0,29 5 57 0 0,82 42-53 0 0,-59-29 0 0 0,-43-14-4 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1-1-1 0 0,8 2 0 0 0,-14-3 20 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 2 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 1-1 0 0,-1 1 69 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-2 4 0 0 0,3-6-76 0 0,-3 4 38 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,-7 7 0 0 0,-2 0-12 0 0,-19 11-1 0 0,26-19-52 0 0,4-2-82 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4519.9">58 317 7688 0 0,'-31'4'166'0'0,"25"-3"238"0"0,13 12-146 0 0,-7-11-197 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-3 3 0 0 0,2-1-22 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 5 0 0 0,-4 15 178 0 0,4-20-167 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,2 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,2 4 0 0 0,0-1 57 0 0,-3-3-78 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 3-1 0 0,0-3-18 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 2-1 0 0,51 47 270 0 0,-48-46-257 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,5 2 0 0 0,9 6 50 0 0,1-1 155 0 0,0-1 1 0 0,0 0 0 0 0,1-1 0 0 0,0-2 0 0 0,0 0-1 0 0,35 4 1 0 0,-38-9 126 0 0,1 0 0 0 0,0-2 0 0 0,0 0-1 0 0,24-6 1 0 0,-10 3-261 0 0,-17 1-1 0 0,-1-1 1 0 0,24-7-1 0 0,4-2 102 0 0,-30 8-111 0 0,0 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,13-7-1 0 0,-21 11-62 0 0,20-12 166 0 0,-2-2 0 0 0,0 0 0 0 0,25-25 0 0 0,-45 40-129 0 0,1-4 4 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,3-15 0 0 0,-4 15-11 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-9 0 0 0,0-7 74 0 0,0 10-62 0 0,-2-1 0 0 0,1 1 0 0 0,-2 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-7-19-1 0 0,3 15 44 0 0,-15-33 0 0 0,14 37-59 0 0,3 5-2 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-14-9 1 0 0,-5-1 255 0 0,-41-20-1 0 0,64 35-287 0 0,-16-6 5 0 0,0 1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1 1 0 0 0,-26-2-1 0 0,6 0-20 0 0,19 3 5 0 0,-1 0 0 0 0,-36 1 0 0 0,47 2 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,-13 7 0 0 0,-7 4 1 0 0,21-10-13 0 0,0-1 1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-13 11 0 0 0,-12 10-10 0 0,25-21 10 0 0,-1 1 0 0 0,2 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-6 7 0 0 0,-46 63-73 0 0,56-74 78 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 5 0 0 0,1-5 7 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,-2 2-1 0 0,0-1 6 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-2 6-1 0 0,-6 24-100 0 0,7-29 97 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 8 0 0 0,0 11 104 0 0,0-19-125 0 0,1 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,3 12 1 0 0,-4-17 14 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 1 0 0,0 4-1 0 0,1-4 5 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 3-1 0 0,7 11-8 0 0,-7-13 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 4 0 0 0,0-4-5 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1 1 0 0 0,8 10-275 0 0,-8-8 168 0 0,7 8-1212 0 0,2-7-3045 0 0,5 1-1432 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5853.75">845 333 5152 0 0,'-4'-1'154'0'0,"0"-1"0"0"0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-5-5 0 0 0,5 2 683 0 0,-2-1-572 0 0,0 4 4233 0 0,38-5-2402 0 0,63 14-326 0 0,-89-7-1772 0 0,116 4 701 0 0,-26-2-271 0 0,89 2 153 0 0,-143-4-516 0 0,132-4 228 0 0,138-10-144 0 0,-154-1-10 0 0,-151 15-110 0 0,-5 0-4 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 1 0 0,4-1-1 0 0,-5 1 144 0 0,-14-13 61 0 0,-6 1-229 0 0,15 11 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-4-7 0 0 0,3 6 1 0 0,-7-13-15 0 0,10 15-50 0 0,3 2-3 0 0,4 5 3 0 0,6 3-3 0 0,6 22 70 0 0,-14-23-3 0 0,0 0 11 0 0,-4-7 257 0 0,-6-25-203 0 0,0 1-77 0 0,4 17-1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0-7 0 0 0,-2-11-98 0 0,3 19 108 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,0-7-1 0 0,2 4 4 0 0,-3 6-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1-1-16 0 0,22 6-47 0 0,-17-4 63 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,7 5 1 0 0,22 14 76 0 0,-32-20-49 0 0,-2-3-26 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,21 15 174 0 0,-20-14-159 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-7 14 236 0 0,-26 28 451 0 0,11-19-675 0 0,-19 21-984 0 0,11-22-3378 0 0,27-22 2705 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19291,25 +19352,25 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1346 216 13392 0 0,'0'0'1209'0'0,"1"-1"-994"0"0,3-13 1678 0 0,6-4 2541 0 0,-4 13-4039 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,12-4 0 0 0,6 1 129 0 0,37-5-1 0 0,-34 7 344 0 0,277-41-259 0 0,-108 26-608 0 0,-83 9 0 0 0,43 2 0 0 0,-74 6 0 0 0,312-3 70 0 0,-40 3 28 0 0,49 0-177 0 0,-211 3 38 0 0,170-10 41 0 0,-140 1 0 0 0,-7 3 0 0 0,-23 4 23 0 0,-6 0 57 0 0,-116 0 242 0 0,79 4-731 0 0,-46 1 554 0 0,-4 0 18 0 0,-96-4-248 0 0,23 0 9 0 0,72 4-55 0 0,-40 2 131 0 0,-46-8 0 0 0,-12 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,6 1 304 0 0,0 1 0 0 0,16 2-1 0 0,-13-2 50 0 0,0-1-1 0 0,17 7 0 0 0,-16-3-376 0 0,-11-4-104 0 0,0-2 112 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,4 12 697 0 0,-2-12-657 0 0,1 0-16 0 0,5 7-7 0 0,5 1-1 0 0,-8-6 0 0 0,0 3 0 0 0,-4-4-23 0 0,0 2-1 0 0,0-2 1 0 0,0 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 2 1 0 0,0-2 0 0 0,0 0 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,2 3 1 0 0,-1-2 22 0 0,0-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 6 0 0 0,1 34 0 0 0,-2-17 0 0 0,10 56 61 0 0,1 8 65 0 0,10 108 173 0 0,-20-190-305 0 0,13 67 7 0 0,-10-55 9 0 0,-1-4 29 0 0,3 9 14 0 0,-2 0-1 0 0,3 30 1 0 0,2 41-108 0 0,0 14 93 0 0,-1-42 307 0 0,-1-7-282 0 0,-3-22-382 0 0,8 18 430 0 0,-1-2 938 0 0,-6-17-892 0 0,4 19 48 0 0,8 87 41 0 0,-3 26-246 0 0,-6-97 0 0 0,-4-43 0 0 0,2 46 0 0 0,0-4 0 0 0,0-28 0 0 0,-3-16 0 0 0,-1-13 0 0 0,1-1 0 0 0,4 18 0 0 0,-6-17-5998 0 0,-2-10 1730 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1394.5">1633 2608 11520 0 0,'0'0'1040'0'0,"7"2"-571"0"0,-6-1-125 0 0,1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-2 1 0 0 0,3-2-1 0 0,16-7 2624 0 0,-13 8-2258 0 0,8-2 939 0 0,0 0-1 0 0,20 1 0 0 0,99-12 640 0 0,-24 2-2100 0 0,211-11-242 0 0,-190 16 1096 0 0,142-4-950 0 0,-110 5 351 0 0,-49 0-240 0 0,81-2-202 0 0,97-3 0 0 0,-126 7 0 0 0,142-7 0 0 0,-54 4 0 0 0,48 3 0 0 0,-211 5 0 0 0,263-5 0 0 0,-232 0 11 0 0,58-3 415 0 0,-124 8-367 0 0,67-3 85 0 0,-92-1-141 0 0,35-4-21 0 0,-21 4-476 0 0,13-1 1072 0 0,187 1-487 0 0,-160 0-91 0 0,-76 3 19 0 0,0-1 0 0 0,14-4 0 0 0,-13 3-320 0 0,1 1 0 0 0,15-2-1 0 0,-23-27-7923 0 0,1 18 6689 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-194626.72">3827 2537 17503 0 0,'-3'2'8268'0'0,"2"3"-8576"0"0,-4 15 1254 0 0,-1 13 88 0 0,-6 70-867 0 0,6-63-99 0 0,-2 12 277 0 0,-2 0 0 0 0,-3-3 1 0 0,-1 2-1 0 0,-41 93 0 0 0,26-65-265 0 0,-34 135-1 0 0,9-26-11 0 0,6-16-628 0 0,42-143-1116 0 0,3-12-5140 0 0,1-5-2027 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-192854.9">3673 4056 11488 0 0,'1'-1'51'0'0,"-1"0"1"0"0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-4-12 71 0 0,4 11-81 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-2 0 0 0,0 2 0 0 0,0-1 1 0 0,0 1-1 0 0,-3-1 0 0 0,-9-13 1006 0 0,11 13-911 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,-5 0-1 0 0,-31-7 1211 0 0,31 8-1224 0 0,-83-21 1709 0 0,-49-9-540 0 0,-22 14-237 0 0,-8-1-376 0 0,59 9-214 0 0,83 8-364 0 0,-56 4 108 0 0,32 0-150 0 0,-168 19 255 0 0,1 19 205 0 0,82-13-271 0 0,98-21-73 0 0,1 3 1 0 0,-50 18 0 0 0,73-23-150 0 0,0 3 1 0 0,0-1-1 0 0,0 0 0 0 0,1 2 1 0 0,1 0-1 0 0,-1 1 0 0 0,1 0 1 0 0,1 1-1 0 0,-11 13 1 0 0,-7 11 0 0 0,12-14-1 0 0,-25 35 0 0 0,28-34-33 0 0,1 1-1 0 0,1 0 1 0 0,1 1 0 0 0,-16 48-1 0 0,21-48 98 0 0,-1 1 1 0 0,3 0-1 0 0,0 1 0 0 0,0-1 0 0 0,2 0 0 0 0,2 1 1 0 0,0 0-1 0 0,0-1 0 0 0,8 45 0 0 0,-4-54-92 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,2-2 0 0 0,7 16 0 0 0,-5-9-15 0 0,3 1-21 0 0,0-1-1 0 0,1 0 1 0 0,2-1 0 0 0,0-1-1 0 0,-1 0 1 0 0,3-1 0 0 0,21 19-1 0 0,-13-16 133 0 0,0-1 1 0 0,54 31-1 0 0,58 20 195 0 0,-136-70-290 0 0,446 188 247 0 0,-214-116-107 0 0,376 71-52 0 0,-274-52-29 0 0,-90-23 47 0 0,17-6-16 0 0,7-18-36 0 0,105-17-11 0 0,0-42 138 0 0,-320 6-155 0 0,-1-3-1 0 0,1-2 1 0 0,-2-4 0 0 0,62-28-1 0 0,-80 30-23 0 0,98-47 34 0 0,-109 49-30 0 0,-1-1 1 0 0,0 1-1 0 0,31-30 1 0 0,-43 33 4 0 0,2 0-1 0 0,-2-2 1 0 0,-1 0 0 0 0,0 1-1 0 0,15-26 1 0 0,-19 27-28 0 0,-1-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,-2-1 0 0 0,0 1 0 0 0,1-2 0 0 0,-2 1 0 0 0,1 1 0 0 0,-2-1 0 0 0,-1-12 0 0 0,0-3-27 0 0,-3 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,-11-31 0 0 0,8 34 32 0 0,0 1 0 0 0,-1 0 0 0 0,-3-1 0 0 0,1 2-1 0 0,-25-33 1 0 0,7 16-33 0 0,-62-58-1 0 0,-43-45-14 0 0,132 136 60 0 0,-60-71-20 0 0,-5-6-20 0 0,45 57 10 0 0,-2 1-1 0 0,0 1 1 0 0,-1 2 0 0 0,-32-21-1 0 0,-13 2-37 0 0,-83-35 0 0 0,-62-30-50 0 0,-12-5 8 0 0,0 23-2 0 0,-6 22 0 0 0,185 55 112 0 0,-173-28 0 0 0,50 26 0 0 0,58 6 0 0 0,-233 2-390 0 0,328 4 307 0 0,-58 4-1769 0 0,19-2-3603 0 0,-6-1-2476 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-191497.92">2407 4156 21191 0 0,'0'0'480'0'0,"-10"6"1167"0"0,-2 15-1187 0 0,2 1-1 0 0,1 2 1 0 0,0-2 0 0 0,-8 32-1 0 0,-10 25-508 0 0,18-50 49 0 0,0 0 0 0 0,-5 33 0 0 0,1-6 0 0 0,-8 49 0 0 0,15-66 0 0 0,5-31-64 0 0,2-22-459 0 0,0-1 1 0 0,1 1-1 0 0,5-24 0 0 0,16-46 812 0 0,-9 38-444 0 0,-3 7-57 0 0,30-70 0 0 0,-18 48 593 0 0,-17 46-392 0 0,-6 12 22 0 0,1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,4-7 873 0 0,1 21 69 0 0,7 49-787 0 0,-3-22-165 0 0,-7-20 0 0 0,1-2 0 0 0,0 1 0 0 0,1 0 0 0 0,10 17 0 0 0,19 44 0 0 0,-25-54 0 0 0,0 0 0 0 0,18 28 0 0 0,-23-46 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,10 5 0 0 0,-14-8 0 0 0,1 0 0 0 0,-2-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,2 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-2-1 0 0 0,2-1 0 0 0,0 2 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2-3 0 0 0,2-7 0 0 0,0 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 2 0 0 0,1-16 0 0 0,-3 17 0 0 0,7-24 0 0 0,-6 25 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-14 0 0 0,-2 4-146 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-6-23 0 0 0,-6 3-1642 0 0,8 28 603 0 0,2 5 154 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-191096.04">2790 4377 11976 0 0,'-9'34'1164'0'0,"8"-31"-1069"0"0,-1 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-2 1 0 0 0,2-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 6 0 0 0,3 12 1956 0 0,2 20 0 0 0,-3-21-943 0 0,5 21 0 0 0,-6-36-1012 0 0,0 0 1 0 0,0 2-1 0 0,0-3 1 0 0,1 1-1 0 0,0 1 1 0 0,0-1-1 0 0,5 7 0 0 0,4 1-93 0 0,-10-12 38 0 0,1 1-1 0 0,-1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 4 0 0 0,-1-4 7 0 0,0 0 1 0 0,0-1 0 0 0,0 2-1 0 0,1-1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1-2 1 0 0,1 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,3-1-1 0 0,9 0-48 0 0,-15 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-2 0 0 0,1 2 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-14 45 0 0,-1 1-1 0 0,1-1 0 0 0,-2 2 0 0 0,0-1 1 0 0,-1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-2 0 1 0 0,-6-13-1 0 0,5 14 296 0 0,5 10-183 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-5-5 0 0 0,-2-2-29 0 0,8 8-126 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1 1 1 0 0,-2-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-3-1 0 0 0,-23 3-925 0 0,6-1-4006 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-190580.33">3161 4317 19263 0 0,'0'0'1936'0'0,"0"2"-1633"0"0,0 0-78 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-2 4 0 0 0,-4 17 627 0 0,4-10-848 0 0,-1 0 1 0 0,0-2 0 0 0,-1 2 0 0 0,-1-2-1 0 0,0 1 1 0 0,-9 17 0 0 0,-4 14-4 0 0,6-19-1 0 0,-16 56 0 0 0,24-70 0 0 0,1 0 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 16 0 0 0,-3 3-249 0 0,2-23-829 0 0,8-26 453 0 0,-2-3 619 0 0,0-1-1 0 0,3-35 1 0 0,2-14 9 0 0,0 1-14 0 0,-7 48 26 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,13-36 0 0 0,-15 54 25 0 0,1-7 388 0 0,2 1 1 0 0,9-16-1 0 0,-13 23-397 0 0,0 1-1 0 0,1 1 0 0 0,-2-1 0 0 0,1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-2 1 0 0 0,2-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,5-2 0 0 0,-3 3-3 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,-1 0 0 0 0,2 2 1 0 0,-1-2-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,4 3 0 0 0,-2 0 157 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 5 1 0 0,5 21-128 0 0,-3-1 1 0 0,5 55-1 0 0,-7-65-56 0 0,1 27-166 0 0,0-6-641 0 0,12 66 1 0 0,-13-95-1432 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-190028.69">2968 4533 11976 0 0,'2'-1'266'0'0,"2"-3"-171"0"0,-1 2 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-2 0-1 0 0,2 0 0 0 0,-1 1 0 0 0,8-1 0 0 0,16-3-96 0 0,-20 3 143 0 0,0 0 1 0 0,0-1-1 0 0,1 2 1 0 0,15 3-1 0 0,5-2 578 0 0,9 1-347 0 0,14-1-138 0 0,-28 0-235 0 0,-20 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,5-1 0 0 0,0-1 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-2 0 0 0,9-7 0 0 0,-12 6 3573 0 0,-3 9-1829 0 0,1 4-1142 0 0,-2-4-427 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-2 6-1 0 0,-1 16 569 0 0,4 6-154 0 0,9 55-1 0 0,1 1-633 0 0,-5-57 45 0 0,-5-23 0 0 0,1-2 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0 6 0 0 0,0-9 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,2 4 0 0 0,3-1-64 0 0,-4-4-273 0 0,-2-2 293 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,-6-13-473 0 0,5 10 164 0 0,-3-7-199 0 0,1 0 0 0 0,-4-18 0 0 0,3 14 576 0 0,3 2-21 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,1 2 0 0 0,3-26 1 0 0,-1-13 431 0 0,-2 48-381 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-2 1 0 0,-1 2-1 0 0,1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,3-4 1 0 0,1-1 115 0 0,1-1 1 0 0,7-8-1 0 0,4-5 218 0 0,-16 21-384 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-2-1 0 0,1 2 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,4 0-1 0 0,0 0-3 0 0,0 1 1 0 0,1-1-1 0 0,-2 1 0 0 0,2 1 1 0 0,8 4-1 0 0,-10-5 1 0 0,0 1 0 0 0,-2 0 0 0 0,2 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,4 5 0 0 0,-5-6 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 0 0 0,1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1 5 0 0 0,1-3 61 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,-4 6 1 0 0,-1-4 20 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-2-1 0 0 0,1 1 0 0 0,-1-2 1 0 0,-14 5-1 0 0,23-9-182 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,2 1 1 0 0,-2-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,-2 1-1 0 0,-4-5-5496 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-189628.62">3576 4680 3224 0 0,'2'1'5309'0'0,"5"1"-3429"0"0,-5-1-1380 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,3 0 1 0 0,7-2 190 0 0,0-1 1 0 0,-1 0 0 0 0,1-1 0 0 0,12-6-1 0 0,-19 8-689 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-2-2 0 0 0,2 2 0 0 0,-1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,3-8 1 0 0,-6 9-2 0 0,0 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,2 1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,-2 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-2 0 0 0,-1 2 0 0 0,0 0 0 0 0,-7 2 0 0 0,-8 1 19 0 0,15-2 12 0 0,-1-1 0 0 0,2 1 1 0 0,-2 0-1 0 0,1 0 1 0 0,1 0-1 0 0,-2 1 0 0 0,1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 2-1 0 0,-1-2 0 0 0,-4 6 1 0 0,4-4 78 0 0,0 0-1 0 0,0 1 1 0 0,2-1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,2 2 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,2 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-1-2 0 0 0,2 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-2-1 0 0,6 10 1 0 0,-1-6 99 0 0,0 0-1 0 0,0 1 1 0 0,1-2-1 0 0,0-1 1 0 0,0 2-1 0 0,0-3 1 0 0,1 1-1 0 0,0-1 1 0 0,14 5-1 0 0,-11-6-614 0 0,0 1 1 0 0,0-3-1 0 0,0 1 0 0 0,0-2 0 0 0,0 0 1 0 0,0 0-1 0 0,18-3 0 0 0,-7-4-2330 0 0,-14 2 1337 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-189253.08">3866 4335 15664 0 0,'0'0'1571'0'0,"0"1"-1437"0"0,3 79 4768 0 0,-6 65-1630 0 0,0-72-2585 0 0,0-47-225 0 0,2 1-1 0 0,3 37 1 0 0,-1-53-855 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,8 19 0 0 0,-8-19-456 0 0,0-2-991 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-188834.4">4019 4392 13824 0 0,'0'0'2370'0'0,"7"3"-387"0"0,-6-1-1745 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 5-1 0 0,-2 3 142 0 0,1 1 0 0 0,-1-2 0 0 0,-2 12-1 0 0,-1 12 332 0 0,-8 79-538 0 0,11-94-172 0 0,-2 11 0 0 0,2-1 0 0 0,4 55 0 0 0,-3-77-52 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0-1 0 0,0 1 1 0 0,1-2 0 0 0,-1 1 0 0 0,1-1 0 0 0,4 8 0 0 0,-4-9-1373 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 2-1 0 0,5 1 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-188833.4">4190 4663 8752 0 0,'0'0'793'0'0,"0"10"-634"0"0,-11 145 12354 0 0,7-126-11624 0 0,4-25-801 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 1 0 0,2-1-1 0 0,-1-1 0 0 0,1 11 0 0 0,-1-13-195 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 2 1 0 0,0-2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 1-1 0 0,4-1 1 0 0,5 0-1405 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-188227.92">4553 4377 15664 0 0,'0'0'761'0'0,"4"7"49"0"0,-2-1-736 0 0,0-1-1 0 0,1-1 0 0 0,-1 1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,2 5-1 0 0,-1 11 1156 0 0,-1 21 1 0 0,-1-13-232 0 0,-13 230 3144 0 0,13-213-4142 0 0,2-31 0 0 0,-2 0 0 0 0,-1 16 0 0 0,-8-2 0 0 0,10-30 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-6-9 0 0 0,0-7 0 0 0,-1-2 0 0 0,2 0 0 0 0,-1 0 0 0 0,-1-20 0 0 0,4 30 0 0 0,1-1 0 0 0,-1 2 0 0 0,1-2 0 0 0,-2 2 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,-7-8 0 0 0,11 13 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-2 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,1 1 0 0 0,-2-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 2 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-3 8 0 0 0,3-6 33 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0-1 0 0 0,1 1 0 0 0,0 1 1 0 0,0-2-1 0 0,1 1 0 0 0,-1 1 0 0 0,1-2 1 0 0,0 0-1 0 0,0 2 0 0 0,1-2 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-2 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0-1 1 0 0,8 7-1 0 0,-5-6-99 0 0,-1-1 0 0 0,2 0 0 0 0,-2 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,-1 0 0 0 0,14-2 0 0 0,20-4 62 0 0,-22 2-642 0 0,31 0-1 0 0,-44 4 460 0 0,-1-1-1 0 0,1 0 1 0 0,1 0 0 0 0,-2 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-2-1-1 0 0,1 0 1 0 0,1 0 0 0 0,-2 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-2-1-1 0 0,2 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-2 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-2 0 0 0,1-5-1 0 0,-2 8 190 0 0,9-12 1900 0 0,-17 22-878 0 0,7-6-921 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 2 1 0 0,1-2 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 2-1 0 0,0-2 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,2 2-1 0 0,0 0 33 0 0,1 0 0 0 0,-1 2-1 0 0,-1-2 1 0 0,2 0 0 0 0,6 7-1 0 0,-4-4-134 0 0,3 0 0 0 0,-2 1 0 0 0,1-2 0 0 0,1 0 0 0 0,-1 1 0 0 0,10 4 0 0 0,-11-8 114 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,2-1-1 0 0,9 2 1 0 0,-13-3-57 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-2-1 0 0,0 2 1 0 0,2-4 0 0 0,0 2-57 0 0,-4 3 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1-6 0 0 0,0 2 0 0 0,-1-2 0 0 0,0 2 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-2 0 0 0,-4-6 0 0 0,-2-3 0 0 0,-12-20 0 0 0,16 30 0 0 0,0 2 1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-2 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-2 0 0 0 0,2 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,-6-2 0 0 0,-2-1-17 0 0,1 2 0 0 0,0 0 0 0 0,-1 1 0 0 0,-15-3 0 0 0,8 5-464 0 0,0-1 0 0 0,0 1 0 0 0,0 2-1 0 0,-23 6 1 0 0,3 2-2779 0 0,2 4-3315 0 0,18-5-63 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-187745.92">3653 5075 18399 0 0,'2'0'85'0'0,"-2"0"0"0"0,2 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,2 7 338 0 0,-2-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,-2 12 1 0 0,-2 57 1211 0 0,-7 14-1018 0 0,10-77-616 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,1 0 0 0 0,2 24 0 0 0,1-31 760 0 0,-1-4-2952 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-187418.09">3698 5153 2760 0 0,'6'-15'-29'0'0,"3"-4"1540"0"0,4 1 7180 0 0,-12 18-8489 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,10 12 1369 0 0,-10-10-1296 0 0,4 4 191 0 0,1 1 0 0 0,-1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 2 0 0 0,-1-1-1 0 0,1 1 1 0 0,2 12 0 0 0,2 7-373 0 0,4 37 1 0 0,5 49 1738 0 0,-13-76-1685 0 0,-4-31-145 0 0,0 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 2 1 0 0,0-2 0 0 0,3 10-1 0 0,7 22-147 0 0,-11-37-11 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 4 0 0 0,-14-26-11782 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-187034.62">3678 5383 5984 0 0,'-4'-4'81'0'0,"1"1"0"0"0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-8-3 0 0 0,10 6 59 0 0,1 0 0 0 0,0-2 0 0 0,-1 2 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 2 0 0 0,1-2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 117 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 2-1 0 0,1-2 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,2 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,2 1 0 0 0,4 3 186 0 0,2-1-1 0 0,13 2 1 0 0,-16-3-181 0 0,47 13 730 0 0,-34-8-625 0 0,0-2 0 0 0,0 0 0 0 0,1-1 0 0 0,-1-1 0 0 0,35-1 0 0 0,-45-3-364 0 0,0 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,9-3 1 0 0,-14 2-4 0 0,0 2-1 0 0,0-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,2 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-2 0 1 0 0,7-6 0 0 0,-5 2-117 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,-1-2 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-2 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,-3-13 1 0 0,4 15 181 0 0,-1 4-38 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,-5 3 407 0 0,4-1-385 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 5 0 0 0,-1 1-17 0 0,-2 9-7 0 0,1 0 0 0 0,-1 26 0 0 0,3-32 237 0 0,1-1-1 0 0,0 0 1 0 0,3 15-1 0 0,-3-20-166 0 0,1-1-1 0 0,-2-1 0 0 0,2 1 1 0 0,0-1-1 0 0,0 2 1 0 0,0-2-1 0 0,1 0 0 0 0,-1 0 1 0 0,5 8-1 0 0,-4-9-93 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-2 0 0 0,1 1 0 0 0,-2-1 0 0 0,1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-2-1 0 0 0,7 4 0 0 0,-1-3-111 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,12-3 0 0 0,-14 2 21 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-2 1 0 0,9-8-1 0 0,-14 10 91 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,-1 2 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-8 0 0 0,-2 16 0 0 0,0 10 0 0 0,2-13 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,0-2 0 0 0,0 0 0 0 0,3 1 0 0 0,7 5 0 0 0,-12-7 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1-1 0 0 0,0 2 47 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-2-1 0 0 0,2 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-2-1 0 0,0 2 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-2 1 0 0,1 1-1 0 0,-1-2 0 0 0,0-6-187 0 0,0 6 1 0 0,1 0-1 0 0,-1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-2-5 0 0 0,2 6 126 0 0,0-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,-1-6 0 0 0,2 7-360 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,-2-2 1 0 0,-1 0-1650 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-186327.76">4379 5361 11976 0 0,'0'0'5561'0'0,"6"6"-2919"0"0,-3-3-2292 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,-2 0 0 0 0,2 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,-2 0 0 0 0,2-1 0 0 0,0 1 0 0 0,1 7 0 0 0,-1-1 123 0 0,0 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,1 13 0 0 0,2 1-317 0 0,-1-18-152 0 0,-1 0 0 0 0,0 0 0 0 0,-1 15 0 0 0,1-15-4 0 0,-1-7-7 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,1 0-66 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0-4 0 0 0,0 2 76 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,3-7 0 0 0,-1-2-3 0 0,-2 13 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-2 0 0 0,0 2 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-2-1 0 0 0,2 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,2 0 0 0 0,-1-1 0 0 0,4 0 0 0 0,-5 2 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,13 18 0 0 0,-11-6 4 0 0,2 0-1 0 0,2 20 0 0 0,-1-7 863 0 0,-5-25-694 0 0,1 11 692 0 0,14-37-2760 0 0,-13 13 1879 0 0,-3 9 17 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,9-12 0 0 0,-3 5 0 0 0,-1-1 0 0 0,0 2 0 0 0,1 0 0 0 0,0-1 0 0 0,1 2 0 0 0,15-12 0 0 0,-20 17 39 0 0,-2 0-1 0 0,1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-2-1 1 0 0,2 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,4 1 0 0 0,0 2 62 0 0,-2 0-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 2-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1 1 0 0 0,4 7-1 0 0,-4-6-112 0 0,3 7-275 0 0,1 0 1 0 0,8 16-1 0 0,-13-29-220 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-185630.99">4829 5385 15664 0 0,'0'0'761'0'0,"1"2"-335"0"0,11 12 791 0 0,-1 1-1 0 0,12 16 0 0 0,-19-23-655 0 0,-1-2 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,2 12 0 0 0,-3 0-575 0 0,-2-16 137 0 0,1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,2 3-1 0 0,-3-5 321 0 0,0 1-294 0 0,0 6-197 0 0,0-6-289 0 0,5-15-1262 0 0,0 4 1607 0 0,-2-1-8 0 0,0-1 0 0 0,0 2 0 0 0,1-2 0 0 0,1 2 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,9-10 0 0 0,-14 18 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,3 0 0 0 0,-4 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 2 0 0 0,1 1 0 0 0,0 0 85 0 0,1 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,-1-2 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 2 1 0 0,1-2 0 0 0,-1 5-1 0 0,0 0 370 0 0,-1-4-290 0 0,6 21 280 0 0,-1-17-444 0 0,1 3 0 0 0,-1-11 0 0 0,-2 0 0 0 0,7 2 0 0 0,-8-3-25 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1-2 1 0 0,0 2 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-2 0 0 0,1 0-198 0 0,6-4-208 0 0,-1-1 1 0 0,9-10-1 0 0,15-19-1425 0 0,-30 36 1895 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,2 1 1 0 0,-1 0-27 0 0,6 4 211 0 0,1 1-1 0 0,12 10 1 0 0,-15-10-233 0 0,0-1 0 0 0,0-1 0 0 0,2 0 0 0 0,-2 1 0 0 0,14 4 0 0 0,7 2 10 0 0,37 6 0 0 0,-55-14 0 0 0,0-2 0 0 0,2 0 0 0 0,-2-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,14-5 0 0 0,-13 4 0 0 0,-6 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,3-1 0 0 0,3-6 0 0 0,-7 10 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0-1 19 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-2-3 1 0 0,0 1 59 0 0,0 1 1 0 0,0 0-1 0 0,0-2 0 0 0,-1 3 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,-4-5 0 0 0,-6-1 127 0 0,0 0 0 0 0,0 1 0 0 0,-1 1-1 0 0,-20-7 1 0 0,-100-30-1034 0 0,131 43 295 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-7-4 0 0 0,-1-1-5704 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-184728.48">1590 1979 20327 0 0,'-12'-2'1084'0'0,"-3"4"19"0"0,1 5-739 0 0,-25 12 837 0 0,33-16-1153 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-11 3-1 0 0,-9 1 59 0 0,-130 37 1040 0 0,49-16-415 0 0,-53 26-103 0 0,-65 7-48 0 0,78-23-560 0 0,108-27-17 0 0,-184 56-142 0 0,-112 19-3835 0 0,291-78 2452 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1455 205 13392 0 0,'0'0'1209'0'0,"1"-1"-994"0"0,3-12 1678 0 0,7-4 2541 0 0,-5 12-4039 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,14-4 0 0 0,6 1 129 0 0,40-4-1 0 0,-37 6 344 0 0,300-39-259 0 0,-117 25-608 0 0,-90 9 0 0 0,47 1 0 0 0,-80 6 0 0 0,336-2 70 0 0,-42 2 28 0 0,53 0-177 0 0,-229 3 38 0 0,185-10 41 0 0,-152 2 0 0 0,-8 2 0 0 0,-24 4 23 0 0,-7 0 57 0 0,-125 0 242 0 0,85 4-731 0 0,-50 1 554 0 0,-4-1 18 0 0,-103-3-248 0 0,24 0 9 0 0,78 4-55 0 0,-43 2 131 0 0,-50-8 0 0 0,-13 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,7 1 304 0 0,0 1 0 0 0,16 2-1 0 0,-13-3 50 0 0,0 0-1 0 0,19 7 0 0 0,-18-3-376 0 0,-12-5-104 0 0,0-1 112 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,4 11 697 0 0,-2-11-657 0 0,1 0-16 0 0,6 7-7 0 0,5 0-1 0 0,-9-5 0 0 0,1 3 0 0 0,-5-4-23 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 2 1 0 0,0-3 0 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,2 3 1 0 0,-1-2 22 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 5 0 0 0,1 33 0 0 0,-2-16 0 0 0,11 53 61 0 0,1 7 65 0 0,10 103 173 0 0,-21-180-305 0 0,14 63 7 0 0,-10-52 9 0 0,-2-4 29 0 0,3 9 14 0 0,-1 0-1 0 0,2 28 1 0 0,3 39-108 0 0,0 14 93 0 0,-2-40 307 0 0,0-7-282 0 0,-4-21-382 0 0,9 17 430 0 0,-1-2 938 0 0,-6-16-892 0 0,3 18 48 0 0,10 83 41 0 0,-4 25-246 0 0,-6-93 0 0 0,-5-40 0 0 0,2 43 0 0 0,1-4 0 0 0,-1-26 0 0 0,-2-15 0 0 0,-2-13 0 0 0,1-1 0 0 0,5 18 0 0 0,-7-17-5998 0 0,-2-9 1730 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1394.5">1765 2478 11520 0 0,'0'0'1040'0'0,"7"2"-571"0"0,-5-1-125 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,2-2-1 0 0,17-6 2624 0 0,-13 7-2258 0 0,8-2 939 0 0,0 0-1 0 0,22 1 0 0 0,106-11 640 0 0,-25 2-2100 0 0,228-11-242 0 0,-205 15 1096 0 0,153-3-950 0 0,-119 4 351 0 0,-53 0-240 0 0,88-1-202 0 0,104-4 0 0 0,-136 7 0 0 0,154-6 0 0 0,-58 3 0 0 0,51 3 0 0 0,-228 5 0 0 0,285-4 0 0 0,-251-1 11 0 0,62-3 415 0 0,-133 8-367 0 0,72-3 85 0 0,-100-1-141 0 0,38-3-21 0 0,-22 3-476 0 0,13-1 1072 0 0,203 1-487 0 0,-173 0-91 0 0,-82 3 19 0 0,-1-1 0 0 0,16-3 0 0 0,-14 2-320 0 0,0 1 0 0 0,18-2-1 0 0,-26-26-7923 0 0,1 18 6689 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-194626.72">4136 2411 17503 0 0,'-3'2'8268'0'0,"2"2"-8576"0"0,-4 15 1254 0 0,-2 13 88 0 0,-6 66-867 0 0,7-60-99 0 0,-3 11 277 0 0,-2 0 0 0 0,-3-2 1 0 0,-1 1-1 0 0,-44 89 0 0 0,27-62-265 0 0,-36 129-1 0 0,10-26-11 0 0,6-14-628 0 0,45-137-1116 0 0,4-11-5140 0 0,1-4-2027 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-192854.9">3970 3854 11488 0 0,'1'-1'51'0'0,"-1"0"1"0"0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-5-11 71 0 0,5 10-81 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-3-1 0 0 0,-10-12 1006 0 0,12 12-911 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-6-1-1 0 0,-33-7 1211 0 0,34 8-1224 0 0,-91-20 1709 0 0,-52-8-540 0 0,-24 13-237 0 0,-8-1-376 0 0,63 8-214 0 0,89 8-364 0 0,-59 4 108 0 0,34 0-150 0 0,-182 18 255 0 0,1 18 205 0 0,89-13-271 0 0,106-19-73 0 0,1 2 1 0 0,-54 18 0 0 0,79-22-150 0 0,0 2 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 1 1 0 0,1 0-1 0 0,-12 13 1 0 0,-7 10 0 0 0,12-13-1 0 0,-26 33 0 0 0,30-32-33 0 0,1 1-1 0 0,1 0 1 0 0,1 1 0 0 0,-17 45-1 0 0,22-45 98 0 0,0 1 1 0 0,2 0-1 0 0,1 0 0 0 0,0 0 0 0 0,2 0 0 0 0,1 0 1 0 0,1 1-1 0 0,1-1 0 0 0,7 42 0 0 0,-4-50-92 0 0,1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,1-1 0 0 0,8 14 0 0 0,-5-8-15 0 0,3 1-21 0 0,0-1-1 0 0,1 0 1 0 0,2-1 0 0 0,0-1-1 0 0,0 0 1 0 0,2-1 0 0 0,23 18-1 0 0,-14-15 133 0 0,0-1 1 0 0,58 30-1 0 0,63 18 195 0 0,-146-66-290 0 0,481 179 247 0 0,-231-111-107 0 0,406 68-52 0 0,-296-50-29 0 0,-97-21 47 0 0,18-6-16 0 0,8-18-36 0 0,113-15-11 0 0,0-40 138 0 0,-346 5-155 0 0,0-2-1 0 0,0-3 1 0 0,-2-3 0 0 0,68-27-1 0 0,-88 29-23 0 0,107-45 34 0 0,-118 47-30 0 0,-1-1 1 0 0,-1 0-1 0 0,35-28 1 0 0,-47 32 4 0 0,1-1-1 0 0,-1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,16-24 1 0 0,-21 25-28 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-2 1 0 0 0,1 0 0 0 0,-2 0 0 0 0,-1-12 0 0 0,-1-3-27 0 0,-2 1 0 0 0,0 0 0 0 0,-2 0 0 0 0,-11-29 0 0 0,8 32 32 0 0,0 1 0 0 0,-1 0 0 0 0,-2 0 0 0 0,0 1-1 0 0,-27-32 1 0 0,7 16-33 0 0,-66-55-1 0 0,-47-43-14 0 0,142 129 60 0 0,-64-67-20 0 0,-5-6-20 0 0,48 54 10 0 0,-2 2-1 0 0,0 0 1 0 0,-1 2 0 0 0,-35-20-1 0 0,-13 2-37 0 0,-91-33 0 0 0,-66-29-50 0 0,-14-5 8 0 0,1 23-2 0 0,-7 20 0 0 0,200 52 112 0 0,-187-26 0 0 0,54 25 0 0 0,63 5 0 0 0,-252 2-390 0 0,354 4 307 0 0,-62 4-1769 0 0,20-2-3603 0 0,-6-1-2476 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-191497.92">2602 3949 21191 0 0,'0'0'480'0'0,"-11"6"1167"0"0,-2 14-1187 0 0,2 1-1 0 0,1 1 1 0 0,0-1 0 0 0,-8 31-1 0 0,-11 23-508 0 0,19-48 49 0 0,0 1 0 0 0,-5 31 0 0 0,1-6 0 0 0,-8 47 0 0 0,15-63 0 0 0,6-30-64 0 0,2-20-459 0 0,0-1 1 0 0,1 1-1 0 0,6-24 0 0 0,17-42 812 0 0,-10 35-444 0 0,-3 7-57 0 0,32-67 0 0 0,-19 46 593 0 0,-19 44-392 0 0,-5 11 22 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,5-6 873 0 0,0 19 69 0 0,9 47-787 0 0,-5-21-165 0 0,-6-19 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,11 16 0 0 0,21 42 0 0 0,-27-51 0 0 0,0 0 0 0 0,19 26 0 0 0,-25-43 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-2 0 0 0,10 6 0 0 0,-15-8 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2-3 0 0 0,3-6 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-14 0 0 0,-4 15 0 0 0,8-22 0 0 0,-7 23 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-14 0 0 0,-3 4-146 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,-5-22 0 0 0,-7 3-1642 0 0,9 27 603 0 0,1 4 154 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-191096.04">3016 4159 11976 0 0,'-10'32'1164'0'0,"9"-29"-1069"0"0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 6 0 0 0,4 10 1956 0 0,1 20 0 0 0,-3-20-943 0 0,6 20 0 0 0,-7-34-1012 0 0,0 0 1 0 0,0 1-1 0 0,1-2 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,6 6 0 0 0,4 2-93 0 0,-11-12 38 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,2 4 0 0 0,-2-4 7 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,4-1-1 0 0,9 0-48 0 0,-16 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-13 45 0 0,-1 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,-7-13-1 0 0,6 14 296 0 0,4 9-183 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-6-5 0 0 0,-2-1-29 0 0,9 7-126 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-4-1 0 0 0,-24 3-925 0 0,6-1-4006 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-190580.33">3416 4102 19263 0 0,'0'0'1936'0'0,"1"2"-1633"0"0,-1 0-78 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,-1 5 0 0 0,-4 16 627 0 0,4-10-848 0 0,-2 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,-1-1-1 0 0,-1 0 1 0 0,-9 16 0 0 0,-5 14-4 0 0,8-18-1 0 0,-19 53 0 0 0,27-67 0 0 0,1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 16 0 0 0,-3 2-249 0 0,2-21-829 0 0,8-25 453 0 0,-1-3 619 0 0,-1-1-1 0 0,3-33 1 0 0,3-14 9 0 0,0 2-14 0 0,-8 45 26 0 0,1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,14-34 0 0 0,-16 51 25 0 0,2-6 388 0 0,1 0 1 0 0,10-15-1 0 0,-14 23-397 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,4-2 0 0 0,-3 3-3 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,3 3 0 0 0,-2-1 157 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,2 5 1 0 0,4 19-128 0 0,-2 0 1 0 0,5 51-1 0 0,-8-61-56 0 0,1 26-166 0 0,0-6-641 0 0,14 63 1 0 0,-15-91-1432 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-190028.69">3208 4307 11976 0 0,'2'-1'266'0'0,"2"-2"-171"0"0,0 1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,9-1 0 0 0,18-3-96 0 0,-23 3 143 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,17 2-1 0 0,6-1 578 0 0,9 1-347 0 0,15-1-138 0 0,-30 0-235 0 0,-22 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,6-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,9-8 0 0 0,-12 7 3573 0 0,-4 8-1829 0 0,1 3-1142 0 0,-2-3-427 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-2 5-1 0 0,-1 16 569 0 0,4 6-154 0 0,10 51-1 0 0,0 2-633 0 0,-4-54 45 0 0,-6-23 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 7 0 0 0,0-9 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,3 4 0 0 0,2-1-64 0 0,-4-4-273 0 0,-2-2 293 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,-6-12-473 0 0,4 9 164 0 0,-2-6-199 0 0,1-1 0 0 0,-5-16 0 0 0,4 12 576 0 0,2 3-21 0 0,1 0-1 0 0,0-1 0 0 0,1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,3-24 1 0 0,-1-12 431 0 0,-2 45-381 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,3-3 1 0 0,2-2 115 0 0,0 0 1 0 0,8-8-1 0 0,4-5 218 0 0,-16 20-384 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 1 0 0,3 0-1 0 0,0 0-3 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 1 1 0 0,10 3-1 0 0,-12-4 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,5 5 0 0 0,-6-6 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 6 0 0 0,1-3 61 0 0,-1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-5 5 1 0 0,0-3 20 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1 1 0 0,-15 5-1 0 0,25-9-182 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,-2 1-1 0 0,-5-5-5496 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-189628.62">3865 4447 3224 0 0,'2'1'5309'0'0,"6"1"-3429"0"0,-6-1-1380 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,4 0 1 0 0,7-2 190 0 0,0-1 1 0 0,-1 0 0 0 0,1-1 0 0 0,13-5-1 0 0,-21 7-689 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,4-8 1 0 0,-7 10-2 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,-2-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-8 1 0 0 0,-9 2 19 0 0,17-2 12 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-5 6 1 0 0,5-4 78 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,2 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,2 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,2 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,7 9 1 0 0,-2-5 99 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-2 1 0 0,1 1-1 0 0,-1-2 1 0 0,16 6-1 0 0,-12-6-614 0 0,0 0 1 0 0,0-2-1 0 0,0 1 0 0 0,1-2 0 0 0,-1 0 1 0 0,0 0-1 0 0,19-3 0 0 0,-7-4-2330 0 0,-15 3 1337 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-189253.08">4178 4119 15664 0 0,'0'0'1571'0'0,"0"1"-1437"0"0,4 75 4768 0 0,-8 62-1630 0 0,1-69-2585 0 0,0-44-225 0 0,2 1-1 0 0,3 34 1 0 0,-1-49-855 0 0,1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,9 19 0 0 0,-9-19-456 0 0,0-1-991 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-188834.4">4344 4173 13824 0 0,'0'0'2370'0'0,"7"3"-387"0"0,-5-1-1745 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 4-1 0 0,-2 4 142 0 0,1 0 0 0 0,-1-1 0 0 0,-3 11-1 0 0,0 11 332 0 0,-9 75-538 0 0,12-88-172 0 0,-2 9 0 0 0,2 0 0 0 0,4 52 0 0 0,-3-74-52 0 0,1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,5 7 0 0 0,-5-8-1373 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,6 2 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-188833.4">4529 4431 8752 0 0,'0'0'793'0'0,"0"9"-634"0"0,-12 139 12354 0 0,8-121-11624 0 0,3-23-801 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,2 0-1 0 0,-1-1 0 0 0,2 10 0 0 0,-2-12-195 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,3-1 1 0 0,6 0-1405 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-188227.92">4921 4159 15664 0 0,'0'0'761'0'0,"4"7"49"0"0,-1-2-736 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-2 0 1 0 0,2 6-1 0 0,-1 10 1156 0 0,-1 20 1 0 0,-1-13-232 0 0,-14 219 3144 0 0,14-202-4142 0 0,2-30 0 0 0,-2 0 0 0 0,-2 16 0 0 0,-7-3 0 0 0,10-28 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-6-8 0 0 0,-1-8 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-2-19 0 0 0,5 28 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-8-7 0 0 0,12 12 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 2 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-2 7 0 0 0,3-5 33 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1-1 1 0 0,8 6-1 0 0,-6-5-99 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,14-2 0 0 0,22-3 62 0 0,-23 1-642 0 0,33 0-1 0 0,-48 4 460 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,2-6-1 0 0,-3 8 190 0 0,10-11 1900 0 0,-19 21-878 0 0,8-6-921 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,2 2-1 0 0,0 0 33 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,6 6-1 0 0,-3-3-134 0 0,2 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,10 5 0 0 0,-11-8 114 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,1-1-1 0 0,11 2 1 0 0,-15-3-57 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,3-4 0 0 0,-1 2-57 0 0,-4 3 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1-5 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-3-6 0 0 0,-3-4 0 0 0,-12-18 0 0 0,17 29 0 0 0,-1 1 1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-2 1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-7-2 0 0 0,-2 0-17 0 0,1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,-17-3 0 0 0,10 5-464 0 0,-1 0 0 0 0,1 0 0 0 0,-1 2-1 0 0,-25 5 1 0 0,4 3-2779 0 0,2 3-3315 0 0,20-4-63 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-187745.92">3948 4822 18399 0 0,'2'0'85'0'0,"-1"0"0"0"0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,2 6 338 0 0,-2 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,-2 11 1 0 0,-2 54 1211 0 0,-8 13-1018 0 0,10-72-616 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,1 0 0 0 0,3 23 0 0 0,0-29 760 0 0,-1-4-2952 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-187418.09">3997 4896 2760 0 0,'6'-14'-29'0'0,"4"-4"1540"0"0,4 1 7180 0 0,-13 17-8489 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,11 11 1369 0 0,-11-9-1296 0 0,5 4 191 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-2 0-1 0 0,1 0 1 0 0,3 12 0 0 0,1 7-373 0 0,5 35 1 0 0,6 46 1738 0 0,-15-72-1685 0 0,-4-29-145 0 0,0-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,4 9-1 0 0,6 21-147 0 0,-11-35-11 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 3 0 0 0,-15-24-11782 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-187034.62">3975 5115 5984 0 0,'-4'-4'81'0'0,"1"1"0"0"0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-8-3 0 0 0,11 6 59 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 117 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,2 1 0 0 0,5 2 186 0 0,1 0-1 0 0,15 2 1 0 0,-17-3-181 0 0,50 12 730 0 0,-37-7-625 0 0,1-2 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,37-1 0 0 0,-48-3-364 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,10-3 1 0 0,-16 3-4 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,6-6 0 0 0,-5 3-117 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-2 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,-3-12 1 0 0,4 14 181 0 0,-1 4-38 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,-6 3 407 0 0,5-1-385 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 4 0 0 0,-2 2-17 0 0,-1 8-7 0 0,1 0 0 0 0,-1 25 0 0 0,3-31 237 0 0,1 0-1 0 0,0-1 1 0 0,3 15-1 0 0,-3-20-166 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,6 7-1 0 0,-5-8-93 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,6 3 0 0 0,0-2-111 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,13-3 0 0 0,-16 2 21 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,10-9-1 0 0,-14 10 91 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-7 0 0 0,-4 15 0 0 0,1 9 0 0 0,2-12 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,4 1 0 0 0,7 5 0 0 0,-13-7 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 2 47 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1-2 0 0 0,0-6-187 0 0,0 7 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-2-4 0 0 0,2 5 126 0 0,0-1 1 0 0,-1 0 0 0 0,2 0-1 0 0,-1 0 1 0 0,-1-5 0 0 0,2 6-360 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,-2-2 1 0 0,-2 0-1650 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-186327.76">4733 5094 11976 0 0,'0'0'5561'0'0,"7"6"-2919"0"0,-4-3-2292 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,1 6 0 0 0,-1 0 123 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 13 0 0 0,2 1-317 0 0,-1-18-152 0 0,-1 1 0 0 0,0 0 0 0 0,-1 13 0 0 0,1-13-4 0 0,-1-7-7 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,1 0-66 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0-3 0 0 0,0 1 76 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,3-8 0 0 0,0-1-3 0 0,-3 12 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,4 0 0 0 0,-5 2 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-2 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,14 17 0 0 0,-11-6 4 0 0,1 0-1 0 0,3 20 0 0 0,-2-8 863 0 0,-5-23-694 0 0,1 11 692 0 0,16-36-2760 0 0,-15 12 1879 0 0,-3 10 17 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,10-11 0 0 0,-4 4 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,17-11 0 0 0,-22 16 39 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,3 1 0 0 0,0 1 62 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,3 8-1 0 0,-4-7-112 0 0,4 8-275 0 0,0-1 1 0 0,9 15-1 0 0,-14-27-220 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-185630.99">5219 5117 15664 0 0,'0'0'761'0'0,"1"2"-335"0"0,12 11 791 0 0,-1 1-1 0 0,13 16 0 0 0,-21-23-655 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-2 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,3 11 0 0 0,-4 0-575 0 0,-2-15 137 0 0,1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,2 2-1 0 0,-3-4 321 0 0,0 1-294 0 0,0 6-197 0 0,0-6-289 0 0,6-15-1262 0 0,-1 5 1607 0 0,-2-2-8 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,10-9 0 0 0,-15 17 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,4 0 0 0 0,-5 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 2 0 0 0,1 1 0 0 0,0 0 85 0 0,1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 5-1 0 0,0-1 370 0 0,-1-3-290 0 0,6 20 280 0 0,-1-17-444 0 0,2 4 0 0 0,-2-11 0 0 0,-2 0 0 0 0,8 1 0 0 0,-9-2-25 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-2 0 0 0,0 0-198 0 0,6-4-208 0 0,0-1 1 0 0,9-9-1 0 0,17-18-1425 0 0,-33 34 1895 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,2 1 1 0 0,-1 0-27 0 0,7 4 211 0 0,1 0-1 0 0,12 11 1 0 0,-15-11-233 0 0,-1 0 0 0 0,1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,14 5 0 0 0,8 1 10 0 0,40 7 0 0 0,-59-15 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,15-4 0 0 0,-15 3 0 0 0,-6 1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,2-2 0 0 0,4-6 0 0 0,-8 10 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1-1 19 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-2-2 1 0 0,0 0 59 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 2 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-5-4 0 0 0,-6-2 127 0 0,0 1 0 0 0,0 0 0 0 0,-1 1-1 0 0,-22-6 1 0 0,-108-29-1034 0 0,142 41 295 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-8-4 0 0 0,-1-1-5704 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-184728.48">1719 1880 20327 0 0,'-13'-1'1084'0'0,"-4"2"19"0"0,2 6-739 0 0,-27 11 837 0 0,36-15-1153 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-13 2-1 0 0,-9 2 59 0 0,-141 35 1040 0 0,54-15-415 0 0,-58 24-103 0 0,-70 7-48 0 0,84-22-560 0 0,117-25-17 0 0,-199 52-142 0 0,-121 19-3835 0 0,314-74 2452 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19341,9 +19402,9 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2706 408 7632 0 0,'0'0'2760'0'0,"0"1"-2311"0"0,-7 22 841 0 0,4-12-788 0 0,0-1-1 0 0,0 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0 16 1 0 0,2 8 92 0 0,1 0 1 0 0,6 36-1 0 0,4 32-374 0 0,3 16 308 0 0,7 67-143 0 0,-15-105-227 0 0,10 113 185 0 0,-5-84-157 0 0,-6-72-178 0 0,9 40 0 0 0,1 0 3 0 0,-13-63 11 0 0,26 136 73 0 0,-24-130-56 0 0,-1 1-1 0 0,-1-1 0 0 0,0 34 1 0 0,-3-52 18 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-2 5 1 0 0,-2 2 33 0 0,2-6-39 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-9 4 0 0 0,2-3-23 0 0,-1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,-16-2 1 0 0,-7 1-80 0 0,-372-2 51 0 0,140-1 54 0 0,-674 61 1340 0 0,603-37-853 0 0,111-19-598 0 0,208-1 19 0 0,-3 1-7 0 0,16 0 42 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0-1 1 0 0,-9 0-1 0 0,-34-13-133 0 0,47 13 122 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-2 1 0 0,-1 2-1 0 0,1-2 0 0 0,-1-1-10 0 0,-1 0 11 0 0,1-1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 1-1 0 0,1-2 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 1 1 0 0,0-1-1 0 0,0-1 1 0 0,2-4-1 0 0,-1 4 4 0 0,0 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0-1 1 0 0,0-6-1 0 0,3-19 10 0 0,-2 16 1 0 0,0-1 0 0 0,-1 2 0 0 0,0-29 0 0 0,-1 26 0 0 0,-2-232-64 0 0,-7 165 64 0 0,2-134 0 0 0,6 172-1 0 0,2-40-62 0 0,-4-5 63 0 0,5 16-69 0 0,-12-130 0 0 0,7 175 55 0 0,-2-40 14 0 0,2-27 0 0 0,2 74 0 0 0,0 18 0 0 0,1 2 0 0 0,-1-1 0 0 0,1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,1-6 0 0 0,0 8-2 0 0,-1 3 8 0 0,-7-11-75 0 0,4 3-168 0 0,3 8 211 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-40 0 0,-7 0-66 0 0,6 1 111 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 2 1 0 0,1-2 0 0 0,-1 1-1 0 0,0 2 1 0 0,-3 3-99 0 0,0 2 1 0 0,-5 13-1 0 0,7-16 75 0 0,-22 40-378 0 0,22-40 366 0 0,0 0 0 0 0,0 1-1 0 0,-7 8 1 0 0,7-10 32 0 0,0 0-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 2-1 0 0,-2 6 0 0 0,2-2 18 0 0,0-2 0 0 0,-1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,-6 11 0 0 0,-6 8-31 0 0,13-21 39 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-11 10 0 0 0,11-12 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 2 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2 6 0 0 0,5-9 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-2-1 0 0,-2 2 0 0 0,-1 0 7 0 0,-8 7 46 0 0,11-6-54 0 0,0 1 2 0 0,-14 8-11 0 0,15-10-33 0 0,5 0 20 0 0,-5-2 21 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,14-1 16 0 0,-12 1-10 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,2-5-1 0 0,1 1-12 0 0,0 0-25 0 0,1-3 0 0 0,-1 2 0 0 0,5-11 0 0 0,-1 2 3 0 0,49-86 28 0 0,7-19-61 0 0,-50 87 64 0 0,-12 25 0 0 0,1 1 0 0 0,0-1 0 0 0,5-8 0 0 0,-7 15 0 0 0,8-12 0 0 0,-1-1 0 0 0,8-20 0 0 0,-2 5 0 0 0,-10 22 0 0 0,-1 1 0 0 0,0 0 0 0 0,3-9 0 0 0,8-15 60 0 0,-13 25-32 0 0,-1 4 47 0 0,1 0-6 0 0,5-4-3 0 0,-5 4 4 0 0,-1 1-65 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1-1-4 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 2 1 0 0,1-2-1 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 1 0 0 0,6 36 53 0 0,-7-35-53 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,2 5 0 0 0,-2-4 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 5 0 0 0,-1-5 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2 5 0 0 0,-2-5 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-2 5 0 0 0,1-1 12 0 0,0 0-1 0 0,0-1 1 0 0,0 2-1 0 0,1-2 1 0 0,3 13-1 0 0,0 3-16 0 0,-4-20 5 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,2 2 0 0 0,14 29 71 0 0,-16-31-70 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,2 1 0 0 0,-4-3-2 0 0,42 31-811 0 0,-42-31 520 0 0,1-1-774 0 0,0 1 763 0 0,1 0-101 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1059.81">359 1 6912 0 0,'0'0'622'0'0,"-2"1"-512"0"0,-1 2-305 0 0,0 0 552 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,-4 2-1 0 0,-1 2-125 0 0,0-1-1 0 0,0 0 1 0 0,-8 9 0 0 0,4-3-162 0 0,-22 22 122 0 0,27-26-25 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-10 16 0 0 0,-8 11 16 0 0,20-29-174 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 1-1 0 0,1-2 1 0 0,-1 2 0 0 0,1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 8 0 0 0,1-12 4 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 2 0 0 0,0-2 1 0 0,-1 0-1 0 0,1 0 0 0 0,-4 4 1 0 0,3-4-1 0 0,-1 1-1 0 0,1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,-3 8 0 0 0,0 9 1 0 0,-2 3-15 0 0,0-12 2 0 0,7-10 0 0 0,-1 0 0 0 0,0 1 0 0 0,1 1 0 0 0,-1-2 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 4 0 0 0,1-2 0 0 0,1-2 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 2 0 0 0,-8 12 200 0 0,11-14-149 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-2 4-1 0 0,2-5 684 0 0,8-2-86 0 0,-3-1-602 0 0,-1 0 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-6 0 0 0,-2 7-40 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,2-2 0 0 0,-2 1-4 0 0,1 1 0 0 0,-1-2 0 0 0,0 2 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0-4 0 0 0,0 3 3 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 0 0 0,1 2 0 0 0,2-5 0 0 0,6-17-25 0 0,-8 8-37 0 0,-2 14 66 0 0,0-1-1 0 0,1-1 0 0 0,-1 2 1 0 0,0-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,2-5-1 0 0,27-39 333 0 0,10-9 152 0 0,-35 48-495 0 0,-1-1 0 0 0,1 2 0 0 0,8-10 0 0 0,10-12 0 0 0,18-21 0 0 0,-35 39 0 0 0,1 0 0 0 0,0 1 0 0 0,14-15 0 0 0,-15 17-16 0 0,-4 6-59 0 0,7 5 342 0 0,-2 3-163 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 2 0 0 0,0-2 0 0 0,0 1 0 0 0,-1 2 0 0 0,7 11 0 0 0,10 20 496 0 0,-14-23-337 0 0,2 6 122 0 0,-9-23-360 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,3 2-1 0 0,-3-2-2 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 2 0 0 0,0-1-1 0 0,0-1 1 0 0,0 1 0 0 0,1 1-1 0 0,0 0-4 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3 3 0 0 0,2 2 29 0 0,7 14-35 0 0,-13-22-10 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 2 0 0 0,2 1 0 0 0,-2-4-84 0 0,2 2 46 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,5 2 1 0 0,3-2-2823 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2176.27">299 174 4608 0 0,'0'0'208'0'0,"0"8"3817"0"0,-4 43 1777 0 0,2-34-5905 0 0,1-1-1 0 0,1 23 1 0 0,0-31 127 0 0,0 1 0 0 0,-2 16 0 0 0,1-17-4 0 0,0 1-1 0 0,1-1 0 0 0,0 13 0 0 0,3 13 43 0 0,3 28 54 0 0,0-10-14 0 0,-3-38-85 0 0,-1 0 0 0 0,-1 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,-1 18-1 0 0,0 5 2 0 0,2-28-6 0 0,-1-9 27 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,5-17 132 0 0,-21-214 803 0 0,13 201-919 0 0,-5-91 74 0 0,7 97-130 0 0,1 17 0 0 0,-1-2 0 0 0,1 2 0 0 0,0 0 0 0 0,3-14 0 0 0,-2-4 0 0 0,-1 21 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2-3 0 0 0,0-3 0 0 0,0-1 0 0 0,0 1 0 0 0,0-14 0 0 0,0 0 11 0 0,2-13 42 0 0,-5 16-27 0 0,-1-1 86 0 0,2 20 246 0 0,4 20-206 0 0,2 15-152 0 0,-1-1 0 0 0,-4-27-10 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1 9 0 0 0,0-9 10 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,2 8-1 0 0,-1-11 1 0 0,0 0 0 0 0,-1 2 0 0 0,0-2 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 7 0 0 0,0 22 0 0 0,1-25 0 0 0,0 1 0 0 0,-2 15 0 0 0,0 5 0 0 0,1-1-23 0 0,0-20-21 0 0,1 0 0 0 0,-1 1 0 0 0,2-1 0 0 0,0 10-1 0 0,-1-15 74 0 0,5 9 229 0 0,-9-44-83 0 0,5 9 75 0 0,0 16-268 0 0,-1 0 1 0 0,0 0 0 0 0,-1-13 0 0 0,1-39-36 0 0,-1 54 89 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,2-11 0 0 0,-1 11-95 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-11-1 0 0,-3-45-85 0 0,0 27 154 0 0,-1-8-226 0 0,3 37 196 0 0,1 5-17 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-2 0 0 0,0 2-1154 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2707 387 7632 0 0,'0'0'2760'0'0,"0"1"-2311"0"0,-7 21 841 0 0,4-12-788 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 16 1 0 0,2 7 92 0 0,1 0 1 0 0,6 35-1 0 0,4 29-374 0 0,3 16 308 0 0,7 64-143 0 0,-15-100-227 0 0,10 107 185 0 0,-5-80-157 0 0,-6-68-178 0 0,9 38 0 0 0,1 0 3 0 0,-13-60 11 0 0,26 130 73 0 0,-24-124-56 0 0,-1 0-1 0 0,-1 0 0 0 0,0 33 1 0 0,-3-51 18 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-2 4 1 0 0,-2 3 33 0 0,2-6-39 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-9 3 0 0 0,2-2-23 0 0,-1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,-16-2 1 0 0,-7 1-80 0 0,-372-2 51 0 0,140-1 54 0 0,-675 58 1340 0 0,604-35-853 0 0,111-18-598 0 0,208-1 19 0 0,-3 1-7 0 0,16 0 42 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0-1 1 0 0,-9 0-1 0 0,-34-12-133 0 0,47 12 122 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-2 0 0 0,-1-1-10 0 0,-1 0 11 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,2-5-1 0 0,-1 4 4 0 0,0 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0-7-1 0 0,3-17 10 0 0,-2 15 1 0 0,0-1 0 0 0,-1 1 0 0 0,0-26 0 0 0,-1 24 0 0 0,-2-221-64 0 0,-7 158 64 0 0,2-128 0 0 0,6 163-1 0 0,2-37-62 0 0,-4-5 63 0 0,5 14-69 0 0,-12-122 0 0 0,7 166 55 0 0,-2-39 14 0 0,2-25 0 0 0,2 70 0 0 0,0 18 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1-5 0 0 0,0 7-2 0 0,-1 3 8 0 0,-7-11-75 0 0,4 4-168 0 0,3 7 211 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-40 0 0,-7 0-66 0 0,6 1 111 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 2 1 0 0,-3 3-99 0 0,0 1 1 0 0,-5 13-1 0 0,7-15 75 0 0,-22 37-378 0 0,22-37 366 0 0,0 0 0 0 0,0 0-1 0 0,-7 9 1 0 0,7-11 32 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,-2 7 0 0 0,2-3 18 0 0,0-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-6 10 0 0 0,-6 7-31 0 0,13-19 39 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-11 9 0 0 0,11-11 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2 5 0 0 0,5-8 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-2 2 0 0 0,-1 0 7 0 0,-8 7 46 0 0,11-6-54 0 0,0 0 2 0 0,-14 9-11 0 0,15-10-33 0 0,5 0 20 0 0,-5-2 21 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,14-1 16 0 0,-12 1-10 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,2-4-1 0 0,1 0-12 0 0,0 0-25 0 0,1-2 0 0 0,-1 1 0 0 0,5-10 0 0 0,-1 2 3 0 0,49-82 28 0 0,7-18-61 0 0,-50 83 64 0 0,-12 23 0 0 0,1 1 0 0 0,0 0 0 0 0,5-8 0 0 0,-7 14 0 0 0,8-12 0 0 0,-1 0 0 0 0,8-19 0 0 0,-2 4 0 0 0,-10 22 0 0 0,-1 0 0 0 0,0 0 0 0 0,3-8 0 0 0,8-14 60 0 0,-13 23-32 0 0,-1 4 47 0 0,1 0-6 0 0,5-4-3 0 0,-5 4 4 0 0,-1 1-65 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1-1-4 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 1 0 0 0,6 34 53 0 0,-7-33-53 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,2 5 0 0 0,-2-4 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 4 0 0 0,-1-4 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,2 5 0 0 0,-2-5 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-2 5 0 0 0,1-2 12 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,3 12-1 0 0,0 3-16 0 0,-4-19 5 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,2 2 0 0 0,14 27 71 0 0,-16-29-70 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,2 1 0 0 0,-4-3-2 0 0,42 29-811 0 0,-42-29 520 0 0,1-1-774 0 0,0 1 763 0 0,1 0-101 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1059.81">359 1 6912 0 0,'0'0'622'0'0,"-2"1"-512"0"0,-1 2-305 0 0,0 0 552 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,-4 2-1 0 0,-1 1-125 0 0,0 0-1 0 0,0 0 1 0 0,-8 8 0 0 0,4-3-162 0 0,-22 22 122 0 0,27-26-25 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-10 15 0 0 0,-8 10 16 0 0,20-27-174 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 8 0 0 0,1-11 4 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-4 3 1 0 0,3-3-1 0 0,-1 1-1 0 0,1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,-3 7 0 0 0,0 9 1 0 0,-2 3-15 0 0,0-12 2 0 0,7-9 0 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 4 0 0 0,1-3 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-2 3 0 0 0,-8 11 200 0 0,11-13-149 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-2 3-1 0 0,2-4 684 0 0,8-2-86 0 0,-3-1-602 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-5 0 0 0,-2 6-40 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,2-2 0 0 0,-2 1-4 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0-3 0 0 0,0 2 3 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,1 1 0 0 0,2-5 0 0 0,6-16-25 0 0,-8 8-37 0 0,-2 13 66 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,2-4-1 0 0,27-38 333 0 0,10-8 152 0 0,-35 45-495 0 0,-1 0 0 0 0,1 1 0 0 0,8-9 0 0 0,10-12 0 0 0,18-19 0 0 0,-35 36 0 0 0,1 1 0 0 0,0 0 0 0 0,14-14 0 0 0,-15 17-16 0 0,-4 5-59 0 0,7 5 342 0 0,-2 2-163 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,7 11 0 0 0,10 19 496 0 0,-14-22-337 0 0,2 6 122 0 0,-9-22-360 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,3 2-1 0 0,-3-2-2 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 1-1 0 0,0 0-4 0 0,-1 1-1 0 0,1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,3 3 0 0 0,2 1 29 0 0,7 14-35 0 0,-13-21-10 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 1 0 0 0,2 2 0 0 0,-2-4-84 0 0,2 2 46 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,5 1 1 0 0,3-1-2823 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2176.27">299 165 4608 0 0,'0'0'208'0'0,"0"8"3817"0"0,-4 40 1777 0 0,2-32-5905 0 0,1-1-1 0 0,1 22 1 0 0,0-29 127 0 0,0 1 0 0 0,-2 14 0 0 0,1-15-4 0 0,0 0-1 0 0,1 0 0 0 0,0 12 0 0 0,3 12 43 0 0,3 27 54 0 0,0-10-14 0 0,-3-35-85 0 0,-1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,-1 16-1 0 0,0 5 2 0 0,2-26-6 0 0,-1-9 27 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,5-17 132 0 0,-21-202 803 0 0,13 191-919 0 0,-5-87 74 0 0,7 92-130 0 0,1 16 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,3-13 0 0 0,-2-3 0 0 0,-1 19 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,2-3 0 0 0,0-3 0 0 0,0 0 0 0 0,0 0 0 0 0,0-12 0 0 0,0-1 11 0 0,2-12 42 0 0,-5 15-27 0 0,-1-1 86 0 0,2 19 246 0 0,4 19-206 0 0,2 14-152 0 0,-1-1 0 0 0,-4-25-10 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 10 0 0 0,0-10 10 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,2 7-1 0 0,-1-10 1 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 6 0 0 0,0 21 0 0 0,1-23 0 0 0,0 1 0 0 0,-2 13 0 0 0,0 6 0 0 0,1-2-23 0 0,0-18-21 0 0,1 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,0 9-1 0 0,-1-14 74 0 0,5 8 229 0 0,-9-41-83 0 0,5 8 75 0 0,0 15-268 0 0,-1 1 1 0 0,0-1 0 0 0,-1-12 0 0 0,1-37-36 0 0,-1 51 89 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,2-10 0 0 0,-1 10-95 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-10-1 0 0,-3-43-85 0 0,0 26 154 0 0,-1-8-226 0 0,3 35 196 0 0,1 5-17 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1154 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19375,8 +19436,8 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">28 2403 4520 0 0,'0'0'201'0'0,"-21"14"5136"0"0,20-14-5213 0 0,0 1-1 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 2-1 0 0,0-1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,1 1 1 0 0,3 2 222 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,7 1-1 0 0,-7-2 10 0 0,4 1-193 0 0,-1-1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 0 0 0 0,16-1 0 0 0,4 0-168 0 0,-27 1 336 0 0,6-3-267 0 0,0 1 1 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,13 2 0 0 0,-11-1 7 0 0,9 0 30 0 0,-1 1 0 0 0,35 5-1 0 0,-41-4-30 0 0,1-1 0 0 0,-1 0 0 0 0,21-2 0 0 0,-20 1 19 0 0,1 0-1 0 0,26 3 0 0 0,-15 0 55 0 0,-1 0-1 0 0,34-3 0 0 0,7 1 6 0 0,-14 1 79 0 0,63 7 131 0 0,-10 2-413 0 0,7-3 560 0 0,-62-5-286 0 0,233 9 92 0 0,-239-9-262 0 0,131-1 198 0 0,2-7 75 0 0,76-7 198 0 0,-195 9-476 0 0,65-5 50 0 0,-18-18 39 0 0,-3-1-123 0 0,-90 23-12 0 0,106-27 169 0 0,-96 26-171 0 0,-14 4 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,10-4-1 0 0,-13 3 19 0 0,1 0 40 0 0,14 2-10 0 0,9-3-36 0 0,-22 1-10 0 0,1-1 0 0 0,0 1 15 0 0,-1-4 60 0 0,-5 6 3 0 0,3-1-76 0 0,-1 1-65 0 0,-3 0 66 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0-1 0 0 0,0 1-3 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-2 1 0 0,0-1-1 0 0,0 3 0 0 0,-1-28 32 0 0,-2 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-16-41 0 0 0,15 45 2 0 0,2 9-19 0 0,-10-24 0 0 0,-22-54-15 0 0,17 37 32 0 0,3 0 0 0 0,2-2 0 0 0,-8-67 0 0 0,22 120-36 0 0,-7-55 6 0 0,-1-75 0 0 0,8 124-3 0 0,0-1 0 0 0,-1 2-1 0 0,0-1 1 0 0,-4-11 0 0 0,-2-11-57 0 0,7 30 45 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-4-6-1 0 0,4 7 53 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-2-3 0 0 0,1 4-6 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,-2-1 1 0 0,-7 6-210 0 0,6-3 172 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 2 0 0 0,0-1 0 0 0,-5 5 0 0 0,4-4-16 0 0,-7 8-53 0 0,0 0-1 0 0,0 2 1 0 0,-15 21-1 0 0,23-27 74 0 0,0 2 0 0 0,1-4-10 0 0,2-4-44 0 0,13-7-202 0 0,-3-2 271 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,14-17-1 0 0,23-41-77 0 0,-35 48 60 0 0,0 0 1 0 0,-2 1-1 0 0,13-40 0 0 0,-1 9-24 0 0,-14 35 14 0 0,-1 1 1 0 0,6-21 0 0 0,5-13 12 0 0,-10 33 19 0 0,-6 12 325 0 0,1 2-404 0 0,30 34 142 0 0,-14-18-67 0 0,15 17-78 0 0,-22-24 25 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,9 19 0 0 0,-4-7 38 0 0,2 7 0 0 0,-8-15 0 0 0,1 6 0 0 0,3 13 0 0 0,-7-26 0 0 0,0 1 0 0 0,4 16-29 0 0,-6-18-13 0 0,6-10-4583 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1841.89">2783 2182 6912 0 0,'0'0'314'0'0,"0"2"-6"0"0,0 1-281 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,-2 7 0 0 0,1 4 140 0 0,2-12-153 0 0,0-1 8 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-2-1 0 0,1 1 1 0 0,-1 0-1 0 0,-1 3 1 0 0,-1 4-11 0 0,-1 2 26 0 0,2-8-5 0 0,1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 4 0 0 0,1-7-22 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 16 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 2 0 0 0,0-2 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 8 579 0 0,0-7 580 0 0,-2 11 3632 0 0,7-10-4765 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,9-1 1 0 0,61-11 644 0 0,-10 3-123 0 0,-11 3-262 0 0,3 2-52 0 0,-15 1-126 0 0,33-1 130 0 0,-49 3 46 0 0,35-4-1 0 0,15 0-63 0 0,-35 3-340 0 0,60 0 105 0 0,-30 1 124 0 0,134 4 355 0 0,-114 6-297 0 0,-31-1-45 0 0,83 13 294 0 0,-51-7 116 0 0,47 14 103 0 0,-15-3-248 0 0,-73-18-234 0 0,79 4-1 0 0,58-7 31 0 0,-168-4-160 0 0,18-1 215 0 0,58 8-1 0 0,-58-6-152 0 0,-24-1-92 0 0,-13 0 62 0 0,12 0 192 0 0,-6-1-256 0 0,-6 1-16 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-2 0 0 0,1-1 11 0 0,-2 2 11 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-2 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-2-1 0 0,1 0-20 0 0,-1 0 13 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-3-5 1 0 0,-3-13-6 0 0,-28-182 248 0 0,23 130-296 0 0,-15-123-136 0 0,3 54 176 0 0,17 96 0 0 0,-3-42 0 0 0,-3-24 0 0 0,2 38 0 0 0,10 73 0 0 0,-15-129 0 0 0,9 73 74 0 0,6 43-46 0 0,-1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,-6-19-1 0 0,-8-11-28 0 0,15 42-1 0 0,1-1 0 0 0,-1 2 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-2-2 0 0 0,1 2-75 0 0,3 1-19 0 0,-2 1 35 0 0,-3 2 59 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0 1 0 0 0,0-1-1 0 0,-4 6 1 0 0,-13 11 1 0 0,-1 4 0 0 0,5-5 0 0 0,11-12 8 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-9 16 0 0 0,11-16 18 0 0,0 0-1 0 0,-1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,-8 9 0 0 0,12-15 29 0 0,2 3-28 0 0,1-9-5 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,5-6 1 0 0,-1 0-11 0 0,22-64-10 0 0,8-33-120 0 0,-22 64 94 0 0,14-50 268 0 0,-22 79-241 0 0,-3 3 1 0 0,2 1 1 0 0,-1 0-1 0 0,6-9 1 0 0,-9 17-2 0 0,0 1 0 0 0,1-2 1 0 0,-1 1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,0-1 4 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,3 4 0 0 0,1-1 1 0 0,19 11-32 0 0,-1 2 1 0 0,-1 2-1 0 0,26 25 0 0 0,-41-38 12 0 0,51 52-111 0 0,-50-50 121 0 0,-1 1 0 0 0,0-1 0 0 0,11 19 0 0 0,-3-5 139 0 0,-8-12 99 0 0,-1 1 1 0 0,10 20-1 0 0,15 25 80 0 0,-26-46-299 0 0,-7-7-6 0 0,2 4-105 0 0,2 0 95 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">28 2329 4520 0 0,'0'0'201'0'0,"-21"13"5136"0"0,20-13-5213 0 0,0 1-1 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,1 1 1 0 0,3 2 222 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,7 2-1 0 0,-7-2 10 0 0,4 1-193 0 0,-1-1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 0 0 0 0,16-1 0 0 0,4 0-168 0 0,-27 1 336 0 0,6-3-267 0 0,0 1 1 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,13 2 0 0 0,-11-1 7 0 0,9 0 30 0 0,-1 1 0 0 0,35 5-1 0 0,-41-4-30 0 0,1-1 0 0 0,-1 0 0 0 0,21-2 0 0 0,-20 1 19 0 0,1 0-1 0 0,26 3 0 0 0,-15 0 55 0 0,-1-1-1 0 0,34-2 0 0 0,7 1 6 0 0,-14 1 79 0 0,63 7 131 0 0,-10 1-413 0 0,7-2 560 0 0,-62-5-286 0 0,233 8 92 0 0,-239-8-262 0 0,131-1 198 0 0,2-7 75 0 0,76-6 198 0 0,-195 8-476 0 0,65-5 50 0 0,-18-16 39 0 0,-3-2-123 0 0,-90 22-12 0 0,106-26 169 0 0,-96 26-171 0 0,-13 3 0 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,10-4-1 0 0,-13 3 19 0 0,1 1 40 0 0,14 1-10 0 0,9-3-36 0 0,-22 1-10 0 0,1-1 0 0 0,0 1 15 0 0,-1-3 60 0 0,-5 5 3 0 0,3-1-76 0 0,-1 1-65 0 0,-3 0 66 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0-1 0 0 0,0 1-3 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0-2-1 0 0,0 3 0 0 0,-1-27 32 0 0,-2 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,-1 1 0 0 0,-16-40 0 0 0,15 43 2 0 0,2 9-19 0 0,-10-23 0 0 0,-22-52-15 0 0,17 36 32 0 0,3-1 0 0 0,2-1 0 0 0,-9-64 0 0 0,23 114-36 0 0,-7-52 6 0 0,-1-72 0 0 0,8 119-3 0 0,0-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,-4-11 0 0 0,-2-11-57 0 0,7 30 45 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-4-5-1 0 0,4 6 53 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-2-4 0 0 0,1 4-6 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,-2-1 1 0 0,-7 6-210 0 0,6-3 172 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-5 5 0 0 0,4-4-16 0 0,-7 7-53 0 0,0 1-1 0 0,0 1 1 0 0,-15 20-1 0 0,23-25 74 0 0,0 1 0 0 0,1-3-10 0 0,2-4-44 0 0,13-7-202 0 0,-3-1 271 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,14-17-1 0 0,23-39-77 0 0,-35 46 60 0 0,0 0 1 0 0,-2 0-1 0 0,13-37 0 0 0,-1 8-24 0 0,-14 34 14 0 0,-1 0 1 0 0,6-19 0 0 0,5-13 12 0 0,-10 32 19 0 0,-6 11 325 0 0,2 2-404 0 0,29 32 142 0 0,-14-17-67 0 0,15 17-78 0 0,-22-24 25 0 0,0 1 0 0 0,0 0 1 0 0,-1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,9 17 0 0 0,-4-6 38 0 0,2 7 0 0 0,-8-15 0 0 0,1 6 0 0 0,3 13 0 0 0,-7-26 0 0 0,0 2 0 0 0,4 15-29 0 0,-6-18-13 0 0,6-9-4583 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1841.89">2784 2118 6912 0 0,'0'0'314'0'0,"0"2"-6"0"0,0 1-281 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,-2 7 0 0 0,1 3 140 0 0,2-11-153 0 0,0-1 8 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,-1 3 1 0 0,-1 4-11 0 0,-1 1 26 0 0,2-7-5 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 4 0 0 0,1-7-22 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 16 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 8 579 0 0,0-7 580 0 0,-2 10 3632 0 0,7-9-4765 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,9-1 1 0 0,61-11 644 0 0,-10 4-123 0 0,-11 2-262 0 0,3 2-52 0 0,-15 1-126 0 0,33 0 130 0 0,-49 2 46 0 0,35-4-1 0 0,15 0-63 0 0,-35 3-340 0 0,60 0 105 0 0,-30 1 124 0 0,134 4 355 0 0,-114 6-297 0 0,-31-2-45 0 0,83 13 294 0 0,-51-6 116 0 0,47 12 103 0 0,-15-2-248 0 0,-73-17-234 0 0,79 3-1 0 0,58-6 31 0 0,-168-4-160 0 0,18-1 215 0 0,58 8-1 0 0,-58-6-152 0 0,-24-1-92 0 0,-13 0 62 0 0,12 0 192 0 0,-6-1-256 0 0,-6 1-16 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,1-1 11 0 0,-2 2 11 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-2-1 0 0,1 0-20 0 0,-1 0 13 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-3-6 1 0 0,-3-12-6 0 0,-28-173 248 0 0,23 123-296 0 0,-15-117-136 0 0,3 52 176 0 0,17 91 0 0 0,-3-40 0 0 0,-3-22 0 0 0,2 35 0 0 0,10 70 0 0 0,-15-123 0 0 0,9 70 74 0 0,6 41-46 0 0,-1 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,-6-19-1 0 0,-8-10-28 0 0,15 40-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-2-2 0 0 0,1 2-75 0 0,3 1-19 0 0,-2 1 35 0 0,-3 2 59 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-4 6 1 0 0,-13 10 1 0 0,-1 4 0 0 0,5-5 0 0 0,11-12 8 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-9 15 0 0 0,11-15 18 0 0,0-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,-8 9 0 0 0,12-14 29 0 0,2 3-28 0 0,1-9-5 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,5-5 1 0 0,-1-1-11 0 0,22-61-10 0 0,8-31-120 0 0,-22 61 94 0 0,14-47 268 0 0,-22 74-241 0 0,-3 4 1 0 0,2 0 1 0 0,-1 1-1 0 0,6-10 1 0 0,-9 17-2 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,0-1 4 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,3 3 0 0 0,1 0 1 0 0,19 11-32 0 0,-1 1 1 0 0,-1 2-1 0 0,26 24 0 0 0,-41-36 12 0 0,51 49-111 0 0,-50-48 121 0 0,-1 2 0 0 0,0-1 0 0 0,11 17 0 0 0,-3-4 139 0 0,-8-11 99 0 0,-1 0 1 0 0,10 20-1 0 0,15 23 80 0 0,-26-43-299 0 0,-7-7-6 0 0,2 3-105 0 0,2 1 95 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19408,7 +19469,7 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 807 3224 0 0,'4'18'293'0'0,"-5"-14"-310"0"0,-1-1 29 0 0,1-1 610 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 2 1 0 0,0-2-1 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,3 7 3521 0 0,-2 2-2965 0 0,0-10-1132 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 2 0 0 0,0-2 0 0 0,0 0-1 0 0,-1 2 1 0 0,0-2 89 0 0,2 1-20 0 0,9 14 64 0 0,-7-12-162 0 0,1 0-1 0 0,-1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,4 8-1 0 0,4 6 167 0 0,0 1-1 0 0,2-1 0 0 0,26 36 1 0 0,-36-53-165 0 0,8 14 50 0 0,-8-13-68 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 0 0 0,3 3 0 0 0,-3-4 44 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,3 7 0 0 0,-5-10-32 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 1 15 0 0,20 14 89 0 0,-19-14 11 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,4-2 0 0 0,-3 1-91 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,3-6 0 0 0,2-6 74 0 0,-1-1 1 0 0,7-20 0 0 0,-5 9-57 0 0,23-70 131 0 0,-5 11-124 0 0,-14 43-25 0 0,-9 29-25 0 0,1 1 0 0 0,0-1-1 0 0,8-13 1 0 0,14-28-4 0 0,42-74 120 0 0,-21 40-10 0 0,-34 62-106 0 0,1 0-1 0 0,33-46 0 0 0,0 12-91 0 0,34-42 462 0 0,-33 40-280 0 0,-42 57 50 0 0,-2 0 0 0 0,1-1 0 0 0,6-11 0 0 0,-3 3-13 0 0,4-9 18 0 0,-5 14-166 0 0,-6 8-59 0 0,-1-2-717 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 769 3224 0 0,'4'17'293'0'0,"-5"-13"-310"0"0,-1-1 29 0 0,1-1 610 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,3 6 3521 0 0,-2 3-2965 0 0,0-10-1132 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 2 1 0 0,0-2 89 0 0,2 1-20 0 0,9 13 64 0 0,-7-11-162 0 0,1 0-1 0 0,-1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,4 7-1 0 0,4 7 167 0 0,0 0-1 0 0,2-1 0 0 0,26 34 1 0 0,-36-50-165 0 0,8 13 50 0 0,-8-12-68 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 0 0 0,3 2 0 0 0,-3-3 44 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,3 6 0 0 0,-5-9-32 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 1 15 0 0,20 13 89 0 0,-19-13 11 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,4-2 0 0 0,-3 1-91 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3-6 0 0 0,2-5 74 0 0,-1-1 1 0 0,7-20 0 0 0,-5 10-57 0 0,23-68 131 0 0,-5 11-124 0 0,-14 41-25 0 0,-9 28-25 0 0,1 0 0 0 0,0 0-1 0 0,8-13 1 0 0,14-26-4 0 0,42-71 120 0 0,-21 38-10 0 0,-34 59-106 0 0,1 1-1 0 0,33-45 0 0 0,0 12-91 0 0,34-40 462 0 0,-33 38-280 0 0,-42 54 50 0 0,-2 0 0 0 0,1 0 0 0 0,6-12 0 0 0,-3 4-13 0 0,4-9 18 0 0,-5 14-166 0 0,-6 7-59 0 0,-1-2-717 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19440,13 +19501,13 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3217 485 15664 0 0,'0'0'1187'0'0,"1"0"-803"0"0,4-4-250 0 0,-7 1 1312 0 0,-21-11 1114 0 0,-37-17-10 0 0,41 22-2276 0 0,1 1 0 0 0,1-3-1 0 0,0 1 1 0 0,0-2 0 0 0,-16-13-1 0 0,-39-49-273 0 0,57 57 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 2 0 0 0,-1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 2 0 0 0,-1-1 0 0 0,0 3 0 0 0,-33-13 0 0 0,-59-9 36 0 0,-173-24 0 0 0,225 45 341 0 0,-118-14 1222 0 0,-69 21-1599 0 0,140 7 0 0 0,-186 15 0 0 0,250-15-38 0 0,15-1-59 0 0,0 1 1 0 0,-28 7-1 0 0,-9 4-117 0 0,-18 6 36 0 0,47-12 221 0 0,0-1 0 0 0,-42 3-1 0 0,11 0 21 0 0,-17 2-62 0 0,50-9 103 0 0,1 1 0 0 0,0 1 0 0 0,0 2 0 0 0,-49 20 0 0 0,65-20-104 0 0,0 3 0 0 0,0-1 0 0 0,1 2 0 0 0,1-1 0 0 0,-20 21 0 0 0,1-2 0 0 0,-2-1 0 0 0,-2-2 0 0 0,-42 23 0 0 0,16-8-87 0 0,26-14-695 0 0,26-21 862 0 0,1 0-1 0 0,0 2 1 0 0,1-1 0 0 0,0 2 0 0 0,0-1-1 0 0,1 2 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-11 20 1 0 0,3-6-101 0 0,13-22 5 0 0,1 0 0 0 0,-1 1-1 0 0,1 1 1 0 0,0-2-1 0 0,-1 1 1 0 0,2 0 0 0 0,-4 8-1 0 0,-3 18-361 0 0,0 4 267 0 0,-10 64 0 0 0,12-48 109 0 0,2-17 351 0 0,-1 38-1 0 0,4-51-308 0 0,2 9-47 0 0,2 2 7 0 0,-1-8 0 0 0,2-1 0 0 0,0 0 0 0 0,1 0 0 0 0,8 24 0 0 0,-7-30 0 0 0,29 80 0 0 0,-32-82-19 0 0,2 0 1 0 0,0-2-1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1-2 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 1 0 0,0-2-1 0 0,1 2 0 0 0,0-3 0 0 0,0 1 0 0 0,1-1 1 0 0,16 7-1 0 0,19 9 154 0 0,-29-13-21 0 0,29 11-1 0 0,10-1-91 0 0,-31-10-23 0 0,1 0 0 0 0,29 6 0 0 0,84 2 1 0 0,-88-11 0 0 0,182 17 0 0 0,25-28 0 0 0,-124-3 0 0 0,100 0 0 0 0,82-8 0 0 0,-267 11 0 0 0,51-2 0 0 0,178-7 0 0 0,-60-19 605 0 0,-173 24-579 0 0,183-39 39 0 0,-107 15-660 0 0,-68 19 558 0 0,-39 11 96 0 0,1-2 0 0 0,-1-1 0 0 0,23-7 0 0 0,16-9 505 0 0,-38 15-374 0 0,1-1 0 0 0,-2 1 0 0 0,18-12 0 0 0,99-62-223 0 0,-126 75 45 0 0,0 0 0 0 0,0 0-1 0 0,9-11 1 0 0,14-12 119 0 0,-14 16-73 0 0,0-1-1 0 0,-1 0 0 0 0,-1-2 1 0 0,16-20-1 0 0,-25 29-63 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,4-14-1 0 0,9-16-54 0 0,-12 29 71 0 0,0-2 1 0 0,6-16-1 0 0,6-14 52 0 0,-6 18-62 0 0,0-1 0 0 0,-2 0 0 0 0,13-42 0 0 0,-15 30 0 0 0,-7 17 0 0 0,-6-8 0 0 0,5 24 0 0 0,-2-5 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,0-2 0 0 0,-7-8 0 0 0,-1 0 0 0 0,-24-48 0 0 0,27 45 0 0 0,-1 1 0 0 0,-23-32 0 0 0,19 32 0 0 0,-44-50 0 0 0,49 59 0 0 0,0 0 0 0 0,-18-10 0 0 0,-9-8-232 0 0,21 15-129 0 0,-27-16-1 0 0,-11-5-1914 0 0,20 9-2133 0 0,17 11-3758 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1643.76">684 629 17503 0 0,'0'0'399'0'0,"-2"0"60"0"0,-7 0-135 0 0,-6-2 379 0 0,6 1 149 0 0,1 0-1 0 0,-16 1 1 0 0,22 1-636 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,-2 2-1 0 0,-11 7 717 0 0,13-8-876 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-4 6 0 0 0,-2 7-54 0 0,1 2 0 0 0,1 0 0 0 0,0 0 0 0 0,-5 25 0 0 0,5-6 133 0 0,-2 47 1 0 0,7-75-136 0 0,1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-2 0 0 0,1 1 0 0 0,1 1 0 0 0,0-2 0 0 0,0 2 0 0 0,0-2 0 0 0,1 1 0 0 0,0-2 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,14 11 0 0 0,-18-16-13 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-2-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,3 0 1 0 0,37-6-109 0 0,-39 5 117 0 0,7-1-64 0 0,-1-2 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,-1-1-1 0 0,18-15 1 0 0,-24 19-10 0 0,-1 0-1 0 0,1-2 1 0 0,-1 2-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,2-5-1 0 0,-3 7 797 0 0,-1 1-704 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 3-1 0 0,1-1 6 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 2 0 0 0,-1-2 0 0 0,2 4 0 0 0,1-2-11 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,6 2 0 0 0,7 0-94 0 0,0 0 0 0 0,0 0 1 0 0,1-2-1 0 0,18 0 0 0 0,-33-2 84 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,6-3 0 0 0,10-1 0 0 0,-15 5 19 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-2 0 0 0,3-4 0 0 0,-3 4 5 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-2-5 0 0 0,-4-22 111 0 0,5 26-86 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 2 0 0 0,0-1 0 0 0,-1 1 0 0 0,-3-9 0 0 0,-2 2 2 0 0,4 5 71 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-6-6 0 0 0,8 11-90 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 2-1 0 0,0-1 1 0 0,0 0 0 0 0,-1-1-1 0 0,-3 2 1 0 0,-2-1-295 0 0,-1 0-1 0 0,-18 3 0 0 0,25-2 168 0 0,-1 2 1 0 0,1-2-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-4 5 0 0 0,4-2-428 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2094.87">1287 556 10592 0 0,'0'2'3181'0'0,"-4"60"6317"0"0,5-21-7397 0 0,-1 32-474 0 0,-1-50-1364 0 0,3 29-1 0 0,0-3-340 0 0,-6 116 124 0 0,4-157 1091 0 0,3 4-4003 0 0,2-8-941 0 0,-4-4 3686 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,10-15-3940 0 0,-9 2 1795 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2467.02">1268 562 13824 0 0,'1'-18'586'0'0,"-1"15"-472"0"0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,-2-5 1 0 0,2 5 68 0 0,-1 1-600 0 0,2-8 3504 0 0,19 11-925 0 0,-10 3-1786 0 0,1 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 2 0 0 0,-1-2 0 0 0,12 13 0 0 0,-8-6-357 0 0,0 1 1 0 0,-1 1-1 0 0,0-1 0 0 0,-1 2 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,7 18 0 0 0,-7-14-10 0 0,-1 0 1 0 0,-1 0-1 0 0,-1 1 0 0 0,-1-1 0 0 0,-1 1 1 0 0,-1 2-1 0 0,0-2 0 0 0,-2 0 0 0 0,0 1 0 0 0,-5 37 1 0 0,4-57-15 0 0,0-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 2 0 0 0,0-2 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,-3 2-1 0 0,1 1-75 0 0,0-2 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,-8 3 0 0 0,3-2-247 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,-15-1-1 0 0,18 0-657 0 0,1-1 0 0 0,-1 1-1 0 0,-11-5 1 0 0,8 1-453 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2857.66">1701 599 19351 0 0,'0'0'1943'0'0,"0"1"-1783"0"0,4 17 590 0 0,0 4 1367 0 0,-4 3-1271 0 0,4 87 1437 0 0,-3-90-2242 0 0,0 0 0 0 0,-1-1 1 0 0,-5 42-1 0 0,4-47-94 0 0,1-14 9 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,-1 4 1 0 0,-2 9-659 0 0,2-9-823 0 0,1-16 721 0 0,4-202-1852 0 0,-3 199 2656 0 0,1-1 0 0 0,1 2 0 0 0,0-2 0 0 0,7-21 0 0 0,-3 9 0 0 0,-6 25 3 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-2 0 0 0,-1 2-1 0 0,1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 78 0 0,0 2 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,5 29 293 0 0,-3-10-419 0 0,6 22 30 0 0,-7-32 307 0 0,0 1 1 0 0,1 0-1 0 0,0-1 0 0 0,8 19 0 0 0,-1-9 140 0 0,-7-13-412 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0-1-1 0 0,13 14 1 0 0,-14-16-20 0 0,0-2 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,8 0 0 0 0,-10-2 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,4-6 0 0 0,-5 7 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 2 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-2 0 0 0,0 1-1 0 0,0-2 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-8 0 0 0,-1-12 78 0 0,-2 6 204 0 0,1 4 139 0 0,0-1 0 0 0,-1-1-1 0 0,-9-25 1 0 0,10 35-415 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,1-5 0 0 0,-6-19-416 0 0,5 25 151 0 0,0-1 1 0 0,0 1 0 0 0,1-2-1 0 0,-1 2 1 0 0,1-1 0 0 0,1-1-1 0 0,-1 2 1 0 0,1-1 0 0 0,0 0-1 0 0,0-1 1 0 0,1-6 0 0 0,1 7-429 0 0,-1 1 0 0 0,0 1 0 0 0,1-1 0 0 0,0-1 0 0 0,0 2 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-6 0 0 0,2 0-1358 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3276.13">2143 461 11976 0 0,'15'3'1274'0'0,"-11"0"-1210"0"0,0 2 1 0 0,0-2-1 0 0,0 1 0 0 0,5 7 0 0 0,1 3 2406 0 0,10 22-1 0 0,-1-3 256 0 0,-9-17-2011 0 0,-2 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,0 0-1 0 0,5 25 1 0 0,15 90-665 0 0,-27-131-48 0 0,2 13-1 0 0,-1 1 0 0 0,-1 1 0 0 0,-1 15 0 0 0,0 5 0 0 0,1-34 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 2-1 0 0,1-2 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-4 3 1 0 0,4-1-107 0 0,-1-1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,-5-2 0 0 0,2 0 95 0 0,-1-1 1 0 0,1 0 0 0 0,0-2-1 0 0,0 2 1 0 0,0-1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-2 1 0 0,1 0-1 0 0,0 1 1 0 0,1-2-1 0 0,-1 1 1 0 0,1 0-1 0 0,1 0 1 0 0,-1-2-1 0 0,1 1 1 0 0,-7-15-1 0 0,11 21 12 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-2 0 0 0,-1 2 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-2 0 0 0,1 2 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-2 0 0 0,0 2 0 0 0,3-1 0 0 0,9-5 0 0 0,-12 5 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,3-2 0 0 0,138-16 2040 0 0,-117 9-2040 0 0,4 0 0 0 0,8 2 0 0 0,-32 7-177 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1-2 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,9-5 0 0 0,1-1-2388 0 0,-4 2-5284 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3696.05">2052 401 21191 0 0,'0'0'480'0'0,"15"2"1167"0"0,1-2-1559 0 0,100-2 2258 0 0,-95 0-1880 0 0,1-1-1 0 0,-1-1 1 0 0,28-10 0 0 0,14-8-2486 0 0,29-18-5696 0 0,-74 33 5 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3217 462 15664 0 0,'0'0'1187'0'0,"1"0"-803"0"0,4-4-250 0 0,-7 1 1312 0 0,-21-10 1114 0 0,-37-17-10 0 0,41 22-2276 0 0,1 0 0 0 0,1-2-1 0 0,0 0 1 0 0,0-1 0 0 0,-16-13-1 0 0,-39-47-273 0 0,57 55 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 2 0 0 0,-1 0 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 2 0 0 0,-33-12 0 0 0,-59-8 36 0 0,-173-24 0 0 0,225 44 341 0 0,-118-14 1222 0 0,-69 20-1599 0 0,140 7 0 0 0,-186 14 0 0 0,250-14-38 0 0,15-1-59 0 0,0 0 1 0 0,-28 8-1 0 0,-9 3-117 0 0,-18 6 36 0 0,47-11 221 0 0,0-2 0 0 0,-42 4-1 0 0,11-1 21 0 0,-17 3-62 0 0,50-10 103 0 0,1 2 0 0 0,0 1 0 0 0,0 2 0 0 0,-49 18 0 0 0,65-18-104 0 0,0 2 0 0 0,0 0 0 0 0,1 1 0 0 0,1 0 0 0 0,-20 19 0 0 0,1-1 0 0 0,-2-2 0 0 0,-2-1 0 0 0,-42 22 0 0 0,16-8-87 0 0,26-14-695 0 0,26-19 862 0 0,1 0-1 0 0,0 1 1 0 0,1 0 0 0 0,0 1 0 0 0,0 0-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-11 18 1 0 0,3-5-101 0 0,13-21 5 0 0,1 0 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,2 0 0 0 0,-4 7-1 0 0,-3 18-361 0 0,0 3 267 0 0,-10 62 0 0 0,12-47 109 0 0,2-15 351 0 0,-1 35-1 0 0,4-48-308 0 0,2 9-47 0 0,2 1 7 0 0,-1-7 0 0 0,2-1 0 0 0,0 0 0 0 0,1 0 0 0 0,8 23 0 0 0,-7-29 0 0 0,29 77 0 0 0,-32-79-19 0 0,2 0 1 0 0,0-1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 1 0 0,0-1-1 0 0,1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,1-2 1 0 0,16 8-1 0 0,19 8 154 0 0,-29-13-21 0 0,29 11-1 0 0,10-1-91 0 0,-31-9-23 0 0,1-1 0 0 0,29 6 0 0 0,84 3 1 0 0,-88-12 0 0 0,182 17 0 0 0,25-27 0 0 0,-124-2 0 0 0,100-1 0 0 0,82-7 0 0 0,-267 10 0 0 0,51-2 0 0 0,178-6 0 0 0,-60-19 605 0 0,-173 24-579 0 0,183-38 39 0 0,-107 14-660 0 0,-68 19 558 0 0,-39 10 96 0 0,1-2 0 0 0,-1 0 0 0 0,23-8 0 0 0,16-8 505 0 0,-38 14-374 0 0,1 0 0 0 0,-2 0 0 0 0,18-11 0 0 0,99-59-223 0 0,-126 71 45 0 0,0 0 0 0 0,0 0-1 0 0,9-10 1 0 0,14-11 119 0 0,-14 14-73 0 0,0 0-1 0 0,-1-1 0 0 0,-1-1 1 0 0,16-19-1 0 0,-25 27-63 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,4-13-1 0 0,9-15-54 0 0,-12 27 71 0 0,0-1 1 0 0,6-16-1 0 0,6-13 52 0 0,-6 17-62 0 0,0-1 0 0 0,-2 0 0 0 0,13-40 0 0 0,-15 29 0 0 0,-7 16 0 0 0,-6-8 0 0 0,5 23 0 0 0,-2-5 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-7-8 0 0 0,-1-1 0 0 0,-24-45 0 0 0,27 43 0 0 0,-1 1 0 0 0,-23-30 0 0 0,19 29 0 0 0,-44-46 0 0 0,49 55 0 0 0,0 1 0 0 0,-18-11 0 0 0,-9-6-232 0 0,21 13-129 0 0,-27-14-1 0 0,-11-6-1914 0 0,20 9-2133 0 0,17 11-3758 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1643.76">684 599 17503 0 0,'0'0'399'0'0,"-2"0"60"0"0,-7 0-135 0 0,-6-2 379 0 0,6 1 149 0 0,1 0-1 0 0,-16 1 1 0 0,22 1-636 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,-2 2-1 0 0,-11 6 717 0 0,13-7-876 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-4 5 0 0 0,-2 8-54 0 0,1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-5 24 0 0 0,5-6 133 0 0,-2 45 1 0 0,7-71-136 0 0,1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,14 11 0 0 0,-18-15-13 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-2-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,3 0 1 0 0,37-6-109 0 0,-39 5 117 0 0,7-1-64 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1-1-1 0 0,18-14 1 0 0,-24 18-10 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,2-5-1 0 0,-3 7 797 0 0,-1 1-704 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 2-1 0 0,1 0 6 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 4 0 0 0,1-2-11 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,6 2 0 0 0,7 0-94 0 0,0 0 0 0 0,0-1 1 0 0,1-1-1 0 0,18 0 0 0 0,-33-2 84 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,6-2 0 0 0,10-2 0 0 0,-15 5 19 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,3-5 0 0 0,-3 4 5 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-2-4 0 0 0,-4-22 111 0 0,5 25-86 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,-3-8 0 0 0,-2 2 2 0 0,4 4 71 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-6-5 0 0 0,8 10-90 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 2-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,-3 1 1 0 0,-2-1-295 0 0,-1 0-1 0 0,-18 3 0 0 0,25-2 168 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-4 5 0 0 0,4-3-428 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2094.87">1287 529 10592 0 0,'0'2'3181'0'0,"-4"57"6317"0"0,5-20-7397 0 0,-1 31-474 0 0,-1-48-1364 0 0,3 27-1 0 0,0-2-340 0 0,-6 110 124 0 0,4-149 1091 0 0,3 3-4003 0 0,2-7-941 0 0,-4-4 3686 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,10-14-3940 0 0,-9 2 1795 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2467.02">1268 535 13824 0 0,'1'-17'586'0'0,"-1"14"-472"0"0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-2-5 1 0 0,2 6 68 0 0,-1 0-600 0 0,2-8 3504 0 0,19 11-925 0 0,-10 3-1786 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,12 12 0 0 0,-8-5-357 0 0,0 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,-1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,7 18 0 0 0,-7-14-10 0 0,-1 0 1 0 0,-1 0-1 0 0,-1 1 0 0 0,-1-1 0 0 0,-1 1 1 0 0,-1 1-1 0 0,0-1 0 0 0,-2 0 0 0 0,0 1 0 0 0,-5 35 1 0 0,4-54-15 0 0,0-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,-3 2-1 0 0,1 0-75 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,-8 2 0 0 0,3-1-247 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,-15-1-1 0 0,18 0-657 0 0,1-1 0 0 0,-1 1-1 0 0,-11-5 1 0 0,8 2-453 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2857.66">1701 570 19351 0 0,'0'0'1943'0'0,"0"1"-1783"0"0,4 16 590 0 0,0 4 1367 0 0,-4 3-1271 0 0,4 83 1437 0 0,-3-86-2242 0 0,0 0 0 0 0,-1-1 1 0 0,-5 40-1 0 0,4-45-94 0 0,1-13 9 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,-1 4 1 0 0,-2 8-659 0 0,2-8-823 0 0,1-16 721 0 0,4-191-1852 0 0,-3 188 2656 0 0,1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,7-20 0 0 0,-3 8 0 0 0,-6 24 3 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 78 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,5 27 293 0 0,-3-9-419 0 0,6 21 30 0 0,-7-30 307 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,8 17 0 0 0,-1-8 140 0 0,-7-12-412 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,13 13 1 0 0,-14-16-20 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,8 1 0 0 0,-10-2 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,4-5 0 0 0,-5 6 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-2 0 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-7 0 0 0,-1-12 78 0 0,-2 6 204 0 0,1 3 139 0 0,0 0 0 0 0,-1-1-1 0 0,-9-24 1 0 0,10 33-415 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-6 0 0 0,-6-17-416 0 0,5 23 151 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1-7 0 0 0,1 8-429 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-5 0 0 0,2-1-1358 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3276.13">2143 439 11976 0 0,'15'3'1274'0'0,"-11"0"-1210"0"0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,5 7 0 0 0,1 2 2406 0 0,10 21-1 0 0,-1-2 256 0 0,-9-17-2011 0 0,-2 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,0 1-1 0 0,5 23 1 0 0,15 85-665 0 0,-27-124-48 0 0,2 13-1 0 0,-1 0 0 0 0,-1 1 0 0 0,-1 15 0 0 0,0 4 0 0 0,1-32 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-4 3 1 0 0,4-2-107 0 0,-1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,-5-2 0 0 0,2 0 95 0 0,-1-1 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,-7-14-1 0 0,11 20 12 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,3-1 0 0 0,9-5 0 0 0,-12 5 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,3-2 0 0 0,138-15 2040 0 0,-117 9-2040 0 0,4-1 0 0 0,8 2 0 0 0,-32 7-177 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,9-5 0 0 0,1 0-2388 0 0,-4 1-5284 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3696.05">2052 382 21191 0 0,'0'0'480'0'0,"15"2"1167"0"0,1-2-1559 0 0,100-2 2258 0 0,-95 0-1880 0 0,1-1-1 0 0,-1-1 1 0 0,28-9 0 0 0,14-8-2486 0 0,29-17-5696 0 0,-74 31 5 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19478,12 +19539,12 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5299 1939 8752 0 0,'-4'-3'15123'0'0,"1"1"-14943"0"0,1 1 0 0 0,-1 0 0 0 0,1-2 1 0 0,0 2-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-2-2 0 0 0,1 1-107 0 0,1 1 1 0 0,-1-2-1 0 0,1 2 1 0 0,-1 0-1 0 0,0 0 0 0 0,-6-3 1 0 0,2 2 153 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-11-11 0 0 0,14 12-227 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-8-2 0 0 0,-2 1 0 0 0,-27-4 0 0 0,32 7 0 0 0,-6-2 5 0 0,-1-1 1 0 0,1 0-1 0 0,-30-14 0 0 0,-43-28 68 0 0,51 26-36 0 0,-193-127 377 0 0,148 92-594 0 0,-113-54-114 0 0,56 35 303 0 0,118 62-9 0 0,-31-18 0 0 0,-64-49 0 0 0,-42-59 0 0 0,116 101 292 0 0,-1 1 0 0 0,-2 4 0 0 0,-91-52 0 0 0,120 76-441 0 0,-1 0 1 0 0,0 2-1 0 0,0 1 0 0 0,-31-7 0 0 0,44 12-281 0 0,-8-2-4128 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1692.85">3641 328 10136 0 0,'-4'-16'1096'0'0,"3"11"-420"0"0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-2 1 0 0,-1 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-4-4 0 0 0,-4-2 93 0 0,-1 1 0 0 0,0-1-1 0 0,-1 2 1 0 0,1 1 0 0 0,-30-11-1 0 0,-73-23 1006 0 0,65 28-1809 0 0,-77-12 0 0 0,74 18 732 0 0,-429-44 366 0 0,264 37-1341 0 0,-142-5 629 0 0,129 14-423 0 0,107 3-25 0 0,-122 4 273 0 0,143 4-246 0 0,1 6 0 0 0,-144 37-1 0 0,40 0 401 0 0,181-42-370 0 0,-12 1-83 0 0,2 4 1 0 0,-49 20 0 0 0,77-28 133 0 0,-122 60-155 0 0,106-49 165 0 0,0 1 1 0 0,1 0-1 0 0,-25 24 0 0 0,36-29 4 0 0,-19 18 147 0 0,-31 37-1 0 0,49-53-139 0 0,-25 22 1 0 0,11-10-162 0 0,16-16 89 0 0,0 0-1 0 0,-16 9 1 0 0,18-13 27 0 0,1 0 0 0 0,0 0-1 0 0,0 2 1 0 0,0 0 0 0 0,-8 9 0 0 0,15-15 13 0 0,-13 15 16 0 0,1 2 0 0 0,0 0 0 0 0,-18 33 0 0 0,29-46-16 0 0,0 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,5 11 0 0 0,-5-13 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,5 3 0 0 0,-2-2 0 0 0,-1 0 0 0 0,-1 2 0 0 0,1-2 0 0 0,5 6 0 0 0,20 34-13 0 0,-23-31-8 0 0,1-1 1 0 0,15 18-1 0 0,2-5-3 0 0,1-2 0 0 0,1-1 0 0 0,1-1-1 0 0,53 28 1 0 0,129 49 17 0 0,-165-81-50 0 0,83 17 0 0 0,-83-23 107 0 0,237 42-39 0 0,-200-45-11 0 0,-19-1 0 0 0,314 8 426 0 0,-322-15-432 0 0,169-8-206 0 0,-152 4 215 0 0,18-1 179 0 0,428-33-240 0 0,-7-48 198 0 0,-461 76-128 0 0,59-24 0 0 0,-83 24 6 0 0,1 0-1 0 0,-2-2 0 0 0,43-28 0 0 0,32-43-17 0 0,-4 4 0 0 0,-59 50 0 0 0,-26 22 0 0 0,-1-2 0 0 0,2 3 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,22-8 0 0 0,-27 12 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,9-9 0 0 0,13-9 0 0 0,-21 18 14 0 0,1-2 1 0 0,-1 0-1 0 0,1 1 0 0 0,-2-2 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-2-1 0 0,-1 2 0 0 0,1-2 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,3-10 0 0 0,-6 16-6 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,-2-3 1 0 0,-5-8 71 0 0,-1 0-1 0 0,0 2 1 0 0,-1-2 0 0 0,-19-17 0 0 0,-49-35-391 0 0,-62-35-58 0 0,84 62 375 0 0,-25-10-5 0 0,81 48 0 0 0,-10-6-577 0 0,1 3-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-17-1-1 0 0,24 3 118 0 0,-22-4-8749 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2555.19">801 474 14744 0 0,'0'0'1334'0'0,"-6"3"-1069"0"0,2 1-58 0 0,0 0 0 0 0,0 0 0 0 0,0 2-1 0 0,1-2 1 0 0,0 1 0 0 0,0 1-1 0 0,-4 8 1 0 0,-12 41 1401 0 0,12-29-1550 0 0,5-19 24 0 0,0 2 0 0 0,0-1-1 0 0,0 14 1 0 0,2-14-22 0 0,-1-1 1 0 0,1 0-1 0 0,-2 1 0 0 0,1-1 0 0 0,-5 11 0 0 0,-2 4 243 0 0,0 1 1 0 0,-6 31-1 0 0,16-36-133 0 0,0-7-122 0 0,-3-11-36 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 2 0 0 0,0-2 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,-1 2 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,9-5 729 0 0,-7 3-667 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1-4 0 0 0,1-2-31 0 0,16-60 721 0 0,-19 68-741 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-2 0 0 0,2-17 132 0 0,3-11 131 0 0,-1-1-1 0 0,0-34 0 0 0,-12 28 115 0 0,9 37-364 0 0,1-6 219 0 0,2 7-133 0 0,2 6-57 0 0,22 36 47 0 0,-18-28-65 0 0,-1 1-1 0 0,2-3 1 0 0,19 23-1 0 0,12 7-77 0 0,-20-18-29 0 0,48 37-1 0 0,-47-43-22 0 0,16 12-262 0 0,-35-28 301 0 0,1 1-1 0 0,-1 1 1 0 0,0-2 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,6 1-1 0 0,-8-1 63 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,1-2 0 0 0,-1 1-51 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-2-1 0 0,0 2 0 0 0,0-4 0 0 0,-1 1 118 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,-2-8 0 0 0,-10-35 1261 0 0,7 26-1207 0 0,-8-22-1 0 0,13 41-103 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-7 0 0 0,-1 9-183 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-2 0 0 0,-1 2 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,2-1 1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2926.88">1205 670 9672 0 0,'6'12'1242'0'0,"-6"-11"-1010"0"0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 1-1 0 0,0-2 1 0 0,0 1-1 0 0,-1-1 0 0 0,3 2 1 0 0,4 3 1548 0 0,14 7 764 0 0,0-5-1378 0 0,-12-3-967 0 0,0-1 1 0 0,0 0-1 0 0,19 2 0 0 0,-16-5 217 0 0,-1 0-1 0 0,1-1 1 0 0,0 0-1 0 0,0-1 0 0 0,13-4 1 0 0,-12 3-556 0 0,-9 2 166 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,3-5-1 0 0,-4 6 44 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-2 0-1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1-2-1 0 0,0 2 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-3-5 0 0 0,3 7-70 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-10-2 0 0 0,3-2 50 0 0,0 1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 2 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0 1 0 0 0,0 0 1 0 0,-15 7-1 0 0,25-11-178 0 0,-1 2-1 0 0,0-2 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 1-1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3502.38">1703 415 13760 0 0,'0'0'314'0'0,"-5"-6"872"0"0,2 4-852 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-2-1 0 0,-1 2 1 0 0,1 0-1 0 0,0 0 1 0 0,-5 0-1 0 0,8 0-294 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 2-1 0 0,1-2 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 2 1 0 0,-6 10 784 0 0,6-12-772 0 0,1 1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 2 0 0 0,0-2 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,2 2 0 0 0,10 27 332 0 0,22 40 194 0 0,1 5-60 0 0,-30-65-357 0 0,-1 0 0 0 0,10 12 0 0 0,-10-16-88 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 2 0 0 0,3 6-1 0 0,-4-10-72 0 0,-1-2 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 2 0 0 0,0-2 0 0 0,-3 4 0 0 0,0 2 0 0 0,0-2 0 0 0,-1 1 0 0 0,0 1 0 0 0,0-2 0 0 0,-1 0 0 0 0,0 0 0 0 0,-6 5 0 0 0,7-5 0 0 0,4-4-4 0 0,0-2 2 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,1 0-323 0 0,-1-3-530 0 0,1 3 815 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 0 38 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,2 0-1 0 0,23-14-103 0 0,-14 8-234 0 0,54-29-1309 0 0,-51 30 1656 0 0,-1-2-1 0 0,0 0 1 0 0,-1-1 0 0 0,24-18-1 0 0,-25 15-8 0 0,-2 4 0 0 0,16-21 0 0 0,-23 26 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-2 0 0 0,2-5 0 0 0,-3 11 24 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-2-1 0 0 0,2 1 450 0 0,-12 0 626 0 0,8 0-1099 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-2 0 0 0,1 2 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 2-1 0 0,1-2 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,-3 3-1 0 0,4-3-1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 1 0 0 0,0-2 0 0 0,1 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-2 4 0 0 0,2-5 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,3 2 1 0 0,0-1 73 0 0,0 1-1 0 0,1-2 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,8 2 0 0 0,-10-4 20 0 0,11 3-450 0 0,1 0 0 0 0,0-1-1 0 0,26 2 1 0 0,-34-4-69 0 0,26-3-1843 0 0,-23 1 1561 0 0,10 1-828 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4320.61">2264 290 13824 0 0,'0'0'629'0'0,"7"0"212"0"0,-6 0-803 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 1-1 0 0,1-1 31 0 0,11 58 4016 0 0,-4 5-1869 0 0,-5-6-1513 0 0,4 2-1 0 0,20 97 1 0 0,-23-135-666 0 0,-3-21-2 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 1 1246 0 0,-2-11-1230 0 0,0-2 0 0 0,-1 2 0 0 0,-5-17 0 0 0,-19-52-50 0 0,24 71 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 2 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-2 0 0 0,0 2 0 0 0,0 0 0 0 0,-6-6 0 0 0,10 11 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-6 3 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,1 0 0 0 0,-3 9 0 0 0,4-11 0 0 0,1 2 0 0 0,0-2 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 1 0 0 0,2 6 0 0 0,-1-6-23 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 2 0 0 0,6 2 0 0 0,5 5 60 0 0,-11-9-17 0 0,1 0 1 0 0,0-1-1 0 0,0 2 1 0 0,0-2-1 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,9 1-1 0 0,0-2-20 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,1 0 0 0 0,22-5 0 0 0,-11-1 0 0 0,1 0 0 0 0,39-19 0 0 0,-58 23-14 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-2 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1-2 0 0 0,1 1 0 0 0,0-1 0 0 0,-2 1 0 0 0,1 0 0 0 0,-1-2 0 0 0,0 2 0 0 0,-1-2 0 0 0,5-16 0 0 0,3-24 278 0 0,-11 35-264 0 0,-1 12 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1-2-1 0 0,-1 2 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,-2 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,-3 4-1 0 0,3-2 3 0 0,-1 0 29 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 1 0 0 0,0-1 0 0 0,-3 6-1 0 0,4-6-24 0 0,0-2 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 1 0 0 0,0-2-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 2 0 0 0,-1-2-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 2 1 0 0,10 9-142 0 0,1-1 0 0 0,0 0 0 0 0,29 18 0 0 0,-32-25 135 0 0,0 1 0 0 0,0-2 0 0 0,0 0 0 0 0,1-1 0 0 0,15 3 0 0 0,-21-5-306 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0-1 0 0,7-2 1 0 0,-3 1-109 0 0,-2 1-608 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5298 1834 8752 0 0,'-4'-3'15123'0'0,"1"1"-14943"0"0,1 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-2-2 0 0 0,1 1-107 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,-6-3 1 0 0,2 2 153 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-11-10 0 0 0,14 11-227 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-8-3 0 0 0,-2 1 0 0 0,-27-3 0 0 0,32 6 0 0 0,-6-2 5 0 0,-1-1 1 0 0,1 0-1 0 0,-30-13 0 0 0,-43-26 68 0 0,51 24-36 0 0,-193-120 377 0 0,148 87-594 0 0,-113-51-114 0 0,56 33 303 0 0,118 58-9 0 0,-31-16 0 0 0,-64-47 0 0 0,-42-55 0 0 0,116 95 292 0 0,-1 1 0 0 0,-2 3 0 0 0,-91-48 0 0 0,120 71-441 0 0,-1 1 1 0 0,0 1-1 0 0,0 1 0 0 0,-31-6 0 0 0,44 11-281 0 0,-8-2-4128 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1692.85">3640 310 10136 0 0,'-4'-15'1096'0'0,"3"10"-420"0"0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-4-5 0 0 0,-4-1 93 0 0,-1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1 1 0 0 0,-30-10-1 0 0,-73-21 1006 0 0,65 25-1809 0 0,-77-10 0 0 0,74 16 732 0 0,-429-41 366 0 0,265 35-1341 0 0,-143-5 629 0 0,129 13-423 0 0,107 3-25 0 0,-122 4 273 0 0,143 4-246 0 0,1 5 0 0 0,-144 35-1 0 0,40 1 401 0 0,181-41-370 0 0,-12 2-83 0 0,2 3 1 0 0,-49 19 0 0 0,77-26 133 0 0,-122 57-155 0 0,106-47 165 0 0,0 1 1 0 0,1 0-1 0 0,-25 23 0 0 0,36-28 4 0 0,-19 18 147 0 0,-31 34-1 0 0,49-49-139 0 0,-25 20 1 0 0,11-10-162 0 0,16-14 89 0 0,0-1-1 0 0,-16 9 1 0 0,18-12 27 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0 1 0 0 0,-8 8 0 0 0,15-14 13 0 0,-13 14 16 0 0,1 2 0 0 0,0 0 0 0 0,-18 31 0 0 0,29-43-16 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,5 10 0 0 0,-5-12 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,5 3 0 0 0,-2-2 0 0 0,-1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,5 6 0 0 0,20 31-13 0 0,-23-28-8 0 0,1-2 1 0 0,15 18-1 0 0,2-6-3 0 0,1-1 0 0 0,1-1 0 0 0,1-1-1 0 0,53 26 1 0 0,129 47 17 0 0,-165-77-50 0 0,83 16 0 0 0,-83-21 107 0 0,237 39-39 0 0,-200-42-11 0 0,-19-2 0 0 0,314 9 426 0 0,-322-15-432 0 0,169-8-206 0 0,-152 4 215 0 0,18 0 179 0 0,428-32-240 0 0,-8-45 198 0 0,-460 71-128 0 0,59-22 0 0 0,-83 23 6 0 0,1-1-1 0 0,-2-1 0 0 0,43-27 0 0 0,32-40-17 0 0,-4 3 0 0 0,-59 48 0 0 0,-26 20 0 0 0,-1-1 0 0 0,2 2 0 0 0,-1-1 0 0 0,1 2 0 0 0,0-1 0 0 0,22-7 0 0 0,-27 11 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,9-8 0 0 0,13-9 0 0 0,-21 17 14 0 0,1-1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-2-1 0 0 0,1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,3-9 0 0 0,-6 15-6 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,-2-3 1 0 0,-5-7 71 0 0,-1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,-19-16 0 0 0,-49-34-391 0 0,-62-32-58 0 0,84 58 375 0 0,-25-10-5 0 0,81 46 0 0 0,-10-5-577 0 0,1 2-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-17-1-1 0 0,24 3 118 0 0,-22-3-8749 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2555.19">801 448 14744 0 0,'0'0'1334'0'0,"-6"3"-1069"0"0,2 1-58 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-4 9 1 0 0,-12 38 1401 0 0,12-28-1550 0 0,5-17 24 0 0,0 1 0 0 0,0 0-1 0 0,0 13 1 0 0,2-14-22 0 0,-1 0 1 0 0,1 0-1 0 0,-2 0 0 0 0,1 0 0 0 0,-5 10 0 0 0,-2 4 243 0 0,0 0 1 0 0,-6 30-1 0 0,16-34-133 0 0,0-6-122 0 0,-3-11-36 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,9-5 729 0 0,-7 3-667 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1-3 0 0 0,1-3-31 0 0,16-56 721 0 0,-19 64-741 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-2 0 0 0,2-16 132 0 0,3-10 131 0 0,-1-1-1 0 0,0-32 0 0 0,-12 26 115 0 0,9 35-364 0 0,1-6 219 0 0,2 7-133 0 0,2 6-57 0 0,22 34 47 0 0,-18-27-65 0 0,-1 1-1 0 0,2-2 1 0 0,19 21-1 0 0,12 7-77 0 0,-20-18-29 0 0,48 36-1 0 0,-47-41-22 0 0,16 12-262 0 0,-35-27 301 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,6 1-1 0 0,-8-1 63 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 0-51 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-4 0 0 0,-1 1 118 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-2-7 0 0 0,-10-33 1261 0 0,7 24-1207 0 0,-8-21-1 0 0,13 39-103 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-6 0 0 0,-1 8-183 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,2-1 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2926.88">1205 634 9672 0 0,'6'11'1242'0'0,"-6"-10"-1010"0"0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,3 2 1 0 0,4 3 1548 0 0,14 6 764 0 0,0-4-1378 0 0,-12-3-967 0 0,0-1 1 0 0,0-1-1 0 0,19 3 0 0 0,-16-5 217 0 0,-1 0-1 0 0,1-1 1 0 0,0 0-1 0 0,0-1 0 0 0,13-3 1 0 0,-12 2-556 0 0,-9 2 166 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,3-4-1 0 0,-4 5 44 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-2-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-3-4 0 0 0,3 6-70 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-10-2 0 0 0,3-1 50 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 2 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 1 1 0 0,-15 7-1 0 0,25-11-178 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 1-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3502.38">1703 393 13760 0 0,'0'0'314'0'0,"-5"-6"872"0"0,2 4-852 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,-5 0-1 0 0,8 0-294 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 2 1 0 0,-6 9 784 0 0,6-11-772 0 0,1 1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,2 2 0 0 0,10 25 332 0 0,22 38 194 0 0,1 5-60 0 0,-30-61-357 0 0,-1-1 0 0 0,10 12 0 0 0,-10-15-88 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,3 7-1 0 0,-4-11-72 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-3 4 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-6 6 0 0 0,7-6 0 0 0,4-3-4 0 0,0-2 2 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,1 0-323 0 0,-1-3-530 0 0,1 3 815 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 0 38 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,2 0-1 0 0,23-13-103 0 0,-14 7-234 0 0,54-27-1309 0 0,-51 28 1656 0 0,-1-1-1 0 0,0-1 1 0 0,-1 0 0 0 0,24-18-1 0 0,-25 15-8 0 0,-2 3 0 0 0,16-19 0 0 0,-23 24 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,2-6 0 0 0,-3 11 24 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-2-1 0 0 0,2 1 450 0 0,-12 0 626 0 0,8 0-1099 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,-3 3-1 0 0,4-3-1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-2 3 0 0 0,2-4 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,3 1 1 0 0,0 0 73 0 0,0 1-1 0 0,1-2 1 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,8 3 0 0 0,-10-4 20 0 0,11 3-450 0 0,1 0 0 0 0,0-1-1 0 0,26 1 1 0 0,-34-3-69 0 0,26-3-1843 0 0,-23 1 1561 0 0,10 1-828 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4320.61">2264 274 13824 0 0,'0'0'629'0'0,"7"0"212"0"0,-6 0-803 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 31 0 0,11 55 4016 0 0,-4 5-1869 0 0,-5-6-1513 0 0,4 1-1 0 0,20 93 1 0 0,-23-128-666 0 0,-3-20-2 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 1 1246 0 0,-2-11-1230 0 0,0-1 0 0 0,-1 1 0 0 0,-5-15 0 0 0,-19-50-50 0 0,24 67 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-6-5 0 0 0,10 10 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-6 3 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-3 8 0 0 0,4-10 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,2 7 0 0 0,-1-7-23 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,6 3 0 0 0,5 4 60 0 0,-11-8-17 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,9 2-1 0 0,0-2-20 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,1 0 0 0 0,22-5 0 0 0,-11 0 0 0 0,1-1 0 0 0,39-17 0 0 0,-58 21-14 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,5-16 0 0 0,3-22 278 0 0,-11 33-264 0 0,-1 11 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,-2 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,-3 4-1 0 0,3-3 3 0 0,-1 1 29 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,2 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-3 6-1 0 0,4-7-24 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,10 10-142 0 0,1-2 0 0 0,0 0 0 0 0,28 18 0 0 0,-31-24 135 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,15 2 0 0 0,-21-4-306 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0-1 0 0,7-1 1 0 0,-3 0-109 0 0,-2 1-608 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19515,15 +19576,15 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 3575 17503 0 0,'0'0'2786'0'0,"1"-2"-1816"0"0,5-3-340 0 0,-2-2 0 0 0,1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,6-14 0 0 0,13-20-102 0 0,-13 25-531 0 0,0-1-1 0 0,-1 0 1 0 0,0-1-1 0 0,6-20 1 0 0,26-85 385 0 0,-12 31 493 0 0,-6 28-375 0 0,30-91-182 0 0,6-128 3 0 0,-30 120-283 0 0,3-32-173 0 0,20-81-43 0 0,-48 260 178 0 0,10-43 0 0 0,4 0 0 0 0,31-75 0 0 0,-37 108 5 0 0,-6 10 31 0 0,2 0 0 0 0,17-28-1 0 0,-22 38-48 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,3-11 0 0 0,-6 12-788 0 0,1 6 763 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-4-2959 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1121.75">536 1398 15664 0 0,'0'0'1571'0'0,"0"10"-1423"0"0,1-1 499 0 0,-1-1 0 0 0,2-1 0 0 0,1 12-1 0 0,3 17 1227 0 0,-5-27-1737 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,1 2 0 0 0,0-2-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0-1-1 0 0,6 8 1 0 0,2 1 196 0 0,1-1 0 0 0,-1-2-1 0 0,1 0 1 0 0,26 15 0 0 0,-19-14-305 0 0,2-1 1 0 0,0-2 0 0 0,0 0-1 0 0,1-2 1 0 0,38 8-1 0 0,43 1 112 0 0,125 3 0 0 0,-203-19 26 0 0,254 12 1134 0 0,-155-8-993 0 0,335 0-306 0 0,-307-6 0 0 0,160-7 0 0 0,-156 1 0 0 0,406-36-391 0 0,-464 34 390 0 0,137-20 336 0 0,-126 15-286 0 0,-44 6-49 0 0,0-4 0 0 0,125-39 0 0 0,-98 10 0 0 0,-52 23 0 0 0,141-75-12 0 0,-145 72 3 0 0,1-4 0 0 0,-3 1 0 0 0,-1-3 0 0 0,-1-2 0 0 0,54-57-1 0 0,-79 75 14 0 0,-1-1 0 0 0,0 1 0 0 0,-2-2-1 0 0,1 1 1 0 0,0-1 0 0 0,-2 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,-2 1-1 0 0,1-2 1 0 0,-1 1 0 0 0,0-16 0 0 0,-1 1-42 0 0,-2 1 0 0 0,0-1 0 0 0,-2 1 1 0 0,0-1-1 0 0,-1 2 0 0 0,-12-35 1 0 0,11 44 72 0 0,-1 0 0 0 0,-2 0 1 0 0,1 1-1 0 0,-2 0 0 0 0,1 0 1 0 0,-2 1-1 0 0,0 2 0 0 0,-23-28 1 0 0,3 10-157 0 0,-3 1-1 0 0,-50-37 1 0 0,-87-81-274 0 0,80 68 345 0 0,65 59 43 0 0,-2 3 0 0 0,1 2 0 0 0,-1 1 0 0 0,-33-15 0 0 0,-119-36-33 0 0,65 36-18 0 0,-1 6-1 0 0,0 5 0 0 0,-139-5 1 0 0,-308 18-828 0 0,433 12 936 0 0,-299 29 754 0 0,129 23 202 0 0,260-46-1010 0 0,1 2-1 0 0,0 2 1 0 0,1 1-1 0 0,0 3 1 0 0,-50 34-1 0 0,-11 17 59 0 0,-84 59 35 0 0,13-21-89 0 0,147-94 0 0 0,0 2 0 0 0,0 2 0 0 0,1 0 0 0 0,1 1 0 0 0,0 1 0 0 0,2 1 0 0 0,0 0 0 0 0,0 2 0 0 0,3 1 0 0 0,-23 41 0 0 0,1 10 0 0 0,-44 79 0 0 0,37-69 0 0 0,34-65 0 0 0,5-9-404 0 0,1 0-1 0 0,-1 0 0 0 0,3 1 1 0 0,-5 12-1 0 0,5-11-698 0 0,-1 0 0 0 0,2 0 0 0 0,0 1 0 0 0,0-2 0 0 0,1 1 0 0 0,3 19 0 0 0,0-9-6608 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1805.95">1341 941 17503 0 0,'-7'-11'611'0'0,"5"7"896"0"0,3 12-774 0 0,-1 6-333 0 0,0 0-1 0 0,0 0 1 0 0,-2-1 0 0 0,1 1-1 0 0,-2 0 1 0 0,0 0 0 0 0,-7 19-1 0 0,1 3-431 0 0,-6 14 32 0 0,4-20 0 0 0,-1 1 0 0 0,9-23 0 0 0,0 0 0 0 0,-4 14 0 0 0,-1 4 0 0 0,6-23 0 0 0,0 2 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0 6 0 0 0,-1-11 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,5-9-21 0 0,-2 2-36 0 0,-2 1-1 0 0,2-2 1 0 0,-2 2-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-2-1 0 0,0 1 1 0 0,0 1-1 0 0,-1-9 1 0 0,0-13 181 0 0,-3-91 438 0 0,3 70-562 0 0,0 19 0 0 0,4-46 0 0 0,-3 75 3 0 0,0-1-2 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,2-4 0 0 0,2-6 61 0 0,-5 10 321 0 0,2 2-301 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 1 0 0 0,-1-2 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 2 0 0 0,16 30-70 0 0,-11-19 29 0 0,8 11-41 0 0,26 40 0 0 0,-34-52 0 0 0,1 0 0 0 0,7 19 0 0 0,-9-20 0 0 0,-2-2 0 0 0,2 2 0 0 0,1-1 0 0 0,10 14 0 0 0,-10-19 0 0 0,-1 2 0 0 0,1-2 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0-3 0 0 0,1 0 0 0 0,-1 0 0 0 0,13 3 0 0 0,-11-6 0 0 0,-4-2 15 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,5-4-1 0 0,-8 3 101 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-2-1 0 0,-1 2 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-6 0 0 0,-2-11-245 0 0,-1 1 1 0 0,-7-23-1 0 0,7 24 262 0 0,2 12-372 0 0,-8-39-1031 0 0,7 15-2855 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2242.92">1743 1147 11976 0 0,'0'8'576'0'0,"0"4"-341"0"0,-1-9 62 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,2 4 0 0 0,6 7 1798 0 0,-8-11-1924 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,4 1 0 0 0,4 6 500 0 0,-9-8-582 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,3 0 0 0 0,4 1 219 0 0,-3 0-284 0 0,-1 0-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-2 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0-2 1 0 0,-1 1 0 0 0,10-3-1 0 0,-9 3-22 0 0,-5 1 0 0 0,2 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2-2 0 0 0,-1 2 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2-4 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 2 0 0 0,1 0 0 0 0,0-1 0 0 0,-2 1 0 0 0,-6-6 0 0 0,5 6 2 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,-14-2 0 0 0,15 3-20 0 0,1 0-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,2 0 0 0 0,-2 0-1 0 0,0 1 1 0 0,-8 5 0 0 0,9-2-2469 0 0,1 0 975 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2606.23">2320 821 13824 0 0,'0'0'629'0'0,"-12"-11"238"0"0,1 2-935 0 0,9 6 357 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,2 0 1 0 0,-2 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,-5 0 0 0 0,3 1-48 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1 0-1 0 0,2 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,2 1 1 0 0,-7 6-1 0 0,-4 8 97 0 0,0 2-1 0 0,1-1 0 0 0,-11 26 1 0 0,14-26-69 0 0,1-4-266 0 0,1 1 0 0 0,1-1 0 0 0,-1 2 0 0 0,3 0 1 0 0,-10 35-1 0 0,14-47-3 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,2-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,6 4 0 0 0,-4-3 0 0 0,1 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-2 0 0 0,0 1 0 0 0,0-1 0 0 0,16 6 0 0 0,-1-2 257 0 0,0-1 0 0 0,31 4 1 0 0,-3-8-1868 0 0,-39-3-1127 0 0,0-1-1 0 0,16-3 1 0 0,-12 1-4396 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3013.9">2594 930 15664 0 0,'-5'5'761'0'0,"-13"6"152"0"0,16-9-887 0 0,-1-1-1 0 0,1 0 0 0 0,-1 2 1 0 0,1-2-1 0 0,-1 1 0 0 0,2-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,-2 3 0 0 0,-50 63 6237 0 0,44-55-5832 0 0,3 1 0 0 0,-2 1 0 0 0,-8 23 1 0 0,15-32-432 0 0,-1 1 0 0 0,2-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,1-1 1 0 0,-1 2-1 0 0,1-1 0 0 0,0-1 1 0 0,2 16-1 0 0,-2-20 1 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 2 0 0 0,1-2 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 4 0 0 0,-1-4 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,8 0 0 0 0,10-1 0 0 0,-12-4 0 0 0,-7 2 0 0 0,-1 0 0 0 0,3-2-16 0 0,-1 2-62 0 0,1-1 0 0 0,0 0 0 0 0,-2-2 0 0 0,1 2-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,1 1-1 0 0,2-8 1 0 0,5-18-297 0 0,-7 23 269 0 0,0-2 0 0 0,-2 1 0 0 0,1-1 1 0 0,0 2-1 0 0,0-2 0 0 0,0-14 0 0 0,-2-44 106 0 0,-1 54 996 0 0,1 22 0 0 0,4 9-996 0 0,14 70 0 0 0,-16-82 3 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-2 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,7 6 0 0 0,2 1-99 0 0,32 20 0 0 0,-17-15-574 0 0,-15-9-2659 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3401.09">2823 974 13824 0 0,'0'0'60'0'0,"-1"0"0"0"0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,34 34 1779 0 0,-22-16-437 0 0,1 0-1 0 0,13 32 0 0 0,-19-37-999 0 0,-4-10-240 0 0,1 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 2 0 0 0,0 3 0 0 0,2 7 535 0 0,10 22 0 0 0,-9-23-275 0 0,8 25 0 0 0,-13-31-310 0 0,0-2-41 0 0,10 14 156 0 0,-10-19-312 0 0,0-2-462 0 0,-2-2 497 0 0,1-1-22 0 0,-1 1 0 0 0,1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-6 0 0 0,1 5-8 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-2-7 1 0 0,1 8 21 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-9-1 0 0,1-2 57 0 0,3-56-12 0 0,-3 64 21 0 0,1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 2-1 0 0,4-9 0 0 0,19-32 1711 0 0,-23 43-1665 0 0,-2 1-55 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,2-1 1 0 0,-4 4 112 0 0,1-1-111 0 0,1 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 4 0 0 0,5 12-73 0 0,-9 1-1241 0 0,7-11 144 0 0,2 2-5983 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4034.15">3117 1008 13824 0 0,'0'0'1388'0'0,"0"1"-1276"0"0,0 6 814 0 0,0-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,4 8 1 0 0,-3-4-359 0 0,1 2-249 0 0,0 2 0 0 0,-1-1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-2-1 0 0 0,-5 26 0 0 0,0-8-319 0 0,7-26 0 0 0,0-6 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-8 0 0 0,8-42 0 0 0,-6 29 0 0 0,-2-27 0 0 0,0 28 0 0 0,0 17 0 0 0,1-7 0 0 0,10-8 0 0 0,-1 12 0 0 0,-3 5-332 0 0,2 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,12 2 0 0 0,-15-1 349 0 0,71 11-33 0 0,-62-11 12 0 0,31 0-1 0 0,-34-1 22 0 0,7-2 39 0 0,-11 2 158 0 0,-1-1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,9-5 1 0 0,-13 5-269 0 0,-1 1 0 0 0,1-2 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,2-5 0 0 0,-1 3-13 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-7 0 0 0,-1 5 68 0 0,1 2 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,-3-5 0 0 0,2 3 0 0 0,2 3 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-5-1 0 0 0,6 2 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 57 0 0,-2 1 29 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 3 0 0 0,-6 32 689 0 0,2-12-827 0 0,5-23 52 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,2 4 0 0 0,2 15 0 0 0,5 33 0 0 0,-9-51 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,2 3 0 0 0,24 36 0 0 0,-23-37-281 0 0,-2-2 112 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-2 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,4 0 1 0 0,-7-2 82 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-35 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 2 0 0 0,-1-2-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,20 6-2269 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4789.39">3545 999 13824 0 0,'-6'-17'791'0'0,"6"13"91"0"0,5 10-195 0 0,46 82 4583 0 0,-48-81-5164 0 0,0-1 1 0 0,0 2-1 0 0,-1-2 0 0 0,1 2 1 0 0,-1-1-1 0 0,1 9 0 0 0,7 21 1199 0 0,-7-29-1289 0 0,-2 2-16 0 0,-1-10 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-10 0 0 0,-1 6 0 0 0,0-1 0 0 0,1-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,3-9 0 0 0,-1 7 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,7-10 0 0 0,-5 8 0 0 0,2-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 2 0 0 0,12-11 0 0 0,46-31 0 0 0,-61 46 0 0 0,17-15 0 0 0,-18 15 0 0 0,0 0 0 0 0,0-1 0 0 0,1 2 0 0 0,-1 0 0 0 0,0 0 0 0 0,10-4 0 0 0,23-12 0 0 0,-63 76 1420 0 0,14-30-1089 0 0,7-15-240 0 0,0 0 0 0 0,-12 18 0 0 0,14-25-91 0 0,-1 0 0 0 0,1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,2-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 10 0 0 0,0-7 0 0 0,1-8 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 3 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,4 2 0 0 0,-3-2-2 0 0,10 4-57 0 0,-11-6-266 0 0,19 0-1241 0 0,-12-3 1564 0 0,2-1-1 0 0,-2 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,11-9 0 0 0,-8 0 3 0 0,-3 1 0 0 0,-1 3 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,5-20 0 0 0,-6 15 0 0 0,1-4 0 0 0,-6 17 83 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-2 0 0 0,-1 2-33 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,2 1 1 0 0,1 0-50 0 0,0 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 2 0 0 0,-1-1 0 0 0,3 5 0 0 0,-2-4 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,7 6 0 0 0,11 11 0 0 0,-13-13 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,12 4 0 0 0,-13-9 0 0 0,11 1-9140 0 0,-15-2 8806 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 3389 17503 0 0,'0'0'2786'0'0,"1"-2"-1816"0"0,5-3-340 0 0,-1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,7-14 0 0 0,13-19-102 0 0,-13 24-531 0 0,-1-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,7-19 1 0 0,27-81 385 0 0,-12 30 493 0 0,-7 27-375 0 0,31-87-182 0 0,7-121 3 0 0,-31 113-283 0 0,3-30-173 0 0,20-76-43 0 0,-50 246 178 0 0,11-41 0 0 0,4 0 0 0 0,33-71 0 0 0,-40 102 5 0 0,-5 10 31 0 0,1 0 0 0 0,18-27-1 0 0,-22 37-48 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-11 0 0 0,-6 11-788 0 0,1 6 763 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-4-2959 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1121.75">563 1325 15664 0 0,'0'0'1571'0'0,"0"10"-1423"0"0,1-2 499 0 0,-1 0 0 0 0,2-1 0 0 0,1 11-1 0 0,3 16 1227 0 0,-5-26-1737 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,2 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,7 7 1 0 0,1 1 196 0 0,2-1 0 0 0,-1-1-1 0 0,1-1 1 0 0,26 15 0 0 0,-18-14-305 0 0,1-1 1 0 0,0-1 0 0 0,0-1-1 0 0,1-1 1 0 0,40 7-1 0 0,46 1 112 0 0,130 3 0 0 0,-213-18 26 0 0,267 11 1134 0 0,-162-7-993 0 0,351 0-306 0 0,-323-6 0 0 0,169-7 0 0 0,-164 2 0 0 0,426-35-391 0 0,-487 32 390 0 0,144-18 336 0 0,-133 14-286 0 0,-45 5-49 0 0,-1-3 0 0 0,132-38 0 0 0,-104 11 0 0 0,-54 20 0 0 0,149-70-12 0 0,-153 68 3 0 0,0-3 0 0 0,-2 0 0 0 0,-1-3 0 0 0,-1-1 0 0 0,56-55-1 0 0,-83 72 14 0 0,0-1 0 0 0,-1 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-16 0 0 0,-1 2-42 0 0,-2 0 0 0 0,0 0 0 0 0,-2 0 1 0 0,0 0-1 0 0,-2 1 0 0 0,-11-33 1 0 0,10 42 72 0 0,0 0 0 0 0,-2 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,-1 1 0 0 0,-23-25 1 0 0,2 8-157 0 0,-2 2-1 0 0,-53-36 1 0 0,-92-76-274 0 0,84 64 345 0 0,69 57 43 0 0,-2 2 0 0 0,1 1 0 0 0,-2 2 0 0 0,-34-14 0 0 0,-125-35-33 0 0,69 35-18 0 0,-2 5-1 0 0,0 5 0 0 0,-146-4 1 0 0,-323 16-828 0 0,455 12 936 0 0,-314 27 754 0 0,135 22 202 0 0,273-44-1010 0 0,1 3-1 0 0,0 1 1 0 0,1 1-1 0 0,0 3 1 0 0,-52 32-1 0 0,-12 17 59 0 0,-88 55 35 0 0,14-20-89 0 0,153-88 0 0 0,1 1 0 0 0,0 2 0 0 0,1 0 0 0 0,1 1 0 0 0,0 1 0 0 0,2 1 0 0 0,0 0 0 0 0,1 2 0 0 0,2 0 0 0 0,-24 40 0 0 0,1 9 0 0 0,-46 75 0 0 0,39-65 0 0 0,35-62 0 0 0,6-9-404 0 0,1 0-1 0 0,-1 1 0 0 0,2 0 1 0 0,-4 12-1 0 0,5-11-698 0 0,-1 1 0 0 0,2-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,3 18 0 0 0,0-8-6608 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1805.95">1408 892 17503 0 0,'-7'-10'611'0'0,"4"6"896"0"0,4 11-774 0 0,-1 7-333 0 0,0-1-1 0 0,0 0 1 0 0,-2 0 0 0 0,1 0-1 0 0,-2 0 1 0 0,0 0 0 0 0,-7 19-1 0 0,0 2-431 0 0,-6 13 32 0 0,5-18 0 0 0,-2 0 0 0 0,10-21 0 0 0,0-1 0 0 0,-4 14 0 0 0,-2 4 0 0 0,7-22 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 5 0 0 0,-1-10 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,5-9-21 0 0,-2 3-36 0 0,-1 0-1 0 0,1-1 1 0 0,-2 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-8 1 0 0,0-12 181 0 0,-3-87 438 0 0,3 66-562 0 0,0 19 0 0 0,4-44 0 0 0,-3 71 3 0 0,0-1-2 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,2-4 0 0 0,2-5 61 0 0,-5 9 321 0 0,2 2-301 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 2 0 0 0,17 28-70 0 0,-11-18 29 0 0,7 11-41 0 0,28 38 0 0 0,-35-50 0 0 0,0 0 0 0 0,8 19 0 0 0,-10-20 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-1 0 0 0,11 14 0 0 0,-11-18 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-2 0 0 0,0 0 0 0 0,0 0 0 0 0,13 3 0 0 0,-12-6 0 0 0,-4-2 15 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,6-4-1 0 0,-9 3 101 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-2-5 0 0 0,-1-11-245 0 0,-1 1 1 0 0,-7-22-1 0 0,6 23 262 0 0,3 11-372 0 0,-8-36-1031 0 0,7 13-2855 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2242.92">1830 1087 11976 0 0,'0'8'576'0'0,"0"3"-341"0"0,-1-8 62 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,2 4 0 0 0,7 6 1798 0 0,-9-10-1924 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,4 1 0 0 0,4 5 500 0 0,-9-7-582 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,3 0 0 0 0,5 1 219 0 0,-4 0-284 0 0,-1 0-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,9-3-1 0 0,-9 3-22 0 0,-4 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2-3 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-7-6 0 0 0,6 7 2 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-15-2 0 0 0,16 3-20 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,-9 4 0 0 0,10-1-2469 0 0,1 0 975 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2606.23">2436 778 13824 0 0,'0'0'629'0'0,"-13"-10"238"0"0,2 1-935 0 0,9 7 357 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,-5 0 0 0 0,2 1-48 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-6 7-1 0 0,-5 7 97 0 0,0 2-1 0 0,2-1 0 0 0,-12 24 1 0 0,14-24-69 0 0,2-4-266 0 0,0 1 0 0 0,2 0 0 0 0,-1 1 0 0 0,2 0 1 0 0,-9 33-1 0 0,14-44-3 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,6 5 0 0 0,-3-3 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,17 5 0 0 0,-1-1 257 0 0,0-2 0 0 0,33 5 1 0 0,-3-8-1868 0 0,-42-3-1127 0 0,1-1-1 0 0,16-3 1 0 0,-12 1-4396 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3013.9">2723 882 15664 0 0,'-5'4'761'0'0,"-14"7"152"0"0,17-9-887 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-2 3 0 0 0,-53 59 6237 0 0,47-51-5832 0 0,2 0 0 0 0,-1 1 0 0 0,-9 22 1 0 0,16-30-432 0 0,-1 0 0 0 0,2 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 1 0 0,2 14-1 0 0,-2-18 1 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4 3 0 0 0,-2-3 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,7 0 0 0 0,11-1 0 0 0,-12-3 0 0 0,-8 1 0 0 0,-1 0 0 0 0,3-2-16 0 0,-1 2-62 0 0,1-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,3-8 1 0 0,4-16-297 0 0,-7 21 269 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0-14 0 0 0,-2-42 106 0 0,-1 52 996 0 0,1 20 0 0 0,4 10-996 0 0,15 65 0 0 0,-17-77 3 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,8 7 0 0 0,2 0-99 0 0,33 19 0 0 0,-18-13-574 0 0,-15-10-2659 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3401.09">2964 923 13824 0 0,'0'0'60'0'0,"-1"0"0"0"0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,35 33 1779 0 0,-22-16-437 0 0,0 0-1 0 0,14 30 0 0 0,-19-35-999 0 0,-5-9-240 0 0,1 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0 4 0 0 0,3 6 535 0 0,9 21 0 0 0,-8-22-275 0 0,7 24 0 0 0,-13-29-310 0 0,0-2-41 0 0,11 13 156 0 0,-11-18-312 0 0,0-2-462 0 0,-2-2 497 0 0,1-1-22 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-5 0 0 0,1 4-8 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-2-8 1 0 0,1 8 21 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-8-1 0 0,1-2 57 0 0,3-54-12 0 0,-3 62 21 0 0,1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,5-8 0 0 0,19-31 1711 0 0,-24 41-1665 0 0,-2 1-55 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,2 0 1 0 0,-3 2 112 0 0,0 0-111 0 0,1 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 4 0 0 0,5 11-73 0 0,-9 1-1241 0 0,7-11 144 0 0,3 3-5983 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4034.15">3273 956 13824 0 0,'0'0'1388'0'0,"0"1"-1276"0"0,0 5 814 0 0,0 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,4 7 1 0 0,-3-4-359 0 0,1 3-249 0 0,0 1 0 0 0,-1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,-1-1 0 0 0,-5 25 0 0 0,0-7-319 0 0,7-26 0 0 0,0-5 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-7 0 0 0,8-41 0 0 0,-6 29 0 0 0,-2-27 0 0 0,0 27 0 0 0,0 16 0 0 0,1-6 0 0 0,11-8 0 0 0,-2 11 0 0 0,-2 5-332 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,13 2 0 0 0,-16-1 349 0 0,75 10-33 0 0,-65-10 12 0 0,32 0-1 0 0,-35-1 22 0 0,7-2 39 0 0,-12 2 158 0 0,-1-1-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,10-5 1 0 0,-14 5-269 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,2-4 0 0 0,-1 2-13 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-6 0 0 0,0 4 68 0 0,1 2 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-3-5 0 0 0,1 4 0 0 0,3 2 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-4-1 0 0 0,6 2 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 57 0 0,-1 0 29 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 3 0 0 0,-7 30 689 0 0,3-11-827 0 0,5-22 52 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,2 3 0 0 0,2 15 0 0 0,6 32 0 0 0,-10-49 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,2 2 0 0 0,26 35 0 0 0,-25-35-281 0 0,-2-2 112 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,4 0 1 0 0,-7-2 82 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-35 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,21 6-2269 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4789.39">3722 947 13824 0 0,'-6'-16'791'0'0,"6"12"91"0"0,5 10-195 0 0,48 77 4583 0 0,-50-76-5164 0 0,1-1 1 0 0,-1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 8 0 0 0,8 20 1199 0 0,-8-27-1289 0 0,-2 1-16 0 0,-1-9 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-9 0 0 0,-1 5 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,3-8 0 0 0,-1 6 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1 1 0 0 0,7-10 0 0 0,-4 7 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,13-10 0 0 0,48-29 0 0 0,-64 43 0 0 0,19-14 0 0 0,-20 14 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,11-4 0 0 0,23-11 0 0 0,-65 72 1420 0 0,15-28-1089 0 0,6-15-240 0 0,1 1 0 0 0,-13 16 0 0 0,15-23-91 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,2 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 9 0 0 0,0-7 0 0 0,1-7 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 3 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,3 2 0 0 0,-3-2-2 0 0,10 3-57 0 0,-10-5-266 0 0,18 0-1241 0 0,-11-3 1564 0 0,1 0-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,11-8 0 0 0,-9 0 3 0 0,-2 0 0 0 0,-2 4 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,6-18 0 0 0,-7 14 0 0 0,2-4 0 0 0,-7 16 83 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-2 0 0 0,-1 2-33 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,2 1 1 0 0,1 0-50 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,3 5 0 0 0,-2-5 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,7 5 0 0 0,12 11 0 0 0,-13-12 0 0 0,-1-1 0 0 0,1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,12 5 0 0 0,-14-9 0 0 0,12 1-9140 0 0,-16-2 8806 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19555,20 +19616,20 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3548 3695 5528 0 0,'0'0'19707'0'0,"-7"-3"-18883"0"0,4 1-758 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-2 0 0 0,1 1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1-5 1 0 0,-1-6 182 0 0,-2-27 0 0 0,5 31-174 0 0,-4-104 313 0 0,-3 64-496 0 0,-2 1-1 0 0,-24-78 0 0 0,-17-61 110 0 0,-21-63 0 0 0,38 146-8 0 0,-10-29 52 0 0,-9-15 577 0 0,-57-138-1 0 0,-12 1 31 0 0,84 166-278 0 0,4 10-82 0 0,13 54-327 0 0,18 46-262 0 0,2 8 235 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-2 0 0 0,1 2 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,-2-2-1 0 0,2 0 135 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1374.93">144 955 12496 0 0,'-5'0'159'0'0,"-1"-1"0"0"0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,-7-6-1 0 0,11 5 166 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-6 2 1633 0 0,10-2-1901 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,6 10 791 0 0,16 8-369 0 0,1-1 0 0 0,1 0 0 0 0,0-2 0 0 0,43 19 0 0 0,116 41-25 0 0,-58-35-438 0 0,1-5 0 0 0,189 27 0 0 0,293 8 1020 0 0,5-35-72 0 0,-221-26-964 0 0,-26-22 0 0 0,-330 10 0 0 0,75-7 0 0 0,134-28 0 0 0,-135 4 0 0 0,-71 20 0 0 0,-9 2 0 0 0,30-14 0 0 0,-21 4 0 0 0,48-32 0 0 0,-68 40 13 0 0,1-2 1 0 0,-2-1-1 0 0,34-35 0 0 0,-24 21 23 0 0,-18 19-23 0 0,0 0 0 0 0,10-13 0 0 0,-13 12-13 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,-1 0 0 0 0,7-19 0 0 0,-11 23 73 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,-1-2 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,0-2 0 0 0,-1 2 0 0 0,1-1 0 0 0,-2 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,-7-13 0 0 0,-15-21 282 0 0,-43-58 0 0 0,51 78-377 0 0,0 2-1 0 0,-2 0 1 0 0,0 3-1 0 0,-28-23 0 0 0,0 9-89 0 0,0 2 0 0 0,-2 2 0 0 0,-62-24 1 0 0,-160-47 105 0 0,230 84-14 0 0,-320-104 20 0 0,263 90-67 0 0,-1 4 1 0 0,-165-15-1 0 0,130 32 46 0 0,-1 5-1 0 0,-225 28 1 0 0,60 17 50 0 0,6 30 710 0 0,89-16-1124 0 0,-115 42 547 0 0,282-81-121 0 0,0 1-1 0 0,2 2 0 0 0,0 1 0 0 0,-63 53 0 0 0,-115 128-31 0 0,201-189-9 0 0,8-9-73 0 0,-16 15-336 0 0,0 2-1 0 0,2 0 1 0 0,0 1-1 0 0,-21 35 1 0 0,40-57 170 0 0,-1 1-1 0 0,0 1 1 0 0,1-2 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 3 1 0 0,0 0-397 0 0,0 1-635 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2213.23">551 549 17015 0 0,'-4'-10'5361'0'0,"7"20"438"0"0,-1 0-6972 0 0,31 178 3047 0 0,-13-29-2152 0 0,-13-132-1136 0 0,0-9-2613 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2561.97">352 574 9672 0 0,'1'-1'4914'0'0,"3"-3"-3869"0"0,1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,7-2 0 0 0,6-4 724 0 0,120-50 2627 0 0,-103 45-3967 0 0,-29 11-403 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,10-9 0 0 0,-10 9-68 0 0,0-1 0 0 0,0 0 0 0 0,15-6 0 0 0,83-30-2645 0 0,-85 37 1634 0 0,0 3-10 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3010.81">578 799 4608 0 0,'2'1'16204'0'0,"11"1"-14254"0"0,14-6 344 0 0,-9 2-1658 0 0,0 0 0 0 0,0-2-1 0 0,24-8 1 0 0,-41 11-634 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,2 0 1 0 0,6 0-6 0 0,72-14 4 0 0,-79 14-86 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4 1 0 0 0,-1 0-40 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,5-3 0 0 0,-5 3 126 0 0,20-9 0 0 0,-18 5 0 0 0,-1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0-1 0 0 0,1 1 0 0 0,4-6 0 0 0,-8 8 0 0 0,-1-1 0 0 0,0 2 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-3-3 0 0 0,3 3 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,0 1 0 0 0,-3-1 0 0 0,2 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,-4 0 0 0 0,-1 2 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-9 9 0 0 0,9-7 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 2 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-3 10 0 0 0,6-16 2 0 0,1 0-1 0 0,0 0 1 0 0,0 2 0 0 0,-1-2-1 0 0,1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,2 3-1 0 0,1 3 270 0 0,0-2-1 0 0,0 0 0 0 0,1 0 1 0 0,7 7-1 0 0,-6-8-203 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,12 3 1 0 0,10 4 3 0 0,-7-5-71 0 0,-17-3-380 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,9-3-1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3642.9">1267 526 14280 0 0,'0'0'1102'0'0,"-1"0"-719"0"0,1 0-229 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,0-2 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-6 10 349 0 0,6-10-81 0 0,-6 16 639 0 0,1-1 1 0 0,0 2-1 0 0,-3 28 0 0 0,-11 89 71 0 0,14-114-1132 0 0,3-14 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 14 0 0 0,3-17 0 0 0,1-6 0 0 0,3-8 0 0 0,-6 8 0 0 0,2-6-193 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-11 0 0 0,0-2-62 0 0,0-39 255 0 0,2-48 0 0 0,-1 103 0 0 0,2-23 0 0 0,4-28 0 0 0,2 5 235 0 0,-8 50 340 0 0,4 11-126 0 0,3 6-322 0 0,1-2-32 0 0,-2 1 1 0 0,6 18-1 0 0,0 0-16 0 0,1 0-1 0 0,1-2 1 0 0,27 45 0 0 0,-35-64-70 0 0,-2-5-8 0 0,0 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,10 10-1 0 0,-4-6 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,0-1 0 0 0,16 7 0 0 0,-19-11 0 0 0,3-2 0 0 0,-10-1 0 0 0,9-2 0 0 0,-10-2 0 0 0,-1 3 0 0 0,1-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-6 0 0 0,0-3 0 0 0,-1-2 0 0 0,-3-12 0 0 0,-1-11 0 0 0,-1-7 287 0 0,-16-66-1 0 0,3 21-42 0 0,17 77-370 0 0,-1 1-1 0 0,0 0 0 0 0,-6-13 0 0 0,5 14-88 0 0,3 7-780 0 0,8 18-5849 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4201.33">1840 675 13824 0 0,'-2'-3'152'0'0,"0"1"-1"0"0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-7 0 0 0,-6-12 5 0 0,7 20 235 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-3-2 0 0 0,4 3-243 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 2 0 0 0,-5 2 140 0 0,2 1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,-5 12 0 0 0,4-9-91 0 0,3-2-111 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,2 10 0 0 0,-2-12-79 0 0,1-2 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,5 6 0 0 0,-6-7-6 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,2 2-1 0 0,0-2-94 0 0,-1 0 0 0 0,1 0 0 0 0,-1-2 1 0 0,1 2-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-2 0 0 0,-1 1 0 0 0,1 1 0 0 0,-1-2 0 0 0,0 1 0 0 0,3-5 0 0 0,-5 5 91 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-5 0 0 0,0 3 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,2-6 0 0 0,-3-17 0 0 0,2 27 26 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 4 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1 1-30 0 0,4 9 13 0 0,0-1 0 0 0,1 1 0 0 0,0-2-1 0 0,8 11 1 0 0,0 0-13 0 0,2 2 0 0 0,0-7-304 0 0,-13-12-258 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 2-1 0 0,0-2 0 0 0,0-1 0 0 0,5 2 1 0 0,1-2-8032 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4676.78">2123 549 17503 0 0,'-14'3'1338'0'0,"10"-1"-1036"0"0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,-2 9 1 0 0,-2 14 1527 0 0,4-16-1230 0 0,0-1-1 0 0,-3 20 0 0 0,6-26-567 0 0,0-1-1 0 0,-1 2 1 0 0,2-2-1 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,0 2-1 0 0,-1-2 1 0 0,1 1-1 0 0,1-1 1 0 0,2 8-1 0 0,-1-5 93 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-2 1 0 0,1 0-1 0 0,1 0 1 0 0,11 4-1 0 0,-12-4-300 0 0,1-2 0 0 0,0 1 1 0 0,0-2-1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-2 0 0 0,-1 0 1 0 0,10-4-1 0 0,-14 5-563 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0 0-1 0 0,3-5 1 0 0,-1-1-1530 0 0,0 2 223 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5103.68">2319 544 11976 0 0,'-13'0'546'0'0,"11"0"1497"0"0,-2 14 2394 0 0,3-5-3674 0 0,-1-2 0 0 0,1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1-2 0 0 0,0 1 0 0 0,1 10 0 0 0,0 0 615 0 0,1-1-1214 0 0,5 22-1 0 0,4 18-146 0 0,-11-49-36 0 0,1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,8 14 0 0 0,-10-20-198 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,2 1 1 0 0,0 0-1113 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5435.95">2504 594 13824 0 0,'6'15'629'0'0,"-6"-14"-586"0"0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-3 0 1 0 0,2 1 14 0 0,0 0 118 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 4 0 0 0,1 4 1499 0 0,0 0 0 0 0,5 14 0 0 0,-2-6-695 0 0,-3-10-458 0 0,0-1 0 0 0,1 2 0 0 0,0-2 0 0 0,0 1 0 0 0,6 8 0 0 0,2 10-350 0 0,-4-16-172 0 0,-6-9 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,1 1 0 0 0,-1-2 0 0 0,1 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,4 3 0 0 0,-7-5 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0-1 0 0 0,-1-5 0 0 0,-2-18 0 0 0,0 7 0 0 0,3 15 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-7 0 0 0,3-10 0 0 0,13-32 0 0 0,-14 45 0 0 0,0-1 0 0 0,0 2 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 1 0 0 0,8-11 0 0 0,-11 14 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,2 1 0 0 0,-2 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 2 0 0 0,-1-2 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 3 0 0 0,-2-4 0 0 0,8 15 311 0 0,-2-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 1 0 0 0,2 19 0 0 0,0-6-298 0 0,-1-7-85 0 0,-3-11 70 0 0,-1-10 0 0 0,-2-2 3 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 158 0 0,-1-14-170 0 0,2-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,6-18 1 0 0,3-7-112 0 0,-10 29 55 0 0,2 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,0 1-1 0 0,9-14 0 0 0,-13 22 69 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-2-1 0 0,1 2 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 2 0 0 0,0-2 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,4 3 35 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 2 0 0 0,3 11-1 0 0,4 46 420 0 0,-7-44-532 0 0,5 21 0 0 0,-5-29-76 0 0,2 3-495 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5824.13">3017 717 19351 0 0,'0'0'439'0'0,"7"15"1065"0"0,-6-12-1286 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 1 0 0 0,0-2 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,6 4 0 0 0,3 2 1075 0 0,-8-8-1124 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,5-1 0 0 0,-8 0-60 0 0,8-1 28 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,12-4-1 0 0,-16 4-106 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,4-4 0 0 0,-3 2-34 0 0,0 1-41 0 0,-1 1 0 0 0,1-2-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,3-7 0 0 0,-4 6-115 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,-3-7 1 0 0,3 9 158 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-5-2-1 0 0,6 3 1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,1-1 0 0 0,-1-1 0 0 0,-1 2 0 0 0,-1 2 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-2 6 0 0 0,-3 5 0 0 0,5-11 74 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 2 0 0 0,1-2 1 0 0,0 0-1 0 0,0 10 0 0 0,-1 6 651 0 0,2-15-663 0 0,0 1-1 0 0,1-2 0 0 0,0 1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,0-1-1 0 0,0 2 0 0 0,4 4 1 0 0,-4-6-57 0 0,-2-5-4 0 0,5 9 0 0 0,8 4 0 0 0,-10-9-238 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,1 2-1 0 0,-1-2 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-2 0 0 0,0 1 1 0 0,-1 0-1 0 0,7-1 1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6212.5">3254 644 13824 0 0,'12'31'1507'0'0,"-5"-11"-1309"0"0,13 39 6458 0 0,-8-18-4252 0 0,-10-34-2042 0 0,5 14 1174 0 0,-7-21-1519 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 2-1 0 0,0-2 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0-9 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 2-343 0 0,7-3-1238 0 0,-7 1 1546 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,1-2-1 0 0,-1 0 1 0 0,0 0-177 0 0,3-4 43 0 0,-1 1 0 0 0,0-2 0 0 0,2-8 0 0 0,-3 8 70 0 0,0 2-1 0 0,1 0 1 0 0,0-1 0 0 0,4-8 0 0 0,4-6 212 0 0,-8 13 8 0 0,1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,5-4 1 0 0,-7 10-95 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,3-1 0 0 0,-3 1-6 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 0-1 0 0,2 4-53 0 0,-1 2 0 0 0,1-2 0 0 0,1 11 0 0 0,0-3 78 0 0,2 9-51 0 0,-4-9 0 0 0,-3-11-21 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,2 2 0 0 0,1 5-582 0 0,0 1-6625 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6617.29">3541 506 17503 0 0,'1'2'399'0'0,"12"7"485"0"0,-11-8-826 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,1-2 0 0 0,-1 1-1 0 0,2 2 1 0 0,2 4 553 0 0,-1 2 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,2 20-1 0 0,3 12 664 0 0,-7-38-1173 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 1 0 0 0,-1-2 0 0 0,0 5 0 0 0,0-5-5 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1-1 1 0 0,0 5 0 0 0,0-6-85 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,-1 8-15 0 0,6 5-1569 0 0,-4-15 1421 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 2 0 0 0,-15 3-7117 0 0,15-5 7168 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,-2-1-1 0 0,-27-8-1614 0 0,24 8 3496 0 0,8-1-1532 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-2 0 0 0,0 2 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,3-1 0 0 0,-3 1-79 0 0,27-11 847 0 0,-23 10-709 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,6-4 0 0 0,-5 3 24 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,17-3 0 0 0,-1 9-261 0 0,-22-5 299 0 0,14 10 1218 0 0,-12-6-1672 0 0,0 2 298 0 0,1-1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 2 0 0 0,0-2-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,12 6-1 0 0,-16-8-214 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,4-2 0 0 0,-3 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,4-4 0 0 0,-7 6 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-2 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-3 0 0 0,-23-15-27 0 0,11 10-775 0 0,-14-6-1352 0 0,8 7-4037 0 0,1 1-890 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6994.95">2330 369 23039 0 0,'4'-4'2400'0'0,"-4"0"-2272"0"0,-4-2 1312 0 0,0 2-928 0 0,-7 4-1800 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3548 3509 5528 0 0,'0'0'19707'0'0,"-7"-3"-18883"0"0,4 1-758 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1-5 1 0 0,-1-5 182 0 0,-2-26 0 0 0,5 30-174 0 0,-4-100 313 0 0,-3 62-496 0 0,-2 0-1 0 0,-24-73 0 0 0,-17-59 110 0 0,-21-59 0 0 0,38 138-8 0 0,-10-27 52 0 0,-9-15 577 0 0,-57-130-1 0 0,-12 0 31 0 0,84 158-278 0 0,4 10-82 0 0,13 51-327 0 0,18 43-262 0 0,2 8 235 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,-2-2-1 0 0,2 0 135 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1374.93">144 907 12496 0 0,'-5'0'159'0'0,"-1"-1"0"0"0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,-7-5-1 0 0,11 4 166 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-6 2 1633 0 0,10-2-1901 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,6 9 791 0 0,16 8-369 0 0,1-1 0 0 0,1 0 0 0 0,0-2 0 0 0,43 19 0 0 0,116 38-25 0 0,-58-33-438 0 0,1-5 0 0 0,189 26 0 0 0,293 7 1020 0 0,5-33-72 0 0,-221-24-964 0 0,-26-21 0 0 0,-330 9 0 0 0,75-7 0 0 0,134-26 0 0 0,-135 4 0 0 0,-71 18 0 0 0,-9 3 0 0 0,30-14 0 0 0,-21 4 0 0 0,48-30 0 0 0,-68 37 13 0 0,1-1 1 0 0,-2-1-1 0 0,34-33 0 0 0,-24 19 23 0 0,-18 19-23 0 0,0-1 0 0 0,10-12 0 0 0,-13 12-13 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,7-19 0 0 0,-11 23 73 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-2 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-7-12 0 0 0,-15-20 282 0 0,-43-55 0 0 0,51 75-377 0 0,0 1-1 0 0,-2 0 1 0 0,0 2-1 0 0,-28-21 0 0 0,0 9-89 0 0,0 1 0 0 0,-2 3 0 0 0,-62-24 1 0 0,-160-44 105 0 0,230 80-14 0 0,-320-99 20 0 0,263 85-67 0 0,-1 5 1 0 0,-165-15-1 0 0,130 30 46 0 0,-1 5-1 0 0,-225 27 1 0 0,60 16 50 0 0,6 28 710 0 0,89-15-1124 0 0,-115 40 547 0 0,282-77-121 0 0,0 1-1 0 0,2 2 0 0 0,0 1 0 0 0,-63 50 0 0 0,-115 122-31 0 0,201-180-9 0 0,8-8-73 0 0,-16 14-336 0 0,0 2-1 0 0,2 0 1 0 0,0 1-1 0 0,-21 33 1 0 0,40-54 170 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 3 1 0 0,0-1-397 0 0,0 2-635 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2213.23">551 521 17015 0 0,'-4'-9'5361'0'0,"7"18"438"0"0,-1 1-6972 0 0,31 168 3047 0 0,-13-27-2152 0 0,-13-125-1136 0 0,0-9-2613 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2561.97">352 545 9672 0 0,'1'-1'4914'0'0,"3"-3"-3869"0"0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,7-2 0 0 0,6-3 724 0 0,120-48 2627 0 0,-103 43-3967 0 0,-29 10-403 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,10-8 0 0 0,-10 8-68 0 0,0-1 0 0 0,0 1 0 0 0,15-7 0 0 0,83-28-2645 0 0,-85 35 1634 0 0,0 3-10 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3010.81">578 759 4608 0 0,'2'1'16204'0'0,"11"1"-14254"0"0,14-6 344 0 0,-9 2-1658 0 0,0 0 0 0 0,0-2-1 0 0,24-7 1 0 0,-41 10-634 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,2 0 1 0 0,6 0-6 0 0,72-13 4 0 0,-79 13-86 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4 1 0 0 0,-1 0-40 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,5-3 0 0 0,-5 3 126 0 0,20-9 0 0 0,-18 6 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,4-6 0 0 0,-8 8 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-3-2 0 0 0,3 2 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-3-1 0 0 0,2 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-4 1 0 0 0,-1 2 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-9 8 0 0 0,9-6 0 0 0,1 0 0 0 0,0-1 0 0 0,0 2 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-3 9 0 0 0,6-15 2 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,2 3-1 0 0,1 2 270 0 0,0-1-1 0 0,0 0 0 0 0,1 0 1 0 0,7 6-1 0 0,-6-7-203 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,12 3 1 0 0,10 3 3 0 0,-7-4-71 0 0,-17-3-380 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,9-3-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3642.9">1267 500 14280 0 0,'0'0'1102'0'0,"-1"0"-719"0"0,1 0-229 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-6 10 349 0 0,6-10-81 0 0,-6 15 639 0 0,1-1 1 0 0,0 2-1 0 0,-3 27 0 0 0,-11 84 71 0 0,14-108-1132 0 0,3-13 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 14 0 0 0,3-16 0 0 0,1-6 0 0 0,3-7 0 0 0,-6 7 0 0 0,2-6-193 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-11 0 0 0,0-2-62 0 0,0-37 255 0 0,2-46 0 0 0,-1 98 0 0 0,2-21 0 0 0,4-27 0 0 0,2 4 235 0 0,-8 48 340 0 0,4 11-126 0 0,3 5-322 0 0,1-2-32 0 0,-2 1 1 0 0,6 18-1 0 0,0-1-16 0 0,1 0-1 0 0,1-1 1 0 0,27 42 0 0 0,-35-61-70 0 0,-2-4-8 0 0,0 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,10 9-1 0 0,-4-6 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,16 6 0 0 0,-19-10 0 0 0,3-2 0 0 0,-10-1 0 0 0,9-2 0 0 0,-10-2 0 0 0,-1 3 0 0 0,1-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-5 0 0 0,0-4 0 0 0,-1-1 0 0 0,-3-12 0 0 0,-1-10 0 0 0,-1-7 287 0 0,-16-62-1 0 0,3 19-42 0 0,17 74-370 0 0,-1 0-1 0 0,0 1 0 0 0,-6-13 0 0 0,5 13-88 0 0,3 7-780 0 0,8 17-5849 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4201.33">1840 641 13824 0 0,'-2'-3'152'0'0,"0"1"-1"0"0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-6 0 0 0,-6-12 5 0 0,7 19 235 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-3-2 0 0 0,4 3-243 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 2 0 0 0,-5 2 140 0 0,2 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-5 11 0 0 0,4-8-91 0 0,3-3-111 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,2 9 0 0 0,-2-12-79 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,5 5 0 0 0,-6-6-6 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,2 1-1 0 0,0-1-94 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-2 0 0 0,0 1 0 0 0,3-4 0 0 0,-5 4 91 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-5 0 0 0,0 4 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,2-6 0 0 0,-3-15 0 0 0,2 25 26 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 4 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1 1-30 0 0,4 8 13 0 0,0 0 0 0 0,1 0 0 0 0,0-1-1 0 0,8 10 1 0 0,0 0-13 0 0,2 2 0 0 0,0-7-304 0 0,-13-11-258 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0-1 0 0 0,5 2 1 0 0,1-2-8032 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4676.78">2123 521 17503 0 0,'-14'3'1338'0'0,"10"-1"-1036"0"0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,-2 8 1 0 0,-2 14 1527 0 0,4-16-1230 0 0,0 0-1 0 0,-3 18 0 0 0,6-24-567 0 0,0-1-1 0 0,-1 1 1 0 0,2-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,1-1 1 0 0,2 7-1 0 0,-1-4 93 0 0,1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,1 0 1 0 0,11 4-1 0 0,-12-5-300 0 0,1-1 0 0 0,0 1 1 0 0,0-2-1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1-1 1 0 0,10-4-1 0 0,-14 5-563 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,3-5 1 0 0,-1 0-1530 0 0,0 1 223 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5103.68">2319 517 11976 0 0,'-13'0'546'0'0,"11"0"1497"0"0,-2 13 2394 0 0,3-5-3674 0 0,-1-1 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,1 9 0 0 0,0 0 615 0 0,1-1-1214 0 0,5 21-1 0 0,4 17-146 0 0,-11-46-36 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,8 13 0 0 0,-10-19-198 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,2 1 1 0 0,0 0-1113 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5435.95">2504 564 13824 0 0,'6'14'629'0'0,"-6"-13"-586"0"0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-3 0 1 0 0,2 0 14 0 0,0 1 118 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 3 0 0 0,1 5 1499 0 0,0-1 0 0 0,5 14 0 0 0,-2-6-695 0 0,-3-9-458 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,6 9 0 0 0,2 8-350 0 0,-4-14-172 0 0,-6-9 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,1 1 0 0 0,-1-2 0 0 0,1 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,4 3 0 0 0,-7-5 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0-1 0 0 0,-1-5 0 0 0,-2-16 0 0 0,0 6 0 0 0,3 14 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0-7 0 0 0,3-9 0 0 0,13-30 0 0 0,-14 42 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 1 0 0 0,8-10 0 0 0,-11 13 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,2 1 0 0 0,-2 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 2 0 0 0,-2-3 0 0 0,8 14 311 0 0,-2 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,2 18 0 0 0,0-5-298 0 0,-1-7-85 0 0,-3-11 70 0 0,-1-9 0 0 0,-2-2 3 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 158 0 0,-1-14-170 0 0,2 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,6-18 1 0 0,3-6-112 0 0,-10 28 55 0 0,2 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,9-13 0 0 0,-13 21 69 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,4 3 35 0 0,-1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,3 11-1 0 0,4 44 420 0 0,-7-42-532 0 0,5 20 0 0 0,-5-28-76 0 0,2 4-495 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5824.13">3017 681 19351 0 0,'0'0'439'0'0,"7"14"1065"0"0,-6-11-1286 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,6 3 0 0 0,3 3 1075 0 0,-8-8-1124 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,5-1 0 0 0,-8 0-60 0 0,8-1 28 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,12-4-1 0 0,-16 4-106 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,4-3 0 0 0,-3 1-34 0 0,0 1-41 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,3-7 0 0 0,-4 7-115 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,-3-6 1 0 0,3 8 158 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-5-2-1 0 0,6 3 1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 2 0 0 0,-1 2 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2 7 0 0 0,-3 4 0 0 0,5-10 74 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 9 0 0 0,-1 6 651 0 0,2-14-663 0 0,0 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,4 5 1 0 0,-4-6-57 0 0,-2-5-4 0 0,5 8 0 0 0,8 4 0 0 0,-10-8-238 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-2 0 0 0,0 1 1 0 0,-1 0-1 0 0,7-1 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6212.5">3254 612 13824 0 0,'12'29'1507'0'0,"-5"-10"-1309"0"0,13 37 6458 0 0,-8-17-4252 0 0,-10-32-2042 0 0,5 13 1174 0 0,-7-20-1519 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0-9 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 2-343 0 0,7-3-1238 0 0,-7 1 1546 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1-1 1 0 0,0 0-177 0 0,3-4 43 0 0,-1 1 0 0 0,0-1 0 0 0,2-9 0 0 0,-3 9 70 0 0,0 1-1 0 0,1 0 1 0 0,0 0 0 0 0,4-9 0 0 0,4-5 212 0 0,-8 13 8 0 0,1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,5-5 1 0 0,-7 10-95 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,3-1 0 0 0,-3 1-6 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 0-1 0 0,2 4-53 0 0,-1 1 0 0 0,1-1 0 0 0,1 10 0 0 0,0-3 78 0 0,2 9-51 0 0,-4-8 0 0 0,-3-12-21 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 3 0 0 0,1 5-582 0 0,0 0-6625 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6617.29">3541 481 17503 0 0,'1'1'399'0'0,"12"8"485"0"0,-11-8-826 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,2 2 1 0 0,2 4 553 0 0,-1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,2 18-1 0 0,3 12 664 0 0,-7-36-1173 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,0 5 0 0 0,0-5-5 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 5 0 0 0,0-6-85 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,-1 7-15 0 0,6 5-1569 0 0,-4-14 1421 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 2 0 0 0,-15 3-7117 0 0,15-5 7168 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,-2-1-1 0 0,-27-8-1614 0 0,24 8 3496 0 0,8-1-1532 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,3-1 0 0 0,-3 1-79 0 0,27-10 847 0 0,-23 9-709 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,6-3 0 0 0,-5 2 24 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,17-2 0 0 0,-1 7-261 0 0,-22-4 299 0 0,14 10 1218 0 0,-12-6-1672 0 0,0 1 298 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,12 5-1 0 0,-16-7-214 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,4-2 0 0 0,-3 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,4-4 0 0 0,-7 6 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-2 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-2 0 0 0,-23-15-27 0 0,11 9-775 0 0,-14-5-1352 0 0,8 6-4037 0 0,1 2-890 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6994.95">2330 350 23039 0 0,'4'-3'2400'0'0,"-4"-1"-2272"0"0,-4-2 1312 0 0,0 2-928 0 0,-7 4-1800 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19600,7 +19661,7 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 7 12896 0 0,'0'0'1172'0'0,"2"-1"-967"0"0,-1 1-201 0 0,0-1 1 0 0,0 1-1 0 0,0-2 0 0 0,0 2 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 3 0 0 0,10 3 519 0 0,21 6 585 0 0,-17-5-1043 0 0,1-1-1 0 0,23 6 0 0 0,0-7-57 0 0,-1-4 0 0 0,69-6 1 0 0,-8 2-8 0 0,-29 1 0 0 0,-34 1 42 0 0,0 2 1 0 0,68 12 0 0 0,-69-8 3 0 0,35 1 0 0 0,26 2-11 0 0,-24 0-34 0 0,9 0-1 0 0,244 42 53 0 0,-235-34-41 0 0,28 0-14 0 0,-78-11 2 0 0,-15-3 0 0 0,38-1 0 0 0,117-9 0 0 0,28 7 11 0 0,-59 9 42 0 0,-113-7-53 0 0,-22-1 0 0 0,24 4 0 0 0,-27-2 0 0 0,1-2-1 0 0,20 0 0 0 0,-6-1 68 0 0,-25 1-62 0 0,0-1 1 0 0,0 1 0 0 0,-1-2-1 0 0,1 2 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-2-1-1 0 0,4-1 1 0 0,-2 2 544 0 0,-7 2-375 0 0,-23-2-432 0 0,-25 1-1637 0 0,40 1 1350 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 6 12896 0 0,'0'0'1172'0'0,"2"-1"-967"0"0,-1 1-201 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 2 0 0 0,11 3 519 0 0,23 6 585 0 0,-19-5-1043 0 0,1-1-1 0 0,25 5 0 0 0,0-6-57 0 0,-1-3 0 0 0,74-5 1 0 0,-9 1-8 0 0,-31 2 0 0 0,-36 0 42 0 0,0 2 1 0 0,73 10 0 0 0,-75-7 3 0 0,38 1 0 0 0,29 2-11 0 0,-27 0-34 0 0,10 0-1 0 0,262 36 53 0 0,-252-30-41 0 0,30 1-14 0 0,-84-10 2 0 0,-16-2 0 0 0,40-1 0 0 0,127-8 0 0 0,29 6 11 0 0,-63 8 42 0 0,-121-6-53 0 0,-24-1 0 0 0,26 3 0 0 0,-29-1 0 0 0,1-2-1 0 0,21 0 0 0 0,-6-1 68 0 0,-27 1-62 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,3-2 1 0 0,-2 2 544 0 0,-7 2-375 0 0,-25-2-432 0 0,-27 1-1637 0 0,43 1 1350 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19632,7 +19693,7 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 11976 0 0,'0'0'7781'0'0,"1"1"-7208"0"0,2 1-318 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-2 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,4 1 0 0 0,1-1-74 0 0,104 11 1592 0 0,183-10 499 0 0,57-8-1041 0 0,-290 4-973 0 0,-31 0 17 0 0,56 5 1 0 0,-26 0-276 0 0,-22-3 0 0 0,167 0 0 0 0,-87-2 0 0 0,-92 1 0 0 0,-17 0 0 0 0,0 1 0 0 0,14 1 0 0 0,-19 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,1-1 0 0 0,6 0 0 0 0,10-1 0 0 0,187 2 0 0 0,-37 0 0 0 0,-105-4 0 0 0,-64 4 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,4-1 0 0 0,4-2 0 0 0,36-2 200 0 0,73 4 1 0 0,-78 2-106 0 0,183 5 125 0 0,-105-5-672 0 0,-118 0 313 0 0,18-5 597 0 0,4 2-356 0 0,-5 5-676 0 0,-12-1 562 0 0,-5-1 276 0 0,1 1-83 0 0,5 1-41 0 0,-4 0-163 0 0,3-1 10 0 0,-1-1-39 0 0,-1 0-1 0 0,1 1 1 0 0,-2 0 0 0 0,2 0-1 0 0,-1 0 1 0 0,0 2 0 0 0,-1-2-1 0 0,2 1 1 0 0,-1 0-1 0 0,4 4 1 0 0,4 3 52 0 0,1-3 0 0 0,-7-1 0 0 0,1 0 0 0 0,-4 0-15 0 0,-3-5-55 0 0,2 1-295 0 0,3 3-462 0 0,-5-4 827 0 0,-6 6-83 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-2 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-9 4 0 0 0,-2-1 83 0 0,13-5 0 0 0,0 0 0 0 0,0 1 0 0 0,1-2 0 0 0,-2 0 0 0 0,-8 1 0 0 0,7-2 0 0 0,-1 1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-7 4 0 0 0,12-5 0 0 0,0 0 0 0 0,-19-3 0 0 0,-10 5 12 0 0,31-3 187 0 0,16 0 102 0 0,1 0-366 0 0,-9 1 1 0 0,1-1 0 0 0,-2 0 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,10-4 0 0 0,22-3 248 0 0,-24 6 93 0 0,6 3-726 0 0,-146 6 2326 0 0,14-2-2351 0 0,8-3 826 0 0,55-3-183 0 0,12 0-169 0 0,-31 1 0 0 0,52 1 0 0 0,-21-3 0 0 0,3-1 0 0 0,-5 2 0 0 0,-31 1 0 0 0,-16 0 0 0 0,9-1 0 0 0,15 2 0 0 0,-70-7 0 0 0,48 0 6 0 0,-43-7-204 0 0,39 6 231 0 0,18 2-66 0 0,-52-3 106 0 0,78 4 59 0 0,26 3-161 0 0,0-2 1 0 0,-33-7 0 0 0,-14-9-268 0 0,46 14 460 0 0,-25-2-1 0 0,11 2-314 0 0,-34-1 167 0 0,-77 2 0 0 0,112 4-276 0 0,-164 4 224 0 0,170-4 36 0 0,-1 1 0 0 0,-50 12 0 0 0,70-11 0 0 0,-1-1 0 0 0,1 0 0 0 0,-8-1 0 0 0,-10 1 0 0 0,-103 9 472 0 0,117-8-472 0 0,4 1-21 0 0,5-3-97 0 0,2 3-1353 0 0,-1-3 1476 0 0,1 2 0 0 0,-1-1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,1 2 0 0 0,13 3 386 0 0,2-1-666 0 0,0-2 1 0 0,24 0-1 0 0,12 2 458 0 0,64 4 488 0 0,33 3-1298 0 0,-69-6 411 0 0,244 12 1029 0 0,-246-11-1370 0 0,63 8 294 0 0,-28-5 278 0 0,-53-3-17 0 0,45 7 219 0 0,-63-8 231 0 0,53 0 0 0 0,-20-3-772 0 0,104 1-454 0 0,-178-3 777 0 0,36 0 143 0 0,93 4 820 0 0,-38-4-962 0 0,27 1 59 0 0,-63-2 118 0 0,-14 0 138 0 0,38 2-363 0 0,16-4-977 0 0,0 2 2027 0 0,-90 0-1082 0 0,-5 0 123 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,2 0 0 0 0,21-6 8 0 0,-18 5-51 0 0,1-3 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,-7 3 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,-1 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-2 0 0 0,1 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-8-7 0 0 0,-14-1-73 0 0,1 1 0 0 0,-2 2 1 0 0,2 0-1 0 0,-35 1 0 0 0,13-1 53 0 0,-104 3 100 0 0,77 3-464 0 0,-183 10 849 0 0,204-10-256 0 0,12-2-211 0 0,40 4 2 0 0,6-1 0 0 0,14-1 0 0 0,-9-1 0 0 0,25-2 0 0 0,96-6 0 0 0,-61 7 0 0 0,192-5 0 0 0,-275 1 0 0 0,-8-2 0 0 0,3 5 0 0 0,1 1 0 0 0,-1 0 0 0 0,-25 2 0 0 0,6 0 0 0 0,-242-1 0 0 0,191-5-853 0 0,0-1-124 0 0,73 4-7935 0 0,28 2 6973 0 0,-12 0-11 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 11976 0 0,'0'0'7781'0'0,"1"1"-7208"0"0,2 1-318 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4 1 0 0 0,2-1-74 0 0,110 9 1592 0 0,195-8 499 0 0,61-7-1041 0 0,-309 3-973 0 0,-33 0 17 0 0,60 5 1 0 0,-28 0-276 0 0,-24-3 0 0 0,179 0 0 0 0,-93-2 0 0 0,-99 1 0 0 0,-17 0 0 0 0,0 1 0 0 0,14 1 0 0 0,-20 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,7 0 0 0 0,11-1 0 0 0,198 2 0 0 0,-39 0 0 0 0,-111-3 0 0 0,-69 3 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,5-1 0 0 0,3-1 0 0 0,39-2 200 0 0,78 3 1 0 0,-83 2-106 0 0,194 4 125 0 0,-111-4-672 0 0,-126 0 313 0 0,19-4 597 0 0,5 1-356 0 0,-6 5-676 0 0,-13-1 562 0 0,-5-1 276 0 0,1 1-83 0 0,6 1-41 0 0,-5-1-163 0 0,4 0 10 0 0,-2-1-39 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,5 3 1 0 0,4 3 52 0 0,0-3 0 0 0,-6-1 0 0 0,0 1 0 0 0,-3-1-15 0 0,-4-4-55 0 0,2 1-295 0 0,3 2-462 0 0,-5-3 827 0 0,-6 6-83 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-10 4 0 0 0,-2-1 83 0 0,13-4 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,-9 1 0 0 0,7-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-8 3 0 0 0,12-4 0 0 0,1 0 0 0 0,-20-3 0 0 0,-11 5 12 0 0,33-3 187 0 0,17 0 102 0 0,1 0-366 0 0,-10 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,11-3 0 0 0,24-3 248 0 0,-26 5 93 0 0,6 3-726 0 0,-155 5 2326 0 0,15-2-2351 0 0,8-2 826 0 0,59-3-183 0 0,13 0-169 0 0,-34 1 0 0 0,56 1 0 0 0,-22-3 0 0 0,3 0 0 0 0,-6 1 0 0 0,-32 1 0 0 0,-17 0 0 0 0,8-1 0 0 0,18 2 0 0 0,-76-6 0 0 0,52-1 6 0 0,-47-5-204 0 0,43 5 231 0 0,18 2-66 0 0,-55-3 106 0 0,84 3 59 0 0,27 3-161 0 0,-1-1 1 0 0,-34-7 0 0 0,-15-8-268 0 0,49 13 460 0 0,-27-2-1 0 0,12 2-314 0 0,-36-2 167 0 0,-83 3 0 0 0,120 3-276 0 0,-174 3 224 0 0,180-3 36 0 0,-1 1 0 0 0,-52 11 0 0 0,73-11 0 0 0,0 0 0 0 0,0 0 0 0 0,-8-1 0 0 0,-10 1 0 0 0,-111 8 472 0 0,126-8-472 0 0,3 2-21 0 0,6-3-97 0 0,2 3-1353 0 0,0-3 1476 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,14 4 386 0 0,2-2-666 0 0,0-1 1 0 0,26 0-1 0 0,13 1 458 0 0,67 4 488 0 0,36 3-1298 0 0,-74-6 411 0 0,260 11 1029 0 0,-262-10-1370 0 0,68 7 294 0 0,-31-4 278 0 0,-56-3-17 0 0,48 7 219 0 0,-67-8 231 0 0,56 0 0 0 0,-21-2-772 0 0,110 1-454 0 0,-188-3 777 0 0,37 0 143 0 0,100 3 820 0 0,-41-3-962 0 0,29 1 59 0 0,-68-2 118 0 0,-14 0 138 0 0,40 2-363 0 0,18-3-977 0 0,-1 1 2027 0 0,-96 0-1082 0 0,-5 0 123 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,2 0 0 0 0,23-5 8 0 0,-19 4-51 0 0,0-2 0 0 0,2-1 0 0 0,-2 1 0 0 0,0 0 0 0 0,-8 3 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-9-6 0 0 0,-14-1-73 0 0,0 1 0 0 0,-1 1 1 0 0,1 1-1 0 0,-36 0 0 0 0,13 0 53 0 0,-111 2 100 0 0,83 3-464 0 0,-196 9 849 0 0,218-9-256 0 0,12-2-211 0 0,43 3 2 0 0,7 0 0 0 0,14-1 0 0 0,-9-1 0 0 0,27-2 0 0 0,101-5 0 0 0,-64 6 0 0 0,204-4 0 0 0,-292 1 0 0 0,-9-2 0 0 0,3 4 0 0 0,1 1 0 0 0,-1 0 0 0 0,-27 2 0 0 0,7 0 0 0 0,-258-1 0 0 0,203-4-853 0 0,1-2-124 0 0,77 5-7935 0 0,30 1 6973 0 0,-13 0-11 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19664,27 +19725,27 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">134 155 14512 0 0,'-4'5'1578'0'0,"4"0"-1399"0"0,0-4 679 0 0,1 3-150 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2-1 0 0,-1-2 1 0 0,2 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,4 4 0 0 0,5 7 287 0 0,18 16-1 0 0,-12-15-794 0 0,20 23 492 0 0,56 41 0 0 0,-52-47-664 0 0,48 51 0 0 0,24 53 1165 0 0,-97-118-798 0 0,29 47-230 0 0,-10-13-165 0 0,-24-35 0 0 0,0-2 0 0 0,0 1 0 0 0,23 21 0 0 0,-21-24-240 0 0,-9-10 5 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-2 0 0 0 0,2 0-1 0 0,6 1 1 0 0,-8-3 468 0 0,-17-16-11437 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="748.92">21 0 15664 0 0,'2'3'166'0'0,"-1"-1"0"0"0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 5 0 0 0,-1 33 97 0 0,-1-19 1010 0 0,1 6-100 0 0,-2 0 0 0 0,0 0-1 0 0,-11 45 1 0 0,9-52-721 0 0,0 1 0 0 0,1 0 0 0 0,-1 34 0 0 0,8-14 412 0 0,-4-41-735 0 0,31 7 527 0 0,-29-8-448 0 0,-2-31 137 0 0,0 23-254 0 0,1 0 1 0 0,-1 0-1 0 0,-1-13 1 0 0,1 16-152 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1-8 0 0 0,1-9 96 0 0,5-30 310 0 0,-8 22-559 0 0,0 20 166 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,4-20 1 0 0,-2 3 32 0 0,-3 25 29 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-2 1 0 0,1 2 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1-1 774 0 0,23 8-575 0 0,-18-3-196 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-2 0-1 0 0,1 1 1 0 0,3 4-1 0 0,10 11 86 0 0,-1-3-15 0 0,10 8 320 0 0,50 38 0 0 0,-35-35-708 0 0,-32-21 322 0 0,-6-4 182 0 0,-1 0-195 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-17 12 113 0 0,13-9-112 0 0,-24 16-789 0 0,-2 0 1 0 0,-1-2-1 0 0,-56 22 1 0 0,79-36-5883 0 0,0-4-2125 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1323.51">960 473 17503 0 0,'0'0'1588'0'0,"1"2"-1304"0"0,6 22-346 0 0,10 47 3022 0 0,-5-11-296 0 0,30 86 1 0 0,-28-92-2174 0 0,-9-35-226 0 0,1 0-1 0 0,9 23 1 0 0,18 42 55 0 0,-12-23 24 0 0,-6-16-1672 0 0,-15-44 346 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1781.15">920 406 15464 0 0,'4'-10'1645'0'0,"2"6"-1273"0"0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,2 0-1 0 0,-1 0 0 0 0,15 0 1 0 0,-11 1 40 0 0,0 1 1 0 0,1 0-1 0 0,-2 1 1 0 0,2 0 0 0 0,-2 1-1 0 0,2 0 1 0 0,-2 0-1 0 0,21 10 1 0 0,-25-10-253 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 1 1 0 0,1-1-1 0 0,1 2 0 0 0,-2-2 0 0 0,1 1 0 0 0,0 1 0 0 0,-2 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,4 8 0 0 0,-3-3-161 0 0,0 1 0 0 0,-1-2 0 0 0,0 2 0 0 0,-2-2 0 0 0,1 2 0 0 0,-1 0 0 0 0,0-2 0 0 0,-2 22 0 0 0,0-25 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 2 0 0 0,-1-2 0 0 0,0 1 0 0 0,0-2 0 0 0,-9 12 0 0 0,1-7 46 0 0,2 0 0 0 0,-2-1-1 0 0,0 0 1 0 0,-1-2 0 0 0,1 1 0 0 0,-25 10-1 0 0,8-7 54 0 0,-1-1-1 0 0,-35 7 0 0 0,64-17-168 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,2 1 0 0 0,-2-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-2-2 0 0 0,-2-11-2795 0 0,5 0-3291 0 0,4 3-1365 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2162.03">1293 368 5064 0 0,'0'0'389'0'0,"1"9"2474"0"0,7 18 6000 0 0,1 3-5277 0 0,10 27-474 0 0,-1-2-1562 0 0,-10-36-764 0 0,6 27 0 0 0,25 140-170 0 0,-36-178-616 0 0,-2-7 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 3 0 0 0,0 4 28 0 0,0-7 115 0 0,1-2-105 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1-1-1 0 0,1 2 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,3-5-42 0 0,20-39-226 0 0,-15 29 45 0 0,13-36 1 0 0,39-120 183 0 0,-45 136 0 0 0,30-51 0 0 0,-21 45 0 0 0,-17 30 0 0 0,-4 9 0 0 0,-1 0 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,1-7 0 0 0,4-7-4781 0 0,-5 15 3266 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2583.17">1514 749 11976 0 0,'0'-1'78'0'0,"0"1"-1"0"0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,4 9 1300 0 0,6 3 1489 0 0,1 1-1 0 0,17 19 0 0 0,-25-30-2501 0 0,58 57 2386 0 0,8 3-403 0 0,-59-53-2285 0 0,0-1 0 0 0,20 15 1 0 0,5-4-290 0 0,-33-20 99 0 0,6 5-2808 0 0,1-14-1518 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3677.83">1100 1404 15720 0 0,'0'0'1187'0'0,"-4"1"-663"0"0,-2 1 87 0 0,-2 1-1 0 0,1 1 0 0 0,1-1 0 0 0,-2 0 0 0 0,1 1 1 0 0,1 0-1 0 0,0 2 0 0 0,-1-2 0 0 0,1 1 0 0 0,0 0 0 0 0,1 2 1 0 0,0-1-1 0 0,-6 8 0 0 0,4-7-400 0 0,2 1-1 0 0,-2 1 1 0 0,1 0 0 0 0,1 0 0 0 0,1 0-1 0 0,-1 2 1 0 0,1-2 0 0 0,0 1 0 0 0,0 0-1 0 0,1 1 1 0 0,1-1 0 0 0,-2 20-1 0 0,-1 12-2 0 0,2 0 0 0 0,4 55-1 0 0,0-82-169 0 0,0-2-1 0 0,1 2 0 0 0,1 0 0 0 0,0 0 1 0 0,0-2-1 0 0,2 1 0 0 0,0 0 0 0 0,0-1 1 0 0,2 1-1 0 0,9 17 0 0 0,-5-16 1 0 0,2 0-1 0 0,0-1 1 0 0,1 0-1 0 0,26 20 1 0 0,6 7-56 0 0,-35-32-43 0 0,0 0 0 0 0,1-1-1 0 0,22 12 1 0 0,-27-17 7 0 0,-5-2-343 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1-1 1 0 0,2 1-1 0 0,4-2-4311 0 0,4-1-4760 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4206.65">1340 1630 13824 0 0,'-4'-4'5761'0'0,"4"6"-4301"0"0,-2 8-614 0 0,1 0 1 0 0,0 1 0 0 0,1-2-1 0 0,0 2 1 0 0,2 15 0 0 0,-2-19-734 0 0,3 45 243 0 0,11 103 673 0 0,-8-128-1029 0 0,13 42 0 0 0,-14-52 0 0 0,4 3 172 0 0,2 2 187 0 0,-11-21-348 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-2 3 0 0 0,1-2-64 0 0,5 4-131 0 0,-9-12-3939 0 0,3 2 4033 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-7 0 0 0,-13-49-332 0 0,8 38 546 0 0,-3-31 0 0 0,4 13-38 0 0,-3-17-68 0 0,2-1-1 0 0,3-89 0 0 0,4 138 16 0 0,0-1 0 0 0,-1 2 1 0 0,2-2-1 0 0,0 1 0 0 0,1 1 0 0 0,-1-2 0 0 0,2 2 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 1 1 0 0,8-10-1 0 0,-10 11 150 0 0,2 2 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,1-2-1 0 0,-2 2 1 0 0,1 1-1 0 0,8-4 1 0 0,19-12 93 0 0,-29 16-195 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,-2-2 1 0 0,2 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,6 3 1 0 0,-7-2-57 0 0,-1-1 1 0 0,0 1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 5 0 0 0,-1 0 24 0 0,1 1 0 0 0,-2 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-2 0 0 0,0 1 0 0 0,-1 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,-7 8 0 0 0,-10 20-42 0 0,12-20-22 0 0,-16 22-1 0 0,4-10-291 0 0,1 2 0 0 0,-18 34-1 0 0,35-59-133 0 0,0 2 0 0 0,1-1 0 0 0,0-1-1 0 0,0 2 1 0 0,0-1 0 0 0,0 0 0 0 0,1 1-1 0 0,0 9 1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4754.64">1560 1598 13904 0 0,'0'0'1261'0'0,"1"2"-1036"0"0,10 21-156 0 0,-7-13 970 0 0,0-1 0 0 0,0 1 0 0 0,2 11 0 0 0,10 60 4750 0 0,-4-1-3611 0 0,4 23-1346 0 0,-7-23-690 0 0,-9-72-131 0 0,-2 1-23 0 0,2-7-53 0 0,-8-16-562 0 0,6 11 612 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1-2 1 0 0,-1 2 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0-1 1 0 0,1 2 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0-6 1 0 0,2-8-4 0 0,0 1-1 0 0,5-18 1 0 0,-2 8-41 0 0,19-88 105 0 0,-19 95-40 0 0,2 1 0 0 0,0-1 1 0 0,15-28-1 0 0,5 9-5 0 0,-17 25 0 0 0,-8 12 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,1 1 0 0 0,1-1 0 0 0,3-1 0 0 0,-5 2 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,0-2 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 16 0 0 0,-3 7 0 0 0,-1 1 0 0 0,-9 44 0 0 0,4-39 0 0 0,-1 34 0 0 0,8-54 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,2 1 0 0 0,0-1 0 0 0,3 11 0 0 0,-2-10 0 0 0,-3-7 0 0 0,1-1 0 0 0,0 2 0 0 0,1-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,2 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-2 0 0 0,0 1 0 0 0,4 2 0 0 0,-5-4-23 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,3 1 1 0 0,4-1-420 0 0,-9 0 136 0 0,0 1-1 0 0,1-2 0 0 0,-1 2 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1-2 1 0 0,5-7-7754 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5133.85">1964 1578 16527 0 0,'0'0'1658'0'0,"0"1"-1516"0"0,2 8 821 0 0,-1 0 0 0 0,0-1 0 0 0,0 15 0 0 0,1 17 2192 0 0,0-28-2608 0 0,6 43 448 0 0,3 91 0 0 0,-12-128-1609 0 0,0-16 326 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,2 2 1 0 0,-1 0-556 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5546.2">2159 1623 5064 0 0,'3'-8'426'0'0,"-3"7"-378"0"0,1-1 1 0 0,11-16 14820 0 0,-9 20-12150 0 0,-1 0-4081 0 0,1 1 1570 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 2 0 0 0,0-2 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 2 0 0 0,-1-2 0 0 0,0 1 0 0 0,0 4 0 0 0,2 21 665 0 0,-1-23-629 0 0,0 0 1 0 0,0 2-1 0 0,-1 9 1 0 0,-1 1 21 0 0,2 0 1 0 0,0-1-1 0 0,1 1 1 0 0,6 21-1 0 0,-2 3 119 0 0,-2-22-1016 0 0,-4-20 615 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-11-173 0 0,0-29 22 0 0,1-22 71 0 0,-12-105-1 0 0,9 140 240 0 0,2 27-143 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,5 13 4 0 0,-3-7-4 0 0,0-2-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,3 2-1 0 0,8 13 52 0 0,-13-19-48 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-2-1 0 0 0,2 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,4 0 1 0 0,-4 0-5 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-2 0 0 0,-1 2 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,1-2 0 0 0,-1 0-6 0 0,4-8-2 0 0,0-1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1-15 0 0 0,9-25 39 0 0,-12 53-29 0 0,2 5 0 0 0,-1 7 0 0 0,1 10 561 0 0,-1 30 0 0 0,-2-39-659 0 0,0 1 1 0 0,1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,6 20-1 0 0,-6-25-127 0 0,-2-7 45 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,2 2 1 0 0,13 10-5378 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5983.11">2514 1443 21191 0 0,'0'0'2127'0'0,"4"7"-1926"0"0,17 49 1635 0 0,-19-48-1528 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 9 0 0 0,-1 3-21 0 0,-7 269 938 0 0,9-277-1225 0 0,-2-5-61 0 0,2-5-265 0 0,0-11-1239 0 0,0 7 1563 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,2-7 0 0 0,4-10 5 0 0,8-92-38 0 0,-11 72 22 0 0,1 1 0 0 0,15-53 1 0 0,-17 81-4 0 0,0-1 0 0 0,1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,9-9 0 0 0,-14 17 34 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,-1 0 1 0 0,2 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,4 1-1 0 0,-2 0 90 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,4 8 1 0 0,-2-3-33 0 0,-2 1-1 0 0,0-1 1 0 0,1 2-1 0 0,3 15 1 0 0,7 17 78 0 0,-12-37-290 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 2 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 11 1 0 0,1-15-172 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,-1 1 0 0 0,-5 5-2146 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6370.41">2571 1626 14280 0 0,'27'0'3348'0'0,"0"-2"0"0"0,49-8 0 0 0,-63 6-2941 0 0,-1 0-1 0 0,15-6 0 0 0,10-3-1205 0 0,-29 12-61 0 0,-1-1-1 0 0,1 0 1 0 0,-2-1 0 0 0,1 1-1 0 0,10-8 1 0 0,-6 3-579 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6870.45">2915 1407 6912 0 0,'1'2'14649'0'0,"11"33"-11166"0"0,-5-11-2163 0 0,1-1 0 0 0,11 24 0 0 0,-14-36-1279 0 0,0 1 0 0 0,4 16 0 0 0,-9-27-44 0 0,0 1-53 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 2-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-2 1 0 0 0,-3 3-27 0 0,3-4-282 0 0,-1-10-1109 0 0,0 1 1438 0 0,0 1 0 0 0,2 0 0 0 0,-4-15 0 0 0,5 17 38 0 0,0 0 0 0 0,0 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,1 1 0 0 0,2-11 0 0 0,0-3-2 0 0,-2 12 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,1-1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 2 0 0 0,0 0 0 0 0,1 0 0 0 0,6-5 0 0 0,9-9 0 0 0,34-35 0 0 0,-38 43 0 0 0,-9 8 0 0 0,2-1 0 0 0,-8 4 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 2 0 0 0,0-2 0 0 0,-8 27 402 0 0,7-24-304 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,-2 1 1 0 0,2 0 2 0 0,1 0-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-2 8 0 0 0,-3 7-247 0 0,6-16 118 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 3 1 0 0,0-2 57 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-2 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-2 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,0 0-1 0 0,5 1 0 0 0,-8-2-31 0 0,16 3-1541 0 0,27 3 1 0 0,-40-6 990 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,2-1-1 0 0,5-3 1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7238.63">3264 1199 10136 0 0,'-4'14'1078'0'0,"4"-13"-1070"0"0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 2 0 0 0,1 3 242 0 0,-2 7 1104 0 0,0 0 1 0 0,1-1-1 0 0,1 1 1 0 0,0 1-1 0 0,0-2 1 0 0,1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,8 21 1 0 0,-7-21-762 0 0,3 0 1 0 0,0 0-1 0 0,10 14 0 0 0,-16-23-582 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,4 1 0 0 0,-5-2-51 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 1 0 0,0 0-1 0 0,2-1-433 0 0,-2 0 312 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,1-1 0 0 0,6-12-659 0 0,-7 14 689 0 0,1 0 1 0 0,-2 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-2 0 0 0,-1 2 0 0 0,0-4-1 0 0,-2-19-138 0 0,2-4 404 0 0,2-32 165 0 0,-1 56-122 0 0,1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1 0 1 0 0,2-1 0 0 0,0 1 0 0 0,4-8 1483 0 0,-5 14-1589 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 2 0 0 0,1-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 1 0 0 0,3 19 304 0 0,-3 10 178 0 0,0 1 0 0 0,-2 0 0 0 0,-3 31 0 0 0,3-39-208 0 0,1 26 1 0 0,0-17-235 0 0,1-20-32 0 0,0 1 0 0 0,3 19-1 0 0,1-8-4690 0 0,-2-12-1280 0 0,-2-3-2458 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7720.41">2350 2178 23039 0 0,'0'0'528'0'0,"1"1"70"0"0,1 5-276 0 0,5 9 14 0 0,-1 1-1 0 0,-1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,2 17 0 0 0,-1 21-90 0 0,20 162 627 0 0,-24-200-628 0 0,-1 2-64 0 0,0-22-181 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,3-4 1 0 0,3-11-121 0 0,4-29 74 0 0,-1 5-3 0 0,2 1-1 0 0,0 0 1 0 0,24-50-1 0 0,-22 59 51 0 0,-5 12 0 0 0,19-32 0 0 0,-16 32 0 0 0,0 2 0 0 0,17-23 0 0 0,-20 27-25 0 0,1-6-30 0 0,-9 19-145 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8050.22">2463 2258 13824 0 0,'1'2'629'0'0,"-1"-2"-598"0"0,3 8 394 0 0,-1-1 0 0 0,2 0 1 0 0,-1 1-1 0 0,1-2 0 0 0,9 13 0 0 0,-8-13 1065 0 0,-3-2-919 0 0,0-2 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,6 1 1 0 0,51 26 2512 0 0,-41-18-2840 0 0,1 0 1 0 0,-2 1 0 0 0,1 1 0 0 0,29 30-1 0 0,-38-32-238 0 0,2-3 0 0 0,0 2 0 0 0,0-3 0 0 0,1 2 0 0 0,-1-3-1 0 0,2 0 1 0 0,19 11 0 0 0,-31-18-66 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,8-14-4827 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8409.44">2854 2078 9216 0 0,'0'2'6777'0'0,"-1"1"-6665"0"0,-9 37 3728 0 0,-3 47-1 0 0,11-75-3184 0 0,2 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,5 15 0 0 0,0-8-654 0 0,18 36 0 0 0,-23-53-3 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,-1-1-1 0 0,2 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,3 0 1 0 0,8-3-441 0 0,-13 3 336 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-2 1 1 0 0,1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,1 0-1 0 0,12 6-916 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8410.44">2854 2318 19351 0 0,'0'1'40'0'0,"0"-1"-1"0"0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 2 0 0 0,-1-2 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-2 0 0 0,10 1 671 0 0,-3-1-671 0 0,-3 2-161 0 0,-1 1 420 0 0,0-1-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-2 0 0 0 0,1 0 0 0 0,0 0 0 0 0,5-2 1 0 0,19-7 1198 0 0,-25 9-1527 0 0,1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,7-5 0 0 0,-1-2-561 0 0,0 2-43 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8937.84">2919 2103 21191 0 0,'0'0'480'0'0,"16"-1"1167"0"0,48-5-6 0 0,-53 5-1517 0 0,1 0-1 0 0,0 1 1 0 0,13 1-1 0 0,-12 0-61 0 0,-1-1 0 0 0,15-1 0 0 0,-17 0-62 0 0,0 3 0 0 0,-1 2 0 0 0,-6-2 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,3 4 0 0 0,5 7 0 0 0,-6-10 65 0 0,0 0 205 0 0,1 1 1 0 0,-1-1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,7 5 1 0 0,1-1-253 0 0,-8-7-54 0 0,-1 1 0 0 0,0 2 0 0 0,-1-2 1 0 0,6 5-1 0 0,-7-7-44 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2-1 0 0 0,-1 1-191 0 0,0-1-1 0 0,6-2 46 0 0,4-4 171 0 0,-10 2 59 0 0,-1 3 1 0 0,1-2-125 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-2 0 0 0,0 2 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-2-8 0 0 0,-4-14-46 0 0,4 20 223 0 0,1-2 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,1-11 2801 0 0,4 38-2186 0 0,-2 2-207 0 0,-3 16 605 0 0,0-12-582 0 0,0 7-191 0 0,0-21-280 0 0,1 1 0 0 0,2 19 0 0 0,-2-23-20 0 0,0-2 0 0 0,0 0 0 0 0,-2 13 0 0 0,0 10 103 0 0,2-16-66 0 0,0-5-156 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,3 15 0 0 0,-1-20-941 0 0,-1-8-558 0 0,-1-13-3321 0 0,-1 10 3060 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9422.84">3387 1605 15864 0 0,'0'0'1438'0'0,"12"8"-1157"0"0,29 9 3446 0 0,-31-13-3193 0 0,-2-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 2 0 0 0,-1-1 0 0 0,-1 0-1 0 0,1 2 1 0 0,0-1 0 0 0,7 11 0 0 0,3 8 533 0 0,24 42 0 0 0,-15-19-636 0 0,-8-19-130 0 0,-3 1 0 0 0,14 33 0 0 0,-23-44 52 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,4 40 0 0 0,-10-54-382 0 0,3 13-95 0 0,-1 0 0 0 0,-1 0 1 0 0,-1 1-1 0 0,-2 21 0 0 0,-4-5 124 0 0,0 0 0 0 0,-21 68 0 0 0,-17 5 0 0 0,40-100-352 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,-1-2-1 0 0,1 0 1 0 0,-1 1 0 0 0,-8 3-1 0 0,14-9 186 0 0,1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-2-3-2503 0 0,2 2 2503 0 0,-1 1 653 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">139 147 14512 0 0,'-4'5'1578'0'0,"4"0"-1399"0"0,0-4 679 0 0,1 2-150 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,4 5 0 0 0,6 6 287 0 0,18 16-1 0 0,-13-15-794 0 0,22 22 492 0 0,58 39 0 0 0,-55-45-664 0 0,51 49 0 0 0,25 50 1165 0 0,-102-112-798 0 0,31 45-230 0 0,-10-13-165 0 0,-26-33 0 0 0,0-2 0 0 0,1 1 0 0 0,23 21 0 0 0,-21-24-240 0 0,-10-9 5 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,6 1 1 0 0,-8-3 468 0 0,-17-16-11437 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="748.92">22 0 15664 0 0,'2'3'166'0'0,"-1"-1"0"0"0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 4 0 0 0,-1 32 97 0 0,-1-18 1010 0 0,1 6-100 0 0,-2-1 0 0 0,0 1-1 0 0,-11 42 1 0 0,8-49-721 0 0,1 1 0 0 0,1 0 0 0 0,-1 32 0 0 0,8-13 412 0 0,-4-39-735 0 0,32 6 527 0 0,-30-7-448 0 0,-1-29 137 0 0,-1 21-254 0 0,1 1 1 0 0,-1-1-1 0 0,-2-12 1 0 0,2 15-152 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,2-7 0 0 0,0-9 96 0 0,5-28 310 0 0,-8 20-559 0 0,0 20 166 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,4-18 1 0 0,-2 2 32 0 0,-3 24 29 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1-1 774 0 0,24 8-575 0 0,-19-3-196 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,3 4-1 0 0,10 10 86 0 0,0-3-15 0 0,10 8 320 0 0,52 36 0 0 0,-36-34-708 0 0,-34-19 322 0 0,-6-4 182 0 0,-1 0-195 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,-16 12 113 0 0,13-10-112 0 0,-26 16-789 0 0,-1 0 1 0 0,-1-2-1 0 0,-59 21 1 0 0,83-34-5883 0 0,-1-4-2125 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1323.51">999 449 17503 0 0,'0'0'1588'0'0,"1"2"-1304"0"0,6 21-346 0 0,11 44 3022 0 0,-5-10-296 0 0,30 82 1 0 0,-28-88-2174 0 0,-10-33-226 0 0,1 0-1 0 0,10 22 1 0 0,18 40 55 0 0,-12-22 24 0 0,-6-16-1672 0 0,-16-41 346 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1781.15">957 385 15464 0 0,'5'-9'1645'0'0,"1"5"-1273"0"0,1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,16 0 1 0 0,-12 1 40 0 0,1 1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,21 9 1 0 0,-26-9-253 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-2-1 0 0 0,1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,4 9 0 0 0,-3-4-161 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-3 20 0 0 0,1-23 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-10 11 0 0 0,2-6 46 0 0,1-1 0 0 0,-1 0-1 0 0,-1-1 1 0 0,0-1 0 0 0,0 0 0 0 0,-25 10-1 0 0,7-6 54 0 0,0-2-1 0 0,-37 7 0 0 0,67-16-168 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-2-2 0 0 0,-2-10-2795 0 0,5-1-3291 0 0,4 4-1365 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2162.03">1346 349 5064 0 0,'0'0'389'0'0,"1"9"2474"0"0,7 17 6000 0 0,1 2-5277 0 0,11 26-474 0 0,-1-2-1562 0 0,-11-34-764 0 0,7 26 0 0 0,25 133-170 0 0,-37-170-616 0 0,-2-6 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 3 0 0 0,0 3 28 0 0,0-6 115 0 0,1-2-105 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,3-5-42 0 0,21-36-226 0 0,-15 26 45 0 0,12-33 1 0 0,42-114 183 0 0,-47 129 0 0 0,31-49 0 0 0,-23 43 0 0 0,-16 29 0 0 0,-5 8 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,2-6 0 0 0,3-7-4781 0 0,-5 14 3266 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2583.17">1576 711 11976 0 0,'0'-1'78'0'0,"0"1"-1"0"0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,5 8 1300 0 0,5 4 1489 0 0,1 0-1 0 0,19 18 0 0 0,-27-28-2501 0 0,60 54 2386 0 0,9 3-403 0 0,-62-51-2285 0 0,1 0 0 0 0,20 14 1 0 0,5-4-290 0 0,-34-19 99 0 0,7 4-2808 0 0,0-12-1518 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3677.83">1145 1333 15720 0 0,'0'0'1187'0'0,"-4"1"-663"0"0,-3 1 87 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 1 0 0,1 0-1 0 0,-6 7 0 0 0,4-6-400 0 0,1 1-1 0 0,-1 0 1 0 0,1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,1 0 1 0 0,1 0 0 0 0,-3 18-1 0 0,0 12-2 0 0,2 0 0 0 0,4 52-1 0 0,0-78-169 0 0,0-1-1 0 0,1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,2 0-1 0 0,10 16 0 0 0,-5-14 1 0 0,1-1-1 0 0,1-1 1 0 0,0 0-1 0 0,28 20 1 0 0,6 6-56 0 0,-37-31-43 0 0,1 1 0 0 0,0-2-1 0 0,24 12 1 0 0,-29-16 7 0 0,-5-2-343 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1-1 1 0 0,3 1-1 0 0,3-2-4311 0 0,4-1-4760 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4206.65">1395 1548 13824 0 0,'-5'-4'5761'0'0,"5"6"-4301"0"0,-2 7-614 0 0,1 1 1 0 0,0 0 0 0 0,1-1-1 0 0,0 1 1 0 0,2 15 0 0 0,-2-19-734 0 0,3 44 243 0 0,12 97 673 0 0,-9-121-1029 0 0,14 39 0 0 0,-15-49 0 0 0,5 3 172 0 0,1 2 187 0 0,-11-20-348 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-2 3 0 0 0,1-2-64 0 0,5 4-131 0 0,-9-12-3939 0 0,3 2 4033 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-6 0 0 0,-12-47-332 0 0,8 36 546 0 0,-4-30 0 0 0,5 13-38 0 0,-3-16-68 0 0,2-1-1 0 0,2-84 0 0 0,5 130 16 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,8-9-1 0 0,-9 11 150 0 0,1 1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 1-1 0 0,8-4 1 0 0,21-11 93 0 0,-31 15-195 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,7 3 1 0 0,-8-2-57 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 4 0 0 0,-1 1 24 0 0,1 1 0 0 0,-2-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-7 9 0 0 0,-11 18-42 0 0,13-19-22 0 0,-17 21-1 0 0,4-9-291 0 0,1 1 0 0 0,-19 33-1 0 0,37-56-133 0 0,0 1 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,0 10 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4754.64">1624 1517 13904 0 0,'0'0'1261'0'0,"1"2"-1036"0"0,10 20-156 0 0,-7-13 970 0 0,0 0 0 0 0,0 0 0 0 0,3 11 0 0 0,9 57 4750 0 0,-3-1-3611 0 0,3 22-1346 0 0,-6-22-690 0 0,-10-68-131 0 0,-2 0-23 0 0,2-6-53 0 0,-9-15-562 0 0,7 10 612 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0-5 1 0 0,2-8-4 0 0,0 1-1 0 0,5-18 1 0 0,-2 9-41 0 0,20-84 105 0 0,-19 90-40 0 0,1 1 0 0 0,0-1 1 0 0,16-27-1 0 0,5 9-5 0 0,-17 24 0 0 0,-9 11 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,3 0 0 0 0,-5 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 15 0 0 0,-3 7 0 0 0,-1 1 0 0 0,-10 41 0 0 0,5-36 0 0 0,-1 31 0 0 0,7-50 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,3 10 0 0 0,-2-10 0 0 0,-3-6 0 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,5 2 0 0 0,-6-4-23 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,3 1 1 0 0,5-1-420 0 0,-10 0 136 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-2 1 0 0,5-6-7754 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5133.85">2044 1498 16527 0 0,'0'0'1658'0'0,"0"1"-1516"0"0,2 8 821 0 0,-1-1 0 0 0,0 0 0 0 0,0 14 0 0 0,1 16 2192 0 0,0-27-2608 0 0,7 41 448 0 0,2 87 0 0 0,-12-122-1609 0 0,0-15 326 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,2 2 1 0 0,-1 0-556 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5546.2">2247 1541 5064 0 0,'3'-8'426'0'0,"-3"7"-378"0"0,1-1 1 0 0,12-15 14820 0 0,-10 19-12150 0 0,-1 0-4081 0 0,1 1 1570 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 4 0 0 0,2 19 665 0 0,-1-21-629 0 0,0 0 1 0 0,0 1-1 0 0,-1 9 1 0 0,-1 1 21 0 0,2 0 1 0 0,0 0-1 0 0,1 0 1 0 0,6 20-1 0 0,-1 3 119 0 0,-3-21-1016 0 0,-4-19 615 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-11-173 0 0,0-27 22 0 0,1-21 71 0 0,-12-99-1 0 0,8 132 240 0 0,3 26-143 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,4 13 4 0 0,-3-8-4 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,4 3-1 0 0,7 12 52 0 0,-13-18-48 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,4 0 1 0 0,-4 0-5 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,1-2 0 0 0,-1 0-6 0 0,4-7-2 0 0,0-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,2-15 0 0 0,8-23 39 0 0,-12 50-29 0 0,2 5 0 0 0,-1 6 0 0 0,1 10 561 0 0,0 28 0 0 0,-3-36-659 0 0,0 0 1 0 0,1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,6 20-1 0 0,-6-25-127 0 0,-2-6 45 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,2 2 1 0 0,13 9-5378 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5983.11">2616 1370 21191 0 0,'0'0'2127'0'0,"4"7"-1926"0"0,18 46 1635 0 0,-20-46-1528 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 8 0 0 0,0 3-21 0 0,-7 256 938 0 0,9-264-1225 0 0,-2-4-61 0 0,2-5-265 0 0,0-11-1239 0 0,0 7 1563 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,2-6 0 0 0,4-10 5 0 0,9-88-38 0 0,-12 69 22 0 0,2 1 0 0 0,14-50 1 0 0,-17 76-4 0 0,1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 1 0 0 0,10-9 0 0 0,-15 16 34 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,4 1-1 0 0,-2 0 90 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,4 7 1 0 0,-2-2-33 0 0,-1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,3 15 1 0 0,8 16 78 0 0,-13-35-290 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 10 1 0 0,1-14-172 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,-1 1 0 0 0,-5 5-2146 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6370.41">2676 1544 14280 0 0,'28'0'3348'0'0,"0"-2"0"0"0,51-8 0 0 0,-66 7-2941 0 0,0-1-1 0 0,15-6 0 0 0,11-2-1205 0 0,-31 11-61 0 0,-1-1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,11-7 1 0 0,-7 2-579 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6870.45">3034 1336 6912 0 0,'1'2'14649'0'0,"11"31"-11166"0"0,-5-10-2163 0 0,2-1 0 0 0,11 22 0 0 0,-15-33-1279 0 0,0 0 0 0 0,4 16 0 0 0,-9-26-44 0 0,0 0-53 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-2 1 0 0 0,-3 3-27 0 0,3-4-282 0 0,-1-10-1109 0 0,0 2 1438 0 0,0 0 0 0 0,1 0 0 0 0,-3-13 0 0 0,5 15 38 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,2-10 0 0 0,1-3-2 0 0,-3 11 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,6-6 0 0 0,10-8 0 0 0,35-33 0 0 0,-39 40 0 0 0,-10 8 0 0 0,2 0 0 0 0,-8 3 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-9 26 402 0 0,8-23-304 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,-2 1 1 0 0,2-1 2 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-2 7 0 0 0,-3 7-247 0 0,6-15 118 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 3 1 0 0,0-2 57 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,5 1 0 0 0,-8-2-31 0 0,17 3-1541 0 0,28 3 1 0 0,-42-6 990 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1-1 0 0,5-3 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7238.63">3397 1138 10136 0 0,'-4'14'1078'0'0,"4"-13"-1070"0"0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 2 0 0 0,1 2 242 0 0,-2 8 1104 0 0,0-1 1 0 0,1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,8 19 1 0 0,-6-20-762 0 0,2 1 1 0 0,0-1-1 0 0,11 14 0 0 0,-17-22-582 0 0,0-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,4 1 0 0 0,-5-2-51 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,2-1-433 0 0,-2 0 312 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-2 0 0 0,6-11-659 0 0,-7 13 689 0 0,1 0 1 0 0,-2 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,-1-4-1 0 0,-1-18-138 0 0,2-3 404 0 0,2-31 165 0 0,-1 53-122 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0 0 0 0,4-7 1483 0 0,-5 13-1589 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 1 0 0 0,3 18 304 0 0,-2 9 178 0 0,-1 2 0 0 0,-2-1 0 0 0,-4 30 0 0 0,4-37-208 0 0,1 24 1 0 0,0-16-235 0 0,1-18-32 0 0,0 0 0 0 0,4 18-1 0 0,0-7-4690 0 0,-2-12-1280 0 0,-2-2-2458 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7720.41">2446 2068 23039 0 0,'0'0'528'0'0,"1"1"70"0"0,1 4-276 0 0,5 10 14 0 0,-1 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,-1 0 0 0 0,2 17 0 0 0,-1 19-90 0 0,21 154 627 0 0,-25-190-628 0 0,-1 2-64 0 0,0-21-181 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3-3 1 0 0,3-11-121 0 0,5-28 74 0 0,-2 5-3 0 0,2 1-1 0 0,1 0 1 0 0,24-47-1 0 0,-22 55 51 0 0,-6 12 0 0 0,20-30 0 0 0,-16 30 0 0 0,-1 2 0 0 0,19-22 0 0 0,-22 26-25 0 0,1-6-30 0 0,-9 18-145 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8050.22">2563 2144 13824 0 0,'1'2'629'0'0,"-1"-2"-598"0"0,3 7 394 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,9 12 0 0 0,-7-12 1065 0 0,-4-3-919 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,5 2 1 0 0,53 25 2512 0 0,-42-18-2840 0 0,1 0 1 0 0,-2 2 0 0 0,0 0 0 0 0,31 29-1 0 0,-39-31-238 0 0,1-2 0 0 0,0 1 0 0 0,1-2 0 0 0,0 1 0 0 0,0-2-1 0 0,1 0 1 0 0,21 10 0 0 0,-33-17-66 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,9-13-4827 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8409.44">2970 1973 9216 0 0,'0'2'6777'0'0,"-1"1"-6665"0"0,-9 35 3728 0 0,-4 44-1 0 0,12-70-3184 0 0,2 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,6 15 0 0 0,-1-8-654 0 0,19 34 0 0 0,-24-50-3 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,4 0 1 0 0,7-3-441 0 0,-13 3 336 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,1 0-1 0 0,13 6-916 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8410.44">2970 2201 19351 0 0,'0'1'40'0'0,"0"-1"-1"0"0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,11 0 671 0 0,-4-1-671 0 0,-3 2-161 0 0,0 1 420 0 0,-1-1-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,5-2 1 0 0,20-6 1198 0 0,-25 8-1527 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,6-5 0 0 0,-1-1-561 0 0,1 1-43 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8937.84">3038 1997 21191 0 0,'0'0'480'0'0,"16"-1"1167"0"0,51-5-6 0 0,-55 5-1517 0 0,0 0-1 0 0,0 1 1 0 0,15 1-1 0 0,-14 0-61 0 0,0-1 0 0 0,15-1 0 0 0,-18 0-62 0 0,0 3 0 0 0,0 2 0 0 0,-7-2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 5 0 0 0,6 6 0 0 0,-7-9 65 0 0,0 0 205 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,7 4 1 0 0,2 0-253 0 0,-9-7-54 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 1 0 0,7 5-1 0 0,-8-7-44 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,3-1 0 0 0,-2 1-191 0 0,0-1-1 0 0,6-2 46 0 0,5-4 171 0 0,-11 3 59 0 0,-1 2 1 0 0,1-2-125 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-2-7 0 0 0,-4-14-46 0 0,4 19 223 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1-11 2801 0 0,4 36-2186 0 0,-2 2-207 0 0,-3 15 605 0 0,0-12-582 0 0,0 8-191 0 0,0-21-280 0 0,1 1 0 0 0,2 19 0 0 0,-2-23-20 0 0,0-1 0 0 0,0 0 0 0 0,-2 12 0 0 0,0 9 103 0 0,2-15-66 0 0,0-4-156 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,3 15 0 0 0,-1-19-941 0 0,-1-8-558 0 0,-1-12-3321 0 0,-1 9 3060 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9422.85">3525 1524 15864 0 0,'0'0'1438'0'0,"12"7"-1157"0"0,31 10 3446 0 0,-33-14-3193 0 0,-1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,8 10 0 0 0,3 8 533 0 0,24 40 0 0 0,-14-19-636 0 0,-10-17-130 0 0,-2 0 0 0 0,14 32 0 0 0,-23-42 52 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,5 38 0 0 0,-11-51-382 0 0,3 12-95 0 0,-1 0 0 0 0,-1 0 1 0 0,-1 1-1 0 0,-2 20 0 0 0,-4-5 124 0 0,-1 1 0 0 0,-21 63 0 0 0,-18 6 0 0 0,42-95-352 0 0,-1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-8 4-1 0 0,14-9 186 0 0,1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-2-3-2503 0 0,2 2 2503 0 0,-1 1 653 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19716,36 +19777,36 @@
       <inkml:brushProperty name="color" value="#008C3A"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">905 232 12008 0 0,'0'0'1082'0'0,"-7"-1"349"0"0,1-1 840 0 0,1 1 1 0 0,-1 0 0 0 0,-10 0-1 0 0,14 2-2096 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-3 9-13 0 0,0-1 1 0 0,1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,1 1 1 0 0,0 13 0 0 0,-3 13 49 0 0,-1 22 63 0 0,2 0 0 0 0,7 93 0 0 0,-4-17 40 0 0,5-39 83 0 0,29 173 0 0 0,-23-209-280 0 0,10 46 84 0 0,-2-26-98 0 0,4 18 40 0 0,-11-54-128 0 0,10 33 48 0 0,-5-19-106 0 0,-12-37-213 0 0,8 20 0 0 0,-6-16 116 0 0,-6-20 212 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,3 7 1 0 0,3 18-184 0 0,-8-29-41 0 0,3-9-2032 0 0,1-7 875 0 0,-4 9 785 0 0,1-17-7202 0 0,3 6-115 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="808.91">837 86 6912 0 0,'0'0'8306'0'0,"-3"8"-5965"0"0,-10 32 122 0 0,8-26-1703 0 0,1 0 1 0 0,-13 24-1 0 0,9-21-94 0 0,-8 22 0 0 0,9-21-193 0 0,-10 20 1 0 0,0 3 284 0 0,14-31-154 0 0,11-29-333 0 0,-4 9-198 0 0,-1 0-1 0 0,2-14 1 0 0,3-8 56 0 0,32-121 138 0 0,-24 106-257 0 0,-15 43 31 0 0,0-1-1 0 0,1 1 1 0 0,0-2-1 0 0,0 2 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 2 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,8-5-1 0 0,-7 5 100 0 0,-3 4-204 0 0,0 0 35 0 0,1 1 71 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 2-1 0 0,0-2 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1 1-1 0 0,16 29 98 0 0,-12-21-117 0 0,1 2 0 0 0,10 12 0 0 0,9 16-16 0 0,4 3-38 0 0,-5 3-557 0 0,-24-46 788 0 0,-2 14 911 0 0,-2-8-1041 0 0,-3 4 60 0 0,-15 20-1 0 0,18-28-118 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-2 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-7 2 1 0 0,-42 10 54 0 0,32-9-21 0 0,-36 5-4 0 0,40-8-92 0 0,0 0 0 0 0,0 2 0 0 0,-18 6 0 0 0,35-9-26 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-2-1 0 0,0 2 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,-1-2-731 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2406.79">746 2027 11456 0 0,'-2'-18'1157'0'0,"-3"-35"7767"0"0,9 69-7527 0 0,1 13-771 0 0,-2 1 0 0 0,-1-1 0 0 0,-3 60 0 0 0,0-24-322 0 0,-2-3-158 0 0,-11 72 1 0 0,-2 22 17 0 0,14-121-169 0 0,-1 64-102 0 0,3-97-66 0 0,1-3-452 0 0,0 0 583 0 0,-1 1 1 0 0,1-2-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1-6-190 0 0,3-7 72 0 0,-1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,-2-21-1 0 0,1 24 96 0 0,8-293-512 0 0,-8 55 652 0 0,5 184 1088 0 0,-5 66-1129 0 0,0 1 0 0 0,0-2 1 0 0,0 2-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2 0 0 0 0,-1 1 1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,2 3-1 0 0,4 5 119 0 0,-1 2 0 0 0,0-1 0 0 0,8 24 0 0 0,-2-8 8 0 0,119 247 771 0 0,-109-231-896 0 0,17 52-1 0 0,-11-29-80 0 0,-18-44 40 0 0,10 29 0 0 0,-14-30-731 0 0,1-2-1 0 0,9 19 1 0 0,-15-36-199 0 0,-10-8-4978 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2749.22">682 2476 3680 0 0,'-11'10'15641'0'0,"18"-11"-15160"0"0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,7-4 1 0 0,11-5 102 0 0,54-26 7 0 0,-20 12-1041 0 0,-34 12-6152 0 0,-10 5-831 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3079.62">1064 1985 17215 0 0,'0'0'1736'0'0,"2"0"-1592"0"0,2 3 30 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,4 9 0 0 0,2 9 442 0 0,-1 0 1 0 0,4 24-1 0 0,-8-35-411 0 0,62 239 1435 0 0,-55-215-1640 0 0,3 8 0 0 0,-13-38 0 0 0,2 2 0 0 0,9 9 0 0 0,-10-16 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,5-13 0 0 0,-4 13 0 0 0,2-15 0 0 0,5-28 0 0 0,0-1 0 0 0,11-62 0 0 0,13-40 0 0 0,-4 24 0 0 0,-21 94 0 0 0,-5 21 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1-8 0 0 0,-3 11-5 0 0,1-3 16 0 0,11-9-81 0 0,-10 15-267 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3451.56">1286 2235 16583 0 0,'0'0'374'0'0,"0"2"54"0"0,0 8 17 0 0,0-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 0 0 0 0,4 12 0 0 0,-1-7 67 0 0,-4-8-322 0 0,-1-1-1 0 0,1-1 0 0 0,6 11 0 0 0,31 49 1949 0 0,21 16-537 0 0,-53-69-1356 0 0,17 16 1 0 0,7 10 20 0 0,-18-18-515 0 0,12 17 818 0 0,-24-34-937 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 2-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 5-1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5063.5">671 2976 12528 0 0,'0'0'2770'0'0,"1"3"-1995"0"0,1 3-391 0 0,2 8 53 0 0,-1-2 1 0 0,0 2-1 0 0,0 0 0 0 0,-1-2 0 0 0,0 17 1 0 0,-6 361 875 0 0,-3-273-1260 0 0,7-87-63 0 0,0-28-102 0 0,0-4-1620 0 0,2-7 1354 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,-2-14 1 0 0,-6-30-665 0 0,-2-11 840 0 0,6 42 202 0 0,1 1 1 0 0,-1-39-1 0 0,2 24 45 0 0,0-3 612 0 0,1 1-1 0 0,1-2 0 0 0,7-51 0 0 0,-4 60 119 0 0,-3 22-458 0 0,1 1 1 0 0,0 1-1 0 0,0-2 0 0 0,4-11 1 0 0,-5 19-271 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,14 10 600 0 0,-11-7-531 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 2 1 0 0,0-2 0 0 0,2 8 0 0 0,8 17 221 0 0,0-4 51 0 0,11 29 1 0 0,-9-19-206 0 0,-8-17-160 0 0,2 1-5 0 0,0 0-1 0 0,23 37 1 0 0,1-12-17 0 0,24 39-528 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5484.35">660 3463 13072 0 0,'0'0'3016'0'0,"7"-3"-1863"0"0,16-9-439 0 0,-1-1 1 0 0,39-29 0 0 0,-33 25-2273 0 0,-18 13 421 0 0,5-3-297 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5825.74">954 3044 5064 0 0,'5'-7'10833'0'0,"-4"12"-10510"0"0,0-2 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1-1-1 0 0,0 1 1 0 0,-1 6-1 0 0,2 22 606 0 0,11 67 1112 0 0,-9-69-1864 0 0,-2-18-84 0 0,1 1 0 0 0,3 15 0 0 0,1 5 66 0 0,-5-28-135 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 2 1 0 0,-1-2-1 0 0,1 1 1 0 0,0-1-1 0 0,3 6 0 0 0,9 16 43 0 0,-12-21-57 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,3 4 1 0 0,1-2-14 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1-1 0 0 0,14 6 0 0 0,-21-8-231 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-2 0 0 0,0 2-1 0 0,2-3 1 0 0,5 0-3606 0 0,3 2-2991 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5826.74">1252 3015 13760 0 0,'0'0'1388'0'0,"1"2"-1146"0"0,4 16 1016 0 0,0 0 0 0 0,-1 0-1 0 0,3 30 1 0 0,-2-17-660 0 0,7 59 420 0 0,13 70-528 0 0,-22-145-490 0 0,5 15 0 0 0,3 9-1798 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6209">1169 3192 6912 0 0,'2'-5'332'0'0,"-1"1"-182"0"0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,3-2 0 0 0,23-22 3443 0 0,-21 19-3161 0 0,1 2 0 0 0,-1 0 0 0 0,15-11 0 0 0,1-2-80 0 0,-19 15-284 0 0,1 1 0 0 0,0 0-1 0 0,7-4 1 0 0,4-3-18 0 0,-3 4 45 0 0,23-11 0 0 0,-34 17-48 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,3 1 0 0 0,-2 1 87 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 2-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 2 1 0 0,2 2-1 0 0,1 7 243 0 0,0-1 0 0 0,-1 2 0 0 0,-1-1 1 0 0,0 1-1 0 0,3 26 0 0 0,-4-7 34 0 0,-1-16-251 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,2-1 0 0 0,0 1 0 0 0,10 24-1 0 0,-10-33-61 0 0,0 2-7 0 0,1-1 0 0 0,7 12 0 0 0,-9-17-82 0 0,-1-2 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,4 3 0 0 0,-3-3 22 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0-1 1 0 0,11 0 0 0 0,-4-1-467 0 0,0 0-1 0 0,0-1 1 0 0,14-5-1 0 0,-14 4-574 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6619">1535 3375 15000 0 0,'0'0'1623'0'0,"4"-7"-1623"0"0,3 0 0 0 0,0 0 0 0 0,1 0 112 0 0,4-2-16 0 0,-5 1 0 0 0,1 1 0 0 0,7-1-16 0 0,-4-2-8 0 0,1 3 0 0 0,-1-4 0 0 0,0 4-944 0 0,-4-4-191 0 0,1-4-41 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6967.35">1531 3096 3224 0 0,'0'-14'288'0'0,"1"12"-181"0"0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 1 0 0 0,2-3 0 0 0,6-10 2935 0 0,-8 10-2544 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,4-1 1 0 0,-4 2-329 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,5 3-1 0 0,-6-3-102 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,1-2-1 0 0,-1 1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,2 4-1 0 0,9 25 640 0 0,-10-25-525 0 0,43 91 807 0 0,-35-77-1030 0 0,17 29 42 0 0,-24-40 0 0 0,-2-9-7 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 2-1 0 0,-1-2 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,-9-9-141 0 0,8 8 143 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-3-6 0 0 0,2 6 4 0 0,-1-3 1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1-2-1 0 0,-1 2 0 0 0,1 0 1 0 0,0-1-1 0 0,0-8 0 0 0,0-7 1 0 0,1 15-8 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,0 1 1 0 0,2-8-1 0 0,1 0-17 0 0,1 0 0 0 0,1-1-1 0 0,0 2 1 0 0,0-1 0 0 0,1 2-1 0 0,15-22 1 0 0,-21 32 14 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-2 0 0 0,3 1 0 0 0,-3 1 2 0 0,10-2-51 0 0,-4 4 48 0 0,-6-1 12 0 0,0 2 0 0 0,0-2 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 3 0 0 0,0 22 19 0 0,0-14 16 0 0,-1 1 22 0 0,-1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,-11 23-1 0 0,13-29 3 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 10 0 0 0,0-15-54 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 2-1 0 0,1-2 1 0 0,0 0-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,3 3-1 0 0,-2-5-6 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,6 0 0 0 0,-5 0-399 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,4-1 0 0 0,6-5-6028 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7333.76">1961 2937 14600 0 0,'0'0'1100'0'0,"0"11"-615"0"0,1 1-226 0 0,0-1 0 0 0,5 23 1 0 0,1 9 986 0 0,5 93 640 0 0,-5-72-1503 0 0,-3 7-222 0 0,-1-34-173 0 0,-3-35-50 0 0,-1-5-445 0 0,-2-7 186 0 0,1 6 200 0 0,1-2 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-8 0 0 0,-7-86-542 0 0,0-2 635 0 0,8 85 120 0 0,0 1 0 0 0,1 0 0 0 0,5-27 0 0 0,-3 18 99 0 0,-3 21-154 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-2 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,2-4-1 0 0,1 1-7 0 0,6-7 552 0 0,-9 13-555 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 1 0 0 0,1 1 62 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,2 5 0 0 0,1 3 89 0 0,-1-1-1 0 0,4 15 0 0 0,4 7 6 0 0,-9-22-170 0 0,6 9 77 0 0,13 24-1 0 0,-19-37-61 0 0,1 1 0 0 0,0-2-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-2 1 0 0,9 7 0 0 0,2 2-18 0 0,-7-6-9 0 0,0 0 0 0 0,1-1 0 0 0,0-1 1 0 0,0 1-1 0 0,13 4 0 0 0,-5-4 4 0 0,-5 0 14 0 0,25 3-1 0 0,-34-8-14 0 0,0 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,8-2-1 0 0,-10 2 11 0 0,-1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1-1-1 0 0,-1-1 7 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-2-4 1 0 0,-1-1-47 0 0,1 1 28 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,-1 1 0 0 0,-5-8 0 0 0,-2-3-16 0 0,1-2-278 0 0,0 0 0 0 0,-13-31-1 0 0,11 11-6465 0 0,12 28 68 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7702.67">2477 2825 14280 0 0,'0'0'1102'0'0,"0"2"-719"0"0,-1 31-63 0 0,1 34 1957 0 0,5 145 1730 0 0,-5-158-4047 0 0,0-53-30 0 0,0-2-1119 0 0,-1-13 701 0 0,-4-25-1 0 0,-1 2-149 0 0,2-1 315 0 0,0 12 308 0 0,1-2-1 0 0,2 1 1 0 0,2-33-1 0 0,1 37 130 0 0,-1 9 238 0 0,0-1 0 0 0,7-28 1 0 0,2 25 112 0 0,-6 11-196 0 0,-3 6 318 0 0,1 2-228 0 0,0 1-236 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,1 4-1 0 0,15 40 551 0 0,-4 1-425 0 0,10 30 66 0 0,8-21-325 0 0,-20-33-215 0 0,-10-21-94 0 0,0 2 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 5 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8093.67">2386 3134 12752 0 0,'0'0'1157'0'0,"2"0"-793"0"0,10-4 1208 0 0,0 0 0 0 0,20-12 0 0 0,4-1-67 0 0,14-3-1617 0 0,56-33 0 0 0,-65 24-5481 0 0,-30 19 3500 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8094.67">2719 2783 3224 0 0,'-3'-23'12792'0'0,"8"30"-11823"0"0,-1 1 1 0 0,-1 1 0 0 0,5 11 0 0 0,1 4 309 0 0,36 96 1650 0 0,-30-74-2929 0 0,-7-20 0 0 0,-6-21 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,5 7 0 0 0,-3-4-204 0 0,-3-8-856 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8468.78">2503 2868 3224 0 0,'2'-2'675'0'0,"28"-15"7145"0"0,1 2-3686 0 0,68-16-1596 0 0,-45 14-1946 0 0,35-1-628 0 0,21-2-885 0 0,-97 17 688 0 0,-10 2 181 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,6 2-1 0 0,-8-2 99 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 3 0 0 0,10 25 1010 0 0,-7-16-693 0 0,0-2 32 0 0,-2 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 19 1 0 0,-1-19-178 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,7 23 0 0 0,-6-22-197 0 0,-2-9-33 0 0,-1-2 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 2 1 0 0,4 3 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8839.9">3137 2687 4144 0 0,'2'1'5806'0'0,"0"1"-5166"0"0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 2-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,2 3 1 0 0,9 30 1145 0 0,-3-12-729 0 0,51 113 1515 0 0,-48-111-2294 0 0,-3-8-80 0 0,2 0-1 0 0,17 24 1 0 0,-22-35-112 0 0,0-2-1 0 0,0 1 0 0 0,0 0 1 0 0,13 7-1 0 0,-17-12-34 0 0,-1 0 110 0 0,1-1-13 0 0,-2 1-134 0 0,1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0 5 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1-2-1 0 0,4-14 127 0 0,-4 15-124 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-2 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-4 0 0 0,-3-4-2 0 0,3 8-12 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-6 1 0 0,0-1 16 0 0,0-2 0 0 0,-4-16 0 0 0,4 20-254 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-2 0 0 0,2 2-1 0 0,0-11 1 0 0,3-12-1135 0 0,-3 18 72 0 0,1 0 1 0 0,0 0-1 0 0,5-14 1 0 0,0 8-324 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9182.23">3488 2577 6912 0 0,'0'0'622'0'0,"8"9"1480"0"0,-6-6-1071 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 6-1 0 0,-2-5-593 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 8 1 0 0,0-4-13 0 0,1 2-1 0 0,0-2 1 0 0,2 12 0 0 0,-1-9-36 0 0,0-1 0 0 0,-1 17 0 0 0,-4-5 58 0 0,3-16-283 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 11 0 0 0,1-2-29 0 0,2 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,0-1 0 0 0,9 21 0 0 0,-11-29-126 0 0,-1-2 0 0 0,1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-2 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1-1-1 0 0,7 2 1 0 0,-4-2 27 0 0,-1 0-46 0 0,-1 0-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,7-2-1 0 0,3-1-593 0 0,7-4-1415 0 0,-9-2-4559 0 0,-6 0-88 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9183.23">3559 2888 8752 0 0,'1'-1'9858'0'0,"4"-2"-9384"0"0,-1 1-1 0 0,1-2 1 0 0,0 2-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,7-2-1 0 0,2-1-168 0 0,-2-2-453 0 0,0 1 0 0 0,20-12-1 0 0,-19 10-1339 0 0,-2 3 245 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9556.41">3570 2642 6912 0 0,'0'0'622'0'0,"2"-1"-102"0"0,6-6 2187 0 0,-7 6-2113 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,3-1 1 0 0,12-7 3151 0 0,9-2-2005 0 0,17-1-663 0 0,-11 5-7535 0 0,-17 4-503 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9897.28">1904 3651 17159 0 0,'0'0'787'0'0,"1"7"260"0"0,4 0-970 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 2 0 0 0,0-2 0 0 0,2 18 0 0 0,-1 30 1114 0 0,-2-19-654 0 0,1-1 1 0 0,10 49-1 0 0,0-39-424 0 0,-12-45-106 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 54 0 0,4-1 33 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,1 0-1 0 0,4-6 1 0 0,3-5 117 0 0,16-25 0 0 0,-18 25-152 0 0,0 1 1 0 0,13-16-1 0 0,105-107 14 0 0,-75 87-2109 0 0,-42 39-336 0 0,0 1-5059 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10270.84">2112 3823 17247 0 0,'0'2'168'0'0,"1"1"-1"0"0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,3 3 1 0 0,3 7-24 0 0,14 18 1671 0 0,-8-13-659 0 0,0-2-469 0 0,0 0 1 0 0,0-1 0 0 0,2-1 0 0 0,-1 0-1 0 0,29 18 1 0 0,-33-23-646 0 0,2 1-64 0 0,0 0 0 0 0,1-2 0 0 0,-1 0 0 0 0,28 12 0 0 0,-17-18-2706 0 0,-16-1 635 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10271.84">2485 3664 8752 0 0,'0'0'793'0'0,"0"8"1264"0"0,-4 45 5768 0 0,3-11-5612 0 0,0-19-1078 0 0,2 35 0 0 0,1-38-732 0 0,-1-4-34 0 0,6 30-1 0 0,-5-40-292 0 0,-1-2 0 0 0,0 1 0 0 0,1-1 0 0 0,0 2 0 0 0,0-2 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,4 3 0 0 0,0-1-3 0 0,0 1-1 0 0,0-2 1 0 0,1 0 0 0 0,14 9-1 0 0,-17-12-71 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,9 0 0 0 0,48-5-553 0 0,-61 3 402 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-2 1 0 0,-1 2-1 0 0,0-1 0 0 0,1 1 1 0 0,0-2-1 0 0,1 0-1269 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10631.87">2523 3912 3224 0 0,'0'-1'4595'0'0,"6"-3"-2074"0"0,-2 1-810 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,6-2 1 0 0,34-15 285 0 0,-3 2-1441 0 0,1-5-3388 0 0,-31 18-3947 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10632.87">2541 3707 10592 0 0,'16'0'7716'0'0,"1"1"-3868"0"0,5 0-3231 0 0,39-3 0 0 0,-32-1-548 0 0,-16 3-666 0 0,0-2-1 0 0,-1 0 1 0 0,17-6 0 0 0,-14 5-770 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11159.28">2858 3530 11520 0 0,'0'0'1377'0'0,"0"11"892"0"0,1 0-1074 0 0,1 2-1 0 0,0 0 1 0 0,0-2-1 0 0,1 2 1 0 0,6 14-1 0 0,-9-26-1116 0 0,8 18 389 0 0,1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,21 27 0 0 0,-19-27-454 0 0,7 8-25 0 0,-19-26-12 0 0,1 1 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-2 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,17-7-1174 0 0,-16 6 606 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,4-5 0 0 0,14-24-4169 0 0,-19 29 4489 0 0,1-2-220 0 0,0 1 0 0 0,-1-1 0 0 0,0-2-1 0 0,0 2 1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-6 0 0 0,1-5 88 0 0,0 11-1580 0 0,-3-12 12720 0 0,-2 22-8869 0 0,3-2-1643 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 8-1 0 0,-1 10 349 0 0,-25 159 2565 0 0,24-162-2791 0 0,0 24 0 0 0,-2 17-110 0 0,1-27-346 0 0,2-2 0 0 0,1 34 0 0 0,1-59 12 0 0,0-2-145 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,0 2 0 0 0,-1-2 0 0 0,1 0 0 0 0,1 2 1 0 0,3 11-7499 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11518.34">3970 2358 16128 0 0,'2'2'1241'0'0,"68"53"204"0"0,-52-39-662 0 0,5 3 187 0 0,-2 1 0 0 0,0 0 0 0 0,24 33 0 0 0,-16-12 111 0 0,44 80 0 0 0,-59-93-909 0 0,-1 2 0 0 0,-1-1 1 0 0,-2 2-1 0 0,8 35 1 0 0,-7-9-150 0 0,-3 2 0 0 0,-2-1 0 0 0,-2 1 0 0 0,-3 0 1 0 0,-2-1-1 0 0,-10 61 0 0 0,4-76-23 0 0,-20 69 0 0 0,6-35 0 0 0,9-33-656 0 0,-1 0 0 0 0,-3-2-1 0 0,-1 0 1 0 0,-23 39 0 0 0,14-37-7822 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11908.3">238 2903 11744 0 0,'-13'-3'538'0'0,"11"1"-8"0"0,0 2-340 0 0,-3 0-36 0 0,1 0-1 0 0,-1 2 0 0 0,0-2 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,-6 3-1 0 0,4 1 219 0 0,0-2 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-6 9 0 0 0,-2 7 512 0 0,2 0 0 0 0,0 1 0 0 0,-11 32 0 0 0,18-45-883 0 0,-7 22 453 0 0,2 0 0 0 0,0 0 1 0 0,-4 44-1 0 0,-2 100 547 0 0,15-137-860 0 0,1-1 0 0 0,10 63 0 0 0,27 72 6 0 0,-29-138-143 0 0,2-1 0 0 0,1 0 0 0 0,2-2 0 0 0,1 0 0 0 0,1-1 0 0 0,2 0 0 0 0,23 30 0 0 0,-21-35-2321 0 0,1 0-1 0 0,29 24 1 0 0,-10-14-5182 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">905 220 12008 0 0,'0'0'1082'0'0,"-7"-1"349"0"0,1 0 840 0 0,1 0 1 0 0,-1 0 0 0 0,-10 0-1 0 0,14 2-2096 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-3 8-13 0 0,0 0 1 0 0,1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,1 0 1 0 0,0 13 0 0 0,-3 12 49 0 0,-1 21 63 0 0,2 0 0 0 0,7 88 0 0 0,-4-15 40 0 0,5-38 83 0 0,29 164 0 0 0,-23-198-280 0 0,10 44 84 0 0,-2-25-98 0 0,4 17 40 0 0,-11-51-128 0 0,10 31 48 0 0,-5-18-106 0 0,-12-35-213 0 0,8 19 0 0 0,-6-15 116 0 0,-6-20 212 0 0,0 1-1 0 0,1 0 1 0 0,0 0-1 0 0,3 6 1 0 0,3 18-184 0 0,-8-28-41 0 0,3-9-2032 0 0,1-6 875 0 0,-4 8 785 0 0,1-16-7202 0 0,3 6-115 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="808.91">837 82 6912 0 0,'0'0'8306'0'0,"-3"7"-5965"0"0,-10 31 122 0 0,8-24-1703 0 0,1-1 1 0 0,-13 23-1 0 0,9-20-94 0 0,-8 21 0 0 0,9-20-193 0 0,-10 19 1 0 0,0 3 284 0 0,14-29-154 0 0,11-28-333 0 0,-4 8-198 0 0,-1 1-1 0 0,2-14 1 0 0,3-7 56 0 0,32-116 138 0 0,-24 102-257 0 0,-15 40 31 0 0,0-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,8-4-1 0 0,-7 4 100 0 0,-3 4-204 0 0,0 0 35 0 0,1 1 71 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1 1-1 0 0,16 27 98 0 0,-12-19-117 0 0,1 1 0 0 0,10 12 0 0 0,9 15-16 0 0,4 3-38 0 0,-5 2-557 0 0,-24-43 788 0 0,-2 14 911 0 0,-2-9-1041 0 0,-3 5 60 0 0,-15 18-1 0 0,18-26-118 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-7 2 1 0 0,-42 9 54 0 0,32-8-21 0 0,-36 4-4 0 0,40-7-92 0 0,0 0 0 0 0,0 2 0 0 0,-18 5 0 0 0,35-8-26 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,-1-2-731 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2406.79">746 1925 11456 0 0,'-2'-17'1157'0'0,"-3"-33"7767"0"0,9 65-7527 0 0,1 13-771 0 0,-2 0 0 0 0,-1 0 0 0 0,-3 56 0 0 0,0-22-322 0 0,-2-3-158 0 0,-11 68 1 0 0,-2 21 17 0 0,14-115-169 0 0,-1 61-102 0 0,3-92-66 0 0,1-3-452 0 0,0 0 583 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1-5-190 0 0,3-8 72 0 0,-1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,-2-21-1 0 0,1 24 96 0 0,8-279-512 0 0,-8 53 652 0 0,5 174 1088 0 0,-5 63-1129 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2 0 0 0 0,-1 1 1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,2 2-1 0 0,4 6 119 0 0,-1 1 0 0 0,0 0 0 0 0,8 22 0 0 0,-2-7 8 0 0,119 234 771 0 0,-109-219-896 0 0,17 49-1 0 0,-11-27-80 0 0,-18-42 40 0 0,10 27 0 0 0,-14-28-731 0 0,1-1-1 0 0,9 17 1 0 0,-15-34-199 0 0,-10-8-4978 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2749.22">682 2352 3680 0 0,'-11'9'15641'0'0,"18"-10"-15160"0"0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 0-1 0 0,7-4 1 0 0,11-4 102 0 0,54-25 7 0 0,-20 11-1041 0 0,-34 12-6152 0 0,-10 4-831 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3079.62">1064 1885 17215 0 0,'0'0'1736'0'0,"2"0"-1592"0"0,2 3 30 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,4 8 0 0 0,2 9 442 0 0,-1 0 1 0 0,4 23-1 0 0,-8-34-411 0 0,62 228 1435 0 0,-55-205-1640 0 0,3 8 0 0 0,-13-37 0 0 0,2 3 0 0 0,9 8 0 0 0,-10-15 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,5-12 0 0 0,-4 12 0 0 0,2-14 0 0 0,5-27 0 0 0,0-1 0 0 0,11-59 0 0 0,13-37 0 0 0,-4 22 0 0 0,-21 89 0 0 0,-5 21 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-8 0 0 0,-3 10-5 0 0,1-3 16 0 0,11-8-81 0 0,-10 14-267 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3451.56">1286 2123 16583 0 0,'0'0'374'0'0,"0"2"54"0"0,0 7 17 0 0,0 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2-1 0 0 0,4 12 0 0 0,-1-6 67 0 0,-4-9-322 0 0,-1 0-1 0 0,1-1 0 0 0,6 10 0 0 0,31 47 1949 0 0,21 15-537 0 0,-53-66-1356 0 0,17 16 1 0 0,7 9 20 0 0,-18-17-515 0 0,12 16 818 0 0,-24-32-937 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 5-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5063.5">671 2827 12528 0 0,'0'0'2770'0'0,"1"2"-1995"0"0,1 4-391 0 0,2 7 53 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1-1 0 0 0,0 15 1 0 0,-6 344 875 0 0,-3-260-1260 0 0,7-83-63 0 0,0-26-102 0 0,0-4-1620 0 0,2-6 1354 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2-13 1 0 0,-6-28-665 0 0,-2-11 840 0 0,6 40 202 0 0,1 1 1 0 0,-1-37-1 0 0,2 23 45 0 0,0-3 612 0 0,1 0-1 0 0,1-1 0 0 0,7-48 0 0 0,-4 56 119 0 0,-3 22-458 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,4-11 1 0 0,-5 18-271 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,14 9 600 0 0,-11-6-531 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,2 8 0 0 0,8 15 221 0 0,0-3 51 0 0,11 27 1 0 0,-9-18-206 0 0,-8-16-160 0 0,2 1-5 0 0,0 0-1 0 0,23 35 1 0 0,1-11-17 0 0,24 37-528 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5484.35">660 3289 13072 0 0,'0'0'3016'0'0,"7"-3"-1863"0"0,16-8-439 0 0,-1-1 1 0 0,39-28 0 0 0,-33 24-2273 0 0,-18 12 421 0 0,5-3-297 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5825.74">954 2891 5064 0 0,'5'-6'10833'0'0,"-4"10"-10510"0"0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,-1 5-1 0 0,2 22 606 0 0,11 63 1112 0 0,-9-66-1864 0 0,-2-16-84 0 0,1 0 0 0 0,3 15 0 0 0,1 4 66 0 0,-5-26-135 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,3 5 0 0 0,9 16 43 0 0,-12-20-57 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,3 3 1 0 0,1-1-14 0 0,0 1 1 0 0,0-2-1 0 0,1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1-1 0 0 0,14 5 0 0 0,-21-7-231 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,2-3 1 0 0,5 0-3606 0 0,3 2-2991 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5826.74">1252 2864 13760 0 0,'0'0'1388'0'0,"1"2"-1146"0"0,4 15 1016 0 0,0 0 0 0 0,-1 0-1 0 0,3 28 1 0 0,-2-15-660 0 0,7 55 420 0 0,13 67-528 0 0,-22-137-490 0 0,5 13 0 0 0,3 9-1798 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6209">1169 3032 6912 0 0,'2'-5'332'0'0,"-1"1"-182"0"0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3-3 0 0 0,23-21 3443 0 0,-21 19-3161 0 0,1 1 0 0 0,-1 0 0 0 0,15-10 0 0 0,1-2-80 0 0,-19 15-284 0 0,1 0 0 0 0,0 0-1 0 0,7-4 1 0 0,4-2-18 0 0,-3 3 45 0 0,23-10 0 0 0,-34 16-48 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,3 1 0 0 0,-2 1 87 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,2 3-1 0 0,1 6 243 0 0,0 0 0 0 0,-1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,3 25 0 0 0,-4-6 34 0 0,-1-16-251 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,2-1 0 0 0,0 1 0 0 0,10 23-1 0 0,-10-31-61 0 0,0 1-7 0 0,1 0 0 0 0,7 11 0 0 0,-9-17-82 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,4 3 0 0 0,-3-3 22 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0-1 1 0 0,11 0 0 0 0,-4-1-467 0 0,0 0-1 0 0,0-1 1 0 0,14-4-1 0 0,-14 3-574 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6619">1535 3206 15000 0 0,'0'0'1623'0'0,"4"-7"-1623"0"0,3 0 0 0 0,0 1 0 0 0,1-1 112 0 0,4-2-16 0 0,-5 2 0 0 0,1 0 0 0 0,7 0-16 0 0,-4-3-8 0 0,1 3 0 0 0,-1-3 0 0 0,0 3-944 0 0,-4-3-191 0 0,1-4-41 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6967.35">1531 2941 3224 0 0,'0'-14'288'0'0,"1"12"-181"0"0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 1 0 0 0,2-3 0 0 0,6-9 2935 0 0,-8 9-2544 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,4-2 1 0 0,-4 2-329 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,5 3-1 0 0,-6-3-102 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,2 4-1 0 0,9 23 640 0 0,-10-23-525 0 0,43 86 807 0 0,-35-73-1030 0 0,17 27 42 0 0,-24-37 0 0 0,-2-9-7 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,-9-8-141 0 0,8 7 143 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-3-5 0 0 0,2 5 4 0 0,-1-3 1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,0-7 0 0 0,0-7 1 0 0,1 14-8 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,0 0 1 0 0,2-7-1 0 0,1-1-17 0 0,1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 1-1 0 0,15-20 1 0 0,-21 30 14 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,3 0 0 0 0,-3 1 2 0 0,10-2-51 0 0,-4 4 48 0 0,-6-1 12 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 2 0 0 0,0 22 19 0 0,0-14 16 0 0,-1 2 22 0 0,-1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,-11 22-1 0 0,13-27 3 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 10 0 0 0,0-14-54 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,3 3-1 0 0,-2-5-6 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,6 0 0 0 0,-5 0-399 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,4-1 0 0 0,6-4-6028 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7333.76">1961 2790 14600 0 0,'0'0'1100'0'0,"0"10"-615"0"0,1 1-226 0 0,0 0 0 0 0,5 21 1 0 0,1 9 986 0 0,5 88 640 0 0,-5-68-1503 0 0,-3 6-222 0 0,-1-31-173 0 0,-3-35-50 0 0,-1-3-445 0 0,-2-8 186 0 0,1 6 200 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-7 0 0 0,-7-82-542 0 0,0-2 635 0 0,8 81 120 0 0,0 1 0 0 0,1-1 0 0 0,5-25 0 0 0,-3 18 99 0 0,-3 19-154 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,2-4-1 0 0,1 2-7 0 0,6-8 552 0 0,-9 13-555 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 1 0 0 0,1 1 62 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,2 5 0 0 0,1 2 89 0 0,-1 0-1 0 0,4 13 0 0 0,4 8 6 0 0,-9-22-170 0 0,6 9 77 0 0,13 23-1 0 0,-19-35-61 0 0,1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0-1 1 0 0,9 7 0 0 0,2 1-18 0 0,-7-5-9 0 0,0-1 0 0 0,1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,13 5 0 0 0,-5-4 4 0 0,-5-1 14 0 0,25 4-1 0 0,-34-8-14 0 0,0 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,8-2-1 0 0,-10 2 11 0 0,-1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1-1-1 0 0,-1 0 7 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-2-5 1 0 0,-1-1-47 0 0,1 2 28 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,-5-7 0 0 0,-2-3-16 0 0,1-2-278 0 0,0 0 0 0 0,-13-30-1 0 0,11 11-6465 0 0,12 27 68 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7702.67">2477 2683 14280 0 0,'0'0'1102'0'0,"0"2"-719"0"0,-1 29-63 0 0,1 33 1957 0 0,5 137 1730 0 0,-5-149-4047 0 0,0-51-30 0 0,0-2-1119 0 0,-1-13 701 0 0,-4-23-1 0 0,-1 2-149 0 0,2-1 315 0 0,0 11 308 0 0,1-1-1 0 0,2 0 1 0 0,2-31-1 0 0,1 35 130 0 0,-1 9 238 0 0,0-1 0 0 0,7-27 1 0 0,2 24 112 0 0,-6 10-196 0 0,-3 6 318 0 0,1 2-228 0 0,0 1-236 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,1 4-1 0 0,15 37 551 0 0,-4 2-425 0 0,10 28 66 0 0,8-20-325 0 0,-20-31-215 0 0,-10-20-94 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 5 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8093.67">2386 2977 12752 0 0,'0'0'1157'0'0,"2"0"-793"0"0,10-4 1208 0 0,0 0 0 0 0,20-11 0 0 0,4-1-67 0 0,14-3-1617 0 0,56-32 0 0 0,-65 24-5481 0 0,-30 17 3500 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8094.67">2719 2643 3224 0 0,'-3'-22'12792'0'0,"8"29"-11823"0"0,-1 1 1 0 0,-1 0 0 0 0,5 11 0 0 0,1 4 309 0 0,36 91 1650 0 0,-30-70-2929 0 0,-7-20 0 0 0,-6-19 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,5 8 0 0 0,-3-5-204 0 0,-3-7-856 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8468.78">2503 2724 3224 0 0,'2'-2'675'0'0,"28"-14"7145"0"0,1 2-3686 0 0,68-16-1596 0 0,-45 14-1946 0 0,35-1-628 0 0,21-2-885 0 0,-97 16 688 0 0,-10 2 181 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,6 2-1 0 0,-8-2 99 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 2 0 0 0,10 25 1010 0 0,-7-16-693 0 0,0-1 32 0 0,-2 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 18 1 0 0,-1-17-178 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,7 22 0 0 0,-6-20-197 0 0,-2-10-33 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,4 4 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8839.9">3137 2552 4144 0 0,'2'1'5806'0'0,"0"1"-5166"0"0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,2 3 1 0 0,9 28 1145 0 0,-3-11-729 0 0,51 107 1515 0 0,-48-105-2294 0 0,-3-8-80 0 0,2 0-1 0 0,17 23 1 0 0,-22-34-112 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,13 8-1 0 0,-17-12-34 0 0,-1 0 110 0 0,1-1-13 0 0,-2 1-134 0 0,1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0 5 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-3-1 0 0,4-13 127 0 0,-4 14-124 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-3 0 0 0,-3-5-2 0 0,3 8-12 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-5 1 0 0,0-2 16 0 0,0-1 0 0 0,-4-16 0 0 0,4 20-254 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 1-1 0 0,0-10 1 0 0,3-11-1135 0 0,-3 16 72 0 0,1 1 1 0 0,0-1-1 0 0,5-12 1 0 0,0 7-324 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9182.23">3488 2448 6912 0 0,'0'0'622'0'0,"8"8"1480"0"0,-6-5-1071 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 6-1 0 0,-2-5-593 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 7 1 0 0,0-3-13 0 0,1 1-1 0 0,0-1 1 0 0,2 11 0 0 0,-1-9-36 0 0,0 0 0 0 0,-1 15 0 0 0,-4-4 58 0 0,3-15-283 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 10 0 0 0,1-2-29 0 0,2 1 0 0 0,-1-1 0 0 0,2 0 0 0 0,0-1 0 0 0,9 21 0 0 0,-11-29-126 0 0,-1-1 0 0 0,1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,7 2 1 0 0,-4-2 27 0 0,-1 0-46 0 0,-1 0-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,7-2-1 0 0,3-1-593 0 0,7-3-1415 0 0,-9-3-4559 0 0,-6 0-88 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9183.23">3559 2743 8752 0 0,'1'-1'9858'0'0,"4"-2"-9384"0"0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,7-2-1 0 0,2-1-168 0 0,-2-1-453 0 0,0 0 0 0 0,20-11-1 0 0,-19 9-1339 0 0,-2 3 245 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9556.41">3570 2509 6912 0 0,'0'0'622'0'0,"2"-1"-102"0"0,6-5 2187 0 0,-7 5-2113 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,3-1 1 0 0,12-6 3151 0 0,9-3-2005 0 0,17 0-663 0 0,-11 4-7535 0 0,-17 4-503 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9897.28">1904 3468 17159 0 0,'0'0'787'0'0,"1"6"260"0"0,4 1-970 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,2 17 0 0 0,-1 28 1114 0 0,-2-18-654 0 0,1-1 1 0 0,10 47-1 0 0,0-37-424 0 0,-12-43-106 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 54 0 0,4-1 33 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,4-7 1 0 0,3-4 117 0 0,16-24 0 0 0,-18 24-152 0 0,0 0 1 0 0,13-14-1 0 0,105-102 14 0 0,-75 82-2109 0 0,-42 38-336 0 0,0 0-5059 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10270.84">2112 3631 17247 0 0,'0'2'168'0'0,"1"1"-1"0"0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,3 3 1 0 0,3 6-24 0 0,14 17 1671 0 0,-8-11-659 0 0,0-3-469 0 0,0 0 1 0 0,0-1 0 0 0,2 0 0 0 0,-1-1-1 0 0,29 18 1 0 0,-33-23-646 0 0,2 2-64 0 0,0-1 0 0 0,1-1 0 0 0,-1 0 0 0 0,28 11 0 0 0,-17-17-2706 0 0,-16-1 635 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10271.84">2485 3480 8752 0 0,'0'0'793'0'0,"0"8"1264"0"0,-4 42 5768 0 0,3-10-5612 0 0,0-18-1078 0 0,2 33 0 0 0,1-36-732 0 0,-1-4-34 0 0,6 29-1 0 0,-5-39-292 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,4 4 0 0 0,0-1-3 0 0,0 0-1 0 0,0-1 1 0 0,1 0 0 0 0,14 8-1 0 0,-17-11-71 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,9 0 0 0 0,48-5-553 0 0,-61 3 402 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,0-2-1 0 0,1 0-1269 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10631.87">2523 3716 3224 0 0,'0'-1'4595'0'0,"6"-3"-2074"0"0,-2 1-810 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,6-3 1 0 0,34-14 285 0 0,-3 2-1441 0 0,1-5-3388 0 0,-31 17-3947 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10632.87">2541 3521 10592 0 0,'16'0'7716'0'0,"1"1"-3868"0"0,5 0-3231 0 0,39-3 0 0 0,-32-1-548 0 0,-16 3-666 0 0,0-2-1 0 0,-1 0 1 0 0,17-5 0 0 0,-14 4-770 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11159.28">2858 3353 11520 0 0,'0'0'1377'0'0,"0"10"892"0"0,1 1-1074 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,6 14-1 0 0,-9-25-1116 0 0,8 17 389 0 0,1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,21 26 0 0 0,-19-26-454 0 0,7 8-25 0 0,-19-25-12 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,17-6-1174 0 0,-16 5 606 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,4-4 0 0 0,14-24-4169 0 0,-19 29 4489 0 0,1-3-220 0 0,0 1 0 0 0,-1-1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-5 0 0 0,1-5 88 0 0,0 10-1580 0 0,-3-11 12720 0 0,-2 20-8869 0 0,3-1-1643 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 7-1 0 0,-1 10 349 0 0,-25 151 2565 0 0,24-154-2791 0 0,0 23 0 0 0,-2 16-110 0 0,1-26-346 0 0,2-1 0 0 0,1 32 0 0 0,1-57 12 0 0,0-1-145 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,1 2 1 0 0,3 10-7499 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11518.34">3970 2240 16128 0 0,'2'2'1241'0'0,"68"50"204"0"0,-52-37-662 0 0,5 3 187 0 0,-2 1 0 0 0,0 0 0 0 0,24 31 0 0 0,-16-11 111 0 0,44 76 0 0 0,-59-88-909 0 0,-1 1 0 0 0,-1 0 1 0 0,-2 1-1 0 0,8 34 1 0 0,-7-9-150 0 0,-3 2 0 0 0,-2-1 0 0 0,-2 1 0 0 0,-3 0 1 0 0,-2-1-1 0 0,-10 58 0 0 0,4-72-23 0 0,-20 66 0 0 0,6-34 0 0 0,9-31-656 0 0,-1-1 0 0 0,-3-1-1 0 0,-1 0 1 0 0,-23 37 0 0 0,14-35-7822 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11908.3">238 2757 11744 0 0,'-13'-3'538'0'0,"11"2"-8"0"0,0 1-340 0 0,-3 0-36 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,-6 3-1 0 0,4 0 219 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-6 8 0 0 0,-2 7 512 0 0,2 0 0 0 0,0 1 0 0 0,-11 30 0 0 0,18-42-883 0 0,-7 20 453 0 0,2 0 0 0 0,0 1 1 0 0,-4 41-1 0 0,-2 95 547 0 0,15-130-860 0 0,1-1 0 0 0,10 60 0 0 0,27 69 6 0 0,-29-132-143 0 0,2-1 0 0 0,1 0 0 0 0,2-1 0 0 0,1-1 0 0 0,1 0 0 0 0,2-1 0 0 0,23 29 0 0 0,-21-33-2321 0 0,1-1-1 0 0,29 24 1 0 0,-10-14-5182 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19777,27 +19838,27 @@
       <inkml:brushProperty name="color" value="#008C3A"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">368 219 10680 0 0,'0'0'1072'0'0,"-1"-7"-968"0"0,1 6-25 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,-2 1-1 0 0,3-1-13 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,1 1-21 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,-6-1 544 0 0,3-1-400 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-5 3 1 0 0,-2 3 117 0 0,1-1 1 0 0,0 1-1 0 0,-13 15 0 0 0,-17 20 155 0 0,-44 54-8 0 0,72-82-465 0 0,1-2-1 0 0,1 3 1 0 0,1-1 0 0 0,0 1 0 0 0,-8 23-1 0 0,16-38 13 0 0,-8 22 4 0 0,0 0 1 0 0,-6 39-1 0 0,13-55 33 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-2 0 0 0,1 1 1 0 0,3 6-1 0 0,18 26 48 0 0,3-1 0 0 0,36 39-1 0 0,-45-57-46 0 0,0-2 0 0 0,1 0-1 0 0,0 0 1 0 0,2-2 0 0 0,29 16-1 0 0,-42-26-30 0 0,0-2 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,1 2 0 0 0,-1-3 0 0 0,11 1 0 0 0,-7-1-8 0 0,-1-1 0 0 0,1-2 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,11-5 0 0 0,-16 3 76 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,11-13-1 0 0,11-11 96 0 0,-18 22-322 0 0,-1-2 0 0 0,0 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,9-15 1 0 0,-14 21 219 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,-1 1 0 0 0,1 1 0 0 0,-2-2 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1-12 0 0 0,0 13-67 0 0,1 2 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-2-2 0 0 0,3 3 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-2 0 0 0,1 2 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 2 0 0 0,1-2 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-3 1 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 3 0 0 0,1 0 2 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-2-1 0 0,0 1 1 0 0,1-1-1 0 0,5 8 0 0 0,-3-5-32 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,1-2 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2-1 0 0,1 0 1 0 0,9 4 0 0 0,-12-6 31 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1-2 0 0 0,-1 2-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-2 1 0 0,-1 1 0 0 0,1 1-1 0 0,-1-2 1 0 0,0 1-1 0 0,5-9 1 0 0,-6 9-3 0 0,2-3 1 0 0,0 1 0 0 0,-1 0 0 0 0,5-10-1 0 0,-8 13 4 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-2 1 0 0 0,1-5 0 0 0,-2-6 41 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-2-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,-1 1-1 0 0,-13-21 1 0 0,12 21-41 0 0,-1 1 0 0 0,-11-13 0 0 0,15 20 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 2 0 0 0,-10-5 0 0 0,6 2 0 0 0,0 2 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-11 0 0 0 0,16 2 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,-6 4 0 0 0,9-5-48 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,-2 3-1 0 0,3-3-338 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0 3-1 0 0,3 7-6774 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="511.86">918 589 18055 0 0,'0'0'1364'0'0,"1"10"-769"0"0,3 8-748 0 0,-3-10 502 0 0,1 2-1 0 0,0-1 1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,8 13 1 0 0,-7-14-274 0 0,1 2 0 0 0,-2-1 0 0 0,1 2 0 0 0,-1-2 0 0 0,5 21 0 0 0,-7-27-75 0 0,-1 1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-3 9 1 0 0,2-7-15 0 0,1-5-56 0 0,-4-14-524 0 0,3 12 590 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-2-1 0 0,1-13 3 0 0,1 1 0 0 0,1 1-1 0 0,0-2 1 0 0,1 1 0 0 0,0 1 0 0 0,1 0-1 0 0,11-22 1 0 0,-6 10 0 0 0,3-2 254 0 0,30-52 0 0 0,-40 76-196 0 0,-1-1 0 0 0,1 2 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-2 0 0 0,0 1 0 0 0,6-2 0 0 0,-8 4-56 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 2-1 0 0,2 2 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 9 0 0 0,7 38 0 0 0,-8-30 0 0 0,-1 2 0 0 0,1 4 0 0 0,8 15 0 0 0,3 6-4592 0 0,-11-39 2928 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="919.34">1416 455 9216 0 0,'0'0'706'0'0,"-12"8"-260"0"0,8-5 196 0 0,1-2-259 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 2-1 0 0,1-2 0 0 0,-1 0 0 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 1 1 0 0,1-1-1 0 0,-3 4 0 0 0,0 9 195 0 0,-1-1 0 0 0,2 2 1 0 0,0-2-1 0 0,1 1 0 0 0,0 1 0 0 0,1-1 0 0 0,1 1 0 0 0,1-2 1 0 0,0 2-1 0 0,5 24 0 0 0,-5-36-576 0 0,0 0-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,2-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,4 4 1 0 0,-1-2-2 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,11 5-1 0 0,-12-7 3 0 0,1-1 0 0 0,0 2-1 0 0,0-2 1 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,7-1-1 0 0,19-5 265 0 0,-25 7-284 0 0,1-1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,11-8 0 0 0,3-6-14 0 0,-12 11-154 0 0,-1 0-1 0 0,0 0 1 0 0,-1-2-1 0 0,15-17 1 0 0,-18 19 111 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-11-1 0 0,0 17 75 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-2 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-6 4 0 0 0,2 2 44 0 0,0-2-1 0 0,0 2 0 0 0,0 0 1 0 0,1 0-1 0 0,-6 10 0 0 0,7-9 162 0 0,1-3-50 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-3 9 0 0 0,6-13-140 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,2 1 0 0 0,1 2 3 0 0,0-1-1 0 0,1 2 1 0 0,0-2-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,8 3 1 0 0,5 1 96 0 0,36 7 0 0 0,52 1-1548 0 0,-93-14-213 0 0,-2-1-88 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1421.4">2052 536 15664 0 0,'-8'7'452'0'0,"6"-6"-369"0"0,1 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 2 1 0 0,1-2-1 0 0,-2 3 1 0 0,-8 27 1768 0 0,-8 46-1 0 0,15-59-1092 0 0,1 1-1 0 0,0 20 0 0 0,10 87-586 0 0,-1-43-172 0 0,-7-61 257 0 0,1 14-4192 0 0,3-54 3597 0 0,0-29-216 0 0,-2-1-1 0 0,-2 2 0 0 0,-8-61 0 0 0,3 55 619 0 0,2-1 0 0 0,5-63-1 0 0,-1 111 39 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,5-6 0 0 0,-6 9-59 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-2-1 0 0,-1 2 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,2-1-1 0 0,-1 2 15 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 1 0 0,1-2-1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,3 3 0 0 0,2 0 42 0 0,-1 3 0 0 0,1-2 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 2-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,3 12 0 0 0,-3-4 199 0 0,-1-7-46 0 0,-1-1 0 0 0,0 2 1 0 0,-1-2-1 0 0,1 1 0 0 0,-1 11 0 0 0,1 9-87 0 0,-1-24-165 0 0,-1 0 0 0 0,1 0 0 0 0,-1 2 0 0 0,0-2 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-3 8 0 0 0,0-5 5 0 0,0 1 1 0 0,0-2-1 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-12 7 1 0 0,-22 7-3657 0 0,35-15 1631 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1766.28">2359 212 17071 0 0,'1'3'138'0'0,"-1"0"0"0"0,0 0 0 0 0,1 2-1 0 0,-1-2 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-2 4 0 0 0,-3 17-195 0 0,-20 87 4170 0 0,14-63-3682 0 0,9-36-278 0 0,2 1 0 0 0,-1 0 0 0 0,2 20 0 0 0,-2 9 707 0 0,2-31-813 0 0,-1 2 0 0 0,1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-2 0 0 0,2 1 0 0 0,-1 1-1 0 0,1-2 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,7 12 1 0 0,-8-18-52 0 0,0-2-4 0 0,-1 1 1 0 0,1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,4 3-1 0 0,10 5-3352 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2125.3">2215 582 13824 0 0,'0'0'1388'0'0,"2"-1"-1276"0"0,18-6 457 0 0,23-9 0 0 0,-24 7 215 0 0,0 2 1 0 0,22-6-1 0 0,60-14 1746 0 0,-88 22-2095 0 0,-6 3 25 0 0,1 0 1 0 0,14-3-1 0 0,-20 5-440 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,3 3 1 0 0,0-1-20 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 8 0 0 0,2 6 0 0 0,1 0 0 0 0,2-1 0 0 0,12 26 0 0 0,-11-25 0 0 0,-7-16 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-2 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-2 0 0 0,0 1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,5-5 0 0 0,-5 4 93 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-2 0 0 0,0 1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1-2 0 0 0,0 2 0 0 0,1-6-1 0 0,2-10 418 0 0,3-26 0 0 0,-8 44-510 0 0,0 1 0 0 0,0-2 0 0 0,0 2 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-2-2 0 0 0,-2-16 0 0 0,4 19 80 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,-1-3 0 0 0,-1-3-1384 0 0,2-1-5336 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2640.19">3022 476 5528 0 0,'0'-3'9085'0'0,"-1"4"-8760"0"0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 2-1 0 0,0-2 0 0 0,-1 1 0 0 0,-2-1 1 0 0,4 1-26 0 0,-2 0-86 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-2 2 0 0 0,-16 33 1703 0 0,11-20-1530 0 0,5-11-385 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 2 0 0 0,0-2 1 0 0,1 1-1 0 0,0 1 0 0 0,0-2 1 0 0,0 1-1 0 0,0 1 0 0 0,1-1 1 0 0,0 1-1 0 0,2 8 0 0 0,-1-13-2 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 2 0 0 0,1-2 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,2 1 0 0 0,9 9 0 0 0,-11-10 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,3 0 0 0 0,0 1-77 0 0,-1-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,4-7-1 0 0,1-1-351 0 0,-1-2-1 0 0,-1 2 1 0 0,0-2-1 0 0,6-19 0 0 0,-4-6-80 0 0,-8 31 480 0 0,0 7 30 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 6 0 0 0,4 14 276 0 0,-2-12-127 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,3 9 0 0 0,-4-14-130 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 2 0 0 0,0-2 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,5 1 0 0 0,-4-2 28 0 0,0 1 0 0 0,0-1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,5-2 0 0 0,1 0-55 0 0,1-1 1 0 0,13-6 0 0 0,17-3-56 0 0,-32 10 72 0 0,0-2-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 1 0 0,-2-1-1 0 0,1 1 0 0 0,-1-2 1 0 0,0 0-1 0 0,0 1 0 0 0,0-2 0 0 0,-1 1 1 0 0,6-10-1 0 0,0-1 2 0 0,-1-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-1 0-1 0 0,11-36 1 0 0,-13 34-26 0 0,-2 6 51 0 0,0 0 0 0 0,-1 2 0 0 0,-1-2 0 0 0,2-17 0 0 0,-4 30-40 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,-3-1 0 0 0,3 3 54 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-5 2 1 0 0,4-1 16 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 2 0 0 0,-1-2 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,-2 6 0 0 0,1 1 34 0 0,1 0 0 0 0,0 0-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,1-1 0 0 0,1 16 0 0 0,2 11 432 0 0,10 44 0 0 0,-12-81-520 0 0,2 14 1 0 0,1-2 0 0 0,0 2 0 0 0,2-1 1 0 0,-1 0-1 0 0,2-2 0 0 0,-1 1 1 0 0,2-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1-1-1 0 0,0 1 0 0 0,1-2 1 0 0,0 1-1 0 0,21 15 0 0 0,-19-17-1379 0 0,-1-2 0 0 0,1 1 0 0 0,1-2 0 0 0,-1 0 0 0 0,17 6 0 0 0,-13-7-6152 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3183.89">4171 622 15120 0 0,'0'0'340'0'0,"2"0"50"0"0,75-8 626 0 0,-39 6 1181 0 0,56-10-1 0 0,-56 6-1149 0 0,57-2 1 0 0,-75 8-919 0 0,-11 1-125 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0-1-1 0 0,0 1 1 0 0,16-7-1 0 0,-24 7-4 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1-1 0 0 0,-2 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-3 0 0 0,-2 1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-6-3 0 0 0,0 1 0 0 0,-11-4 0 0 0,-1 1 0 0 0,-35-7 0 0 0,45 12 0 0 0,90 5 0 0 0,-21 4 0 0 0,-37-6 0 0 0,0 1 0 0 0,0 1 0 0 0,35 11 0 0 0,-42-10 0 0 0,-10-4 0 0 0,0 0 0 0 0,0 0 0 0 0,0 2 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 2 0 0 0,3 3 0 0 0,-1-1 0 0 0,0 2 0 0 0,-8 0 0 0 0,1-4 140 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,-6 3-1 0 0,-17 12-109 0 0,22-7-3218 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4133.96">5228 123 11976 0 0,'15'0'546'0'0,"-12"0"-10"0"0,-20-10-150 0 0,15 10-133 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-3 2 0 0 0,2 0-3 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 2 1 0 0,0-1 0 0 0,-3 3 0 0 0,-2 7 200 0 0,0-1 0 0 0,0 1 0 0 0,-10 22 1 0 0,18-34-433 0 0,-6 14 140 0 0,0-2-1 0 0,2 2 0 0 0,-1 1 0 0 0,2-1 0 0 0,0 0 1 0 0,0 0-1 0 0,2 1 0 0 0,0 0 0 0 0,1 28 0 0 0,1-39-175 0 0,0 1 0 0 0,0-2 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 2 1 0 0,0-2 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,4 3-1 0 0,10 20-65 0 0,-8-12 102 0 0,-5-9 6 0 0,-1-1 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 0 0 0 0,8 9 1 0 0,-1-3-5 0 0,1-1 0 0 0,0 0 1 0 0,0-2-1 0 0,16 11 0 0 0,-21-16-22 0 0,0 0-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,12-1 0 0 0,-14 1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,4-4 0 0 0,-2 2 0 0 0,0 1 0 0 0,0-2 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,4-11 0 0 0,21-43 0 0 0,-27 56 1 0 0,-1 0-1 0 0,0-2 1 0 0,0 2-1 0 0,0-1 1 0 0,0-8-1 0 0,4-13-32 0 0,-4 22-89 0 0,0-2 0 0 0,0 2 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-9 0 0 0,0 11 39 0 0,0 2 395 0 0,-8 20 38 0 0,6-10-340 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0-1 0 0,1 1 1 0 0,0-2 0 0 0,0 2-1 0 0,1 0 1 0 0,0-2 0 0 0,1 2-1 0 0,0-2 1 0 0,1 1 0 0 0,4 12-1 0 0,-5-16-10 0 0,0-1 0 0 0,1 2 0 0 0,0-2 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-2 0 0 0,9 10 0 0 0,-8-11 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,8 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,15-4 0 0 0,-21 3-3 0 0,-1-2 0 0 0,0 2-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0-2 1 0 0,0 2-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,4-9 1 0 0,5-10 56 0 0,-11 21-51 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-2 0 0 0,-1 2 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-5 0 0 0,0 5-2 0 0,-1-5 0 0 0,0-2 0 0 0,0 1 0 0 0,-1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-5-12 0 0 0,3 12 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-4-10 0 0 0,6 15 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-7-1 0 0 0,0-3 0 0 0,7 5 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-2 1 0 0 0,-4 2 0 0 0,1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,-6 8 0 0 0,10-12-296 0 0,1 0-1 0 0,-1 0 0 0 0,1 2 0 0 0,0-2 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 7 0 0 0,1 1-887 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4773.78">6054 317 13760 0 0,'0'0'629'0'0,"-5"1"212"0"0,-6 1-278 0 0,-1 2-1 0 0,1-1 1 0 0,0 0-1 0 0,0 2 0 0 0,1-1 1 0 0,-14 10-1 0 0,22-13-465 0 0,-10 5 392 0 0,1 1 0 0 0,0 0 0 0 0,0 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-8 11-1 0 0,16-18-476 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-2 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 4 0 0 0,21 43-13 0 0,-22-50 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 2 0 0 0,-1-2 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,3-1 0 0 0,27-15 0 0 0,-5 3 0 0 0,-25 12 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,6 1 0 0 0,-8 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 2 0 0 0,8 14 0 0 0,-7-13 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,3 14 0 0 0,-5-17 0 0 0,3 18 0 0 0,0 0 0 0 0,-2 1 0 0 0,0-1 0 0 0,-2 0 0 0 0,-2 29 0 0 0,1-42 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-2 0 0 0,-5 13 0 0 0,6-16 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-8 4 0 0 0,9-6 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-3-1 0 0 0,3 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-3 0 0 0,1-5 0 0 0,1-2 0 0 0,-1 0 0 0 0,9-17 0 0 0,-5 11 0 0 0,15-38 0 0 0,4-11 0 0 0,-3-8 0 0 0,45-104 0 0 0,-57 152 0 0 0,-7 19 0 0 0,1-2 0 0 0,0 2 0 0 0,10-16 0 0 0,-14 23 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-2 0 0 0,1 2 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 2 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,2 7 0 0 0,0 0 0 0 0,1 1 0 0 0,0-2 0 0 0,0 2 0 0 0,1-2 0 0 0,0 0 0 0 0,12 16 0 0 0,-9-15 0 0 0,0-2 0 0 0,1 0 0 0 0,0 1 0 0 0,19 11 0 0 0,-7-4 0 0 0,-18-15 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,4-1 0 0 0,-4 1 0 0 0,12 0 0 0 0,-11-3 0 0 0,-1 1 0 0 0,-1 1-45 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,3-3-1 0 0,5-2-7732 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5337.92">6589 293 11344 0 0,'0'0'1030'0'0,"-8"0"-828"0"0,4 1 85 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 6 1 0 0,-1-1 321 0 0,1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1-1 0 0,0-1 1 0 0,1 10 0 0 0,0-14-609 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-2 0 0 0,-1 1 1 0 0,0-1-1 0 0,5 0 0 0 0,-3 0-12 0 0,-1-1 1 0 0,1 1-1 0 0,0-2 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,-1 0 0 0 0,7-7 1 0 0,0-2-61 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,8-18 0 0 0,-4 0-683 0 0,-11 23 585 0 0,-6 22 180 0 0,4-7 161 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,2 14 0 0 0,-1-19-165 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,0 2 0 0 0,-1-2 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,4 3-1 0 0,-3-2-6 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,9 1-1 0 0,10 2 0 0 0,-17-3 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,7-1 0 0 0,10-3 0 0 0,-9 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,17-7 0 0 0,-4 1 0 0 0,-20 7 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,9-7 0 0 0,-5 3 0 0 0,16-13 0 0 0,-24 17 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-3 0 0 0,0 0 47 0 0,-1 2-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-2 1 0 0,-1 1-1 0 0,1 1 1 0 0,0-1-1 0 0,-5-2 0 0 0,2-1 56 0 0,-1 2 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,-12-3 0 0 0,0 2-136 0 0,6 0-40 0 0,-1-1 1 0 0,1 3 0 0 0,-1-1-1 0 0,-23 2 1 0 0,26 1-206 0 0,-12 1-1618 0 0,10 2-3630 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5880.38">7374 370 13824 0 0,'23'-1'1902'0'0,"40"2"1"0"0,-53 0-885 0 0,-1-1 0 0 0,18-2 0 0 0,9 1 128 0 0,-16 1-338 0 0,32-3 0 0 0,6-2-742 0 0,96-5-66 0 0,-43 8 0 0 0,143-21 0 0 0,-206 12 11 0 0,-43 10-49 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-2-1 0 0,0 0 1 0 0,1 1 0 0 0,5-6-1 0 0,-9 8 43 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-2 1 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-2 0 0 0 0,-1-2 34 0 0,-1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-8-4-1 0 0,5 2-99 0 0,-7-3 61 0 0,0 1 0 0 0,0 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 2 0 0 0,-23-3 0 0 0,-15-1 0 0 0,80 7 0 0 0,0 3 0 0 0,0 0 0 0 0,-1 0 0 0 0,52 17 0 0 0,-77-20 8 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 1 0 0 0,-3 1 363 0 0,3 10 1069 0 0,-4-9-1432 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 2 1 0 0,1-2 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1-1 1 0 0,-4 5 0 0 0,-16 11-8 0 0,5-3 0 0 0,0-1 0 0 0,-25 13 0 0 0,40-25-135 0 0,-8 3-2523 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6461.27">8877 11 14280 0 0,'-4'-4'261'0'0,"3"3"-169"0"0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,-1-1-1 0 0,1 1 164 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 2 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-5 31 795 0 0,5-27-650 0 0,-9 200 1944 0 0,10-192-2312 0 0,3 25-1 0 0,-2-28-471 0 0,0-1 0 0 0,-1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,-1 14 0 0 0,-4-7-5615 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6834.78">8388 190 16008 0 0,'0'0'1451'0'0,"8"-3"-403"0"0,37-5 1503 0 0,28-12-1362 0 0,80-8 0 0 0,27-8-1106 0 0,-3 3-1981 0 0,-155 30 587 0 0,1 0 136 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7221.87">8538 368 10592 0 0,'0'0'80'0'0,"0"1"-1"0"0,0-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,26-7 3540 0 0,-13 4-2405 0 0,18-2-38 0 0,20-6-371 0 0,-16 2-369 0 0,109-36-193 0 0,-119 37-982 0 0,35-8-1 0 0,-34 13-112 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12219.56">9168 159 15464 0 0,'0'0'1399'0'0,"-1"1"-1153"0"0,-1 2 174 0 0,1 2 0 0 0,-1-2 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 2 0 0 0,-1 5 0 0 0,0 0 681 0 0,1-3-603 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,0 0 1 0 0,1 12-1 0 0,0-14-495 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 2 1 0 0,-1-2 0 0 0,0 0 0 0 0,0 1 0 0 0,-3 7-1 0 0,-4 19-1 0 0,2 3-1384 0 0,8-23-247 0 0,0-5-79 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12627.91">9431 172 13824 0 0,'0'0'674'0'0,"-7"4"40"0"0,6-3-657 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,1 1 1 0 0,2 3 193 0 0,0 1 0 0 0,0-2 1 0 0,1 1-1 0 0,9 7 0 0 0,11 6-81 0 0,-17-14-136 0 0,0 1 0 0 0,11 11 0 0 0,-9-9-38 0 0,-8-5 48 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 3 0 0 0,0-1 282 0 0,-1-2-225 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 2-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1 0-1 0 0,-7 17 492 0 0,0-5-575 0 0,4-13-18 0 0,2 0 1 0 0,-25 17 0 0 0,8-7 0 0 0,17-9-2 0 0,-6 0-19 0 0,2 0-20 0 0,4-1-296 0 0,2-1 177 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-2-153 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,2-2 0 0 0,5-6-5140 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12990.19">9628 215 17503 0 0,'-2'3'124'0'0,"-3"2"176"0"0,2 2-1 0 0,-1-2 0 0 0,1 1 1 0 0,-1 1-1 0 0,-2 10 0 0 0,-3 0 817 0 0,7-15-858 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 3 1 0 0,0-4 802 0 0,0 10-509 0 0,1-9-503 0 0,2 12-198 0 0,-1-12 162 0 0,1 2-1241 0 0,1 8 496 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13376.55">9590 11 18167 0 0,'0'0'2920'0'0,"11"0"-8495"0"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13810.82">9902 222 6912 0 0,'0'-21'928'0'0,"-2"-2"2785"0"0,-15 17 1860 0 0,14 7-5136 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-4 5 1 0 0,-26 16 1801 0 0,33-22-2234 0 0,-27 24 210 0 0,18-14-214 0 0,9-4 0 0 0,1-4 0 0 0,-2-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,2 2 0 0 0,1 4 0 0 0,4 9 0 0 0,-2-13 0 0 0,-3-3 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3 2 0 0 0,-1-1 8 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,7-1-1 0 0,4-1-623 0 0,25-4 0 0 0,-37 5 389 0 0,0-1 78 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,6-7-1 0 0,-4 3-176 0 0,-2 2 290 0 0,0 1 0 0 0,-1-2 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,4-10 0 0 0,-3 7 1560 0 0,-5 9-1492 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 2-1 0 0,0-2 0 0 0,0 1 0 0 0,0 1 1 0 0,3 9-25 0 0,-2-5-5 0 0,1-1 0 0 0,0 2-1 0 0,0-1 1 0 0,5 10-1 0 0,-6-15-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-2 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,4 2 0 0 0,-1-1 102 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,7-2 0 0 0,-4 1-25 0 0,1 0-1 0 0,14-4 1 0 0,-17 6-48 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 0 0 0,6-4 0 0 0,-10 5-29 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-2 0 0 0,0 2 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-2 0 0 0,1 1 0 0 0,-1 1 0 0 0,0-4 0 0 0,-5-7 0 0 0,-4 1 150 0 0,8 7-31 0 0,0 2 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 1 1 0 0,-1-2 0 0 0,-5-1-1 0 0,-1 2-294 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1 0 1 0 0,-22 2-1 0 0,10-1-2773 0 0,14 0 1416 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15092.01">9261 45 15664 0 0,'-14'1'171'0'0,"6"-1"134"0"0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-14-2-1 0 0,-4 0-612 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">368 208 10680 0 0,'0'0'1072'0'0,"-1"-7"-968"0"0,1 6-25 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,-2 1-1 0 0,3-1-13 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,1 1-21 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,-6-1 544 0 0,3-1-400 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-5 3 1 0 0,-2 2 117 0 0,1 0 1 0 0,0 0-1 0 0,-13 15 0 0 0,-17 19 155 0 0,-44 51-8 0 0,72-78-465 0 0,1-1-1 0 0,1 2 1 0 0,1-1 0 0 0,0 1 0 0 0,-8 22-1 0 0,16-36 13 0 0,-8 21 4 0 0,0 0 1 0 0,-6 37-1 0 0,13-53 33 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,3 5-1 0 0,18 25 48 0 0,3-1 0 0 0,36 38-1 0 0,-45-55-46 0 0,0-2 0 0 0,1 0-1 0 0,0 0 1 0 0,2-2 0 0 0,29 16-1 0 0,-42-26-30 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-2 0 0 0,11 1 0 0 0,-7-1-8 0 0,-1-1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 0 0 0 0,11-5 0 0 0,-16 4 76 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 0 0 0 0,11-12-1 0 0,11-10 96 0 0,-18 20-322 0 0,-1-1 0 0 0,0-1-1 0 0,-1 1 1 0 0,0-2-1 0 0,9-13 1 0 0,-14 19 219 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-2-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1-11 0 0 0,0 13-67 0 0,1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-2-2 0 0 0,3 3 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-3 1 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 3 0 0 0,1-1 2 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,5 7 0 0 0,-3-4-32 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,9 3 0 0 0,-12-5 31 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-2 1 0 0,0 1-1 0 0,5-8 1 0 0,-6 8-3 0 0,2-2 1 0 0,0 0 0 0 0,-1 0 0 0 0,5-9-1 0 0,-8 12 4 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,1-5 0 0 0,-2-5 41 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-2-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-1 1-1 0 0,-13-21 1 0 0,12 21-41 0 0,-1 0 0 0 0,-11-11 0 0 0,15 18 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 2 0 0 0,-10-5 0 0 0,6 3 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-11 0 0 0 0,16 2 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,-6 5 0 0 0,9-5-48 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,-2 3-1 0 0,3-4-338 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0 2-1 0 0,3 8-6774 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="511.86">918 559 18055 0 0,'0'0'1364'0'0,"1"9"-769"0"0,3 8-748 0 0,-3-9 502 0 0,1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,8 13 1 0 0,-7-13-274 0 0,1 1 0 0 0,-2 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,5 19 0 0 0,-7-25-75 0 0,-1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-3 8 1 0 0,2-6-15 0 0,1-5-56 0 0,-4-14-524 0 0,3 12 590 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-2-1 0 0,1-12 3 0 0,1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,0 1 0 0 0,1-1-1 0 0,11-20 1 0 0,-6 10 0 0 0,3-3 254 0 0,30-49 0 0 0,-40 72-196 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,6-2 0 0 0,-8 4-56 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 2-1 0 0,2 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,3 8 0 0 0,7 37 0 0 0,-8-30 0 0 0,-1 3 0 0 0,1 4 0 0 0,8 14 0 0 0,3 5-4592 0 0,-11-36 2928 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="919.35">1416 432 9216 0 0,'0'0'706'0'0,"-12"7"-260"0"0,8-4 196 0 0,1-2-259 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-3 4 0 0 0,0 8 195 0 0,-1-1 0 0 0,2 2 1 0 0,0-1-1 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,5 23 0 0 0,-5-35-576 0 0,0 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,2 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,4 4 1 0 0,-1-3-2 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,11 6-1 0 0,-12-7 3 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,7-1-1 0 0,19-4 265 0 0,-25 6-284 0 0,1-1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,11-8 0 0 0,3-5-14 0 0,-12 11-154 0 0,-1-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,15-17 1 0 0,-18 19 111 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-10-1 0 0,0 16 75 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-2 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-6 4 0 0 0,2 1 44 0 0,0-1-1 0 0,0 2 0 0 0,0-1 1 0 0,1 1-1 0 0,-6 9 0 0 0,7-9 162 0 0,1-2-50 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-3 8 0 0 0,6-12-140 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,2 1 0 0 0,1 2 3 0 0,0-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,8 3 1 0 0,5 0 96 0 0,36 8 0 0 0,52 0-1548 0 0,-93-13-213 0 0,-2-1-88 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1421.4">2052 509 15664 0 0,'-8'6'452'0'0,"6"-5"-369"0"0,1 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-2 3 1 0 0,-8 26 1768 0 0,-8 43-1 0 0,15-56-1092 0 0,1 1-1 0 0,0 19 0 0 0,10 82-586 0 0,-1-40-172 0 0,-7-58 257 0 0,1 13-4192 0 0,3-51 3597 0 0,0-28-216 0 0,-2 0-1 0 0,-2 1 0 0 0,-8-57 0 0 0,3 51 619 0 0,2 0 0 0 0,5-60-1 0 0,-1 105 39 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,5-5 0 0 0,-6 8-59 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,2-1-1 0 0,-1 2 15 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,3 3 0 0 0,2 0 42 0 0,-1 2 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,3 12 0 0 0,-3-3 199 0 0,-1-8-46 0 0,-1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 10 0 0 0,1 8-87 0 0,-1-22-165 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3 7 0 0 0,0-4 5 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-12 6 1 0 0,-22 7-3657 0 0,35-14 1631 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1766.28">2359 201 17071 0 0,'1'3'138'0'0,"-1"0"0"0"0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-2 4 0 0 0,-3 15-195 0 0,-20 84 4170 0 0,14-61-3682 0 0,9-33-278 0 0,2 0 0 0 0,-1 0 0 0 0,2 20 0 0 0,-2 7 707 0 0,2-28-813 0 0,-1 1 0 0 0,1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,2 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,7 12 1 0 0,-8-17-52 0 0,0-2-4 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,4 2-1 0 0,10 6-3352 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2125.3">2215 552 13824 0 0,'0'0'1388'0'0,"2"-1"-1276"0"0,18-5 457 0 0,23-10 0 0 0,-24 8 215 0 0,0 1 1 0 0,22-5-1 0 0,60-14 1746 0 0,-88 22-2095 0 0,-6 2 25 0 0,1 0 1 0 0,14-3-1 0 0,-20 5-440 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,3 2 1 0 0,0 0-20 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 7 0 0 0,2 6 0 0 0,1 0 0 0 0,2-1 0 0 0,12 25 0 0 0,-11-24 0 0 0,-7-15 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,5-4 0 0 0,-5 3 93 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-5-1 0 0,2-10 418 0 0,3-25 0 0 0,-8 42-510 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-2-2 0 0 0,-2-14 0 0 0,4 17 80 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,-1-3 0 0 0,-1-2-1384 0 0,2-2-5336 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2640.19">3022 452 5528 0 0,'0'-3'9085'0'0,"-1"4"-8760"0"0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,-2-1 1 0 0,4 1-26 0 0,-2 0-86 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-2 2 0 0 0,-16 31 1703 0 0,11-19-1530 0 0,5-10-385 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,2 9 0 0 0,-1-14-2 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,2 1 0 0 0,9 8 0 0 0,-11-9 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,3 0 0 0 0,0 1-77 0 0,-1-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,4-6-1 0 0,1-2-351 0 0,-1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,6-18 0 0 0,-4-6-80 0 0,-8 29 480 0 0,0 7 30 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 6 0 0 0,4 13 276 0 0,-2-12-127 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,3 8 0 0 0,-4-13-130 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,5 1 0 0 0,-4-2 28 0 0,0 1 0 0 0,0-1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,5-2 0 0 0,1 0-55 0 0,1-1 1 0 0,13-5 0 0 0,17-4-56 0 0,-32 10 72 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-2-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,6-9-1 0 0,0-1 2 0 0,-1-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-1 0-1 0 0,11-34 1 0 0,-13 32-26 0 0,-2 6 51 0 0,0 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,2-16 0 0 0,-4 28-40 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,-3-1 0 0 0,3 3 54 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-5 2 1 0 0,4-1 16 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,-2 5 0 0 0,1 2 34 0 0,1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,1 0 0 0 0,1 14 0 0 0,2 11 432 0 0,10 42 0 0 0,-12-77-520 0 0,2 13 1 0 0,1-1 0 0 0,0 1 0 0 0,2-1 1 0 0,-1 0-1 0 0,2-1 0 0 0,-1 0 1 0 0,2 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 0-1 0 0,0 0 0 0 0,1-1 1 0 0,0 0-1 0 0,21 15 0 0 0,-19-17-1379 0 0,-1-1 0 0 0,1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,17 5 0 0 0,-13-6-6152 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3183.89">4171 590 15120 0 0,'0'0'340'0'0,"2"0"50"0"0,75-7 626 0 0,-39 5 1181 0 0,56-10-1 0 0,-56 7-1149 0 0,57-3 1 0 0,-75 8-919 0 0,-11 1-125 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0-1-1 0 0,0 1 1 0 0,16-6-1 0 0,-24 6-4 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1-1 0 0 0,-2 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-2 0 0 0,-2 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-6-3 0 0 0,0 1 0 0 0,-11-3 0 0 0,-1 0 0 0 0,-35-6 0 0 0,45 11 0 0 0,90 5 0 0 0,-21 3 0 0 0,-37-5 0 0 0,0 1 0 0 0,0 1 0 0 0,35 10 0 0 0,-42-9 0 0 0,-10-4 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,3 4 0 0 0,-1-1 0 0 0,0 1 0 0 0,-8 1 0 0 0,1-4 140 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,-6 2-1 0 0,-17 12-109 0 0,22-6-3218 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4133.97">5227 117 11976 0 0,'15'0'546'0'0,"-12"0"-10"0"0,-20-10-150 0 0,15 10-133 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-3 2 0 0 0,2 0-3 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0 0 0 0 0,-3 3 0 0 0,-2 6 200 0 0,0 0 0 0 0,0 0 0 0 0,-9 21 1 0 0,17-32-433 0 0,-6 13 140 0 0,0-1-1 0 0,2 1 0 0 0,-1 1 0 0 0,2-1 0 0 0,0 1 1 0 0,0-1-1 0 0,2 1 0 0 0,0 0 0 0 0,1 27 0 0 0,1-37-175 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4 4-1 0 0,10 19-65 0 0,-9-12 102 0 0,-4-9 6 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,8 8 1 0 0,-1-3-5 0 0,1 0 0 0 0,0-1 1 0 0,0-1-1 0 0,16 10 0 0 0,-21-15-22 0 0,0 0-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,12-1 0 0 0,-14 1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,4-3 0 0 0,-2 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,4-10 0 0 0,21-41 0 0 0,-27 53 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0-7-1 0 0,4-13-32 0 0,-4 21-89 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-8 0 0 0,0 10 39 0 0,0 2 395 0 0,-8 19 38 0 0,6-9-340 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,4 12-1 0 0,-5-15-10 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,9 9 0 0 0,-8-10 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,8 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,15-4 0 0 0,-21 3-3 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,4-8 1 0 0,5-10 56 0 0,-11 21-51 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-4 0 0 0,0 4-2 0 0,-1-5 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,-5-11 0 0 0,3 11 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-4-10 0 0 0,6 14 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-7-1 0 0 0,0-2 0 0 0,7 4 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-2 1 0 0 0,-4 2 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-6 7 0 0 0,10-11-296 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 7 0 0 0,1 0-887 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4773.78">6053 301 13760 0 0,'0'0'629'0'0,"-5"1"212"0"0,-6 1-278 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 2 0 0 0,1-1 1 0 0,-14 9-1 0 0,22-12-465 0 0,-10 5 392 0 0,1 0 0 0 0,0 1 0 0 0,0 0 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,-8 11-1 0 0,16-17-476 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 3 0 0 0,21 42-13 0 0,-22-48 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,3-1 0 0 0,27-14 0 0 0,-5 3 0 0 0,-25 11 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,6 1 0 0 0,-8 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 2 0 0 0,8 13 0 0 0,-7-13 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,3 13 0 0 0,-5-17 0 0 0,3 18 0 0 0,0 0 0 0 0,-2 1 0 0 0,0-1 0 0 0,-2 0 0 0 0,-2 27 0 0 0,1-39 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-5 12 0 0 0,6-16 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-8 3 0 0 0,9-5 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-3-1 0 0 0,3 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-3 0 0 0,1-5 0 0 0,1-1 0 0 0,-1 0 0 0 0,9-17 0 0 0,-5 11 0 0 0,15-36 0 0 0,4-11 0 0 0,-3-7 0 0 0,45-99 0 0 0,-57 145 0 0 0,-7 17 0 0 0,1-1 0 0 0,0 1 0 0 0,10-15 0 0 0,-14 22 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,2 6 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0-1 0 0 0,12 16 0 0 0,-9-15 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,19 11 0 0 0,-7-4 0 0 0,-18-14 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,4-1 0 0 0,-4 1 0 0 0,12 0 0 0 0,-11-3 0 0 0,-1 1 0 0 0,-1 1-45 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,3-2-1 0 0,5-3-7732 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5337.92">6588 278 11344 0 0,'0'0'1030'0'0,"-8"0"-828"0"0,4 1 85 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 5 1 0 0,-1 0 321 0 0,1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 9 0 0 0,0-13-609 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,5 0 0 0 0,-3 0-12 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,7-7 1 0 0,0-1-61 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,8-17 0 0 0,-4-1-683 0 0,-11 23 585 0 0,-6 20 180 0 0,4-6 161 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,2 14 0 0 0,-1-18-165 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,4 3-1 0 0,-3-3-6 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,9 1-1 0 0,10 1 0 0 0,-17-2 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,7-1 0 0 0,10-3 0 0 0,-9 2 0 0 0,-1 0 0 0 0,0-1 0 0 0,17-7 0 0 0,-4 2 0 0 0,-20 6 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,9-6 0 0 0,-5 2 0 0 0,16-12 0 0 0,-24 16 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-3 0 0 0,0 1 47 0 0,-1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-5-2 0 0 0,2 0 56 0 0,-1 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-12-3 0 0 0,0 2-136 0 0,6 0-40 0 0,-1 0 1 0 0,1 2 0 0 0,-1-1-1 0 0,-23 2 1 0 0,26 1-206 0 0,-12 1-1618 0 0,10 1-3630 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5880.38">7373 351 13824 0 0,'23'-1'1902'0'0,"40"2"1"0"0,-53 0-885 0 0,-1-1 0 0 0,18-2 0 0 0,9 1 128 0 0,-16 1-338 0 0,32-3 0 0 0,6-1-742 0 0,96-6-66 0 0,-43 8 0 0 0,143-20 0 0 0,-206 12 11 0 0,-43 9-49 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-2-1 0 0,0 1 1 0 0,1 0 0 0 0,5-6-1 0 0,-9 8 43 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-2 0 0 0 0,-1-2 34 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-8-4-1 0 0,5 2-99 0 0,-7-2 61 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-23-3 0 0 0,-15 0 0 0 0,80 6 0 0 0,0 2 0 0 0,0 1 0 0 0,-1 0 0 0 0,52 16 0 0 0,-77-19 8 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 1 0 0 0,-3 0 363 0 0,3 11 1069 0 0,-4-9-1432 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,-4 5 0 0 0,-16 10-8 0 0,5-3 0 0 0,0-1 0 0 0,-25 13 0 0 0,40-24-135 0 0,-8 3-2523 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6461.27">8876 10 14280 0 0,'-4'-3'261'0'0,"3"2"-169"0"0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,-1-1-1 0 0,1 1 164 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-5 29 795 0 0,5-25-650 0 0,-9 189 1944 0 0,10-181-2312 0 0,3 23-1 0 0,-2-27-471 0 0,0 0 0 0 0,-1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,-1 14 0 0 0,-4-7-5615 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6834.78">8387 180 16008 0 0,'0'0'1451'0'0,"8"-3"-403"0"0,37-4 1503 0 0,28-12-1362 0 0,80-8 0 0 0,27-7-1106 0 0,-3 3-1981 0 0,-155 28 587 0 0,1 0 136 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7221.87">8537 349 10592 0 0,'0'0'80'0'0,"0"1"-1"0"0,0-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,26-7 3540 0 0,-13 4-2405 0 0,18-2-38 0 0,20-5-371 0 0,-16 1-369 0 0,109-33-193 0 0,-119 34-982 0 0,35-7-1 0 0,-34 12-112 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12219.56">9167 151 15464 0 0,'0'0'1399'0'0,"-1"1"-1153"0"0,-1 2 174 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 6 0 0 0,0-1 681 0 0,1-2-603 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 1 1 0 0,1 11-1 0 0,0-14-495 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-3 8-1 0 0,-4 17-1 0 0,2 3-1384 0 0,8-21-247 0 0,0-6-79 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12627.91">9430 163 13824 0 0,'0'0'674'0'0,"-7"4"40"0"0,6-3-657 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,1 1 1 0 0,2 3 193 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,9 6 0 0 0,11 6-81 0 0,-17-13-136 0 0,0 1 0 0 0,11 10 0 0 0,-9-8-38 0 0,-8-5 48 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 3 0 0 0,0-1 282 0 0,-1-2-225 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,-7 16 492 0 0,0-4-575 0 0,4-13-18 0 0,2 0 1 0 0,-25 16 0 0 0,8-7 0 0 0,17-8-2 0 0,-6 0-19 0 0,2 0-20 0 0,4-1-296 0 0,2-1 177 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-2-153 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,2-2 0 0 0,5-5-5140 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12990.19">9627 204 17503 0 0,'-2'3'124'0'0,"-3"2"176"0"0,2 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,-2 10 0 0 0,-3 1 817 0 0,7-16-858 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 2 1 0 0,0-3 802 0 0,0 10-509 0 0,1-9-503 0 0,2 11-198 0 0,-1-11 162 0 0,1 2-1241 0 0,1 7 496 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13376.55">9589 10 18167 0 0,'0'0'2920'0'0,"11"0"-8495"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13810.82">9901 211 6912 0 0,'0'-20'928'0'0,"-2"-2"2785"0"0,-15 16 1860 0 0,14 7-5136 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-4 4 1 0 0,-26 16 1801 0 0,33-21-2234 0 0,-27 23 210 0 0,18-13-214 0 0,9-5 0 0 0,1-3 0 0 0,-2-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,2 2 0 0 0,1 3 0 0 0,4 9 0 0 0,-2-12 0 0 0,-3-3 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3 2 0 0 0,-1-1 8 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,7-1-1 0 0,4-1-623 0 0,25-4 0 0 0,-37 5 389 0 0,0-1 78 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,6-6-1 0 0,-4 2-176 0 0,-2 2 290 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,4-9 0 0 0,-3 6 1560 0 0,-5 9-1492 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 1 1 0 0,3 8-25 0 0,-2-4-5 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,5 9-1 0 0,-6-14-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,4 2 0 0 0,-1-1 102 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,7-2 0 0 0,-4 1-25 0 0,1 0-1 0 0,14-3 1 0 0,-17 5-48 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,6-5 0 0 0,-10 5-29 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-4 0 0 0,-5-6 0 0 0,-4 0 150 0 0,8 8-31 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 1 1 0 0,-1-1 0 0 0,-5-2-1 0 0,-1 2-294 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1 0 1 0 0,-22 2-1 0 0,10-1-2773 0 0,14 0 1416 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15092.01">9260 43 15664 0 0,'-14'1'171'0'0,"6"-1"134"0"0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-14-2-1 0 0,-4 0-612 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19829,8 +19890,8 @@
       <inkml:brushProperty name="color" value="#008C3A"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">72 123 11976 0 0,'4'-6'1082'0'0,"-4"5"-939"0"0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,2-5 2049 0 0,4 3 2137 0 0,-3 3-4206 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,4 3 0 0 0,5 4 299 0 0,0-1-1 0 0,12 11 1 0 0,-5-4-200 0 0,5 3-219 0 0,-1 1 1 0 0,0 2 0 0 0,24 27-1 0 0,52 70 867 0 0,0 0-3 0 0,226 218-554 0 0,-256-265 36 0 0,67 88 0 0 0,-76-87 26 0 0,-37-47-185 0 0,-2 0 0 0 0,0 3 1 0 0,-2-1-1 0 0,24 43 0 0 0,-34-50-189 0 0,-1 0 0 0 0,-1 0 0 0 0,5 24 0 0 0,-10-36 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 2 0 0 0,0-2 0 0 0,-1 0 0 0 0,0 2 0 0 0,0-2 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-6 6 0 0 0,-4 7 0 0 0,-2-1 0 0 0,-28 30 0 0 0,21-25 0 0 0,-75 99-15 0 0,67-80-27 0 0,-62 65-1 0 0,-41 19-376 0 0,-41 40 820 0 0,119-108-650 0 0,-50 68 0 0 0,-88 133-202 0 0,176-238 427 0 0,-10 16-224 0 0,-10 18-341 0 0,33-50 6 0 0,7-16-5328 0 0,-2 6 3172 0 0,5-9-4187 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1445.82">189 370 15664 0 0,'0'0'761'0'0,"1"-6"2956"0"0,-1 6-3658 0 0,3 7 323 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,3 15 0 0 0,4 45 646 0 0,-7 69 413 0 0,-3-75-1235 0 0,-21 212-189 0 0,7-143-17 0 0,-3 38 82 0 0,-8 104 114 0 0,19-35-54 0 0,5-75-44 0 0,4-47-32 0 0,0-32-55 0 0,-2 86-39 0 0,7-108-2037 0 0,-3-101 514 0 0,4-147 430 0 0,-9 38 965 0 0,2-129 114 0 0,33-206 233 0 0,-27 400-111 0 0,12-90-71 0 0,-8 66-15 0 0,0-5 83 0 0,1 3 2308 0 0,-8 99-1660 0 0,-4 11-707 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,7 23 213 0 0,1 31 264 0 0,-3-2-1 0 0,-1 101 1 0 0,-2-15 69 0 0,4-32-596 0 0,14 212-144 0 0,-13-242 197 0 0,15 136 126 0 0,-14-155-183 0 0,1 93 0 0 0,-9-141 32 0 0,0 1 0 0 0,1 0 0 0 0,4 15 0 0 0,-4-22-70 0 0,-1-6-1578 0 0,26-444 1506 0 0,4 83 146 0 0,-2 24 0 0 0,-13 177 306 0 0,-13 153-124 0 0,-2 8 302 0 0,1 5-166 0 0,1 6-228 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,-1 11 0 0 0,1 23 82 0 0,6 73 137 0 0,-4-48 173 0 0,2-2 1 0 0,22 109-1 0 0,-12-117-495 0 0,23 62 0 0 0,-27-92-75 0 0,19 42 54 0 0,-13-35 70 0 0,-1 1 0 0 0,18 72 0 0 0,-33-108-39 0 0,1 3 14 0 0,0-1-1 0 0,0 2 1 0 0,0-2-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,2 5-1 0 0,-3-8-267 0 0,-1-20-773 0 0,0-19 797 0 0,-11-75 0 0 0,9 91 232 0 0,1 0 0 0 0,0-1 0 0 0,4-29 0 0 0,-1 19 0 0 0,2-16 0 0 0,3 2 0 0 0,1-2 0 0 0,17-51 0 0 0,-23 94 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,7-11 0 0 0,-10 17 6 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,1 0-1 0 0,0 0 59 0 0,1 2 58 0 0,1 2 0 0 0,-1-1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0 4-1 0 0,2 9-37 0 0,57 275-298 0 0,-56-267 199 0 0,-2-7 14 0 0,7 23-1 0 0,-6-29 107 0 0,-3-12-101 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-2-13 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-5 1 0 0,4-4-295 0 0,8-26 0 0 0,-10 27 156 0 0,12-37 70 0 0,16-78 1 0 0,-9 29-180 0 0,-13 48 29 0 0,-8 35 161 0 0,0 0 0 0 0,1 1 0 0 0,0-1 1 0 0,1 2-1 0 0,0-2 0 0 0,10-16 0 0 0,-14 28 64 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-2 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 2 0 0 0,0-2 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,2 3 35 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 2 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 7 0 0 0,-2 42 547 0 0,0-25-421 0 0,-2 40-51 0 0,1-45 43 0 0,1 0-1 0 0,1 1 1 0 0,3 25-1 0 0,0 11-8 0 0,-3-59-156 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 3 0 0 0,1-3-103 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">72 121 11976 0 0,'4'-6'1082'0'0,"-4"5"-939"0"0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,2-4 2049 0 0,4 2 2137 0 0,-3 3-4206 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,4 3 0 0 0,5 3 299 0 0,0 0-1 0 0,12 10 1 0 0,-5-4-200 0 0,5 4-219 0 0,-1 0 1 0 0,0 2 0 0 0,24 25-1 0 0,52 67 867 0 0,0 0-3 0 0,226 207-554 0 0,-256-251 36 0 0,67 83 0 0 0,-76-83 26 0 0,-37-44-185 0 0,-2 0 0 0 0,0 2 1 0 0,-2 0-1 0 0,24 41 0 0 0,-34-48-189 0 0,-1 0 0 0 0,-1 0 0 0 0,5 23 0 0 0,-10-35 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-6 6 0 0 0,-4 6 0 0 0,-2-1 0 0 0,-28 28 0 0 0,21-23 0 0 0,-75 94-15 0 0,67-76-27 0 0,-62 61-1 0 0,-41 19-376 0 0,-41 38 820 0 0,119-103-650 0 0,-50 64 0 0 0,-88 127-202 0 0,176-226 427 0 0,-10 15-224 0 0,-10 17-341 0 0,33-47 6 0 0,7-15-5328 0 0,-2 5 3172 0 0,5-8-4187 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1445.82">189 355 15664 0 0,'0'0'761'0'0,"1"-5"2956"0"0,-1 5-3658 0 0,3 6 323 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,3 13 0 0 0,4 44 646 0 0,-7 65 413 0 0,-3-71-1235 0 0,-21 201-189 0 0,7-136-17 0 0,-3 37 82 0 0,-8 98 114 0 0,19-34-54 0 0,5-70-44 0 0,4-45-32 0 0,0-30-55 0 0,-2 81-39 0 0,7-102-2037 0 0,-3-96 514 0 0,4-139 430 0 0,-9 35 965 0 0,2-121 114 0 0,33-196 233 0 0,-27 379-111 0 0,12-85-71 0 0,-8 62-15 0 0,0-4 83 0 0,1 3 2308 0 0,-8 93-1660 0 0,-4 11-707 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,7 22 213 0 0,1 29 264 0 0,-3-1-1 0 0,-1 95 1 0 0,-2-14 69 0 0,4-31-596 0 0,14 202-144 0 0,-13-230 197 0 0,15 129 126 0 0,-14-147-183 0 0,1 88 0 0 0,-9-133 32 0 0,0 0 0 0 0,1 1 0 0 0,4 14 0 0 0,-4-22-70 0 0,-1-4-1578 0 0,26-422 1506 0 0,4 78 146 0 0,-2 24 0 0 0,-13 167 306 0 0,-13 146-124 0 0,-2 7 302 0 0,1 5-166 0 0,1 5-228 0 0,-1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 11 0 0 0,1 22 82 0 0,6 69 137 0 0,-4-46 173 0 0,2-1 1 0 0,22 103-1 0 0,-12-111-495 0 0,23 59 0 0 0,-27-88-75 0 0,19 40 54 0 0,-13-32 70 0 0,-1 0 0 0 0,18 68 0 0 0,-33-102-39 0 0,1 3 14 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,2 4-1 0 0,-3-7-267 0 0,-1-19-773 0 0,0-18 797 0 0,-11-71 0 0 0,9 86 232 0 0,1 0 0 0 0,0 0 0 0 0,4-29 0 0 0,-1 19 0 0 0,2-15 0 0 0,3 1 0 0 0,1-1 0 0 0,17-49 0 0 0,-23 89 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,7-10 0 0 0,-10 16 6 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,1 0-1 0 0,0 0 59 0 0,1 2 58 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 5-1 0 0,2 8-37 0 0,57 261-298 0 0,-56-253 199 0 0,-2-7 14 0 0,7 22-1 0 0,-6-28 107 0 0,-3-11-101 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-2-13 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-4 1 0 0,4-5-295 0 0,8-24 0 0 0,-10 25 156 0 0,12-34 70 0 0,16-75 1 0 0,-9 28-180 0 0,-13 45 29 0 0,-8 34 161 0 0,0 0 0 0 0,1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,0-1 0 0 0,10-16 0 0 0,-14 27 64 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,2 3 35 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 6 0 0 0,-2 40 547 0 0,0-23-421 0 0,-2 37-51 0 0,1-42 43 0 0,1 0-1 0 0,1 1 1 0 0,3 23-1 0 0,0 11-8 0 0,-3-56-156 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 2 0 0 0,1-2-103 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19862,51 +19923,51 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">15 499 11600 0 0,'0'0'264'0'0,"0"-3"317"0"0,0-18 10173 0 0,0 22-10055 0 0,-3 11-406 0 0,1-2-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,1 13-1 0 0,0 7 160 0 0,2 54 497 0 0,3-1 1 0 0,19 92-1 0 0,-18-135-904 0 0,9 48-246 0 0,46 175 725 0 0,31 292 0 0 0,-79-424-320 0 0,13 105-80 0 0,-9-59 442 0 0,-6-38-212 0 0,67 484-650 0 0,-60-494 321 0 0,9 78 41 0 0,-1-8-27 0 0,-6-52-25 0 0,36 225 178 0 0,-29-176-441 0 0,-16-99 42 0 0,30 216 644 0 0,-10-128-773 0 0,-22-146 286 0 0,1 4-6 0 0,-7-18 4 0 0,1 0 1 0 0,9 24-1 0 0,12 42-252 0 0,-21-74 146 0 0,-4-15 95 0 0,-1 1-1 0 0,1-2 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,2 4 1 0 0,-2-5 20 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,1 6-1 0 0,-3-8 41 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,2 1 0 0 0,0 0-426 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,6 1 0 0 0,-3-10-2127 0 0,0 1 849 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4257.55">110 1477 15520 0 0,'0'0'356'0'0,"-7"4"4926"0"0,8-5-5138 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 1 0 0 0,16-2 755 0 0,-4-2-489 0 0,-1 1 0 0 0,0 0 0 0 0,29 1 0 0 0,-36 1-251 0 0,1-1 0 0 0,-1 0-1 0 0,9-4 1 0 0,17-1 646 0 0,191-26-94 0 0,-189 25-371 0 0,78-6 1048 0 0,-26 2-1171 0 0,574-46-205 0 0,-450 47 257 0 0,381-16 890 0 0,-39-5-762 0 0,-179 25-912 0 0,-63 3 217 0 0,-180 1 451 0 0,57-4-159 0 0,-165 4-451 0 0,142-20 1626 0 0,9-5-2146 0 0,-139 22 292 0 0,59-3 517 0 0,-61 6 171 0 0,67-5 1381 0 0,-84 3-1263 0 0,-16 4-411 0 0,0-1 0 0 0,0 1 1 0 0,-1-2-1 0 0,1 2 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5170.24">1622 387 15664 0 0,'0'0'1417'0'0,"12"-3"677"0"0,-8 1 1761 0 0,-2 2-3731 0 0,-1 2 0 0 0,0-2 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,2 3 0 0 0,1 1 216 0 0,0 1 1 0 0,-1 0-1 0 0,2 9 0 0 0,-1 0-147 0 0,0 1 0 0 0,-2 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,-2 24 0 0 0,-18 84 901 0 0,15-96-1052 0 0,-13 50 130 0 0,9-43-76 0 0,-5 41-1 0 0,4-23-241 0 0,6-33 111 0 0,-1 23 0 0 0,2-17 100 0 0,2-15-61 0 0,0 1-1 0 0,0-1 1 0 0,2 21 0 0 0,1 3-1282 0 0,-3-31-521 0 0,1-23 996 0 0,2-9 480 0 0,1 1 0 0 0,7-34 0 0 0,-5 34-164 0 0,43-182-2153 0 0,-24 98 2625 0 0,-15 65 14 0 0,16-116 1 0 0,-19 114 0 0 0,-4 32 48 0 0,1-12 450 0 0,-3 27-413 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-2-1 0 0,-1 2 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 2 428 0 0,0 0-422 0 0,1 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 2 0 0 0,17 25-131 0 0,-13-18 98 0 0,39 78 1175 0 0,-10-18-432 0 0,4 17-712 0 0,-30-69 304 0 0,0 0 0 0 0,-1 2 0 0 0,-1-1 0 0 0,10 40 0 0 0,-7-28-373 0 0,-7-22-28 0 0,0-1 0 0 0,3 14 0 0 0,1 14-245 0 0,-5-26 63 0 0,0 1 0 0 0,0-1 1 0 0,0 17-1 0 0,1 47-2848 0 0,-9-66-2373 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5540.92">1527 833 6912 0 0,'-9'4'112'0'0,"4"-3"44"0"0,0 2 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-5 13 8963 0 0,10-15-8951 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,2 1 1 0 0,5 2 429 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1-1-1 0 0,1 1 0 0 0,8-1 1 0 0,59-3 366 0 0,45-17 285 0 0,-87 12-2193 0 0,-10 0-1673 0 0,-6 4-2798 0 0,4-1-2467 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5979.77">2137 453 17159 0 0,'0'0'1719'0'0,"-2"7"-1404"0"0,-10 74 4379 0 0,7-55-3745 0 0,-14 41-1 0 0,18-65-923 0 0,-3 14 246 0 0,1 0 1 0 0,1 1 0 0 0,0 21-1 0 0,1-31-208 0 0,1 4-26 0 0,0 0 0 0 0,1 0 0 0 0,0-1 1 0 0,1 2-1 0 0,0-2 0 0 0,0 1 0 0 0,1-1 0 0 0,1 1 0 0 0,8 17 0 0 0,-4-11 16 0 0,1-1-1 0 0,1 0 0 0 0,0-1 1 0 0,23 26-1 0 0,-31-40-52 0 0,3 7 0 0 0,1-2 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,2 0 0 0 0,-1 1 0 0 0,10 3 0 0 0,-14-7 0 0 0,-2-2 0 0 0,15-1 0 0 0,-14 1-11 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,1-3 1 0 0,1 0-44 0 0,0-2-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-2 1 0 0,4-10-1 0 0,-1-7-652 0 0,7-44 0 0 0,7-48 694 0 0,-10 62 16 0 0,-9 51-2 0 0,-1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,4-5 0 0 0,-6 19 380 0 0,0-2-1 0 0,1 2 1 0 0,1 15-1 0 0,0 1 87 0 0,-1-25-464 0 0,0 21-54 0 0,0 1 0 0 0,5 23 1 0 0,-2-37 55 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0-1 0 0 0,1 1 1 0 0,0-2-1 0 0,0 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 1 0 0,15 12-1 0 0,-14-14 17 0 0,1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,14 3-1 0 0,-19-5-19 0 0,1-1-1 0 0,1 1 0 0 0,-1-2 0 0 0,0 2 0 0 0,0-2 0 0 0,0 0 0 0 0,1-2 0 0 0,-1 2 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,9-7 0 0 0,-13 7 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,3-5 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-18 0 0 0,-3 17 0 0 0,0-2 0 0 0,0 1 0 0 0,-1-1 0 0 0,-1 2 0 0 0,0-2 0 0 0,0 2 0 0 0,-1-2 0 0 0,0 2 0 0 0,0 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-7-8 0 0 0,-1-6 0 0 0,11 18 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-4-5 0 0 0,-5-3-88 0 0,2 2-306 0 0,-14-19 0 0 0,14 16-298 0 0,5 12-2730 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6621.49">2809 595 17503 0 0,'0'0'858'0'0,"8"4"43"0"0,-6-2-773 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,2 5 1 0 0,0 6 2194 0 0,4 25 1 0 0,-7-37-2128 0 0,1 14 296 0 0,0 29 0 0 0,-2-29-248 0 0,2-2-1 0 0,1 19 0 0 0,-1-31-229 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,4 4-1 0 0,-4-4 2 0 0,0-1 0 0 0,0 0 0 0 0,0 2 0 0 0,0-2 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1-1 0 0,-6 17 414 0 0,6-18-525 0 0,0-3-570 0 0,-3-6 662 0 0,1 1 0 0 0,0-2 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 1-1 0 0,-1 0 1 0 0,-1-13 0 0 0,-15-92 5 0 0,-6-46 0 0 0,20 101 0 0 0,4 57 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4 6 0 0 0,3 9 0 0 0,-1 3 0 0 0,0 0 0 0 0,1 0 0 0 0,18 29 0 0 0,-22-42 0 0 0,0 2 0 0 0,1-2 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,11 4 0 0 0,-10-5 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,14 0 0 0 0,-14-2 0 0 0,-6 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-2 0 0 0,1 2 0 0 0,0-1 0 0 0,2-1 0 0 0,8-3 0 0 0,-10 4 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-2 0 0 0,0 1 0 0 0,1-1 0 0 0,8-13 0 0 0,-8 14 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,2-4 0 0 0,7-20 0 0 0,-9 23 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-2 0 0 0,2-6 0 0 0,-1-11 0 0 0,-2 65 60 0 0,13 74 1840 0 0,-12-109-1866 0 0,0 0 0 0 0,1-1 1 0 0,5 13-1 0 0,1 7 141 0 0,-7-21-166 0 0,0-2 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,5 5 1 0 0,-4-6-36 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 2-1 0 0,-1-1 1 0 0,0 0-1 0 0,2 4 0 0 0,-1-1 31 0 0,0 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,5 7-1 0 0,5 10-417 0 0,-12-22 234 0 0,0 2-1 0 0,0-2 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,1 1-1 0 0,16 8-6581 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7213.25">3397 523 17503 0 0,'0'0'2112'0'0,"1"1"-1017"0"0,1 1-719 0 0,0 2-1 0 0,0-2 1 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 7-1 0 0,2 44 1064 0 0,-3-51-1336 0 0,-1 240 2138 0 0,2-142-2283 0 0,-1-100-202 0 0,-2-13-611 0 0,-3-179-1017 0 0,5 189 1831 0 0,2-99-1065 0 0,0 83 1114 0 0,0 1 0 0 0,1-1-1 0 0,8-28 1 0 0,-7 31-6 0 0,-2 8 6 0 0,-1 2-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,4-6 1 0 0,-6 11 23 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,7 8 396 0 0,-8-8-434 0 0,9 11 74 0 0,-2-1 0 0 0,1 2 0 0 0,-2-1 0 0 0,1 1 0 0 0,7 20 0 0 0,-3-2 182 0 0,-8-21-46 0 0,1 1 0 0 0,0-1 0 0 0,8 14 0 0 0,2 3 236 0 0,-11-18-404 0 0,0-2 0 0 0,1-1-1 0 0,-1 2 1 0 0,1-1-1 0 0,6 7 1 0 0,13 12-8 0 0,-15-16-21 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-2 1 0 0,2 0 0 0 0,-1 1-1 0 0,13 5 1 0 0,-14-10 15 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,14 1 0 0 0,-20-3-13 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,2-1-1 0 0,-3 1-4 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-2 0 0 0,0 1 0 0 0,0-1-1 0 0,0-2 2 0 0,0-30 65 0 0,-1 0 0 0 0,-6-41 0 0 0,4 54-470 0 0,1-1-1 0 0,2 0 1 0 0,2-34 0 0 0,1-4-468 0 0,-1 28-1162 0 0,0 3-4425 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7649.18">3933 415 11976 0 0,'3'8'161'0'0,"-1"1"0"0"0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,-1 2-1 0 0,1 9 0 0 0,-8 64 1704 0 0,1-32 1963 0 0,5-34-3003 0 0,1 1 0 0 0,0-1 0 0 0,2 0-1 0 0,-1-1 1 0 0,7 25 0 0 0,-5-29-438 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,2-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,1 1 0 0 0,7 9 0 0 0,-5-8 144 0 0,15 17 423 0 0,-23-27-916 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,5 0 0 0 0,13 0 71 0 0,-15-3-90 0 0,-2 0 1 0 0,5-1-3 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-2 0 0 0,10-10 0 0 0,-15 13-9 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,0-1-1 0 0,1-3 1 0 0,-2 2 4 0 0,1-2 0 0 0,-1 2 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,-3-8 0 0 0,-69-178-176 0 0,66 173 111 0 0,0 0-1 0 0,-1 0 0 0 0,-1 1 1 0 0,0 0-1 0 0,-18-23 1 0 0,24 37-37 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-2 0 0 0,0 2 0 0 0,1 0 0 0 0,-2 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 1 0 0 0,1-2 0 0 0,-7 0 0 0 0,4 2-435 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-15 5 0 0 0,1 3-1010 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9600.24">992 1861 6912 0 0,'0'0'2288'0'0,"1"-1"-1803"0"0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 2 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2-1 1 0 0,-5-22 8905 0 0,1 25-8879 0 0,-3 3-374 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,0 1-1 0 0,0 0 1 0 0,-5 9-1 0 0,-24 54-344 0 0,24-48 305 0 0,5-12-96 0 0,1 2 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 19 0 0 0,-2 4 432 0 0,6-30-334 0 0,0-1 0 0 0,0 2 0 0 0,0-2 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,4 6 0 0 0,4 18-228 0 0,-6-18 59 0 0,0 0 1 0 0,0-1-1 0 0,1-1 1 0 0,0 2 0 0 0,1-1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,11 11 0 0 0,-11-13 159 0 0,0 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,1-1 0 0 0,12 5 0 0 0,-16-7-132 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,4-2 0 0 0,-3 1 106 0 0,1 1 0 0 0,-1-2 0 0 0,0 1 0 0 0,0-2 0 0 0,-1 2-1 0 0,1-1 1 0 0,3-5 0 0 0,4-16-330 0 0,-9 21 187 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,3-9-1 0 0,0-2 63 0 0,2-1-29 0 0,-4 12 41 0 0,0 0 1 0 0,-1-1 0 0 0,3-10-1 0 0,-3 9-3 0 0,0 1-1 0 0,1 0 1 0 0,0-1-1 0 0,3-7 1 0 0,-2 7-117 0 0,-1 2 1 0 0,0-1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-14 1284 0 0,-1 32-687 0 0,0 0-464 0 0,0-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0 0 0 0,5 15 0 0 0,-5-18 3 0 0,1 0 0 0 0,8 15-1 0 0,-10-20-13 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,5 2 0 0 0,5 2 1 0 0,0 1 0 0 0,0-2 0 0 0,17 6 0 0 0,-24-11-13 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,6-3 0 0 0,23-6-118 0 0,-32 10 106 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,2-4 1 0 0,0 2 30 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,2-8 0 0 0,3-1 46 0 0,0-4 3 0 0,-6 11-34 0 0,0-1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 1-1 0 0,0-2 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-8-9 0 0 0,9 13-15 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-2 0 0 0,0 2 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-2 1 0 0,0 2 0 0 0,1 0-1 0 0,-5 2 1 0 0,-6-1 12 0 0,0 0 0 0 0,0 1 0 0 0,1 1 0 0 0,-17 5 0 0 0,18-5-34 0 0,0 2 0 0 0,0 0 0 0 0,-16 9 0 0 0,21-12 16 0 0,6-2 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 3 1 0 0,0-2-161 0 0,28 2-17714 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10359.84">1723 1843 16783 0 0,'0'0'1998'0'0,"1"2"-1124"0"0,1 4-60 0 0,-1-3-509 0 0,-1-1 0 0 0,1 2 0 0 0,0-2 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 3 0 0 0,-1 5 684 0 0,0-1 1 0 0,1 2-1 0 0,1 12 0 0 0,0 10 172 0 0,0-13-959 0 0,-5 87 959 0 0,4-101-1161 0 0,0 1 0 0 0,0-2 0 0 0,1 10 0 0 0,1 9 0 0 0,-1-3 40 0 0,-1 13 61 0 0,0-27-100 0 0,0 2 0 0 0,0-2 0 0 0,2 11 0 0 0,0 12-153 0 0,-3-24 793 0 0,1 1-4196 0 0,0-8 3502 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,2-2-148 0 0,0-1 0 0 0,0 1 1 0 0,-1-2-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-9 1 0 0,2-12-30 0 0,3-19 222 0 0,-2-59-1 0 0,-2 61 10 0 0,9-78-1 0 0,-7 100 134 0 0,-1-1 0 0 0,-2-22 0 0 0,1 40-33 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,2-2 0 0 0,5-15 896 0 0,-8 20-944 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-2-1 0 0,0 2 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,13 9 1017 0 0,8 16-308 0 0,5 23-745 0 0,-9-17-16 0 0,-1-1 0 0 0,15 40 0 0 0,-25-53 323 0 0,-1 1-1 0 0,-1-1 1 0 0,-1 2 0 0 0,5 34-1 0 0,-8-51-405 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,1 2 1 0 0,-2-3-9 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 4-1 0 0,1 13-575 0 0,0 1 0 0 0,0 25 0 0 0,-3-46 441 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 2 0 0 0,0-2 0 0 0,1 0 0 0 0,0 1-1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10809.21">1708 2151 5984 0 0,'0'0'464'0'0,"19"0"9601"0"0,-16 0-9729 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-2 0 0 0,1 1 1 0 0,-1 1-1 0 0,1-1 0 0 0,1-2 1 0 0,1 1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,7 0 0 0 0,18-4 249 0 0,31-14-570 0 0,-11 5-553 0 0,-41 11-732 0 0,-1 0-1 0 0,1-2 0 0 0,11-5 1 0 0,-8-1-777 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11201.72">2097 1823 16671 0 0,'0'0'382'0'0,"-5"-9"1052"0"0,2 4-1247 0 0,2 4 697 0 0,-5 6 3433 0 0,1 14-3199 0 0,3-16-977 0 0,1 1-1 0 0,0-2 0 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 8 0 0 0,0 18 391 0 0,1-18-254 0 0,-1 2 0 0 0,2-2 1 0 0,2 22-1 0 0,7 26-277 0 0,-9-54 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 2 0 0 0,1-2 0 0 0,4 7 0 0 0,2 10 0 0 0,-3-9 0 0 0,0 1 0 0 0,1-3 0 0 0,0 2 0 0 0,1-2 0 0 0,0 1 0 0 0,15 17 0 0 0,-8-11-28 0 0,-8-9-23 0 0,1 0 1 0 0,-1-1 0 0 0,1 0 0 0 0,1 0 0 0 0,9 6-1 0 0,-15-12 42 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 2-1 0 0,0-1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-2 0 0 0,1 1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,2 0 1 0 0,-2 0-49 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 2 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 9 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1-3 0 0 0,1 1 40 0 0,0-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-8 0 0 0,-1-4 4 0 0,0 1 0 0 0,-1-17 0 0 0,0 10 5 0 0,-2 13 88 0 0,1 3 53 0 0,4 12-21 0 0,-1-2-62 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,2 8 0 0 0,2 10 105 0 0,-1-9 34 0 0,0-1 0 0 0,12 24-1 0 0,-13-32-211 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-2-1 0 0,9 6 1 0 0,-11-8 30 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,4 0 0 0 0,0-1 56 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,10-8 0 0 0,-15 11-73 0 0,9-7-15 0 0,-8 6 3 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0-4 0 0 0,4-11-179 0 0,-4 14 216 0 0,0-2-1 0 0,0 2 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,0-2-1 0 0,1 1 1 0 0,-1 1-1 0 0,-1-7 0 0 0,-1 4-16 0 0,0 0 0 0 0,1 1 0 0 0,-2-2 0 0 0,1 2-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 0 0 0 0,0 2-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-6-2 1 0 0,1-1-100 0 0,-4-4-231 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11808.87">2696 1938 16671 0 0,'0'0'1512'0'0,"2"1"-1245"0"0,1 2 521 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3 5 0 0 0,-2 0-101 0 0,0-2 0 0 0,0 1 1 0 0,-1 1-1 0 0,5 10 0 0 0,0 7-43 0 0,8 34 0 0 0,-7-20 509 0 0,6 33-545 0 0,-15-70-608 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 1-1 0 0,-2 8-70 0 0,3-9-267 0 0,-7-21-1254 0 0,7 19 1591 0 0,-4-15-133 0 0,2-1 0 0 0,0 1 0 0 0,0 1-1 0 0,2-1 1 0 0,0-1 0 0 0,3-24 0 0 0,-2 33 78 0 0,0-2 0 0 0,1 1 0 0 0,0-1 0 0 0,1 2 0 0 0,0-2 0 0 0,0 2 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 1 0 0 0,0-2 0 0 0,10-10 1 0 0,-14 18 166 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,2 0-1 0 0,-3 1-111 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,2 3 0 0 0,1 1-3 0 0,-2-3 13 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-2 0 0 0,0 1 0 0 0,0 1-1 0 0,1 3 1 0 0,7 36 222 0 0,-7-28-151 0 0,2 20 153 0 0,-2-10-707 0 0,1-3 364 0 0,0-17 108 0 0,-1 1-1 0 0,0 17 26 0 0,-2-22 311 0 0,3-17-728 0 0,3-25 392 0 0,-6 30 0 0 0,2 0 0 0 0,2-13 0 0 0,-2 14 0 0 0,1 2 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1 1 0 0 0,-1-2 0 0 0,1 2 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,9-6 0 0 0,-15 10 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3 2 0 0 0,4 5 0 0 0,-4 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,4 13 0 0 0,1 3 0 0 0,0-4 4 0 0,16 39 9 0 0,-21-53-23 0 0,-1-1 0 0 0,1 0 0 0 0,1-1 0 0 0,-1 2 1 0 0,0-2-1 0 0,1 0 0 0 0,0 0 0 0 0,7 6 0 0 0,-2-2-502 0 0,0-1-525 0 0,1-1-3647 0 0,-4-4 3149 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12539.13">3310 1896 10592 0 0,'0'0'818'0'0,"-4"14"3029"0"0,3 12 634 0 0,1-18-3894 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,2 6 1 0 0,10 41 1454 0 0,-3-12-923 0 0,-6-18-1102 0 0,0-14-17 0 0,2-4 0 0 0,-6-7 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,4-7-21 0 0,1-9-86 0 0,-1-22-384 0 0,-3 24 343 0 0,0 0 0 0 0,1-1 0 0 0,0 2 0 0 0,1-2 0 0 0,0 1 0 0 0,11-20 0 0 0,-12 26 126 0 0,1 1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,1-1 1 0 0,-1 2 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,9-6-1 0 0,-7 8 83 0 0,-7 3 12 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,5 3 385 0 0,-5-4-446 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 2 0 0 0,-1-2 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 2-13 0 0,12 24 3 0 0,10 43 0 0 0,-19-62 0 0 0,0 0 0 0 0,1 1 0 0 0,0-2 0 0 0,0 0 0 0 0,1 2 0 0 0,10 11 0 0 0,-13-18 0 0 0,11 8 0 0 0,-12-9-20 0 0,0 1-1 0 0,0-2 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-2 0 0 0,0 2 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,3-3-229 0 0,0-1 0 0 0,0-1-1 0 0,8-13 1 0 0,-6 9 64 0 0,-3 5 141 0 0,0-2 0 0 0,-1 2 1 0 0,3-9-1 0 0,11-18 58 0 0,6-5-13 0 0,-19 31 0 0 0,-4 7 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 4 0 0 0,18 26 0 0 0,-15-22 0 0 0,0 1 0 0 0,10 11 0 0 0,-5-11 0 0 0,0 1 0 0 0,1-1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-2 0 0 0,0 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,19 5 0 0 0,-26-9 31 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,7-4 0 0 0,-8 4 114 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-2 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,5-9 0 0 0,-7 10-156 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,-1-4 1 0 0,0-3 32 0 0,-1 2-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,-7-8-1 0 0,5 9-20 0 0,2 2 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,-11-9 0 0 0,2 6 0 0 0,0-3 0 0 0,0 2 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,-22-7 0 0 0,-19 5-246 0 0,31 6-2428 0 0,-31 3 0 0 0,33 2 628 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13517.41">935 2820 15664 0 0,'0'0'1417'0'0,"1"1"-1167"0"0,8 5 9 0 0,-7-5 78 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 2-1 0 0,0-2 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2 3 0 0 0,8 14 1412 0 0,-9-15-1592 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 6 0 0 0,2 19 408 0 0,-3-24-551 0 0,0 0 0 0 0,0-1 0 0 0,-1 2-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,-2 7 1 0 0,1-6 260 0 0,-1-1-1 0 0,1 0 1 0 0,1 1 0 0 0,-1 9-1 0 0,1-14-222 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,-2 3-1 0 0,2-3-74 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 2 0 0 0,0-3 15 0 0,0 2 1 0 0,0-2-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-2 1-1 0 0,-1 11 184 0 0,3-12-46 0 0,-3 3 6 0 0,4-7-306 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1-4-1 0 0,-3-46-135 0 0,1 16 343 0 0,0 27 3 0 0,0-1 0 0 0,-3-12 0 0 0,2 15 104 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-13 0 0 0,2-2 92 0 0,-2 18-308 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,2 0-1 0 0,4-7 0 0 0,-8 12 110 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,3 1 59 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,3 3 0 0 0,0 2-84 0 0,-1 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,1-2 0 0 0,-2 1 0 0 0,1 1 1 0 0,-1 0-1 0 0,3 17 0 0 0,8 23 0 0 0,-5-19-12 0 0,8 16 0 0 0,-11-35 11 0 0,0 3 82 0 0,1 0 0 0 0,11 15 0 0 0,-15-24-71 0 0,1-2 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,7 2 0 0 0,-8-3-22 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,7 0 0 0 0,5-3 0 0 0,-12 0 0 0 0,-2-1 0 0 0,2 2-3 0 0,12-10 25 0 0,-16 10-18 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-2-1 0 0,4-11 63 0 0,-3 13-62 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,-2-10 57 0 0,2 10-50 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,-1 2-3 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,-1-3 0 0 0,-3-14 52 0 0,2-12-15 0 0,-14-91-480 0 0,14 112 220 0 0,-1-6-1680 0 0,4 16 1178 0 0,13 3-4194 0 0,-10-1 4263 0 0,0 0-1400 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13930.71">1494 2943 5064 0 0,'18'18'389'0'0,"-17"-17"-372"0"0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 2 0 0 0,-1-2 0 0 0,1 0 0 0 0,-1 1 0 0 0,-2 10 1820 0 0,3 1 959 0 0,-1 0 0 0 0,-2 14 0 0 0,3-24-2569 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 2-1 0 0,1-1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,3 5 0 0 0,2 9 669 0 0,-5-13-837 0 0,0-1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,3 1 1 0 0,24 13 492 0 0,-11-6-243 0 0,-13-8-165 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 2 0 0 0,5-4 0 0 0,-6 2-120 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,4-3 0 0 0,-4 2 81 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-3-4-1 0 0,1 0-114 0 0,0 2-1 0 0,0-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 2 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-12-10 0 0 0,12 13 12 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-10 4 0 0 0,-6 9-59 0 0,14-6-720 0 0,8-8 731 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14275.46">1836 2657 3224 0 0,'4'-8'283'0'0,"1"-16"16133"0"0,-4 27-16105 0 0,1 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 2 1 0 0,0-2-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 4 1 0 0,3 16 424 0 0,-1-6-329 0 0,-1 1 0 0 0,-1-2 0 0 0,0 1 1 0 0,-2 1-1 0 0,-5 32 0 0 0,1-11 250 0 0,3-16-260 0 0,0 4-290 0 0,-2 30 0 0 0,4-19-105 0 0,0-23-22 0 0,1-1 0 0 0,2 22 1 0 0,-1-16-463 0 0,-1-16 233 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 2 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1-1 0 0,1 4 1 0 0,9 0-5135 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14623.3">1867 2682 17015 0 0,'1'-2'70'0'0,"0"0"0"0"0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-4-1 0 0,0 3-4 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-2-1 0 0,0 2 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 0 1 0 0,0 1-1 0 0,1-3 0 0 0,-2 5 134 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-100 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,1 0-42 0 0,-1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,1 4 1 0 0,7 32 968 0 0,-1-18-343 0 0,-1 0-1 0 0,12 39 1 0 0,-11-29-122 0 0,6 25-11 0 0,-11-36-541 0 0,9 21 1 0 0,-7-25-11 0 0,-2 1 1 0 0,6 24-1 0 0,-8-28 1 0 0,2 1 0 0 0,-1 0 0 0 0,11 20 0 0 0,-3-4 0 0 0,-4-11-692 0 0,11 18 0 0 0,-17-36 274 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 2 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 1 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15089.52">1803 2992 15664 0 0,'0'0'1571'0'0,"8"2"-1423"0"0,5 0 692 0 0,1-2 0 0 0,0 1-1 0 0,0-2 1 0 0,0 0-1 0 0,-1-1 1 0 0,27-6-1 0 0,-5-3-709 0 0,47-20-1 0 0,-76 28-129 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,9-7 0 0 0,5-6 0 0 0,-10 8 0 0 0,-2 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,7-16 0 0 0,-4-1 0 0 0,-7 20 72 0 0,-1 6 299 0 0,2 37 1169 0 0,7 19-1489 0 0,0-11-37 0 0,-7-33-14 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,10 18 0 0 0,-8-17 0 0 0,-3-5 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-2 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,7 5 0 0 0,-9-7 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,5-1 0 0 0,-7 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0-1 0 0 0,9-8 0 0 0,-10 9 0 0 0,0 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-3 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0-5 0 0 0,0-2 0 0 0,1 1 0 0 0,0-1 0 0 0,4-17 0 0 0,-5 23 0 0 0,0 7 5 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-4 11 562 0 0,4 23 534 0 0,-1-29-1100 0 0,1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 2 0 0 0,0-2 0 0 0,1 0-1 0 0,5 5 1 0 0,0 1-1 0 0,-5-7 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-2 0 0 0,5 2 0 0 0,12 5 0 0 0,-17-6 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,5-2 0 0 0,16-3 0 0 0,-21 5 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,4-3 0 0 0,-2-1-163 0 0,-1 2 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,4-5 0 0 0,-7 8 86 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-3 0 0 0,-4-112 125 0 0,4 118 26 0 0,0-1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-2 1 0 0,0 2-1 0 0,-2-4 0 0 0,-1-1 370 0 0,9 13-297 0 0,8 16-127 0 0,-9-12-19 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,11 12 0 0 0,-2-4 0 0 0,-11-12 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,5 5 0 0 0,14 12-58 0 0,-20-15 1 0 0,2-2 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,10 6 0 0 0,-2-4-1652 0 0,23 9-1 0 0,-27-12-675 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15545.53">2968 2752 19351 0 0,'0'0'1943'0'0,"-2"2"-1783"0"0,1-1-126 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,2 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 2-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 2 0 0 0,3 40 2300 0 0,-2-34-1642 0 0,0-1-263 0 0,0 1 0 0 0,1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,7 20 0 0 0,-8-26-424 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1 5 0 0 0,-1-6-6 0 0,-1 1 1 0 0,1-2-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,1 7 0 0 0,23 34 1 0 0,-23-41 0 0 0,-2-2 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,0 1-66 0 0,-1 0-271 0 0,0-2-646 0 0,2-2 940 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-12 0 0 0,2-9 3 0 0,-1 13 41 0 0,0 1 0 0 0,1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 2 0 0 0,9-17 0 0 0,-10 22 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,11-10 0 0 0,-12 14 66 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,3 1 1 0 0,-1 0 107 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,8 6 1 0 0,-8-3-172 0 0,-1-2-1 0 0,1 2 1 0 0,-2-1-1 0 0,1 1 1 0 0,0 0-1 0 0,3 9 1 0 0,0-3-5 0 0,-4-4 2 0 0,1 0 0 0 0,4 14 0 0 0,3 10 0 0 0,24 36 0 0 0,-29-48-133 0 0,-5-18-563 0 0,2 2-1158 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16249.02">3363 2759 5984 0 0,'0'0'541'0'0,"2"0"-445"0"0,0 0 465 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 2 0 0 0,1-1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,2 4 0 0 0,4 9 837 0 0,-6-13-1215 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 5 0 0 0,-2-5-90 0 0,4 26 1415 0 0,-1 29 0 0 0,2-10-892 0 0,-6-46-616 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,3-5 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,4-13 0 0 0,7-16 0 0 0,17-43 0 0 0,-25 67 0 0 0,1-1 0 0 0,-1 2 0 0 0,2-2 0 0 0,-1 2 0 0 0,1 1 0 0 0,0-1 0 0 0,10-9 0 0 0,-5 10 0 0 0,-8 8 0 0 0,-1 1 0 0 0,-3-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,2 1 0 0 0,1 3 0 0 0,0-2 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 6 0 0 0,11 51 0 0 0,-11-53 0 0 0,-1 4 0 0 0,-1-10 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 2 0 0 0,1-2 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,2 2 0 0 0,4 0 0 0 0,-7-4 0 0 0,-1 2 0 0 0,1-2 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-2 0 0 0,-1 2 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,3-2-228 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,6-7 0 0 0,18-43 62 0 0,-22 44 166 0 0,-4 8 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,3-1 0 0 0,-3 3 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 25 0 0,-1 0-1 0 0,1 1 1 0 0,0-2-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 2 1 0 0,6 10 507 0 0,2-3-395 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,16 10-1 0 0,-20-16-100 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-2 0 0 0,0 0 0 0 0,-1 0 0 0 0,12 0 0 0 0,-13-1-36 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-2 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,3-8 0 0 0,5-11 0 0 0,-8 18 0 0 0,0-2 0 0 0,-1 2 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1-7 0 0 0,0 7 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 2 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-2 0 0 0,0 2 0 0 0,0 0 0 0 0,0-1 0 0 0,-6-4 0 0 0,6 7 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0 1 0 0 0,-5-1 0 0 0,-3 2-162 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0 1-1 0 0,-19 6 0 0 0,-55 31-1556 0 0,69-29 204 0 0,1 2-20 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17006.86">1067 3649 17071 0 0,'6'-1'353'0'0,"-3"0"-114"0"0,1 0 1 0 0,-1-1-1 0 0,0 2 0 0 0,0-1 1 0 0,1 1-1 0 0,3 0 0 0 0,8 12 2783 0 0,-12-9-2617 0 0,0 0 0 0 0,-1 2 1 0 0,0-2-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 8-1 0 0,2 2 263 0 0,7 47-324 0 0,6 47-344 0 0,-15-87 0 0 0,0 32 0 0 0,-3-31 0 0 0,1-19 0 0 0,1-8 0 0 0,-1-11 0 0 0,-1 11-8 0 0,2-1 1 0 0,-1 1-1 0 0,0 1 0 0 0,1-1 0 0 0,0-1 0 0 0,2-6 0 0 0,3-19-118 0 0,-5 9-379 0 0,8-40 1 0 0,-7 53 365 0 0,-1-1 0 0 0,-1 1 0 0 0,0-13 0 0 0,1-15 32 0 0,0 22 216 0 0,0 2 0 0 0,-2-19-1 0 0,1-2-477 0 0,0 38 620 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-2 0 0 0,5 8 0 0 0,-1 1-104 0 0,-1-2-145 0 0,1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,1 0 0 0 0,10 11 0 0 0,-13-17-2 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,8 3 0 0 0,17 8 0 0 0,-24-10 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,8-2 0 0 0,-3-3 0 0 0,-8 4 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-3 0 0 0,-1 3 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,2-1 0 0 0,-1 2 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-2 0 0 0,-1 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1-17 46 0 0,1 17-36 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,-2-3 0 0 0,2 3-11 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-2 0 0 0,-1 2 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-4 0 0 0,0 4-82 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-2 0 0 0,0 1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0-1 1 0 0,-7-7-566 0 0,7 9 599 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 9 0 0,0 1 1 0 0,0 0-1 0 0,0-2 1 0 0,0 2-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,-4-2-1761 0 0,3-3-3301 0 0,4-5-1978 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17397.34">1618 3678 19351 0 0,'2'7'940'0'0,"-2"7"-280"0"0,0-8-556 0 0,-1 1 0 0 0,2-2 0 0 0,-1 1 0 0 0,2 8 0 0 0,-2-12-142 0 0,1 5 251 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,6 7-1 0 0,-7-10-205 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 0 0 0 0,3 1 1 0 0,-5-2 40 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,3-2 0 0 0,0 0 99 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,4-4 0 0 0,-6 5-153 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-3-1 0 0,0 2 5 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-4-7 0 0 0,3 6 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-8-3 0 0 0,10 6 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-2 2 0 0 0,-1 0-64 0 0,-4 10-973 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17800.58">1980 3524 3224 0 0,'0'1'915'0'0,"-3"41"16436"0"0,-2-24-14827 0 0,4-14-2127 0 0,1 1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 9-1 0 0,0 17 627 0 0,-1-27-938 0 0,0 1-1 0 0,0-2 1 0 0,0 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,3 3-1 0 0,-2-3-25 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 8-1 0 0,-1 10 10 0 0,0 1 0 0 0,4 36 0 0 0,-2-56-134 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,3 5 0 0 0,6 15-496 0 0,4 8-2344 0 0,-12-42 2257 0 0,0-9-169 0 0,-14-72-279 0 0,11 81 744 0 0,0 1-1 0 0,0-19 1 0 0,1 18 332 0 0,-1-1 0 0 0,-2-14-1 0 0,3 21 74 0 0,-1 0 0 0 0,1-2 0 0 0,0 2 0 0 0,0 0 0 0 0,1 0 0 0 0,2-10 1 0 0,1-15 450 0 0,-4 19-362 0 0,1-2 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,7-12 1 0 0,-11 21-51 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-2 1 0 0,0 1-1 0 0,1 1 1 0 0,1-1-1 0 0,-1 1 28 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,5 3 0 0 0,-1-1-58 0 0,-1 1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,4 8-1 0 0,10 14 538 0 0,-14-19-372 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,3 11 1 0 0,1 9-509 0 0,1-1 0 0 0,25 48-1 0 0,-11-26-3972 0 0,-22-40 2565 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19221.39">2006 3744 17535 0 0,'-5'1'191'0'0,"3"-1"-93"0"0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-4-2 730 0 0,9 3 138 0 0,139-26 3330 0 0,0-18-6194 0 0,-143 44 1883 0 0,28-13-1056 0 0,-27 13 951 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1-1 0 0 0,-1 1-79 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,4 0 0 0 0,13-12-263 0 0,-4 25 2898 0 0,-13-10-2170 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,2 4 1 0 0,8 28 1050 0 0,-5-12-776 0 0,2-1 0 0 0,0 0 0 0 0,19 35 0 0 0,-20-42-538 0 0,20 32 0 0 0,-20-29 0 0 0,-17-23 0 0 0,-5-10 0 0 0,12 11 0 0 0,0 0 0 0 0,1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-2 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,3-11 0 0 0,-1 6 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 1 0 0 0,1-2 0 0 0,1 2 0 0 0,7-7 0 0 0,-10 10-12 0 0,1 0-1 0 0,0-1 1 0 0,0 2-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,8-1 0 0 0,-11 2 71 0 0,0 2-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 2-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,1 2-1 0 0,2 4 51 0 0,1-2 0 0 0,-2 1 0 0 0,5 9 0 0 0,-8-13-97 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 2 0 0 0,0 2-11 0 0,-1-2 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-5 7 0 0 0,5-9 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-6 2 0 0 0,1-1-2 0 0,0 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1-1 0 0 0,-15 0 0 0 0,69-5-797 0 0,38-1-387 0 0,-62 5 1186 0 0,-1-1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-2 0 0 0,1-1 0 0 0,-1 0 0 0 0,32-16 0 0 0,-32 13 0 0 0,-14 7 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,5-4 0 0 0,-4 2-33 0 0,0 2-134 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1-2-1 0 0,-1 2 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,1-6 0 0 0,-1 1 89 0 0,-2 7 73 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,-1-3 1 0 0,2 3 32 0 0,-1 2 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-2 1 0 0 0,-1 1 120 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 2-1 0 0,-5 3 1 0 0,7-6-144 0 0,-1 1 42 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 2 1 0 0,1-2-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,2 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-2 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,0 3-1 0 0,0-2 24 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 2 0 0 0,0-2 1 0 0,0 0-1 0 0,6 5 0 0 0,-2-4-68 0 0,0 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,16 3 0 0 0,-19-6 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0-1 0 0 0,-1 1 0 0 0,9-3 0 0 0,7-1-39 0 0,-16 4 25 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,4-3 1 0 0,20-9-440 0 0,-24 12 341 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-2 1 0 0,0 2-1 0 0,0 0 0 0 0,2-4 1 0 0,3-2 118 0 0,-2-2-1 0 0,1 1 1 0 0,-1-1 0 0 0,7-15 0 0 0,-11 20-86 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-2-11 0 0 0,-2-8-581 0 0,2 6 820 0 0,-1-1 0 0 0,0 2-1 0 0,-2-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,-10-20-1 0 0,15 36-97 0 0,1 1 1 0 0,-1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,-3-2 1 0 0,2 2 272 0 0,-13 11 393 0 0,13-7-693 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1 1 0 0 0,0-2-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 3-1 0 0,3 45-47 0 0,0-20 402 0 0,-1-28-275 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,1 0 1 0 0,0-1-1 0 0,3 6 1 0 0,5 13 200 0 0,-8-18-290 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 2 1 0 0,4 2-1 0 0,14 16-108 0 0,-17-18 88 0 0,0 1-1 0 0,0-2 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,1-1 0 0 0,12 4 0 0 0,-3-1-73 0 0,0-2 0 0 0,-1-1 1 0 0,1 0-1 0 0,18-1 0 0 0,-27-1-105 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,7-5 0 0 0,-11 6 84 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-2 1 0 0,0 2-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,2-7-1 0 0,0-5 15 0 0,-2 1 0 0 0,1-1 0 0 0,-2-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-2 0 0 0 0,-3-27 0 0 0,3 35 87 0 0,0 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,-6-11-1 0 0,9 17 802 0 0,-1 1-786 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 2 0 0 0,1-2 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-3 18 467 0 0,3-15-447 0 0,-1 2-46 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,0-1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,3 9 0 0 0,2 2 199 0 0,-3-8 242 0 0,0-1 0 0 0,8 15 0 0 0,-9-20-369 0 0,0-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,2 5 0 0 0,5 0-67 0 0,-1 0 0 0 0,20 12 0 0 0,-24-16-7 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,10 0 0 0 0,-10-1 26 0 0,1 0-172 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,10-2 1 0 0,-15 2 94 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0-2 1 0 0,3-8 52 0 0,-3 10 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-3 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,2-10 0 0 0,0 1 0 0 0,-1 16 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,5 8 0 0 0,-1 13 0 0 0,-3-17 0 0 0,-1 2 0 0 0,1-2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1-1 0 0 0,-1 2 0 0 0,0-2 0 0 0,6 6 0 0 0,-2 2 0 0 0,-6-10 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,2 1 0 0 0,22 12 0 0 0,-19-11-186 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,8-2 0 0 0,0 0-833 0 0,0-1-5 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19889.98">3880 3273 5064 0 0,'0'0'389'0'0,"1"-1"-250"0"0,4-6-1326 0 0,4-6 2705 0 0,7-5 6208 0 0,-15 17-7376 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 3 0 0 0,2 1-142 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 1 0 0 0,0-1-1 0 0,-1-1 1 0 0,3 11 0 0 0,-1 6 371 0 0,2 24 0 0 0,-5-42-497 0 0,1 20 30 0 0,-2 1 0 0 0,-4 33 0 0 0,0 22 7 0 0,3-62-119 0 0,2-14 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,1-1 0 0 0,0 4 0 0 0,0-5 6 0 0,-1 0-9 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 2-1 0 0,0-2 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,0 0-341 0 0,1-1 326 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-6-4-669 0 0,2 0 563 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-3-6 0 0 0,3 6-83 0 0,0-1 0 0 0,0 1-1 0 0,-7-7 1 0 0,0 1-222 0 0,7 6 379 0 0,0 1 0 0 0,-1 0 0 0 0,-7-5-1 0 0,10 8 51 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-2 1 0 0 0,1-1 35 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 2-1 0 0,1-2 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0 3 1 0 0,1-4 1 0 0,0 0 1 0 0,0-1 0 0 0,0 2 0 0 0,1-2 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2-1 0 0,0-2 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3 4 0 0 0,2 0 14 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1-2 0 0 0,8 4 1 0 0,-12-7 6 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-2 1 0 0,-1 0-1 0 0,6 0 0 0 0,18 2-12 0 0,-17-2-109 0 0,0 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,0-2 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,16-9-1 0 0,-23 10 62 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-2 0 0 0,1 2 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,3-10 0 0 0,-1 2 2 0 0,-5 12-3 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-2-1 0 0,0 2 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-76 0 0,2 3 92 0 0,7 24-4 0 0,-8-25-12 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,2 3 28 0 0,1 0 0 0 0,0 1 0 0 0,-1-2 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,8 1-1 0 0,-5-1 47 0 0,0-1-1 0 0,0 1 1 0 0,1-2-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,13-3 1 0 0,-14 1-2 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,9-9-1 0 0,-13 11-69 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-4 0 0 0,-6-3 0 0 0,-1 0-1 0 0,0-1 0 0 0,0 2 0 0 0,-21-11 0 0 0,24 15-149 0 0,0-1-1 0 0,0 2 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-15 0-1 0 0,-7 1-1165 0 0,29 0 802 0 0,-1 7-3951 0 0,1 6-189 0 0,1-2 1581 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20408.03">4479 3316 17503 0 0,'6'-12'352'0'0,"1"1"-1"0"0,0 0 1 0 0,10-13-1 0 0,-14 20-80 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,9-3 2920 0 0,-13 6-3098 0 0,1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 1-1 0 0,-1-2 1 0 0,0 1 0 0 0,1 1 0 0 0,3 12 414 0 0,-3-4-218 0 0,0-2 0 0 0,-1 2-1 0 0,0-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,-2 9-1 0 0,-2 21-149 0 0,-8 71-138 0 0,5-60 0 0 0,7-15 4 0 0,1-12-72 0 0,0-21-269 0 0,7-83-3302 0 0,-11 3 3683 0 0,-1-19-140 0 0,6 85 364 0 0,-1 2 1 0 0,2-2-1 0 0,-1 2 0 0 0,1-1 1 0 0,1 1-1 0 0,6-17 1 0 0,-5 17-120 0 0,3 3-133 0 0,-6 7-3 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,2 2 174 0 0,0 2-1 0 0,0-2 1 0 0,3 12-1 0 0,0-3 104 0 0,8 20 34 0 0,18 61 0 0 0,5 10-364 0 0,-34-95-19 0 0,1-2-1 0 0,0 2 0 0 0,0-2 1 0 0,1 0-1 0 0,5 7 1 0 0,-1-1-277 0 0,-5-7-3695 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21027.07">4524 3484 18575 0 0,'0'0'900'0'0,"15"0"215"0"0,24 0 346 0 0,39-7-1 0 0,-66 4-1843 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-3 0 0 0,1 2 0 0 0,18-15 0 0 0,11-14-3587 0 0,-22 16 1821 0 0,-11 11 1508 0 0,-2 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-2-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,5-17-1 0 0,-7 19 835 0 0,9-34 1244 0 0,-10 38-807 0 0,0-1 0 0 0,-1 1 0 0 0,0-2 0 0 0,1 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-4-6 7475 0 0,5 10-7979 0 0,-6 9 1787 0 0,-2 10-1139 0 0,-1 13 534 0 0,5-19-1150 0 0,0-2-1 0 0,2 2 1 0 0,-1-1 0 0 0,1 2 0 0 0,1-1-1 0 0,0 19 1 0 0,3-18 168 0 0,0 0-1 0 0,1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,9 20 1 0 0,-11-30-325 0 0,0 2 1 0 0,0-3-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,2 2 1 0 0,9 11-4 0 0,-12-13 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,5 5 0 0 0,7 2 0 0 0,-13-6-61 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,3-2-1 0 0,-3 1-132 0 0,0 0 0 0 0,1 0 0 0 0,-1-2-1 0 0,0 2 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-2 1 0 0,0 2 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,2-6-1 0 0,-1-4 35 0 0,0 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-4-17 0 0 0,3 14 1156 0 0,1 15-311 0 0,0 10-374 0 0,1 5-140 0 0,-1 0 0 0 0,1 0-1 0 0,1 1 1 0 0,0-2 0 0 0,5 17-1 0 0,-5-23-91 0 0,0-1 0 0 0,0 1-1 0 0,1 1 1 0 0,0-2 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,9 6 1 0 0,-8-7-79 0 0,15 9 0 0 0,19-3 0 0 0,-38-10 0 0 0,1 0 0 0 0,-1 2 0 0 0,0-2 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-2 0 0 0,-1 2 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,2-2 0 0 0,4 0 0 0 0,-5 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,2-3 0 0 0,-3 1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-2 0 0 0,0 2 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-2 0 0 0,1-5 0 0 0,1-4 0 0 0,-2 12 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1-3 0 0 0,-2-7 0 0 0,0-1 0 0 0,-5-13 0 0 0,8 25 0 0 0,-8-33 0 0 0,9 26 0 0 0,4 3-133 0 0,-3 4-563 0 0,13 14-4199 0 0,6-5 786 0 0,-13 2 2015 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21413.38">5418 3336 4608 0 0,'0'0'208'0'0,"7"4"32"0"0,16 2 4419 0 0,-21-6-3434 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,2 1 1 0 0,-4-1-934 0 0,1-1 1 0 0,-1 2 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1 0-1 0 0,6 11 1300 0 0,-1-1 0 0 0,9 22-1 0 0,-12-21-1216 0 0,-1-5-120 0 0,0-1-1 0 0,0-1 0 0 0,1 2 0 0 0,4 7 0 0 0,-9-18-293 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-5 0 0 0,-3-11-477 0 0,2 14 503 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,1-2 1 0 0,-1 2-1 0 0,0-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,2-8 1 0 0,0 4 172 0 0,1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,9-10 0 0 0,-11 14-158 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-2 0 0 0,-1 2 0 0 0,1 1 0 0 0,5-3 0 0 0,-7 3 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,4 2 0 0 0,-4-1 25 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,2 6 1 0 0,0 2 36 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,0 19 1 0 0,7 0-2829 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22097.56">5730 3305 19351 0 0,'0'0'940'0'0,"2"-1"-406"0"0,8-15 95 0 0,-3 13-612 0 0,-5 3 111 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,2 3-1 0 0,1 1 197 0 0,0 2-1 0 0,-1-2 1 0 0,0 1 0 0 0,3 8-1 0 0,3 7 528 0 0,-6-16-725 0 0,-1 1-1 0 0,0 1 1 0 0,0-2-1 0 0,0 1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 10 1 0 0,4 25 152 0 0,-3-32-219 0 0,-1-8-146 0 0,-1-2-119 0 0,0 0 200 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0-2 0 0 0,1-8 8 0 0,-1-4-573 0 0,0 2 0 0 0,4-21 0 0 0,0 5 738 0 0,-4 21-169 0 0,1 2 1 0 0,0 0 0 0 0,0-1 0 0 0,1 2 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 1-1 0 0,4-5 1 0 0,-1 2 350 0 0,-7 5-293 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,2 1 0 0 0,-2-1-56 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,3 5 0 0 0,-1-1 0 0 0,0 0 0 0 0,3 11 0 0 0,4 16 33 0 0,-8-26-16 0 0,1 0 1 0 0,0 2-1 0 0,0-2 1 0 0,0 0-1 0 0,1 1 0 0 0,5 5 1 0 0,-9-12-51 0 0,1 0 15 0 0,-1 1 1 0 0,1-1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,2-1 0 0 0,2 0-302 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,7-5 0 0 0,-9 4 309 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,5-6 0 0 0,3-2-392 0 0,-8 8 278 0 0,-1 1 0 0 0,0-2 1 0 0,0 1-1 0 0,0 0 1 0 0,0 1-1 0 0,2-5 0 0 0,-3 2 21 0 0,1 1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,3-5 0 0 0,-5 7 138 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1 0 124 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,3 5 0 0 0,-1-2-60 0 0,21 14-97 0 0,-18-13 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 2 0 0 0,1-3 0 0 0,14 6 0 0 0,-21-9 0 0 0,2 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,3-1 0 0 0,-3 1 26 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-4 1 0 0,1-9 634 0 0,-2 13-621 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-3 0 0 0,-8-23 190 0 0,7 20-229 0 0,0-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,-6-9 0 0 0,4 8 12 0 0,1 0-353 0 0,0 2 0 0 0,-1 0 0 0 0,-6-7 0 0 0,3 6-254 0 0,6 4 144 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 1-1 0 0,-1-2 0 0 0,1 1 0 0 0,-7-1 0 0 0,-2-1-7570 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23481.19">1240 4378 15664 0 0,'0'-1'62'0'0,"1"0"0"0"0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-2-1-1 0 0,1 1 55 0 0,1-2 0 0 0,-1 2 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-5 0 2077 0 0,7 0-2142 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-2 0 0 0,0 2-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 2-1 0 0,0-2 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-2 1-1 0 0,-6 8 599 0 0,6-8-495 0 0,0 2 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-2 5 0 0 0,-2 11-59 0 0,2 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,2 0-1 0 0,0 0 0 0 0,2 1 1 0 0,0-1-1 0 0,5 21 1 0 0,-6-37-102 0 0,0 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 1-1 0 0,0-2 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,6 2 1 0 0,4 1 72 0 0,-13-4-73 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,2 0-1 0 0,4-1-6 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,6-6 0 0 0,5-4 6 0 0,-2-2 0 0 0,20-25-1 0 0,-26 29-26 0 0,8-4-23 0 0,-13 13 60 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,2-5 1 0 0,2-4 13 0 0,0-5-19 0 0,-5 17 3 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-2 0 0 0,1 2 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,-6 7 0 0 0,7-6 40 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 4 0 0 0,0 8 250 0 0,-1 2 65 0 0,-1-12-326 0 0,1-1 0 0 0,0 2-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1 1 1 0 0,-1-2 0 0 0,4 6 0 0 0,1-1-75 0 0,0-2 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-2 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-2 0 0 0,0 0 0 0 0,0 0 0 0 0,18 6 0 0 0,-20-7 115 0 0,1-1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,10-4 1 0 0,-12 4-74 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0-1-1 0 0,0 2 1 0 0,-1-1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,-3-10-1 0 0,2 12 7 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,-4 0 1 0 0,-7-2 29 0 0,13 3-27 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 2 1 0 0,-2-1-1 0 0,-3 1-279 0 0,-38 4-4455 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24018.83">1912 4295 23039 0 0,'0'0'2315'0'0,"0"1"-2123"0"0,5 9-54 0 0,-3-5 51 0 0,0-2 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 6 0 0 0,-2-6-70 0 0,2 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,2 3-1 0 0,11 21 861 0 0,-5-5-485 0 0,-7-18-527 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 8 0 0 0,0 2-27 0 0,0-5 35 0 0,-1-1 0 0 0,5 16 0 0 0,-4-5-334 0 0,-2-19 307 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,1 3-1 0 0,1 4-180 0 0,-7-5 108 0 0,4-3 119 0 0,-1 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 2 1 0 0,0-2 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2-1 0 0,0 0-359 0 0,1-20-1239 0 0,0-15 1604 0 0,0 0 0 0 0,0 27 0 0 0,-2 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-4-8 0 0 0,0-7 0 0 0,-4-1 0 0 0,7 19 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-2 0 0 0,1-1 0 0 0,1-7 0 0 0,-1 9 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1-3 0 0 0,0 1 19 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-9 0 0 0,0 12 50 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 2 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-2 0 0 0,1 2 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4 0 0 0 0,1-2-59 0 0,0 2 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,10 5 0 0 0,3 3 135 0 0,-1 0 0 0 0,17 15 0 0 0,-29-21-99 0 0,-2 1 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,3 11-1 0 0,-1-4-107 0 0,-2 2-1 0 0,0 0 0 0 0,0 0 1 0 0,3 26-1 0 0,-8-37 134 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,-1-2 0 0 0,1 0 0 0 0,-1 0 0 0 0,-3 4 0 0 0,-2 0-261 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 1 0 0,-2-1-1 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-18 3 0 0 0,11-5 99 0 0,0 0 1 0 0,0-1 0 0 0,0 0 0 0 0,0-1-1 0 0,-20-4 1 0 0,32 2-215 0 0,0 0-1 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0-1-1 0 0,-7-5 1 0 0,11 8 223 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,11-8-7425 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24591.15">2380 4244 12440 0 0,'0'0'10835'0'0,"0"2"-9800"0"0,2 9-393 0 0,0-2 1 0 0,-1 2-1 0 0,-1-1 0 0 0,0 15 1 0 0,0-14-388 0 0,0 1 1 0 0,1-1 0 0 0,0 1 0 0 0,3 14-1 0 0,1-8 65 0 0,2 23-1 0 0,8 16-511 0 0,-8-35 175 0 0,-4-16 123 0 0,-3-4 122 0 0,-4-12-2563 0 0,2 6 2161 0 0,1 0 1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-2 1 0 0,1 1 0 0 0,-1-4 0 0 0,-4-18 126 0 0,4 18 47 0 0,-1 0 0 0 0,1 0 0 0 0,0-13 0 0 0,0-2 0 0 0,-1 3 0 0 0,2-1 0 0 0,1 1 0 0 0,4-30 0 0 0,-4 36 0 0 0,-1 11 4 0 0,0 3-2 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 336 0 0,0 2 136 0 0,11 11 237 0 0,58 66-506 0 0,-62-69-185 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0-2 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0-1 0 0 0,15 7 0 0 0,70 26-20 0 0,-92-37 3 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,5 0-1 0 0,-5 0 43 0 0,-2-1 94 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,2-3-1 0 0,0-20-124 0 0,-6 11-37 0 0,0 0-1 0 0,-1 1 0 0 0,-1-1 1 0 0,-13-20-1 0 0,11 18-72 0 0,0 0-1 0 0,-10-25 0 0 0,14 29-271 0 0,0-1 0 0 0,1 1 0 0 0,0-2-1 0 0,1 0 1 0 0,0 1 0 0 0,1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,3-13 1 0 0,-1 17-175 0 0,-1 7 237 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,2-3-1 0 0,8-8-7202 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24949.2">2877 4110 15408 0 0,'1'2'704'0'0,"8"19"727"0"0,1 0 1 0 0,23 36 0 0 0,8 14 3111 0 0,-28-42-4003 0 0,-7-21-488 0 0,-2 0 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 2 0 0 0,-1-2 0 0 0,0 2 0 0 0,1 17 0 0 0,-2-24 48 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 2 1 0 0,0-1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-4 6 0 0 0,-1-5-100 0 0,6-4 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-2-2 0 0 0,-4-4-63 0 0,-23-23-1488 0 0,13 12 1174 0 0,15 17 377 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,4-4 0 0 0,0 0 0 0 0,0 2 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,6 0 0 0 0,27-7 0 0 0,-27 6 0 0 0,0 0 0 0 0,0-1 0 0 0,15 1 0 0 0,20-5 0 0 0,-44 8-138 0 0,80-23 684 0 0,-43 6-2152 0 0,-2-5-5356 0 0,-25 10-557 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25415.44">3125 4083 21191 0 0,'0'0'1027'0'0,"2"0"-448"0"0,19-1-144 0 0,12-4-46 0 0,19-6 173 0 0,-20 2 214 0 0,146-32 1679 0 0,-164 36-3456 0 0,10-1-1999 0 0,-9 3 1466 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30048.69">1339 5550 21191 0 0,'1'0'90'0'0,"-1"0"0"0"0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 2 0 0 0,1-1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 2 0 0 0,5 14 1021 0 0,2-7-536 0 0,-4-5-373 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 9 0 0 0,0-6 36 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,4 12 1 0 0,-4-12-24 0 0,0 1 0 0 0,0 1 0 0 0,2 8 0 0 0,-3-1-36 0 0,1-1-77 0 0,0 1 0 0 0,1-1 1 0 0,5 16-1 0 0,1-3-22 0 0,3 0 0 0 0,0 1 0 0 0,18 27 0 0 0,-19-29 225 0 0,-9-23-318 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,4 4 0 0 0,6 10-628 0 0,-11-16 382 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,4 0 0 0 0,11-3-7291 0 0,-13 2 5504 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30433.09">1361 5600 19351 0 0,'-6'-2'639'0'0,"6"-2"-205"0"0,11-2 77 0 0,4-2 8 0 0,-8 3-479 0 0,0 1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 2 1 0 0,-1-1-1 0 0,17-3 1 0 0,-3 1 566 0 0,63-18 1169 0 0,70-22 1728 0 0,-126 37-5279 0 0,0 5-4048 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30785.83">1377 5745 19351 0 0,'-13'3'169'0'0,"-15"0"602"0"0,27-3-237 0 0,0 1-65 0 0,2 2-296 0 0,6-2-68 0 0,5-3 237 0 0,5-3 391 0 0,-14 3-603 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,5 1 0 0 0,71-11 476 0 0,-51 7-362 0 0,-1 0-1 0 0,1 2 0 0 0,-1 1 0 0 0,35 3 0 0 0,-55 0-242 0 0,-3-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,6 3 0 0 0,-6-3 23 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,6 0 0 0 0,7 1 87 0 0,-12-1-101 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-2 0 0 0,-1 2-1 0 0,6-4 1 0 0,12-3-8 0 0,-12 6-1 0 0,-1-2 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-2 0 0 0,9-5 0 0 0,7-2 0 0 0,-19 11 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,3-4 0 0 0,0 1 0 0 0,-6 5 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,3-6 0 0 0,-3-3 0 0 0,-1 8 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-4-2 0 0 0,2 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-2 0 0 0,-1 2 0 0 0,1 0 0 0 0,-5 0 0 0 0,4 1 29 0 0,1-1-1 0 0,-1 2 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-5 6-1 0 0,0 0 180 0 0,0-1-1 0 0,1 0 0 0 0,0 2 0 0 0,1-1 0 0 0,-9 14 1 0 0,10-14-73 0 0,0 1 0 0 0,1-2 0 0 0,-1 1 1 0 0,1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 2-1 0 0,1-2 0 0 0,-1 2 1 0 0,1-2-1 0 0,1 1 0 0 0,-1 1 1 0 0,1-2-1 0 0,1 2 0 0 0,1 12 1 0 0,1-9-91 0 0,-1 0 0 0 0,2 0-1 0 0,6 18 1 0 0,-8-26-46 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 2-1 0 0,-1-2 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2 0 0 0,1 1 0 0 0,-1-1 0 0 0,5 2 0 0 0,5 1-113 0 0,0 1-1 0 0,1-2 1 0 0,-1 0-1 0 0,1-1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,18-1 1 0 0,-16 0-839 0 0,0-2 0 0 0,0 0 0 0 0,-1 0 0 0 0,17-6 1 0 0,-13 0-5038 0 0,0-2-1721 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31290.82">2327 5508 5064 0 0,'0'0'7737'0'0,"0"8"-5397"0"0,-6 60 7144 0 0,1 0-7111 0 0,-4 98 123 0 0,9-132-2580 0 0,0-33-34 0 0,4-16-1511 0 0,-3 5 1486 0 0,0-1-1 0 0,1 1 1 0 0,2-11-1 0 0,-2 10-70 0 0,0-1-1 0 0,0 2 1 0 0,0-13-1 0 0,5-44-393 0 0,-6 42 608 0 0,1 1 0 0 0,6-32 0 0 0,-3 41 6 0 0,-4 12 254 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1-3-1 0 0,6 12-43 0 0,0 7 98 0 0,-1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,6 19 0 0 0,9 27 73 0 0,-10-38-383 0 0,2 0 0 0 0,1 0 0 0 0,0-1 0 0 0,25 30 0 0 0,-33-45-5 0 0,0-1 0 0 0,1 2 0 0 0,-1-2 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1-2 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,10 1 0 0 0,-12-2 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,8-3 0 0 0,-11 3 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-2 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-3 0 0 0,2-6 0 0 0,-1-2 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2-18 0 0 0,1 22 0 0 0,0 3 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-4-9 0 0 0,-1 2 0 0 0,-18-25 0 0 0,18 28-391 0 0,1-1 0 0 0,0 0 0 0 0,0-1-1 0 0,-7-18 1 0 0,13 28 250 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-2 1 0 0,0 2-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,22 3-2011 0 0,0 5 106 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31658.93">2941 5592 6912 0 0,'0'0'622'0'0,"2"0"-512"0"0,13-4 10827 0 0,-14 0-8985 0 0,-1 3-1215 0 0,-11-10 896 0 0,10 11-1519 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 1 0 0 0,-1-2 1 0 0,1 1-1 0 0,0 0 0 0 0,-2 1 1 0 0,-19 22 1488 0 0,14-15-1324 0 0,4-3-221 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,1 2 0 0 0,0-1 1 0 0,-1 1-1 0 0,2 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 14 0 0 0,0-16-40 0 0,0 1 1 0 0,1-2-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 2-1 0 0,1-2 0 0 0,0 1 0 0 0,0-1 1 0 0,0 2-1 0 0,5 4 0 0 0,-7-9-33 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,2 0-1 0 0,16-13-380 0 0,4-10-86 0 0,-11 12 245 0 0,-10 11 206 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1-3 1 0 0,2-10-25 0 0,-2 12 50 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-2 1 0 0,-1 2 0 0 0,0-4-1 0 0,0-4 8 0 0,1 8 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-2-5 0 0 0,0 5 84 0 0,1 4 137 0 0,1 12 450 0 0,3 19 305 0 0,-2-26-980 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,8 6 0 0 0,-8-6-106 0 0,-3-4-191 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1-1 0 0 0,2 1-609 0 0,11 0-1136 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32005.34">3330 5550 21191 0 0,'0'0'1606'0'0,"-8"4"-904"0"0,5-4-577 0 0,1 0 0 0 0,-1 1 0 0 0,1 1-1 0 0,0-1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 3 0 0 0,0 1 115 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,3 8 0 0 0,-2-10-244 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,3 0 0 0 0,12 6-9 0 0,-17-7-5 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,5 0 1 0 0,1-1-210 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,12-7 0 0 0,-8 3 231 0 0,28-14-2752 0 0,-33 16 1623 0 0,5-4-5881 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33379.71">1602 6061 19351 0 0,'-2'1'106'0'0,"1"0"0"0"0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 2 0 0 0,-10 16 194 0 0,7-15-264 0 0,1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 2 0 0 0,-3 10 1 0 0,3-9 362 0 0,-1-1 1 0 0,0 1 0 0 0,-5 10-1 0 0,6-15-175 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 7-1 0 0,0 2-101 0 0,1-8-131 0 0,0-1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,-3 5 1 0 0,4-7-5 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 2 1 0 0,1-1 0 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 6 1 0 0,0-5 12 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,-3 2 0 0 0,-7 17 0 0 0,11-22 5 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,-2 0-1 0 0,2 0 185 0 0,1-3-180 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 2 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,3-4 0 0 0,3-7-35 0 0,24-61-674 0 0,-26 61 689 0 0,-1 2 0 0 0,0-2 1 0 0,5-22-1 0 0,5-14 19 0 0,-12 43 13 0 0,-1 0-1 0 0,1-1 0 0 0,-1 0 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-9 0 0 0,0 9 22 0 0,1-2 0 0 0,-1 2 0 0 0,1-1 0 0 0,3-10 0 0 0,3-9 376 0 0,-3 30-267 0 0,-1-1 1 0 0,0 0-1 0 0,0 2 1 0 0,-1-2-1 0 0,5 11 1 0 0,8 15 188 0 0,35 49 425 0 0,-45-73-765 0 0,1 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,0 0 0 0 0,10 8 0 0 0,7 5 0 0 0,-20-16-20 0 0,-1 0-1 0 0,2 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,3 0 1 0 0,2-9 251 0 0,-5 5-161 0 0,-3 4-64 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0-1 1 0 0,-1-31 177 0 0,0 5 218 0 0,3 19-381 0 0,-2 8-15 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-3 0 0 0,-1-10 5 0 0,-1-2-104 0 0,1 12 33 0 0,0 0-1 0 0,0 1 0 0 0,0-2 0 0 0,1 1 0 0 0,0 0 0 0 0,0-7 0 0 0,1 11-219 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33759.8">1923 6156 19351 0 0,'0'0'940'0'0,"0"1"-406"0"0,0 1-499 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-2 0 0 0 0,-16 12-40 0 0,8-6 23 0 0,10-7-5 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 2 1 0 0,0-2-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1 0-1 0 0,20 16 798 0 0,-18-15-720 0 0,3 1 204 0 0,-1 2-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 1 1 0 0,-1-1-1 0 0,4 8 0 0 0,-7-13-292 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,2-1 0 0 0,20-1-4 0 0,-14 1 4 0 0,-3-1 97 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-1-1 0 0 0,8-6-1 0 0,-10 8-2 0 0,1 0-25 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 1 0 0,2-6-1 0 0,-4 8-63 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1-2 0 0 0,-4-7 102 0 0,5 9-99 0 0,1 0-1 0 0,-2 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-2 1 0 0,-1 2-1 0 0,0 0 1 0 0,1 0-1 0 0,-4-2 1 0 0,-6-2-68 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,-21-4 0 0 0,32 8 58 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,-2 1 0 0 0,-5 1-505 0 0,0 0 1 0 0,1 0-1 0 0,-1 2 0 0 0,-13 8 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34421.53">2455 6131 13824 0 0,'0'0'1056'0'0,"3"-13"-600"0"0,-3 11-349 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-2-2 0 0 0,0-5 1072 0 0,1 7-1062 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-2 0 0 0 0,-14-5 6019 0 0,16 8-6069 0 0,0-1 0 0 0,1 2 1 0 0,-1-1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,2 4-1 0 0,19 16-371 0 0,-2-2 323 0 0,4 13 261 0 0,20 26-155 0 0,-42-56-88 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 3 0 0 0,6 14 19 0 0,-8-19-72 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 1 1 0 0,-1 2-46 0 0,1-3 10 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,-2 0 1 0 0,-4 1-275 0 0,8-1 321 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,-1-2 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-2 0 0 0,1 2 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-2 1 0 0,1 1-47 0 0,-1 0-318 0 0,-1-6-1070 0 0,3 5 1428 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,1 2 0 0 0,3-3 0 0 0,2-3 14 0 0,-4 4-2 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,5-1 0 0 0,6-3 0 0 0,25-10 0 0 0,-27 11 0 0 0,0-2 0 0 0,15-6 0 0 0,14-8 0 0 0,-33 17 0 0 0,0-2 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,8-8 0 0 0,-11 8 0 0 0,-3 5 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-2 0 0 0,1 3 24 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,-1 1 54 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-2 3-1 0 0,2-1 48 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,-1 8 0 0 0,2-8-20 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,1 6 0 0 0,-2-9-167 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 2 1 0 0,1-2-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,5 2-1 0 0,5 4-508 0 0,2-1-1610 0 0,-5-6-3246 0 0,1-5-2092 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35024.74">3085 5860 15608 0 0,'-1'0'83'0'0,"1"0"0"0"0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,2 5-258 0 0,1 0 928 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,2 10 0 0 0,21 88 3612 0 0,-24-98-4160 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,5 10 0 0 0,-5-11 0 0 0,1 1-1 0 0,-1 1 1 0 0,0 0 0 0 0,2 7 0 0 0,-1-1 434 0 0,8 22 1 0 0,-6-23-693 0 0,-2-1 0 0 0,4 18 0 0 0,-4-15-62 0 0,-2-11 99 0 0,0 2-1 0 0,-1-2 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 5-1 0 0,0 1-568 0 0,-6-14-62 0 0,-15-10 588 0 0,15 12 35 0 0,1 1 1 0 0,0-2-1 0 0,0 1 0 0 0,1-2 1 0 0,-1 1-1 0 0,1 0 1 0 0,-8-9-1 0 0,5 3 99 0 0,-1-1-1 0 0,-15-14 1 0 0,23 25-75 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,-3 11 0 0 0,3-10 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 2 0 0 0,0-2 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-2 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,3 2 0 0 0,4 2 23 0 0,1-2-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-2-1 0 0,0 0 1 0 0,0 1 0 0 0,0-2-1 0 0,0 0 1 0 0,0-1 0 0 0,1 0-1 0 0,14-4 1 0 0,72-6-259 0 0,-85 8 205 0 0,-1 0 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,20-9-1 0 0,-28 10 6 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,3-10 1 0 0,-3 10 65 0 0,-1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,-3-7 0 0 0,0 3-40 0 0,-3 1 0 0 0,2 4 0 0 0,-7 0 0 0 0,10 6 0 0 0,1-3 0 0 0,0 1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,-1 3 0 0 0,1-2 8 0 0,1 0-1 0 0,0-1 1 0 0,0 2 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,0 2 1 0 0,0 2 57 0 0,0-2 0 0 0,1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,9 3 0 0 0,-2 0-39 0 0,-5-4-94 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-2 1 0 0,-1 1-1 0 0,0-1 0 0 0,9 0 1 0 0,2 0-461 0 0,-6 0-1757 0 0,1-1-3340 0 0,4-2-3003 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">15 492 11600 0 0,'0'0'264'0'0,"0"-3"317"0"0,0-17 10173 0 0,0 21-10055 0 0,-3 10-406 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,1 13-1 0 0,0 7 160 0 0,2 51 497 0 0,3-1 1 0 0,19 87-1 0 0,-18-128-904 0 0,9 46-246 0 0,46 166 725 0 0,31 278 0 0 0,-79-403-320 0 0,13 100-80 0 0,-9-57 442 0 0,-6-36-212 0 0,67 461-650 0 0,-60-470 321 0 0,9 74 41 0 0,-1-8-27 0 0,-6-49-25 0 0,36 214 178 0 0,-29-167-441 0 0,-16-95 42 0 0,30 206 644 0 0,-10-122-773 0 0,-22-139 286 0 0,1 4-6 0 0,-7-17 4 0 0,1-1 1 0 0,9 24-1 0 0,12 40-252 0 0,-21-71 146 0 0,-4-14 95 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,2 3 1 0 0,-2-4 20 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,1 5-1 0 0,-3-7 41 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,2 1 0 0 0,0 0-426 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,6 0 0 0 0,-3-8-2127 0 0,0 0 849 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4257.55">110 1423 15520 0 0,'0'0'356'0'0,"-7"4"4926"0"0,8-5-5138 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 1 0 0 0,16-2 755 0 0,-4-2-489 0 0,-1 1 0 0 0,0 0 0 0 0,29 1 0 0 0,-36 1-251 0 0,1-1 0 0 0,-1 0-1 0 0,9-3 1 0 0,17-2 646 0 0,191-25-94 0 0,-189 25-371 0 0,78-7 1048 0 0,-26 3-1171 0 0,574-44-205 0 0,-450 44 257 0 0,381-15 890 0 0,-39-4-762 0 0,-179 23-912 0 0,-63 3 217 0 0,-180 1 451 0 0,57-3-159 0 0,-165 3-451 0 0,142-19 1626 0 0,9-5-2146 0 0,-139 21 292 0 0,59-2 517 0 0,-61 5 171 0 0,67-5 1381 0 0,-84 3-1263 0 0,-16 4-411 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5170.24">1622 385 15664 0 0,'0'0'1417'0'0,"12"-3"677"0"0,-8 2 1761 0 0,-2 1-3731 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,2 2 0 0 0,1 2 216 0 0,0 1 1 0 0,-1-1-1 0 0,2 10 0 0 0,-1-1-147 0 0,0 1 0 0 0,-2 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-2 22 0 0 0,-18 80 901 0 0,15-92-1052 0 0,-13 49 130 0 0,9-42-76 0 0,-5 39-1 0 0,4-21-241 0 0,6-32 111 0 0,-1 22 0 0 0,2-17 100 0 0,2-13-61 0 0,0 0-1 0 0,0 0 1 0 0,2 19 0 0 0,1 4-1282 0 0,-3-31-521 0 0,1-21 996 0 0,2-8 480 0 0,1 0 0 0 0,7-32 0 0 0,-5 32-164 0 0,43-173-2153 0 0,-24 94 2625 0 0,-15 61 14 0 0,16-110 1 0 0,-19 108 0 0 0,-4 31 48 0 0,1-12 450 0 0,-3 26-413 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 2 428 0 0,0 0-422 0 0,1 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 2 0 0 0,17 24-131 0 0,-13-18 98 0 0,39 75 1175 0 0,-10-17-432 0 0,4 16-712 0 0,-30-66 304 0 0,0 0 0 0 0,-1 2 0 0 0,-1-1 0 0 0,10 38 0 0 0,-7-26-373 0 0,-7-22-28 0 0,0 0 0 0 0,3 13 0 0 0,1 13-245 0 0,-5-24 63 0 0,0 0 0 0 0,0 0 1 0 0,0 15-1 0 0,1 46-2848 0 0,-9-64-2373 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5540.92">1527 810 6912 0 0,'-9'4'112'0'0,"4"-3"44"0"0,0 1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-5 12 8963 0 0,10-14-8951 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,2 1 1 0 0,5 2 429 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1-1-1 0 0,1 1 0 0 0,8-1 1 0 0,59-3 366 0 0,45-16 285 0 0,-87 11-2193 0 0,-10 1-1673 0 0,-6 3-2798 0 0,4-1-2467 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5979.77">2137 448 17159 0 0,'0'0'1719'0'0,"-2"7"-1404"0"0,-10 70 4379 0 0,7-52-3745 0 0,-14 38-1 0 0,18-61-923 0 0,-3 14 246 0 0,1-1 1 0 0,1 1 0 0 0,0 20-1 0 0,1-29-208 0 0,1 3-26 0 0,0 1 0 0 0,1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,8 17 0 0 0,-4-11 16 0 0,1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,23 24-1 0 0,-31-38-52 0 0,3 6 0 0 0,1-1 0 0 0,0 1 0 0 0,1-2 0 0 0,0 1 0 0 0,-1-1 0 0 0,2 0 0 0 0,-1 0 0 0 0,10 4 0 0 0,-14-7 0 0 0,-2-2 0 0 0,15-1 0 0 0,-14 1-11 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,1-3 1 0 0,1 0-44 0 0,0-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,4-10-1 0 0,-1-7-652 0 0,7-42 0 0 0,7-45 694 0 0,-10 58 16 0 0,-9 50-2 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,4-4 0 0 0,-6 17 380 0 0,0-1-1 0 0,1 1 1 0 0,1 15-1 0 0,0 1 87 0 0,-1-24-464 0 0,0 20-54 0 0,0 0 0 0 0,5 23 1 0 0,-2-35 55 0 0,0 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 0 1 0 0,15 11-1 0 0,-14-13 17 0 0,1 0-1 0 0,0-1 1 0 0,1 0 0 0 0,14 3-1 0 0,-19-5-19 0 0,1-1-1 0 0,1 1 0 0 0,-1-2 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,9-6 0 0 0,-13 6 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,3-4 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-16 0 0 0,-3 15 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,-7-7 0 0 0,-1-6 0 0 0,11 17 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-4-4 0 0 0,-5-4-88 0 0,2 3-306 0 0,-14-19 0 0 0,14 16-298 0 0,5 11-2730 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6621.49">2809 583 17503 0 0,'0'0'858'0'0,"8"4"43"0"0,-6-2-773 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,2 6 1 0 0,0 5 2194 0 0,4 24 1 0 0,-7-35-2128 0 0,1 13 296 0 0,0 28 0 0 0,-2-28-248 0 0,2-1-1 0 0,1 17 0 0 0,-1-29-229 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,4 4-1 0 0,-4-4 2 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1-1 0 0,-6 16 414 0 0,6-17-525 0 0,0-3-570 0 0,-3-6 662 0 0,1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 0-1 0 0,-1 0 1 0 0,-1-12 0 0 0,-15-87 5 0 0,-6-45 0 0 0,20 97 0 0 0,4 54 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4 6 0 0 0,3 8 0 0 0,-1 3 0 0 0,0 0 0 0 0,1 0 0 0 0,18 28 0 0 0,-22-40 0 0 0,0 1 0 0 0,1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,11 4 0 0 0,-10-5 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,14 0 0 0 0,-14-2 0 0 0,-6 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,2-1 0 0 0,8-3 0 0 0,-10 4 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,8-12 0 0 0,-8 13 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,2-5 0 0 0,7-19 0 0 0,-9 23 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,2-7 0 0 0,-1-10 0 0 0,-2 62 60 0 0,13 71 1840 0 0,-12-105-1866 0 0,0 1 0 0 0,1-1 1 0 0,5 12-1 0 0,1 7 141 0 0,-7-21-166 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,5 4 1 0 0,-4-5-36 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,2 4 0 0 0,-1-1 31 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,5 8-1 0 0,5 9-417 0 0,-12-21 234 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,1 1-1 0 0,16 7-6581 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7213.25">3397 515 17503 0 0,'0'0'2112'0'0,"1"1"-1017"0"0,1 1-719 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 6-1 0 0,2 43 1064 0 0,-3-49-1336 0 0,-1 228 2138 0 0,2-135-2283 0 0,-1-95-202 0 0,-2-12-611 0 0,-3-171-1017 0 0,5 180 1831 0 0,2-94-1065 0 0,0 79 1114 0 0,0 0 0 0 0,1 0-1 0 0,8-26 1 0 0,-7 28-6 0 0,-2 9 6 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,4-6 1 0 0,-6 11 23 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,7 8 396 0 0,-8-8-434 0 0,9 10 74 0 0,-2 0 0 0 0,1 1 0 0 0,-2 0 0 0 0,1 0 0 0 0,7 20 0 0 0,-3-3 182 0 0,-8-19-46 0 0,1 0 0 0 0,0 0 0 0 0,8 13 0 0 0,2 3 236 0 0,-11-18-404 0 0,0-1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,6 6 1 0 0,13 12-8 0 0,-15-15-21 0 0,0-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,2 0 0 0 0,-1 0-1 0 0,13 6 1 0 0,-14-10 15 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,14 1 0 0 0,-20-3-13 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,2-1-1 0 0,-3 1-4 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0-1-1 0 0,0-2 2 0 0,0-28 65 0 0,-1-1 0 0 0,-6-38 0 0 0,4 51-470 0 0,1-1-1 0 0,2 0 1 0 0,2-32 0 0 0,1-4-468 0 0,-1 27-1162 0 0,0 2-4425 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7649.18">3933 412 11976 0 0,'3'8'161'0'0,"-1"0"0"0"0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,-1 1-1 0 0,1 9 0 0 0,-8 61 1704 0 0,1-30 1963 0 0,5-33-3003 0 0,1 1 0 0 0,0-1 0 0 0,2 0-1 0 0,-1 0 1 0 0,7 23 0 0 0,-5-28-438 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,2 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,1 0 0 0 0,7 9 0 0 0,-5-7 144 0 0,15 15 423 0 0,-23-25-916 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,5 0 0 0 0,13 0 71 0 0,-15-3-90 0 0,-2 0 1 0 0,5-1-3 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-2 0 0 0,10-9 0 0 0,-15 12-9 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,1-4 1 0 0,-2 2 4 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,-3-7 0 0 0,-69-170-176 0 0,66 165 111 0 0,0 0-1 0 0,-1 0 0 0 0,-1 1 1 0 0,0 0-1 0 0,-18-22 1 0 0,24 35-37 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-2 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-7-1 0 0 0,4 2-435 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-15 4 0 0 0,1 4-1010 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9600.24">992 1788 6912 0 0,'0'0'2288'0'0,"1"-1"-1803"0"0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2-1 1 0 0,-5-21 8905 0 0,1 24-8879 0 0,-3 3-374 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 1 1 0 0,-5 8-1 0 0,-24 52-344 0 0,24-46 305 0 0,5-11-96 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 19 0 0 0,-2 3 432 0 0,6-28-334 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,4 5 0 0 0,4 18-228 0 0,-6-17 59 0 0,0-1 1 0 0,0 0-1 0 0,1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,11 10 0 0 0,-11-12 159 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,1-1 0 0 0,12 4 0 0 0,-16-6-132 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,4-3 0 0 0,-3 1 106 0 0,1 1 0 0 0,-1-2 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,3-5 0 0 0,4-14-330 0 0,-9 19 187 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,3-10-1 0 0,0-1 63 0 0,2-1-29 0 0,-4 11 41 0 0,0 0 1 0 0,-1 0 0 0 0,3-11-1 0 0,-3 10-3 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,3-8 1 0 0,-2 8-117 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-13 1284 0 0,-1 31-687 0 0,0-1-464 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,5 13 0 0 0,-5-16 3 0 0,1 0 0 0 0,8 13-1 0 0,-10-18-13 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,5 2 0 0 0,5 2 1 0 0,0 0 0 0 0,0-1 0 0 0,17 6 0 0 0,-24-11-13 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,6-3 0 0 0,23-5-118 0 0,-32 9 106 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,2-3 1 0 0,0 1 30 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,2-8 0 0 0,3 0 46 0 0,0-4 3 0 0,-6 10-34 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-8-8 0 0 0,9 12-15 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-5 1 1 0 0,-6 0 12 0 0,0 0 0 0 0,0 1 0 0 0,1 1 0 0 0,-17 5 0 0 0,18-5-34 0 0,0 1 0 0 0,0 1 0 0 0,-16 8 0 0 0,21-11 16 0 0,6-2 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 3 1 0 0,0-2-161 0 0,28 2-17714 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10359.85">1723 1771 16783 0 0,'0'0'1998'0'0,"1"2"-1124"0"0,1 4-60 0 0,-1-3-509 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 3 0 0 0,-1 4 684 0 0,0 0 1 0 0,1 1-1 0 0,1 12 0 0 0,0 9 172 0 0,0-12-959 0 0,-5 83 959 0 0,4-96-1161 0 0,0 0 0 0 0,0-1 0 0 0,1 9 0 0 0,1 9 0 0 0,-1-3 40 0 0,-1 12 61 0 0,0-25-100 0 0,0 1 0 0 0,0-1 0 0 0,2 10 0 0 0,0 12-153 0 0,-3-24 793 0 0,1 2-4196 0 0,0-8 3502 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,2-2-148 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-8 1 0 0,2-12-30 0 0,3-18 222 0 0,-2-56-1 0 0,-2 58 10 0 0,9-74-1 0 0,-7 95 134 0 0,-1-1 0 0 0,-2-21 0 0 0,1 38-33 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,2-2 0 0 0,5-14 896 0 0,-8 19-944 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,13 8 1017 0 0,8 16-308 0 0,5 22-745 0 0,-9-17-16 0 0,-1 0 0 0 0,15 37 0 0 0,-25-49 323 0 0,-1 0-1 0 0,-1-1 1 0 0,-1 2 0 0 0,5 32-1 0 0,-8-48-405 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,1 3 1 0 0,-2-3-9 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 5-1 0 0,1 12-575 0 0,0 1 0 0 0,0 24 0 0 0,-3-44 441 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10809.21">1708 2064 5984 0 0,'0'0'464'0'0,"19"0"9601"0"0,-16 0-9729 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,1-2 1 0 0,1 1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,7 0 0 0 0,18-3 249 0 0,31-15-570 0 0,-11 6-553 0 0,-41 10-732 0 0,-1 0-1 0 0,1-1 0 0 0,11-6 1 0 0,-8 0-777 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11201.72">2097 1752 16671 0 0,'0'0'382'0'0,"-5"-8"1052"0"0,2 3-1247 0 0,2 4 697 0 0,-5 6 3433 0 0,1 13-3199 0 0,3-15-977 0 0,1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 7 0 0 0,0 18 391 0 0,1-17-254 0 0,-1 1 0 0 0,2-1 1 0 0,2 20-1 0 0,7 25-277 0 0,-9-51 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,4 7 0 0 0,2 9 0 0 0,-3-9 0 0 0,0 1 0 0 0,1-2 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,15 17 0 0 0,-8-11-28 0 0,-8-8-23 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,1-1 0 0 0,9 7-1 0 0,-15-12 42 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,2 0 1 0 0,-2 0-49 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 9 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1-3 0 0 0,1 1 40 0 0,0 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-7 0 0 0,-1-4 4 0 0,0 0 0 0 0,-1-15 0 0 0,0 9 5 0 0,-2 12 88 0 0,1 4 53 0 0,4 10-21 0 0,-1-1-62 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 9 0 0 0,2 9 105 0 0,-1-9 34 0 0,0-1 0 0 0,12 23-1 0 0,-13-30-211 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,9 6 1 0 0,-11-8 30 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,4 0 0 0 0,0-1 56 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,10-8 0 0 0,-15 11-73 0 0,9-6-15 0 0,-8 5 3 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0-4 0 0 0,4-10-179 0 0,-4 13 216 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,-1-6 0 0 0,-1 3-16 0 0,0 0 0 0 0,1 1 0 0 0,-2-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,-6-2 1 0 0,1-1-100 0 0,-4-3-231 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11808.87">2696 1862 16671 0 0,'0'0'1512'0'0,"2"1"-1245"0"0,1 1 521 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3 5 0 0 0,-2-1-101 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,5 11 0 0 0,0 5-43 0 0,8 34 0 0 0,-7-20 509 0 0,6 31-545 0 0,-15-66-608 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 1-1 0 0,-2 7-70 0 0,3-8-267 0 0,-7-20-1254 0 0,7 18 1591 0 0,-4-14-133 0 0,2-1 0 0 0,0 1 0 0 0,0 0-1 0 0,2 0 1 0 0,0-1 0 0 0,3-23 0 0 0,-2 31 78 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,10-10 1 0 0,-14 17 166 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,2 0-1 0 0,-3 1-111 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,2 3 0 0 0,1 0-3 0 0,-2-2 13 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 1-1 0 0,1 3 1 0 0,7 34 222 0 0,-7-27-151 0 0,2 19 153 0 0,-2-9-707 0 0,1-3 364 0 0,0-16 108 0 0,-1 0-1 0 0,0 17 26 0 0,-2-21 311 0 0,3-16-728 0 0,3-24 392 0 0,-6 29 0 0 0,2-1 0 0 0,2-12 0 0 0,-2 14 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,9-6 0 0 0,-15 10 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3 2 0 0 0,4 4 0 0 0,-4 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,4 12 0 0 0,1 2 0 0 0,0-3 4 0 0,16 38 9 0 0,-21-52-23 0 0,-1 0 0 0 0,1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,0 0 0 0 0,7 5 0 0 0,-2-1-502 0 0,0-1-525 0 0,1-2-3647 0 0,-4-3 3149 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12539.13">3310 1822 10592 0 0,'0'0'818'0'0,"-4"13"3029"0"0,3 12 634 0 0,1-18-3894 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,2 7 1 0 0,10 38 1454 0 0,-3-11-923 0 0,-6-17-1102 0 0,0-14-17 0 0,2-3 0 0 0,-6-7 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,4-7-21 0 0,1-8-86 0 0,-1-21-384 0 0,-3 22 343 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,11-20 0 0 0,-12 26 126 0 0,1 0 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,9-7-1 0 0,-7 8 83 0 0,-7 3 12 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,5 3 385 0 0,-5-4-446 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 2-13 0 0,12 23 3 0 0,10 40 0 0 0,-19-58 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,10 11 0 0 0,-13-17 0 0 0,11 8 0 0 0,-12-9-20 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,3-3-229 0 0,0-1 0 0 0,0 0-1 0 0,8-13 1 0 0,-6 8 64 0 0,-3 5 141 0 0,0-1 0 0 0,-1 1 1 0 0,3-8-1 0 0,11-18 58 0 0,6-4-13 0 0,-19 30 0 0 0,-4 6 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 4 0 0 0,18 24 0 0 0,-15-20 0 0 0,0 0 0 0 0,10 11 0 0 0,-5-10 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-2 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,19 4 0 0 0,-26-8 31 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,7-3 0 0 0,-8 3 114 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,5-8 0 0 0,-7 9-156 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,-1-4 1 0 0,0-2 32 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,-7-8-1 0 0,5 8-20 0 0,2 2 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-11-8 0 0 0,2 5 0 0 0,0-2 0 0 0,0 1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,-22-6 0 0 0,-19 4-246 0 0,31 6-2428 0 0,-31 3 0 0 0,33 2 628 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13517.41">935 2701 15664 0 0,'0'0'1417'0'0,"1"1"-1167"0"0,8 5 9 0 0,-7-5 78 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2 3 0 0 0,8 13 1412 0 0,-9-14-1592 0 0,0-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 6 0 0 0,2 17 408 0 0,-3-22-551 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-2 8 1 0 0,1-7 260 0 0,-1 0-1 0 0,1 0 1 0 0,1 0 0 0 0,-1 10-1 0 0,1-14-222 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,-2 3-1 0 0,2-4-74 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 2 0 0 0,0-3 15 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-2 1-1 0 0,-1 10 184 0 0,3-11-46 0 0,-3 3 6 0 0,4-7-306 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-5-1 0 0,-3-43-135 0 0,1 15 343 0 0,0 25 3 0 0,0 0 0 0 0,-3-12 0 0 0,2 15 104 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-13 0 0 0,2-2 92 0 0,-2 18-308 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,2 0-1 0 0,4-6 0 0 0,-8 11 110 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,3 1 59 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,3 3 0 0 0,0 2-84 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-2 1 0 0 0,1 0 1 0 0,-1 1-1 0 0,3 15 0 0 0,8 23 0 0 0,-5-19-12 0 0,8 16 0 0 0,-11-33 11 0 0,0 2 82 0 0,1 0 0 0 0,11 15 0 0 0,-15-24-71 0 0,1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,7 2 0 0 0,-8-4-22 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,7 0 0 0 0,5-3 0 0 0,-12 0 0 0 0,-2-1 0 0 0,2 2-3 0 0,12-9 25 0 0,-16 9-18 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,4-12 63 0 0,-3 13-62 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,-2-9 57 0 0,2 9-50 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,-1 2-3 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,-1-2 0 0 0,-3-14 52 0 0,2-12-15 0 0,-14-86-480 0 0,14 107 220 0 0,-1-7-1680 0 0,4 16 1178 0 0,13 3-4194 0 0,-10-1 4263 0 0,0 0-1400 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13930.71">1494 2818 5064 0 0,'18'17'389'0'0,"-17"-16"-372"0"0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,-2 10 1820 0 0,3 0 959 0 0,-1 0 0 0 0,-2 14 0 0 0,3-23-2569 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,3 4 0 0 0,2 10 669 0 0,-5-14-837 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,3 0 1 0 0,24 14 492 0 0,-11-7-243 0 0,-13-7-165 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,5-2 0 0 0,-6 1-120 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,4-4 0 0 0,-4 2 81 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-3-4-1 0 0,1 1-114 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-12-9 0 0 0,12 12 12 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-10 3 0 0 0,-6 10-59 0 0,14-7-720 0 0,8-7 731 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14275.46">1836 2546 3224 0 0,'4'-8'283'0'0,"1"-14"16133"0"0,-4 24-16105 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 3 1 0 0,3 16 424 0 0,-1-6-329 0 0,-1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,-2 1-1 0 0,-5 31 0 0 0,1-11 250 0 0,3-15-260 0 0,0 3-290 0 0,-2 30 0 0 0,4-19-105 0 0,0-22-22 0 0,1-1 0 0 0,2 22 1 0 0,-1-16-463 0 0,-1-16 233 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1-1 0 0,1 4 1 0 0,9-1-5135 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14623.3">1867 2570 17015 0 0,'1'-2'70'0'0,"0"0"0"0"0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-3-1 0 0,0 2-4 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,0 0-1 0 0,1-3 0 0 0,-2 5 134 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-100 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,1 0-42 0 0,-1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,1 4 1 0 0,7 30 968 0 0,-1-17-343 0 0,-1 0-1 0 0,12 37 1 0 0,-11-27-122 0 0,6 23-11 0 0,-11-34-541 0 0,9 21 1 0 0,-7-25-11 0 0,-2 1 1 0 0,6 23-1 0 0,-8-26 1 0 0,2 0 0 0 0,-1 0 0 0 0,11 20 0 0 0,-3-5 0 0 0,-4-10-692 0 0,11 18 0 0 0,-17-35 274 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15089.52">1803 2865 15664 0 0,'0'0'1571'0'0,"8"2"-1423"0"0,5 0 692 0 0,1-2 0 0 0,0 1-1 0 0,0-2 1 0 0,0 0-1 0 0,-1-1 1 0 0,27-6-1 0 0,-5-2-709 0 0,47-20-1 0 0,-76 27-129 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,9-7 0 0 0,5-5 0 0 0,-10 8 0 0 0,-2 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,7-16 0 0 0,-4-1 0 0 0,-7 20 72 0 0,-1 5 299 0 0,2 35 1169 0 0,7 18-1489 0 0,0-10-37 0 0,-7-32-14 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,10 16 0 0 0,-8-15 0 0 0,-3-6 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,7 4 0 0 0,-9-6 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,5-1 0 0 0,-7 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0-1 0 0 0,9-8 0 0 0,-10 10 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-3 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-6 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,4-16 0 0 0,-5 21 0 0 0,0 7 5 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-4 10 562 0 0,4 23 534 0 0,-1-29-1100 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,5 5 1 0 0,0 0-1 0 0,-5-6 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,5 2 0 0 0,12 5 0 0 0,-17-6 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,5-2 0 0 0,16-2 0 0 0,-21 4 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,4-3 0 0 0,-2 0-163 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,4-6 0 0 0,-7 8 86 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-3 0 0 0,-4-106 125 0 0,4 112 26 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-2-4 0 0 0,-1-1 370 0 0,9 13-297 0 0,8 15-127 0 0,-9-12-19 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,11 11 0 0 0,-2-4 0 0 0,-11-11 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,5 5 0 0 0,14 11-58 0 0,-20-15 1 0 0,2-1 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,10 5 0 0 0,-2-3-1652 0 0,23 8-1 0 0,-27-11-675 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15545.53">2968 2636 19351 0 0,'0'0'1943'0'0,"-2"2"-1783"0"0,1-1-126 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,2 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 2 0 0 0,3 38 2300 0 0,-2-33-1642 0 0,0 0-263 0 0,0 0 0 0 0,1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,7 18 0 0 0,-8-24-424 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 6 0 0 0,-1-6-6 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,1 6 0 0 0,23 33 1 0 0,-23-39 0 0 0,-2-2 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,0 1-66 0 0,-1 0-271 0 0,0-2-646 0 0,2-2 940 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-2 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-11 0 0 0,2-9 3 0 0,-1 13 41 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,9-15 0 0 0,-10 20 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,11-9 0 0 0,-12 13 66 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,3 1 1 0 0,-1 0 107 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,8 6 1 0 0,-8-4-172 0 0,-1-1-1 0 0,1 2 1 0 0,-2-1-1 0 0,1 0 1 0 0,0 1-1 0 0,3 8 1 0 0,0-2-5 0 0,-4-5 2 0 0,1 1 0 0 0,4 13 0 0 0,3 9 0 0 0,24 35 0 0 0,-29-46-133 0 0,-5-17-563 0 0,2 2-1158 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16249.02">3363 2643 5984 0 0,'0'0'541'0'0,"2"0"-445"0"0,0 0 465 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,2 4 0 0 0,4 8 837 0 0,-6-12-1215 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 5 0 0 0,-2-5-90 0 0,4 24 1415 0 0,-1 29 0 0 0,2-11-892 0 0,-6-43-616 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,3-5 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,4-12 0 0 0,7-15 0 0 0,17-41 0 0 0,-25 63 0 0 0,1 0 0 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,0 0 0 0 0,10-9 0 0 0,-5 9 0 0 0,-8 8 0 0 0,-1 1 0 0 0,-3-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,2 1 0 0 0,1 2 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 5 0 0 0,11 49 0 0 0,-11-50 0 0 0,-1 3 0 0 0,-1-9 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,2 2 0 0 0,4 0 0 0 0,-7-4 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,3-2-228 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,6-6 0 0 0,18-42 62 0 0,-22 43 166 0 0,-4 7 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,3-2 0 0 0,-3 3 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 25 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 2 1 0 0,6 9 507 0 0,2-2-395 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,16 10-1 0 0,-20-15-100 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,12 0 0 0 0,-13-1-36 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,3-7 0 0 0,5-11 0 0 0,-8 17 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1-6 0 0 0,0 6 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-6-5 0 0 0,6 7 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-5-1 0 0 0,-3 2-162 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0 1-1 0 0,-19 6 0 0 0,-55 29-1556 0 0,69-28 204 0 0,1 3-20 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17006.86">1067 3490 17071 0 0,'6'-1'353'0'0,"-3"0"-114"0"0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,3 0 0 0 0,8 11 2783 0 0,-12-8-2617 0 0,0 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 8-1 0 0,2 1 263 0 0,7 45-324 0 0,6 45-344 0 0,-15-83 0 0 0,0 30 0 0 0,-3-29 0 0 0,1-18 0 0 0,1-8 0 0 0,-1-10 0 0 0,-1 10-8 0 0,2 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,2-7 0 0 0,3-17-118 0 0,-5 8-379 0 0,8-38 1 0 0,-7 50 365 0 0,-1 0 0 0 0,-1 0 0 0 0,0-12 0 0 0,1-14 32 0 0,0 21 216 0 0,0 1 0 0 0,-2-17-1 0 0,1-3-477 0 0,0 37 620 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,5 8 0 0 0,-1 0-104 0 0,-1-1-145 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,1 1 0 0 0,10 10 0 0 0,-13-16-2 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,8 3 0 0 0,17 7 0 0 0,-24-9 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,8-2 0 0 0,-3-2 0 0 0,-8 3 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-3 0 0 0,-1 4 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,2-1 0 0 0,-1 2 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1-16 46 0 0,1 16-36 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-2-3 0 0 0,2 3-11 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-4 0 0 0,0 4-82 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0-1 1 0 0,-7-6-566 0 0,7 8 599 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 9 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,-4-2-1761 0 0,3-3-3301 0 0,4-4-1978 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17397.34">1618 3518 19351 0 0,'2'7'940'0'0,"-2"6"-280"0"0,0-7-556 0 0,-1 0 0 0 0,2-1 0 0 0,-1 1 0 0 0,2 7 0 0 0,-2-11-142 0 0,1 5 251 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,6 8-1 0 0,-7-11-205 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 0 0 0,3 1 1 0 0,-5-2 40 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,3-2 0 0 0,0 0 99 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,4-3 0 0 0,-6 4-153 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1-3-1 0 0,0 2 5 0 0,1-1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-4-6 0 0 0,3 5 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-8-4 0 0 0,10 6 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-2 2 0 0 0,-1 0-64 0 0,-4 9-973 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17800.58">1980 3371 3224 0 0,'0'1'915'0'0,"-3"39"16436"0"0,-2-23-14827 0 0,4-13-2127 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 8-1 0 0,0 17 627 0 0,-1-26-938 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,3 4-1 0 0,-2-3-25 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 7-1 0 0,-1 10 10 0 0,0 1 0 0 0,4 34 0 0 0,-2-53-134 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3 5 0 0 0,6 14-496 0 0,4 7-2344 0 0,-12-39 2257 0 0,0-9-169 0 0,-14-69-279 0 0,11 78 744 0 0,0 0-1 0 0,0-17 1 0 0,1 16 332 0 0,-1 0 0 0 0,-2-14-1 0 0,3 20 74 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,2-9 1 0 0,1-14 450 0 0,-4 17-362 0 0,1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,7-11 1 0 0,-11 21-51 0 0,0-1 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,1-1-1 0 0,-1 1 28 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,5 3 0 0 0,-1-1-58 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,4 7-1 0 0,10 14 538 0 0,-14-19-372 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,3 10 1 0 0,1 8-509 0 0,1 0 0 0 0,25 45-1 0 0,-11-24-3972 0 0,-22-39 2565 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19221.39">2006 3581 17535 0 0,'-5'1'191'0'0,"3"-1"-93"0"0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-4-2 730 0 0,9 3 138 0 0,139-25 3330 0 0,0-17-6194 0 0,-143 42 1883 0 0,28-12-1056 0 0,-27 12 951 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1-1 0 0 0,-1 1-79 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,4 0 0 0 0,13-11-263 0 0,-4 23 2898 0 0,-13-9-2170 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,2 4 1 0 0,8 26 1050 0 0,-5-11-776 0 0,2-1 0 0 0,0 0 0 0 0,19 33 0 0 0,-20-39-538 0 0,20 29 0 0 0,-20-26 0 0 0,-17-23 0 0 0,-5-9 0 0 0,12 10 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,3-10 0 0 0,-1 6 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 1 0 0 0,7-6 0 0 0,-10 9-12 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,8-1 0 0 0,-11 3 71 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,1 2-1 0 0,2 3 51 0 0,1-1 0 0 0,-2 1 0 0 0,5 8 0 0 0,-8-12-97 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 2 0 0 0,0 1-11 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-5 6 0 0 0,5-8 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-6 2 0 0 0,1-1-2 0 0,0 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1-1 0 0 0,-15 0 0 0 0,69-5-797 0 0,38 0-387 0 0,-62 4 1186 0 0,-1-1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-2 0 0 0,1 0 0 0 0,-1-1 0 0 0,32-15 0 0 0,-32 12 0 0 0,-14 8 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,5-3 0 0 0,-4 1-33 0 0,0 2-134 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,1-6 0 0 0,-1 2 89 0 0,-2 6 73 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,-1-3 1 0 0,2 4 32 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-2 1 0 0 0,-1 1 120 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-5 4 1 0 0,7-6-144 0 0,-1 1 42 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,2 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 3-1 0 0,0-2 24 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,6 5 0 0 0,-2-4-68 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,16 3 0 0 0,-19-6 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0-1 0 0 0,-1 1 0 0 0,9-2 0 0 0,7-2-39 0 0,-16 4 25 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,4-3 1 0 0,20-8-440 0 0,-24 11 341 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,2-4 1 0 0,3-2 118 0 0,-2-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,7-15 0 0 0,-11 19-86 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-2-10 0 0 0,-2-8-581 0 0,2 6 820 0 0,-1-1 0 0 0,0 1-1 0 0,-2 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,-10-19-1 0 0,15 34-97 0 0,1 1 1 0 0,-1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,-3-2 1 0 0,2 2 272 0 0,-13 10 393 0 0,13-6-693 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 4-1 0 0,3 42-47 0 0,0-18 402 0 0,-1-27-275 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,0-1-1 0 0,3 5 1 0 0,5 13 200 0 0,-8-17-290 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,4 3-1 0 0,14 15-108 0 0,-17-17 88 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1-1 0 0 0,12 4 0 0 0,-3-2-73 0 0,0-1 0 0 0,-1-1 1 0 0,1 0-1 0 0,18-1 0 0 0,-27-1-105 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,7-4 0 0 0,-11 5 84 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,2-6-1 0 0,0-5 15 0 0,-2 0 0 0 0,1 0 0 0 0,-2-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-2 1 0 0 0,-3-26 0 0 0,3 33 87 0 0,0 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,-6-11-1 0 0,9 16 802 0 0,-1 1-786 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-3 17 467 0 0,3-14-447 0 0,-1 2-46 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,3 10 0 0 0,2 1 199 0 0,-3-8 242 0 0,0 0 0 0 0,8 14 0 0 0,-9-20-369 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,2 4 0 0 0,5 1-67 0 0,-1 0 0 0 0,20 11 0 0 0,-24-15-7 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,10 0 0 0 0,-10-1 26 0 0,1 0-172 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,10-2 1 0 0,-15 2 94 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0-3 1 0 0,3-8 52 0 0,-3 10 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-2 0 0 0,0-2 0 0 0,1 0 0 0 0,-1 0 0 0 0,2-11 0 0 0,0 2 0 0 0,-1 15 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,5 8 0 0 0,-1 12 0 0 0,-3-16 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,6 6 0 0 0,-2 1 0 0 0,-6-9 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,2 1 0 0 0,22 11 0 0 0,-19-10-186 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,8-2 0 0 0,0 0-833 0 0,0-1-5 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19889.98">3880 3132 5064 0 0,'0'0'389'0'0,"1"-1"-250"0"0,4-5-1326 0 0,4-7 2705 0 0,7-4 6208 0 0,-15 16-7376 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 3 0 0 0,2 1-142 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,3 10 0 0 0,-1 6 371 0 0,2 23 0 0 0,-5-40-497 0 0,1 19 30 0 0,-2 1 0 0 0,-4 31 0 0 0,0 21 7 0 0,3-59-119 0 0,2-13 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 4 0 0 0,0-5 6 0 0,-1 0-9 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,0 0-341 0 0,1-1 326 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-6-4-669 0 0,2 0 563 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-3-5 0 0 0,3 5-83 0 0,0-1 0 0 0,0 1-1 0 0,-7-6 1 0 0,0 1-222 0 0,7 5 379 0 0,0 1 0 0 0,-1 0 0 0 0,-7-4-1 0 0,10 7 51 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-2 1 0 0 0,1-1 35 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 4 1 0 0,1-4 1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3 3 0 0 0,2 1 14 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,8 4 1 0 0,-12-7 6 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,6 0 0 0 0,18 2-12 0 0,-17-2-109 0 0,0 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,16-8-1 0 0,-23 9 62 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,3-9 0 0 0,-1 1 2 0 0,-5 12-3 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-76 0 0,2 3 92 0 0,7 23-4 0 0,-8-24-12 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,2 3 28 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,8 1-1 0 0,-5-1 47 0 0,0-1-1 0 0,0 1 1 0 0,1-2-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,13-3 1 0 0,-14 1-2 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,9-8-1 0 0,-13 10-69 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-3 0 0 0,-6-4 0 0 0,-1 0-1 0 0,0 0 0 0 0,0 1 0 0 0,-21-10 0 0 0,24 14-149 0 0,0 0-1 0 0,0 1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-15 0-1 0 0,-7 1-1165 0 0,29 0 802 0 0,-1 7-3951 0 0,1 5-189 0 0,1-1 1581 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20408.03">4479 3173 17503 0 0,'6'-11'352'0'0,"1"0"-1"0"0,0 1 1 0 0,10-13-1 0 0,-14 19-80 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,9-3 2920 0 0,-13 6-3098 0 0,1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 1 0 0 0,3 12 414 0 0,-3-5-218 0 0,0-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,-2 8-1 0 0,-2 20-149 0 0,-8 68-138 0 0,5-57 0 0 0,7-15 4 0 0,1-11-72 0 0,0-20-269 0 0,7-79-3302 0 0,-11 2 3683 0 0,-1-17-140 0 0,6 81 364 0 0,-1 1 1 0 0,2-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,1 0-1 0 0,6-16 1 0 0,-5 17-120 0 0,3 2-133 0 0,-6 7-3 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,2 2 174 0 0,0 1-1 0 0,0-1 1 0 0,3 11-1 0 0,0-2 104 0 0,8 18 34 0 0,18 59 0 0 0,5 9-364 0 0,-34-91-19 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,5 6 1 0 0,-1-1-277 0 0,-5-6-3695 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21027.07">4524 3333 18575 0 0,'0'0'900'0'0,"15"0"215"0"0,24 0 346 0 0,39-6-1 0 0,-66 3-1843 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-2 0 0 0,1 1 0 0 0,18-14 0 0 0,11-14-3587 0 0,-22 16 1821 0 0,-11 11 1508 0 0,-2-1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-2-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,5-15-1 0 0,-7 17 835 0 0,9-32 1244 0 0,-10 36-807 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-4-5 7475 0 0,5 9-7979 0 0,-6 8 1787 0 0,-2 10-1139 0 0,-1 13 534 0 0,5-19-1150 0 0,0-1-1 0 0,2 1 1 0 0,-1 0 0 0 0,1 1 0 0 0,1-1-1 0 0,0 19 1 0 0,3-18 168 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,9 20 1 0 0,-11-29-325 0 0,0 1 1 0 0,0-2-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,2 2 1 0 0,9 10-4 0 0,-12-12 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,5 4 0 0 0,7 3 0 0 0,-13-6-61 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,3-2-1 0 0,-3 1-132 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 1 0 0 0,2-7-1 0 0,-1-3 35 0 0,0 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-4-17 0 0 0,3 14 1156 0 0,1 14-311 0 0,0 10-374 0 0,1 4-140 0 0,-1 1 0 0 0,1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,5 15-1 0 0,-5-21-91 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,9 7 1 0 0,-8-7-79 0 0,15 8 0 0 0,19-2 0 0 0,-38-10 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,2-2 0 0 0,4 0 0 0 0,-5 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2-3 0 0 0,-3 1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1-6 0 0 0,1-3 0 0 0,-2 11 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1-2 0 0 0,-2-8 0 0 0,0 0 0 0 0,-5-13 0 0 0,8 24 0 0 0,-8-31 0 0 0,9 24 0 0 0,4 3-133 0 0,-3 4-563 0 0,13 14-4199 0 0,6-6 786 0 0,-13 3 2015 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21413.38">5418 3192 4608 0 0,'0'0'208'0'0,"7"4"32"0"0,16 2 4419 0 0,-21-6-3434 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,2 1 1 0 0,-4-1-934 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1 0-1 0 0,6 10 1300 0 0,-1 0 0 0 0,9 20-1 0 0,-12-19-1216 0 0,-1-6-120 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,4 7 0 0 0,-9-16-293 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-4 0 0 0,-3-12-477 0 0,2 15 503 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,2-7 1 0 0,0 3 172 0 0,1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 1 0 0 0,1-1 0 0 0,9-9 0 0 0,-11 13-158 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,5-3 0 0 0,-7 3 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,4 2 0 0 0,-4-1 25 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,2 5 1 0 0,0 3 36 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,0 17 1 0 0,7 1-2829 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22097.56">5730 3163 19351 0 0,'0'0'940'0'0,"2"-1"-406"0"0,8-14 95 0 0,-3 12-612 0 0,-5 3 111 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,2 3-1 0 0,1 1 197 0 0,0 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,3 7-1 0 0,3 7 528 0 0,-6-15-725 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 9 1 0 0,4 24 152 0 0,-3-30-219 0 0,-1-8-146 0 0,-1-2-119 0 0,0 0 200 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0-2 0 0 0,1-7 8 0 0,-1-4-573 0 0,0 1 0 0 0,4-19 0 0 0,0 4 738 0 0,-4 21-169 0 0,1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,4-4 1 0 0,-1 1 350 0 0,-7 5-293 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,2 1 0 0 0,-2-1-56 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,3 4 0 0 0,-1 0 0 0 0,0 0 0 0 0,3 10 0 0 0,4 15 33 0 0,-8-24-16 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,5 6 1 0 0,-9-12-51 0 0,1 0 15 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,2-1 0 0 0,2 0-302 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,7-4 0 0 0,-9 3 309 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,5-5 0 0 0,3-3-392 0 0,-8 8 278 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,2-5 0 0 0,-3 3 21 0 0,1 0-1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,3-4 0 0 0,-5 6 138 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1 0 124 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,3 4 0 0 0,-1-1-60 0 0,21 13-97 0 0,-18-12 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-2 0 0 0,14 6 0 0 0,-21-9 0 0 0,2 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,3-1 0 0 0,-3 1 26 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-3 1 0 0,1-10 634 0 0,-2 13-621 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-2 0 0 0,-8-23 190 0 0,7 19-229 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,-6-8 0 0 0,4 7 12 0 0,1 1-353 0 0,0 1 0 0 0,-1 0 0 0 0,-6-6 0 0 0,3 5-254 0 0,6 4 144 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-7-1 0 0 0,-2-1-7570 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23481.19">1240 4184 15664 0 0,'0'-1'62'0'0,"1"0"0"0"0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-2-1-1 0 0,1 1 55 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-5 0 2077 0 0,7 0-2142 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-2 1-1 0 0,-6 8 599 0 0,6-8-495 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-2 6 0 0 0,-2 10-59 0 0,2 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,2 0-1 0 0,0 0 0 0 0,2 1 1 0 0,0-1-1 0 0,5 20 1 0 0,-6-35-102 0 0,0 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,6 2 1 0 0,4 1 72 0 0,-13-4-73 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,2 0-1 0 0,4-1-6 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,6-5 0 0 0,5-5 6 0 0,-2-1 0 0 0,20-24-1 0 0,-26 28-26 0 0,8-5-23 0 0,-13 13 60 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,2-5 1 0 0,2-3 13 0 0,0-5-19 0 0,-5 16 3 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,-6 6 0 0 0,7-5 40 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 3 0 0 0,0 9 250 0 0,-1 1 65 0 0,-1-11-326 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,4 6 0 0 0,1-2-75 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,18 5 0 0 0,-20-6 115 0 0,1-1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,10-4 1 0 0,-12 4-74 0 0,0 0-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,-3-9-1 0 0,2 11 7 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,-4 0 1 0 0,-7-2 29 0 0,13 3-27 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 2 1 0 0,-2-1-1 0 0,-3 1-279 0 0,-38 4-4455 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24018.83">1912 4105 23039 0 0,'0'0'2315'0'0,"0"1"-2123"0"0,5 9-54 0 0,-3-6 51 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 5 0 0 0,-2-5-70 0 0,2 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,2 3-1 0 0,11 19 861 0 0,-5-4-485 0 0,-7-17-527 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 7 0 0 0,0 3-27 0 0,0-6 35 0 0,-1 0 0 0 0,5 14 0 0 0,-4-4-334 0 0,-2-18 307 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,1 2-1 0 0,1 5-180 0 0,-7-5 108 0 0,4-3 119 0 0,-1 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2-1 0 0,0 0-359 0 0,1-19-1239 0 0,0-15 1604 0 0,0 1 0 0 0,0 25 0 0 0,-2 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-4-9 0 0 0,0-6 0 0 0,-4-1 0 0 0,7 19 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1-2 0 0 0,1-7 0 0 0,-1 10 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1-2 0 0 0,0 0 19 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-8 0 0 0,0 11 50 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4 0 0 0 0,1-2-59 0 0,0 2 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,10 5 0 0 0,3 2 135 0 0,-1 1 0 0 0,17 13 0 0 0,-29-19-99 0 0,-2 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,3 10-1 0 0,-1-3-107 0 0,-2 1-1 0 0,0 0 0 0 0,0 0 1 0 0,3 25-1 0 0,-8-35 134 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-3 4 0 0 0,-2-1-261 0 0,0 1 0 0 0,-1-1 0 0 0,1-1 1 0 0,-2 0-1 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-18 4 0 0 0,11-5 99 0 0,0 0 1 0 0,0-1 0 0 0,0-1 0 0 0,0 0-1 0 0,-20-3 1 0 0,32 1-215 0 0,0 0-1 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0-1-1 0 0,-7-4 1 0 0,11 7 223 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,11-7-7425 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24591.15">2380 4057 12440 0 0,'0'0'10835'0'0,"0"2"-9800"0"0,2 8-393 0 0,0-1 1 0 0,-1 1-1 0 0,-1 0 0 0 0,0 13 1 0 0,0-12-388 0 0,0 0 1 0 0,1 0 0 0 0,0 0 0 0 0,3 14-1 0 0,1-8 65 0 0,2 22-1 0 0,8 15-511 0 0,-8-33 175 0 0,-4-15 123 0 0,-3-4 122 0 0,-4-12-2563 0 0,2 7 2161 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1-4 0 0 0,-4-17 126 0 0,4 18 47 0 0,-1-1 0 0 0,1 1 0 0 0,0-13 0 0 0,0-2 0 0 0,-1 3 0 0 0,2-1 0 0 0,1 1 0 0 0,4-29 0 0 0,-4 35 0 0 0,-1 10 4 0 0,0 3-2 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 336 0 0,0 2 136 0 0,11 11 237 0 0,58 62-506 0 0,-62-65-185 0 0,1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,15 6 0 0 0,70 25-20 0 0,-92-35 3 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,5 0-1 0 0,-5 0 43 0 0,-2-1 94 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,2-3-1 0 0,0-19-124 0 0,-6 11-37 0 0,0 0-1 0 0,-1 0 0 0 0,-1 0 1 0 0,-13-20-1 0 0,11 18-72 0 0,0 0-1 0 0,-10-24 0 0 0,14 27-271 0 0,0 0 0 0 0,1 0 0 0 0,0-1-1 0 0,1 0 1 0 0,0 0 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,3-13 1 0 0,-1 17-175 0 0,-1 6 237 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,2-3-1 0 0,8-7-7202 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24949.2">2877 3929 15408 0 0,'1'2'704'0'0,"8"18"727"0"0,1 0 1 0 0,23 34 0 0 0,8 14 3111 0 0,-28-41-4003 0 0,-7-19-488 0 0,-2 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 17 0 0 0,-2-23 48 0 0,-1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-4 6 0 0 0,-1-5-100 0 0,6-4 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-2-2 0 0 0,-4-3-63 0 0,-23-23-1488 0 0,13 12 1174 0 0,15 16 377 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,4-3 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,6-1 0 0 0,27-7 0 0 0,-27 6 0 0 0,0 0 0 0 0,0 0 0 0 0,15 0 0 0 0,20-5 0 0 0,-44 8-138 0 0,80-22 684 0 0,-43 6-2152 0 0,-2-5-5356 0 0,-25 10-557 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25415.44">3125 3903 21191 0 0,'0'0'1027'0'0,"2"0"-448"0"0,19-1-144 0 0,12-3-46 0 0,19-7 173 0 0,-20 3 214 0 0,146-31 1679 0 0,-164 34-3456 0 0,10-1-1999 0 0,-9 3 1466 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30048.69">1339 5300 21191 0 0,'1'0'90'0'0,"-1"0"0"0"0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 2 0 0 0,5 13 1021 0 0,2-6-536 0 0,-4-6-373 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 8 0 0 0,0-5 36 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,4 11 1 0 0,-4-11-24 0 0,0 1 0 0 0,0 0 0 0 0,2 8 0 0 0,-3 0-36 0 0,1-2-77 0 0,0 1 0 0 0,1 0 1 0 0,5 14-1 0 0,1-2-22 0 0,3 0 0 0 0,0 0 0 0 0,18 27 0 0 0,-19-29 225 0 0,-9-21-318 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,4 4 0 0 0,6 9-628 0 0,-11-15 382 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,4 0 0 0 0,11-3-7291 0 0,-13 2 5504 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30433.09">1361 5347 19351 0 0,'-6'-2'639'0'0,"6"-1"-205"0"0,11-3 77 0 0,4-2 8 0 0,-8 4-479 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 2 1 0 0,-1-1-1 0 0,17-2 1 0 0,-3 0 566 0 0,63-17 1169 0 0,70-21 1728 0 0,-126 36-5279 0 0,0 4-4048 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30785.83">1377 5485 19351 0 0,'-13'3'169'0'0,"-15"0"602"0"0,27-3-237 0 0,0 1-65 0 0,2 2-296 0 0,6-2-68 0 0,5-3 237 0 0,5-3 391 0 0,-14 3-603 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,5 0 0 0 0,71-11 476 0 0,-51 7-362 0 0,-1 1-1 0 0,1 1 0 0 0,-1 1 0 0 0,35 3 0 0 0,-55 0-242 0 0,-3-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,6 2 0 0 0,-6-2 23 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,6 0 0 0 0,7 1 87 0 0,-12-1-101 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,6-4 1 0 0,12-3-8 0 0,-12 6-1 0 0,-1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,9-6 0 0 0,7-1 0 0 0,-19 10 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,3-3 0 0 0,0 0 0 0 0,-6 5 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,3-5 0 0 0,-3-4 0 0 0,-1 8 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-4-2 0 0 0,2 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-5 0 0 0 0,4 1 29 0 0,1-1-1 0 0,-1 2 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-5 6-1 0 0,0-1 180 0 0,0 0-1 0 0,1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-9 13 1 0 0,10-13-73 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,1 1 0 0 0,1 12 1 0 0,1-8-91 0 0,-1-1 0 0 0,2 1-1 0 0,6 16 1 0 0,-8-24-46 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,5 2 0 0 0,5 1-113 0 0,0 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,18-1 1 0 0,-16 0-839 0 0,0-2 0 0 0,0 0 0 0 0,-1 0 0 0 0,17-6 1 0 0,-13 1-5038 0 0,0-3-1721 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31290.82">2327 5260 5064 0 0,'0'0'7737'0'0,"0"7"-5397"0"0,-6 58 7144 0 0,1 0-7111 0 0,-4 93 123 0 0,9-126-2580 0 0,0-31-34 0 0,4-15-1511 0 0,-3 4 1486 0 0,0 0-1 0 0,1 0 1 0 0,2-10-1 0 0,-2 10-70 0 0,0-1-1 0 0,0 1 1 0 0,0-12-1 0 0,5-42-393 0 0,-6 41 608 0 0,1 0 0 0 0,6-31 0 0 0,-3 40 6 0 0,-4 11 254 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1-3-1 0 0,6 12-43 0 0,0 6 98 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,6 19 0 0 0,9 25 73 0 0,-10-36-383 0 0,2 0 0 0 0,1 0 0 0 0,0-1 0 0 0,25 28 0 0 0,-33-42-5 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,10 1 0 0 0,-12-2 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,8-3 0 0 0,-11 3 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-3 0 0 0,2-6 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-2-18 0 0 0,1 22 0 0 0,0 2 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4-8 0 0 0,-1 1 0 0 0,-18-23 0 0 0,18 26-391 0 0,1 0 0 0 0,0-1 0 0 0,0 0-1 0 0,-7-18 1 0 0,13 27 250 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,22 3-2011 0 0,0 4 106 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31658.93">2941 5340 6912 0 0,'0'0'622'0'0,"2"0"-512"0"0,13-4 10827 0 0,-14 0-8985 0 0,-1 3-1215 0 0,-11-9 896 0 0,10 10-1519 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-2 1 1 0 0,-19 21 1488 0 0,14-14-1324 0 0,4-4-221 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1 1-1 0 0,2-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 13 0 0 0,0-15-40 0 0,0 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,5 5 0 0 0,-7-9-33 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,2 0-1 0 0,16-12-380 0 0,4-10-86 0 0,-11 12 245 0 0,-10 10 206 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-3 1 0 0,2-9-25 0 0,-2 11 50 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-4-1 0 0,0-3 8 0 0,1 7 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-6 0 0 0,0 5 84 0 0,1 4 137 0 0,1 12 450 0 0,3 17 305 0 0,-2-24-980 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,0 1 0 0 0,8 6 0 0 0,-8-7-106 0 0,-3-3-191 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1-1 0 0 0,2 1-609 0 0,11 0-1136 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32005.34">3330 5300 21191 0 0,'0'0'1606'0'0,"-8"4"-904"0"0,5-4-577 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 3 0 0 0,0 1 115 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,3 7 0 0 0,-2-9-244 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,3 0 0 0 0,12 5-9 0 0,-17-6-5 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,5 0 1 0 0,1-1-210 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,12-6 0 0 0,-8 2 231 0 0,28-13-2752 0 0,-33 15 1623 0 0,5-4-5881 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33379.72">1602 5786 19351 0 0,'-2'1'106'0'0,"1"0"0"0"0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 2 0 0 0,-10 15 194 0 0,7-14-264 0 0,1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-3 10 1 0 0,3-8 362 0 0,-1-1 1 0 0,0 0 0 0 0,-5 10-1 0 0,6-14-175 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 6-1 0 0,0 3-101 0 0,1-9-131 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,-3 4 1 0 0,4-6-5 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 5 1 0 0,0-4 12 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 3 0 0 0,-7 16 0 0 0,11-21 5 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,-2 0-1 0 0,2 0 185 0 0,1-3-180 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,3-4 0 0 0,3-6-35 0 0,24-59-674 0 0,-26 59 689 0 0,-1 1 0 0 0,0-1 1 0 0,5-21-1 0 0,5-14 19 0 0,-12 41 13 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-8 0 0 0,0 8 22 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,3-9 0 0 0,3-9 376 0 0,-3 29-267 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,5 10 1 0 0,8 15 188 0 0,35 46 425 0 0,-45-69-765 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,10 7 0 0 0,7 5 0 0 0,-20-15-20 0 0,-1 0-1 0 0,2 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,3 0 1 0 0,2-8 251 0 0,-5 4-161 0 0,-3 4-64 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0-1 1 0 0,-1-29 177 0 0,0 4 218 0 0,3 19-381 0 0,-2 7-15 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-3 0 0 0,-1-9 5 0 0,-1-2-104 0 0,1 11 33 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-6 0 0 0,1 10-219 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33759.8">1923 5877 19351 0 0,'0'0'940'0'0,"0"1"-406"0"0,0 0-499 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-2 0 0 0 0,-16 11-40 0 0,8-5 23 0 0,10-7-5 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1 0-1 0 0,20 15 798 0 0,-18-14-720 0 0,3 1 204 0 0,-1 1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,4 7 0 0 0,-7-12-292 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,2-1 0 0 0,20-1-4 0 0,-14 1 4 0 0,-3-1 97 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-1-1 0 0 0,8-5-1 0 0,-10 7-2 0 0,1 0-25 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 1 0 0,2-5-1 0 0,-4 7-63 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1-2 0 0 0,-4-6 102 0 0,5 8-99 0 0,1 0-1 0 0,-2 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-4-2 1 0 0,-6-2-68 0 0,-1 0 0 0 0,1 1-1 0 0,-1 0 1 0 0,-21-4 0 0 0,32 8 58 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,-2 1 0 0 0,-5 1-505 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,-13 9 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34421.53">2455 5853 13824 0 0,'0'0'1056'0'0,"3"-13"-600"0"0,-3 12-349 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-2-2 0 0 0,0-4 1072 0 0,1 6-1062 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-2 0 0 0 0,-14-4 6019 0 0,16 7-6069 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,2 3-1 0 0,19 16-371 0 0,-2-2 323 0 0,4 13 261 0 0,20 24-155 0 0,-42-53-88 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 3 0 0 0,6 13 19 0 0,-8-18-72 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 1 1 0 0,-1 2-46 0 0,1-3 10 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,-2 0 1 0 0,-4 1-275 0 0,8-1 321 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-2 1 0 0,1 1-47 0 0,-1 0-318 0 0,-1-6-1070 0 0,3 5 1428 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,3-3 0 0 0,2-3 14 0 0,-4 4-2 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,5-1 0 0 0,6-3 0 0 0,25-9 0 0 0,-27 10 0 0 0,0-1 0 0 0,15-7 0 0 0,14-7 0 0 0,-33 16 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,8-9 0 0 0,-11 9 0 0 0,-3 4 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-2 0 0 0,1 3 24 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,-1 1 54 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-2 3-1 0 0,2-2 48 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,-1 7 0 0 0,2-7-20 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,1 7 0 0 0,-2-9-167 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,5 2-1 0 0,5 3-508 0 0,2 0-1610 0 0,-5-6-3246 0 0,1-5-2092 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35024.74">3085 5595 15608 0 0,'-1'0'83'0'0,"1"0"0"0"0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,2 4-258 0 0,1 1 928 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,2 9 0 0 0,21 84 3612 0 0,-24-93-4160 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,5 9 0 0 0,-5-10 0 0 0,1 1-1 0 0,-1 1 1 0 0,0-1 0 0 0,2 8 0 0 0,-1-2 434 0 0,8 22 1 0 0,-6-23-693 0 0,-2 0 0 0 0,4 16 0 0 0,-4-13-62 0 0,-2-11 99 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 4-1 0 0,0 2-568 0 0,-6-14-62 0 0,-15-9 588 0 0,15 11 35 0 0,1 1 1 0 0,0-2-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-8-8-1 0 0,5 2 99 0 0,-1 0-1 0 0,-15-14 1 0 0,23 24-75 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,-3 10 0 0 0,3-9 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,3 2 0 0 0,4 1 23 0 0,1-1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-2-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 0-1 0 0,14-3 1 0 0,72-7-259 0 0,-85 8 205 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,20-9-1 0 0,-28 11 6 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,3-9 1 0 0,-3 9 65 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,-3-7 0 0 0,0 4-40 0 0,-3 0 0 0 0,2 4 0 0 0,-7 0 0 0 0,10 6 0 0 0,1-3 0 0 0,0 1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 3 0 0 0,1-2 8 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,0 2 1 0 0,0 1 57 0 0,0-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,9 3 0 0 0,-2-1-39 0 0,-5-3-94 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-2 1 0 0,-1 1-1 0 0,0-1 0 0 0,9 0 1 0 0,2 0-461 0 0,-6 0-1757 0 0,1-1-3340 0 0,4-2-3003 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19940,7 +20001,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">142 96 17503 0 0,'-8'-2'404'0'0,"4"1"10"0"0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-8 3-1 0 0,8-3-218 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 5 0 0 0,0 0-65 0 0,0 1-1 0 0,1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 0-1 0 0,8 16 1 0 0,-8-19-115 0 0,2 7 21 0 0,2-1-1 0 0,-1-1 1 0 0,2 1 0 0 0,-1-1 0 0 0,1-1-1 0 0,11 12 1 0 0,11 9-36 0 0,-22-21 0 0 0,1-1 0 0 0,1 1 0 0 0,11 7 0 0 0,18 13 0 0 0,13 9 0 0 0,-39-30 29 0 0,-9-6-58 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,7 2 0 0 0,1 2-1939 0 0,-3 0-71 0 0,-2-2 505 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="607.38">323 139 17503 0 0,'0'0'4656'0'0,"0"9"-1737"0"0,1 0-2425 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,3 13 0 0 0,4 17 494 0 0,3 37 140 0 0,-3-20-1128 0 0,-6-38 0 0 0,0 0 0 0 0,0 22 0 0 0,-3-39-63 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-38 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,-2-4 101 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-9 0 0 0,0-8 0 0 0,1-29 0 0 0,2 33 0 0 0,-1-2-4 0 0,5-32-1 0 0,-1 31 153 0 0,1-1-1 0 0,14-37 1 0 0,-15 50-190 0 0,1 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1 0 1 0 0,9-9-1 0 0,-12 14 132 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,3 0 1 0 0,4 5-74 0 0,-9-3-16 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,1 5 0 0 0,-2-4 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-2 5 0 0 0,1-2 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-7 14 0 0 0,1-5 37 0 0,5-9 26 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,-8 8-1 0 0,-54 52 1355 0 0,66-66-1744 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1074.35">595 146 16328 0 0,'-1'0'81'0'0,"0"1"1"0"0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,-3 8-105 0 0,1-5 226 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,2 5 0 0 0,1 24 2592 0 0,-3-27-2475 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,5 13 1 0 0,-5-15-315 0 0,0 1 0 0 0,0-1 0 0 0,2 10 0 0 0,-2-6-3 0 0,1-4-1 0 0,7 1 0 0 0,-6-8 0 0 0,-3 1 0 0 0,5-2 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,7-5 0 0 0,7-4 0 0 0,-16 10 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2-5 0 0 0,1-2 0 0 0,0-2 0 0 0,3-11 0 0 0,0 2 0 0 0,-3 5 0 0 0,-1 0 0 0 0,3-26 0 0 0,2-7 0 0 0,-9 42 0 0 0,0 7 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-2 3 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 3 0 0 0,2 8 0 0 0,0 0 0 0 0,1 0 0 0 0,7 16 0 0 0,-7-23 185 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0-1-1 0 0,11 10 1 0 0,-12-13-330 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,10 1 0 0 0,-7-1-354 0 0,2 2-2377 0 0,1-3 1852 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1074.36">595 146 16328 0 0,'-1'0'81'0'0,"0"1"1"0"0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,-3 8-105 0 0,1-5 226 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,2 5 0 0 0,1 24 2592 0 0,-3-27-2475 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,5 13 1 0 0,-5-15-315 0 0,0 1 0 0 0,0-1 0 0 0,2 10 0 0 0,-2-6-3 0 0,1-4-1 0 0,7 1 0 0 0,-6-8 0 0 0,-3 1 0 0 0,5-2 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,7-5 0 0 0,7-4 0 0 0,-16 10 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2-5 0 0 0,1-2 0 0 0,0-2 0 0 0,3-11 0 0 0,0 2 0 0 0,-3 5 0 0 0,-1 0 0 0 0,3-26 0 0 0,2-7 0 0 0,-9 42 0 0 0,0 7 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-2 3 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 3 0 0 0,2 8 0 0 0,0 0 0 0 0,1 0 0 0 0,7 16 0 0 0,-7-23 185 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0-1-1 0 0,11 10 1 0 0,-12-13-330 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,10 1 0 0 0,-7-1-354 0 0,2 2-2377 0 0,1-3 1852 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1472.37">907 1 12440 0 0,'2'0'957'0'0,"1"0"-743"0"0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,2 4-1 0 0,4 6 1985 0 0,-1 0 0 0 0,9 21-1 0 0,-12-23-2171 0 0,11 24 524 0 0,-1 2 0 0 0,-2 0 0 0 0,-2 0-1 0 0,-1 1 1 0 0,5 56 0 0 0,-13-78-503 0 0,-1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,-1 0 0 0 0,-5 16-1 0 0,5-14 62 0 0,2-13 22 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,-3 5-1 0 0,-4 5 189 0 0,4-4-686 0 0,0 0-1 0 0,-13 15 1 0 0,11-16-1303 0 0,1 0-1 0 0,-9 15 0 0 0</inkml:trace>
 </inkml:ink>
 </file>
@@ -19975,7 +20036,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">171 1 13760 0 0,'0'0'9571'0'0,"7"2"-13404"0"0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="724.71">156 37 11256 0 0,'0'0'10941'0'0,"-7"4"-9847"0"0,-13 12-930 0 0,13-12 68 0 0,0 1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-10 12 0 0 0,-3 6 316 0 0,13-17-506 0 0,0 0 0 0 0,-8 13 0 0 0,5-7-26 0 0,7-9-16 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-2 7 1 0 0,2 0 38 0 0,-1 1-1 0 0,0 20 0 0 0,3-28-5 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,5 6 0 0 0,5 12 750 0 0,-9-16-697 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1-1-1 0 0,5 7 1 0 0,29 35-388 0 0,-27-34 335 0 0,-3-3 36 0 0,0 0-1 0 0,1-1 0 0 0,19 14 1 0 0,-18-12-372 0 0,-9-8 220 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,3 1 0 0 0,1 1-1713 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,8 0 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1267.14">372 144 11976 0 0,'-5'2'276'0'0,"1"0"1"0"0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-5 4 1 0 0,7-5 211 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-2 5 0 0 0,-24 53 3429 0 0,20-26-3900 0 0,3-24-17 0 0,1-2 0 0 0,2 3 0 0 0,-2 7 0 0 0,4-10 0 0 0,5-4 0 0 0,-5-4 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,7-15 0 0 0,6-20 0 0 0,-5 13 0 0 0,-7 21 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-5 0 0 0,0 1 38 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,6-11 0 0 0,-6 14 138 0 0,-2 2-97 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,2-1-1 0 0,6-6 557 0 0,-9 8-635 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 2 1 0 0,2 0 0 0 0,1 2 171 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,2 7 0 0 0,8 16-189 0 0,-4-7 17 0 0,-7-18 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3 3 0 0 0,6 6-474 0 0,-1 2 0 0 0,0-1 1 0 0,10 20-1 0 0,-20-33 473 0 0,1 1-511 0 0,3 5 254 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1267.15">372 144 11976 0 0,'-5'2'276'0'0,"1"0"1"0"0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-5 4 1 0 0,7-5 211 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-2 5 0 0 0,-24 53 3429 0 0,20-26-3900 0 0,3-24-17 0 0,1-2 0 0 0,2 3 0 0 0,-2 7 0 0 0,4-10 0 0 0,5-4 0 0 0,-5-4 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,7-15 0 0 0,6-20 0 0 0,-5 13 0 0 0,-7 21 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-5 0 0 0,0 1 38 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,6-11 0 0 0,-6 14 138 0 0,-2 2-97 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,2-1-1 0 0,6-6 557 0 0,-9 8-635 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 2 1 0 0,2 0 0 0 0,1 2 171 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,2 7 0 0 0,8 16-189 0 0,-4-7 17 0 0,-7-18 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3 3 0 0 0,6 6-474 0 0,-1 2 0 0 0,0-1 1 0 0,10 20-1 0 0,-20-33 473 0 0,1 1-511 0 0,3 5 254 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1623.27">348 339 10136 0 0,'-19'-4'5734'0'0,"25"4"-4161"0"0,-4 0-1451 0 0,1 0-24 0 0,16-1-1125 0 0,1 0 0 0 0,38-9 0 0 0,-56 9 5 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2015.45">605 108 11720 0 0,'0'0'1060'0'0,"1"2"-720"0"0,1 3 72 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,0 8 0 0 0,0-6-16 0 0,1 1-1 0 0,0 0 1 0 0,1 8-1 0 0,1 5 295 0 0,-2-18-589 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,0 0-1 0 0,2 6 0 0 0,-3-7-75 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 3-1 0 0,1-3-9 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 2 0 0 0,0-1 29 0 0,0 4-33 0 0,-1-6-27 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,1 0 12 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,2-1-1 0 0,1-1 17 0 0,0 1 0 0 0,0-1-1 0 0,-1-1 1 0 0,1 1 0 0 0,5-8-1 0 0,22-27 46 0 0,-21 27 15 0 0,0-2 0 0 0,14-20 1 0 0,-24 32 459 0 0,-5 7-1090 0 0,3-2 556 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,2 0-1 0 0,-1 0 1 0 0,0 6 0 0 0,-4 15-12 0 0,7-16 16 0 0,-2-8 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 2 0 0 0,3 5 0 0 0,-3-7 0 0 0,15 4 0 0 0,7 1-26 0 0,-19-3-514 0 0,-5-3 537 0 0,0 0-27 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1-187 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 1 0 0,10-6-1306 0 0,-9 6-11 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2411.64">820 41 5064 0 0,'0'0'232'0'0,"9"8"2512"0"0,10 10 5298 0 0,-1 4-4090 0 0,-8-9-3107 0 0,-1 1 1 0 0,-1 0-1 0 0,10 22 0 0 0,-7-10-307 0 0,-1-1 0 0 0,-2 2 0 0 0,8 38 0 0 0,-15-61-598 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 4 0 0 0,-8 19-5839 0 0,8-21 3163 0 0,-2 4-4345 0 0</inkml:trace>
@@ -20010,48 +20071,48 @@
       <inkml:brushProperty name="color" value="#FFC114"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 4618 13304 0 0,'0'0'1460'0'0,"2"-1"-1212"0"0,49-18 637 0 0,-28 12-810 0 0,-2-1 1 0 0,-1 0 0 0 0,35-22 0 0 0,117-75 1011 0 0,-144 87-762 0 0,32-13-1 0 0,-31 16-112 0 0,29-19-1 0 0,4-8 143 0 0,100-75 1092 0 0,-139 98-1195 0 0,24-21 299 0 0,69-45 0 0 0,198-124 321 0 0,-167 110-533 0 0,-47 36-6 0 0,21-13 100 0 0,-51 29-251 0 0,89-69 274 0 0,-103 70-373 0 0,71-45-1 0 0,66-26 212 0 0,-45 28-165 0 0,14-30 32 0 0,-13 9-109 0 0,-2-1 2 0 0,-50 35-33 0 0,115-85 259 0 0,85-63-418 0 0,-204 143 139 0 0,-14 12 0 0 0,-74 64 1 0 0,194-143 270 0 0,36-11-1 0 0,-135 82-111 0 0,-56 41-41 0 0,2 3 1 0 0,53-29-1 0 0,32-7-43 0 0,69-36 85 0 0,-96 38 32 0 0,-100 63-214 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0-1 1 0 0,0 1 0 0 0,-2-1 0 0 0,2 1 0 0 0,4-10 0 0 0,-8 14-99 0 0,3-5-385 0 0,-13 4-4579 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="920.76">429 4095 9672 0 0,'-4'-1'287'0'0,"3"1"-247"0"0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-2 0 0 0,0 2 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-2 0 0 0 0,0-7 358 0 0,4 6-109 0 0,-2 2-162 0 0,1-11 1064 0 0,-1 11-1136 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,2-5 288 0 0,-2 5-338 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-2 19 479 0 0,0-12-306 0 0,-1-1 1 0 0,0-1 0 0 0,0 2-1 0 0,-3 4 1 0 0,-5 13 503 0 0,10-20-590 0 0,-2 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,-4 4 0 0 0,-10 16 327 0 0,2 4 242 0 0,-29 38 0 0 0,33-48-296 0 0,-16 27 0 0 0,16-25-71 0 0,-13 18-1 0 0,-38 58 236 0 0,33-52-446 0 0,21-28-53 0 0,-2 0 1 0 0,-16 19-1 0 0,13-22 27 0 0,-1 4 95 0 0,-23 29 0 0 0,36-43-151 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,0-2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,-4 2 1 0 0,-4 6-15 0 0,10-7-39 0 0,6 9 26 0 0,2 0-13 0 0,11-5 26 0 0,-8-4 17 0 0,-4-2-3 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 0 1 0 0,1-1-1 0 0,5-1 1 0 0,3 0 19 0 0,-1-3 0 0 0,16-5 1 0 0,-4-2-9 0 0,-1 0 1 0 0,-2-3 0 0 0,1-1-1 0 0,38-31 1 0 0,-56 42 4 0 0,83-56 142 0 0,-89 61-155 0 0,-1 0 1 0 0,1-2 0 0 0,0 2 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-2 0 0 0,-1 1 2 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-2 1 0 0,1 2-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,1-1 124 0 0,-3-14 284 0 0,1 13-391 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-2-1 1 0 0,-10-15 343 0 0,12 15-330 0 0,-1 0 0 0 0,1 1-1 0 0,0-2 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,-2-1-1 0 0,2 1-35 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,2 0 1 0 0,-1 1 0 0 0,-1-4 0 0 0,1 3 0 0 0,0-2 0 0 0,0 2 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-1-2 0 0 0,1 2 5 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-4 1 0 0,-23-80 159 0 0,12 53-82 0 0,3 10-49 0 0,-7-3-1535 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2666.67">4700 1282 14280 0 0,'0'0'1297'0'0,"11"-9"801"0"0,-4 8-2192 0 0,-1 1 0 0 0,1-2 0 0 0,-1 2 0 0 0,1 2-1 0 0,0-2 1 0 0,-1 1 0 0 0,12 3 0 0 0,15 2-130 0 0,-10-4 165 0 0,43 2 193 0 0,188 13 1705 0 0,-247-16-1805 0 0,351 24 828 0 0,-113-11-704 0 0,259 14 1178 0 0,-394-19-1065 0 0,59 3 71 0 0,132 2 229 0 0,90 3-126 0 0,-180-5-267 0 0,-63-2-5 0 0,215 21-63 0 0,-207-15-91 0 0,4 8 551 0 0,-53-6-198 0 0,186 31-330 0 0,113 32-42 0 0,-232-42 0 0 0,-26-12 79 0 0,56 13 6 0 0,-6 6-233 0 0,-176-42 150 0 0,187 31 60 0 0,-137-27 27 0 0,80 5 152 0 0,-129-13-316 0 0,-11 1 155 0 0,-2-1 0 0 0,2 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,19-8 0 0 0,7-1 80 0 0,49-7-24 0 0,-49 10-136 0 0,-1-2 0 0 0,-31 7 0 0 0,6-3 0 0 0,-8 5 0 0 0,15-11 0 0 0,-16 11 0 0 0,-2-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1-2 0 0 0,-1 2 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-2-1 0 0,0 2 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-6-4-14 0 0,10 28 26 0 0,-2-21-19 0 0,-1 0 0 0 0,1 2 0 0 0,0-2-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-2 6 0 0 0,1-3-5 0 0,1-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,-1 11 0 0 0,-1 9-9 0 0,2-23 16 0 0,1 2 1 0 0,-1-2-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,2 0-1 0 0,-1 0 0 0 0,1 6 0 0 0,1-2 20 0 0,-1-1-1 0 0,1 0 1 0 0,-2 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,-2 8-1 0 0,3-8 46 0 0,3 3-62 0 0,-3-4-46 0 0,10-12 86 0 0,-8 3-45 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1-3-1 0 0,0 1-5 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-3-11 0 0 0,-1 4-4 0 0,-1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,-12-18-1 0 0,8 16 34 0 0,8 12-17 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-2-4 0 0 0,-2-19-14 0 0,5 24-55 0 0,3 0 21 0 0,-2 1 47 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,2 2-1 0 0,10 1 3 0 0,-6 0 0 0 0,0 0 0 0 0,1 0 0 0 0,9 6 0 0 0,-4-3 0 0 0,20 10 0 0 0,-3-2 0 0 0,-14-7 0 0 0,0 2 0 0 0,0 0 0 0 0,-2 1 0 0 0,1 0 0 0 0,0 2 0 0 0,-2-1 0 0 0,23 26 0 0 0,-30-29 14 0 0,-4-2 50 0 0,-1-5-50 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,-1 1 0 0 0,-5 0 194 0 0,1 1 0 0 0,-1-1 0 0 0,-7 1 0 0 0,8-2 4 0 0,-173 13 228 0 0,121-10-441 0 0,38-1-684 0 0,-1-2 1 0 0,1 0-1 0 0,-33-4 1 0 0,42 3-647 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3810.01">3892 548 19351 0 0,'0'0'47'0'0,"0"-1"-1"0"0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,5 3 432 0 0,-5-2-329 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 1 0 0 0,0 2 55 0 0,-1 2-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 2 0 0 0,-1-2-1 0 0,-3 10 1 0 0,-3 21-121 0 0,-11 112 1899 0 0,11-10-2089 0 0,8-132 94 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,2 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1-1-1 0 0,1 2 0 0 0,1-2 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,0-1-1 0 0,5 5 0 0 0,-2-2 17 0 0,0-2 0 0 0,-1 0-1 0 0,2 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-2 1 0 0,2 0 0 0 0,10 4-1 0 0,51 19-1 0 0,-61-24 0 0 0,1-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,2 0 0 0 0,-1-1 0 0 0,10 0 0 0 0,-13-1 30 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0-1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,9-9-1 0 0,-6 5-701 0 0,-1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,8-16 1 0 0,-11 14-7718 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4168.06">3851 918 17159 0 0,'0'0'1558'0'0,"2"0"-1282"0"0,3-2-31 0 0,-1 0-1 0 0,1 0 1 0 0,-1-2 0 0 0,0 2 0 0 0,5-5 0 0 0,10-7 1446 0 0,57-23 1206 0 0,-52 27-2859 0 0,-1-2 1 0 0,26-16 0 0 0,-32 13-2973 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4604.31">3860 682 7832 0 0,'1'-2'3801'0'0,"6"-4"-2072"0"0,0-1 1 0 0,12-8-1 0 0,39-21 1547 0 0,-12 7-2006 0 0,-37 24-950 0 0,-2 1 0 0 0,2-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,14-3 0 0 0,-20 5-250 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,3 4 0 0 0,1 0 97 0 0,-1 1 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-2 1 0 0 0,1-1 0 0 0,1 17 0 0 0,14 52 275 0 0,-2-3-276 0 0,-6 4 63 0 0,6 27 69 0 0,-15-95-469 0 0,-3-9-34 0 0,1-2 197 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-22-163-2020 0 0,7 62 2017 0 0,10 15 12 0 0,5 88 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,6 8 0 0 0,5 9 0 0 0,-1 8 56 0 0,46 86 1038 0 0,-48-96-952 0 0,1-1-1 0 0,1-1 1 0 0,-1 0 0 0 0,2 0-1 0 0,17 15 1 0 0,4 3-117 0 0,-20-20-3 0 0,0 0 1 0 0,-1-1-1 0 0,2 1 1 0 0,19 10-1 0 0,-28-19-7 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-2-1 1 0 0,2 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,4 0 1 0 0,-8-1-19 0 0,0 2 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-16-186 0 0,-1 15 171 0 0,-1-8 16 0 0,0 2-1 0 0,-1 0 0 0 0,0-2 0 0 0,0 2 0 0 0,1-1 0 0 0,-7-12 0 0 0,-5-17 6 0 0,7 20-86 0 0,-12-28 0 0 0,11 31-92 0 0,1 0 0 0 0,0-1 1 0 0,-2-17-1 0 0,-2-7-1271 0 0,5 24 93 0 0,1 0-1 0 0,1 0 1 0 0,-1-31-1 0 0,3 5-1569 0 0,3 11-3556 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4931.24">4514 481 19351 0 0,'0'0'439'0'0,"1"1"62"0"0,5 4-273 0 0,0 2-1 0 0,0-1 0 0 0,-2 1 0 0 0,1 0 1 0 0,0 0-1 0 0,7 15 0 0 0,18 53 3210 0 0,-17-38-1229 0 0,-2-5-2118 0 0,-8-20 58 0 0,0-2 0 0 0,6 14-1 0 0,37 83 1392 0 0,-45-105-1641 0 0,3 4-420 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 2 0 0 0,0-2 0 0 0,1 11 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5287.26">4419 672 13824 0 0,'0'0'1246'0'0,"8"-2"-996"0"0,113-54 6808 0 0,-1 4-3869 0 0,-55 21-4573 0 0,-58 23 277 0 0,-7 7 1030 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 72 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 2 0 0 0,1 3 53 0 0,0-2 140 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1 6-1 0 0,6 48 1539 0 0,-5-34-936 0 0,-1-7-463 0 0,0-1-1 0 0,1 0 0 0 0,1-2 1 0 0,13 33-1 0 0,-9-29-863 0 0,-7-14 69 0 0,0 0 0 0 0,2 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 2 0 0 0,1-2 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,7 4-1 0 0,-4-4-1195 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5614.61">4924 513 15664 0 0,'0'0'1417'0'0,"1"2"-956"0"0,2 4 713 0 0,0 1 0 0 0,1 0 0 0 0,6 6 0 0 0,-6-5-400 0 0,1-2-1 0 0,-1 1 0 0 0,6 13 0 0 0,-3 1 314 0 0,4 24 0 0 0,-6-24-815 0 0,8 22-1 0 0,-11-38-48 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 8-1 0 0,3 14 265 0 0,2 6-517 0 0,2 8-1751 0 0,-9-39 1632 0 0,-5 0 61 0 0,5-2-282 0 0,-1-1 253 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1 0 0 0 0,-4-2 0 0 0,0-2-155 0 0,-20-35 95 0 0,17 30 179 0 0,1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,-7-22 0 0 0,10 22-2 0 0,0-2 0 0 0,0 0 0 0 0,2 1 0 0 0,-1-2 0 0 0,2 1 0 0 0,-1 1 0 0 0,4-25 0 0 0,-2 28 0 0 0,0 2 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1 0 0 0 0,-2 0 0 0 0,2 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,9-9 0 0 0,-11 13 0 0 0,2-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,5 0 0 0 0,0 1 6 0 0,-1 0 0 0 0,1 1-1 0 0,-2 0 1 0 0,2 0 0 0 0,-1 2 0 0 0,11 5 0 0 0,-11-5 93 0 0,-1 0 0 0 0,-1 2 1 0 0,1 0-1 0 0,0-1 0 0 0,0 2 1 0 0,-2 0-1 0 0,1-1 0 0 0,0 2 1 0 0,7 10-1 0 0,-11-12-27 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 13 0 0 0,-1-15-120 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,-1 1 0 0 0,0-2-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 2 0 0 0,0-2-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0-1 1 0 0,-10 10 0 0 0,-6 2-314 0 0,2 0 1 0 0,-40 24-1 0 0,34-26 291 0 0,7-4-1632 0 0,-33 14-1 0 0,32-16-333 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6030.57">5404 322 9672 0 0,'0'0'874'0'0,"0"1"-718"0"0,8 40 1516 0 0,-6-18 2001 0 0,-1 1-1 0 0,-2 30 0 0 0,-2-17-2754 0 0,3-24-513 0 0,0-2 0 0 0,2 16 0 0 0,0 9-386 0 0,-2-19-19 0 0,0 2 0 0 0,0-1 0 0 0,-4 21 0 0 0,4-4 0 0 0,0-35 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-5 0 0 0,-3-11 0 0 0,-1-32 0 0 0,2 0 0 0 0,3 0 0 0 0,1-2 0 0 0,5-51 0 0 0,-3 88 0 0 0,1 1 0 0 0,0 0 0 0 0,6-18 0 0 0,-7 24 0 0 0,1 0 0 0 0,0 1 0 0 0,0 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,7-7 0 0 0,-8 11 7 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,2 1 0 0 0,1 1 0 0 0,0-1 102 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 2 0 0 0,-2-2 0 0 0,2 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,0-1 0 0 0,2 6 0 0 0,86 212 1536 0 0,-77-193-1876 0 0,-10-22 153 0 0,-1 1-1 0 0,0-1 1 0 0,3 10-1 0 0,-5-15-301 0 0,0 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,-1 7 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6419.24">5363 621 13360 0 0,'0'0'1209'0'0,"15"0"-676"0"0,-5 0 955 0 0,0-1 0 0 0,1 0 0 0 0,-1-1-1 0 0,-1 0 1 0 0,2-1 0 0 0,12-7 0 0 0,57-31-2353 0 0,-36 17-3617 0 0,-29 18-3024 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6791.29">5743 252 18887 0 0,'0'0'915'0'0,"1"1"-400"0"0,2 8-383 0 0,-2 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 2 1 0 0,0-1-1 0 0,-1 15 0 0 0,1 16 1647 0 0,0 16 882 0 0,-1-40-2074 0 0,0 0 0 0 0,3 23 0 0 0,13 60-415 0 0,-12-89-877 0 0,0 4-698 0 0,-3 1 682 0 0,-12-27-1775 0 0,8 9 2025 0 0,-3-4-2 0 0,0-2-1 0 0,1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0-1 1 0 0,-5-17-1 0 0,5 12 383 0 0,0 1-1 0 0,1-2 1 0 0,2 2-1 0 0,-1-1 0 0 0,1-19 1 0 0,1 25 226 0 0,1 0 0 0 0,-1 0 1 0 0,2 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,2-2-1 0 0,0 2 0 0 0,0 0 0 0 0,0 0 1 0 0,6-10-1 0 0,-3 8 199 0 0,0 0 0 0 0,1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1 1-1 0 0,2 0 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,13-5-1 0 0,-18 10-173 0 0,1 0 0 0 0,0-1 0 0 0,0 2 0 0 0,1-1 0 0 0,-1 1 0 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-2 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 2 0 0 0,-1-1 0 0 0,5 3 0 0 0,-5-3-56 0 0,1 1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-2 1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,3 8 0 0 0,-3-5-66 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,-1-1 1 0 0,1 2-1 0 0,-2-2 0 0 0,1 0 0 0 0,-1 2 0 0 0,-2 7 0 0 0,-1 1-7 0 0,0-1-1 0 0,-1 0 0 0 0,-10 22 0 0 0,9-26-209 0 0,0 0-1 0 0,0-1 0 0 0,-1 0 0 0 0,-1 0 1 0 0,-1-1-1 0 0,2 1 0 0 0,-3-2 0 0 0,1 0 1 0 0,-2 0-1 0 0,2-2 0 0 0,-14 10 0 0 0,13-13-1202 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7118.64">6037 159 6912 0 0,'0'0'528'0'0,"4"15"2000"0"0,-2-3 1125 0 0,2 15 2307 0 0,-3-7-4618 0 0,1-1 1 0 0,0 1 0 0 0,9 30-1 0 0,-8-41-1066 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,8 11 0 0 0,4 6 145 0 0,-8-2-399 0 0,-8-20-21 0 0,-1 1-1 0 0,1-1 1 0 0,0 2-1 0 0,1-2 1 0 0,-1 1-1 0 0,0-1 1 0 0,3 3-1 0 0,8 11 84 0 0,-8-10-2 0 0,0 0 0 0 0,0-1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 2 0 0 0,-1-2 1 0 0,9 2-1 0 0,-14-4-93 0 0,5 0-113 0 0,0 1 1 0 0,1-1-1 0 0,-2 0 0 0 0,7 1 1 0 0,-10-2-63 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7119.64">6062 388 13360 0 0,'0'0'1424'0'0,"17"-6"-1424"0"0,-4-1 0 0 0,-2-1 1256 0 0,-1 1 207 0 0,1 0 41 0 0,6-1 0 0 0,7 3-672 0 0,-7-2-128 0 0,3-4-32 0 0,-3 4-8 0 0,4-1-120 0 0,-6-2-32 0 0,1 2 0 0 0,-6 1-7096 0 0,1 0-1415 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7585.98">6073 174 13824 0 0,'0'0'608'0'0,"10"0"128"0"0,2-5-584 0 0,-1-2-152 0 0,3 1 0 0 0,1 2 0 0 0,7-4 320 0 0,-1 5 32 0 0,5-4 0 0 0,0-1 7 0 0,-3 5-231 0 0,-2-4-56 0 0,1 5-8 0 0,-1-6 0 0 0,-1 1-1207 0 0,1 4-241 0 0,-6-5-56 0 0,3 1 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7586.98">6501 36 3224 0 0,'0'-7'10415'0'0,"-8"3"-6824"0"0,5 4-3219 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,-1 5 0 0 0,1-5-191 0 0,2-1-104 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,2 2 0 0 0,3 6-115 0 0,0 0 0 0 0,12 14-1 0 0,-12-15 125 0 0,12 14-83 0 0,-6-7 20 0 0,-1 0 0 0 0,10 18 0 0 0,3 6 1265 0 0,-16-28-994 0 0,-1 1 0 0 0,-1-1 0 0 0,10 22 0 0 0,-13-27-190 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 8 0 0 0,0-11-72 0 0,-2-1 1 0 0,1 0-1 0 0,0 2 1 0 0,0-2-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,-2 3-1 0 0,-2 1-93 0 0,0 1 1 0 0,1-2-1 0 0,-2 0 0 0 0,-11 8 0 0 0,-1-1-3835 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8130.94">4610 300 10592 0 0,'-8'3'964'0'0,"7"-2"-530"0"0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 2 0 0 0,0-1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-2 2 0 0 0,2-3-235 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 2 1 0 0,1 0 0 0 0,3 2 104 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 2 0 0 0,5 2-1 0 0,-5-4 245 0 0,-1 0-371 0 0,1-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,0-2 1 0 0,2 1-1 0 0,-1 0 1 0 0,5 1-1 0 0,-2-1-55 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,9-1 0 0 0,-9-1-69 0 0,1 0 0 0 0,-2 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-2 0 0 0 0,2 0 0 0 0,5-7 0 0 0,-9 9-61 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-2 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-2-3-1 0 0,1 2-71 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-2-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,2 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,1-2 0 0 0,-1 2 0 0 0,1-1 0 0 0,0 1 0 0 0,-6 0 0 0 0,-9 0-258 0 0,15 0 278 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 1 1 0 0,2-1-1 0 0,-7 3 1 0 0,-30 5 85 0 0,26-6-930 0 0,-23 9 0 0 0,-5 1-3058 0 0,19-4 1918 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11630.34">6527 445 8264 0 0,'0'0'10871'0'0,"-5"8"-8713"0"0,-1-6-1379 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-12 1-1 0 0,15-2-759 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-2-3 0 0 0,2 3-47 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 1 0 0,1-1-491 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,3-4 1 0 0,3-4-849 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12066.17">6413 28 11952 0 0,'0'0'1484'0'0,"8"3"2607"0"0,-4-5-3567 0 0,0 1-1 0 0,0 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,6 2 0 0 0,15-3 1190 0 0,-12 0-1346 0 0,6-2-402 0 0,-6 3-6149 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="81817.89">1746 1991 6912 0 0,'0'0'7892'0'0,"-16"-5"-5001"0"0,7 5-2633 0 0,2 2 0 0 0,-2-1 0 0 0,0 1 0 0 0,1 2 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1-1 0 0,-14 10 1 0 0,-6 1 19 0 0,-30 21-293 0 0,39-26-304 0 0,-26 18 1 0 0,5-3 602 0 0,22-16-30 0 0,15-7-212 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-5 4-1 0 0,-42 47 100 0 0,49-52-137 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1 1 43 0 0,1-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,0 4-1 0 0,3-1-26 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,10 1 0 0 0,-3-2-29 0 0,-1 0 0 0 0,-1-1 0 0 0,19-3 0 0 0,-25 3 15 0 0,94-17-452 0 0,-45 12 288 0 0,60-15-1 0 0,-73 14-3264 0 0,-31 5-2908 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="127009.64">6849 0 15664 0 0,'1'2'5969'0'0,"3"4"-5427"0"0,0 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,3 12 1 0 0,-2-5-185 0 0,-2 2 0 0 0,0 0-1 0 0,-1 25 1 0 0,-1-11-149 0 0,-8 96 737 0 0,1-49-531 0 0,5-40-440 0 0,-2 16-275 0 0,4-41-173 0 0,0 0-1 0 0,-4 17 1 0 0,0-1-1821 0 0,1-16 771 0 0,-2 4-12 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="127463.52">6116 845 13824 0 0,'0'0'1246'0'0,"8"3"-719"0"0,-6-1 82 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,0 1 1 0 0,0-2-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 4-1 0 0,2 4 430 0 0,-1 0 0 0 0,2 17 0 0 0,-2-10-956 0 0,15 153 1511 0 0,-16-159-1602 0 0,0-1-1 0 0,-1 15 0 0 0,-1-18-267 0 0,1 2 0 0 0,0-2 0 0 0,1 1 1 0 0,0-1-1 0 0,2 11 0 0 0,-2-18-86 0 0,0 3 557 0 0,-6 6-6176 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="128053.26">5918 1006 15664 0 0,'0'0'1417'0'0,"15"-3"-996"0"0,4-6 2039 0 0,-13 5-1975 0 0,1 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,10 0 0 0 0,-2-1 118 0 0,-1-1 0 0 0,23-8 1 0 0,7-4 594 0 0,-3 3-1017 0 0,29-9-190 0 0,-41 16 9 0 0,-13 3 0 0 0,1-1 0 0 0,-1 3 0 0 0,0-1 0 0 0,1 2 0 0 0,0 0 0 0 0,19 1 0 0 0,-32 1 64 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 2 1 0 0,0-2-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,2 5 0 0 0,0 6 87 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-2 15 0 0 0,1-14-360 0 0,1 8 88 0 0,-1 16 230 0 0,-1-29 51 0 0,1-1 1 0 0,1 0-1 0 0,0 9 0 0 0,1 11 251 0 0,-2 16 210 0 0,0-6-1938 0 0,-4-74 615 0 0,2 16 606 0 0,-1-7-197 0 0,1-1 0 0 0,1 1 0 0 0,1 0 0 0 0,5-32 0 0 0,0 25 11 0 0,-5 26 280 0 0,1-2-1 0 0,0 1 1 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,2 0 0 0 0,6-14-1 0 0,-10 22 55 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,2 1 0 0 0,0 0-38 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 2 0 0 0,1-2-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,3 4-1 0 0,3 15-19 0 0,9 43 692 0 0,15 113-349 0 0,-27-162-715 0 0,-2-9-277 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,0 11 1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="128521.27">6351 1169 15664 0 0,'0'0'759'0'0,"11"0"-335"0"0,0 0 24 0 0,0 0-360 0 0,-4-4-88 0 0,7 1 0 0 0,-3 0 0 0 0,0-1 648 0 0,-3 1 120 0 0,7 3 16 0 0,-4-5 8 0 0,6-1-448 0 0,-6-1-88 0 0,4-1-24 0 0,0 1 0 0 0,-1 0-1000 0 0,4 1-208 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="128851.42">6664 903 15664 0 0,'0'0'1417'0'0,"0"2"-1167"0"0,2 19-396 0 0,3 10 4058 0 0,9 30 1 0 0,-14-58-3973 0 0,16 50 2109 0 0,4 28-1433 0 0,-19-80-679 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 0 51 0 0,-1 0-500 0 0,-4-7-512 0 0,-7-8 67 0 0,9 12 838 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0-1-1 0 0,-3-8 0 0 0,4 6 81 0 0,-1 1 0 0 0,1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,0-2 1 0 0,0 2-1 0 0,1 0 1 0 0,-1-2 0 0 0,1 2-1 0 0,1 0 1 0 0,-1-1 0 0 0,4-5-1 0 0,-3 4 109 0 0,1 0-1 0 0,1 2 0 0 0,-1-2 0 0 0,1 1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1 1 1 0 0,0-2-1 0 0,1 2 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,0 1 0 0 0,8-3 0 0 0,-8 4-2 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 1 0 0 0,13-1 1 0 0,-18 2 40 0 0,-1 1 1 0 0,1 0-1 0 0,-2 0 0 0 0,2 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,-1-1 1 0 0,1 2-1 0 0,-1-2 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,1 4-1 0 0,-2-3-36 0 0,0 0 0 0 0,0 0-1 0 0,0 2 1 0 0,0-2 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 2 0 0 0,0 0-61 0 0,0 1 0 0 0,-1-2-1 0 0,1 1 1 0 0,-1 0 0 0 0,-3 7 0 0 0,-3 4 94 0 0,-3 1 1 0 0,0-3-1 0 0,0 2 0 0 0,-24 23 1 0 0,-12 4 525 0 0,26-21-611 0 0,24-24-104 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,6 0 0 0 0,-2 1 98 0 0,1-1-1 0 0,-1 2 1 0 0,-1-1-1 0 0,1 1 1 0 0,12 4-1 0 0,-14-3-12 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,5 7 0 0 0,-7-8 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,2 9 0 0 0,-2 5 0 0 0,-6-12 0 0 0,3-4 0 0 0,0 1 0 0 0,0 2 0 0 0,-1-2 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,2 0 0 0 0,-2-1 0 0 0,-5 2 0 0 0,-7 2 0 0 0,2-2 0 0 0,-18 3 0 0 0,15-3 0 0 0,7-2-186 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-14-3 0 0 0,3-6-2613 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="129180.67">6959 886 17503 0 0,'0'0'1759'0'0,"0"1"-1614"0"0,1 8 395 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,-2 16 1 0 0,0 0 173 0 0,2-2-208 0 0,1-1 0 0 0,1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,9 39-1 0 0,-9-53-490 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,2-1 0 0 0,8 9-1 0 0,-12-13 7 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,5-2 1 0 0,8-2-1654 0 0,-1-4-5620 0 0,-13 7 7141 0 0,11-6-8044 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="129561.28">7182 886 9672 0 0,'0'0'748'0'0,"0"1"-492"0"0,2 9 1522 0 0,0-2 1 0 0,-1 2 0 0 0,0-1 0 0 0,-1 0-1 0 0,0 17 1 0 0,0 14 1182 0 0,0-21-2362 0 0,1-1-1 0 0,-1 1 1 0 0,-1-1 0 0 0,-4 26 0 0 0,4-41-573 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 2 1 0 0,0-2-1 0 0,2 4 1 0 0,-1 17 91 0 0,-9 27-101 0 0,2-93-892 0 0,5 11 653 0 0,1 1 0 0 0,2-1 0 0 0,1 1-1 0 0,10-43 1 0 0,-11 60 223 0 0,1 3 0 0 0,1-2 0 0 0,0 1 0 0 0,0 0 0 0 0,1 1 0 0 0,6-11 0 0 0,-4 7 0 0 0,-5 11 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,3-3 0 0 0,-4 5 8 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 49 0 0,3 3 168 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,-1 0 1 0 0,5 11 0 0 0,1 1 244 0 0,18 29-1 0 0,-18-33-299 0 0,0 0 0 0 0,-2 1 0 0 0,9 20-1 0 0,-5-7-486 0 0,25 53-1 0 0,-35-73-1534 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="129973.06">7126 1134 17503 0 0,'0'0'803'0'0,"1"0"-18"0"0,68-17 1383 0 0,-8 3 868 0 0,3-1-1781 0 0,20-7-2067 0 0,-50 11-1246 0 0,-10 2-4229 0 0,-5 4-794 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="130337.56">7565 850 13824 0 0,'0'0'629'0'0,"-7"6"212"0"0,0-1-1243 0 0,4-2 948 0 0,-2 0-1 0 0,1 0 0 0 0,-7 9 1 0 0,10-11-348 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 3 1 0 0,1 2 246 0 0,-1-1-1 0 0,1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,6 10 0 0 0,28 29 329 0 0,0-1 154 0 0,-25-25-604 0 0,-7-12-191 0 0,0 2-1 0 0,-1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,3 8 0 0 0,-5-11-123 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,1 4 0 0 0,-1-8 111 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 2 0 0 0,0-2 0 0 0,0 0 1 0 0,-2 2-1 0 0,1-1 166 0 0,-2 2-239 0 0,0-1 0 0 0,1 0-1 0 0,-1 2 1 0 0,-1-3 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-8 1 1 0 0,-2 0-42 0 0,12-2-156 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,-4-2 1 0 0,-14-9-5407 0 0,13 8 3510 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="130803.35">8008 699 23039 0 0,'0'0'2315'0'0,"0"2"-2123"0"0,-1 12 364 0 0,0-1-1 0 0,-1 1 1 0 0,-1 0 0 0 0,-1-1 0 0 0,-8 23-1 0 0,5-17-175 0 0,-7 37-1 0 0,-7 81-158 0 0,12-46-242 0 0,6-73-713 0 0,2-15 578 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 3 0 0 0,1-4-62 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-2 1 1 0 0,0 4-793 0 0,-1 5-524 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="132424.16">8238 850 13824 0 0,'0'0'2789'0'0,"-1"3"-1339"0"0,0 3-854 0 0,1 0-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,0 7-1 0 0,1 21 423 0 0,0 14 26 0 0,-1-23-1002 0 0,-3 44 0 0 0,-1-34-74 0 0,2 35 0 0 0,1-70-305 0 0,-1-7-1670 0 0,-4-26 1281 0 0,2 0 0 0 0,0 0-1 0 0,2 0 1 0 0,3-37-1 0 0,0 60 851 0 0,0-2 0 0 0,1 3 0 0 0,0-2 0 0 0,-1 1-1 0 0,2-1 1 0 0,0 2 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,8-6 0 0 0,-6 7 129 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,16-6-1 0 0,-22 11-187 0 0,0 0 0 0 0,1 1 0 0 0,-1-2-1 0 0,1 2 1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,3 0-1 0 0,5 4-49 0 0,-4 3-16 0 0,-5-4-2 0 0,0 0-1 0 0,0 2 0 0 0,-1-2 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-2 0-1 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-2 4 1 0 0,0-1 82 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-5 6 0 0 0,-4 14 1005 0 0,10-24-1033 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-6 4 0 0 0,1-3-52 0 0,0 0 0 0 0,1 2 0 0 0,1-1 0 0 0,0-1 0 0 0,-1 3 0 0 0,1-2 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 2 0 0 0,-5 8 0 0 0,8-17 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 2 0 0 0,0-2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 3 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-2 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,3-1 0 0 0,2 0-316 0 0,0 0 1 0 0,17-1-1 0 0,-6 1-2550 0 0,-1-2-3571 0 0,-6-1-200 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="132874.53">8575 862 11976 0 0,'4'-7'576'0'0,"-2"2"-438"0"0,-1-9 334 0 0,-1 1 5329 0 0,-4 20-4229 0 0,-3 7-437 0 0,1-1-1 0 0,1 2 1 0 0,-7 19-1 0 0,3-7-372 0 0,6-21-627 0 0,1 1 0 0 0,1 2 0 0 0,-1-2 1 0 0,2 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 2 0 0 0,0-2 0 0 0,0 0 0 0 0,1 2 0 0 0,-1-2 0 0 0,3 9 0 0 0,1-5-135 0 0,-2-1 0 0 0,0-1 0 0 0,1 1 0 0 0,1-2 0 0 0,0 1 0 0 0,7 14 0 0 0,-8-18 0 0 0,0 0 0 0 0,1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,9 4 0 0 0,-13-8 0 0 0,3 3 0 0 0,-1-2 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-2 0 0 0 0,2-1 0 0 0,3 1 0 0 0,1-1-181 0 0,-5 0 50 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,4-3 0 0 0,-4 1-532 0 0,0 1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,1 0 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="133281.54">8545 1048 14944 0 0,'0'0'1357'0'0,"12"-2"-1091"0"0,8-1 695 0 0,-16 3-634 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1-1-1 0 0,8-2 0 0 0,3-3 514 0 0,-11 6-727 0 0,-2 1-1 0 0,1-1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,4-3 1 0 0,8-4-45 0 0,-12 8-178 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,15-14-2841 0 0,-15 14 1417 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="133282.54">8641 880 11976 0 0,'0'0'1082'0'0,"1"-1"-890"0"0,24-14 357 0 0,-16 11 1119 0 0,1-1 0 0 0,14-5 0 0 0,-11 8-277 0 0,-2 1-1 0 0,1 0 0 0 0,15 0 0 0 0,-25 1-1319 0 0,15 5 1061 0 0,-12-1-1074 0 0,-5-3 2 0 0,1 1 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 4 160 0 0,-1 0-108 0 0,0 0 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-4 8 0 0 0,1-1-30 0 0,-7 17-10 0 0,7-24-61 0 0,2 2 1 0 0,-1-2-1 0 0,1 1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 9-1 0 0,0 6-12 0 0,0-9 0 0 0,1-1 0 0 0,1 24 0 0 0,1-32 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,5 7 0 0 0,-1-2 0 0 0,-4-6 0 0 0,0 1 0 0 0,-1-2 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,4 1 0 0 0,-5-2-125 0 0,1 2 0 0 0,-1-2 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-3 0 0 0,31-13-2837 0 0,-22 7 1925 0 0,-4 4-995 0 0,0-2-15 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="133680.23">9006 928 3224 0 0,'11'1'7058'0'0,"-10"13"-2904"0"0,3 0-1342 0 0,-3-11-2418 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 2 1 0 0,0-2 0 0 0,0 1-1 0 0,-1 4 1 0 0,-7 41 1588 0 0,6-35-1380 0 0,-6 29 0 0 0,4-33-712 0 0,-2 15 272 0 0,4 0-1601 0 0,9-69 830 0 0,-2-20 608 0 0,-1 27 0 0 0,-3 29 39 0 0,1-2 0 0 0,0 2 0 0 0,0 0 1 0 0,5-13-1 0 0,0-2 167 0 0,-4 16-37 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 0 0 0 0,9-11 0 0 0,-12 14-149 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,2 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,2 0 0 0 0,-3 0 106 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 2 0 0 0,0-2 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 4 0 0 0,4 5 161 0 0,-1 0 0 0 0,7 17 1 0 0,-10-21-47 0 0,1 7-253 0 0,1 0 0 0 0,0-1-1 0 0,-1 2 1 0 0,-1-1-1 0 0,-1 0 1 0 0,3 25-1 0 0,-6-28-1610 0 0,-1-1-1 0 0,-3 18 1 0 0,1-20-384 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="134070.71">8959 1106 15288 0 0,'0'0'1385'0'0,"1"0"-1141"0"0,13-1 309 0 0,0-1 1 0 0,-1-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,22-9 1 0 0,-16 6 334 0 0,-1 0 1 0 0,22-3-1 0 0,-35 10-704 0 0,1-2-1 0 0,-1 1 0 0 0,0 0 1 0 0,-1-2-1 0 0,9-3 1 0 0,-8 4 5 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,6-1-1 0 0,-4 0-403 0 0,1 1-1 0 0,-1 0 1 0 0,10-6-1 0 0,6-6-7485 0 0,-12 4 619 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="134071.71">9390 862 19351 0 0,'0'0'439'0'0,"-1"1"62"0"0,-6 5 86 0 0,3-2-521 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,-3 7 1 0 0,-2 7 319 0 0,3-8 186 0 0,1-2 1 0 0,0 2-1 0 0,0-1 1 0 0,1 1-1 0 0,0-1 1 0 0,2 1-1 0 0,-1-1 1 0 0,-1 18-1 0 0,3-16-494 0 0,0-2 0 0 0,1 2 0 0 0,0-2 0 0 0,0 2 0 0 0,1-2 0 0 0,0 1 0 0 0,6 14 0 0 0,-6-20-136 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,-1-2 1 0 0,2 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,4 0-1 0 0,-3 0-849 0 0,-1-1 0 0 0,2-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,11-7-1 0 0,-11 5-625 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="134523.41">9607 918 3224 0 0,'0'0'11212'0'0,"-7"4"-7625"0"0,4-3-3135 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,0-2 0 0 0,-3 4 0 0 0,4-2-74 0 0,-2 1 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 6 0 0 0,1-6-310 0 0,1 0 0 0 0,0 0 0 0 0,0 2 1 0 0,0-2-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,3 4-1 0 0,8 27 261 0 0,-5-16 195 0 0,8 18 1 0 0,-11-32-437 0 0,0 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0-1-1 0 0,-1 1 1 0 0,10 9-1 0 0,-11-14-107 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,3-1 0 0 0,-1 1-150 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,5-6 0 0 0,-6 6 71 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,2-3-1 0 0,4-14-297 0 0,-1 9 394 0 0,-1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-15 0 0 0,-2 14 770 0 0,-1 20 231 0 0,-2 6-1000 0 0,2 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,3 14-1 0 0,-3-20 0 0 0,-1-5-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,3 2 0 0 0,-4-2-3 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,2-2-1 0 0,2-2 93 0 0,0 1-1 0 0,0 0 0 0 0,7-9 0 0 0,-1 3 537 0 0,-10 7-484 0 0,1 0-1 0 0,-1-2 1 0 0,0 2 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,5-8 1 0 0,12-34-471 0 0,-18 42 250 0 0,0 3 4 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0-1-1 0 0,0 2 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1-1-1 0 0,-3-19-363 0 0,4 19 496 0 0,0 0-1 0 0,-1-2 1 0 0,1 2-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-5-7 1 0 0,-17-15-2418 0 0,5 12-5315 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="135021.22">10089 922 15664 0 0,'9'7'1187'0'0,"-10"-2"-1073"0"0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,0 2 0 0 0,-1-1 0 0 0,-3 7-1 0 0,4-8 221 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 2 0 0 0,1-2 1 0 0,-1 0-1 0 0,0 0 1 0 0,2 7-1 0 0,3 3-250 0 0,3 7-54 0 0,1 0-43 0 0,-5-7 20 0 0,-1-2-72 0 0,-1-6 203 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 7 0 0 0,-2 16 875 0 0,0-29-1125 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,-2-2 0 0 0,-1-4 10 0 0,3 2 100 0 0,0-1-1 0 0,-1 1 0 0 0,2 0 1 0 0,-2-10-1 0 0,1 3 6 0 0,1 9-3 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-2 0 0 0,0 2 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,2-5-1 0 0,23-28 8 0 0,-7 9 62 0 0,-17 23 37 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3 0-1 0 0,-4 2-81 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,2 2 1 0 0,-2 0-40 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 2 0 0 0,2 2 0 0 0,-1 1 16 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2 13 0 0 0,3 10 0 0 0,1-7 0 0 0,-1-1 0 0 0,3 0 0 0 0,1-1 0 0 0,14 24 0 0 0,-21-40 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,8 3 0 0 0,-9-5 0 0 0,4-3 171 0 0,-5-4 21 0 0,-3 5-112 0 0,2-2-37 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-2 1 0 0,-1 1-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,0-8 0 0 0,-4-7 209 0 0,-1 1-1 0 0,-11-27 0 0 0,12 31-223 0 0,0 3-1046 0 0,0 0-1 0 0,-2 0 1 0 0,-10-16 0 0 0,10 17-442 0 0,-7-7-6726 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="135359">9991 760 11976 0 0,'8'-2'272'0'0,"9"-7"11370"0"0,-18 9-11585 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 2 0 0 0,-1-2-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-7 5 469 0 0,-2-1-740 0 0,1 1 1 0 0,1-1-1 0 0,-9 9 0 0 0,8-4-2084 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="135690.4">9669 583 19351 0 0,'0'0'6192'0'0,"-11"0"-6560"0"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="137213.29">9954 1092 4608 0 0,'0'0'208'0'0,"0"-2"-9"0"0,0-3-82 0 0,0 4 271 0 0,1-2 344 0 0,0 3-712 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1-1 0 0 0,4-20-1007 0 0,-4 21 948 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,-1-1-1 0 0,-7-13 248 0 0,6 7 95 0 0,3 7-219 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1-1 0 0,0-2 280 0 0,0 2-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-3-1 1 0 0,-19-10 4143 0 0,20 10-4232 0 0,0 0-68 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-4 1 0 0 0,-8-2 1396 0 0,5 0-644 0 0,6 1-863 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 2 0 0 0,0-1 0 0 0,-3 3 0 0 0,3-4-442 0 0,0 3 374 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 4387 13304 0 0,'0'0'1460'0'0,"2"-1"-1212"0"0,51-17 637 0 0,-30 12-810 0 0,-1-2 1 0 0,-1 0 0 0 0,35-20 0 0 0,121-72 1011 0 0,-148 83-762 0 0,33-12-1 0 0,-32 14-112 0 0,30-17-1 0 0,4-8 143 0 0,103-71 1092 0 0,-144 93-1195 0 0,26-20 299 0 0,70-43 0 0 0,205-117 321 0 0,-173 104-533 0 0,-47 34-6 0 0,20-12 100 0 0,-52 27-251 0 0,92-65 274 0 0,-106 66-373 0 0,73-42-1 0 0,68-26 212 0 0,-47 28-165 0 0,15-29 32 0 0,-13 8-109 0 0,-3 0 2 0 0,-51 33-33 0 0,119-81 259 0 0,87-60-418 0 0,-210 136 139 0 0,-15 11 0 0 0,-76 62 1 0 0,200-137 270 0 0,37-10-1 0 0,-139 78-111 0 0,-57 39-41 0 0,1 2 1 0 0,55-27-1 0 0,33-6-43 0 0,71-35 85 0 0,-99 36 32 0 0,-102 61-214 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,4-9 0 0 0,-8 13-99 0 0,3-5-385 0 0,-13 4-4579 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="920.76">442 3890 9672 0 0,'-4'-1'287'0'0,"3"1"-247"0"0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-2 0 0 0 0,0-7 358 0 0,4 6-109 0 0,-2 2-162 0 0,1-10 1064 0 0,-1 10-1136 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,2-4 288 0 0,-2 4-338 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-2 18 479 0 0,0-12-306 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-3 5 1 0 0,-5 12 503 0 0,9-20-590 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,-4 4 0 0 0,-11 15 327 0 0,3 3 242 0 0,-30 37 0 0 0,33-46-296 0 0,-16 26 0 0 0,17-24-71 0 0,-14 17-1 0 0,-39 56 236 0 0,35-51-446 0 0,20-25-53 0 0,-1-1 1 0 0,-17 18-1 0 0,14-20 27 0 0,-2 3 95 0 0,-23 28 0 0 0,37-42-151 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,0-2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,-4 2 1 0 0,-5 5-15 0 0,11-6-39 0 0,7 8 26 0 0,1 1-13 0 0,11-6 26 0 0,-7-3 17 0 0,-5-2-3 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,1-1-1 0 0,6-1 1 0 0,2 0 19 0 0,0-2 0 0 0,16-6 1 0 0,-5-1-9 0 0,0-1 1 0 0,-2-2 0 0 0,1-1-1 0 0,39-30 1 0 0,-58 40 4 0 0,86-53 142 0 0,-92 58-155 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-2 0 0 0,-1 1 2 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,1-1 124 0 0,-3-14 284 0 0,1 13-391 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-2-1 1 0 0,-11-14 343 0 0,13 14-330 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,-2-1-1 0 0,2 1-35 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-4 0 0 0,1 3 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-1-2 0 0 0,1 2 5 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-3 1 0 0,-24-77 159 0 0,12 51-82 0 0,4 9-49 0 0,-7-3-1535 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2666.67">4844 1218 14280 0 0,'0'0'1297'0'0,"11"-9"801"0"0,-4 8-2192 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,13 3 0 0 0,15 2-130 0 0,-10-4 165 0 0,44 2 193 0 0,193 12 1705 0 0,-254-15-1805 0 0,362 22 828 0 0,-116-9-704 0 0,266 12 1178 0 0,-405-17-1065 0 0,60 2 71 0 0,136 3 229 0 0,93 2-126 0 0,-186-5-267 0 0,-64-1-5 0 0,221 19-63 0 0,-213-14-91 0 0,4 8 551 0 0,-55-6-198 0 0,192 30-330 0 0,116 30-42 0 0,-238-40 0 0 0,-28-12 79 0 0,58 13 6 0 0,-6 6-233 0 0,-181-40 150 0 0,192 29 60 0 0,-140-25 27 0 0,81 4 152 0 0,-132-12-316 0 0,-12 1 155 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,20-7 0 0 0,7-2 80 0 0,51-6-24 0 0,-51 9-136 0 0,-1-1 0 0 0,-32 6 0 0 0,6-3 0 0 0,-8 5 0 0 0,16-10 0 0 0,-17 10 0 0 0,-2-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1-2 0 0 0,-1 2 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-6-4-14 0 0,10 27 26 0 0,-2-20-19 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-2 5 0 0 0,1-2-5 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 10 0 0 0,-1 9-9 0 0,2-22 16 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,2-1-1 0 0,-1 1 0 0 0,1 6 0 0 0,1-3 20 0 0,-1 0-1 0 0,1 0 1 0 0,-2 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-2 7-1 0 0,3-7 46 0 0,3 2-62 0 0,-3-3-46 0 0,10-12 86 0 0,-8 4-45 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0-2-1 0 0,-1 0-5 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,-2-10 0 0 0,-1 4-4 0 0,-1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,-13-18-1 0 0,9 16 34 0 0,8 11-17 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-2-3 0 0 0,-3-19-14 0 0,6 23-55 0 0,4 0 21 0 0,-3 1 47 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,2 2-1 0 0,10 1 3 0 0,-5 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,10 6 0 0 0,-5-3 0 0 0,21 9 0 0 0,-3-2 0 0 0,-15-6 0 0 0,1 1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 1 0 0 0,-1 0 0 0 0,23 24 0 0 0,-31-28 14 0 0,-4-1 50 0 0,-1-5-50 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 1 0 0 0,-5 0 194 0 0,1 1 0 0 0,-1-1 0 0 0,-8 1 0 0 0,9-2 4 0 0,-178 12 228 0 0,124-9-441 0 0,39-1-684 0 0,0-2 1 0 0,0 0-1 0 0,-34-4 1 0 0,44 3-647 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3810.01">4011 521 19351 0 0,'0'0'47'0'0,"0"-1"-1"0"0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,5 3 432 0 0,-5-2-329 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 1 0 0 0,0 2 55 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,-3 9 1 0 0,-3 20-121 0 0,-12 107 1899 0 0,12-10-2089 0 0,8-125 94 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,2 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,5 5 0 0 0,-2-3 17 0 0,0-1 0 0 0,0 0-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 0 0 0 0,10 4-1 0 0,53 17-1 0 0,-62-22 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,11 0 0 0 0,-14-1 30 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,8-8-1 0 0,-6 4-701 0 0,-1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-2-1 0 0,9-15 1 0 0,-12 14-7718 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4168.06">3969 872 17159 0 0,'0'0'1558'0'0,"2"0"-1282"0"0,3-2-31 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,6-5 0 0 0,9-6 1446 0 0,59-22 1206 0 0,-53 25-2859 0 0,-1-1 1 0 0,26-16 0 0 0,-32 13-2973 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4604.31">3978 648 7832 0 0,'1'-2'3801'0'0,"6"-4"-2072"0"0,0 0 1 0 0,13-9-1 0 0,40-19 1547 0 0,-13 7-2006 0 0,-38 22-950 0 0,-1 1 0 0 0,1-1 0 0 0,0 2 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,15-3 0 0 0,-21 5-250 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,2 3 0 0 0,1 1 97 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-2 0 0 0 0,1 0 0 0 0,2 15 0 0 0,13 51 275 0 0,-1-4-276 0 0,-7 4 63 0 0,6 26 69 0 0,-15-91-469 0 0,-3-8-34 0 0,1-2 197 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-23-155-2020 0 0,8 59 2017 0 0,10 15 12 0 0,5 83 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,6 7 0 0 0,5 9 0 0 0,0 8 56 0 0,46 82 1038 0 0,-48-92-952 0 0,0-1-1 0 0,1 0 1 0 0,0-1 0 0 0,1 0-1 0 0,18 15 1 0 0,4 2-117 0 0,-21-18-3 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,20 10-1 0 0,-29-18-7 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,4 0 1 0 0,-8 0-19 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-15-186 0 0,-1 14 171 0 0,-1-7 16 0 0,0 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-6-12 0 0 0,-5-16 6 0 0,7 19-86 0 0,-13-27 0 0 0,12 30-92 0 0,1-1 0 0 0,0 0 1 0 0,-3-16-1 0 0,-1-7-1271 0 0,5 23 93 0 0,1-1-1 0 0,1 1 1 0 0,-2-29-1 0 0,4 4-1569 0 0,3 10-3556 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4931.24">4652 457 19351 0 0,'0'0'439'0'0,"1"1"62"0"0,5 4-273 0 0,0 1-1 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,7 14 0 0 0,19 50 3210 0 0,-17-36-1229 0 0,-3-4-2118 0 0,-8-20 58 0 0,0-1 0 0 0,6 12-1 0 0,39 80 1392 0 0,-47-100-1641 0 0,3 4-420 0 0,-1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 10 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5287.26">4554 638 13824 0 0,'0'0'1246'0'0,"8"-1"-996"0"0,117-53 6808 0 0,-1 5-3869 0 0,-57 19-4573 0 0,-60 23 277 0 0,-7 6 1030 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 72 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 2 0 0 0,1 2 53 0 0,1-1 140 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1 5-1 0 0,6 46 1539 0 0,-5-32-936 0 0,-1-7-463 0 0,1-1-1 0 0,0 0 0 0 0,1-1 1 0 0,13 30-1 0 0,-9-27-863 0 0,-7-13 69 0 0,1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,8 5-1 0 0,-5-4-1195 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5614.61">5074 487 15664 0 0,'0'0'1417'0'0,"1"2"-956"0"0,2 4 713 0 0,1 1 0 0 0,0-1 0 0 0,6 7 0 0 0,-6-6-400 0 0,1-1-1 0 0,-1 1 0 0 0,7 12 0 0 0,-4 1 314 0 0,4 22 0 0 0,-6-22-815 0 0,9 21-1 0 0,-12-36-48 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 7-1 0 0,3 14 265 0 0,2 5-517 0 0,3 8-1751 0 0,-10-37 1632 0 0,-5 0 61 0 0,4-2-282 0 0,0-1 253 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-4-2 0 0 0,0-2-155 0 0,-21-33 95 0 0,18 29 179 0 0,1-1 0 0 0,0 0 1 0 0,0-1-1 0 0,-8-20 0 0 0,11 20-2 0 0,0-1 0 0 0,0 0 0 0 0,2 0 0 0 0,-1-1 0 0 0,2 1 0 0 0,-1 0 0 0 0,4-23 0 0 0,-2 27 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,9-8 0 0 0,-10 12 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,6 0 0 0 0,-1 1 6 0 0,-1 0 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,12 6 0 0 0,-12-5 93 0 0,-1 0 0 0 0,0 1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,7 10-1 0 0,-10-11-27 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 13 0 0 0,-2-14-120 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,-9 9 0 0 0,-6 2-314 0 0,1 0 1 0 0,-41 23-1 0 0,36-24 291 0 0,6-5-1632 0 0,-33 14-1 0 0,32-15-333 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6030.57">5569 306 9672 0 0,'0'0'874'0'0,"0"1"-718"0"0,8 38 1516 0 0,-6-17 2001 0 0,-1 0-1 0 0,-2 30 0 0 0,-2-17-2754 0 0,3-23-513 0 0,0-1 0 0 0,2 14 0 0 0,0 10-386 0 0,-2-19-19 0 0,0 2 0 0 0,0-1 0 0 0,-4 20 0 0 0,4-4 0 0 0,0-33 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-5 0 0 0,-3-10 0 0 0,-1-30 0 0 0,2-1 0 0 0,2 0 0 0 0,2-1 0 0 0,6-49 0 0 0,-4 84 0 0 0,1 0 0 0 0,0 1 0 0 0,6-18 0 0 0,-7 24 0 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,6-8 0 0 0,-8 11 7 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,1 2 0 0 0,0-1 102 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,2 6 0 0 0,89 201 1536 0 0,-80-184-1876 0 0,-10-20 153 0 0,0 0-1 0 0,-1 0 1 0 0,3 9-1 0 0,-5-14-301 0 0,0 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,-1 6 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6419.24">5527 590 13360 0 0,'0'0'1209'0'0,"15"0"-676"0"0,-4 0 955 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,1-1 0 0 0,13-6 0 0 0,58-30-2353 0 0,-36 16-3617 0 0,-31 17-3024 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6791.29">5918 239 18887 0 0,'0'0'915'0'0,"1"1"-400"0"0,2 8-383 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 13 0 0 0,1 16 1647 0 0,0 16 882 0 0,-1-39-2074 0 0,0 0 0 0 0,3 22 0 0 0,13 57-415 0 0,-12-84-877 0 0,1 3-698 0 0,-4 1 682 0 0,-13-25-1775 0 0,9 8 2025 0 0,-3-4-2 0 0,0-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 0 1 0 0,-5-17-1 0 0,5 12 383 0 0,0 1-1 0 0,1-2 1 0 0,1 1-1 0 0,0 0 0 0 0,1-18 1 0 0,1 23 226 0 0,1 1 0 0 0,-1-1 1 0 0,2 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 1 0 0 0,0-1 1 0 0,6-9-1 0 0,-3 7 199 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0 0-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,12-6-1 0 0,-17 10-173 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,6 3 0 0 0,-6-3-56 0 0,1 1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3 7 0 0 0,-3-4-66 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-2-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,-2 7 0 0 0,-1 1-7 0 0,0-1-1 0 0,-2 1 0 0 0,-9 20 0 0 0,9-25-209 0 0,0 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,-1-2-1 0 0,1 1 0 0 0,-2-1 0 0 0,1-1 1 0 0,-2 1-1 0 0,1-2 0 0 0,-13 9 0 0 0,12-13-1202 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7118.64">6221 151 6912 0 0,'0'0'528'0'0,"4"14"2000"0"0,-1-2 1125 0 0,1 13 2307 0 0,-3-6-4618 0 0,1-1 1 0 0,0 1 0 0 0,9 29-1 0 0,-8-40-1066 0 0,0 0-1 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,0 0-1 0 0,8 10 0 0 0,5 6 145 0 0,-9-2-399 0 0,-8-19-21 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,3 3-1 0 0,9 10 84 0 0,-9-9-2 0 0,0-1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,0-1 1 0 0,8 2-1 0 0,-14-4-93 0 0,5 0-113 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,6 1 1 0 0,-10-2-63 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7119.64">6247 369 13360 0 0,'0'0'1424'0'0,"18"-6"-1424"0"0,-5-1 0 0 0,-2 0 1256 0 0,0 0 207 0 0,0 0 41 0 0,7 0 0 0 0,6 2-672 0 0,-6-2-128 0 0,2-3-32 0 0,-2 3-8 0 0,4 0-120 0 0,-7-3-32 0 0,1 3 0 0 0,-5 0-7096 0 0,0 0-1415 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7585.98">6258 165 13824 0 0,'0'0'608'0'0,"11"0"128"0"0,1-4-584 0 0,-1-3-152 0 0,4 1 0 0 0,0 2 0 0 0,8-3 320 0 0,-1 4 32 0 0,4-4 0 0 0,1 0 7 0 0,-3 4-231 0 0,-2-4-56 0 0,0 5-8 0 0,0-5 0 0 0,-2 0-1207 0 0,2 4-241 0 0,-6-4-56 0 0,2 0 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7586.98">6700 34 3224 0 0,'0'-6'10415'0'0,"-9"2"-6824"0"0,6 4-3219 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,2-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,-1 4 0 0 0,1-4-191 0 0,2-1-104 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,2 2 0 0 0,3 6-115 0 0,0-1 0 0 0,12 14-1 0 0,-11-14 125 0 0,11 13-83 0 0,-6-7 20 0 0,0 0 0 0 0,9 18 0 0 0,4 5 1265 0 0,-17-27-994 0 0,-1 1 0 0 0,0 0 0 0 0,9 20 0 0 0,-13-25-190 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 7 0 0 0,0-10-72 0 0,-2-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,-2 3-1 0 0,-2 1-93 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,-11 7 0 0 0,-2-1-3835 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8130.94">4751 285 10592 0 0,'-8'3'964'0'0,"7"-2"-530"0"0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-2 2 0 0 0,2-3-235 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 1 0 0 0,3 2 104 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,5 3-1 0 0,-5-4 245 0 0,-1 0-371 0 0,1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-2 1 0 0,2 1-1 0 0,-1 0 1 0 0,5 1-1 0 0,-2-1-55 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,10-1 0 0 0,-10-1-69 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,5-6 0 0 0,-9 8-61 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-2-3-1 0 0,1 3-71 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-6 0 0 0 0,-10 0-258 0 0,16 0 278 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-6 2 1 0 0,-31 6 85 0 0,27-6-930 0 0,-24 8 0 0 0,-6 2-3058 0 0,21-5 1918 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11630.34">6726 423 8264 0 0,'0'0'10871'0'0,"-5"7"-8713"0"0,-1-5-1379 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,-11 1-1 0 0,15-2-759 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-2-3 0 0 0,2 3-47 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 1 0 0,1-1-491 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,3-4 1 0 0,3-3-849 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12066.17">6609 27 11952 0 0,'0'0'1484'0'0,"8"2"2607"0"0,-4-3-3567 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,6 2 0 0 0,16-3 1190 0 0,-13 0-1346 0 0,7-2-402 0 0,-7 3-6149 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="81817.9">1799 1892 6912 0 0,'0'0'7892'0'0,"-16"-5"-5001"0"0,7 5-2633 0 0,1 2 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 2 0 0 0,0-1-1 0 0,-15 9 1 0 0,-6 2 19 0 0,-31 19-293 0 0,41-25-304 0 0,-27 18 1 0 0,4-3 602 0 0,24-16-30 0 0,15-6-212 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-5 4-1 0 0,-44 44 100 0 0,51-49-137 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0 43 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,1 3-1 0 0,2 0-26 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,11 1 0 0 0,-4-2-29 0 0,-1 0 0 0 0,0-1 0 0 0,19-3 0 0 0,-26 3 15 0 0,97-16-452 0 0,-47 11 288 0 0,63-14-1 0 0,-76 13-3264 0 0,-31 5-2908 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="127009.64">7058 0 15664 0 0,'1'2'5969'0'0,"3"4"-5427"0"0,0 0 1 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,3 12 1 0 0,-2-4-185 0 0,-2 1 0 0 0,0 0-1 0 0,-1 24 1 0 0,-1-11-149 0 0,-8 92 737 0 0,1-47-531 0 0,4-38-440 0 0,-1 15-275 0 0,4-38-173 0 0,0-1-1 0 0,-4 17 1 0 0,0-2-1821 0 0,1-14 771 0 0,-2 3-12 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="127463.52">6303 803 13824 0 0,'0'0'1246'0'0,"8"3"-719"0"0,-6-1 82 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 4-1 0 0,2 3 430 0 0,-1 0 0 0 0,2 17 0 0 0,-2-10-956 0 0,16 146 1511 0 0,-17-152-1602 0 0,0-1-1 0 0,-1 15 0 0 0,-1-17-267 0 0,1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,0 0-1 0 0,2 10 0 0 0,-2-17-86 0 0,0 3 557 0 0,-6 5-6176 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="128053.26">6099 956 15664 0 0,'0'0'1417'0'0,"15"-3"-996"0"0,5-6 2039 0 0,-14 6-1975 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,9 0 0 0 0,-2-1 118 0 0,0 0 0 0 0,23-9 1 0 0,7-3 594 0 0,-3 3-1017 0 0,31-9-190 0 0,-44 15 9 0 0,-12 3 0 0 0,0 0 0 0 0,0 2 0 0 0,-1-1 0 0 0,2 2 0 0 0,-1 0 0 0 0,20 1 0 0 0,-33 1 64 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,2 4 0 0 0,0 7 87 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 13 0 0 0,1-12-360 0 0,1 7 88 0 0,-1 15 230 0 0,-1-28 51 0 0,1 0 1 0 0,1-1-1 0 0,0 10 0 0 0,1 9 251 0 0,-2 16 210 0 0,0-6-1938 0 0,-4-70 615 0 0,2 15 606 0 0,-1-7-197 0 0,1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,5-30 0 0 0,0 24 11 0 0,-5 24 280 0 0,1-1-1 0 0,0 0 1 0 0,1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,2 1 0 0 0,7-14-1 0 0,-11 21 55 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,1 1 0 0 0,0 0-38 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,3 4-1 0 0,3 14-19 0 0,10 41 692 0 0,15 107-349 0 0,-28-154-715 0 0,-2-8-277 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 10 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="128521.27">6545 1111 15664 0 0,'0'0'759'0'0,"11"0"-335"0"0,1 0 24 0 0,-1 0-360 0 0,-4-4-88 0 0,8 1 0 0 0,-4 0 0 0 0,0-1 648 0 0,-2 1 120 0 0,6 3 16 0 0,-4-4 8 0 0,7-2-448 0 0,-7-1-88 0 0,5 0-24 0 0,-1 0 0 0 0,0 0-1000 0 0,3 2-208 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="128851.42">6868 858 15664 0 0,'0'0'1417'0'0,"0"2"-1167"0"0,2 18-396 0 0,3 9 4058 0 0,9 29 1 0 0,-14-55-3973 0 0,17 47 2109 0 0,3 27-1433 0 0,-19-76-679 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-2 0 0 0 0,3 0 51 0 0,-1 0-500 0 0,-4-7-512 0 0,-7-7 67 0 0,9 11 838 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-3-9 0 0 0,4 7 81 0 0,-1 0 0 0 0,1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,5-6-1 0 0,-4 5 109 0 0,1-1-1 0 0,1 2 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,8-3 0 0 0,-7 4-2 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,1 1 0 0 0,12-1 1 0 0,-18 2 40 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,1 4-1 0 0,-2-3-36 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1 2 0 0 0,0 0-61 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,-3 6 0 0 0,-4 4 94 0 0,-2 1 1 0 0,0-2-1 0 0,-1 1 0 0 0,-24 22 1 0 0,-12 4 525 0 0,26-20-611 0 0,25-23-104 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,5 0 0 0 0,-2 1 98 0 0,1-1-1 0 0,-1 2 1 0 0,0-1-1 0 0,0 1 1 0 0,12 4-1 0 0,-13-3-12 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,4 6 0 0 0,-7-7 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,2 8 0 0 0,-2 5 0 0 0,-6-11 0 0 0,3-4 0 0 0,0 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-5 2 0 0 0,-7 2 0 0 0,1-2 0 0 0,-18 2 0 0 0,16-2 0 0 0,6-2-186 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-13-3 0 0 0,2-5-2613 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="129180.67">7171 842 17503 0 0,'0'0'1759'0'0,"0"1"-1614"0"0,2 7 395 0 0,-1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,-3 15 1 0 0,1-1 173 0 0,2-1-208 0 0,1-1 0 0 0,1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,10 37-1 0 0,-10-50-490 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,8 8-1 0 0,-12-12 7 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,5-2 1 0 0,9-2-1654 0 0,-2-4-5620 0 0,-13 7 7141 0 0,11-6-8044 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="129561.28">7401 842 9672 0 0,'0'0'748'0'0,"0"1"-492"0"0,2 8 1522 0 0,0-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,0 17 1 0 0,0 13 1182 0 0,1-20-2362 0 0,0-1-1 0 0,-1 1 1 0 0,-2-1 0 0 0,-3 25 0 0 0,4-39-573 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,2 4 1 0 0,-1 16 91 0 0,-9 25-101 0 0,2-88-892 0 0,5 11 653 0 0,1 0 0 0 0,2 0 0 0 0,1 0-1 0 0,10-40 1 0 0,-10 57 223 0 0,0 2 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,7-10 0 0 0,-5 7 0 0 0,-5 10 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,3-3 0 0 0,-4 5 8 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 49 0 0,3 3 168 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,6 10 0 0 0,0 1 244 0 0,19 28-1 0 0,-19-32-299 0 0,0 1 0 0 0,-1 0 0 0 0,8 19-1 0 0,-5-6-486 0 0,26 50-1 0 0,-36-70-1534 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="129973.06">7344 1077 17503 0 0,'0'0'803'0'0,"1"0"-18"0"0,70-16 1383 0 0,-8 3 868 0 0,3-1-1781 0 0,20-7-2067 0 0,-51 10-1246 0 0,-10 3-4229 0 0,-6 3-794 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="130337.56">7796 808 13824 0 0,'0'0'629'0'0,"-7"5"212"0"0,0 0-1243 0 0,3-2 948 0 0,-1 0-1 0 0,1 0 0 0 0,-7 8 1 0 0,10-10-348 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 3 1 0 0,1 1 246 0 0,-1 0-1 0 0,1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,6 9 0 0 0,30 28 329 0 0,-1-1 154 0 0,-26-24-604 0 0,-7-11-191 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3 9 0 0 0,-5-12-123 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 5 0 0 0,-1-8 111 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-2 2-1 0 0,1-1 166 0 0,-2 2-239 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-2 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,-8 2 1 0 0,-3 0-42 0 0,13-2-156 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,-4-2 1 0 0,-15-8-5407 0 0,14 7 3510 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="130803.35">8253 664 23039 0 0,'0'0'2315'0'0,"0"2"-2123"0"0,-1 11 364 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,-1 0 0 0 0,-8 21-1 0 0,5-16-175 0 0,-8 35-1 0 0,-6 77-158 0 0,11-43-242 0 0,7-70-713 0 0,2-14 578 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 2 0 0 0,1-3-62 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-2 1 1 0 0,0 4-793 0 0,-1 4-524 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="132424.16">8490 808 13824 0 0,'0'0'2789'0'0,"-1"2"-1339"0"0,0 4-854 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 1 0 0,1 6-1 0 0,0 20 423 0 0,0 14 26 0 0,-1-22-1002 0 0,-3 41 0 0 0,-1-32-74 0 0,1 34 0 0 0,2-67-305 0 0,-1-7-1670 0 0,-4-24 1281 0 0,2-1 0 0 0,0 1-1 0 0,2-1 1 0 0,3-34-1 0 0,0 56 851 0 0,0-1 0 0 0,1 2 0 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,7-5 0 0 0,-6 6 129 0 0,-1 1 1 0 0,2 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,17-7-1 0 0,-23 11-187 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,2 0-1 0 0,5 3-49 0 0,-4 4-16 0 0,-5-4-2 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-2-1-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-2 3 1 0 0,0 0 82 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-5 7 0 0 0,-5 12 1005 0 0,11-22-1033 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-5 5 0 0 0,1-3-52 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 1 0 0 0,-4 9 0 0 0,8-17 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 3 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,3-1 0 0 0,2 0-316 0 0,1 0 1 0 0,17-1-1 0 0,-7 1-2550 0 0,0-2-3571 0 0,-7 0-200 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="132874.53">8837 819 11976 0 0,'4'-7'576'0'0,"-2"3"-438"0"0,-1-10 334 0 0,-1 2 5329 0 0,-4 19-4229 0 0,-3 6-437 0 0,1-1-1 0 0,0 2 1 0 0,-6 19-1 0 0,3-8-372 0 0,6-19-627 0 0,1 1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,2 8 0 0 0,1-4-135 0 0,-2-2 0 0 0,0 0 0 0 0,1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,8 14 0 0 0,-9-17 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,8 4 0 0 0,-13-8 0 0 0,3 2 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,3 1 0 0 0,1-1-181 0 0,-5 0 50 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,4-3 0 0 0,-4 2-532 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,1 0 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="133281.54">8806 996 14944 0 0,'0'0'1357'0'0,"12"-2"-1091"0"0,9-1 695 0 0,-17 3-634 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0-1-1 0 0,7-2 0 0 0,3-2 514 0 0,-11 5-727 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,4-3 1 0 0,8-3-45 0 0,-12 7-178 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,15-13-2841 0 0,-15 13 1417 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="133282.54">8905 836 11976 0 0,'0'0'1082'0'0,"1"-1"-890"0"0,25-13 357 0 0,-17 10 1119 0 0,1-1 0 0 0,15-4 0 0 0,-12 7-277 0 0,-1 1-1 0 0,0 0 0 0 0,16 0 0 0 0,-26 1-1319 0 0,15 5 1061 0 0,-11-1-1074 0 0,-6-3 2 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 3 160 0 0,-1 1-108 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,-3 7 0 0 0,1-1-30 0 0,-7 17-10 0 0,7-23-61 0 0,2 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 8-1 0 0,0 6-12 0 0,0-9 0 0 0,1 0 0 0 0,1 22 0 0 0,1-30 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,5 6 0 0 0,-1-1 0 0 0,-4-6 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,4 1 0 0 0,-5-2-125 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-2 0 0 0,32-14-2837 0 0,-22 8 1925 0 0,-5 3-995 0 0,0-2-15 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="133680.23">9281 882 3224 0 0,'11'1'7058'0'0,"-10"12"-2904"0"0,4 0-1342 0 0,-4-10-2418 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 4 1 0 0,-8 38 1588 0 0,7-32-1380 0 0,-6 26 0 0 0,4-30-712 0 0,-2 14 272 0 0,4-1-1601 0 0,9-64 830 0 0,-2-20 608 0 0,-1 26 0 0 0,-3 27 39 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,6-12-1 0 0,-1-1 167 0 0,-4 14-37 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,9-10 0 0 0,-12 13-149 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,2 0 0 0 0,-3 0 106 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,2 4 0 0 0,3 4 161 0 0,-1 1 0 0 0,7 15 1 0 0,-10-19-47 0 0,2 6-253 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,-1-1-1 0 0,-1 1 1 0 0,3 23-1 0 0,-6-27-1610 0 0,-1 0-1 0 0,-3 16 1 0 0,1-18-384 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="134070.71">9233 1051 15288 0 0,'0'0'1385'0'0,"1"0"-1141"0"0,13-1 309 0 0,0-1 1 0 0,0-1-1 0 0,-1 0 1 0 0,0-1-1 0 0,22-8 1 0 0,-17 5 334 0 0,0 1 1 0 0,22-4-1 0 0,-36 10-704 0 0,1-2-1 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,8-4 1 0 0,-8 4 5 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,7-1-1 0 0,-5 1-403 0 0,1 0-1 0 0,-1 0 1 0 0,11-6-1 0 0,5-5-7485 0 0,-11 3 619 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="134071.71">9677 819 19351 0 0,'0'0'439'0'0,"-1"1"62"0"0,-7 5 86 0 0,4-3-521 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,-4 7 1 0 0,-1 6 319 0 0,3-8 186 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 17-1 0 0,3-16-494 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,1 0 0 0 0,5 14 0 0 0,-6-19-136 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,4 0-1 0 0,-3 0-849 0 0,0-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,11-6-1 0 0,-10 4-625 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="134523.41">9900 872 3224 0 0,'0'0'11212'0'0,"-7"4"-7625"0"0,4-3-3135 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-3 4 0 0 0,3-2-74 0 0,-1 1 0 0 0,0 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 5 0 0 0,1-5-310 0 0,1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,3 5-1 0 0,8 25 261 0 0,-5-15 195 0 0,9 17 1 0 0,-12-30-437 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,9 10-1 0 0,-11-14-107 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,3-1 0 0 0,-1 1-150 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,6-5 0 0 0,-7 5 71 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,2-3-1 0 0,5-13-297 0 0,-2 8 394 0 0,-1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,1-14 0 0 0,-2 14 770 0 0,-1 19 231 0 0,-2 5-1000 0 0,2 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,3 14-1 0 0,-3-20 0 0 0,-1-4-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3 2 0 0 0,-4-2-3 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,3-2-1 0 0,1-1 93 0 0,0 0-1 0 0,0 0 0 0 0,8-8 0 0 0,-2 2 537 0 0,-10 7-484 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,5-7 1 0 0,12-33-471 0 0,-18 41 250 0 0,0 2 4 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1-1-1 0 0,-3-18-363 0 0,4 18 496 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-5-6 1 0 0,-18-15-2418 0 0,5 11-5315 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="135021.22">10397 876 15664 0 0,'9'7'1187'0'0,"-10"-3"-1073"0"0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,-1 0 0 0 0,-3 7-1 0 0,4-9 221 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,2 6-1 0 0,3 4-250 0 0,3 6-54 0 0,1 0-43 0 0,-4-7 20 0 0,-2-1-72 0 0,-1-7 203 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 6 0 0 0,-2 16 875 0 0,0-28-1125 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,-2-2 0 0 0,-2-4 10 0 0,4 2 100 0 0,0 0-1 0 0,-1 0 0 0 0,2 0 1 0 0,-2-9-1 0 0,1 3 6 0 0,1 8-3 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,3-4-1 0 0,22-28 8 0 0,-6 10 62 0 0,-18 21 37 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3 0-1 0 0,-4 2-81 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,2 2 1 0 0,-2 0-40 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,2 3 0 0 0,0 1 16 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2 12 0 0 0,3 9 0 0 0,1-6 0 0 0,0-1 0 0 0,2 0 0 0 0,1-1 0 0 0,15 23 0 0 0,-22-38 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,9 3 0 0 0,-10-5 0 0 0,4-3 171 0 0,-5-4 21 0 0,-3 5-112 0 0,2-2-37 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,-1-7 0 0 0,-3-7 209 0 0,-1 1-1 0 0,-11-26 0 0 0,11 29-223 0 0,1 4-1046 0 0,0-1-1 0 0,-2 1 1 0 0,-11-16 0 0 0,11 17-442 0 0,-7-8-6726 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="135359">10296 722 11976 0 0,'8'-2'272'0'0,"10"-6"11370"0"0,-19 8-11585 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,-6 5 469 0 0,-2-1-740 0 0,1 0 1 0 0,1 0-1 0 0,-10 8 0 0 0,9-3-2084 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="135690.4">9964 554 19351 0 0,'0'0'6192'0'0,"-11"0"-6560"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="137213.29">10258 1037 4608 0 0,'0'0'208'0'0,"0"-1"-9"0"0,0-4-82 0 0,0 4 271 0 0,1-2 344 0 0,0 3-712 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 0 0 0 0,4-20-1007 0 0,-4 20 948 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,-1-1-1 0 0,-7-12 248 0 0,6 6 95 0 0,3 7-219 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1-1 0 0,0-1 280 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-3-1 1 0 0,-20-9 4143 0 0,21 9-4232 0 0,0 0-68 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-4 1 0 0 0,-9-2 1396 0 0,6 0-644 0 0,6 1-863 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1 0 0 0 0,-3 3 0 0 0,3-4-442 0 0,0 3 374 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20083,29 +20144,29 @@
       <inkml:brushProperty name="color" value="#FFC114"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4119 5340 12440 0 0,'3'-4'179'0'0,"0"-2"1"0"0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,2-8 0 0 0,3-40-126 0 0,-5 39 214 0 0,0 8-239 0 0,1-33 695 0 0,-2 36-473 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-2 0-1 0 0,0-4 1 0 0,2 7-144 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-2 0 0 0 0,-4 3 270 0 0,1 2 1 0 0,0-2-1 0 0,-8 9 0 0 0,9-8-125 0 0,-3 4-16 0 0,-2 1 0 0 0,1-1 0 0 0,2 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,2 0 0 0 0,-7 12 0 0 0,1 2 74 0 0,8-16-213 0 0,-1-2 0 0 0,0 2 0 0 0,1-2 0 0 0,1 1 0 0 0,-1 1 0 0 0,1-1 1 0 0,1 2-1 0 0,0-2 0 0 0,0 13 0 0 0,0-17-76 0 0,1 0 0 0 0,0 2 0 0 0,1-2 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 2 0 0 0,-1-2 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 2-1 0 0,0-2 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-2 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,5 5 0 0 0,-3-4-21 0 0,1 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0-1 1 0 0,8 0-1 0 0,3 0-46 0 0,-2-2 0 0 0,0 0 0 0 0,0-1 0 0 0,21-7 0 0 0,-29 7-32 0 0,1 0 0 0 0,-1-1 1 0 0,-1 0-1 0 0,2-1 1 0 0,-2 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-2 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-2-1 0 0,-1 2 1 0 0,0-1-1 0 0,-2-1 1 0 0,2 1-1 0 0,-2-1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 2 1 0 0,1-18-1 0 0,-4 24 77 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-2-2 0 0 0,2 0 0 0 0,0 4 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-2-1 0 0,-1 2 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,-9 7 130 0 0,10-8-126 0 0,-3 3 45 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 2 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 2 0 0 0,-1-2 1 0 0,1 1-1 0 0,0-1 0 0 0,0 2 0 0 0,0-2 1 0 0,1 1-1 0 0,0-1 0 0 0,1 9 0 0 0,-1-7-34 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-2-1-1 0 0,9 4 1 0 0,-3-2 2 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,2-1 0 0 0,-2 1 0 0 0,17 2 0 0 0,-20-5 10 0 0,1-1 0 0 0,-2 1-1 0 0,2-2 1 0 0,-1 1-1 0 0,1-1 1 0 0,-2 0 0 0 0,1 0-1 0 0,1 0 1 0 0,-2-1-1 0 0,1-1 1 0 0,0 0 0 0 0,8-3-1 0 0,-8 2 3 0 0,0 1 1 0 0,0-2-1 0 0,-1 2 0 0 0,1-2 0 0 0,5-4 1 0 0,-10 7-22 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-5-1 0 0,-1 2 4 0 0,1 1-1 0 0,-1-2 0 0 0,0 2 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,-1 2 1 0 0,-5-8-1 0 0,-1 1-61 0 0,1 0 0 0 0,-1 1 0 0 0,-21-18 0 0 0,21 20-102 0 0,-3 1 0 0 0,2 0 0 0 0,-2 0 0 0 0,1 2 0 0 0,-1 0 0 0 0,1 1-1 0 0,-19-6 1 0 0,27 10 414 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="420.22">4636 5135 2760 0 0,'11'-11'12088'0'0,"-12"22"-9107"0"0,-24 99 2941 0 0,23-97-5654 0 0,0-1 0 0 0,1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,2 14-1 0 0,-2-19-201 0 0,2 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,7 10 0 0 0,-5-8-49 0 0,0-1 0 0 0,0-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 2-1 0 0,1-3 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,11 2-1 0 0,-9-2 6 0 0,1-1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,14-2-1 0 0,-19 1-18 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,4-6-1 0 0,-4 3-7 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-2-3-1 0 0,1 2 0 0 0,-1 0 1 0 0,0-2-1 0 0,0 2 1 0 0,0-1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-2 0-1 0 0,0-2 0 0 0,0 2 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-2-9-1 0 0,-2-34-82 0 0,-4-17-71 0 0,6 58 161 0 0,-2-4 135 0 0,0 27-74 0 0,2 1-25 0 0,1 0-1 0 0,1 1 0 0 0,0-2 1 0 0,0 2-1 0 0,2-1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,8 15-1 0 0,-8-23-31 0 0,0 1-1 0 0,0-2 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-2-2-1 0 0,2 1 0 0 0,1-1 1 0 0,-1-1-1 0 0,5 5 1 0 0,-6-5-1 0 0,0-1 1 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,2-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-2 0 0 0 0,2-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,5-3 0 0 0,-6 2 32 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,5-6 1 0 0,-7 5-21 0 0,0 2 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0-4-1 0 0,0-7-125 0 0,0 1 0 0 0,-1-2 0 0 0,-1 1-1 0 0,-6-26 1 0 0,7 36-254 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-2-6 0 0 0,3 7-236 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1-9 1 0 0,0 6-998 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-10552.47">730 1 15664 0 0,'0'0'1417'0'0,"-3"12"757"0"0,3 11-1246 0 0,2 0 0 0 0,0 0 0 0 0,2 0 0 0 0,7 25 0 0 0,31 89 388 0 0,-32-105-1173 0 0,5 39 1 0 0,6 19-67 0 0,102 285 291 0 0,19 63 96 0 0,-112-342-476 0 0,3-3 0 0 0,5-2-1 0 0,3-1 1 0 0,77 127 0 0 0,22 12 125 0 0,14 18 8 0 0,-103-175-56 0 0,76 84 1 0 0,26-2-66 0 0,-68-69 0 0 0,-4-5 22 0 0,3-5-1 0 0,109 74 0 0 0,-51-47 68 0 0,174 115 172 0 0,-255-180-903 0 0,95 40 1 0 0,-144-72-294 0 0,1 0 0 0 0,14 11 1 0 0,-7-1-5917 0 0,-10-7-144 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-9695.52">1 2400 6912 0 0,'0'0'528'0'0,"0"2"-43"0"0,3 14 2704 0 0,9 6 1436 0 0,2 0-2933 0 0,-1 1-897 0 0,1 0-1 0 0,2-1 1 0 0,23 26-1 0 0,-27-32-493 0 0,26 27 668 0 0,67 62 1 0 0,52 27 172 0 0,-121-103-966 0 0,20 14-33 0 0,84 48 0 0 0,69 19 195 0 0,-142-79-245 0 0,193 86 108 0 0,-230-106-182 0 0,238 87 31 0 0,5-17 19 0 0,-138-50-14 0 0,420 67 978 0 0,126-33-353 0 0,-551-53-622 0 0,-31-3-36 0 0,8 6-172 0 0,-85-12 138 0 0,38 10 0 0 0,-9-2 85 0 0,-31-8-587 0 0,35 7 912 0 0,-17-8-9199 0 0,-28-2 1020 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-8416.15">3451 3485 9504 0 0,'0'0'432'0'0,"-20"-3"298"0"0,11 4 6189 0 0,11 4-3406 0 0,0-2-4702 0 0,5 6 1412 0 0,0-1 0 0 0,-1-1 0 0 0,2 1 0 0 0,0-2 0 0 0,-1 0-1 0 0,13 9 1 0 0,-3-2 67 0 0,81 50 741 0 0,-66-46-674 0 0,-6-2-23 0 0,-13-9-117 0 0,0 2 0 0 0,21 16 1 0 0,38 32-80 0 0,-66-50-106 0 0,-4-5-6 0 0,0 0-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 3 0 0 0,-1-4 54 0 0,-2 13 266 0 0,1-12-318 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 2-1 0 0,0-2 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-3 1 1 0 0,-24 11 300 0 0,-107 30 74 0 0,22-9-162 0 0,89-26-319 0 0,15-6-16 0 0,2 1 0 0 0,-2 0 0 0 0,-11 6 0 0 0,15-5-145 0 0,3-2-135 0 0,0-1-1 0 0,1 1 0 0 0,-2-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,-2 1 1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6325.24">3868 3745 4144 0 0,'0'0'3321'0'0,"0"-2"-2337"0"0,3-7-176 0 0,0-1 1 0 0,1 1-1 0 0,0 1 0 0 0,0-2 1 0 0,1 2-1 0 0,9-14 0 0 0,42-46 1507 0 0,-13 18-1570 0 0,98-120 471 0 0,-98 121-840 0 0,47-67 0 0 0,-69 86-237 0 0,142-217 938 0 0,-37 54-330 0 0,-102 160-590 0 0,136-179 602 0 0,-19 29-776 0 0,-63 83 327 0 0,2 3 0 0 0,123-110 0 0 0,-39 26 57 0 0,-109 116-126 0 0,81-75 1 0 0,88-36 97 0 0,-96 79-344 0 0,109-66-61 0 0,12 21 48 0 0,-136 79 22 0 0,-54 33-187 0 0,81-28 0 0 0,-64 29 527 0 0,-46 19-289 0 0,1 1 1 0 0,53-7 0 0 0,-9 1-73 0 0,-70 14-18 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,10 5 0 0 0,-8-6-48 0 0,-5 0 67 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-62 0 0,6 3-9 0 0,-6-2 87 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,2-1-108 0 0,-6-1-280 0 0,-3-2 92 0 0,-8 1 191 0 0,2 1-1 0 0,-22-3 1 0 0,2 1 109 0 0,12 6-36 0 0,17-1 33 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 2 0 0 0,0-2-1 0 0,-1 0 1 0 0,2-2 0 0 0,-2 2 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-3-4 0 0 0,4 4-76 0 0,41-2 64 0 0,-27 0 43 0 0,1 2 0 0 0,-1 0 0 0 0,16 1-1 0 0,-14 1-183 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-5251.58">3752 3717 15344 0 0,'9'-9'458'0'0,"1"-1"0"0"0,12-8 0 0 0,48-28-142 0 0,-19 12-227 0 0,-22 14 358 0 0,141-93 2240 0 0,45-31 115 0 0,-193 129-2647 0 0,304-200 954 0 0,-255 166-972 0 0,112-105 1 0 0,-119 98-99 0 0,151-118 44 0 0,36-29-28 0 0,154-118 172 0 0,-291 238-230 0 0,246-146 3 0 0,-132 91 0 0 0,-184 111 0 0 0,1 3 0 0 0,1 2 0 0 0,1 2 0 0 0,1 3 0 0 0,0 2 0 0 0,59-9 0 0 0,84-22 0 0 0,-161 38 0 0 0,-9 5 46 0 0,-2 1 1 0 0,35 0-1 0 0,-48 1-17 0 0,5-6 123 0 0,-10 7-24 0 0,17-13-64 0 0,-16 11-82 0 0,0 0-1 0 0,0 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,3 0-1 0 0,10-7-120 0 0,16-10 338 0 0,-5 2-232 0 0,-15 11-120 0 0,-11 5 155 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-2 1 0 0,-1 1-1 0 0,1 1 1 0 0,1-3-1 0 0,-2 2 98 0 0,-42 0-869 0 0,-36 2 86 0 0,29-2 130 0 0,37 0 522 0 0,0 0 0 0 0,-1 1-1 0 0,1 1 1 0 0,-1 0 0 0 0,-15 4 0 0 0,15-4 31 0 0,7-1 0 0 0,10 4 0 0 0,7 0 1 0 0,-1-1 0 0 0,2 0 0 0 0,-2-1 0 0 0,15 2-1 0 0,2 1 63 0 0,102 17 440 0 0,-106-17-157 0 0,-21-4-198 0 0,-8 3-101 0 0,2 0 0 0 0,-2 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 2 1 0 0,1-2 0 0 0,-8 1-1 0 0,2 1-26 0 0,-22 10-1 0 0,12-4 41 0 0,-24 8 1 0 0,25-12-816 0 0,-33 20 1 0 0,38-17-1430 0 0,-5-2-5555 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4573.28">7101 723 3224 0 0,'-1'-3'240'0'0,"0"3"-158"0"0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,-2 0 432 0 0,-14-7 2474 0 0,11 4-2263 0 0,0 0 0 0 0,1 0 0 0 0,-9 0 0 0 0,13 3 114 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,-5 0 0 0 0,28 6 32 0 0,-3-5-650 0 0,0 0-1 0 0,-1-2 0 0 0,28-2 1 0 0,49-13 513 0 0,-86 14-685 0 0,4-2-48 0 0,-6 2 3 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,9 1-1 0 0,-37 5 456 0 0,-11-2-221 0 0,-136 17 81 0 0,159-18-299 0 0,-4 1 32 0 0,1 0 0 0 0,-24 10 0 0 0,35-12-180 0 0,3-1 4 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-2 2 0 0 0,1 7-6606 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3858.82">3242 4238 16583 0 0,'-1'-1'762'0'0,"0"0"-554"0"0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,1 0 0 0 0,-2-3 1065 0 0,2 7-368 0 0,0 10-262 0 0,-11 142 123 0 0,0-44-204 0 0,7-57-366 0 0,-2-1 0 0 0,-2 0 0 0 0,-28 96 0 0 0,33-133-196 0 0,5-22-34 0 0,4-15-4 0 0,19-79 82 0 0,-11 40-24 0 0,22-116 298 0 0,0-7 68 0 0,-34 178-351 0 0,0-5 101 0 0,1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,6-14 0 0 0,-9 23 205 0 0,5 9 9 0 0,2 15-124 0 0,-1 0 1 0 0,-1 0 0 0 0,5 40 0 0 0,-2-13-77 0 0,56 260-285 0 0,-58-262-1231 0 0,-7-45 1012 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-2 5 1 0 0,-4 0-1533 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3488.49">2925 4741 18655 0 0,'0'0'1692'0'0,"2"0"-1393"0"0,61-17-381 0 0,78-23 387 0 0,-102 27-200 0 0,59-29 0 0 0,-97 41-103 0 0,149-79-76 0 0,-111 56-243 0 0,62-51 0 0 0,-69 49 142 0 0,-1-3-1 0 0,32-38 1 0 0,-58 62 195 0 0,-2 0-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,4-10 0 0 0,-6 13 1164 0 0,-2 4-1102 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 2 1 0 0,0-2-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 3-1 0 0,-2 3 106 0 0,-2 3 34 0 0,1 1-10 0 0,0 0 1 0 0,0 0-1 0 0,-4 18 0 0 0,3 7 121 0 0,1 1-1 0 0,-1 48 1 0 0,6-48-353 0 0,3 0 1 0 0,6 37 0 0 0,-10-72-171 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,3 3 0 0 0,2 3-6201 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2865.11">3301 4361 18079 0 0,'8'-14'1928'0'0,"2"6"-1899"0"0,1 0 0 0 0,0 0 0 0 0,0 2 0 0 0,1-1 0 0 0,0 1 0 0 0,13-4 0 0 0,79-21 1052 0 0,-66 22-439 0 0,185-39-244 0 0,-219 48-392 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 2-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,5 1 0 0 0,-7-2 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 2 1 0 0,1-1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 4 1 0 0,-14 167 504 0 0,4-69 286 0 0,8-87-753 0 0,0 1 0 0 0,2 0-1 0 0,0 0 1 0 0,1 0 0 0 0,5 27-1 0 0,-1-9-42 0 0,-4-28-10 0 0,-1-6-54 0 0,-1-23-339 0 0,-3-10 187 0 0,3-1 0 0 0,-1 1 0 0 0,4-47 0 0 0,-1 59 196 0 0,1 1 0 0 0,0-1 1 0 0,2 1-1 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1 0 1 0 0,10-19-1 0 0,-13 28 4 0 0,2-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 2-1 0 0,1-1 1 0 0,1 2 0 0 0,-2-2 0 0 0,2 2 0 0 0,10-3 0 0 0,-14 6 16 0 0,-1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,4 2 0 0 0,-8-3 4 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 2 0 0 0,0-2-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 2 1 0 0,-3 8 55 0 0,-1-1 1 0 0,0 1-1 0 0,-1-2 1 0 0,0 2-1 0 0,1-2 1 0 0,-2 1-1 0 0,-11 14 1 0 0,-56 58 821 0 0,44-52-407 0 0,16-8-192 0 0,13-21-265 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 2 0 0 0,1-2 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 1 0 0 0,0-2-12 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 1-1 0 0,-1-2 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,2-1 1 0 0,0 1 0 0 0,0 2-3 0 0,2 0 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,5 1 0 0 0,8 0-4 0 0,26-1-1 0 0,-35-1 0 0 0,10 0-104 0 0,-3 0-309 0 0,-1 0 0 0 0,18-3 0 0 0,-28 2-50 0 0,2-1 1 0 0,-1 0-1 0 0,7-4 0 0 0,4-3-894 0 0,-13 8 644 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-5 0 0 0,-3 6 472 0 0,0-1-1664 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2476.68">4224 4205 11600 0 0,'0'0'1989'0'0,"1"3"-1176"0"0,2-1-521 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 7 1 0 0,0 8 530 0 0,0 1 1 0 0,-5 23-1 0 0,2-17-425 0 0,-10 62 271 0 0,9-65-610 0 0,1 0 0 0 0,-1 47-1 0 0,4-70-57 0 0,0 2-1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 2 1 0 0,0-2-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,1 2-1 0 0,-1-2-138 0 0,-1 0-601 0 0,0-1 687 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,7-3-3011 0 0,-1-2 1274 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2040.72">4427 4200 15664 0 0,'0'0'1571'0'0,"0"2"-1437"0"0,-6 140 3730 0 0,1 5-1059 0 0,6-115-2658 0 0,0-20-96 0 0,-1 0 1 0 0,0 0 0 0 0,-3 23-1 0 0,0-27-91 0 0,2-7-170 0 0,1-8-163 0 0,0 0 0 0 0,-4-16 0 0 0,2 15 344 0 0,1 0 0 0 0,-1 1 0 0 0,1-9 0 0 0,0-15 17 0 0,1 21 4 0 0,-1-1 1 0 0,1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,5-18 1 0 0,-2 15-23 0 0,2 0 0 0 0,0 0 1 0 0,0 0-1 0 0,14-21 0 0 0,-14 26 12 0 0,-1 2 0 0 0,2-1 1 0 0,-1 1-1 0 0,0 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,11-5 1 0 0,-15 9 15 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,-1 1-1 0 0,0-2 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,1 4-1 0 0,-2-5 14 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 2 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 6 1 0 0,-10 31 198 0 0,5-27-86 0 0,0 1 1 0 0,-10 17-1 0 0,1-3 163 0 0,-3-1 100 0 0,1 3 0 0 0,16-28-377 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,1 1 1 0 0,1 0-18 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-2 0 0 0 0,1 0 1 0 0,7 0-1 0 0,-2 0-145 0 0,0 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,2 0 1 0 0,-1 0-1 0 0,-1 1 0 0 0,1 1 0 0 0,12 6 0 0 0,-19-9 116 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 2 1 0 0,0-2-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 1 1 0 0,0 1-28 0 0,-1 1-1 0 0,1-2 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,2 0 0 0 0,-7 4-1 0 0,-2 1 96 0 0,1-1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-23 7-1 0 0,17-8 177 0 0,-1 0-1 0 0,1-2 0 0 0,0 0 0 0 0,-21 0 1 0 0,12-6-151 0 0,25 4-147 0 0,1-2-120 0 0,0 0 99 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,4-3 0 0 0,-4 2-8 0 0,26-18-2020 0 0,-10 8 337 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1539.8">4791 4290 11376 0 0,'0'0'1030'0'0,"0"0"-937"0"0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 2 1 0 0,0-2 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,-1 11 1674 0 0,1 9-127 0 0,3 2-687 0 0,-1-13-468 0 0,0 0-1 0 0,5 14 0 0 0,-2-3 48 0 0,-2-12-243 0 0,0-1 0 0 0,1 1-1 0 0,0-2 1 0 0,5 13 0 0 0,-1-6 96 0 0,-4-7-181 0 0,1-1 0 0 0,0 2-1 0 0,1-2 1 0 0,8 12 0 0 0,-12-17-197 0 0,4 5 96 0 0,0 0 0 0 0,2 0 0 0 0,12 9 0 0 0,-17-14-55 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-2 1 0 0 0,1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,-1-1-1 0 0,5-1 0 0 0,-3 0-19 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-2-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,1-8 1 0 0,0-7-118 0 0,0 0 1 0 0,-2-1-1 0 0,-1-21 1 0 0,0 7-405 0 0,2 21-289 0 0,-1-2-1 0 0,4-18 1 0 0,-2 24-907 0 0,0 0 0 0 0,5-14 0 0 0,-1 7-5040 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1538.8">5141 4080 6912 0 0,'0'0'528'0'0,"4"8"26"0"0,-1-3 378 0 0,0 0-1 0 0,-2 1 1 0 0,2 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1 1-1 0 0,1 6 1 0 0,0 8 986 0 0,-5 35-1 0 0,1-21-843 0 0,1 1-759 0 0,-1-14-51 0 0,2-1 0 0 0,1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,1 1 0 0 0,6 27-1 0 0,-3-25-381 0 0,-4-17 8 0 0,0 1 1 0 0,1-1 0 0 0,0-1-1 0 0,5 14 1 0 0,-7-19-275 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1166.47">4983 4323 14368 0 0,'0'-5'219'0'0,"0"0"0"0"0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,3-9 1 0 0,-3 12-124 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,5-3-1 0 0,14-7 582 0 0,1 0-1 0 0,1 3 0 0 0,0-1 0 0 0,46-10 1 0 0,-37 12-302 0 0,1 3 0 0 0,-1-1 0 0 0,58 2 0 0 0,-85 4-336 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,7 4 0 0 0,-10-6-28 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 2-1 0 0,0-2 1 0 0,0 3-1 0 0,-2 11 260 0 0,-1-2 0 0 0,1 1 0 0 0,-2-1 0 0 0,-7 16 0 0 0,6-16-159 0 0,1 0 1 0 0,-1 1-1 0 0,-4 23 1 0 0,8-32-87 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,4 11-1 0 0,-4-13-21 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,4-1-1 0 0,-1-1 43 0 0,0 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-2-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-2 0 0 0 0,5-5 1 0 0,-3 4-18 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-2-1 0 0 0,2 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-2 0 0 0,1 2 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-2 1 0 0,0 2 0 0 0,0-1 0 0 0,-1 0 0 0 0,-3-5 0 0 0,2 0-17 0 0,-2 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-12-17 0 0 0,15 23-15 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-7 0-1 0 0,-26 1-83 0 0,34 0 40 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-2 2 1 0 0,3-1-355 0 0,7 7-1419 0 0,3-1 260 0 0,5-2-61 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-823.04">5867 4193 13184 0 0,'1'-2'298'0'0,"0"0"-232"0"0,-1-2-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-3-3-1 0 0,-2-3 330 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-9-7 0 0 0,12 11-73 0 0,-1 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-10 1-1 0 0,14 0-242 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 2 1 0 0,0-2 0 0 0,0 1 0 0 0,-1 1-1 0 0,1-1 464 0 0,-2 6-25 0 0,2-6-500 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,15 20 66 0 0,-5-9-19 0 0,4 7 120 0 0,32 32 1 0 0,-30-35-93 0 0,-1 0 1 0 0,19 27-1 0 0,-31-38-92 0 0,1 1 62 0 0,-1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,6 14-1 0 0,-10-19-33 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 1 0 0 0,0-1 0 0 0,0-1-1 0 0,-2 3 1 0 0,-2 1 48 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1-2-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,-8 5 0 0 0,-51 15-7 0 0,59-21-79 0 0,-5 2-28 0 0,0-1-1 0 0,-1 1 0 0 0,1-2 1 0 0,-1 0-1 0 0,1-1 1 0 0,-2 0-1 0 0,2-1 0 0 0,-21-2 1 0 0,31 1-99 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,0-2 0 0 0,1 2 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0-3 0 0 0,5-9-1577 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-404.22">6372 3647 19895 0 0,'0'0'1515'0'0,"0"2"-1032"0"0,0 10-347 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-5 19 0 0 0,-26 55 1431 0 0,18-48-1126 0 0,-48 145 710 0 0,55-153-965 0 0,2 2 0 0 0,1 0 1 0 0,1 0-1 0 0,-1 33 0 0 0,2 21-2412 0 0,-4 1-3780 0 0,1-52-1985 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="939.6">5361 5172 18631 0 0,'0'2'422'0'0,"0"21"667"0"0,1 6-458 0 0,-5 40-1 0 0,0-7 2270 0 0,3-57-2774 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,1 6 1 0 0,0 8 696 0 0,-1-18-608 0 0,0-1-214 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 2 0 0 0,-1-2 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-2 0 0 0,0 2 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,3-5-28 0 0,-4 6 25 0 0,2-6-106 0 0,0 0 0 0 0,-1-1 0 0 0,0 2 0 0 0,0-1-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-12 0 0 0,-7-45-260 0 0,4 46 314 0 0,0 1 12 0 0,-1-2-1 0 0,0 1 0 0 0,0 0 1 0 0,-2 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-2 0-1 0 0,-14-23 0 0 0,7 13 166 0 0,13 22 149 0 0,8 15-149 0 0,10 20-106 0 0,-7-12 224 0 0,1 0-1 0 0,0-1 0 0 0,2 0 0 0 0,-1-1 0 0 0,29 30 0 0 0,-38-43-251 0 0,11 7 83 0 0,-1 0 0 0 0,24 16 0 0 0,-31-24-60 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 1 0 0,0-1-1 0 0,0 2 0 0 0,-1-2 0 0 0,2 1 1 0 0,-1-2-1 0 0,0 1 0 0 0,-1 0 0 0 0,2-1 1 0 0,-1 0-1 0 0,5-1 0 0 0,-2-1-26 0 0,0 1 0 0 0,-2-2 0 0 0,2 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1-2 0 0 0,0 2 0 0 0,0-1 0 0 0,5-8 0 0 0,-6 7 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-2 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1-14 0 0 0,-7-15-2 0 0,2 30-64 0 0,-9 13-16 0 0,9-5 96 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 3 0 0 0,-1 7 0 0 0,-3 24 0 0 0,6-29 0 0 0,-1 2-54 0 0,1-1-1 0 0,0 2 1 0 0,0-2-1 0 0,1 2 1 0 0,1-2-1 0 0,0 1 1 0 0,4 15-1 0 0,-5-23-124 0 0,0 1 0 0 0,0-1-1 0 0,0 2 1 0 0,0-2 0 0 0,0 0 0 0 0,1 0-1 0 0,1 4 1 0 0,9 7-6268 0 0,-2-6-1259 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1451.88">5946 5097 8752 0 0,'-2'-4'217'0'0,"1"3"-174"0"0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,-1-1-1 0 0,-5-1 5547 0 0,-3 5-3298 0 0,8-1-2019 0 0,-1 2-1 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,-1 3-1 0 0,-2 10 599 0 0,-6 27 0 0 0,3-10 195 0 0,1-8-822 0 0,0 1 0 0 0,3-1 1 0 0,0 0-1 0 0,-2 44 0 0 0,6-62-236 0 0,1-1-1 0 0,0-1 1 0 0,0 2-1 0 0,3 9 1 0 0,-3-15 674 0 0,0-3-475 0 0,0 1-205 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-2 1 0 0,0 2-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-2 0 0 0,0-1-9 0 0,5-5-7 0 0,-1 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,0-2 1 0 0,5-16-1 0 0,5-72-234 0 0,-10 69 128 0 0,9-47 0 0 0,13-1-183 0 0,-25 77 307 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,7 11 269 0 0,-7-11-264 0 0,8 17 272 0 0,10 33 1 0 0,-12-32-244 0 0,13 27-1 0 0,-10-27 46 0 0,-1-1 0 0 0,3-1 0 0 0,0-1 0 0 0,-1 1-1 0 0,21 20 1 0 0,-27-32-62 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,2 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,6-1-1 0 0,-9 1-3 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 0 0 0,2 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-2 0 0 0,-1-3 41 0 0,0-1-1 0 0,0 1 0 0 0,0 1 1 0 0,-1-2-1 0 0,0 2 1 0 0,-1 0-1 0 0,1-2 1 0 0,-4-5-1 0 0,-59-124-2249 0 0,64 135 1916 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-2 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,2 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,4-3-1 0 0,4-4-1355 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1821.15">6401 4985 16096 0 0,'0'0'1459'0'0,"-1"1"-1203"0"0,-16 49 676 0 0,12-36 246 0 0,0-2-1 0 0,-5 29 0 0 0,6-23-795 0 0,-8 21 0 0 0,1-4 89 0 0,-9 50 0 0 0,12-50-357 0 0,7-29-98 0 0,1-5 200 0 0,7-22-152 0 0,7-20 78 0 0,-9 29-82 0 0,-1 1 1 0 0,0-2 0 0 0,2-12-1 0 0,24-95 213 0 0,-26 110-242 0 0,1-7-13 0 0,1 0 0 0 0,1 1 0 0 0,1 1 0 0 0,0-1 0 0 0,10-15 0 0 0,-15 27 52 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,5-1 0 0 0,-7 4-50 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-2 0 0 0,-1 2 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,-1-2 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 1 1 0 0,9 21 123 0 0,-2-1 1 0 0,0 2 0 0 0,-1-1 0 0 0,-3 2 0 0 0,6 26 0 0 0,-4-18-165 0 0,19 60 0 0 0,-23-86-221 0 0,-1 0 0 0 0,0-1-1 0 0,0 2 1 0 0,-1-1 0 0 0,0-1 0 0 0,0 2 0 0 0,-1 9 0 0 0,-3-14-2263 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2289.77">6199 5199 14912 0 0,'0'0'730'0'0,"2"0"-316"0"0,4-3-343 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,2 0 0 0 0,0 0 0 0 0,12 0 0 0 0,50 0 218 0 0,-43 3-11 0 0,95-8-323 0 0,-81 3-206 0 0,-11 1-1363 0 0,29-7 0 0 0,-54 9 1323 0 0,25-6-4685 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2290.77">6953 5002 10912 0 0,'5'-8'177'0'0,"-4"7"-148"0"0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-2-1 0 0 0,-3-8-182 0 0,3 8 398 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,-3-1 0 0 0,1-1 238 0 0,-2 0 0 0 0,1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,1-1 1 0 0,-2 1-1 0 0,1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,-13 2 0 0 0,19-2-406 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 1 0 0 0,2 6 100 0 0,1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,6 9 1 0 0,-10-15-145 0 0,15 19 95 0 0,29 39 25 0 0,-26-28-100 0 0,-5-11 66 0 0,11 23-1 0 0,-20-36 3 0 0,-2 1 0 0 0,1 0 0 0 0,-2 0 0 0 0,0 1 0 0 0,1-1 0 0 0,2 15 0 0 0,-5-20-70 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,-2 2 1 0 0,2-3 1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-9 4-1 0 0,-1 0 39 0 0,-1-1-1 0 0,0-1 0 0 0,0 1 1 0 0,-26 3-1 0 0,23-5-47 0 0,0-2 1 0 0,-1 0-1 0 0,0-1 1 0 0,1-1-1 0 0,-1 0 0 0 0,-19-4 1 0 0,30 3-275 0 0,0 0 0 0 0,2-1 0 0 0,-2 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-2 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,1-2 1 0 0,-1 2-1 0 0,-3-10 0 0 0,1-1-1208 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4303 5084 12440 0 0,'3'-4'179'0'0,"0"-1"1"0"0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,2-7 0 0 0,4-39-126 0 0,-6 38 214 0 0,0 7-239 0 0,1-31 695 0 0,-2 34-473 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-2 0-1 0 0,-1-3 1 0 0,3 6-144 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-2 0 0 0 0,-4 3 270 0 0,1 1 1 0 0,-1-1-1 0 0,-7 9 0 0 0,9-9-125 0 0,-4 5-16 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-6 11 0 0 0,1 2 74 0 0,7-16-213 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 12 0 0 0,0-16-76 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,5 4 0 0 0,-2-3-21 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1-1 1 0 0,9 0-1 0 0,2 0-46 0 0,-1-2 0 0 0,0 0 0 0 0,0-1 0 0 0,21-6 0 0 0,-29 6-32 0 0,0 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-2-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-2 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,2-17-1 0 0,-5 23 77 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-2-2 0 0 0,1 0 0 0 0,1 4 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,-10 6 130 0 0,11-7-126 0 0,-3 3 45 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,0-1 0 0 0,1 8 0 0 0,0-6-34 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,1-2 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,8 4 1 0 0,-3-3 2 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1-1 0 0 0,-1 0 0 0 0,17 3 0 0 0,-21-5 10 0 0,1-1 0 0 0,-1 1-1 0 0,1-2 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,0-1 0 0 0,9-3-1 0 0,-9 2 3 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-2 0 0 0,5-4 1 0 0,-9 7-22 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-4-1 0 0,-1 1 4 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,-5-8-1 0 0,-1 2-61 0 0,0-1 0 0 0,0 2 0 0 0,-22-18 0 0 0,21 20-102 0 0,-2 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1-1 0 0,-19-5 1 0 0,28 9 414 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="420.22">4842 4889 2760 0 0,'12'-10'12088'0'0,"-13"20"-9107"0"0,-25 95 2941 0 0,24-93-5654 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,2 13-1 0 0,-2-19-201 0 0,2 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 1-1 0 0,0-1 1 0 0,1-1 0 0 0,6 11 0 0 0,-5-9-49 0 0,0 0 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1-2 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,12 2-1 0 0,-9-3 6 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,15-2-1 0 0,-20 1-18 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,5-6-1 0 0,-5 4-7 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-2-1 0 0,0 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-2 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-2-8-1 0 0,-3-32-82 0 0,-3-17-71 0 0,6 55 161 0 0,-2-3 135 0 0,0 25-74 0 0,2 2-25 0 0,1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,2-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,7 15-1 0 0,-8-22-31 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1-1 1 0 0,-1-1-1 0 0,6 4 1 0 0,-7-4-1 0 0,0-1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,6-3 0 0 0,-7 2 32 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,6-6 1 0 0,-8 6-21 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-5-1 0 0,0-6-125 0 0,0 0 0 0 0,-1-1 0 0 0,-1 1-1 0 0,-6-25 1 0 0,7 34-254 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,-3-6 0 0 0,4 8-236 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-8 1 0 0,0 5-998 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-10552.47">763 1 15664 0 0,'0'0'1417'0'0,"-4"11"757"0"0,4 11-1246 0 0,2 0 0 0 0,1 0 0 0 0,1 0 0 0 0,7 24 0 0 0,33 84 388 0 0,-34-99-1173 0 0,6 36 1 0 0,6 19-67 0 0,107 271 291 0 0,19 60 96 0 0,-117-326-476 0 0,4-2 0 0 0,4-2-1 0 0,4-2 1 0 0,80 122 0 0 0,24 11 125 0 0,14 17 8 0 0,-108-166-56 0 0,80 79 1 0 0,26-1-66 0 0,-70-66 0 0 0,-4-5 22 0 0,3-5-1 0 0,113 71 0 0 0,-53-45 68 0 0,182 110 172 0 0,-266-172-903 0 0,99 38 1 0 0,-150-68-294 0 0,0 0 0 0 0,15 10 1 0 0,-7-1-5917 0 0,-10-6-144 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-9695.52">1 2285 6912 0 0,'0'0'528'0'0,"0"2"-43"0"0,3 13 2704 0 0,10 6 1436 0 0,1 0-2933 0 0,0 1-897 0 0,1 0-1 0 0,1-1 1 0 0,25 25-1 0 0,-28-31-493 0 0,26 26 668 0 0,71 59 1 0 0,54 25 172 0 0,-127-97-966 0 0,22 13-33 0 0,87 46 0 0 0,72 17 195 0 0,-148-74-245 0 0,202 81 108 0 0,-241-100-182 0 0,249 82 31 0 0,5-16 19 0 0,-143-47-14 0 0,437 63 978 0 0,133-31-353 0 0,-577-51-622 0 0,-31-2-36 0 0,8 5-172 0 0,-89-11 138 0 0,39 9 0 0 0,-9-1 85 0 0,-32-8-587 0 0,37 6 912 0 0,-19-7-9199 0 0,-28-2 1020 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-8416.14">3605 3318 9504 0 0,'0'0'432'0'0,"-21"-3"298"0"0,11 4 6189 0 0,13 4-3406 0 0,-1-2-4702 0 0,5 5 1412 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0-1 0 0,12 8 1 0 0,-2-2 67 0 0,85 48 741 0 0,-70-43-674 0 0,-6-3-23 0 0,-13-8-117 0 0,-1 1 0 0 0,23 16 1 0 0,39 30-80 0 0,-69-47-106 0 0,-4-5-6 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 3 0 0 0,-1-4 54 0 0,-2 12 266 0 0,1-11-318 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,-2 1 1 0 0,-25 10 300 0 0,-112 29 74 0 0,23-8-162 0 0,93-26-319 0 0,16-5-16 0 0,1 1 0 0 0,-1 0 0 0 0,-12 6 0 0 0,16-6-145 0 0,3-1-135 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,-2 1 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6325.24">4040 3566 4144 0 0,'0'0'3321'0'0,"0"-2"-2337"0"0,3-7-176 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,10-13 0 0 0,43-43 1507 0 0,-13 16-1570 0 0,103-114 471 0 0,-103 116-840 0 0,49-65 0 0 0,-72 83-237 0 0,148-208 938 0 0,-39 53-330 0 0,-106 151-590 0 0,143-170 602 0 0,-21 28-776 0 0,-66 79 327 0 0,3 3 0 0 0,128-106 0 0 0,-41 26 57 0 0,-113 110-126 0 0,84-71 1 0 0,92-35 97 0 0,-101 76-344 0 0,115-63-61 0 0,12 20 48 0 0,-142 75 22 0 0,-56 31-187 0 0,84-26 0 0 0,-67 27 527 0 0,-47 19-289 0 0,0 0 1 0 0,56-6 0 0 0,-10 1-73 0 0,-73 13-18 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,10 4 0 0 0,-7-5-48 0 0,-6 0 67 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-62 0 0,7 3-9 0 0,-7-2 87 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,3-1-108 0 0,-7-1-280 0 0,-4-2 92 0 0,-7 1 191 0 0,1 1-1 0 0,-22-2 1 0 0,1 0 109 0 0,13 6-36 0 0,18-1 33 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-4-4 0 0 0,5 4-76 0 0,43-2 64 0 0,-28 0 43 0 0,0 2 0 0 0,0 0 0 0 0,16 1-1 0 0,-14 1-183 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-5251.58">3919 3539 15344 0 0,'10'-9'458'0'0,"0"0"0"0"0,13-8 0 0 0,50-27-142 0 0,-20 12-227 0 0,-22 13 358 0 0,146-89 2240 0 0,48-29 115 0 0,-202 123-2647 0 0,317-191 954 0 0,-266 158-972 0 0,118-99 1 0 0,-126 92-99 0 0,159-111 44 0 0,37-29-28 0 0,161-111 172 0 0,-304 226-230 0 0,257-139 3 0 0,-137 86 0 0 0,-193 107 0 0 0,1 2 0 0 0,1 2 0 0 0,1 2 0 0 0,1 3 0 0 0,0 1 0 0 0,62-8 0 0 0,87-20 0 0 0,-167 35 0 0 0,-11 5 46 0 0,-1 1 1 0 0,37 0-1 0 0,-51 1-17 0 0,5-5 123 0 0,-9 6-24 0 0,16-13-64 0 0,-16 11-82 0 0,0 1-1 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,3 0-1 0 0,11-7-120 0 0,16-9 338 0 0,-4 2-232 0 0,-17 10-120 0 0,-11 5 155 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,1-3-1 0 0,-2 2 98 0 0,-44 0-869 0 0,-37 2 86 0 0,29-2 130 0 0,40 0 522 0 0,-1 0 0 0 0,0 1-1 0 0,0 1 1 0 0,0 0 0 0 0,-17 4 0 0 0,17-4 31 0 0,7-1 0 0 0,10 3 0 0 0,7 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,15 2-1 0 0,2 0 63 0 0,107 17 440 0 0,-111-16-157 0 0,-22-4-198 0 0,-8 3-101 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,-7 1-1 0 0,1 1-26 0 0,-22 9-1 0 0,12-3 41 0 0,-26 7 1 0 0,28-11-816 0 0,-36 18 1 0 0,40-15-1430 0 0,-5-2-5555 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4573.28">7417 688 3224 0 0,'-1'-2'240'0'0,"0"2"-158"0"0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-2 0-1 0 0,-1 0 432 0 0,-15-7 2474 0 0,12 4-2263 0 0,0 1 0 0 0,1-1 0 0 0,-10 0 0 0 0,14 3 114 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,-5 0 0 0 0,29 5 32 0 0,-4-4-650 0 0,1 0-1 0 0,-1-2 0 0 0,29-2 1 0 0,51-12 513 0 0,-90 13-685 0 0,5-2-48 0 0,-7 2 3 0 0,-1 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,9 1-1 0 0,-38 5 456 0 0,-11-2-221 0 0,-143 16 81 0 0,167-17-299 0 0,-5 1 32 0 0,1 0 0 0 0,-25 9 0 0 0,37-11-180 0 0,3-1 4 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-2 2 0 0 0,1 7-6606 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3858.82">3386 4035 16583 0 0,'-1'-1'762'0'0,"0"0"-554"0"0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-2-3 1065 0 0,2 7-368 0 0,0 9-262 0 0,-12 136 123 0 0,1-42-204 0 0,7-55-366 0 0,-2 0 0 0 0,-3-1 0 0 0,-28 92 0 0 0,33-127-196 0 0,6-20-34 0 0,5-15-4 0 0,19-75 82 0 0,-11 38-24 0 0,22-111 298 0 0,1-6 68 0 0,-36 169-351 0 0,0-4 101 0 0,1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,7-13 0 0 0,-10 22 205 0 0,5 9 9 0 0,2 14-124 0 0,0 0 1 0 0,-2 0 0 0 0,6 38 0 0 0,-3-13-77 0 0,59 248-285 0 0,-61-249-1231 0 0,-7-43 1012 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,-2 5 1 0 0,-5 0-1533 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3488.49">3055 4514 18655 0 0,'0'0'1692'0'0,"2"0"-1393"0"0,64-16-381 0 0,81-22 387 0 0,-106 25-200 0 0,62-27 0 0 0,-102 39-103 0 0,155-75-76 0 0,-115 53-243 0 0,65-48 0 0 0,-73 46 142 0 0,-1-2-1 0 0,34-37 1 0 0,-61 59 195 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,4-9 0 0 0,-6 12 1164 0 0,-2 4-1102 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 3-1 0 0,-2 2 106 0 0,-2 4 34 0 0,0 0-10 0 0,1 1 1 0 0,0-1-1 0 0,-4 18 0 0 0,2 6 121 0 0,2 1-1 0 0,-1 46 1 0 0,6-46-353 0 0,3 0 1 0 0,7 36 0 0 0,-11-69-171 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,3 3 0 0 0,3 2-6201 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2865.11">3448 4152 18079 0 0,'8'-13'1928'0'0,"3"5"-1899"0"0,0 1 0 0 0,1-1 0 0 0,-1 2 0 0 0,2 0 0 0 0,-1 0 0 0 0,14-4 0 0 0,83-19 1052 0 0,-69 20-439 0 0,193-36-244 0 0,-229 45-392 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,5 1 0 0 0,-7-2 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 4 1 0 0,-14 158 504 0 0,3-65 286 0 0,9-82-753 0 0,0 0 0 0 0,2 0-1 0 0,0 0 1 0 0,1 0 0 0 0,5 26-1 0 0,0-9-42 0 0,-5-26-10 0 0,-1-6-54 0 0,-1-22-339 0 0,-3-10 187 0 0,2 0 0 0 0,0 0 0 0 0,5-44 0 0 0,-2 56 196 0 0,1 1 0 0 0,0-1 1 0 0,2 1-1 0 0,0 0 0 0 0,1 0 0 0 0,1 1 0 0 0,0 0 1 0 0,10-18-1 0 0,-12 26 4 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 2 0 0 0,-1-1 0 0 0,1 1 0 0 0,11-3 0 0 0,-15 6 16 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,5 2 0 0 0,-9-3 4 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 2 1 0 0,-2 7 55 0 0,-1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,-12 14 1 0 0,-58 55 821 0 0,46-49-407 0 0,16-8-192 0 0,14-20-265 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 1 0 0 0,0-2-12 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,2-1 1 0 0,0 1 0 0 0,1 2-3 0 0,1 0 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,6 1 0 0 0,8 0-4 0 0,26-1-1 0 0,-35-1 0 0 0,10 0-104 0 0,-4 0-309 0 0,0 0 0 0 0,18-3 0 0 0,-28 2-50 0 0,1-1 1 0 0,-1 0-1 0 0,8-4 0 0 0,3-2-894 0 0,-13 7 644 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-4 0 0 0,-3 5 472 0 0,0-1-1664 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2476.68">4412 4004 11600 0 0,'0'0'1989'0'0,"1"2"-1176"0"0,2 0-521 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 6 1 0 0,0 8 530 0 0,0 1 1 0 0,-5 22-1 0 0,2-16-425 0 0,-11 59 271 0 0,10-62-610 0 0,1 0 0 0 0,-1 44-1 0 0,4-66-57 0 0,0 2-1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,1 2-1 0 0,-1-2-138 0 0,-1 0-601 0 0,0-1 687 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,7-3-3011 0 0,-1-2 1274 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2040.72">4624 3999 15664 0 0,'0'0'1571'0'0,"0"2"-1437"0"0,-6 133 3730 0 0,1 5-1059 0 0,6-110-2658 0 0,0-18-96 0 0,-1-1 1 0 0,0 1 0 0 0,-3 21-1 0 0,0-25-91 0 0,2-7-170 0 0,1-8-163 0 0,-1 0 0 0 0,-3-15 0 0 0,2 15 344 0 0,1-1 0 0 0,-1 1 0 0 0,1-8 0 0 0,0-14 17 0 0,1 19 4 0 0,-1 0 1 0 0,1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,5-18 1 0 0,-1 15-23 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,15-21 0 0 0,-15 26 12 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,10-4 1 0 0,-15 8 15 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,1 3-1 0 0,-2-4 14 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 5 1 0 0,-9 31 198 0 0,5-27-86 0 0,0 1 1 0 0,-11 17-1 0 0,1-3 163 0 0,-2-2 100 0 0,0 4 0 0 0,17-27-377 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,1 1 1 0 0,1 0-18 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,7 0-1 0 0,-2 0-145 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0 0 0 0 0,13 7 0 0 0,-20-9 116 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 1 1 0 0,0 1-28 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-6 4-1 0 0,-2 0 96 0 0,0 0 0 0 0,0-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,-23 6-1 0 0,17-7 177 0 0,0 0-1 0 0,0-2 0 0 0,0 0 0 0 0,-21 0 1 0 0,11-6-151 0 0,27 4-147 0 0,1-2-120 0 0,0 0 99 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,4-3 0 0 0,-3 2-8 0 0,26-17-2020 0 0,-10 8 337 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1539.8">5004 4085 11376 0 0,'0'0'1030'0'0,"0"0"-937"0"0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,-1 11 1674 0 0,1 8-127 0 0,3 2-687 0 0,-1-13-468 0 0,0 1-1 0 0,5 13 0 0 0,-1-3 48 0 0,-3-12-243 0 0,0 0 0 0 0,1 0-1 0 0,0-1 1 0 0,5 12 0 0 0,0-6 96 0 0,-5-6-181 0 0,1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,9 11 0 0 0,-13-16-197 0 0,4 5 96 0 0,1 0 0 0 0,1-1 0 0 0,13 10 0 0 0,-18-14-55 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,4-1 0 0 0,-3 0-19 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-7 1 0 0,0-7-118 0 0,0-1 1 0 0,-2 0-1 0 0,-1-20 1 0 0,0 7-405 0 0,2 19-289 0 0,-1-1-1 0 0,4-17 1 0 0,-2 22-907 0 0,0 0 0 0 0,5-13 0 0 0,0 7-5040 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1538.8">5370 3885 6912 0 0,'0'0'528'0'0,"4"7"26"0"0,-1-2 378 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,-1 0-1 0 0,1 7 1 0 0,0 7 986 0 0,-5 33-1 0 0,1-20-843 0 0,1 2-759 0 0,-1-14-51 0 0,2-1 0 0 0,0 0-1 0 0,1 1 1 0 0,2-1 0 0 0,0 1 0 0 0,6 25-1 0 0,-3-23-381 0 0,-4-16 8 0 0,0 0 1 0 0,1 0 0 0 0,0-1-1 0 0,6 13 1 0 0,-8-18-275 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1166.47">5205 4116 14368 0 0,'0'-5'219'0'0,"0"0"0"0"0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,3-8 1 0 0,-3 11-124 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,5-2-1 0 0,15-8 582 0 0,1 1-1 0 0,1 2 0 0 0,0 0 0 0 0,48-10 1 0 0,-38 11-302 0 0,0 3 0 0 0,0 0 0 0 0,60 1 0 0 0,-89 4-336 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,8 5 0 0 0,-11-6-28 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 3-1 0 0,-2 10 260 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-7 14 0 0 0,6-14-159 0 0,0-1 1 0 0,0 1-1 0 0,-4 22 1 0 0,8-30-87 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,4 10-1 0 0,-4-12-21 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,4-1-1 0 0,-1-1 43 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-2-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,4-5 1 0 0,-3 5-18 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,-3-6 0 0 0,1 1-17 0 0,-1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,-13-16 0 0 0,16 22-15 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-6 0-1 0 0,-28 1-83 0 0,36 0 40 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-2 2 1 0 0,3-1-355 0 0,7 7-1419 0 0,4-2 260 0 0,4-1-61 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-823.04">6128 3992 13184 0 0,'1'-2'298'0'0,"0"0"-232"0"0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-3-3-1 0 0,-2-2 330 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-10-8 0 0 0,13 12-73 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,-9 1-1 0 0,14 0-242 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 1-1 0 0,1-1 464 0 0,-2 6-25 0 0,2-6-500 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,16 19 66 0 0,-6-9-19 0 0,5 7 120 0 0,33 31 1 0 0,-31-34-93 0 0,-2 0 1 0 0,21 26-1 0 0,-33-36-92 0 0,1 0 62 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,6 14-1 0 0,-10-18-33 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,-2 3 1 0 0,-2 1 48 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-2-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,-9 4 0 0 0,-53 15-7 0 0,62-20-79 0 0,-5 2-28 0 0,-1-1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-21-2 1 0 0,32 1-99 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0-3 0 0 0,6-8-1577 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-404.22">6656 3472 19895 0 0,'0'0'1515'0'0,"0"2"-1032"0"0,0 10-347 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,-6 19 0 0 0,-26 52 1431 0 0,18-46-1126 0 0,-50 138 710 0 0,58-145-965 0 0,1 1 0 0 0,2 1 1 0 0,1-1-1 0 0,-1 32 0 0 0,1 20-2412 0 0,-3 1-3780 0 0,1-50-1985 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="939.6">5600 4924 18631 0 0,'0'2'422'0'0,"0"20"667"0"0,1 6-458 0 0,-5 37-1 0 0,-1-6 2270 0 0,4-54-2774 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,1 6 1 0 0,0 7 696 0 0,0-17-608 0 0,-1-1-214 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,3-5-28 0 0,-4 6 25 0 0,2-6-106 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-11 0 0 0,-7-43-260 0 0,4 44 314 0 0,0 0 12 0 0,-1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,-1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,-15-22 0 0 0,7 12 166 0 0,14 21 149 0 0,9 15-149 0 0,9 18-106 0 0,-6-11 224 0 0,0 0-1 0 0,1 0 0 0 0,1-1 0 0 0,0-1 0 0 0,29 29 0 0 0,-38-42-251 0 0,10 8 83 0 0,0-1 0 0 0,24 16 0 0 0,-32-23-60 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-2-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,6-1 0 0 0,-3-1-26 0 0,0 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,6-7 0 0 0,-7 6 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-13 0 0 0,-7-14-2 0 0,2 28-64 0 0,-10 13-16 0 0,10-5 96 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 2 0 0 0,-1 8 0 0 0,-3 22 0 0 0,6-28 0 0 0,-1 3-54 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,4 15-1 0 0,-5-22-124 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 0-1 0 0,2 4 1 0 0,8 6-6268 0 0,-1-5-1259 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1451.88">6211 4853 8752 0 0,'-2'-4'217'0'0,"1"3"-174"0"0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,-5-1 5547 0 0,-3 5-3298 0 0,7-1-2019 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 3-1 0 0,-2 9 599 0 0,-7 26 0 0 0,4-10 195 0 0,1-7-822 0 0,0 0 0 0 0,2 0 1 0 0,1 0-1 0 0,-2 42 0 0 0,6-60-236 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,3 9 1 0 0,-3-14 674 0 0,0-3-475 0 0,0 1-205 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-2 0 0 0,0-1-9 0 0,5-5-7 0 0,-1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,5-16-1 0 0,6-68-234 0 0,-11 65 128 0 0,10-44 0 0 0,13-1-183 0 0,-26 73 307 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,7 10 269 0 0,-7-10-264 0 0,9 16 272 0 0,10 32 1 0 0,-13-31-244 0 0,14 26-1 0 0,-11-26 46 0 0,0-1 0 0 0,2-1 0 0 0,0 0 0 0 0,0 0-1 0 0,21 19 1 0 0,-28-30-62 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,7-1-1 0 0,-10 1-3 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-2 0 0 0,-1-3 41 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-5-6-1 0 0,-61-117-2249 0 0,67 128 1916 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,2 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,3-3-1 0 0,4-3-1355 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1821.15">6686 4746 16096 0 0,'0'0'1459'0'0,"-1"1"-1203"0"0,-17 47 676 0 0,13-35 246 0 0,0-1-1 0 0,-6 27 0 0 0,7-22-795 0 0,-8 20 0 0 0,0-4 89 0 0,-9 48 0 0 0,13-48-357 0 0,7-27-98 0 0,1-5 200 0 0,7-21-152 0 0,8-19 78 0 0,-10 28-82 0 0,-1 0 1 0 0,0-1 0 0 0,3-12-1 0 0,24-90 213 0 0,-27 104-242 0 0,1-6-13 0 0,2 0 0 0 0,0 1 0 0 0,1 0 0 0 0,1 0 0 0 0,10-14 0 0 0,-16 25 52 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,6-1 0 0 0,-8 4-50 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 2 1 0 0,9 20 123 0 0,-1-1 1 0 0,-1 2 0 0 0,-1-1 0 0 0,-2 1 0 0 0,5 26 0 0 0,-4-18-165 0 0,21 58 0 0 0,-25-83-221 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 9 0 0 0,-3-13-2263 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2289.77">6475 4950 14912 0 0,'0'0'730'0'0,"2"0"-316"0"0,4-3-343 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,13 0 0 0 0,52 0 218 0 0,-45 3-11 0 0,100-8-323 0 0,-86 4-206 0 0,-10 0-1363 0 0,29-7 0 0 0,-56 9 1323 0 0,27-5-4685 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2290.77">7263 4762 10912 0 0,'5'-7'177'0'0,"-4"6"-148"0"0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-2-1 0 0 0,-3-7-182 0 0,3 7 398 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,-3-1 0 0 0,0-1 238 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-14 2 0 0 0,20-2-406 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 1 0 0 0,3 5 100 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,7 9 1 0 0,-11-14-145 0 0,15 18 95 0 0,31 38 25 0 0,-27-28-100 0 0,-5-10 66 0 0,11 22-1 0 0,-21-34 3 0 0,-2 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,2 14 0 0 0,-5-19-70 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,-2 3 1 0 0,1-3 1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,-8 4-1 0 0,-2-1 39 0 0,0 0-1 0 0,-1-1 0 0 0,0 0 1 0 0,-26 4-1 0 0,23-5-47 0 0,0-2 1 0 0,-1 0-1 0 0,1-1 1 0 0,0-1-1 0 0,-1 0 0 0 0,-20-4 1 0 0,32 3-275 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,-4-9 0 0 0,2-2-1208 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20333,8 +20394,8 @@
       <inkml:brushProperty name="color" value="#FFC114"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">396 476 12440 0 0,'0'0'957'0'0,"-8"-10"1314"0"0,6 6-2093 0 0,1-1 1 0 0,-1 2-1 0 0,1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-6-1 0 0,4-5-194 0 0,-1 3 51 0 0,-1 0 0 0 0,1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,1 2 0 0 0,0-1 0 0 0,12-15 0 0 0,-5 10 38 0 0,-5 7 53 0 0,0 0 0 0 0,0 1 0 0 0,15-13-1 0 0,-12 12-24 0 0,-1 2-16 0 0,0-1 1 0 0,1 1-1 0 0,13-6 1 0 0,-22 11-83 0 0,0 1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,5 3-1 0 0,-5-3-20 0 0,-1 0 1 0 0,1 2-1 0 0,-1-2 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-2 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,0 3 1 0 0,-1 7-89 0 0,-1-1 1 0 0,-1 1-1 0 0,-4 10 0 0 0,-3 5 268 0 0,-2 1-1 0 0,-1-1 0 0 0,-26 38 1 0 0,16-37 251 0 0,18-21-424 0 0,5-6-54 0 0,33-1-636 0 0,-9-1 560 0 0,0 1-1 0 0,0 2 1 0 0,27 4-1 0 0,-39-4 106 0 0,-1 0-26 0 0,-1 0 0 0 0,1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0-1 0 0,0 1 1 0 0,9 5 0 0 0,-17-9 42 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 2 0 0 0,0 0 0 0 0,0-1 24 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-3 1 1 0 0,-4 6 98 0 0,-1-2 0 0 0,0 1 1 0 0,0-2-1 0 0,-13 8 0 0 0,21-14-103 0 0,-11 7 128 0 0,-1-2-1 0 0,-1 1 1 0 0,1-2-1 0 0,-1 0 1 0 0,0-1-1 0 0,-26 4 0 0 0,2-1-79 0 0,-16-1-170 0 0,21-3-42 0 0,14-1-116 0 0,-1 0 0 0 0,-33-3 0 0 0,13-5-5325 0 0,25 3 342 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="543.66">132 247 8752 0 0,'-7'6'793'0'0,"2"1"-596"0"0,1-1-1 0 0,0 0 1 0 0,-6 11-1 0 0,2 3 2745 0 0,-8 22 0 0 0,10-21-2826 0 0,1 0-1 0 0,0 0 1 0 0,2 1 0 0 0,0-1 0 0 0,1 1 0 0 0,2 1-1 0 0,0-1 1 0 0,1 0 0 0 0,1 0 0 0 0,6 32-1 0 0,-3-37-68 0 0,0 0 0 0 0,1 0 0 0 0,0 0-1 0 0,2-2 1 0 0,0 1 0 0 0,0 0 0 0 0,1-1-1 0 0,1 0 1 0 0,1-2 0 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,1-1 0 0 0,0-1 0 0 0,17 12-1 0 0,6 1-45 0 0,1-2 0 0 0,71 30-1 0 0,-90-44 3 0 0,1-2-1 0 0,0-1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-3-1 0 0,0 0 1 0 0,0-1-1 0 0,25-2 0 0 0,-13-3 63 0 0,0-2 0 0 0,0-1 0 0 0,-1-1-1 0 0,0-3 1 0 0,0-1 0 0 0,-1 0 0 0 0,-1-2-1 0 0,0-2 1 0 0,-1-1 0 0 0,35-27 0 0 0,-38 24 42 0 0,-1 0 1 0 0,0-2-1 0 0,-2-2 1 0 0,-1 1-1 0 0,36-53 0 0 0,-47 60-73 0 0,0-1-1 0 0,-2 0 0 0 0,0 1 0 0 0,-1-2 0 0 0,-1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1-34 1 0 0,-2 38 13 0 0,0 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-2 0 0 0 0,1 2 0 0 0,-2-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-2 2 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 2 0 0 0,0-1 0 0 0,-21-20 0 0 0,16 21 4 0 0,0 0 0 0 0,-1 2-1 0 0,0-1 1 0 0,-1 2 0 0 0,-24-10-1 0 0,-87-24 32 0 0,91 33-223 0 0,0 1-1 0 0,0 2 1 0 0,-1 2 0 0 0,0 1 0 0 0,1 2-1 0 0,-1 2 1 0 0,0 2 0 0 0,1 0-1 0 0,-1 4 1 0 0,1 0 0 0 0,0 3 0 0 0,1 0-1 0 0,0 3 1 0 0,1 1 0 0 0,0 1-1 0 0,1 2 1 0 0,-57 40 0 0 0,-3 14-1013 0 0,11 4-11 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">396 451 12440 0 0,'0'0'957'0'0,"-8"-10"1314"0"0,6 6-2093 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-5-1 0 0,4-6-194 0 0,-1 4 51 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,12-15 0 0 0,-5 10 38 0 0,-5 6 53 0 0,0 1 0 0 0,0 0 0 0 0,15-12-1 0 0,-12 12-24 0 0,-1 1-16 0 0,0 0 1 0 0,1 0-1 0 0,13-5 1 0 0,-22 10-83 0 0,0 1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,5 3-1 0 0,-5-3-20 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 3 1 0 0,-1 6-89 0 0,-1 0 1 0 0,-1 0-1 0 0,-4 10 0 0 0,-3 5 268 0 0,-2 0-1 0 0,-1 0 0 0 0,-26 35 1 0 0,16-34 251 0 0,18-21-424 0 0,5-5-54 0 0,33-1-636 0 0,-9-1 560 0 0,0 1-1 0 0,0 2 1 0 0,27 4-1 0 0,-39-4 106 0 0,-1 0-26 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,9 6 0 0 0,-17-9 42 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,0-1 24 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-3 1 1 0 0,-4 5 98 0 0,-1-1 0 0 0,0 0 1 0 0,0-1-1 0 0,-13 7 0 0 0,21-13-103 0 0,-11 7 128 0 0,-1-2-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,0-1-1 0 0,-26 3 0 0 0,2 0-79 0 0,-16-1-170 0 0,21-3-42 0 0,14-1-116 0 0,-1 0 0 0 0,-33-3 0 0 0,13-5-5325 0 0,25 3 342 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="543.66">132 234 8752 0 0,'-7'6'793'0'0,"2"0"-596"0"0,1 0-1 0 0,0 0 1 0 0,-6 10-1 0 0,2 3 2745 0 0,-8 20 0 0 0,10-19-2826 0 0,1 0-1 0 0,0 0 1 0 0,2 1 0 0 0,0-1 0 0 0,1 1 0 0 0,2 0-1 0 0,0 0 1 0 0,1 0 0 0 0,1 0 0 0 0,6 30-1 0 0,-3-35-68 0 0,0 0 0 0 0,1 0 0 0 0,0 0-1 0 0,2-1 1 0 0,0 0 0 0 0,0 0 0 0 0,1-1-1 0 0,1 0 1 0 0,1-1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,1 0 0 0 0,0-2 0 0 0,17 12-1 0 0,6 1-45 0 0,1-2 0 0 0,71 28-1 0 0,-90-42 3 0 0,1-1-1 0 0,0-1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1-2-1 0 0,0 0 1 0 0,0-1-1 0 0,25-2 0 0 0,-13-3 63 0 0,0-1 0 0 0,0-2 0 0 0,-1-1-1 0 0,0-2 1 0 0,0-1 0 0 0,-1-1 0 0 0,-1-1-1 0 0,0-2 1 0 0,-1-1 0 0 0,35-26 0 0 0,-38 23 42 0 0,-1 0 1 0 0,0-2-1 0 0,-2-1 1 0 0,-1 0-1 0 0,36-50 0 0 0,-47 57-73 0 0,0-1-1 0 0,-2 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1-32 1 0 0,-2 36 13 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 0 0 0 0,1 1 0 0 0,-2 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-2 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,-21-19 0 0 0,16 19 4 0 0,0 1 0 0 0,-1 1-1 0 0,0 0 1 0 0,-1 1 0 0 0,-24-9-1 0 0,-87-23 32 0 0,91 32-223 0 0,0 0-1 0 0,0 3 1 0 0,-1 1 0 0 0,0 1 0 0 0,1 2-1 0 0,-1 2 1 0 0,0 2 0 0 0,1 0-1 0 0,-1 3 1 0 0,1 1 0 0 0,0 2 0 0 0,1 1-1 0 0,0 2 1 0 0,1 1 0 0 0,0 2-1 0 0,1 1 1 0 0,-57 38 0 0 0,-3 13-1013 0 0,11 4-11 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20366,7 +20427,7 @@
       <inkml:brushProperty name="color" value="#FFC114"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3597 4 2304 0 0,'0'0'15550'0'0,"1"0"-15539"0"0,4-3 30 0 0,-4 2 202 0 0,0 2-169 0 0,1 1-72 0 0,0 0-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 2 0 0 0,-1-1 1 0 0,1 3-1 0 0,1 43-3 0 0,8 193-34 0 0,-4 113 22 0 0,-11-267-150 0 0,-4-1 1 0 0,-31 140-1 0 0,-28 12 885 0 0,52-194-563 0 0,-2 0-1 0 0,-2-1 1 0 0,-27 45 0 0 0,-66 73 275 0 0,-12-10 89 0 0,51-65-134 0 0,45-53-189 0 0,-2-1-1 0 0,0-1 1 0 0,-2-3 0 0 0,-1-1 0 0 0,-1-2 0 0 0,-2-1 0 0 0,-43 22-1 0 0,-10-3 412 0 0,-145 49-1 0 0,22-31-183 0 0,-93 34 89 0 0,205-52-469 0 0,1 2-1 0 0,3 7 0 0 0,-94 65 1 0 0,94-46-15 0 0,-119 112 0 0 0,152-120-48 0 0,2 3 0 0 0,-77 107-1 0 0,84-93 50 0 0,-64 123 0 0 0,67-104-29 0 0,-39 81-22 0 0,9-23-154 0 0,-17 43 64 0 0,81-158 76 0 0,-43 121 260 0 0,32-85-157 0 0,19-56-57 0 0,-11 39 0 0 0,9-18-13 0 0,3-14 0 0 0,2 1 0 0 0,-7 55 0 0 0,2 35-84 0 0,5-58-48 0 0,7-61 113 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 3 0 0 0,1-1-58 0 0,0-3-168 0 0,-5-12 105 0 0,4 9 216 0 0,1 0 0 0 0,-1-2 0 0 0,1 2 1 0 0,0 0-1 0 0,0-1 0 0 0,-1-3 0 0 0,-14-47-76 0 0,-9-43 0 0 0,24 95 0 0 0,-62-199 0 0 0,15 97 0 0 0,46 97 0 0 0,2 5 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1-2 0 0 0,21 38 232 0 0,-13-21-260 0 0,0 2 0 0 0,-2 0 0 0 0,6 30 0 0 0,1 49-22 0 0,-9-74 75 0 0,1 4 44 0 0,9 33 0 0 0,0-3-6 0 0,-3-24-63 0 0,-7-25 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,0 7 0 0 0,1-4 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,8 16 0 0 0,-11-25 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,2-1 10 0 0,5-5-2 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1-1-1 0 0,8-12 1 0 0,13-12 7 0 0,-12 16-17 0 0,23-31 0 0 0,-32 39 0 0 0,0 1 0 0 0,0-2 0 0 0,0 3 0 0 0,14-11 0 0 0,9-9 0 0 0,-7 5 39 0 0,1 0 0 0 0,36-24 0 0 0,-2 3 4 0 0,19-10-43 0 0,-10 7 0 0 0,-31 18 171 0 0,-28 24-112 0 0,-1 0-49 0 0,-4-1 8 0 0,-2 1 492 0 0,0 1-430 0 0,-2-6-150 0 0,1 7 56 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,2-6 14 0 0,-4 3 0 0 0,2-1-10 0 0,0 4-44 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3597 4 2304 0 0,'0'0'15550'0'0,"1"0"-15539"0"0,4-3 30 0 0,-4 2 202 0 0,0 2-169 0 0,1 1-72 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 3-1 0 0,1 40-3 0 0,8 184-34 0 0,-4 106 22 0 0,-11-253-150 0 0,-4 0 1 0 0,-31 132-1 0 0,-28 11 885 0 0,52-183-563 0 0,-2 0-1 0 0,-2-2 1 0 0,-27 44 0 0 0,-66 68 275 0 0,-12-9 89 0 0,51-61-134 0 0,45-51-189 0 0,-2-1-1 0 0,0-1 1 0 0,-2-2 0 0 0,-1-2 0 0 0,-1-1 0 0 0,-2-1 0 0 0,-43 20-1 0 0,-10-2 412 0 0,-145 46-1 0 0,22-29-183 0 0,-93 32 89 0 0,205-50-469 0 0,1 3-1 0 0,3 6 0 0 0,-94 62 1 0 0,94-44-15 0 0,-119 107 0 0 0,152-115-48 0 0,2 4 0 0 0,-77 101-1 0 0,84-89 50 0 0,-64 118 0 0 0,67-100-29 0 0,-39 78-22 0 0,9-22-154 0 0,-17 40 64 0 0,81-149 76 0 0,-43 114 260 0 0,32-80-157 0 0,19-53-57 0 0,-11 37 0 0 0,9-18-13 0 0,3-12 0 0 0,2 0 0 0 0,-7 53 0 0 0,2 32-84 0 0,5-54-48 0 0,7-58 113 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 3 0 0 0,1-1-58 0 0,0-3-168 0 0,-5-12 105 0 0,4 9 216 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1-3 0 0 0,-14-44-76 0 0,-9-41 0 0 0,24 90 0 0 0,-62-188 0 0 0,15 91 0 0 0,46 92 0 0 0,2 5 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1-2 0 0 0,21 36 232 0 0,-13-19-260 0 0,0 1 0 0 0,-2 0 0 0 0,6 29 0 0 0,1 46-22 0 0,-9-70 75 0 0,1 3 44 0 0,9 32 0 0 0,0-3-6 0 0,-3-22-63 0 0,-7-25 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 8 0 0 0,1-5 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,8 14 0 0 0,-11-23 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,2-1 10 0 0,5-4-2 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,8-12 1 0 0,13-12 7 0 0,-12 16-17 0 0,23-29 0 0 0,-32 36 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,14-10 0 0 0,9-9 0 0 0,-7 5 39 0 0,1 0 0 0 0,36-22 0 0 0,-2 2 4 0 0,19-10-43 0 0,-10 8 0 0 0,-31 16 171 0 0,-28 23-112 0 0,-1 0-49 0 0,-4-1 8 0 0,-2 2 492 0 0,0 0-430 0 0,-2-6-150 0 0,1 7 56 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,2-5 14 0 0,-4 2 0 0 0,2-1-10 0 0,0 4-44 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20398,8 +20459,8 @@
       <inkml:brushProperty name="color" value="#FFC114"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2734 103 3224 0 0,'0'0'9482'0'0,"-11"0"-6948"0"0,5 1-1998 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-5 4 0 0 0,-23 8 544 0 0,-41 16 135 0 0,57-24-1152 0 0,-30 8 0 0 0,12-5-34 0 0,14-2-24 0 0,-77 26 52 0 0,-104 33-58 0 0,154-52 0 0 0,-94 26-64 0 0,-106 34-109 0 0,-335 140-382 0 0,458-154 432 0 0,-12 8 156 0 0,-74 27 305 0 0,151-66-356 0 0,-32 15-324 0 0,22-11 214 0 0,-114 37 320 0 0,156-60-64 0 0,-33 6 0 0 0,29-6-45 0 0,25-9-33 0 0,1 2-1 0 0,-16 1 1 0 0,8 0-16 0 0,3 1-4 0 0,11-6-30 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-2 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-11 4-13 0 0,4-4-52 0 0,6-1-27 0 0,5-7-2969 0 0,3-1 1131 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1638.51">2524 103 3224 0 0,'6'-11'824'0'0,"5"-33"1600"0"0,-10 42-2289 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-2-4-1 0 0,-3-5 3117 0 0,5 10-3126 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-2-1-1 0 0,-17 8 847 0 0,14-5-868 0 0,3-2-99 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-3 3 1 0 0,3-3-3 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-17 12 252 0 0,17-12-235 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,7 2 118 0 0,0 1 0 0 0,-1-2 0 0 0,13 3 0 0 0,-13-3-180 0 0,21 3 187 0 0,45-1-1 0 0,52-6 1828 0 0,-126 3-1958 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 2 0 0 0,-14 9 64 0 0,10-9-52 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-9 8 0 0 0,5-5-23 0 0,-1 1 0 0 0,-16 8 0 0 0,21-13-30 0 0,1 2 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-2 9-1 0 0,4-11-20 0 0,1-1 45 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 2 0 0 0,-1-1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 2 1 0 0,1-1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 1 0 0 0,-1 5 4 0 0,0 1 0 0 0,5 4 0 0 0,-2-4 0 0 0,0 1-13 0 0,-2-7-40 0 0,1 3 6 0 0,-1-4-126 0 0,1-1-309 0 0,10-3 241 0 0,-9 0 233 0 0,3-5-44 0 0,-2 4 42 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,2-5-1 0 0,14-26 4 0 0,-17 34 11 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0-1-1 0 0,1-2 1 0 0,-2 6 7 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-14-14 493 0 0,10 12-468 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-4-1 1 0 0,-35-4-72 0 0,5 0 47 0 0,3 5 0 0 0,56 9 96 0 0,9 2-97 0 0,-21-8-10 0 0,29 14 0 0 0,-20-11 0 0 0,-4-3 0 0 0,2 1-7 0 0,-16-2 17 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,2-1 0 0 0,-75-3 630 0 0,49 1-728 0 0,18 0 88 0 0,10-1 0 0 0,-1 1 0 0 0,23-8 0 0 0,-19 11 0 0 0,1 0 11 0 0,-4 0 43 0 0,5-3-65 0 0,-9 3-43 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2734 98 3224 0 0,'0'0'9482'0'0,"-11"0"-6948"0"0,5 1-1998 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-5 3 0 0 0,-23 9 544 0 0,-41 14 135 0 0,57-22-1152 0 0,-30 7 0 0 0,12-4-34 0 0,14-3-24 0 0,-77 26 52 0 0,-104 31-58 0 0,154-50 0 0 0,-94 25-64 0 0,-106 32-109 0 0,-335 134-382 0 0,458-146 432 0 0,-12 6 156 0 0,-74 27 305 0 0,151-63-356 0 0,-32 13-324 0 0,22-9 214 0 0,-114 35 320 0 0,156-58-64 0 0,-33 6 0 0 0,29-5-45 0 0,25-9-33 0 0,1 1-1 0 0,-16 2 1 0 0,8 0-16 0 0,3 1-4 0 0,11-6-30 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-11 4-13 0 0,4-4-52 0 0,6-1-27 0 0,5-7-2969 0 0,3 0 1131 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1638.51">2524 98 3224 0 0,'6'-10'824'0'0,"5"-32"1600"0"0,-10 40-2289 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-2-4-1 0 0,-3-4 3117 0 0,5 9-3126 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-2-1-1 0 0,-17 8 847 0 0,14-6-868 0 0,3-1-99 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-3 3 1 0 0,3-3-3 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-17 11 252 0 0,17-11-235 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,7 2 118 0 0,0 1 0 0 0,-1-2 0 0 0,13 2 0 0 0,-13-2-180 0 0,21 3 187 0 0,45-1-1 0 0,52-6 1828 0 0,-126 3-1958 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 2 0 0 0,-14 8 64 0 0,10-8-52 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-9 7 0 0 0,5-4-23 0 0,-1 0 0 0 0,-16 9 0 0 0,21-13-30 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-2 8-1 0 0,4-10-20 0 0,1-1 45 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 2 1 0 0,1-1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 1 0 0 0,-1 5 4 0 0,0 0 0 0 0,5 5 0 0 0,-2-4 0 0 0,0 0-13 0 0,-2-6-40 0 0,1 3 6 0 0,-1-4-126 0 0,1-1-309 0 0,10-3 241 0 0,-9 0 233 0 0,3-5-44 0 0,-2 5 42 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,2-6-1 0 0,14-24 4 0 0,-17 32 11 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1-3 1 0 0,-2 6 7 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-14-13 493 0 0,10 11-468 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-4-1 1 0 0,-35-4-72 0 0,5 1 47 0 0,3 4 0 0 0,56 8 96 0 0,9 3-97 0 0,-21-8-10 0 0,29 13 0 0 0,-20-10 0 0 0,-4-3 0 0 0,2 1-7 0 0,-16-2 17 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,2-1 0 0 0,-75-3 630 0 0,49 1-728 0 0,18 0 88 0 0,10-1 0 0 0,-1 1 0 0 0,23-7 0 0 0,-19 10 0 0 0,1 0 11 0 0,-4 0 43 0 0,5-3-65 0 0,-9 3-43 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20431,36 +20492,36 @@
       <inkml:brushProperty name="color" value="#FFC114"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">283 2403 16815 0 0,'0'0'1879'0'0,"4"9"-1310"0"0,16 12-45 0 0,-5-6-247 0 0,14 22 1 0 0,22 31 67 0 0,25 37-129 0 0,40 85-103 0 0,103 151-522 0 0,-136-216 192 0 0,-49-70-938 0 0,57 68-1 0 0,-81-113-3295 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="562.79">0 2456 18399 0 0,'1'-2'422'0'0,"2"-9"-162"0"0,1 2 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,9-11 0 0 0,-7 9-247 0 0,16-29-11 0 0,23-35 61 0 0,-38 64-23 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,14-11 0 0 0,11-5 65 0 0,64-40-1 0 0,-82 57-158 0 0,1 2-1 0 0,-1-1 1 0 0,1 3 0 0 0,1 0-1 0 0,-1 0 1 0 0,32-5 0 0 0,-41 11-15 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 2 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 2 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,4 7 0 0 0,1 2-93 0 0,0 1 0 0 0,-2 0-1 0 0,0 1 1 0 0,0 0 0 0 0,-2 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,0 0 1 0 0,-2 0 0 0 0,0 1 0 0 0,1 19-1 0 0,-2 26 166 0 0,-2 1 0 0 0,-3-1 0 0 0,-3 0-1 0 0,-2-1 1 0 0,-3 1 0 0 0,-2-1 0 0 0,-4-1-1 0 0,-1-1 1 0 0,-44 97 0 0 0,55-141 100 0 0,-1-2 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,-19 17 0 0 0,15-15 47 0 0,13-13-13 0 0,11-7-46 0 0,224-169-271 0 0,-192 147 197 0 0,-1-2 0 0 0,67-67 0 0 0,-97 85-10 0 0,0-1 1 0 0,-1 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,-1-2-1 0 0,0 2 1 0 0,6-31-1 0 0,-9 34-5 0 0,0 0 1 0 0,-1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,-1 2 1 0 0,0-2-1 0 0,0 1 0 0 0,-1-1 1 0 0,0 2-1 0 0,-1-2 1 0 0,0 2-1 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,-12-16-1 0 0,8 14 43 0 0,0 0 0 0 0,-1-1-1 0 0,-1 3 1 0 0,1-2 0 0 0,-2 3 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,-23-10-1 0 0,31 17 25 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 2 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-6 2 0 0 0,7-2-36 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 2 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 5 0 0 0,-2 9 14 0 0,1-2 0 0 0,1 1 1 0 0,0 1-1 0 0,1 0 0 0 0,1-2 0 0 0,0 2 0 0 0,1-1 0 0 0,3 20 0 0 0,1-4-41 0 0,2 0 0 0 0,2-1 1 0 0,11 31-1 0 0,-15-48 16 0 0,0-1 0 0 0,0-2 0 0 0,1 2 1 0 0,0-2-1 0 0,1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-2 0 0 0,0 1 0 0 0,0-1 0 0 0,1-1 1 0 0,0 1-1 0 0,1-2 0 0 0,20 10 0 0 0,-19-11 14 0 0,1-1-1 0 0,0 1 0 0 0,0-2 1 0 0,0 0-1 0 0,0-1 0 0 0,20 1 1 0 0,-27-3-210 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0-1 0 0 0,-1 1-1 0 0,8-3 1 0 0,-9 2-465 0 0,0-2 0 0 0,0 2-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,4-8 0 0 0,10-9-5708 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1037.22">999 1934 16439 0 0,'-9'12'306'0'0,"1"0"-1"0"0,1 1 1 0 0,0 0-1 0 0,0 1 0 0 0,-6 16 1 0 0,4-7-331 0 0,5-13 28 0 0,1 0-1 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 18 0 0 0,1 57 86 0 0,3-53-42 0 0,-1-17-50 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,6 15 0 0 0,-7-24 3 0 0,0 0-1 0 0,1 1 1 0 0,-1-2-1 0 0,1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1-1 0 0 0,1 2 1 0 0,0-2-1 0 0,0 0 1 0 0,1 0-1 0 0,10 5 0 0 0,-13-7 2 0 0,-2-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,4-1 0 0 0,3-2 0 0 0,-5 3 0 0 0,-1-1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,5-4 0 0 0,-7 2 0 0 0,0 2 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-3 0 0 0,4-9 0 0 0,-4 12 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-4 0 0 0,0 0 23 0 0,0-2-1 0 0,-1 2 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,-3-11 0 0 0,1 7 4 0 0,-30-81 169 0 0,32 89-174 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,1-5 0 0 0,-1 8-15 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-2 1 0 0,0 2 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 2 0 0 0,1-2-1 0 0,6 3-4 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 2 0 0 0,0-1 0 0 0,9 7 0 0 0,3 4 0 0 0,156 120 0 0 0,-164-126 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 2 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,7 20 0 0 0,-12-24 0 0 0,0 1 1 0 0,-1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,2 19 0 0 0,0-1 10 0 0,-4-25-1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-2 5 1 0 0,-16 29 97 0 0,3-7-13 0 0,11-19-119 0 0,-1 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,0-2 0 0 0,0 2 0 0 0,-1-3 0 0 0,-1 2 0 0 0,1-2 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-22 6 0 0 0,26-10-129 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0-1 0 0 0,-10-3 0 0 0,13 3 40 0 0,1-1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-2 1 0 0,-1 2 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-3-6 0 0 0,-9-19-557 0 0,3-6 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1378.2">1108 1786 17303 0 0,'0'1'396'0'0,"1"5"-182"0"0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,6 10-1 0 0,0 2-210 0 0,14 27-3 0 0,1-1 0 0 0,1-2 0 0 0,47 60 0 0 0,-63-92 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,17 11 0 0 0,2 2 0 0 0,-17-13-252 0 0,22 11-1 0 0,-3 0-904 0 0,-28-18 865 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,4-1-1 0 0,-3 1-69 0 0,2 0-1612 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1755.72">1300 1617 10136 0 0,'-5'1'282'0'0,"4"-1"-243"0"0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-2 1 0 0 0,-8 8 970 0 0,9-9-698 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 1 0 0 0,1-2 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 3 0 0 0,0 5-211 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,5 14-1 0 0,-5-20-119 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 2 1 0 0,0-2-1 0 0,0 0 0 0 0,0 0 1 0 0,6 6-1 0 0,1-1 85 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,23 9 0 0 0,53 18 37 0 0,-62-26-87 0 0,0 0 0 0 0,-1 2 0 0 0,24 15 0 0 0,-10 2-21 0 0,-36-27 13 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,2 5 0 0 0,0 3 8 0 0,-4-10-11 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 2 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-2 5-1 0 0,1-1-5 0 0,1-5-18 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 2-1 0 0,1-2 1 0 0,0 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-2 1 0 0 0,-2 1-38 0 0,-19 19-380 0 0,21-20 228 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-4 0 0 0 0,5-1 166 0 0,-16 9-1221 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2297.45">1324 1246 5528 0 0,'0'0'422'0'0,"-17"-5"11233"0"0,21 17-9880 0 0,10 16-2796 0 0,-6-16 1021 0 0,1 0 0 0 0,1-1 0 0 0,14 13 0 0 0,2 3 0 0 0,-10-12 1 0 0,0-1-1 0 0,20 15 1 0 0,21 18-15 0 0,2 5-46 0 0,9 8 50 0 0,-51-42-30 0 0,16 13-110 0 0,38 52 0 0 0,-38-47-247 0 0,-24-27 182 0 0,-1-1 1 0 0,-1 2-1 0 0,1-1 1 0 0,7 13-1 0 0,-5-7-238 0 0,1 2-355 0 0,-10-16 378 0 0,-9 1-1770 0 0,4-1 2041 0 0,-1-1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-7-2 1 0 0,-34-17 105 0 0,44 19 66 0 0,-12-7 349 0 0,0 1 0 0 0,1 0 1 0 0,0-3-1 0 0,1 2 0 0 0,-11-13 0 0 0,-34-38 1325 0 0,53 54-1604 0 0,1 2 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-2-5-1 0 0,-8-21 340 0 0,8 25-379 0 0,1 2-24 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-2 0 0 0,1 2 0 0 0,0-1 0 0 0,1-7 0 0 0,2-7 34 0 0,-2 5-41 0 0,8-23-1 0 0,-8 32-5 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,2 1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,0 0-1 0 0,3-3 0 0 0,4-4 33 0 0,1 1-1 0 0,0 0 1 0 0,1 1-1 0 0,13-9 1 0 0,-19 16-22 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 1-1 0 0,7 0 1 0 0,-6 0-20 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,5 4 1 0 0,-3-1-86 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,5 13 1 0 0,3 0 43 0 0,-12-19 44 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,2 5 1 0 0,-2 3 0 0 0,-1-9 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 2 0 0 0,1 0 0 0 0,-2-4 0 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 3 0 0 0,-1-3 113 0 0,-2-8-178 0 0,3-13-24 0 0,-1 18 88 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-4 1 0 0,-23-76-164 0 0,10 32 56 0 0,-28-70 1 0 0,41 119 85 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1-1 0 0,0-2 1 0 0,0 3 13 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,2 0 17 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,17 12 181 0 0,0-1 1 0 0,1-2-1 0 0,0 0 1 0 0,31 9-1 0 0,-38-15-155 0 0,0 0 0 0 0,1-2 0 0 0,-1 1 0 0 0,1-2 0 0 0,21 1 0 0 0,-29-2 13 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-2 0 0 0,0 1 1 0 0,-1-1-1 0 0,11-7 0 0 0,-13 6 45 0 0,0 2-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-2 0 0 0,0 1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-2 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,-1-2-1 0 0,1 2 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,-1-4-1 0 0,-1-1 20 0 0,0 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,0 1 1 0 0,-1-2 0 0 0,0 2 0 0 0,-11-13-1 0 0,11 15-86 0 0,0 1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-12-4 1 0 0,-7-5 70 0 0,19 10-80 0 0,1 0-1 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 2 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-11 3 1 0 0,2 1-274 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,-20 11-1 0 0,10-4-1468 0 0,17-6 260 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2701.62">2232 611 14368 0 0,'0'0'705'0'0,"-5"3"32"0"0,2-2-726 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-2 4-1 0 0,-3 5-1 0 0,-6 4-10 0 0,11-14 4 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 3 0 0 0,0-3 4 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,-2 2-1 0 0,2-2 15 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 2 0 0 0,1 4 153 0 0,-1-1 1 0 0,2 1-1 0 0,3 13 0 0 0,-4-19-113 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1 0 1 0 0,0-2-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,3 3 0 0 0,3 0 91 0 0,0 2-1 0 0,1-3 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,14 0 1 0 0,-3-2 28 0 0,1 0 0 0 0,32-5 1 0 0,-43 4-159 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 2 1 0 0,-1 0-1 0 0,0 0 1 0 0,10 6-1 0 0,-18-9 2 0 0,1 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1-1-1 0 0,-1 4 1 0 0,1-2 5 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 2 1 0 0,0-2 0 0 0,-1 3 0 0 0,-9 14 66 0 0,3-1-56 0 0,-2-1 1 0 0,0-2-1 0 0,-1 1 1 0 0,-17 19-1 0 0,9-11-34 0 0,16-20-24 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 2 0 0 0,-6 2 0 0 0,1-2-66 0 0,5-2-95 0 0,-1 1-1 0 0,1-1 1 0 0,-1-1 0 0 0,-8 3-1 0 0,12-5 33 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1-1 0 0 0,-4-9-5551 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3032.79">2212 7 16959 0 0,'0'0'778'0'0,"2"-1"-20"0"0,-2 1-713 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,3 7 720 0 0,-4-4-831 0 0,11 20 272 0 0,16 47-1 0 0,-12-28-202 0 0,14 47 44 0 0,-16-47 126 0 0,23 52-1 0 0,5 0 144 0 0,-22-45-8 0 0,32 55-1 0 0,-3-22-208 0 0,69 89-1 0 0,25 28-1607 0 0,-138-194 1332 0 0,27 43-1497 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3850.44">1466 3260 10592 0 0,'0'0'7110'0'0,"-1"0"-6949"0"0,-5 5-141 0 0,4-2-93 0 0,11 1 2278 0 0,2 2-2203 0 0,-13-7 12 0 0,1 1 130 0 0,2 0-90 0 0,30-12-33 0 0,-31 12-20 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-2-1 0 0,0 2 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-8-6 297 0 0,-1 1-195 0 0,10 2-82 0 0,-1 3-18 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 32 0 0,-1-2-50 0 0,5-9 321 0 0,1 7-292 0 0,-3 3 124 0 0,-6-6-12 0 0,-7-1 651 0 0,8 7 38 0 0,8 7-623 0 0,4 4-113 0 0,1-1 0 0 0,19 17 0 0 0,-19-19-74 0 0,-1 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,10 18-1 0 0,35 52-10 0 0,11 21-158 0 0,36 81-92 0 0,-73-133 238 0 0,-11-20-6 0 0,15 34 0 0 0,-27-53 26 0 0,1 1 0 0 0,-1-1 0 0 0,2 1 0 0 0,-1-1 0 0 0,8 9 0 0 0,32 53-149 0 0,-21-40-214 0 0,-22-28 203 0 0,5-1-2273 0 0,-20-5-3557 0 0,7 2 30 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4420.22">1425 3960 13216 0 0,'-1'8'1194'0'0,"-5"0"-927"0"0,5-6 1044 0 0,3-4-1175 0 0,14-10 39 0 0,-12 9-76 0 0,0 0 0 0 0,1-2 0 0 0,-1 2 0 0 0,0-1 0 0 0,0 1 0 0 0,3-7-1 0 0,10-13 313 0 0,-5 7-78 0 0,-2 1 1 0 0,14-25-1 0 0,-15 23-218 0 0,0 1 1 0 0,1 0-1 0 0,14-15 0 0 0,-10 11-45 0 0,13-23 0 0 0,8-10-74 0 0,10-16 55 0 0,-2 3-27 0 0,-12 16 31 0 0,-23 36-56 0 0,1 0 1 0 0,13-18-1 0 0,-14 23 15 0 0,-5 5-5 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,7-6-1 0 0,-10 8-5 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 2-1 0 0,1 0 1 0 0,4 4 26 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 2 1 0 0,-1-1-1 0 0,5 13 1 0 0,9 16 135 0 0,-9-20-44 0 0,0 0 0 0 0,7 23-1 0 0,-16-38-106 0 0,3 5 27 0 0,-1-2 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,7 7-1 0 0,10 12 144 0 0,-12-13-138 0 0,-5-4-33 0 0,1-1 0 0 0,-1 0-1 0 0,2 0 1 0 0,-1 1 0 0 0,0-2 0 0 0,1 0 0 0 0,6 6 0 0 0,-1-3 16 0 0,0-1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1-1 0 0 0,15 0-1 0 0,-21-2-28 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-2 1 0 0,0 1-1 0 0,5-5 1 0 0,-6 5 6 0 0,0 0 1 0 0,1 0 0 0 0,-2 0-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-6-1 0 0,0-15 68 0 0,0 21-60 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-2-1 0 0,-1 1 0 0 0,-1-6 0 0 0,-5-9 74 0 0,0 0-1 0 0,-1 1 1 0 0,-1-1 0 0 0,0 2-1 0 0,-1-1 1 0 0,-1 1 0 0 0,-13-14-1 0 0,11 16-96 0 0,1 0-223 0 0,0 3 0 0 0,-26-24 0 0 0,35 34 198 0 0,1 1-52 0 0,0 0 0 0 0,-1-2-1 0 0,1 2 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0-2 1 0 0,0 1-349 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-2 1 0 0,1 2-1 0 0,-6-5 0 0 0,-4-6-5892 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4873.35">2247 3067 2760 0 0,'16'13'207'0'0,"-10"-4"-166"0"0,-2-2 1787 0 0,-1-1 1 0 0,1 1-1 0 0,6 8 0 0 0,7 12 4553 0 0,9 16-4786 0 0,-19-32-1657 0 0,0 0-1 0 0,7 13 1 0 0,-2 2-98 0 0,1-1 1 0 0,1-1-1 0 0,2-1 0 0 0,0 1 0 0 0,1-3 0 0 0,29 29 0 0 0,-33-37 160 0 0,-1-2-21 0 0,0 1 0 0 0,15 9-1 0 0,-5-6-100 0 0,-2 0-1 0 0,28 25 0 0 0,-47-39-28 0 0,-3-1-220 0 0,0-1 329 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-3-2 0 0 0,-28-33-649 0 0,12 19 793 0 0,1-1 1 0 0,1 0 0 0 0,-27-38-1 0 0,-39-72 803 0 0,68 102-781 0 0,-22-46 489 0 0,12 21-19 0 0,18 34-321 0 0,1 1 0 0 0,-10-33 0 0 0,8 17-28 0 0,4 19-123 0 0,1 0-1 0 0,-2-19 0 0 0,5 27-106 0 0,0 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,0 1 0 0 0,2-8-1 0 0,-3 10-13 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 1 0 0 0,0-1-9 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,2 3-1 0 0,-3-2 0 0 0,7 6-17 0 0,0 1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,10 19-1 0 0,-6-7-26 0 0,-10-19 50 0 0,1-1 0 0 0,-1 2 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 2 1 0 0,-1-2-1 0 0,0 0 0 0 0,-1 1 0 0 0,1 7 0 0 0,0 13 43 0 0,-1-13-41 0 0,1-2-1 0 0,-2 1 1 0 0,1 1 0 0 0,-1-2 0 0 0,-3 12-1 0 0,-6 19-57 0 0,7-24-83 0 0,-1-1 1 0 0,-10 26-1 0 0,10-32-5 0 0,-31 64-708 0 0,31-66 249 0 0,0-1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,-11 8 0 0 0,1-5-934 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5215.87">2164 2555 16815 0 0,'-6'-6'1522'0'0,"5"4"-1468"0"0,0 1-42 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1-1 0 0 0,0 2-11 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-2 0 0 0,1 3 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-2 0 0 0,0 2 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 6 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 2 0 0 0,3 1 1 0 0,2 3 37 0 0,0 2 0 0 0,9 9 0 0 0,-2 1 17 0 0,3-2 29 0 0,-10-10-41 0 0,-1-1 1 0 0,-1 0 0 0 0,6 8 0 0 0,39 66 347 0 0,-26-39-273 0 0,1-2 0 0 0,36 43 1 0 0,-43-56-111 0 0,-15-20-17 0 0,0-1 0 0 0,0 0 1 0 0,1-1-1 0 0,4 7 0 0 0,29 25-925 0 0,-26-28 6 0 0,4-4-33 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5563.84">2541 2376 10136 0 0,'-5'3'1049'0'0,"-1"2"-741"0"0,5-3 412 0 0,-1-1-1 0 0,1 0 1 0 0,0 2-1 0 0,-1-1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 1 1 0 0,-4 18 1014 0 0,5-15-1752 0 0,1 2 0 0 0,-1-2 0 0 0,1 0 0 0 0,1 9 0 0 0,14 94 28 0 0,-13-96 31 0 0,1 1 0 0 0,0 1 0 0 0,9 23-1 0 0,4 13 123 0 0,-13-38-160 0 0,1 0 1 0 0,0-1 0 0 0,0 0 0 0 0,12 23-1 0 0,-7-19-3 0 0,-7-10 0 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 2 0 0 0,1-2 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,4 3 0 0 0,-1-3 2 0 0,1 2-1 0 0,-1-2 0 0 0,9 3 1 0 0,-13-6 3 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,4-1 0 0 0,-6 0-8 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-2-1 0 0,0-2-56 0 0,0-1-1 0 0,-1 2 0 0 0,1-1 0 0 0,-1 0 1 0 0,0-9-1 0 0,0 14 54 0 0,0-11-41 0 0,-1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-5-12 0 0 0,-2 1-30 0 0,0-1 0 0 0,-1 2 0 0 0,-1-1 0 0 0,-24-33-1 0 0,15 22 78 0 0,17 24 5 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-7-7 0 0 0,11 13 3 0 0,-2-1 39 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-2 0 0 0,-1-2 0 0 0,1 6-33 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 1 0 0,1 0-15 0 0,2 0 3 0 0,0-1 1 0 0,-1 2-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 2 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,3 3 0 0 0,8 6-354 0 0,0-1-1 0 0,1 0 0 0 0,29 13 1 0 0,-40-21 209 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0-1 1 0 0,9 2-1 0 0,-9-2-275 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,4-2 0 0 0,6-6-4555 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5989.1">2774 2089 8752 0 0,'-9'7'369'0'0,"-1"-2"0"0"0,-17 8 0 0 0,-2 1 3150 0 0,27-12-2965 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-3 4 0 0 0,-7 8-182 0 0,11-14-371 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,7 8 95 0 0,-5-6-23 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,6 2 0 0 0,21 4 154 0 0,-1 0 1 0 0,1-2 0 0 0,38 4-1 0 0,36 7-227 0 0,-96-16 40 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,-1 0-1 0 0,15 9 0 0 0,-20-11-18 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 2-1 0 0,-1-2 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 4-1 0 0,0-1 11 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-6 8-1 0 0,1-5-255 0 0,0 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,-11 10 0 0 0,7-10-902 0 0,-3-2-296 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6398.61">2665 1432 19839 0 0,'-22'7'455'0'0,"22"-6"-340"0"0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,1 2-1 0 0,-1-2-114 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4 2 0 0 0,-3-3 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 2 0 0 0,62 133 51 0 0,-2-2-38 0 0,13 27-13 0 0,-10-19 0 0 0,-46-105 0 0 0,40 59 0 0 0,97 104 76 0 0,32 45-3992 0 0,-154-192-2779 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6773.23">2842 3377 12696 0 0,'-10'-6'505'0'0,"0"-2"-226"0"0,-2 0 0 0 0,1 2 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 2 0 0 0,-1 0 0 0 0,-14-3 0 0 0,25 7-154 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,-1 2-1 0 0,2-1 5 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 5 1 0 0,0-2 10 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 2 1 0 0,1-2 0 0 0,2 5-1 0 0,26 34 268 0 0,-10-15-399 0 0,-14-18-7 0 0,9 14-57 0 0,34 37 0 0 0,-21-29-220 0 0,46 71 1 0 0,-13-17 173 0 0,-10-22-660 0 0,122 112 0 0 0,-164-168 682 0 0,-3-2-505 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,5 8 0 0 0,-4 1-964 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7099.27">2812 4056 11520 0 0,'0'0'886'0'0,"8"-2"-548"0"0,-6 1-146 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,2-6 0 0 0,15-23 1920 0 0,-4 0-2409 0 0,-2 0-1 0 0,11-39 1 0 0,14-68-4973 0 0,-18 63 2798 0 0,29-123-2966 0 0,-38 154 10304 0 0,-9 44-4595 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 3-1 0 0,1-1 270 0 0,38 78 4692 0 0,-31-58-4756 0 0,2 0 1 0 0,1-1-1 0 0,0-1 1 0 0,21 28-1 0 0,-20-33-338 0 0,-5-5-51 0 0,18 19 1 0 0,-24-28-92 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,4 0 0 0 0,-4-2-178 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,3-2 0 0 0,2-8-5971 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9218.04">3151 3223 3224 0 0,'-7'-5'607'0'0,"-30"-20"8450"0"0,13 4-8159 0 0,9 13-495 0 0,11 4 22 0 0,0 2-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-10-1 1304 0 0,16 3-1554 0 0,64 49-124 0 0,-19-13-24 0 0,-24-19-423 0 0,35 39 0 0 0,-39-37 104 0 0,0-1 0 0 0,25 18-1 0 0,-28-26 116 0 0,-5-3-109 0 0,-2-2-1 0 0,15 14 0 0 0,-17-16-3506 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9739.01">3438 2911 10680 0 0,'-15'0'810'0'0,"13"0"-787"0"0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-3 2 1 0 0,2 1 59 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-2 6 0 0 0,1-2 65 0 0,0 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,2 12 1 0 0,2 2 111 0 0,-1-3-38 0 0,1-1-1 0 0,0 0 1 0 0,7 16-1 0 0,-6-21-49 0 0,0-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0-2 0 0 0,12 14 1 0 0,-16-21-152 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,0-1 0 0 0,2 1 0 0 0,-4-2-18 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1-1 0 0 0,1 0-5 0 0,-1-1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,-1-6 1 0 0,-2-15-1 0 0,-9-33 1 0 0,10 47 15 0 0,-1 2-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,-6-10-1 0 0,-7-5 273 0 0,16 22 931 0 0,4 8-1111 0 0,0-2 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,6 6 0 0 0,1 0-98 0 0,-1-1 0 0 0,18 14 0 0 0,-24-21-22 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1-1 0 0 0,1 2 1 0 0,-1-2-1 0 0,1 1 1 0 0,-1-1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-2 1 0 0,-1 2-1 0 0,7-3 1 0 0,-6 1-200 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,7-7 0 0 0,-7 6-535 0 0,-1 0 0 0 0,0-1 1 0 0,1 0-1 0 0,-2 1 1 0 0,1-1-1 0 0,3-7 1 0 0,1-5-4375 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10240.66">3638 2474 14080 0 0,'-3'3'247'0'0,"-4"2"65"0"0,0 2-1 0 0,0-1 0 0 0,0 0 1 0 0,1 2-1 0 0,0-1 0 0 0,1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-4 11 0 0 0,8-14-208 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,1 2 0 0 0,-1-2 0 0 0,1 1 0 0 0,-1 6 0 0 0,2-10-84 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 1 0 0 0,0-2-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,2 1 0 0 0,5 3 16 0 0,-1-1 1 0 0,0-1-1 0 0,1 0 0 0 0,15 3 1 0 0,8 5-37 0 0,33 8 1 0 0,-49-16 12 0 0,0 1 0 0 0,0 2 0 0 0,-1-1 0 0 0,1 0 0 0 0,13 10-1 0 0,-22-12 69 0 0,0 1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0 1-1 0 0,0-2 1 0 0,-1 1-1 0 0,5 13 0 0 0,-6-11 36 0 0,0-2-1 0 0,0 1 1 0 0,0 1-1 0 0,0 13 1 0 0,-2-19-101 0 0,0 0 1 0 0,1 0-1 0 0,-2 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 1 0 0 0,0-2 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-3 1 1 0 0,2-2-76 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-5 2 1 0 0,6-3 16 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-2 0 0 0,0 2 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-2 0 0 0,-10-16-1912 0 0,9 12 1304 0 0,-5-8-869 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10630.71">3766 1902 18255 0 0,'0'-1'1828'0'0,"0"1"-1800"0"0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-2-1 0 0,0 2 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,21 17 688 0 0,-13-7-638 0 0,-1-1-1 0 0,0 2 0 0 0,-1-1 1 0 0,0 1-1 0 0,7 17 0 0 0,9 12-3 0 0,64 118 537 0 0,25 39-68 0 0,-74-140-957 0 0,2-2 0 0 0,70 72 0 0 0,-44-60-618 0 0,-23-23-4062 0 0,-40-41 4357 0 0,29 32-6141 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10990.9">3450 4175 13448 0 0,'0'0'2172'0'0,"1"1"-1387"0"0,21 25 460 0 0,0 1 0 0 0,22 40 1 0 0,-13-21-1068 0 0,34 62-293 0 0,-47-74-246 0 0,1-1-1 0 0,2-2 1 0 0,36 43-1 0 0,-43-58-130 0 0,0 0 1 0 0,1-3-1 0 0,1 1 0 0 0,24 16 1 0 0,-39-29 386 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,3-2 1 0 0,4-4-744 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11333.63">3717 4101 13824 0 0,'3'6'202'0'0,"0"2"0"0"0,0-2 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,6 8 0 0 0,146 143 3213 0 0,-135-136-3967 0 0,14 10-75 0 0,-22-19 401 0 0,-1-1 1 0 0,14 16-1 0 0,-25-23 226 0 0,-1-2 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-56 0 0,-3-2-220 0 0,1 1 245 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-3-1 0 0,-3-4 13 0 0,-15-20 123 0 0,0-3-1 0 0,-21-43 1 0 0,26 44 352 0 0,2 1-1 0 0,-18-56 1 0 0,28 73-378 0 0,0-1 0 0 0,1-1 0 0 0,0 2 0 0 0,1-2 0 0 0,0 2 0 0 0,1-2 1 0 0,0 1-1 0 0,1 0 0 0 0,4-22 0 0 0,-4 33-58 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-2-1 0 0,1 2 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,4 0 1 0 0,-3 1-5 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,4 4 0 0 0,7 6 25 0 0,1 1-1 0 0,-2 0 1 0 0,0 2-1 0 0,15 19 1 0 0,40 66-25 0 0,-35-51-566 0 0,-9-17-3357 0 0,-16-25-1718 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11689.05">4004 3578 12440 0 0,'-3'5'164'0'0,"0"-1"0"0"0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 2 0 0 0,1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1 5 0 0 0,0 0 721 0 0,1-6-570 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,3 7 0 0 0,-1-5-296 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,9 7 0 0 0,5 2 26 0 0,30 17 1 0 0,-16-10 111 0 0,23 14 16 0 0,33 24-97 0 0,-79-51-58 0 0,1 2 0 0 0,-1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,16 23-1 0 0,-22-29-11 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,0-1 0 0 0,1-1 0 0 0,-1 8 0 0 0,-1-10-47 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 2 1 0 0,1-1-1 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,-3 2-1 0 0,-26 15-2257 0 0,16-14-3576 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12060.07">3966 3247 13360 0 0,'3'16'451'0'0,"1"-1"1"0"0,0 1 0 0 0,1-1 0 0 0,1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,9 14 0 0 0,8 11 1160 0 0,33 39 1 0 0,77 79-2430 0 0,9 12-1059 0 0,-142-168 1488 0 0,11 17-19 0 0,-11-11-4378 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12407.05">4079 3812 11544 0 0,'0'0'1046'0'0,"1"-2"-858"0"0,1-4-116 0 0,1 0 0 0 0,-1-1-1 0 0,2 1 1 0 0,5-9 0 0 0,4-8 367 0 0,22-48-303 0 0,51-150 0 0 0,-74 187-137 0 0,-7 22 7 0 0,-1-1 0 0 0,4-16 0 0 0,4-1 122 0 0,-10 26-58 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1-1 0 0 0,0 1-1 0 0,2-10 1129 0 0,10 33-176 0 0,9 42-574 0 0,9 23-480 0 0,-12-41-1 0 0,24 46 81 0 0,-36-76 23 0 0,1-1-1 0 0,0-1 1 0 0,1 1 0 0 0,19 19-1 0 0,-24-28-29 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,6 0-1 0 0,-9-2-60 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 2 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1-3 1 0 0,-1 0-60 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1-9 0 0 0,-1-3-238 0 0,-5-23 0 0 0,6 35 229 0 0,-5-21-314 0 0,-1-2-1 0 0,-1 2 1 0 0,-20-47 0 0 0,25 66 380 0 0,-1-1 55 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 2 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,-12-11 1 0 0,6 7 451 0 0,10 8-253 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-6-2 2052 0 0,9 6-1994 0 0,38 47 279 0 0,33 41-1072 0 0,-55-72 211 0 0,39 38-1095 0 0,-49-50 237 0 0,1-1 0 0 0,-1 0 0 0 0,13 6 0 0 0,-17-9-418 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12736.06">4407 3197 17479 0 0,'0'0'1580'0'0,"15"-4"-952"0"0,-11 4-611 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1 1 0 0 0,4 1 0 0 0,3 2-275 0 0,1 2 0 0 0,-1 0 0 0 0,13 14 0 0 0,-6-4-274 0 0,26 39-1 0 0,6 7 106 0 0,-41-55 363 0 0,14 15-470 0 0,-22-24 355 0 0,1-9-589 0 0,0 8 711 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,0-3-1 0 0,-18-58-1561 0 0,-7 3 1228 0 0,-31-75 1519 0 0,53 124-1000 0 0,0-1 1 0 0,1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-14 1 0 0,2 24-95 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,3 0 73 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 1 0 0 0,9 3 0 0 0,-3 2-25 0 0,1 1-1 0 0,-1 0 1 0 0,0 1-1 0 0,12 14 1 0 0,30 46-146 0 0,-25-30 64 0 0,-18-28-43 0 0,-9-11-50 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,1-1 1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13133.72">4723 2693 15608 0 0,'0'0'1409'0'0,"-1"0"-1159"0"0,-1 1-193 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,1-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 2 0 0 0,2 4-23 0 0,0 0-1 0 0,0 2 1 0 0,0-2 0 0 0,6 13 0 0 0,-5-13-1 0 0,3 8 20 0 0,0-1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,1 0 1 0 0,0-2 0 0 0,16 19 0 0 0,-21-26-27 0 0,1 0 1 0 0,0-2 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,13-2 0 0 0,-17 1-68 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,4-3 1 0 0,-4 1-20 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-7 1 0 0,0-2-116 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-3-14 1 0 0,1 11 27 0 0,-1 1-1 0 0,0-1 1 0 0,-2 0-1 0 0,0 1 0 0 0,0 1 1 0 0,-10-18-1 0 0,-58-79 84 0 0,72 108 196 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0-2-1 0 0,0 2 1 0 0,0 0 0 0 0,-5-2-1 0 0,7 4 768 0 0,2 4-736 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,4 8 0 0 0,25 34-260 0 0,-28-43 170 0 0,13 19-50 0 0,41 51 44 0 0,-50-64-62 0 0,1 0 1 0 0,1-2 0 0 0,0 0 0 0 0,0 1 0 0 0,17 10 0 0 0,-7-7 11 0 0,-13-7-11 0 0,0 0 0 0 0,0-1 0 0 0,12 5 1 0 0,-16-8-40 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,3-2-1 0 0,-3 0-243 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-2 0 0 0,1-4-1 0 0,0-9-5404 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13690.04">5100 2280 15120 0 0,'-19'0'1631'0'0,"14"0"-1443"0"0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-10 3 0 0 0,13-3-89 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 4-1 0 0,0 1-31 0 0,1 2 0 0 0,0-1 0 0 0,0 1 0 0 0,1-2 0 0 0,0 2 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,1-2 0 0 0,-1 2 0 0 0,2-2 0 0 0,-1 1 0 0 0,1 0 0 0 0,6 12 0 0 0,0 0-75 0 0,2-1 0 0 0,0 0-1 0 0,2-1 1 0 0,16 21-1 0 0,-23-33 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,0-1 1 0 0,12 8-1 0 0,-16-10-14 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,5-3 0 0 0,-6 1-56 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-2 0 0 0,0 2 0 0 0,0-8 0 0 0,0 0-288 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,-1 2 0 0 0,-3-21-1 0 0,1 17 255 0 0,-2-1-1 0 0,1 0 0 0 0,-2 1 0 0 0,0 1 1 0 0,0-1-1 0 0,-2 0 0 0 0,1 2 0 0 0,-1-1 0 0 0,-17-19 1 0 0,23 29 366 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,-8-4 1135 0 0,19 19-844 0 0,1-1-519 0 0,0 0 1 0 0,1-1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,20 14 1 0 0,-26-22-41 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,8-3 1 0 0,-11 2 4 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-2 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-2 0 0 0,1 2 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-3 0 0 0,1 0-44 0 0,-1 0-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,-3-6-1 0 0,-21-30-127 0 0,18 32 278 0 0,1 0 0 0 0,1-1 0 0 0,-7-14 0 0 0,2 0 158 0 0,4 12-83 0 0,1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1-1-1 0 0,1 0 1 0 0,-2-13-1 0 0,5 21-137 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 2 0 0 0,0-1 1 0 0,0-1-1 0 0,1 2 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,0-1 1 0 0,0 2-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 2 0 0 0,1-2 0 0 0,-1 2 1 0 0,1-1-1 0 0,0 1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,7 1 0 0 0,-7 0-37 0 0,1-1 0 0 0,-1 2 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 2 0 0 0,0-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,0 2-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,3 8 0 0 0,-3-4 38 0 0,0 2 0 0 0,0 0-1 0 0,-1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,-7 15 0 0 0,9-21-122 0 0,-1-1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 2-1 0 0,-1-3 0 0 0,1 1 1 0 0,-6 3-1 0 0,-12 5-5425 0 0,2-4-970 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14041.05">4632 2180 20471 0 0,'0'0'2248'0'0,"0"7"-2248"0"0,0 1 1352 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">283 2282 16815 0 0,'0'0'1879'0'0,"4"8"-1310"0"0,16 12-45 0 0,-5-5-247 0 0,14 20 1 0 0,22 29 67 0 0,25 36-129 0 0,40 80-103 0 0,103 144-522 0 0,-136-205 192 0 0,-49-67-938 0 0,57 65-1 0 0,-81-108-3295 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="562.8">0 2332 18399 0 0,'1'-2'422'0'0,"2"-8"-162"0"0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,9-11 0 0 0,-7 8-247 0 0,16-27-11 0 0,23-33 61 0 0,-38 61-23 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,14-11 0 0 0,11-5 65 0 0,64-38-1 0 0,-82 55-158 0 0,1 1-1 0 0,-1 0 1 0 0,1 2 0 0 0,1 0-1 0 0,-1 1 1 0 0,32-6 0 0 0,-41 11-15 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,4 6 0 0 0,1 3-93 0 0,0 0 0 0 0,-2 0-1 0 0,0 1 1 0 0,0 0 0 0 0,-2 0 0 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-2 0 0 0 0,0 1 0 0 0,1 18-1 0 0,-2 25 166 0 0,-2 0 0 0 0,-3 0 0 0 0,-3 0-1 0 0,-2-1 1 0 0,-3 1 0 0 0,-2-2 0 0 0,-4 0-1 0 0,-1-1 1 0 0,-44 92 0 0 0,55-134 100 0 0,-1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,-19 17 0 0 0,15-15 47 0 0,13-12-13 0 0,11-7-46 0 0,224-160-271 0 0,-192 139 197 0 0,-1-1 0 0 0,67-64 0 0 0,-97 80-10 0 0,0 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,-1-2-1 0 0,0 1 1 0 0,6-28-1 0 0,-9 31-5 0 0,0 1 1 0 0,-1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,-12-16-1 0 0,8 13 43 0 0,0 1 0 0 0,-1-1-1 0 0,-1 2 1 0 0,1-1 0 0 0,-2 2 0 0 0,1-1-1 0 0,-1 2 1 0 0,0-1 0 0 0,-23-9-1 0 0,31 16 25 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-6 1 0 0 0,7-1-36 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 4 0 0 0,-2 9 14 0 0,1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,3 19 0 0 0,1-3-41 0 0,2-1 0 0 0,2 0 1 0 0,11 29-1 0 0,-15-46 16 0 0,0-1 0 0 0,0-1 0 0 0,1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 1 0 0,0 0-1 0 0,1-1 0 0 0,20 9 0 0 0,-19-10 14 0 0,1-1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0-1 0 0 0,20 1 1 0 0,-27-3-210 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0-1 0 0 0,-1 1-1 0 0,8-3 1 0 0,-9 2-465 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,4-7 0 0 0,10-9-5708 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1037.22">999 1836 16439 0 0,'-9'12'306'0'0,"1"-1"-1"0"0,1 2 1 0 0,0-1-1 0 0,0 1 0 0 0,-6 16 1 0 0,4-7-331 0 0,5-13 28 0 0,1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 16 0 0 0,1 55 86 0 0,3-51-42 0 0,-1-15-50 0 0,0-1 0 0 0,1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,6 14 0 0 0,-7-22 3 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,10 4 0 0 0,-13-6 2 0 0,-2-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,4-1 0 0 0,3-2 0 0 0,-5 3 0 0 0,-1-1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,5-4 0 0 0,-7 3 0 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-3 0 0 0,4-8 0 0 0,-4 11 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-5 0 0 0,0 0 23 0 0,0-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-3-10 0 0 0,1 7 4 0 0,-30-78 169 0 0,32 85-174 0 0,1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,1-4 0 0 0,-1 7-15 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,6 3-4 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,9 7 0 0 0,3 3 0 0 0,156 114 0 0 0,-164-120 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,7 19 0 0 0,-12-22 0 0 0,0 0 1 0 0,-1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,2 17 0 0 0,0 0 10 0 0,-4-25-1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,-2 5 1 0 0,-16 27 97 0 0,3-7-13 0 0,11-17-119 0 0,-1-1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-2 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-22 7 0 0 0,26-10-129 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-10-2 0 0 0,13 2 40 0 0,1-1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-3-5 0 0 0,-9-19-557 0 0,3-5 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1378.2">1108 1696 17303 0 0,'0'1'396'0'0,"1"5"-182"0"0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,6 9-1 0 0,0 3-210 0 0,14 24-3 0 0,1 0 0 0 0,1-2 0 0 0,47 57 0 0 0,-63-87 0 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,17 11 0 0 0,2 2 0 0 0,-17-12-252 0 0,22 10-1 0 0,-3 0-904 0 0,-28-17 865 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,4-1-1 0 0,-3 1-69 0 0,2 0-1612 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1755.72">1300 1535 10136 0 0,'-5'1'282'0'0,"4"-1"-243"0"0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-2 1 0 0 0,-8 7 970 0 0,9-8-698 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 2 0 0 0,0 6-211 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,5 14-1 0 0,-5-19-119 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,6 5-1 0 0,1 0 85 0 0,1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,23 10 0 0 0,53 16 37 0 0,-62-25-87 0 0,0 1 0 0 0,-1 1 0 0 0,24 15 0 0 0,-10 1-21 0 0,-36-25 13 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,2 5 0 0 0,0 2 8 0 0,-4-9-11 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-2 4-1 0 0,1 0-5 0 0,1-5-18 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-2 1 0 0 0,-2 1-38 0 0,-19 17-380 0 0,21-18 228 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-4 0 0 0 0,5-1 166 0 0,-16 8-1221 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2297.45">1324 1183 5528 0 0,'0'0'422'0'0,"-17"-5"11233"0"0,21 17-9880 0 0,10 14-2796 0 0,-6-14 1021 0 0,1-1 0 0 0,1 0 0 0 0,14 11 0 0 0,2 4 0 0 0,-10-12 1 0 0,0 0-1 0 0,20 13 1 0 0,21 18-15 0 0,2 4-46 0 0,9 8 50 0 0,-51-40-30 0 0,16 13-110 0 0,38 48 0 0 0,-38-43-247 0 0,-24-27 182 0 0,-1 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,7 12-1 0 0,-5-7-238 0 0,1 2-355 0 0,-10-15 378 0 0,-9 1-1770 0 0,4-1 2041 0 0,-1-1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-7-2 1 0 0,-34-16 105 0 0,44 18 66 0 0,-12-6 349 0 0,0 0 0 0 0,1 0 1 0 0,0-2-1 0 0,1 1 0 0 0,-11-12 0 0 0,-34-36 1325 0 0,53 52-1604 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-2-5-1 0 0,-8-19 340 0 0,8 23-379 0 0,1 2-24 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1-7 0 0 0,2-6 34 0 0,-2 5-41 0 0,8-22-1 0 0,-8 30-5 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,2 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,0 1-1 0 0,3-4 0 0 0,4-3 33 0 0,1 0-1 0 0,0 1 1 0 0,1 0-1 0 0,13-8 1 0 0,-19 15-22 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 1-1 0 0,7 0 1 0 0,-6 0-20 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,5 5 1 0 0,-3-1-86 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,5 12 1 0 0,3-1 43 0 0,-12-17 44 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 5 1 0 0,-2 2 0 0 0,-1-8 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 2 0 0 0,1 0 0 0 0,-2-4 0 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 3 0 0 0,-1-3 113 0 0,-2-8-178 0 0,3-12-24 0 0,-1 17 88 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-4 1 0 0,-23-72-164 0 0,10 31 56 0 0,-28-67 1 0 0,41 113 85 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0-2 1 0 0,0 3 13 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,2 0 17 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,17 11 181 0 0,0-1 1 0 0,1-1-1 0 0,0-1 1 0 0,31 9-1 0 0,-38-14-155 0 0,0 0 0 0 0,1-2 0 0 0,-1 1 0 0 0,1-2 0 0 0,21 1 0 0 0,-29-2 13 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1-1-1 0 0,11-7 0 0 0,-13 7 45 0 0,0 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-2 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1-5-1 0 0,-1 0 20 0 0,0-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,-11-12-1 0 0,11 15-86 0 0,0 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-12-4 1 0 0,-7-4 70 0 0,19 9-80 0 0,1 0-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-11 3 1 0 0,2 0-274 0 0,0 1 1 0 0,0 1-1 0 0,0 0 1 0 0,-20 10-1 0 0,10-4-1468 0 0,17-5 260 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2701.62">2232 580 14368 0 0,'0'0'705'0'0,"-5"3"32"0"0,2-2-726 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-2 4-1 0 0,-3 4-1 0 0,-6 4-10 0 0,11-13 4 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 2 0 0 0,0-2 4 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,-2 2-1 0 0,2-2 15 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 2 0 0 0,1 3 153 0 0,-1 0 1 0 0,2 0-1 0 0,3 13 0 0 0,-4-18-113 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,3 3 0 0 0,3 0 91 0 0,0 1-1 0 0,1-2 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,14 1 1 0 0,-3-2 28 0 0,1 0 0 0 0,32-5 1 0 0,-43 4-159 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 2 1 0 0,-1-1-1 0 0,0 1 1 0 0,10 6-1 0 0,-18-9 2 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 4 1 0 0,1-2 5 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 3 0 0 0,-9 13 66 0 0,3-1-56 0 0,-2-1 1 0 0,0-1-1 0 0,-1 0 1 0 0,-17 18-1 0 0,9-10-34 0 0,16-19-24 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-6 3 0 0 0,1-2-66 0 0,5-2-95 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,-8 3-1 0 0,12-5 33 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1-1 0 0 0,-4-8-5551 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3032.79">2212 7 16959 0 0,'0'0'778'0'0,"2"-1"-20"0"0,-2 1-713 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,3 7 720 0 0,-4-5-831 0 0,11 20 272 0 0,16 45-1 0 0,-12-27-202 0 0,14 44 44 0 0,-16-44 126 0 0,23 49-1 0 0,5 1 144 0 0,-22-44-8 0 0,32 53-1 0 0,-3-21-208 0 0,69 84-1 0 0,25 27-1607 0 0,-138-184 1332 0 0,27 40-1497 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3850.44">1466 3096 10592 0 0,'0'0'7110'0'0,"-1"0"-6949"0"0,-5 4-141 0 0,4-1-93 0 0,11 1 2278 0 0,2 2-2203 0 0,-13-7 12 0 0,1 1 130 0 0,2 0-90 0 0,30-12-33 0 0,-31 12-20 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-8-6 297 0 0,-1 1-195 0 0,10 2-82 0 0,-1 3-18 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 32 0 0,-1-1-50 0 0,5-10 321 0 0,1 7-292 0 0,-3 3 124 0 0,-6-5-12 0 0,-7-2 651 0 0,8 7 38 0 0,8 7-623 0 0,4 3-113 0 0,1 0 0 0 0,19 16 0 0 0,-19-19-74 0 0,-1 1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,10 16-1 0 0,35 51-10 0 0,11 19-158 0 0,36 77-92 0 0,-73-127 238 0 0,-11-18-6 0 0,15 32 0 0 0,-27-50 26 0 0,1 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1 0 0 0 0,8 8 0 0 0,32 51-149 0 0,-21-39-214 0 0,-22-26 203 0 0,5-1-2273 0 0,-20-4-3557 0 0,7 1 30 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4420.22">1425 3760 13216 0 0,'-1'8'1194'0'0,"-5"-1"-927"0"0,5-5 1044 0 0,3-4-1175 0 0,14-9 39 0 0,-12 8-76 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,3-6-1 0 0,10-13 313 0 0,-5 7-78 0 0,-2 0 1 0 0,14-23-1 0 0,-15 22-218 0 0,0 1 1 0 0,1 0-1 0 0,14-15 0 0 0,-10 11-45 0 0,13-21 0 0 0,8-11-74 0 0,10-14 55 0 0,-2 2-27 0 0,-12 16 31 0 0,-23 33-56 0 0,1 1 1 0 0,13-17-1 0 0,-14 21 15 0 0,-5 5-5 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,7-5-1 0 0,-10 7-5 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 1 1 0 0,4 4 26 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,5 12 1 0 0,9 15 135 0 0,-9-19-44 0 0,0 1 0 0 0,7 21-1 0 0,-16-36-106 0 0,3 4 27 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,7 6-1 0 0,10 12 144 0 0,-12-12-138 0 0,-5-5-33 0 0,1 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,6 5 0 0 0,-1-2 16 0 0,0-1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 0 0 0 0,-1-1 0 0 0,15 0-1 0 0,-21-2-28 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,5-5 1 0 0,-6 6 6 0 0,0-1 1 0 0,1 0 0 0 0,-2 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-5-1 0 0,0-15 68 0 0,0 21-60 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,-1-6 0 0 0,-5-8 74 0 0,0 0-1 0 0,-1 1 1 0 0,-1-1 0 0 0,0 2-1 0 0,-1-1 1 0 0,-1 1 0 0 0,-13-14-1 0 0,11 16-96 0 0,1 0-223 0 0,0 2 0 0 0,-26-22 0 0 0,35 32 198 0 0,1 1-52 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0-1 1 0 0,0 0-349 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-6-5 0 0 0,-4-5-5892 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4873.35">2247 2912 2760 0 0,'16'13'207'0'0,"-10"-5"-166"0"0,-2-1 1787 0 0,-1-1 1 0 0,1 0-1 0 0,6 8 0 0 0,7 12 4553 0 0,9 15-4786 0 0,-19-31-1657 0 0,0 1-1 0 0,7 12 1 0 0,-2 1-98 0 0,1 0 1 0 0,1-1-1 0 0,2-1 0 0 0,0 0 0 0 0,1-2 0 0 0,29 28 0 0 0,-33-36 160 0 0,-1-1-21 0 0,0 0 0 0 0,15 9-1 0 0,-5-6-100 0 0,-2 0-1 0 0,28 24 0 0 0,-47-37-28 0 0,-3-1-220 0 0,0-1 329 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-3-2 0 0 0,-28-31-649 0 0,12 18 793 0 0,1-1 1 0 0,1-1 0 0 0,-27-35-1 0 0,-39-68 803 0 0,68 96-781 0 0,-22-43 489 0 0,12 19-19 0 0,18 33-321 0 0,1 1 0 0 0,-10-32 0 0 0,8 17-28 0 0,4 18-123 0 0,1-1-1 0 0,-2-17 0 0 0,5 25-106 0 0,0 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 1 0 0 0,2-7-1 0 0,-3 9-13 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 1 0 0 0,0-1-9 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,2 3-1 0 0,-3-2 0 0 0,7 5-17 0 0,0 2 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,10 17-1 0 0,-6-6-26 0 0,-10-18 50 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1 6 0 0 0,0 13 43 0 0,-1-13-41 0 0,1-1-1 0 0,-2 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,-3 11-1 0 0,-6 18-57 0 0,7-23-83 0 0,-1-1 1 0 0,-10 25-1 0 0,10-31-5 0 0,-31 62-708 0 0,31-64 249 0 0,0 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,-11 9 0 0 0,1-6-934 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5215.87">2164 2426 16815 0 0,'-6'-6'1522'0'0,"5"5"-1468"0"0,0 0-42 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-2 0 0 0,0 2-11 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-2 0 0 0,1 3 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 6 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,3 2 1 0 0,2 3 37 0 0,0 1 0 0 0,9 10 0 0 0,-2 0 17 0 0,3-2 29 0 0,-10-10-41 0 0,-1 0 1 0 0,-1 0 0 0 0,6 7 0 0 0,39 63 347 0 0,-26-37-273 0 0,1-2 0 0 0,36 41 1 0 0,-43-53-111 0 0,-15-20-17 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,4 6 0 0 0,29 24-925 0 0,-26-26 6 0 0,4-4-33 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5563.84">2541 2256 10136 0 0,'-5'3'1049'0'0,"-1"2"-741"0"0,5-3 412 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 1 1 0 0,-4 17 1014 0 0,5-14-1752 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,1 8 0 0 0,14 89 28 0 0,-13-90 31 0 0,1 0 0 0 0,0 1 0 0 0,9 22-1 0 0,4 13 123 0 0,-13-37-160 0 0,1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,12 22-1 0 0,-7-17-3 0 0,-7-11 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4 3 0 0 0,-1-3 2 0 0,1 1-1 0 0,-1-1 0 0 0,9 3 1 0 0,-13-6 3 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,4-1 0 0 0,-6 0-8 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-2-1 0 0,0-2-56 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0-8-1 0 0,0 13 54 0 0,0-10-41 0 0,-1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-5-11 0 0 0,-2 1-30 0 0,0-1 0 0 0,-1 2 0 0 0,-1-1 0 0 0,-24-31-1 0 0,15 20 78 0 0,17 24 5 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-7-6 0 0 0,11 12 3 0 0,-2-1 39 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1-3 0 0 0,1 6-33 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 1 0 0,1 0-15 0 0,2 0 3 0 0,0-1 1 0 0,-1 2-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,3 3 0 0 0,8 5-354 0 0,0 0-1 0 0,1-1 0 0 0,29 13 1 0 0,-40-20 209 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0-1 1 0 0,9 2-1 0 0,-9-2-275 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,4-2 0 0 0,6-5-4555 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5989.1">2774 1984 8752 0 0,'-9'6'369'0'0,"-1"-1"0"0"0,-17 7 0 0 0,-2 2 3150 0 0,27-12-2965 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-3 4 0 0 0,-7 7-182 0 0,11-13-371 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,7 7 95 0 0,-5-5-23 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,6 3 0 0 0,21 4 154 0 0,-1-1 1 0 0,1-1 0 0 0,38 3-1 0 0,36 7-227 0 0,-96-15 40 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,-1 0-1 0 0,15 8 0 0 0,-20-10-18 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 3-1 0 0,0 0 11 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-6 8-1 0 0,1-4-255 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,-11 10 0 0 0,7-9-902 0 0,-3-3-296 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6398.61">2665 1360 19839 0 0,'-22'6'455'0'0,"22"-5"-340"0"0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 2-1 0 0,-1-2-114 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4 2 0 0 0,-3-3 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 2 0 0 0,62 126 51 0 0,-2-2-38 0 0,13 26-13 0 0,-10-18 0 0 0,-46-100 0 0 0,40 56 0 0 0,97 99 76 0 0,32 43-3992 0 0,-154-183-2779 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6773.23">2842 3207 12696 0 0,'-10'-6'505'0'0,"0"-2"-226"0"0,-2 1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,-14-2 0 0 0,25 6-154 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,-1 2-1 0 0,2-1 5 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 4 1 0 0,0-1 10 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,2 5-1 0 0,26 32 268 0 0,-10-15-399 0 0,-14-16-7 0 0,9 12-57 0 0,34 36 0 0 0,-21-27-220 0 0,46 67 1 0 0,-13-17 173 0 0,-10-20-660 0 0,122 106 0 0 0,-164-159 682 0 0,-3-3-505 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,5 9 0 0 0,-4 0-964 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7099.27">2812 3851 11520 0 0,'0'0'886'0'0,"8"-1"-548"0"0,-6 0-146 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,2-5 0 0 0,15-23 1920 0 0,-4 1-2409 0 0,-2-1-1 0 0,11-36 1 0 0,14-65-4973 0 0,-18 59 2798 0 0,29-116-2966 0 0,-38 146 10304 0 0,-9 42-4595 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 2-1 0 0,1 0 270 0 0,38 74 4692 0 0,-31-55-4756 0 0,2 0 1 0 0,1-1-1 0 0,0-1 1 0 0,21 26-1 0 0,-20-31-338 0 0,-5-4-51 0 0,18 17 1 0 0,-24-26-92 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,4 0 0 0 0,-4-2-178 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3-3 0 0 0,2-8-5971 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9218.04">3151 3060 3224 0 0,'-7'-4'607'0'0,"-30"-20"8450"0"0,13 4-8159 0 0,9 12-495 0 0,11 5 22 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-10-1 1304 0 0,16 3-1554 0 0,64 47-124 0 0,-19-13-24 0 0,-24-18-423 0 0,35 37 0 0 0,-39-35 104 0 0,0-1 0 0 0,25 17-1 0 0,-28-24 116 0 0,-5-4-109 0 0,-2-1-1 0 0,15 13 0 0 0,-17-15-3506 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9739.01">3438 2764 10680 0 0,'-15'0'810'0'0,"13"0"-787"0"0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-3 2 1 0 0,2 0 59 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-2 6 0 0 0,1-3 65 0 0,0 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,2 11 1 0 0,2 2 111 0 0,-1-3-38 0 0,1-1-1 0 0,0 0 1 0 0,7 16-1 0 0,-6-21-49 0 0,0-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0-1 0 0 0,12 13 1 0 0,-16-20-152 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,0-1 0 0 0,2 1 0 0 0,-4-2-18 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1-1 0 0 0,1 0-5 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,-1-5 1 0 0,-2-15-1 0 0,-9-31 1 0 0,10 45 15 0 0,-1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 2 0 0 0,-1-1 0 0 0,-6-9-1 0 0,-7-5 273 0 0,16 21 931 0 0,4 8-1111 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,6 6 0 0 0,1-1-98 0 0,-1 0 0 0 0,18 12 0 0 0,-24-19-22 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,7-3 1 0 0,-6 1-200 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,7-6 0 0 0,-7 5-535 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-2 1 1 0 0,1-1-1 0 0,3-6 1 0 0,1-5-4375 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10240.66">3638 2349 14080 0 0,'-3'3'247'0'0,"-4"2"65"0"0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,0 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,-4 10 0 0 0,8-14-208 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 5 0 0 0,2-9-84 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,2 1 0 0 0,5 2 16 0 0,-1 0 1 0 0,0-1-1 0 0,1 0 0 0 0,15 3 1 0 0,8 4-37 0 0,33 8 1 0 0,-49-15 12 0 0,0 1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,13 9-1 0 0,-22-11 69 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,5 12 0 0 0,-6-11 36 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 13 1 0 0,-2-18-101 0 0,0 0 1 0 0,1 0-1 0 0,-2 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-3 1 1 0 0,2-2-76 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-5 1 1 0 0,6-2 16 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-2 0 0 0,-10-15-1912 0 0,9 11 1304 0 0,-5-7-869 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10630.71">3766 1806 18255 0 0,'0'-1'1828'0'0,"0"1"-1800"0"0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,21 16 688 0 0,-13-7-638 0 0,-1 0-1 0 0,0 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,7 17 0 0 0,9 11-3 0 0,64 112 537 0 0,25 37-68 0 0,-74-133-957 0 0,2-2 0 0 0,70 69 0 0 0,-44-58-618 0 0,-23-21-4062 0 0,-40-39 4357 0 0,29 30-6141 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10990.9">3450 3964 13448 0 0,'0'0'2172'0'0,"1"1"-1387"0"0,21 24 460 0 0,0 1 0 0 0,22 37 1 0 0,-13-19-1068 0 0,34 59-293 0 0,-47-71-246 0 0,1-1-1 0 0,2-1 1 0 0,36 40-1 0 0,-43-55-130 0 0,0 0 1 0 0,1-2-1 0 0,1 0 0 0 0,24 15 1 0 0,-39-27 386 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,3-2 1 0 0,4-3-744 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11333.63">3717 3894 13824 0 0,'3'6'202'0'0,"0"1"0"0"0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,6 7 0 0 0,146 136 3213 0 0,-135-129-3967 0 0,14 10-75 0 0,-22-19 401 0 0,-1 0 1 0 0,14 15-1 0 0,-25-23 226 0 0,-1-1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-56 0 0,-3-2-220 0 0,1 1 245 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-3-1 0 0,-3-3 13 0 0,-15-20 123 0 0,0-2-1 0 0,-21-42 1 0 0,26 43 352 0 0,2 0-1 0 0,-18-52 1 0 0,28 68-378 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,4-20 0 0 0,-4 31-58 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,4 0 1 0 0,-3 1-5 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,4 3 0 0 0,7 7 25 0 0,1 0-1 0 0,-2 1 1 0 0,0 1-1 0 0,15 18 1 0 0,40 63-25 0 0,-35-48-566 0 0,-9-17-3357 0 0,-16-23-1718 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11689.05">4004 3398 12440 0 0,'-3'4'164'0'0,"0"0"0"0"0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 6 0 0 0,0-1 721 0 0,1-5-570 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,3 7 0 0 0,-1-6-296 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,9 6 0 0 0,5 3 26 0 0,30 15 1 0 0,-16-9 111 0 0,23 13 16 0 0,33 23-97 0 0,-79-48-58 0 0,1 1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,16 21-1 0 0,-22-27-11 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 7 0 0 0,-1-9-47 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,-3 2-1 0 0,-26 14-2257 0 0,16-13-3576 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12060.07">3966 3083 13360 0 0,'3'15'451'0'0,"1"0"1"0"0,0 0 0 0 0,1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,9 13 0 0 0,8 11 1160 0 0,33 37 1 0 0,77 75-2430 0 0,9 12-1059 0 0,-142-160 1488 0 0,11 16-19 0 0,-11-11-4378 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12407.05">4079 3620 11544 0 0,'0'0'1046'0'0,"1"-2"-858"0"0,1-4-116 0 0,1 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,5-8 0 0 0,4-8 367 0 0,22-45-303 0 0,51-143 0 0 0,-74 177-137 0 0,-7 22 7 0 0,-1-1 0 0 0,4-16 0 0 0,4 0 122 0 0,-10 24-58 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,2-9 1129 0 0,10 31-176 0 0,9 40-574 0 0,9 21-480 0 0,-12-38-1 0 0,24 44 81 0 0,-36-73 23 0 0,1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,19 19-1 0 0,-24-27-29 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,6 1-1 0 0,-9-2-60 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1-3 1 0 0,-1 1-60 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1-8 0 0 0,-1-3-238 0 0,-5-22 0 0 0,6 33 229 0 0,-5-20-314 0 0,-1-1-1 0 0,-1 1 1 0 0,-20-44 0 0 0,25 62 380 0 0,-1-1 55 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,-12-10 1 0 0,6 6 451 0 0,10 8-253 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-6-2 2052 0 0,9 6-1994 0 0,38 45 279 0 0,33 38-1072 0 0,-55-68 211 0 0,39 36-1095 0 0,-49-47 237 0 0,1-1 0 0 0,-1 0 0 0 0,13 5 0 0 0,-17-8-418 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12736.06">4407 3036 17479 0 0,'0'0'1580'0'0,"15"-4"-952"0"0,-11 4-611 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1 0 0 0 0,4 2 0 0 0,3 2-275 0 0,1 2 0 0 0,-1-1 0 0 0,13 14 0 0 0,-6-4-274 0 0,26 37-1 0 0,6 7 106 0 0,-41-52 363 0 0,14 13-470 0 0,-22-22 355 0 0,1-8-589 0 0,0 7 711 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,0-2-1 0 0,-18-56-1561 0 0,-7 3 1228 0 0,-31-71 1519 0 0,53 117-1000 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0-12 1 0 0,2 22-95 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,3 0 73 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,9 4 0 0 0,-3 2-25 0 0,1 0-1 0 0,-1 1 1 0 0,0 0-1 0 0,12 14 1 0 0,30 44-146 0 0,-25-29 64 0 0,-18-27-43 0 0,-9-10-50 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,1-1 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13133.72">4723 2557 15608 0 0,'0'0'1409'0'0,"-1"0"-1159"0"0,-1 1-193 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,2 5-23 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,6 11 0 0 0,-5-11-1 0 0,3 7 20 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1-1 0 0,1 0 1 0 0,0-1 0 0 0,16 17 0 0 0,-21-24-27 0 0,1-1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,13-2 0 0 0,-17 1-68 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,4-3 1 0 0,-4 1-20 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-7 1 0 0,0-1-116 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,-3-12 1 0 0,1 10 27 0 0,-1 0-1 0 0,0 0 1 0 0,-2 0-1 0 0,0 1 0 0 0,0 0 1 0 0,-10-16-1 0 0,-58-75 84 0 0,72 102 196 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-5-2-1 0 0,7 4 768 0 0,2 4-736 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,4 7 0 0 0,25 33-260 0 0,-28-41 170 0 0,13 18-50 0 0,41 48 44 0 0,-50-60-62 0 0,1-1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,17 10 0 0 0,-7-6 11 0 0,-13-8-11 0 0,0 1 0 0 0,0-1 0 0 0,12 5 1 0 0,-16-8-40 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,3-2-1 0 0,-3 0-243 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,1-5-1 0 0,0-8-5404 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13690.04">5100 2165 15120 0 0,'-19'0'1631'0'0,"14"0"-1443"0"0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-10 3 0 0 0,13-3-89 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 4-1 0 0,0 1-31 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,6 12 0 0 0,0 0-75 0 0,2-1 0 0 0,0 0-1 0 0,2-1 1 0 0,16 20-1 0 0,-23-31 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,0-1 1 0 0,12 7-1 0 0,-16-9-14 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,5-3 0 0 0,-6 1-56 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-8 0 0 0,0 1-288 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,-3-19-1 0 0,1 15 255 0 0,-2 0-1 0 0,1 0 0 0 0,-2 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-2 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,-17-18 1 0 0,23 27 366 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,-8-4 1135 0 0,19 18-844 0 0,1 0-519 0 0,0-1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0-1 0 0,20 14 1 0 0,-26-21-41 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,8-3 1 0 0,-11 2 4 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-3 0 0 0,1 1-44 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-3-7-1 0 0,-21-28-127 0 0,18 31 278 0 0,1-1 0 0 0,1 0 0 0 0,-7-14 0 0 0,2 0 158 0 0,4 12-83 0 0,1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,1 0 1 0 0,-2-13-1 0 0,5 20-137 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 2 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,7 1 0 0 0,-7 0-37 0 0,1-1 0 0 0,-1 2 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 2 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,3 7 0 0 0,-3-3 38 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,-7 15 0 0 0,9-21-122 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-2 0 0 0,1 1 1 0 0,-6 3-1 0 0,-12 4-5425 0 0,2-3-970 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14041.05">4632 2070 20471 0 0,'0'0'2248'0'0,"0"7"-2248"0"0,0 0 1352 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20492,7 +20553,7 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">49 1491 6912 0 0,'0'0'314'0'0,"-1"0"-6"0"0,-15 9 11763 0 0,15-9-11925 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 2 0 0 0,0-2 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-2 1 0 0 0,2 0-95 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,-1-1 98 0 0,2 1-142 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-2-1 0 0,0 2 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0-17 158 0 0,0 14-143 0 0,1 1-20 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,2-4 0 0 0,-2 5 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-7 0 0 0,0 4 7 0 0,-1 0 0 0 0,1 0 0 0 0,3-10-1 0 0,-3 9 8 0 0,1 2-1 0 0,-1-1 0 0 0,1-13 0 0 0,-1-29 246 0 0,0 25-169 0 0,0 0 0 0 0,-4-24-1 0 0,-4-55 167 0 0,11 38-192 0 0,-1-11-64 0 0,1 10 0 0 0,-2 47-1 0 0,-1 15 10 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-2-6 1 0 0,1 3 9 0 0,0 2 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,0 1 1 0 0,0-2 0 0 0,0 1-1 0 0,-1 1 1 0 0,6-11 0 0 0,-6 15-10 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0-5 39 0 0,1 0-39 0 0,1 0 4 0 0,0 5 50 0 0,1 1 16 0 0,-3 0 306 0 0,9-6-482 0 0,7 3 22 0 0,-14 3 176 0 0,0 0 5 0 0,98-15-14 0 0,-72 13-89 0 0,-9 1-4 0 0,75-6 0 0 0,-54 5 38 0 0,-27 2-9 0 0,0-1 0 0 0,19 4 1 0 0,3 0 56 0 0,63-4 1 0 0,-18-2 26 0 0,30-4-26 0 0,-65 5-36 0 0,-17 1 30 0 0,48 1 0 0 0,156 8 369 0 0,-225-7-460 0 0,264-11 450 0 0,92 11 72 0 0,-190-7-368 0 0,101 18-72 0 0,-178-10 74 0 0,-43-2-116 0 0,96 0 46 0 0,41 5 197 0 0,32-11-262 0 0,-118-4 17 0 0,38-3-7 0 0,363-6-94 0 0,-315 17 144 0 0,-27 1-14 0 0,4-9-57 0 0,20 3 0 0 0,277-37 0 0 0,-243 25 0 0 0,-115 13 0 0 0,-57 3 7 0 0,361-25 194 0 0,-66 4-193 0 0,-135 8-8 0 0,169-3-72 0 0,-300 17 77 0 0,308-9 62 0 0,-128 5 221 0 0,326 7-312 0 0,-314-2-300 0 0,258 3 672 0 0,-192-8-364 0 0,-183 0-63 0 0,20-4-42 0 0,23 0 91 0 0,-99 5 7 0 0,207 14-183 0 0,-198-1 209 0 0,65 8-3 0 0,-46-5-24 0 0,52 0-16 0 0,-33-7 40 0 0,-140-3 0 0 0,4-1 3 0 0,3-2-17 0 0,-5 1-28 0 0,-1-2 46 0 0,1 1 54 0 0,-4 1-73 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-4 0 0 0,-1 4 16 0 0,4-19-11 0 0,-4 12 7 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,-1-2 1 0 0,-3-14-1 0 0,-9-38-560 0 0,-6-33 660 0 0,8 29 55 0 0,10 62-199 0 0,-2-16-163 0 0,3 11 224 0 0,0 6 264 0 0,0 2-194 0 0,0 0-82 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-2-1 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,2-17-424 0 0,-2 17 261 0 0,0 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1-2 1 0 0,-2 0 0 0 0,-2-9-6233 0 0,0 1-2214 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">50 1412 6912 0 0,'0'0'314'0'0,"-1"0"-6"0"0,-16 9 11763 0 0,16-9-11925 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-2 1 0 0 0,2 0-95 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,-1-1 98 0 0,2 1-142 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0-16 158 0 0,0 13-143 0 0,1 1-20 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,2-4 0 0 0,-2 5 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-6 0 0 0,0 3 7 0 0,-1 0 0 0 0,1 1 0 0 0,3-11-1 0 0,-3 10 8 0 0,1 1-1 0 0,-1-1 0 0 0,1-12 0 0 0,-1-27 246 0 0,0 23-169 0 0,0 0 0 0 0,-4-22-1 0 0,-4-53 167 0 0,11 37-192 0 0,-1-11-64 0 0,1 9 0 0 0,-2 45-1 0 0,-1 14 10 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-2-6 1 0 0,1 4 9 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,5-10 0 0 0,-6 14-10 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0-5 39 0 0,1 0-39 0 0,1 1 4 0 0,0 4 50 0 0,1 1 16 0 0,-3 0 306 0 0,9-6-482 0 0,7 4 22 0 0,-14 2 176 0 0,0 0 5 0 0,100-14-14 0 0,-74 12-89 0 0,-9 1-4 0 0,77-6 0 0 0,-56 5 38 0 0,-27 2-9 0 0,0 0 0 0 0,20 2 1 0 0,2 1 56 0 0,65-4 1 0 0,-19-1 26 0 0,30-5-26 0 0,-65 5-36 0 0,-18 1 30 0 0,50 1 0 0 0,157 8 369 0 0,-228-7-460 0 0,268-10 450 0 0,93 10 72 0 0,-193-7-368 0 0,103 17-72 0 0,-180-9 74 0 0,-45-2-116 0 0,98 0 46 0 0,42 5 197 0 0,32-10-262 0 0,-119-5 17 0 0,38-2-7 0 0,368-6-94 0 0,-320 16 144 0 0,-26 1-14 0 0,3-8-57 0 0,21 2 0 0 0,280-34 0 0 0,-246 23 0 0 0,-116 12 0 0 0,-58 3 7 0 0,365-23 194 0 0,-66 3-193 0 0,-137 8-8 0 0,172-3-72 0 0,-305 16 77 0 0,312-8 62 0 0,-129 4 221 0 0,330 7-312 0 0,-318-2-300 0 0,261 3 672 0 0,-194-7-364 0 0,-186-1-63 0 0,21-3-42 0 0,22-1 91 0 0,-99 6 7 0 0,209 12-183 0 0,-201 0 209 0 0,67 7-3 0 0,-47-5-24 0 0,52 1-16 0 0,-33-7 40 0 0,-142-3 0 0 0,4-1 3 0 0,3-2-17 0 0,-4 1-28 0 0,-2-2 46 0 0,1 1 54 0 0,-4 2-73 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-3 0 0 0,-1 3 16 0 0,4-18-11 0 0,-4 11 7 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,-3-14-1 0 0,-9-36-560 0 0,-7-31 660 0 0,9 28 55 0 0,10 58-199 0 0,-2-15-163 0 0,3 10 224 0 0,0 6 264 0 0,0 2-194 0 0,0 0-82 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,2-16-424 0 0,-2 16 261 0 0,0 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-2-1 0 0 0,-2-9-6233 0 0,0 2-2214 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20556,26 +20617,26 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8 190 14368 0 0,'0'0'2343'0'0,"0"0"-2297"0"0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,6 50 1087 0 0,-2-10-456 0 0,8 37 332 0 0,-10-47-653 0 0,1-2-1 0 0,10 39 1 0 0,2 8-76 0 0,12 136 86 0 0,-19-140-335 0 0,1 76 0 0 0,-3-32-83 0 0,-1 34 63 0 0,-2-24 99 0 0,18 377 105 0 0,-16-303-42 0 0,0-16 2 0 0,16 327 160 0 0,-9-137-334 0 0,-8-191 7 0 0,5 85-44 0 0,-2-194-292 0 0,-3-6-1100 0 0,24 128 0 0 0,-21-177-2410 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1216.04">11 184 13592 0 0,'0'0'1230'0'0,"2"0"-1012"0"0,16-1 178 0 0,1-1 1 0 0,24-7 0 0 0,3 0 527 0 0,103-24-170 0 0,18-3-543 0 0,-110 28-111 0 0,42-7 194 0 0,12 5 19 0 0,344-24 316 0 0,-207 24-149 0 0,-138 5-479 0 0,35-1-12 0 0,303 1-240 0 0,-193 13 450 0 0,-89 1-377 0 0,-92-6 139 0 0,1 2 0 0 0,85 21 0 0 0,-133-20 34 0 0,-12-3 35 0 0,1 0 0 0 0,0 2 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 2 0 0 0,25 15 0 0 0,-29-15 35 0 0,-2 1 0 0 0,1 0-1 0 0,0 0 1 0 0,9 13 0 0 0,-15-15-25 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,2 10-1 0 0,6 28 94 0 0,-2 1 0 0 0,6 78 0 0 0,-4-20-8 0 0,-3-55-58 0 0,20 135 4 0 0,-3-47-10 0 0,38 206-10 0 0,-34-211-42 0 0,27 124 44 0 0,61 288-37 0 0,-60-259 208 0 0,-3 20 278 0 0,-30-152-502 0 0,8 58 198 0 0,-5 107 277 0 0,-25-281-410 0 0,0-5 183 0 0,-2 1 1 0 0,-3 37-1 0 0,2-62-207 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,-1 2 1 0 0,1-3 0 0 0,-1 2 0 0 0,0-1 0 0 0,-1-1-1 0 0,-7 11 1 0 0,7-13-42 0 0,2-2 0 0 0,-2 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,-6 1 0 0 0,-3 2 0 0 0,-25 5 0 0 0,-29 1 102 0 0,-115 1 0 0 0,163-12-94 0 0,-207 0 82 0 0,119-2-188 0 0,-27 0-72 0 0,-68-1 131 0 0,-253 5 110 0 0,-4-2 78 0 0,38-11-160 0 0,367 9 43 0 0,-341-27 444 0 0,322 19-382 0 0,-38-6-92 0 0,-69-5-2 0 0,119 16 0 0 0,-9 4-135 0 0,52 1-213 0 0,-1 0 0 0 0,2-2 0 0 0,-30-5-1 0 0,43 5-28 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-6-2 0 0 0,1-4-1282 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1761.24">74 974 12440 0 0,'0'0'1454'0'0,"2"0"-571"0"0,11-2 382 0 0,1 1 0 0 0,19-6 0 0 0,16-1-703 0 0,43-10 159 0 0,-8 3-150 0 0,85-10 190 0 0,218 1 179 0 0,405 0-812 0 0,-430 20-128 0 0,31-13 0 0 0,-339 11-57 0 0,40-1-195 0 0,138-30 1 0 0,-232 36 237 0 0,1 1-13 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 2-25 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,-10-3-588 0 0,11 4 597 0 0,-4-1-419 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 1 1 0 0,0 0-1 0 0,-6 0 0 0 0,0 0-358 0 0,-9 0-642 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2228.02">760 250 5064 0 0,'-40'-14'2691'0'0,"5"0"3583"0"0,9 8-5441 0 0,14 5-664 0 0,0-1-1 0 0,-1 2 1 0 0,0 2-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 1 1 0 0,-15 7-1 0 0,21-7-65 0 0,-1-1-1 0 0,2 2 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 1-1 0 0,-1 0 0 0 0,2 0 0 0 0,-2 1 1 0 0,1-1-1 0 0,2 0 0 0 0,-2 1 0 0 0,1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,-3 7 0 0 0,1 0 37 0 0,1 0 0 0 0,2 1-1 0 0,-1-2 1 0 0,-5 30-1 0 0,9-35-128 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,5 13-1 0 0,-1-7-19 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,12 18 0 0 0,-14-25-1 0 0,2 2 0 0 0,-1-2 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0-1 0 0 0,0 2 0 0 0,10 2 0 0 0,-3-1-146 0 0,1 0-1 0 0,0-2 0 0 0,22 6 0 0 0,1-5-4705 0 0,-10-2-802 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2678.93">844 184 5064 0 0,'0'0'2509'0'0,"-3"7"2042"0"0,1-4-3692 0 0,1 0-545 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-2-1 0 0,0 7 1 0 0,-2 62 144 0 0,-1 10-442 0 0,2-54-16 0 0,-5 35 0 0 0,2-10 0 0 0,-2-9 4 0 0,4-32 16 0 0,1 1 0 0 0,0 21-1 0 0,3-31-16 0 0,-5 12 64 0 0,3-12 383 0 0,-3-68 864 0 0,2 34-1197 0 0,2 1 0 0 0,1 0 0 0 0,1-1 0 0 0,2 1 0 0 0,9-44 0 0 0,-11 66-30 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 2 0 0 0,1-2 1 0 0,1 2-1 0 0,-2-1 1 0 0,2 1-1 0 0,7-9 0 0 0,-12 16 46 0 0,2 2 18 0 0,0-1-113 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-2 0 1 0 0,2 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,2 3 1 0 0,13 20-7 0 0,-2 2 0 0 0,-1-1 0 0 0,-1 2-1 0 0,16 43 1 0 0,-5-11-90 0 0,-15-40-103 0 0,-1 0 1 0 0,9 32-1 0 0,-11-29-116 0 0,-6-22 145 0 0,0 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 2-1 0 0,-1-2 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-1 2-1 0 0,-2 2-4370 0 0,-4 0-1341 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3333.41">770 565 10136 0 0,'4'2'1049'0'0,"5"-1"-188"0"0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-2 0 0 0,10-3 0 0 0,1 2-926 0 0,-11 0 97 0 0,-1 0 0 0 0,0-1 0 0 0,1-1-1 0 0,-2 1 1 0 0,2-1 0 0 0,-2 0-1 0 0,1-1 1 0 0,7-7 0 0 0,5-3-182 0 0,13-11-266 0 0,52-49 0 0 0,-75 65 423 0 0,-1-3 0 0 0,0 1-1 0 0,-1-1 1 0 0,11-19 0 0 0,1-6 223 0 0,-21 39-214 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,4 8 233 0 0,1 12-154 0 0,-4-17-11 0 0,5 18 14 0 0,-2 1-1 0 0,6 26 1 0 0,5 24-102 0 0,8-16 16 0 0,-18-42 69 0 0,0 0-1 0 0,13 20 0 0 0,-1-1-83 0 0,-17-32-67 0 0,-2-2 40 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,-2-1 1 0 0,-1-4-81 0 0,-7-6 3 0 0,2-1 0 0 0,0-1 0 0 0,-15-25 0 0 0,13 17 116 0 0,-9-26-1 0 0,19 42 15 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,0-11 0 0 0,0 13-22 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,4-8 0 0 0,1 0 13 0 0,-4 7-6 0 0,0 1 1 0 0,0-1-1 0 0,0-1 1 0 0,1 2-1 0 0,-2 0 0 0 0,2 0 1 0 0,7-5-1 0 0,2 2-7 0 0,-1 0 0 0 0,0 2 0 0 0,1 0 0 0 0,-1 1 0 0 0,16-4 0 0 0,-25 8 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,-1-2 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,5 3 0 0 0,8 6 0 0 0,-14-10 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 3 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,2 11 0 0 0,-4-9 10 0 0,1-1 0 0 0,-1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-3 11 0 0 0,-2 3 179 0 0,-13 29 1 0 0,-21 34 633 0 0,40-82-820 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 2 0 0 0,1-1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,3 2 0 0 0,-3-2-18 0 0,1 0 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0-1 0 0 0,-1 1 0 0 0,2 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-2 1 0 0 0,2-1 0 0 0,0 0 0 0 0,3 1-1 0 0,3-2-328 0 0,0 1-1 0 0,-1-2 0 0 0,1 1 1 0 0,0-1-1 0 0,-1-1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-2 0-1 0 0,2 0 0 0 0,-2-1 1 0 0,2-1-1 0 0,-2 1 0 0 0,1-1 1 0 0,-2 0-1 0 0,2-2 0 0 0,9-10 1 0 0,-4-3-1256 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3830.25">1546 220 15520 0 0,'0'0'1558'0'0,"2"1"-1427"0"0,4 2-85 0 0,0 1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,0 1 1 0 0,6 7-1 0 0,33 49 308 0 0,-38-51-428 0 0,3 4 44 0 0,-2 1 1 0 0,1 0 0 0 0,-2 0-1 0 0,0 1 1 0 0,-1-2 0 0 0,4 21-1 0 0,-8-28 48 0 0,0-2 0 0 0,0 1 0 0 0,-1 16 0 0 0,0-14 125 0 0,-1-8-83 0 0,1 0-63 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 1 0 0,-11-12-123 0 0,9 10 114 0 0,-1-3 11 0 0,-1-1 0 0 0,2 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,2 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-2-11 0 0 0,2 4 0 0 0,0-1 0 0 0,2 1 0 0 0,0 1 0 0 0,0-1 0 0 0,1-16 0 0 0,1 22 9 0 0,0-1-1 0 0,1 1 1 0 0,0 1-1 0 0,0-2 1 0 0,-1 2-1 0 0,2-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-2 2-1 0 0,2-1 1 0 0,1 0-1 0 0,-2 1 0 0 0,2 1 1 0 0,0-2-1 0 0,-1 2 1 0 0,2 0-1 0 0,0 1 1 0 0,-2-1-1 0 0,2 1 1 0 0,0 0-1 0 0,0 1 1 0 0,15-6-1 0 0,5 8-393 0 0,-26 1 380 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 2-1 0 0,1-2 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1-2 0 0,1 2 2 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,-1 2 0 0 0,1-2 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,-1 4 0 0 0,-1 5 14 0 0,-1-2-1 0 0,-4 17 0 0 0,-3 9 75 0 0,-5 33 276 0 0,10-50-176 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-2 25 0 0 0,5-40-125 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0-1 0 0 0,4 8 0 0 0,-4-9-54 0 0,0-1-1 0 0,1 2 0 0 0,-1-2 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 2 0 0 0,0-2 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,6 0 1 0 0,1 0-241 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,15-5 0 0 0,16-10-5985 0 0,-26 10 976 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4161.92">2010 205 14600 0 0,'0'0'330'0'0,"1"1"45"0"0,1 5-255 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,-1 11 0 0 0,1-9-133 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 2 0 0 0,3 10 1 0 0,2 7 16 0 0,-3-14 37 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,2 1 1 0 0,0-1-1 0 0,-1-1 0 0 0,12 16 0 0 0,-6-11 100 0 0,-6-9-123 0 0,-2-1 0 0 0,3 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,2 0 0 0 0,8 6 0 0 0,4 0-19 0 0,-17-9-4 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-2-1 1 0 0,2 1-1 0 0,-1-1 1 0 0,3 0-1 0 0,10 6-445 0 0,-12-6 258 0 0,5-3-2344 0 0,-6 2 1704 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4601.79">2053 360 11256 0 0,'0'0'856'0'0,"7"0"-536"0"0,4-4-256 0 0,0 1-64 0 0,3 3 0 0 0,-4-2 0 0 0,-3-3-120 0 0,3 3-32 0 0,16-9-8 0 0,-12-1 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5270.51">2007 290 13216 0 0,'1'0'604'0'0,"13"0"-424"0"0,-1 0 1 0 0,-1-3 0 0 0,1 1-1 0 0,-1 0 1 0 0,22-8 0 0 0,-25 8-168 0 0,-1-1 0 0 0,1 1 0 0 0,-2 1 0 0 0,2 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,11 3 0 0 0,-16-4 48 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 2-1 0 0,-1-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 2 0 0 0,4 5 1 0 0,1 3 53 0 0,-2 1 1 0 0,10 17-1 0 0,8 16-68 0 0,-8-10 36 0 0,-11-25 6 0 0,-2 2-46 0 0,-3-12 84 0 0,-2-2-121 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-6 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,-4-3 0 0 0,-2-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-2 0 0 0,-7-7 0 0 0,10 10 41 0 0,0-1 0 0 0,1 1 0 0 0,-1-2 0 0 0,1 2 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-8 0 0 0,-2-5 65 0 0,2 12-71 0 0,1 1-1 0 0,0-2 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2 1 0 0,1-1-1 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,3-7 0 0 0,-1 5-19 0 0,-2 0 0 0 0,2 1 1 0 0,1 0-1 0 0,-2 0 0 0 0,2 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,14-2 0 0 0,35 1 2 0 0,-52 5-16 0 0,0 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,5 5 0 0 0,-7-7-8 0 0,-1 0 0 0 0,-1 0-1 0 0,2 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,-1-1 1 0 0,1 5-1 0 0,-2 1-37 0 0,0 0-1 0 0,0 0 1 0 0,-6 15-1 0 0,-2 12 316 0 0,-5 12 63 0 0,12-39-278 0 0,0 0 0 0 0,0 2 0 0 0,1-2 0 0 0,-1 2 0 0 0,2-2 0 0 0,-1 19-1 0 0,2-21-74 0 0,1-1-1 0 0,-1 2 0 0 0,1-1 1 0 0,0-1-1 0 0,1 2 0 0 0,2 5 0 0 0,-3-11-58 0 0,0-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,2 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,2 0-1 0 0,-1-1-205 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-2 0 0 0,1 2 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2 0 0 0,0 2 0 0 0,0-5 0 0 0,1-8-692 0 0,-1 0-1 0 0,0 0 1 0 0,-1-28-1 0 0,-1 21 2902 0 0,1 2 480 0 0,0 15-1905 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,3-7 1 0 0,-3 11-52 0 0,-1 1-379 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,4 4 371 0 0,4 9-643 0 0,-6-4 221 0 0,-1 2 0 0 0,1-2 0 0 0,-2 2 0 0 0,1 12 0 0 0,-2 0 15 0 0,-5 30 0 0 0,3-26-45 0 0,-1 35 1 0 0,4-61-97 0 0,0-2-10 0 0,-3-66-129 0 0,3 38 242 0 0,1 0 0 0 0,1 1 0 0 0,1-2 0 0 0,12-47 0 0 0,-14 73 53 0 0,1-2-1 0 0,0 2 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,4-5-1 0 0,-7 9 97 0 0,3 1-80 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,2 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,2 1 0 0 0,-1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,2 3 1 0 0,7 6-127 0 0,-2 1-1 0 0,1-1 1 0 0,-1 2 0 0 0,14 22 0 0 0,-13-20 44 0 0,5 8-41 0 0,-8-10-76 0 0,17 19-1 0 0,-19-24 13 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,3 10-1 0 0,6 11-552 0 0,-12-27 497 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 4 0 0 0,0-3-681 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5634.82">2508 487 14280 0 0,'0'0'1528'0'0,"6"4"-1528"0"0,5 0 0 0 0,3-4 735 0 0,-4 0 97 0 0,5-4 16 0 0,-1 0 8 0 0,3-1-720 0 0,6 0-136 0 0,-3 3 0 0 0,5-6-64 0 0,0-2-776 0 0,3-1-152 0 0,1 4-31 0 0,-1-4-5601 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6276.75">749 1238 2760 0 0,'1'-3'122'0'0,"1"-1"0"0"0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,1-6 0 0 0,-1 3 1024 0 0,-1 2 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-10 0 0 0,0 14-1007 0 0,1-1-1 0 0,-1 1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,2-1 0 0 0,-2 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-3-1 0 0 0,1 1 39 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,2 0-1 0 0,-1-1 1 0 0,-1 2 0 0 0,1-1-1 0 0,-4 1 1 0 0,1 1 2 0 0,-1 1 0 0 0,2 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-8 6 0 0 0,6-2-108 0 0,-1-1 0 0 0,0 2 0 0 0,2-1 0 0 0,-2 0 0 0 0,-6 16 0 0 0,6-11-55 0 0,0 2-1 0 0,1 0 0 0 0,0 0 0 0 0,-8 28 0 0 0,13-38-14 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 2 1 0 0,1-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 2 0 0 0,1-2 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 2-1 0 0,0-2 0 0 0,0 0 1 0 0,0 0-1 0 0,4 8 0 0 0,2-2 23 0 0,0-2-1 0 0,0 2 0 0 0,0-3 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,1 0 1 0 0,0-2-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1-1 0 0 0,0 0 1 0 0,0-1-1 0 0,14 2 0 0 0,-19-3-28 0 0,1-1 0 0 0,1 0-1 0 0,-2-1 1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,8-4 0 0 0,-2-1-209 0 0,-1 0 1 0 0,2-1 0 0 0,15-15-1 0 0,-26 20 108 0 0,1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-7 0 0 0,0 11 317 0 0,-9 19 244 0 0,7-15-441 0 0,1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,2 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,0 1 0 0 0,0 3-1 0 0,1-1-9 0 0,0 2-1 0 0,1-2 1 0 0,0 0-1 0 0,0 2 0 0 0,7 9 1 0 0,-8-14 46 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-2-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,2 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-2-2-1 0 0,2 0 1 0 0,5 2-1 0 0,-5-3 48 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,2-2 0 0 0,-1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,7-3 0 0 0,-5 3-46 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-2 0 0 0,7-6 0 0 0,-9 7 7 0 0,1 1-1 0 0,-1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-2 0 0 0,1 1 1 0 0,-1 0-1 0 0,3-8 1 0 0,-5 11-58 0 0,1-1 0 0 0,-1 1 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-2 0 0 0,-1 2 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,-1-2 0 0 0,-2-1 12 0 0,-1-1 0 0 0,1 1 0 0 0,-1 1-1 0 0,-1 0 1 0 0,2-1 0 0 0,-2 2 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-14 0-1 0 0,6 3-161 0 0,0 0-1 0 0,-1 2 0 0 0,1 1 0 0 0,0-1 0 0 0,0 2 1 0 0,0 0-1 0 0,1 1 0 0 0,-22 10 0 0 0,-6 6-3310 0 0,38-17 1954 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6616.24">1354 1180 9184 0 0,'-2'-9'830'0'0,"1"4"-789"0"0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,-4-8 0 0 0,4 12-16 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-2 0 0 0,0 2 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,-1 0-1 0 0,-4 2 196 0 0,0-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-9 9 0 0 0,5-4 44 0 0,2 1-1 0 0,-1-1 0 0 0,1 2 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-6 14 1 0 0,10-19-206 0 0,0 0 1 0 0,-1 1-1 0 0,2 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 2 1 0 0,1 7 0 0 0,0-9-23 0 0,1-2-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,3 4-1 0 0,3 0 30 0 0,1 1 0 0 0,0-2 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1-2 0 0 0,-1 0 0 0 0,0-1 0 0 0,21 2 0 0 0,-28-3-21 0 0,5 0-450 0 0,0 0 0 0 0,-1-1 0 0 0,2 0 0 0 0,-2 0 0 0 0,16-3 0 0 0,-7 0-497 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7054.61">1500 1182 12528 0 0,'0'0'602'0'0,"-3"5"45"0"0,-14 19-466 0 0,2-2 230 0 0,7-10-255 0 0,2 0-1 0 0,0 1 1 0 0,1 0 0 0 0,-6 15 0 0 0,10-25-113 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,3 5 0 0 0,0-1 8 0 0,-4-5-18 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,5 1 1 0 0,-2 1-1 0 0,-4-2-26 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,2-1-1 0 0,-1 1-27 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-5 1 0 0,-1 2 11 0 0,1 0 1 0 0,-1-1-1 0 0,1-1 1 0 0,-1 2-1 0 0,0-1 1 0 0,0 0-1 0 0,0-7 1 0 0,3-7-110 0 0,-3 18 114 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1-2-1 0 0,-1 2 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-2 0 0 0,-1-9 97 0 0,1 10-56 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,3-5 0 0 0,-1-7 289 0 0,-2 14-175 0 0,8 6-38 0 0,-4-2-39 0 0,-1 0 0 0 0,2 0-1 0 0,-1 0 1 0 0,-1 1-1 0 0,0 1 1 0 0,1-1-1 0 0,5 9 1 0 0,17 35-327 0 0,-23-44 199 0 0,2 5-133 0 0,0 0 1 0 0,2-1 0 0 0,6 8-1 0 0,-6-12-806 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8386.07">1674 1192 12464 0 0,'0'0'1384'0'0,"1"2"-1091"0"0,1 3-89 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 2 0 0 0,3 2 0 0 0,-3-3-22 0 0,0-1 0 0 0,0 2 0 0 0,0-1 1 0 0,0 0-1 0 0,2 7 0 0 0,0-1-34 0 0,0 0 0 0 0,9 14 0 0 0,2 2-69 0 0,-9-13-68 0 0,-6-11-10 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 4 0 0 0,0-4 42 0 0,4 4-65 0 0,-4-6-144 0 0,-2-2-299 0 0,-52-64-1138 0 0,49 56 1702 0 0,0 2-1 0 0,0-2 1 0 0,0 1 0 0 0,-2-11 0 0 0,5 17-84 0 0,0 0 26 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,2-3-1 0 0,0-2 30 0 0,0 1 0 0 0,1 0 0 0 0,5-9 0 0 0,-6 13-70 0 0,0-1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 2-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 2 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,5 0-1 0 0,-3 1 12 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,8 3 1 0 0,-8-1 22 0 0,-1 0 0 0 0,2 0 0 0 0,-1 2 0 0 0,-2-2 0 0 0,2 1 0 0 0,0 1 0 0 0,-2-1 0 0 0,1 2 0 0 0,1-1 0 0 0,-2 0 0 0 0,8 9 0 0 0,1 4 18 0 0,-1 1 0 0 0,12 24 1 0 0,-14-22-42 0 0,-7-13-9 0 0,-1 0 0 0 0,1-1 0 0 0,1 0 0 0 0,4 7 1059 0 0,-20-19-819 0 0,10 4-231 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1-4 0 0 0,3 4-6 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-2 0 0 0,0 2-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,5-12 54 0 0,-5 12-55 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,3-5 0 0 0,1 0-4 0 0,-3 5 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,3 1 0 0 0,27-7-110 0 0,1-2-278 0 0,7 0-58 0 0,-38 8 438 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-2 0 0 0,1 1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,2-2 1 0 0,-1-1-7 0 0,0 2-16 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-2-1 0 0,-1 2 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0-1 1 0 0,-1 3 13 0 0,1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,-1 1-1 0 0,-3-1 76 0 0,1 1 0 0 0,1 0 1 0 0,-2 1-1 0 0,1-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 2 1 0 0,-7 3-1 0 0,9-5-14 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 1 1 0 0,0-2 0 0 0,0 1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 2 0 0 0,0-1-1 0 0,1 5 1 0 0,0-1-41 0 0,1-2 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-2 0 0 0 0,2 1 0 0 0,0-2 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,2-2 0 0 0,5 3 0 0 0,-5-2-4 0 0,-4-2 0 0 0,1-1 0 0 0,0 0 0 0 0,0 2 0 0 0,0-2 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,3-1 0 0 0,-3 1-56 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,-1-1-1 0 0,2 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,3-2-1 0 0,-5 3-133 0 0,1 0 161 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,2-1-1 0 0,1-1-27 0 0,-2 0 62 0 0,1 0 1 0 0,0 1-1 0 0,0-2 1 0 0,1 1-1 0 0,-2 1 1 0 0,2-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,2-4 1 0 0,3 2 5 0 0,-7 3-6 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,2 2 0 0 0,1 0 3 0 0,3 2 24 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 2 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-2 1 0 0 0,1-1 0 0 0,0 0 0 0 0,3 9-1 0 0,-4-6-33 0 0,0-2 11 0 0,-12 4 170 0 0,7-10-170 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-2 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-2 0 0 0 0,1 0 27 0 0,0 0 1 0 0,0 0-1 0 0,1-2 1 0 0,0 2-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,-2-5 1 0 0,2-1 123 0 0,0 4-169 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,0 2 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0-2 0 0 0,1 2 0 0 0,0-4 0 0 0,1 1 22 0 0,-1 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,1-2 0 0 0,0 2 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 1 0 0 0,7-6-1 0 0,3-3-39 0 0,-10 8-34 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,6-3 1 0 0,14-4-262 0 0,0 2 0 0 0,2 1 0 0 0,44-7 0 0 0,-42 10 279 0 0,-22 1 58 0 0,-7 28 211 0 0,0-25-222 0 0,-1 10 67 0 0,-1 1 0 0 0,1-2 0 0 0,-2 2 0 0 0,-3 11-1 0 0,-3 4-63 0 0,-11 43 0 0 0,20-64-7 0 0,-1-2 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 2 0 0 0,0 4 0 0 0,-1-7 124 0 0,2-2-49 0 0,0 0-92 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,3-2 0 0 0,0-2-76 0 0,-1-1 0 0 0,0 2 1 0 0,0-2-1 0 0,2-8 0 0 0,2-1-25 0 0,-1-5-34 0 0,-5 17 149 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,3-3 0 0 0,-4 7 311 0 0,5 1-240 0 0,-2 1 0 0 0,2 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 2 0 0 0,7 5 0 0 0,-8-6-41 0 0,13 9 15 0 0,1-2 0 0 0,29 14-1 0 0,34 15-42 0 0,-17-11-1666 0 0,-50-20-3859 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9151.34">681 2077 3224 0 0,'4'0'96'0'0,"-2"-1"-1"0"0,2 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-2 0 1 0 0,7-3 0 0 0,7-4 2985 0 0,1 5 3749 0 0,-15 3-6671 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 2 0 0 0,1 1 0 0 0,2 6-226 0 0,0 1-1 0 0,-1 1 1 0 0,2 18 0 0 0,-1-9 260 0 0,10 68-193 0 0,-18-113-796 0 0,-1-41 0 0 0,3 29 797 0 0,1 25-14 0 0,1-1 0 0 0,0 2 0 0 0,2-22 0 0 0,-2 29 26 0 0,1 1 0 0 0,0-2 0 0 0,-1 1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,2-2-1 0 0,-3 3 4 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-2 1 0 0,-1 2-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,2 1 0 0 0,3 1 107 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-2 1 0 0 0,8 6 1 0 0,26 34 114 0 0,-21-23-290 0 0,-14-19 52 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,2 2 0 0 0,10 11-158 0 0,-14-13 183 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,3 2 1 0 0,-5-3 55 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-2-1 0 0,2 0-97 0 0,-1-1-1 0 0,-1 0 1 0 0,1-2-1 0 0,-1 2 1 0 0,1 0-1 0 0,-1-6 0 0 0,0-4-167 0 0,-1-1 0 0 0,-1-26 0 0 0,-1 0-840 0 0,0 31 387 0 0,0-4-3498 0 0,2 2 2557 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9508.7">1177 2039 2304 0 0,'0'0'101'0'0,"0"2"1"0"0,-1 24 273 0 0,-7 35 8257 0 0,7-56-8605 0 0,0 2 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2-1 0 0,1-1 1 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,1-1 0 0 0,0 2 0 0 0,-1-2 0 0 0,1 1-1 0 0,1 0 1 0 0,4 6 0 0 0,-5-8 50 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 2-1 0 0,-1-2 0 0 0,0 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-2 1 1 0 0,1-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,5-1-1 0 0,0-1 3 0 0,-6 2-58 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-2 0 0 0,0 1 0 0 0,0 1 0 0 0,-1-2 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1-2 0 0 0,3 0 1 0 0,-1-1-2 0 0,-1 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-2-2 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1-9 0 0 0,0 10 1 0 0,0-1 1 0 0,-1 2-1 0 0,0-1 1 0 0,0-1-1 0 0,0 2 1 0 0,0-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,-5-7-1 0 0,1 1 201 0 0,1 0-1 0 0,-2-1 0 0 0,-15-15 1 0 0,20 23-237 0 0,-1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,1 0 0 0 0,-2 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-7 1 0 0 0,4 0-158 0 0,-1 0-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,-7 3 1 0 0,-3 1-510 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9847.52">1479 1908 14600 0 0,'0'0'705'0'0,"-1"1"-310"0"0,-3 3-366 0 0,1-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1 6 0 0 0,1-5 7 0 0,1 0 1 0 0,0-1 0 0 0,0 2-1 0 0,0-2 1 0 0,1 2 0 0 0,0-2-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,0 0 1 0 0,7 11 0 0 0,-5-9 13 0 0,-1-1-1 0 0,2-1 1 0 0,0 2 0 0 0,-1-2 0 0 0,2-1-1 0 0,-1 2 1 0 0,1-2 0 0 0,11 8 0 0 0,-14-11-129 0 0,-1-1 1 0 0,-1 0 0 0 0,2 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,4 0 1 0 0,-3-1-515 0 0,2 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1-1-1 0 0,-2 1 1 0 0,6-4 0 0 0,8-7-1005 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10271.52">1752 1933 6912 0 0,'0'0'622'0'0,"-5"4"-500"0"0,-6 5 1208 0 0,0 1-1 0 0,0 0 1 0 0,1 1 0 0 0,-13 16 0 0 0,21-24-1267 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 1 0 0 0,-1-2 0 0 0,4 5 0 0 0,-2-2-10 0 0,-1-1 1 0 0,2 0-1 0 0,0-1 0 0 0,0 2 0 0 0,-1-2 0 0 0,1 0 1 0 0,1 0-1 0 0,6 6 0 0 0,-9-9-48 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-2 0 0 0 0,2 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-2 1 0 0 0,2-1 0 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,3-2 0 0 0,-2 1-26 0 0,-1 1-28 0 0,0-2 0 0 0,0 2 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,1-4-1 0 0,0-1-20 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,2-15 0 0 0,-5 21 35 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,0-13-256 0 0,1 11 260 0 0,1 3 28 0 0,-1 0 1 0 0,0 0-1 0 0,1-2 0 0 0,-1 2 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0-1 1 0 0,0 3 14 0 0,1 0 1 0 0,0-2 0 0 0,-1 2-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-2 1 0 0,1 2 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,1-1 4 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2 0-1 0 0,2 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,2 2 0 0 0,0 1-3 0 0,2 0 1 0 0,-1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-2 2-1 0 0,7 9 1 0 0,-9-13-118 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 6 0 0 0,-1 5-4327 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11494.08">1950 1971 14600 0 0,'0'0'330'0'0,"2"2"45"0"0,6 9-60 0 0,0 2 1 0 0,0-1-1 0 0,-2 2 1 0 0,9 19-1 0 0,-11-25-123 0 0,4 10-143 0 0,11 28 94 0 0,-11-21 222 0 0,-6-14-94 0 0,-1-7-476 0 0,-7-4-47 0 0,5-1 191 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-2-1 0 0,1 2 1 0 0,-1-3-1 0 0,0 2-7 0 0,-4-7 19 0 0,1-2-1 0 0,-1 0 1 0 0,3 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-24 1 0 0,12 7 49 0 0,-6 15 0 0 0,3 4 0 0 0,-4 8 3 0 0,2-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,-2-1 1 0 0,2 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,2 1 0 0 0,3 2 17 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-2 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,8 10 1 0 0,4 8 35 0 0,9 12-57 0 0,-19-25 20 0 0,8 17 28 0 0,-13-21-46 0 0,1-2 11 0 0,-2-4 180 0 0,-15-1-113 0 0,12-1-71 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,2 0 0 0 0,-2-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-3-5 0 0 0,3 4-4 0 0,-3-3-2 0 0,2 1 0 0 0,-1-2 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,2 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,1-10 0 0 0,0 14 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 2 0 0 0,3-3 0 0 0,-3 2 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 2 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,4 1 0 0 0,59 0 72 0 0,-65 0-73 0 0,11 1-25 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,22 9-1 0 0,-28-8 13 0 0,-1-1 0 0 0,2 0 1 0 0,-2 0-1 0 0,2-1 0 0 0,-2 0 0 0 0,2 0 1 0 0,0-1-1 0 0,11-1 0 0 0,16 1 3 0 0,-34 0 7 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-2 0 0 0,4-17-219 0 0,-6 16 202 0 0,0 1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,2 0 0 0 0,-1 1 1 0 0,-1 0-1 0 0,-2-2 0 0 0,0 0-23 0 0,2 1 48 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-2 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-4 3 0 0 0,6-3 16 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 2 0 0 0,0-2 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0 2 42 0 0,1 2 0 0 0,-1-1 0 0 0,1 0-1 0 0,1 1 1 0 0,-1-2 0 0 0,1 2 0 0 0,3 5-1 0 0,-2-6-1 0 0,0-1 0 0 0,1-1 0 0 0,0 2 0 0 0,1-2 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,5 5 0 0 0,-7-5-60 0 0,-1 1 0 0 0,15 2 0 0 0,-17-6-34 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-2 0 0 0,1 2 0 0 0,1-2 1 0 0,16-23-352 0 0,-15 20 388 0 0,-2 3-7 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,1 1 0 0 0,-2-1 0 0 0,1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,2-3-1 0 0,-4 2 7 0 0,0 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 2 1 0 0,1-2-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,2 1 1 0 0,14 21 62 0 0,-14-20-65 0 0,1 1 2 0 0,0 10 0 0 0,0 6 0 0 0,-2-17 1 0 0,0 9 69 0 0,-1-11 145 0 0,-2-19-149 0 0,1 12-69 0 0,1 1-1 0 0,0-2 1 0 0,1 2-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,0 1-1 0 0,4-10 1 0 0,0-1-39 0 0,2 2-1 0 0,10-19 1 0 0,-8 20-108 0 0,-1 2 0 0 0,1-1 0 0 0,0 0 0 0 0,0 2-1 0 0,2 0 1 0 0,-1 1 0 0 0,17-11 0 0 0,-15 12-348 0 0,-1 2 1 0 0,27-9-1 0 0,-8 2 327 0 0,-16 10 182 0 0,-65 49 2392 0 0,37-33-2145 0 0,9-9-240 0 0,2-2 0 0 0,-1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 2-1 0 0,1-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-3 6 0 0 0,4-8-13 0 0,0 2-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 2-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1 3 0 0 0,-1-5-4 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,3 3 0 0 0,1-2 46 0 0,-1 0-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,9-1 1 0 0,3 1-101 0 0,-17-1 34 0 0,2 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-2 0 0 0,0 2 0 0 0,1-1 1 0 0,-1 1-1 0 0,-1-1 0 0 0,2-2 0 0 0,-2 4 9 0 0,6-10-58 0 0,-4 8 50 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,0-2 0 0 0,0 3 10 0 0,0 2 7 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,1-2-1 0 0,-1 2 179 0 0,15 8 94 0 0,-8-1-140 0 0,-1 2 0 0 0,0-1 0 0 0,0 2-1 0 0,7 10 1 0 0,-14-19-135 0 0,6 9-239 0 0,1 1 1 0 0,0-2-1 0 0,0 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0-1 1 0 0,1-1-1 0 0,13 10 1 0 0,-19-15-178 0 0,1 0 1 0 0,0 1-1 0 0,-1-2 1 0 0,0 1-1 0 0,1 0 1 0 0,5-1-1 0 0,-8 0 381 0 0,14 2-4700 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8 180 14368 0 0,'0'0'2343'0'0,"0"0"-2297"0"0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,6 47 1087 0 0,-1-9-456 0 0,7 35 332 0 0,-10-45-653 0 0,2-1-1 0 0,10 36 1 0 0,2 8-76 0 0,12 129 86 0 0,-19-133-335 0 0,0 72 0 0 0,-2-30-83 0 0,-2 32 63 0 0,-2-23 99 0 0,19 357 105 0 0,-16-287-42 0 0,-1-15 2 0 0,18 310 160 0 0,-11-131-334 0 0,-8-179 7 0 0,6 79-44 0 0,-3-183-292 0 0,-2-5-1100 0 0,25 120 0 0 0,-23-167-2410 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1216.04">12 174 13592 0 0,'0'0'1230'0'0,"2"0"-1012"0"0,17-1 178 0 0,1-1 1 0 0,26-6 0 0 0,3-1 527 0 0,109-22-170 0 0,20-3-543 0 0,-118 26-111 0 0,46-6 194 0 0,12 5 19 0 0,366-23 316 0 0,-220 22-149 0 0,-148 5-479 0 0,39 0-12 0 0,321 0-240 0 0,-205 13 450 0 0,-94 0-377 0 0,-98-5 139 0 0,0 2 0 0 0,91 19 0 0 0,-141-18 34 0 0,-13-3 35 0 0,1 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,27 15 0 0 0,-32-14 35 0 0,-1 0 0 0 0,1 1-1 0 0,-1 0 1 0 0,10 11 0 0 0,-15-13-25 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,3 10-1 0 0,5 27 94 0 0,-1 0 0 0 0,6 75 0 0 0,-4-20-8 0 0,-4-52-58 0 0,22 128 4 0 0,-4-44-10 0 0,42 194-10 0 0,-38-199-42 0 0,30 117 44 0 0,64 273-37 0 0,-63-246 208 0 0,-4 20 278 0 0,-31-145-502 0 0,8 56 198 0 0,-5 101 277 0 0,-27-266-410 0 0,0-5 183 0 0,-2 1 1 0 0,-3 35-1 0 0,2-58-207 0 0,-1-1-1 0 0,1 1 1 0 0,-2-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,-8 10 1 0 0,8-13-42 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-7 1 0 0 0,-3 2 0 0 0,-26 4 0 0 0,-32 1 102 0 0,-121 2 0 0 0,172-12-94 0 0,-219 0 82 0 0,126-2-188 0 0,-29 0-72 0 0,-71-1 131 0 0,-270 5 110 0 0,-5-2 78 0 0,42-11-160 0 0,389 9 43 0 0,-362-25 444 0 0,342 17-382 0 0,-40-5-92 0 0,-73-5-2 0 0,126 15 0 0 0,-10 4-135 0 0,56 1-213 0 0,-1 0 0 0 0,1-2 0 0 0,-31-4-1 0 0,46 4-28 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,-5-2 0 0 0,0-3-1282 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1761.24">79 921 12440 0 0,'0'0'1454'0'0,"2"0"-571"0"0,12-1 382 0 0,1 0 0 0 0,20-6 0 0 0,17-1-703 0 0,46-9 159 0 0,-9 3-150 0 0,91-9 190 0 0,231 0 179 0 0,431 0-812 0 0,-456 19-128 0 0,32-12 0 0 0,-361 11-57 0 0,43-2-195 0 0,147-28 1 0 0,-247 34 237 0 0,1 1-13 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-25 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,-10-3-588 0 0,11 4 597 0 0,-5-1-419 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,1 0-1 0 0,-7 0 0 0 0,1 0-358 0 0,-10 0-642 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2228.02">808 237 5064 0 0,'-42'-14'2691'0'0,"4"1"3583"0"0,11 7-5441 0 0,14 5-664 0 0,0 0-1 0 0,-1 1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 1 0 0 0,0 0-1 0 0,0 1 1 0 0,-17 6-1 0 0,22-6-65 0 0,0-1-1 0 0,1 2 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-4 8 0 0 0,2-1 37 0 0,1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-6 27-1 0 0,10-32-128 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,5 12-1 0 0,-1-7-19 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,13 17 0 0 0,-14-23-1 0 0,1 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,10 3 0 0 0,-3-1-146 0 0,0-1-1 0 0,1-1 0 0 0,24 5 0 0 0,0-4-4705 0 0,-10-2-802 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2678.93">898 174 5064 0 0,'0'0'2509'0'0,"-4"7"2042"0"0,2-4-3692 0 0,1-1-545 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 7 1 0 0,-3 58 144 0 0,0 10-442 0 0,2-52-16 0 0,-5 34 0 0 0,1-10 0 0 0,-1-8 4 0 0,4-31 16 0 0,1 1 0 0 0,-1 21-1 0 0,4-30-16 0 0,-5 11 64 0 0,3-11 383 0 0,-3-65 864 0 0,2 33-1197 0 0,2 1 0 0 0,1-1 0 0 0,1 0 0 0 0,2 1 0 0 0,10-42 0 0 0,-12 62-30 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,8-8 0 0 0,-13 15 46 0 0,2 2 18 0 0,0-1-113 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,2 3 1 0 0,14 19-7 0 0,-2 1 0 0 0,-1 0 0 0 0,-1 1-1 0 0,17 41 1 0 0,-6-10-90 0 0,-15-38-103 0 0,-2 0 1 0 0,10 30-1 0 0,-11-27-116 0 0,-7-21 145 0 0,0 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,-1 2-1 0 0,-2 2-4370 0 0,-4-1-1341 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3333.41">819 535 10136 0 0,'4'1'1049'0'0,"6"0"-188"0"0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-2 0 0 0,12-2 0 0 0,0 1-926 0 0,-12 0 97 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,8-8 0 0 0,6-2-182 0 0,13-10-266 0 0,55-47 0 0 0,-79 61 423 0 0,-1-2 0 0 0,-1 1-1 0 0,0-1 1 0 0,11-19 0 0 0,2-4 223 0 0,-23 36-214 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,4 7 233 0 0,2 12-154 0 0,-5-16-11 0 0,5 17 14 0 0,-1 1-1 0 0,5 24 1 0 0,6 23-102 0 0,9-15 16 0 0,-20-40 69 0 0,1 1-1 0 0,13 18 0 0 0,-1-1-83 0 0,-18-30-67 0 0,-2-2 40 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,-2-1 1 0 0,-2-3-81 0 0,-6-7 3 0 0,1 0 0 0 0,0-1 0 0 0,-15-24 0 0 0,13 16 116 0 0,-9-24-1 0 0,20 39 15 0 0,-1 0 0 0 0,2 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,0-10 0 0 0,0 13-22 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,4-7 0 0 0,2 0 13 0 0,-5 6-6 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,8-4-1 0 0,1 1-7 0 0,0 1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,17-3 0 0 0,-27 7 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,5 3 0 0 0,9 5 0 0 0,-15-9 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 3 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,2 10 0 0 0,-4-9 10 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,-3 10 0 0 0,-3 3 179 0 0,-13 27 1 0 0,-23 32 633 0 0,43-77-820 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,3 2 0 0 0,-3-2-18 0 0,1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,3 1-1 0 0,4-2-328 0 0,-1 1-1 0 0,0-2 0 0 0,0 1 1 0 0,1-1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,1-1 0 0 0,10-10 1 0 0,-4-3-1256 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3830.25">1644 208 15520 0 0,'0'0'1558'0'0,"2"1"-1427"0"0,5 2-85 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,6 8-1 0 0,34 45 308 0 0,-39-47-428 0 0,2 3 44 0 0,-1 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,-1 1 1 0 0,-1-1 0 0 0,5 19-1 0 0,-9-27 48 0 0,0-1 0 0 0,0 1 0 0 0,-1 14 0 0 0,0-12 125 0 0,-1-8-83 0 0,1 0-63 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 1 0 0,-12-12-123 0 0,10 11 114 0 0,-1-4 11 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-2-10 0 0 0,2 4 0 0 0,0-1 0 0 0,1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,2-15 0 0 0,0 20 9 0 0,0 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,16-5-1 0 0,6 7-393 0 0,-28 1 380 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1-2 0 0,1 2 2 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 4 0 0 0,-1 4 14 0 0,-1-1-1 0 0,-5 15 0 0 0,-2 9 75 0 0,-6 31 276 0 0,10-47-176 0 0,2 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-2 24 0 0 0,5-38-125 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,5 7 0 0 0,-5-8-54 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,7 0 1 0 0,0 0-241 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,16-4 0 0 0,16-10-5985 0 0,-27 9 976 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4161.93">2138 194 14600 0 0,'0'0'330'0'0,"1"1"45"0"0,1 5-255 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1 10 0 0 0,1-9-133 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,3 10 1 0 0,3 7 16 0 0,-4-14 37 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,11 14 0 0 0,-5-9 100 0 0,-7-10-123 0 0,-1 0 0 0 0,2 1 0 0 0,-1-2 0 0 0,0 1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,9 5 0 0 0,4 1-19 0 0,-18-9-4 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,3 0-1 0 0,11 5-445 0 0,-13-5 258 0 0,5-3-2344 0 0,-6 2 1704 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4601.79">2183 341 11256 0 0,'0'0'856'0'0,"8"0"-536"0"0,4-4-256 0 0,-1 1-64 0 0,4 3 0 0 0,-4-2 0 0 0,-4-3-120 0 0,4 3-32 0 0,16-8-8 0 0,-12-1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5270.51">2134 274 13216 0 0,'2'0'604'0'0,"12"0"-424"0"0,0 0 1 0 0,-1-2 0 0 0,1 0-1 0 0,-1 0 1 0 0,23-8 0 0 0,-27 8-168 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,12 4 0 0 0,-16-4 48 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,5 6 1 0 0,0 2 53 0 0,-1 1 1 0 0,10 17-1 0 0,8 14-68 0 0,-8-9 36 0 0,-11-23 6 0 0,-3 1-46 0 0,-3-11 84 0 0,-2-2-121 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-6 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,-5-3 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-8-7 0 0 0,11 9 41 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-2-7 0 0 0,-1-5 65 0 0,2 11-71 0 0,1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,4-6 0 0 0,-2 4-19 0 0,-1 1 0 0 0,1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,16-3 0 0 0,36 1 2 0 0,-54 5-16 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,5 6 0 0 0,-7-7-8 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,-1-1 1 0 0,1 4-1 0 0,-2 2-37 0 0,0 0-1 0 0,0-1 1 0 0,-7 15-1 0 0,-2 11 316 0 0,-4 11 63 0 0,11-36-278 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,2-1 0 0 0,-2 17-1 0 0,3-19-74 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,2 6 0 0 0,-3-11-58 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,2 0-1 0 0,0-1-205 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-5 0 0 0,1-7-692 0 0,0 0-1 0 0,-1 0 1 0 0,-1-27-1 0 0,-1 20 2902 0 0,1 2 480 0 0,-1 14-1905 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,3-6 1 0 0,-3 10-52 0 0,-1 1-379 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,5 4 371 0 0,3 8-643 0 0,-6-3 221 0 0,-1 1 0 0 0,1-1 0 0 0,-2 1 0 0 0,1 12 0 0 0,-2 0 15 0 0,-5 28 0 0 0,3-25-45 0 0,-1 34 1 0 0,4-58-97 0 0,0-2-10 0 0,-4-62-129 0 0,4 35 242 0 0,1 1 0 0 0,1 0 0 0 0,2-1 0 0 0,12-45 0 0 0,-15 69 53 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,5-6-1 0 0,-8 9 97 0 0,3 1-80 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,3 3 1 0 0,6 5-127 0 0,-1 1-1 0 0,0 0 1 0 0,0 1 0 0 0,15 21 0 0 0,-15-18 44 0 0,6 6-41 0 0,-8-8-76 0 0,17 17-1 0 0,-20-22 13 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,4 9-1 0 0,6 10-552 0 0,-13-25 497 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 4 0 0 0,0-4-681 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5634.82">2667 461 14280 0 0,'0'0'1528'0'0,"7"4"-1528"0"0,4-1 0 0 0,4-3 735 0 0,-4 0 97 0 0,5-3 16 0 0,-1-1 8 0 0,3-1-720 0 0,6 0-136 0 0,-2 3 0 0 0,4-5-64 0 0,1-3-776 0 0,2 0-152 0 0,2 3-31 0 0,-1-3-5601 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6276.75">797 1171 2760 0 0,'1'-3'122'0'0,"1"0"0"0"0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-7 0 0 0,-1 4 1024 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-9 0 0 0,0 13-1007 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-3-1 0 0 0,1 1 39 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-5 1 1 0 0,2 1 2 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-9 6 0 0 0,6-3-108 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-7 14 0 0 0,6-9-55 0 0,1 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-9 27 0 0 0,14-36-14 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,5 7 0 0 0,1-2 23 0 0,1-1-1 0 0,-1 1 0 0 0,1-2 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,2-1-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 1 0 0,0-1-1 0 0,14 1 0 0 0,-19-2-28 0 0,0-1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,9-4 0 0 0,-2 0-209 0 0,-1-1 1 0 0,1-1 0 0 0,17-13-1 0 0,-27 18 108 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-6 0 0 0,0 10 317 0 0,-9 18 244 0 0,7-14-441 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,2 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,0 0 0 0 0,1 4-1 0 0,0-1-9 0 0,0 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,8 9 1 0 0,-9-13 46 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,5 2-1 0 0,-4-3 48 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,6-2 0 0 0,-4 2-46 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,8-7 0 0 0,-10 8 7 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,3-7 1 0 0,-5 10-58 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-1-2 0 0 0,-3-1 12 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-15-1-1 0 0,6 3-161 0 0,0 0-1 0 0,-1 2 0 0 0,1 0 0 0 0,0 0 0 0 0,0 2 1 0 0,0 0-1 0 0,1 1 0 0 0,-23 9 0 0 0,-7 6-3310 0 0,41-17 1954 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6616.24">1440 1116 9184 0 0,'-2'-8'830'0'0,"1"3"-789"0"0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,-3-7 0 0 0,4 11-16 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,-2 0-1 0 0,-3 2 196 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 1 1 0 0,0-1-1 0 0,-9 8 0 0 0,6-3 44 0 0,1 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-6 12 1 0 0,11-17-206 0 0,0 0 1 0 0,-1 1-1 0 0,2-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 8 0 0 0,0-10-23 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,3 5-1 0 0,4 0 30 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,22 2 0 0 0,-30-3-21 0 0,6 0-450 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,16-3 0 0 0,-7 0-497 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7054.61">1595 1118 12528 0 0,'0'0'602'0'0,"-3"5"45"0"0,-15 18-466 0 0,2-3 230 0 0,8-8-255 0 0,1-1-1 0 0,1 1 1 0 0,0 1 0 0 0,-5 13 0 0 0,10-23-113 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,3 5 0 0 0,1-2 8 0 0,-5-4-18 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,5 1 1 0 0,-1 1-1 0 0,-5-2-26 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,2-1-1 0 0,-1 1-27 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-4 1 0 0,0 1 11 0 0,0 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0-6 1 0 0,3-7-110 0 0,-3 17 114 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-2 0 0 0,-2-8 97 0 0,2 9-56 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,3-4 0 0 0,0-7 289 0 0,-3 13-175 0 0,8 5-38 0 0,-4-1-39 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,5 8 1 0 0,19 34-327 0 0,-25-42 199 0 0,2 4-133 0 0,1 1 1 0 0,1-2 0 0 0,7 8-1 0 0,-6-11-806 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8386.07">1780 1128 12464 0 0,'0'0'1384'0'0,"1"2"-1091"0"0,1 2-89 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,4 3 0 0 0,-4-3-22 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,3 6 0 0 0,-1 0-34 0 0,0-1 0 0 0,10 14 0 0 0,2 2-69 0 0,-9-13-68 0 0,-7-10-10 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 3 0 0 0,-1-3 42 0 0,4 4-65 0 0,-4-6-144 0 0,-2-2-299 0 0,-55-61-1138 0 0,51 54 1702 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-3-10 0 0 0,6 16-84 0 0,0 0 26 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,2-3-1 0 0,0-1 30 0 0,1 0 0 0 0,0 0 0 0 0,5-8 0 0 0,-6 12-70 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,4 0-1 0 0,-2 1 12 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,9 3 1 0 0,-9-1 22 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,7 8 0 0 0,2 4 18 0 0,-1 1 0 0 0,13 23 1 0 0,-16-21-42 0 0,-7-12-9 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,4 6 1059 0 0,-20-18-819 0 0,10 4-231 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1-4 0 0 0,3 5-6 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,5-11 54 0 0,-5 11-55 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,2-4 0 0 0,1-1-4 0 0,-3 5 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,3 1 0 0 0,29-7-110 0 0,1-1-278 0 0,8-1-58 0 0,-41 8 438 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,2-2 1 0 0,-1-1-7 0 0,0 2-16 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-2 1 0 0,-1 3 13 0 0,1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,-1 1-1 0 0,-3-1 76 0 0,1 1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-6 4-1 0 0,9-5-14 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1 5 1 0 0,0-2-41 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,5 3 0 0 0,-4-2-4 0 0,-5-2 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,3-1 0 0 0,-2 1-56 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,3-2-1 0 0,-5 3-133 0 0,1 0 161 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,1-1-1 0 0,1-1-27 0 0,-2 0 62 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,3-3 1 0 0,2 1 5 0 0,-7 3-6 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,2 2 0 0 0,2 0 3 0 0,2 2 24 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4 8-1 0 0,-5-6-33 0 0,0-1 11 0 0,-12 3 170 0 0,7-9-170 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-2 0 0 0 0,1 0 27 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,-2-5 1 0 0,1 0 123 0 0,1 3-169 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-4 0 0 0,1 2 22 0 0,-1 0 0 0 0,1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,8-6-1 0 0,3-2-39 0 0,-11 7-34 0 0,0 1 0 0 0,1 0 0 0 0,0 0-1 0 0,6-3 1 0 0,16-3-262 0 0,0 1 0 0 0,1 1 0 0 0,48-6 0 0 0,-45 9 279 0 0,-24 2 58 0 0,-7 25 211 0 0,0-23-222 0 0,-1 10 67 0 0,-1 0 0 0 0,1-1 0 0 0,-2 1 0 0 0,-4 11-1 0 0,-2 3-63 0 0,-12 42 0 0 0,20-62-7 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,1 5 0 0 0,-2-7 124 0 0,2-2-49 0 0,0 0-92 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,3-2 0 0 0,0-2-76 0 0,-1 0 0 0 0,0 1 1 0 0,1-2-1 0 0,1-7 0 0 0,2-1-25 0 0,0-5-34 0 0,-6 16 149 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,3-3 0 0 0,-4 7 311 0 0,5 1-240 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,8 6 0 0 0,-9-6-41 0 0,14 8 15 0 0,1-1 0 0 0,32 12-1 0 0,35 15-42 0 0,-18-10-1666 0 0,-53-20-3859 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9151.34">724 1965 3224 0 0,'4'0'96'0'0,"-1"-1"-1"0"0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,6-3 0 0 0,8-3 2985 0 0,1 4 3749 0 0,-16 3-6671 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 2 0 0 0,2 6-226 0 0,0 0-1 0 0,-1 1 1 0 0,3 18 0 0 0,-2-9 260 0 0,11 64-193 0 0,-19-107-796 0 0,-2-38 0 0 0,4 27 797 0 0,1 23-14 0 0,1 0 0 0 0,0 1 0 0 0,2-20 0 0 0,-2 27 26 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,2-2-1 0 0,-3 3 4 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,1 0 0 0 0,3 2 107 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,8 7 1 0 0,27 31 114 0 0,-22-21-290 0 0,-15-18 52 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,3 2 0 0 0,10 10-158 0 0,-15-12 183 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,3 2 1 0 0,-5-3 55 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-2-1 0 0,2 0-97 0 0,-1-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-5 0 0 0,-1-5-167 0 0,-1 0 0 0 0,-2-25 0 0 0,0 1-840 0 0,0 28 387 0 0,0-3-3498 0 0,2 2 2557 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9508.7">1252 1929 2304 0 0,'0'0'101'0'0,"0"2"1"0"0,-1 22 273 0 0,-8 34 8257 0 0,8-53-8605 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,4 7 0 0 0,-5-9 50 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,5-1-1 0 0,1-1 3 0 0,-7 2-58 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,3-1 1 0 0,-1-1-2 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-8 0 0 0,-2 9 1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,-4-6-1 0 0,1 0 201 0 0,0 1-1 0 0,-1-1 0 0 0,-16-15 1 0 0,20 22-237 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-6 1 0 0 0,3 0-158 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-8 3 1 0 0,-3 1-510 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9847.52">1573 1805 14600 0 0,'0'0'705'0'0,"-1"1"-310"0"0,-3 3-366 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 7 0 0 0,1-6 7 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,8 10 0 0 0,-6-9 13 0 0,0 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,12 7 0 0 0,-15-10-129 0 0,-1-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,4 0 1 0 0,-2-1-515 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,6-4 0 0 0,8-6-1005 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10271.52">1863 1829 6912 0 0,'0'0'622'0'0,"-5"3"-500"0"0,-7 6 1208 0 0,1 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,-13 16 0 0 0,22-23-1267 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,4 5 0 0 0,-2-3-10 0 0,0 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,7 5 0 0 0,-10-8-48 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,4-2 0 0 0,-3 1-26 0 0,-1 1-28 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,1-3-1 0 0,1-2-20 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-14 0 0 0,-4 20 35 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,0-12-256 0 0,1 10 260 0 0,1 3 28 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0-1 1 0 0,0 3 14 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,1-1 4 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,2 1 0 0 0,1 2-3 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,6 9 1 0 0,-9-12-118 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 6 0 0 0,-1 4-4327 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11494.08">2074 1865 14600 0 0,'0'0'330'0'0,"2"1"45"0"0,6 10-60 0 0,1 1 1 0 0,-1 0-1 0 0,-1 1 1 0 0,9 18-1 0 0,-12-23-123 0 0,5 9-143 0 0,11 26 94 0 0,-12-19 222 0 0,-6-14-94 0 0,-1-6-476 0 0,-7-4-47 0 0,5-1 191 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-2-3-1 0 0,1 2-7 0 0,-4-7 19 0 0,1-1-1 0 0,-1 0 1 0 0,2-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-23 1 0 0,12 6 49 0 0,-6 15 0 0 0,3 4 0 0 0,-3 7 3 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,3 1 0 0 0,2 1 17 0 0,0 0 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0 0-1 0 0,7 9 1 0 0,5 7 35 0 0,10 12-57 0 0,-21-23 20 0 0,9 15 28 0 0,-13-19-46 0 0,0-2 11 0 0,-2-4 180 0 0,-16-1-113 0 0,13-1-71 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-3-4 0 0 0,3 3-4 0 0,-3-3-2 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1-10 0 0 0,0 13 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,3-3 0 0 0,-2 2 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,5 1 0 0 0,62 0 72 0 0,-69 0-73 0 0,12 1-25 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,23 8-1 0 0,-30-7 13 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,13-1 0 0 0,16 1 3 0 0,-36 0 7 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-2 0 0 0,4-16-219 0 0,-6 16 202 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,-2-2 0 0 0,0 0-23 0 0,2 1 48 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-5 3 0 0 0,7-3 16 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 2 0 0 0,0 2 42 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,3 6-1 0 0,-1-7-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,6 4 0 0 0,-8-4-60 0 0,0 1 0 0 0,15 1 0 0 0,-18-5-34 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,1-2 1 0 0,17-22-352 0 0,-16 19 388 0 0,-2 3-7 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,2-2-1 0 0,-4 1 7 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,2 1 1 0 0,15 20 62 0 0,-15-19-65 0 0,1 1 2 0 0,1 9 0 0 0,-1 6 0 0 0,-2-16 1 0 0,0 8 69 0 0,-1-10 145 0 0,-2-18-149 0 0,1 11-69 0 0,1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,0 0-1 0 0,4-9 1 0 0,1-1-39 0 0,1 1-1 0 0,12-17 1 0 0,-10 19-108 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1-1 0 0,1 1 1 0 0,0 0 0 0 0,18-10 0 0 0,-16 12-348 0 0,-1 1 1 0 0,28-8-1 0 0,-8 2 327 0 0,-17 9 182 0 0,-69 46 2392 0 0,39-30-2145 0 0,10-10-240 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-3 7 0 0 0,4-8-13 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,2 4 0 0 0,-2-5-4 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,4 2 0 0 0,0-1 46 0 0,-1 0-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,8-1 1 0 0,4 1-101 0 0,-17-1 34 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1-2 0 0 0,-2 4 9 0 0,6-9-58 0 0,-4 7 50 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-3 0 0 0,0 3 10 0 0,0 2 7 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,1-2-1 0 0,-1 2 179 0 0,17 8 94 0 0,-10-1-140 0 0,0 1 0 0 0,-1 0 0 0 0,0 1-1 0 0,8 10 1 0 0,-15-18-135 0 0,7 9-239 0 0,0 0 1 0 0,0-1-1 0 0,1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,0 0 1 0 0,0-1-1 0 0,14 9 1 0 0,-19-14-178 0 0,0 0 1 0 0,0 1-1 0 0,-1-2 1 0 0,1 1-1 0 0,0 0 1 0 0,5-1-1 0 0,-8 0 381 0 0,15 1-4700 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20716,7 +20777,7 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11 4149 9072 0 0,'0'0'4800'0'0,"-11"4"-695"0"0,23-7-4141 0 0,-11 3-100 0 0,18 16 2362 0 0,-15-14-2187 0 0,-1 1-1 0 0,-1-1 0 0 0,1 2 1 0 0,0-2-1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 2-1 0 0,-1-2 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 7 0 0 0,2 0-25 0 0,8 35 75 0 0,-8-26-92 0 0,8 19 0 0 0,-6-14 4 0 0,-6-20 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,2 3 0 0 0,4 11 0 0 0,0 1 0 0 0,7 31 0 0 0,4 9 0 0 0,-1-3 0 0 0,6 15 54 0 0,8 18 18 0 0,4 7 5 0 0,-6-20-23 0 0,3 10-1 0 0,0-6-42 0 0,6 12-12 0 0,-29-74 1 0 0,42 93 0 0 0,0 0-1 0 0,0-2 13 0 0,-15-21 68 0 0,-20-55-41 0 0,-3 1 0 0 0,17 59 0 0 0,-5-7 33 0 0,-14-53-29 0 0,15 40-1 0 0,-20-58-44 0 0,4 21 56 0 0,-9-30-54 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,2 5 1 0 0,2 2 25 0 0,0 0 0 0 0,4 15-1 0 0,-7-16-15 0 0,0-2 0 0 0,2 2 0 0 0,-1-2 0 0 0,1 0 0 0 0,8 12 0 0 0,-3-7 10 0 0,-8-9 9 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0-1 1 0 0,0 1 0 0 0,8 5 0 0 0,-6-5 61 0 0,-1 0 0 0 0,0 0 0 0 0,8 8 0 0 0,-8-7-35 0 0,-3-3 26 0 0,1-2-13 0 0,20 6 189 0 0,-13-2-190 0 0,2-2 0 0 0,-1 1 0 0 0,0-1-1 0 0,17 1 1 0 0,107 7 58 0 0,-95-10 280 0 0,42-6 0 0 0,20-2-228 0 0,-27 5-349 0 0,5-1 241 0 0,-61 3-43 0 0,-1 0 0 0 0,2 2 0 0 0,23 3 0 0 0,-22-2-18 0 0,0 0 0 0 0,26-2 0 0 0,93-3-87 0 0,33-4 384 0 0,13 1 294 0 0,-165 5-573 0 0,32-7 0 0 0,-7 1 7 0 0,-20 5-34 0 0,126-17-68 0 0,-46 5 70 0 0,-32 4 0 0 0,60-1 0 0 0,5-7 0 0 0,79-12 80 0 0,-87 12-64 0 0,-70 11-16 0 0,-37 4 5 0 0,27-5 1 0 0,-23 3 14 0 0,42-2 0 0 0,-2 0-7 0 0,52-3-13 0 0,-6 7 0 0 0,-30-1 431 0 0,20-3 162 0 0,-66 3-593 0 0,-24 4 0 0 0,0-2 0 0 0,21-3 0 0 0,56-19 0 0 0,107-12 0 0 0,-71 27 0 0 0,-85 7 0 0 0,94-12 0 0 0,25-9 0 0 0,-49 4 0 0 0,-5 2 0 0 0,-72 7 75 0 0,-3 2 25 0 0,76-17 29 0 0,-49 18-132 0 0,-17 1-71 0 0,67-17-1 0 0,-82 17 85 0 0,28-4-1 0 0,21-5 124 0 0,55-20-133 0 0,-38 17 0 0 0,27-14-152 0 0,-115 31 141 0 0,-1-1 0 0 0,-1 1 0 0 0,2-1 0 0 0,-1 0 0 0 0,5-3 0 0 0,11-7 13 0 0,-8 7 9 0 0,-1-1 0 0 0,1 0-1 0 0,0-2 1 0 0,-2 1 0 0 0,18-17-1 0 0,-21 19 1 0 0,-1 0 0 0 0,0-2 0 0 0,-1 2 0 0 0,1-1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-2-2 0 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,1-11 0 0 0,5-23-11 0 0,6-53 0 0 0,-2 16 0 0 0,-10 57-29 0 0,9-131-284 0 0,-12 134 305 0 0,0-45 55 0 0,-12-103 0 0 0,7 114-47 0 0,-11-48 0 0 0,-10-41 0 0 0,-28-104 0 0 0,28 101-92 0 0,-5-26-72 0 0,-2 31 272 0 0,18 78 24 0 0,-97-557-116 0 0,84 358-16 0 0,23 210 0 0 0,-12-70-193 0 0,1 22 50 0 0,8 43 93 0 0,-2-29 18 0 0,-3-38-24 0 0,0-14 394 0 0,10 93-221 0 0,0 10-120 0 0,2-54 1 0 0,9-352-622 0 0,-8 412 624 0 0,0 12 0 0 0,-4-26 0 0 0,-1 3-23 0 0,2-2 0 0 0,3-57 0 0 0,1 44 12 0 0,-12-135 1 0 0,-1 111-44 0 0,-1-11 1 0 0,8 64 51 0 0,0 0 0 0 0,-2 1 0 0 0,1 0 0 0 0,-13-27 0 0 0,-2-7-52 0 0,-4 5-21 0 0,-50-106-5 0 0,54 116 80 0 0,0-1 0 0 0,-14-51 0 0 0,25 70-15 0 0,-1 1-1 0 0,-14-26 1 0 0,-2 0-3 0 0,11 20 18 0 0,10 20 0 0 0,2-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-6-23 0 0 0,1 1 0 0 0,7 26-1 0 0,0-2-1 0 0,1 2 1 0 0,0-1-1 0 0,0 0 1 0 0,1-1-1 0 0,-2-11 1 0 0,-4-56-566 0 0,6 68-1454 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11 3974 9072 0 0,'0'0'4800'0'0,"-11"3"-695"0"0,23-5-4141 0 0,-11 2-100 0 0,19 15 2362 0 0,-16-13-2187 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 6 0 0 0,2 1-25 0 0,8 33 75 0 0,-7-25-92 0 0,7 19 0 0 0,-6-14 4 0 0,-6-20 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,2 2 0 0 0,5 12 0 0 0,-1 0 0 0 0,8 30 0 0 0,3 8 0 0 0,0-2 0 0 0,6 14 54 0 0,8 17 18 0 0,4 7 5 0 0,-6-19-23 0 0,4 10-1 0 0,-1-7-42 0 0,6 12-12 0 0,-29-70 1 0 0,43 88 0 0 0,0 0-1 0 0,-1-1 13 0 0,-14-21 68 0 0,-22-52-41 0 0,-2 0 0 0 0,17 58 0 0 0,-5-8 33 0 0,-15-50-29 0 0,17 38-1 0 0,-22-56-44 0 0,4 20 56 0 0,-9-28-54 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,3 5 1 0 0,1 1 25 0 0,0 1 0 0 0,4 14-1 0 0,-6-16-15 0 0,-1-1 0 0 0,2 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,9 11 0 0 0,-4-7 10 0 0,-8-8 9 0 0,1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,8 5 0 0 0,-6-6 61 0 0,-1 1 0 0 0,1 0 0 0 0,7 8 0 0 0,-8-8-35 0 0,-3-2 26 0 0,1-2-13 0 0,21 6 189 0 0,-13-2-190 0 0,1-2 0 0 0,-1 1 0 0 0,1-1-1 0 0,17 0 1 0 0,111 8 58 0 0,-99-10 280 0 0,44-6 0 0 0,21-1-228 0 0,-28 4-349 0 0,5-1 241 0 0,-63 3-43 0 0,-1 0 0 0 0,1 2 0 0 0,25 3 0 0 0,-23-2-18 0 0,-1 0 0 0 0,28-2 0 0 0,96-3-87 0 0,35-4 384 0 0,13 1 294 0 0,-171 5-573 0 0,33-6 0 0 0,-7 0 7 0 0,-21 5-34 0 0,130-16-68 0 0,-47 4 70 0 0,-33 5 0 0 0,62-2 0 0 0,5-6 0 0 0,83-12 80 0 0,-91 12-64 0 0,-73 10-16 0 0,-38 5 5 0 0,28-6 1 0 0,-24 3 14 0 0,44-2 0 0 0,-3 1-7 0 0,55-4-13 0 0,-7 7 0 0 0,-31-1 431 0 0,21-2 162 0 0,-69 2-593 0 0,-24 4 0 0 0,0-2 0 0 0,21-3 0 0 0,58-18 0 0 0,112-11 0 0 0,-74 25 0 0 0,-89 7 0 0 0,98-11 0 0 0,26-9 0 0 0,-50 4 0 0 0,-6 1 0 0 0,-75 8 75 0 0,-3 1 25 0 0,79-16 29 0 0,-50 17-132 0 0,-19 2-71 0 0,70-17-1 0 0,-85 16 85 0 0,29-4-1 0 0,22-4 124 0 0,57-20-133 0 0,-39 17 0 0 0,27-13-152 0 0,-119 29 141 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,5-3 0 0 0,12-6 13 0 0,-9 6 9 0 0,0-1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,18-16-1 0 0,-22 18 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,1-10 0 0 0,5-22-11 0 0,7-51 0 0 0,-3 15 0 0 0,-10 55-29 0 0,10-125-284 0 0,-13 127 305 0 0,0-42 55 0 0,-12-99 0 0 0,6 109-47 0 0,-10-46 0 0 0,-11-39 0 0 0,-29-99 0 0 0,29 96-92 0 0,-6-25-72 0 0,-1 30 272 0 0,19 74 24 0 0,-102-532-116 0 0,88 342-16 0 0,24 201 0 0 0,-13-67-193 0 0,2 21 50 0 0,8 41 93 0 0,-3-27 18 0 0,-2-37-24 0 0,-1-13 394 0 0,11 89-221 0 0,0 9-120 0 0,2-51 1 0 0,9-338-622 0 0,-8 395 624 0 0,0 12 0 0 0,-4-25 0 0 0,-1 2-23 0 0,2-1 0 0 0,3-55 0 0 0,1 42 12 0 0,-13-129 1 0 0,0 107-44 0 0,-2-12 1 0 0,9 62 51 0 0,0 0 0 0 0,-2 1 0 0 0,0 0 0 0 0,-12-26 0 0 0,-3-6-52 0 0,-4 4-21 0 0,-52-101-5 0 0,56 110 80 0 0,1 0 0 0 0,-16-49 0 0 0,27 67-15 0 0,-2 1-1 0 0,-14-25 1 0 0,-2 0-3 0 0,12 20 18 0 0,10 18 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-6-21 0 0 0,0 0 0 0 0,8 25-1 0 0,0-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-2-11 1 0 0,-5-54-566 0 0,7 65-1454 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20748,7 +20809,7 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 437 5064 0 0,'1'0'8483'0'0,"7"0"-7044"0"0,2 0-1293 0 0,-1-1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,13-7 1 0 0,-9 3-111 0 0,0 2 1 0 0,1 0 0 0 0,25-5-1 0 0,11-5 232 0 0,-23 8-89 0 0,0-1 0 0 0,53-2 0 0 0,-33 4-42 0 0,7-1 13 0 0,-22 4 17 0 0,37-9-1 0 0,318-69 41 0 0,-295 61-126 0 0,-28 11-19 0 0,89-11-56 0 0,-52 12-5 0 0,141-10 0 0 0,137-6 0 0 0,5 0 0 0 0,91 6 0 0 0,-298 7 0 0 0,645-33 130 0 0,-579 27-124 0 0,-186 13-6 0 0,246-9 0 0 0,-48 8 0 0 0,-162 5-5 0 0,176 4 82 0 0,-40 5-13 0 0,-24 3-64 0 0,-157-7 0 0 0,-9-1 0 0 0,0 2 0 0 0,42 11 0 0 0,4 8 0 0 0,-62-20 0 0 0,-18-5 0 0 0,0 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,9 4 0 0 0,1 2 0 0 0,-12-8 7 0 0,0 1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,2 3 0 0 0,14 15 15 0 0,-8-10 5 0 0,0 2-1 0 0,-1-1 0 0 0,11 15 1 0 0,15 21-16 0 0,-25-33-11 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,10 22-1 0 0,-7-10 1 0 0,-6-9 0 0 0,11 30 0 0 0,39 120 64 0 0,-49-145-64 0 0,-1 1 0 0 0,4 28 0 0 0,1 1 0 0 0,13 69 19 0 0,13 44-406 0 0,-34-153 282 0 0,41 154-3205 0 0,-40-138 2478 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 418 5064 0 0,'1'0'8483'0'0,"7"0"-7044"0"0,2 0-1293 0 0,-1-1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,13-7 1 0 0,-9 4-111 0 0,0 1 1 0 0,1 0 0 0 0,25-5-1 0 0,11-4 232 0 0,-23 7-89 0 0,0 0 0 0 0,53-3 0 0 0,-33 4-42 0 0,7 0 13 0 0,-22 3 17 0 0,37-9-1 0 0,318-65 41 0 0,-295 58-126 0 0,-28 10-19 0 0,89-10-56 0 0,-52 11-5 0 0,141-9 0 0 0,137-6 0 0 0,5 0 0 0 0,91 6 0 0 0,-298 6 0 0 0,646-31 130 0 0,-580 26-124 0 0,-186 12-6 0 0,246-8 0 0 0,-48 7 0 0 0,-162 5-5 0 0,176 4 82 0 0,-40 4-13 0 0,-24 4-64 0 0,-157-7 0 0 0,-9-1 0 0 0,0 1 0 0 0,42 12 0 0 0,4 6 0 0 0,-62-18 0 0 0,-18-5 0 0 0,0 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,9 4 0 0 0,1 1 0 0 0,-12-7 7 0 0,0 1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,2 3 0 0 0,14 14 15 0 0,-8-9 5 0 0,0 1-1 0 0,-1 0 0 0 0,11 14 1 0 0,15 20-16 0 0,-25-32-11 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,10 22-1 0 0,-7-10 1 0 0,-6-9 0 0 0,11 29 0 0 0,39 115 64 0 0,-49-139-64 0 0,-1 1 0 0 0,4 27 0 0 0,1 0 0 0 0,13 67 19 0 0,13 42-406 0 0,-34-147 282 0 0,41 148-3205 0 0,-40-132 2478 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20780,7 +20841,7 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5 12 5528 0 0,'0'-3'6713'0'0,"-4"-6"-1711"0"0,8 18-3223 0 0,-1 0 0 0 0,0 0-1 0 0,3 18 1 0 0,8 48-1869 0 0,-2-10 288 0 0,13 55 17 0 0,-8-42 69 0 0,16 85 102 0 0,-12-28-194 0 0,15 62-109 0 0,-28-138 72 0 0,-5-38-22 0 0,3 23 0 0 0,18 81-235 0 0,-7 11 235 0 0,-5-54-67 0 0,6 27-35 0 0,9 28-31 0 0,-7-21 0 0 0,-18-97 0 0 0,-1 26 0 0 0,0-8 0 0 0,3 7 0 0 0,11 57 0 0 0,-11-83 0 0 0,-1-5 0 0 0,1 2 0 0 0,0-1 0 0 0,1-2 0 0 0,0 2 0 0 0,0-1 0 0 0,2-1 0 0 0,10 18 0 0 0,-9-16 0 0 0,-5-10 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,2 2 0 0 0,-1-2 0 0 0,0 0 0 0 0,7 4 0 0 0,23 17 0 0 0,-18-16 0 0 0,13 2 0 0 0,0-4 0 0 0,-1-2 0 0 0,38 0 0 0 0,80-10-26 0 0,-125 5 40 0 0,105-17 262 0 0,-90 12-273 0 0,51-12 0 0 0,6-3-69 0 0,126-14 92 0 0,-138 17-16 0 0,-36 8-10 0 0,2-2 0 0 0,24-1 206 0 0,-35 6-121 0 0,48-2 0 0 0,44 3 97 0 0,-124 6-176 0 0,6 2-2 0 0,-4 0-4 0 0,1-1-16 0 0,-5-1-64 0 0,-1-3-1325 0 0,3-6 34 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6 11 5528 0 0,'0'-2'6713'0'0,"-5"-7"-1711"0"0,9 18-3223 0 0,0-1 0 0 0,-1 1-1 0 0,4 16 1 0 0,9 47-1869 0 0,-3-10 288 0 0,15 52 17 0 0,-8-40 69 0 0,17 81 102 0 0,-14-26-194 0 0,18 59-109 0 0,-32-132 72 0 0,-6-36-22 0 0,4 22 0 0 0,20 77-235 0 0,-8 10 235 0 0,-5-51-67 0 0,6 26-35 0 0,10 26-31 0 0,-7-19 0 0 0,-21-93 0 0 0,-1 25 0 0 0,0-8 0 0 0,4 7 0 0 0,12 54 0 0 0,-13-79 0 0 0,0-4 0 0 0,0 1 0 0 0,1-1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,12 16 0 0 0,-9-14 0 0 0,-7-10 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,8 4 0 0 0,26 16 0 0 0,-20-16 0 0 0,15 3 0 0 0,-1-5 0 0 0,0-1 0 0 0,42 0 0 0 0,90-10-26 0 0,-140 5 40 0 0,117-16 262 0 0,-100 12-273 0 0,56-13 0 0 0,8-2-69 0 0,141-13 92 0 0,-154 16-16 0 0,-42 7-10 0 0,3-1 0 0 0,27-1 206 0 0,-40 5-121 0 0,54-2 0 0 0,50 4 97 0 0,-139 5-176 0 0,6 2-2 0 0,-4-1-4 0 0,0 0-16 0 0,-5-1-64 0 0,0-2-1325 0 0,2-7 34 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20812,15 +20873,15 @@
       <inkml:brushProperty name="color" value="#FFC114"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">255 69 19895 0 0,'0'0'1803'0'0,"1"1"-1482"0"0,8 20-285 0 0,-7-18-23 0 0,0 0 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,0-1 1 0 0,1-1-1 0 0,-1 1 0 0 0,-1 1 0 0 0,0 4 0 0 0,-51 186 537 0 0,19-76-396 0 0,-9 31-50 0 0,-40 175 144 0 0,41-136-184 0 0,15-78-1005 0 0,25-108-450 0 0,1-7-843 0 0,1 0 2115 0 0,1-10-1268 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="629.53">275 218 10592 0 0,'0'0'3462'0'0,"-6"14"-639"0"0,5-11-2793 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-2 3 0 0 0,-6 6 224 0 0,8-8-191 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,-5 4 1 0 0,5-4-64 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,1 2-1 0 0,-4 5 0 0 0,5-6 18 0 0,-1 0-1 0 0,0-1 0 0 0,2 0 0 0 0,-2 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-3 3 0 0 0,0-2 66 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 1 1 0 0,-6 8-1 0 0,7-6 3 0 0,2-6 660 0 0,2-5-679 0 0,1-2 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,2 2 0 0 0,-1-1 0 0 0,4-5-1 0 0,12-15-6 0 0,-2-1 0 0 0,19-40-1 0 0,-17 38 28 0 0,-3 4-1 0 0,65-111 336 0 0,-55 104-347 0 0,-14 18 44 0 0,-10 11 74 0 0,7 2 360 0 0,-5 2-507 0 0,0 0-1 0 0,0 2 0 0 0,0-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,3 8 0 0 0,-1 5 74 0 0,6 24-1 0 0,2 9 182 0 0,12 45 147 0 0,-23-90-431 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 5 1 0 0,0-7 39 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-2 2 1 0 0,-2 0 75 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-2-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-10 2-1 0 0,-6-2 199 0 0,-26-1-1 0 0,20 0-337 0 0,-13-2-189 0 0,-63-13 0 0 0,92 13-51 0 0,9 2 202 0 0,2 0-1 0 0,-2 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,0-2 0 0 0,-2-1-560 0 0,2 1-617 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1130.6">207 997 17967 0 0,'-2'2'161'0'0,"1"0"-1"0"0,-1 0 1 0 0,2 0-1 0 0,-2 1 1 0 0,1-1-1 0 0,0 2 0 0 0,0-2 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 5 1 0 0,1 1-151 0 0,0 1 0 0 0,2 15-1 0 0,-1 17 174 0 0,-4 103 167 0 0,2-96-345 0 0,-8 65 54 0 0,0-44-339 0 0,4 1-1 0 0,3 126 1 0 0,3-186-109 0 0,0 0 1 0 0,1-1-1 0 0,2 13 0 0 0,8 10-6569 0 0,-8-25 2049 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1892.55">162 1141 12528 0 0,'0'0'572'0'0,"2"0"-11"0"0,37-16-321 0 0,-25 10-251 0 0,21-6 1 0 0,-13 4 2 0 0,-12 6 24 0 0,-1-1 0 0 0,0 1 1 0 0,16-1-1 0 0,-21 3 25 0 0,0 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,-2 1-1 0 0,2-1 0 0 0,-1 1 1 0 0,0 1-1 0 0,0-1 0 0 0,5 4 1 0 0,-6-4 34 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,0 2 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0 3-1 0 0,0-2-50 0 0,-1 2-1 0 0,0-1 1 0 0,0-1-1 0 0,-1 2 1 0 0,0-2-1 0 0,0 1 1 0 0,0 0-1 0 0,-2 8 1 0 0,-3 2-42 0 0,1-1 0 0 0,-3 0 0 0 0,2 0 0 0 0,-2 0 0 0 0,-13 19 0 0 0,-2-4 183 0 0,-35 37-1 0 0,37-44 234 0 0,1-1 0 0 0,-33 51 0 0 0,51-70-377 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 0 0 0 0,-2 1 0 0 0,1-1 0 0 0,0 2 0 0 0,1-2 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 2 0 0 0,0-2 0 0 0,0 5 0 0 0,1-3-24 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 2 0 0 0,0-2-1 0 0,1 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0-1 0 0 0,5 6-1 0 0,-2-2 2 0 0,2-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,2 0 1 0 0,-1 0-1 0 0,12 5 1 0 0,7 7-63 0 0,-16-12 50 0 0,-2-1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,17 3 0 0 0,-11-3 64 0 0,2-1 1 0 0,-2 0-1 0 0,22-3 0 0 0,-30 1-136 0 0,1-1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-2 0 1 0 0,1-2-1 0 0,0 1 1 0 0,-1 0-1 0 0,7-6 1 0 0,-8 5-58 0 0,0 0 1 0 0,0-2 0 0 0,-1 2 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-2-2 0 0 0,2 2 0 0 0,-1-2-1 0 0,-1 1 1 0 0,0 0 0 0 0,3-11 0 0 0,-3 8 74 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,0 2-1 0 0,-1-2 1 0 0,0 0-1 0 0,0 2 1 0 0,0-2-1 0 0,-5-13 1 0 0,1 7 164 0 0,3 9 28 0 0,0 2 1 0 0,0 0-1 0 0,-4-9 1 0 0,5 13-33 0 0,0 0 1 0 0,0 1-1 0 0,-1-2 1 0 0,1 1-1 0 0,-1 1 1 0 0,2-1-1 0 0,-2 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,-3-1 1 0 0,5 2-56 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 2-1 0 0,-11 12 380 0 0,9-11-328 0 0,1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 7-1 0 0,2 5 65 0 0,0 26 0 0 0,1-14-22 0 0,-1-17-61 0 0,2 2-1 0 0,0-1 0 0 0,0 1 0 0 0,1-2 1 0 0,0 1-1 0 0,9 23 0 0 0,-6-16 6 0 0,-4-13-88 0 0,1-2-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,2 1 0 0 0,6 5 1 0 0,-8-8-55 0 0,-2 1 1 0 0,2-2-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-2 0 1 0 0,2 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,4-3-1 0 0,2-2-604 0 0,0-1 0 0 0,-1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,-1-2 0 0 0,0 2 0 0 0,6-12 0 0 0,4-8-862 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2281.66">688 1045 2760 0 0,'0'7'40'0'0,"-1"-1"0"0"0,0 0 0 0 0,1 2 0 0 0,-1-2 0 0 0,1 1 0 0 0,1-1 0 0 0,1 11 0 0 0,2 9 3446 0 0,0-6 1686 0 0,2 10 1552 0 0,0-12-6136 0 0,-2 1 0 0 0,0-1-1 0 0,2 25 1 0 0,2 9-315 0 0,-3-18-160 0 0,1 59 0 0 0,-4-64-114 0 0,-3 25 10 0 0,0-40-134 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,4 25 0 0 0,-2-19-237 0 0,-3-17 261 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-2-1 0 0 0,2 0 0 0 0,0 1 0 0 0,2 1 0 0 0,-1-1-637 0 0,-3-2 452 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2-1 0 0,0 1 1 0 0,-1-1 0 0 0,3 1 0 0 0,15 1-1679 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2674.46">1056 1429 14368 0 0,'0'0'1097'0'0,"-13"-3"-618"0"0,11 2-434 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-2 1-1 0 0,0 0 114 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-4 4-1 0 0,-1 1 192 0 0,0 2 0 0 0,-1-1-1 0 0,2 1 1 0 0,0 1-1 0 0,-7 12 1 0 0,10-14-312 0 0,-1 1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,0 2 0 0 0,-1 11 0 0 0,2-14-47 0 0,1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,3 11 0 0 0,0-6-94 0 0,0 0 1 0 0,11 21-1 0 0,-14-31 13 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,7 2 0 0 0,-5-2-50 0 0,-1-2 67 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,5-1 1 0 0,-7-1 49 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-2 0 0 0,-1 2-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-2 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1-2 1 0 0,2-3-79 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,-1-2 1 0 0,1 2-1 0 0,-1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-2-9-1 0 0,-1-2 24 0 0,-4-27 0 0 0,4 40 290 0 0,0 1 0 0 0,0-2 0 0 0,1 2 0 0 0,-2 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-5-9 1110 0 0,19 26-1203 0 0,-7-6-121 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-2 0 0 0 0,1 1 1 0 0,0-1-1 0 0,2 8 0 0 0,3 8-116 0 0,0 5-82 0 0,-6-21 63 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,7 10 0 0 0,-3-11-1406 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3360.5">1331 1462 2760 0 0,'-24'17'9791'0'0,"20"-9"-7268"0"0,1-6-2309 0 0,1 1 0 0 0,1 0 0 0 0,-2 0-1 0 0,1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2 0-1 0 0,-2 1 1 0 0,1-1 0 0 0,-1 7 0 0 0,-1 5 338 0 0,-1 23 0 0 0,3-26-267 0 0,0-7-185 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 5 0 0 0,0 21 291 0 0,-2-21-335 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,2 16 0 0 0,-1-14-38 0 0,1 1-1 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,10 21 0 0 0,-12-29-40 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,2 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 2-1 0 0,0-2 1 0 0,0 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,5 0-1 0 0,-5 0-36 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0-1 1 0 0,0 2-1 0 0,-2-1 0 0 0,2 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,3-6 1 0 0,-1 2-61 0 0,1-2 1 0 0,-1 1 0 0 0,-1 0-1 0 0,6-12 1 0 0,-7 11 123 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2-1 0 0,-2 2 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2 0 0 0,-1 2 0 0 0,0-1 0 0 0,-1-1 0 0 0,-4-12 0 0 0,4 14 423 0 0,3 13 370 0 0,4 15-218 0 0,-4-17-549 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 5 0 0 0,2 14 127 0 0,2-10-155 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,2 0-1 0 0,-1-1 0 0 0,0 0 1 0 0,2 1-1 0 0,7 7 0 0 0,-13-16-45 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-2 1 0 0,18-22-963 0 0,-18 22 947 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1-2-1 0 0,1-4-42 0 0,-1 9 249 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,4 5-51 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 2 0 0 0,1-1 1 0 0,2 7-1 0 0,-1-4-84 0 0,0 1 0 0 0,14 14 0 0 0,-11-14-40 0 0,0-2 0 0 0,0-1-1 0 0,0 2 1 0 0,2-3-1 0 0,18 11 1 0 0,-22-13 9 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,-1 0 0 0 0,2-1 0 0 0,-1 1 0 0 0,12-2 0 0 0,-17 0 19 0 0,1 0 0 0 0,-2 1 0 0 0,2-1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-2 0 0 0,-1 2-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-2-1 0 0,0-3 1 0 0,-1-6 61 0 0,2 12-61 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-3-1 0 0,-5-5 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1 2 0 0 0,0-1 0 0 0,-11-7 0 0 0,-6-9-1046 0 0,14 12-4507 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3747.29">2052 1517 10592 0 0,'-1'15'431'0'0,"1"0"-1"0"0,0 0 1 0 0,2 16 0 0 0,5 0 2848 0 0,9 20 1262 0 0,-2-15-4478 0 0,21 42 0 0 0,-32-73-36 0 0,0 1 13 0 0,0 1 1 0 0,-1-2-1 0 0,1 1 1 0 0,-1 2 0 0 0,2 6-1 0 0,-4-12-2 0 0,1-20-624 0 0,2-2 524 0 0,-2-2 0 0 0,1 2 0 0 0,-3-24 0 0 0,1 19 97 0 0,3-39 0 0 0,-3 61-31 0 0,0 1 3 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,2-3 0 0 0,-2 1 5 0 0,-1 3-8 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,25 12 37 0 0,-15-5-18 0 0,0 1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,12 18 1 0 0,37 64 33 0 0,-22-32 6 0 0,-4-17-829 0 0,-32-42 376 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4116.06">1912 1380 16096 0 0,'0'0'63'0'0,"-1"2"0"0"0,1-2 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-2 1 0 0 0,1-1-35 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,-1 1-1 0 0,1-1-123 0 0,1 9 214 0 0,-4 7 405 0 0,4-14-533 0 0,-1 0 1 0 0,1 2 0 0 0,0-2-1 0 0,-1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,-1 3 0 0 0,-7 8-1407 0 0,-3-3-4653 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">280 65 19895 0 0,'0'0'1803'0'0,"1"1"-1482"0"0,9 19-285 0 0,-8-17-23 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,-1 0 0 0 0,0 5 0 0 0,-56 175 537 0 0,21-72-396 0 0,-10 30-50 0 0,-44 164 144 0 0,45-128-184 0 0,16-73-1005 0 0,28-102-450 0 0,1-7-843 0 0,1 0 2115 0 0,1-9-1268 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="629.53">302 206 10592 0 0,'0'0'3462'0'0,"-7"13"-639"0"0,6-10-2793 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-3 2 0 0 0,-6 7 224 0 0,9-8-191 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-6 3 1 0 0,6-3-64 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-5 6 0 0 0,6-6 18 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-4 2 0 0 0,1-1 66 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-7 9-1 0 0,8-7 3 0 0,2-5 660 0 0,2-5-679 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,5-4-1 0 0,12-15-6 0 0,-1-1 0 0 0,20-37-1 0 0,-18 36 28 0 0,-3 3-1 0 0,70-104 336 0 0,-59 97-347 0 0,-16 18 44 0 0,-11 10 74 0 0,8 2 360 0 0,-6 2-507 0 0,0 0-1 0 0,1 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,3 7 0 0 0,0 5 74 0 0,6 23-1 0 0,2 8 182 0 0,13 43 147 0 0,-25-86-431 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 5 1 0 0,0-7 39 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-2 2 1 0 0,-3 0 75 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-11 2-1 0 0,-6-2 199 0 0,-28-1-1 0 0,21 0-337 0 0,-14-2-189 0 0,-69-12 0 0 0,101 12-51 0 0,10 2 202 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,-1-2 0 0 0,-1-1-560 0 0,2 1-617 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1130.61">227 940 17967 0 0,'-2'2'161'0'0,"1"0"-1"0"0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 4 1 0 0,1 2-151 0 0,0 0 0 0 0,2 15-1 0 0,-1 15 174 0 0,-4 98 167 0 0,1-91-345 0 0,-7 62 54 0 0,-1-42-339 0 0,4 1-1 0 0,4 119 1 0 0,3-176-109 0 0,0 0 1 0 0,1 0-1 0 0,3 11 0 0 0,8 11-6569 0 0,-9-25 2049 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1892.55">178 1076 12528 0 0,'0'0'572'0'0,"2"0"-11"0"0,41-15-321 0 0,-28 9-251 0 0,23-5 1 0 0,-14 4 2 0 0,-13 5 24 0 0,-1-1 0 0 0,0 1 1 0 0,18-1-1 0 0,-24 3 25 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,6 4 1 0 0,-7-4 34 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 4-1 0 0,0-2-50 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-3 9 1 0 0,-2 1-42 0 0,0-1 0 0 0,-2 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,-14 18 0 0 0,-2-3 183 0 0,-39 34-1 0 0,41-42 234 0 0,1 0 0 0 0,-36 48 0 0 0,56-66-377 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 5 0 0 0,1-4-24 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,4 5-1 0 0,-1-1 2 0 0,1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,13 6 1 0 0,8 6-63 0 0,-19-12 50 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,18 3 0 0 0,-11-3 64 0 0,1-2 1 0 0,-1 1-1 0 0,23-3 0 0 0,-32 1-136 0 0,1-1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,7-5 1 0 0,-8 4-58 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,3-10 0 0 0,-3 8 74 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,-4-13 1 0 0,0 7 164 0 0,4 9 28 0 0,0 1 1 0 0,0 0-1 0 0,-5-8 1 0 0,6 12-33 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,-4-1 1 0 0,6 2-56 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-2 2-1 0 0,-11 11 380 0 0,10-10-328 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 6-1 0 0,1 5 65 0 0,2 25 0 0 0,0-14-22 0 0,-1-15-61 0 0,2 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 1 0 0,1 0-1 0 0,9 22 0 0 0,-6-15 6 0 0,-5-13-88 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 1 0 0,0-2-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 0 0 0 0,7 6 1 0 0,-9-8-55 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,5-3-1 0 0,2-1-604 0 0,-1-2 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,6-11 0 0 0,4-7-862 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2281.66">755 986 2760 0 0,'-1'6'40'0'0,"0"0"0"0"0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,1 0 0 0 0,1 10 0 0 0,3 9 3446 0 0,-1-7 1686 0 0,3 11 1552 0 0,-1-12-6136 0 0,-1 1 0 0 0,-1-1-1 0 0,3 23 1 0 0,2 9-315 0 0,-4-17-160 0 0,2 56 0 0 0,-5-61-114 0 0,-3 24 10 0 0,0-38-134 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,4 24 0 0 0,-1-18-237 0 0,-4-16 261 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,2 2 0 0 0,-1-1-637 0 0,-3-2 452 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,2 1 0 0 0,16 1-1679 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2674.46">1158 1348 14368 0 0,'0'0'1097'0'0,"-14"-3"-618"0"0,12 2-434 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-3 1-1 0 0,1 0 114 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-5 3-1 0 0,-1 2 192 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-7 12 1 0 0,10-13-312 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1 11 0 0 0,2-14-47 0 0,1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,4 10 0 0 0,-1-6-94 0 0,0 0 1 0 0,13 20-1 0 0,-16-29 13 0 0,0 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,8 3 0 0 0,-5-2-50 0 0,-2-2 67 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,5 0 1 0 0,-8-1 49 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1-1 1 0 0,2-4-79 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-2-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-2-9-1 0 0,-1-2 24 0 0,-5-25 0 0 0,5 37 290 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-6-8 1110 0 0,21 24-1203 0 0,-8-5-121 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,2 7 0 0 0,4 8-116 0 0,0 4-82 0 0,-7-19 63 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,8 9 0 0 0,-4-10-1406 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3360.5">1460 1379 2760 0 0,'-27'16'9791'0'0,"23"-9"-7268"0"0,1-5-2309 0 0,1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 6 0 0 0,-1 5 338 0 0,-2 22 0 0 0,4-25-267 0 0,0-6-185 0 0,1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,0 5 0 0 0,0 19 291 0 0,-2-20-335 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2 14 0 0 0,0-12-38 0 0,0 0-1 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,10 20 0 0 0,-13-27-40 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,5 0-1 0 0,-4 0-36 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,2-5 1 0 0,0 1-61 0 0,0-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,5-10 1 0 0,-6 9 123 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-4-12 0 0 0,3 13 423 0 0,4 13 370 0 0,5 14-218 0 0,-5-16-549 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 5 0 0 0,3 12 127 0 0,1-8-155 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,9 7 0 0 0,-15-15-45 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-2 1 0 0,19-21-963 0 0,-20 22 947 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1-2-1 0 0,1-3-42 0 0,-1 8 249 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,5 5-51 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,3 6-1 0 0,-2-3-84 0 0,1 0 0 0 0,14 14 0 0 0,-11-14-40 0 0,0-1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-2-1 0 0,21 10 1 0 0,-24-12 9 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,13-2 0 0 0,-19 0 19 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,0-4 1 0 0,-1-5 61 0 0,2 11-61 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-2-3-1 0 0,-4-5 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-11-7 0 0 0,-8-9-1046 0 0,16 12-4507 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3747.29">2251 1431 10592 0 0,'-1'14'431'0'0,"1"0"-1"0"0,0 0 1 0 0,2 15 0 0 0,5 1 2848 0 0,11 18 1262 0 0,-3-14-4478 0 0,24 39 0 0 0,-36-68-36 0 0,0 1 13 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 1 0 0 0,3 6-1 0 0,-5-11-2 0 0,1-19-624 0 0,2-2 524 0 0,-2-1 0 0 0,1 1 0 0 0,-3-23 0 0 0,1 19 97 0 0,3-38 0 0 0,-3 59-31 0 0,0 0 3 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,2-2 0 0 0,-2 0 5 0 0,-1 3-8 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,26 11 37 0 0,-16-4-18 0 0,0 0-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 1-1 0 0,13 16 1 0 0,41 61 33 0 0,-24-30 6 0 0,-5-17-829 0 0,-35-39 376 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4116.06">2097 1302 16096 0 0,'0'0'63'0'0,"-1"1"0"0"0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-2 1 0 0 0,1-1-35 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 1-1 0 0,1-1-123 0 0,1 8 214 0 0,-4 7 405 0 0,4-13-533 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-2 3 0 0 0,-7 7-1407 0 0,-3-3-4653 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20852,7 +20913,7 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">16 1432 6448 0 0,'0'0'585'0'0,"-6"9"7207"0"0,5-10-7582 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-2 0 0 0,1 2 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1-2 0 0 0,0-5-152 0 0,1 1 0 0 0,3-16-1 0 0,-4 20 2 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-7 1 0 0,0 7-25 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-6 1 0 0,1 4-31 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-8 0 0 0,2-16-4 0 0,-1 14 151 0 0,0-1-1 0 0,0-19 1 0 0,-1 20 39 0 0,0 15-186 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3-1 49 0 0,7-5-41 0 0,-6 7-12 0 0,-2 0 1 0 0,8-3 0 0 0,1 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 2 0 0 0,0-1 0 0 0,14 5 0 0 0,46 11 0 0 0,102 16 0 0 0,-130-28 25 0 0,69 2 0 0 0,-48-6-97 0 0,137-8-84 0 0,-97 0 158 0 0,109-17-4 0 0,-139 14-56 0 0,32-7-31 0 0,35-4 38 0 0,-5 2 51 0 0,-22 2 0 0 0,50-12 11 0 0,-120 21 54 0 0,11 0-13 0 0,24-3-52 0 0,-54 12 6 0 0,-1-1 42 0 0,92-15 37 0 0,-107 12-32 0 0,-4-2 1 0 0,1-1-44 0 0,-5 5-4 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1-2 0 0 0,0-1 118 0 0,0 1-55 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-6-1 0 0,-1-4-119 0 0,-3-24 0 0 0,1 21 177 0 0,-8-52 78 0 0,8 37-204 0 0,-10-41 0 0 0,3 14 0 0 0,4 34 0 0 0,1 0 0 0 0,-11-28 0 0 0,-1-1 0 0 0,4 8 0 0 0,-10-39 0 0 0,17 56 2 0 0,-4-20-88 0 0,8 28-12 0 0,0-37 0 0 0,1 55 98 0 0,-1-8 64 0 0,3 10-10 0 0,0-4-54 0 0,1 3-43 0 0,4-4 32 0 0,-6 5 11 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 2 0 0 0,0-2-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-30 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 2 0 0 0,-12 22-314 0 0,6-11 244 0 0,5-12 94 0 0,1-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,0-2-1 0 0,-1 1 1 0 0,1-1 0 0 0,1 0 0 0 0,-2 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,-4 2 0 0 0,8-6 8 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-6 0 0 0,0 0-3 0 0,30-59 76 0 0,-14 23-20 0 0,-11 32-42 0 0,-2-1-1 0 0,1 1 1 0 0,-2-2-1 0 0,4-15 0 0 0,-8 27-12 0 0,5-9 0 0 0,-4 10 0 0 0,2-7 0 0 0,-1 2 0 0 0,3 4 0 0 0,-4 2 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2 1 0 0 0,15 17 0 0 0,5 5 0 0 0,1-4 155 0 0,-21-18-112 0 0,3 1-33 0 0,4 3-11 0 0,-9-5 0 0 0,8 7 67 0 0,-5-3-2 0 0,-3-4-48 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-21 11 36 0 0,15-9-24 0 0,0-1-139 0 0,2 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,2-1-1 0 0,-1 0 1 0 0,-9-1 0 0 0,-5 0-6219 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">18 1379 6448 0 0,'0'0'585'0'0,"-7"9"7207"0"0,6-10-7582 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1-2 0 0 0,0-4-152 0 0,1 0 0 0 0,4-15-1 0 0,-5 19 2 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-7 1 0 0,0 7-25 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,2-5 1 0 0,0 3-31 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-8 0 0 0,2-15-4 0 0,0 14 151 0 0,-1-1-1 0 0,0-19 1 0 0,-1 20 39 0 0,0 14-186 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,2-1 49 0 0,8-5-41 0 0,-7 7-12 0 0,-2 0 1 0 0,10-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,16 5 0 0 0,50 10 0 0 0,113 16 0 0 0,-144-27 25 0 0,76 2 0 0 0,-52-6-97 0 0,150-8-84 0 0,-106 0 158 0 0,119-16-4 0 0,-152 13-56 0 0,34-6-31 0 0,40-4 38 0 0,-7 1 51 0 0,-23 3 0 0 0,54-12 11 0 0,-131 20 54 0 0,12 0-13 0 0,25-2-52 0 0,-58 11 6 0 0,-2-1 42 0 0,102-15 37 0 0,-118 12-32 0 0,-4-2 1 0 0,0 0-44 0 0,-5 4-4 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1-2 0 0 0,1-1 118 0 0,-1 1-55 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1-6-1 0 0,-1-3-119 0 0,-4-24 0 0 0,2 21 177 0 0,-9-51 78 0 0,8 36-204 0 0,-10-39 0 0 0,3 13 0 0 0,5 33 0 0 0,0 0 0 0 0,-12-27 0 0 0,0-1 0 0 0,3 8 0 0 0,-10-38 0 0 0,18 54 2 0 0,-3-19-88 0 0,7 26-12 0 0,1-34 0 0 0,1 52 98 0 0,-1-8 64 0 0,3 10-10 0 0,0-4-54 0 0,1 3-43 0 0,5-3 32 0 0,-7 4 11 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-30 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,-13 22-314 0 0,6-10 244 0 0,6-12 94 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-5 2 0 0 0,10-6 8 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-5 0 0 0,1-1-3 0 0,32-57 76 0 0,-15 23-20 0 0,-13 30-42 0 0,-1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,4-15 0 0 0,-9 26-12 0 0,5-9 0 0 0,-4 10 0 0 0,3-6 0 0 0,-2 1 0 0 0,3 4 0 0 0,-4 2 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,16 16 0 0 0,7 5 0 0 0,0-4 155 0 0,-23-17-112 0 0,4 1-33 0 0,4 3-11 0 0,-10-5 0 0 0,8 7 67 0 0,-4-4-2 0 0,-4-3-48 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-23 10 36 0 0,16-8-24 0 0,1-1-139 0 0,1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,-9-1 0 0 0,-6 0-6219 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20884,16 +20945,16 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">44 1364 5984 0 0,'0'0'464'0'0,"-5"-1"-67"0"0,-3-5 1017 0 0,-4-2 3010 0 0,-6-2-2371 0 0,26 8-1838 0 0,-1-2 0 0 0,1 2 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 1 1 0 0,14 0-1 0 0,-11 0-95 0 0,112-10 401 0 0,-57 2-294 0 0,39-7 272 0 0,-47 5-210 0 0,221-21 777 0 0,-197 22-892 0 0,145-38 0 0 0,-193 39-246 0 0,41-1-1 0 0,-40 9-2442 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="512.62">1355 257 13392 0 0,'0'0'1010'0'0,"7"14"-556"0"0,-1 1-429 0 0,-1 0 0 0 0,0 1 1 0 0,-2-2-1 0 0,0 2 0 0 0,-1 0 1 0 0,2 24-1 0 0,8 126 824 0 0,-1 1-394 0 0,1-11 175 0 0,13 86 157 0 0,-9-106-582 0 0,13 98-205 0 0,-16-42 0 0 0,-12-138 0 0 0,-7 84 0 0 0,-4-63-32 0 0,-1 16-437 0 0,7-31-4448 0 0,3-35-480 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1289.59">1557 108 13448 0 0,'0'0'613'0'0,"2"-1"-10"0"0,103-23 533 0 0,57 7-769 0 0,-87 11-358 0 0,148-12 276 0 0,100-3 147 0 0,7 0 718 0 0,-234 25-980 0 0,-44-1-125 0 0,-28 1 38 0 0,0-1-1 0 0,-2 1 0 0 0,2 2 1 0 0,-1 0-1 0 0,38 20 1 0 0,-51-22 3 0 0,-2 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 2 1 0 0,0-1 0 0 0,11 14 0 0 0,-2 1 118 0 0,-1 1 0 0 0,14 27 0 0 0,-12-15-161 0 0,21 61 0 0 0,-14-34-44 0 0,-18-47 1 0 0,0 1 0 0 0,-2-2 0 0 0,7 33 0 0 0,-4-2 0 0 0,19 64 0 0 0,32 131 224 0 0,-22-82-94 0 0,-8-46-81 0 0,80 386 236 0 0,-76-278-197 0 0,-31-213-63 0 0,-1 0-1 0 0,1 1 1 0 0,-2-1-1 0 0,1 0 0 0 0,-3 13 1 0 0,3-18-17 0 0,-1 1 0 0 0,1-2-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,-1-2 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-3 2 0 0 0,-30 3-207 0 0,-58 7-49 0 0,5-8 189 0 0,-189 6 54 0 0,-154 3 69 0 0,270-6-121 0 0,-86 7 50 0 0,111-5 7 0 0,97-8 0 0 0,-97-3 0 0 0,87-1-392 0 0,44 3 106 0 0,1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,2-1 0 0 0,-6-2 0 0 0,3-3-792 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1742.3">1456 690 13104 0 0,'0'0'1309'0'0,"0"-1"-1278"0"0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,2-1 0 0 0,14-3 241 0 0,0 2 1 0 0,0 0 0 0 0,0-1 0 0 0,1 3 0 0 0,22 0 0 0 0,3 0 0 0 0,267-5 2696 0 0,-284 6-2732 0 0,204-18 493 0 0,-67 3-606 0 0,42-9-115 0 0,-136 14-10 0 0,113-8 0 0 0,1-1 0 0 0,-56 6 0 0 0,-70 9-62 0 0,-39 4-229 0 0,1-1 1 0 0,-1-1 0 0 0,19-4-1 0 0,-34 6-191 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2208.03">2148 179 12816 0 0,'-6'-3'1157'0'0,"-2"1"-1118"0"0,1-1 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-9 8 1 0 0,5-3-26 0 0,7-5-4 0 0,-1 1 0 0 0,0 0 0 0 0,-5 6 0 0 0,8-9-8 0 0,1 1-1 0 0,0-1 0 0 0,0 2 1 0 0,0-2-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 6 1 0 0,1-3 15 0 0,1-1 0 0 0,-1 1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,1-1 0 0 0,3 4 1 0 0,-1 0 11 0 0,70 83 982 0 0,-68-80-1011 0 0,0 0 0 0 0,15 11 0 0 0,-17-16 0 0 0,1 0 0 0 0,-2 1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 2 0 0 0,0-2 0 0 0,-1 1 0 0 0,4 9 0 0 0,-7-13 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 3 0 0 0,-4 1 0 0 0,2-1 0 0 0,-2 0 0 0 0,0 0 0 0 0,-13 6 0 0 0,14-7 0 0 0,-1-2-27 0 0,1 1 0 0 0,1-1 0 0 0,-2 0 1 0 0,1-1-1 0 0,1 1 0 0 0,-2-1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1-1 1 0 0,-9-5-1 0 0,13 7-163 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-3 0 0 0,2-14-1024 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2560.67">2279 201 8752 0 0,'0'0'793'0'0,"-2"1"-650"0"0,0 2 28 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,-1 4 1 0 0,-2 6 645 0 0,3-10-710 0 0,0 2 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,1 6 0 0 0,0 3 138 0 0,2 0 1 0 0,9 25-1 0 0,-7-25 1 0 0,-5-9-211 0 0,2-1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,6 5 1 0 0,2-1 139 0 0,-1-1 1 0 0,16 10-1 0 0,-10-7-123 0 0,-8-6-146 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-2 0 0 0,1 2-1 0 0,12-2 1 0 0,-10-2-3323 0 0,2-4-1144 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3074.54">2121 339 13792 0 0,'0'0'314'0'0,"2"-1"46"0"0,42-13 530 0 0,-32 11-1097 0 0,1-1 0 0 0,0-1 0 0 0,16-8 0 0 0,68-44-6315 0 0,-86 51 5741 0 0,-1-2 0 0 0,16-13 0 0 0,8-7-1026 0 0,-32 28 1471 0 0,-2-1 381 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,14 5 4617 0 0,-11-3-4415 0 0,-1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 2 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,1 6 1 0 0,8 18 145 0 0,-8-24-310 0 0,0 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 8 1 0 0,-1 1-83 0 0,-1-13 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 3 0 0 0,1 11-11 0 0,0-15 6 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 2 1 0 0,0-2-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,-9-8-39 0 0,8 3 37 0 0,-1 1 0 0 0,1-3 0 0 0,0 2 1 0 0,0 0-1 0 0,0-1 0 0 0,-1-11 0 0 0,-2-10-9 0 0,1 13 26 0 0,2 1 1 0 0,-1-2 0 0 0,2 1-1 0 0,0-20 1 0 0,1 32 8 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,2 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,1-4 0 0 0,2-4 88 0 0,-4 10-95 0 0,0 0 1 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,3 1 0 0 0,5 0-18 0 0,-1 0 1 0 0,-1 0 0 0 0,16 6 0 0 0,27 10 4 0 0,-16-5 0 0 0,49 23 0 0 0,-76-30 12 0 0,1 0 1 0 0,0 1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,7 10 0 0 0,-13-15-14 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 2 1 0 0,0 0-4 0 0,-1-1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 1 0 0 0,-1-2-1 0 0,2 1 1 0 0,-2-1 0 0 0,-4 6 0 0 0,-1 2-5 0 0,0-2 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-18 13 0 0 0,15-13 10 0 0,8-5-4 0 0,1-2 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-2 0 0 0 0,-3 1 0 0 0,6-3-5 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 2 1 0 0,1-2-1 0 0,0 1 1 0 0,-1 0-1 0 0,0 1 1 0 0,-6 5-157 0 0,6-7-165 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3431.02">2792 218 10680 0 0,'1'1'107'0'0,"0"0"0"0"0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 3 1 0 0,12 20 297 0 0,-10-20-265 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,2 9 0 0 0,-4-9-84 0 0,1-1-1 0 0,-1 2 1 0 0,1-1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,2-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,6 6 0 0 0,6 4 3 0 0,-14-11-57 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,3 2 1 0 0,13 5-48 0 0,-8-3 150 0 0,0 1-1 0 0,16 3 1 0 0,-23-8-281 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,4-3 0 0 0,1 0-4112 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3934.15">2792 295 11520 0 0,'0'0'1024'0'0,"2"0"-824"0"0,14 0-200 0 0,-6 0 0 0 0,-2 0 784 0 0,2 0 112 0 0,5 0 32 0 0,-4-4 0 0 0,3 4-1168 0 0,0-6-232 0 0,0-1-40 0 0,1 0-16 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3935.15">2914 143 8752 0 0,'0'0'776'0'0,"11"0"-616"0"0,3-2-160 0 0,0 2 0 0 0,1-3 1688 0 0,-1 3 304 0 0,4 0 64 0 0,-4 0 15 0 0,1-4-2167 0 0,3-4-440 0 0,-1 2-79 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">46 1297 5984 0 0,'0'0'464'0'0,"-5"-1"-67"0"0,-4-5 1017 0 0,-3-1 3010 0 0,-7-3-2371 0 0,27 8-1838 0 0,0-1 0 0 0,0 1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,14 0-1 0 0,-12 0-95 0 0,118-10 401 0 0,-59 3-294 0 0,40-8 272 0 0,-49 6-210 0 0,231-21 777 0 0,-206 22-892 0 0,153-37 0 0 0,-204 38-246 0 0,44-2-1 0 0,-42 9-2442 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="512.62">1422 244 13392 0 0,'0'0'1010'0'0,"8"14"-556"0"0,-2 0-429 0 0,-1 0 0 0 0,0 1 1 0 0,-2-1-1 0 0,1 1 0 0 0,-2 0 1 0 0,2 23-1 0 0,8 120 824 0 0,0 1-394 0 0,1-11 175 0 0,13 82 157 0 0,-9-100-582 0 0,13 92-205 0 0,-16-39 0 0 0,-13-132 0 0 0,-8 80 0 0 0,-3-59-32 0 0,-1 14-437 0 0,6-29-4448 0 0,4-33-480 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1289.6">1634 103 13448 0 0,'0'0'613'0'0,"2"-1"-10"0"0,108-22 533 0 0,61 7-769 0 0,-93 10-358 0 0,156-11 276 0 0,105-3 147 0 0,8 0 718 0 0,-247 24-980 0 0,-45-1-125 0 0,-30 0 38 0 0,0 0-1 0 0,-1 1 0 0 0,1 2 1 0 0,-1 0-1 0 0,40 18 1 0 0,-54-20 3 0 0,-1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1 0 0 0 0,12 13 0 0 0,-2 1 118 0 0,-1 1 0 0 0,14 25 0 0 0,-12-13-161 0 0,22 57 0 0 0,-15-32-44 0 0,-19-45 1 0 0,0 1 0 0 0,-1-1 0 0 0,6 30 0 0 0,-3-1 0 0 0,19 61 0 0 0,34 124 224 0 0,-23-78-94 0 0,-9-43-81 0 0,84 366 236 0 0,-79-264-197 0 0,-33-202-63 0 0,-1 0-1 0 0,1 0 1 0 0,-2 0-1 0 0,1 0 0 0 0,-3 12 1 0 0,3-17-17 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,-2 2 0 0 0,-31 3-207 0 0,-62 6-49 0 0,6-7 189 0 0,-199 5 54 0 0,-161 4 69 0 0,283-7-121 0 0,-90 8 50 0 0,116-6 7 0 0,102-7 0 0 0,-102-3 0 0 0,92-1-392 0 0,46 3 106 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-5-2 0 0 0,3-3-792 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1742.3">1528 656 13104 0 0,'0'0'1309'0'0,"0"-1"-1278"0"0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,2-1 0 0 0,15-3 241 0 0,0 2 1 0 0,0 0 0 0 0,0 0 0 0 0,0 2 0 0 0,24 0 0 0 0,4 0 0 0 0,279-5 2696 0 0,-298 6-2732 0 0,214-17 493 0 0,-69 3-606 0 0,43-9-115 0 0,-143 13-10 0 0,119-7 0 0 0,1-1 0 0 0,-59 6 0 0 0,-73 8-62 0 0,-41 4-229 0 0,1-1 1 0 0,-1-1 0 0 0,19-4-1 0 0,-35 6-191 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2208.03">2255 170 12816 0 0,'-7'-3'1157'0'0,"-1"1"-1118"0"0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-10 7 1 0 0,6-2-26 0 0,6-5-4 0 0,0 0 0 0 0,0 1 0 0 0,-6 6 0 0 0,9-9-8 0 0,1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 5 1 0 0,1-2 15 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,3 4 1 0 0,-1-1 11 0 0,74 80 982 0 0,-72-76-1011 0 0,1-1 0 0 0,15 11 0 0 0,-18-15 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,5 8 0 0 0,-8-12 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 2 0 0 0,-4 2 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-14 5 0 0 0,14-6 0 0 0,0-2-27 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0-1 1 0 0,-8-4-1 0 0,13 6-163 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-3 0 0 0,2-13-1024 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2560.67">2392 191 8752 0 0,'0'0'793'0'0,"-2"1"-650"0"0,0 2 28 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 4 1 0 0,-2 5 645 0 0,3-9-710 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,1 6 0 0 0,1 2 138 0 0,1 0 1 0 0,9 24-1 0 0,-7-23 1 0 0,-4-10-211 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,5 4 1 0 0,2 0 139 0 0,0-1 1 0 0,16 9-1 0 0,-10-7-123 0 0,-9-5-146 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-2 0 0 0,0 1-1 0 0,13-1 1 0 0,-10-1-3323 0 0,1-5-1144 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3074.54">2226 322 13792 0 0,'0'0'314'0'0,"2"-1"46"0"0,44-12 530 0 0,-33 10-1097 0 0,1-1 0 0 0,-1 0 0 0 0,18-9 0 0 0,71-41-6315 0 0,-91 48 5741 0 0,0-1 0 0 0,16-13 0 0 0,9-7-1026 0 0,-34 27 1471 0 0,-2-1 381 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,15 5 4617 0 0,-12-3-4415 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-2 0 0 0 0,1 0 1 0 0,0 0-1 0 0,1 7 1 0 0,9 16 145 0 0,-9-22-310 0 0,0 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 7 1 0 0,-1 2-83 0 0,-1-13 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 3 0 0 0,1 10-11 0 0,0-14 6 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,-9-7-39 0 0,7 2 37 0 0,0 1 0 0 0,1-2 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-11 0 0 0,-3-10-9 0 0,2 13 26 0 0,2 0 1 0 0,-1-1 0 0 0,2 1-1 0 0,0-19 1 0 0,1 30 8 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,1-3 0 0 0,3-5 88 0 0,-5 10-95 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,4 1 0 0 0,4 0-18 0 0,-1 0 1 0 0,0 0 0 0 0,16 6 0 0 0,28 9 4 0 0,-16-5 0 0 0,51 22 0 0 0,-79-28 12 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,8 9 0 0 0,-14-14-14 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 2 1 0 0,0-1-4 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,-4 6 0 0 0,-1 1-5 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-18 13 0 0 0,15-12 10 0 0,9-6-4 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,-3 1 0 0 0,6-3-5 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 1 1 0 0,-6 5-157 0 0,6-7-165 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3431.02">2931 207 10680 0 0,'1'1'107'0'0,"0"0"0"0"0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 3 1 0 0,13 18 297 0 0,-11-18-265 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,3 8 0 0 0,-5-8-84 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,7 5 0 0 0,5 5 3 0 0,-14-11-57 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,3 2 1 0 0,14 5-48 0 0,-9-3 150 0 0,1 0-1 0 0,16 4 1 0 0,-24-8-281 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,5-3 0 0 0,0 0-4112 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3934.15">2931 281 11520 0 0,'0'0'1024'0'0,"2"0"-824"0"0,14 0-200 0 0,-5 0 0 0 0,-3 0 784 0 0,3 0 112 0 0,5 0 32 0 0,-5-4 0 0 0,4 4-1168 0 0,-1-6-232 0 0,1-1-40 0 0,1 1-16 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3935.15">3059 136 8752 0 0,'0'0'776'0'0,"11"0"-616"0"0,4-2-160 0 0,-1 2 0 0 0,2-3 1688 0 0,-1 3 304 0 0,4 0 64 0 0,-5 0 15 0 0,2-4-2167 0 0,3-3-440 0 0,-1 1-79 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20927,7 +20988,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">73 126 2760 0 0,'0'0'6957'0'0,"9"-5"173"0"0,-7 8-6852 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,5 4 1 0 0,5 3 251 0 0,11 8-26 0 0,-19-14-409 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,5 8 0 0 0,-2-3-15 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,9 7 0 0 0,15 11 14 0 0,-23-17-93 0 0,20 12 0 0 0,-5-5 0 0 0,-19-9 0 0 0,18 8 0 0 0,-21-13 0 0 0,13 9 0 0 0,-2-1 49 0 0,-10-5-2240 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="520.12">281 2 2304 0 0,'-6'-1'12806'0'0,"5"3"-12669"0"0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 2 0 0 0,-1-1-25 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-2 4 0 0 0,-8 34 496 0 0,5-26-318 0 0,1 1 0 0 0,-5 25 0 0 0,9-37-230 0 0,-8 32 313 0 0,3-15-308 0 0,-3 30-1 0 0,-4 23-64 0 0,7-52 2 0 0,5-21-12 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 7-1 0 0,-1 1-30 0 0,1-10 30 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-22 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 3-1 0 0,0 4-347 0 0,1-5-116 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1303.36">18 317 9760 0 0,'0'0'882'0'0,"1"0"-688"0"0,2-1-113 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,2-4 0 0 0,-3 5-58 0 0,3-2 394 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,8-4-1 0 0,13-8 955 0 0,-11 4-644 0 0,1 1 0 0 0,33-13 0 0 0,11-6-698 0 0,29-16-30 0 0,-80 39 0 0 0,-1 0 0 0 0,-5 4 0 0 0,-6 5 0 0 0,-9 6 0 0 0,-6 1 34 0 0,0-2 0 0 0,0 0 0 0 0,-30 9 0 0 0,32-13-64 0 0,-28 15-1 0 0,-5 2 18 0 0,3-4-46 0 0,-47 27 0 0 0,88-42 59 0 0,5-1 0 0 0,5-1 0 0 0,8-1-7 0 0,-1-1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-2 1 0 0,-1 0 0 0 0,23-9 0 0 0,-11 1-735 0 0,0-1 0 0 0,-1-1 1 0 0,39-28-1 0 0,-23 13-264 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1303.37">18 317 9760 0 0,'0'0'882'0'0,"1"0"-688"0"0,2-1-113 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,2-4 0 0 0,-3 5-58 0 0,3-2 394 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,8-4-1 0 0,13-8 955 0 0,-11 4-644 0 0,1 1 0 0 0,33-13 0 0 0,11-6-698 0 0,29-16-30 0 0,-80 39 0 0 0,-1 0 0 0 0,-5 4 0 0 0,-6 5 0 0 0,-9 6 0 0 0,-6 1 34 0 0,0-2 0 0 0,0 0 0 0 0,-30 9 0 0 0,32-13-64 0 0,-28 15-1 0 0,-5 2 18 0 0,3-4-46 0 0,-47 27 0 0 0,88-42 59 0 0,5-1 0 0 0,5-1 0 0 0,8-1-7 0 0,-1-1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-2 1 0 0,-1 0 0 0 0,23-9 0 0 0,-11 1-735 0 0,0-1 0 0 0,-1-1 1 0 0,39-28-1 0 0,-23 13-264 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20991,20 +21052,20 @@
       <inkml:brushProperty name="color" value="#FFC114"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1351 76 9216 0 0,'0'0'4992'0'0,"0"2"-4939"0"0,1 4-31 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 10 0 0 0,0 15 160 0 0,2-5 385 0 0,-1-1 0 0 0,-2 26 0 0 0,1 32 465 0 0,2 199 426 0 0,-5-136-1002 0 0,-12 158 463 0 0,7-223-763 0 0,-4 32 108 0 0,-12 86 277 0 0,8-63-389 0 0,-8 83-72 0 0,22-190-80 0 0,2-17 0 0 0,-2 1 0 0 0,1-1 0 0 0,-5 16 0 0 0,0-5 0 0 0,1 1 0 0 0,-3 32 0 0 0,7-50 1 0 0,0 2-1 0 0,0-2 0 0 0,-1 0 1 0 0,-4 10-1 0 0,4-10-4 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 7-1 0 0,2-11-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 2 0 0 0,-1-2 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="825.66">1306 133 2760 0 0,'-24'21'55'0'0,"-15"8"5698"0"0,-4 3-2660 0 0,29-21-2931 0 0,5-5-20 0 0,0 2 0 0 0,-10 11 0 0 0,17-17-65 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-2 6 0 0 0,-4 6 4244 0 0,11-23-3912 0 0,5-9-94 0 0,-7 13-264 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,4-3 0 0 0,0-1 41 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,5-11 1 0 0,8-10 23 0 0,22-37 29 0 0,-1 1-92 0 0,-34 56-42 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,8-4 0 0 0,-12 9 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-2 0 0 0,0 2 0 0 0,1 0-1 0 0,-1 0 1 0 0,5-1 0 0 0,0 0 90 0 0,-6 2 805 0 0,17 31-757 0 0,-14-18-140 0 0,0-1 0 0 0,1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 0 1 0 0,13 18 0 0 0,3-3 73 0 0,-7-6 56 0 0,-6-5 10 0 0,12 18 933 0 0,-20-31-779 0 0,-9 10-29 0 0,6-9-259 0 0,-1-2-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0-1 0 0 0,-5 2-1 0 0,-37 2 188 0 0,15-2-138 0 0,-94 24-62 0 0,110-23 38 0 0,0 2-1 0 0,0-1 0 0 0,1 3 1 0 0,0-1-1 0 0,-16 11 0 0 0,-5 7-677 0 0,33-23 320 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2546.73">1231 1921 9184 0 0,'0'0'704'0'0,"6"-3"-448"0"0,12-16 468 0 0,-15 15-428 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,9-6 0 0 0,26-13 1841 0 0,-22 13-1639 0 0,-1 1 0 0 0,29-24 0 0 0,-29 20-371 0 0,1 2 1 0 0,18-12 0 0 0,21-15 332 0 0,-2-4 246 0 0,-8 6-241 0 0,18-14-302 0 0,-51 40-154 0 0,0 1 0 0 0,0 0 1 0 0,1 2-1 0 0,0-2 1 0 0,18-6-1 0 0,-3 5 104 0 0,47-14 0 0 0,-54 18 12 0 0,0 0-1 0 0,31-19 1 0 0,-23 9 1357 0 0,-27 16-1418 0 0,-3-7 0 0 0,-1 0-64 0 0,3 0 1 0 0,1 5-1 0 0,2-18-15 0 0,-1 12-44 0 0,-2 6 58 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 1 1 0 0,4-3 0 0 0,7-10 1 0 0,-11 12 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-2 0 0 0,1 2 0 0 0,-1 0 0 0 0,4-2 0 0 0,-3 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,2-4 0 0 0,-2 3 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,4-2 1 0 0,12-7 61 0 0,296-209 536 0 0,-315 221-598 0 0,53-34-8 0 0,117-69 94 0 0,-116 71 8 0 0,-30 17 330 0 0,49-21 0 0 0,-50 28-388 0 0,1-1-1 0 0,0 3 1 0 0,0 1-1 0 0,0 0 0 0 0,1 2 1 0 0,37 1-1 0 0,-60 1 40 0 0,1-2-10 0 0,-3 2-1 0 0,-1 0-46 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-3-2 0 0 0,0 0 20 0 0,-19-14-27 0 0,9 9-24 0 0,-1-1-64 0 0,-4-2-22 0 0,-2-4 13 0 0,18 14 79 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-5-5-1 0 0,5 3 7 0 0,1 2-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-6-4 0 0 0,5 4 13 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-5-7 0 0 0,8 6-5 0 0,0 3-12 0 0,-21-8 88 0 0,21 7-30 0 0,3 2 1 0 0,6 1-44 0 0,17 4-10 0 0,-21-5 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 2 0 0 0,0-1 0 0 0,0-1 0 0 0,4 4 0 0 0,12 5 19 0 0,-14-8-5 0 0,0 0 0 0 0,-1 0 0 0 0,10 8 0 0 0,-11-8-9 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,7 2 1 0 0,-6-2-4 0 0,-1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,5 2-1 0 0,18 14 116 0 0,-19-14 132 0 0,-8-3-247 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 2 1 0 0,-5 3-42 0 0,5-2 86 0 0,0 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,-3 4 0 0 0,0-1 53 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,-4 8-1 0 0,7-11-94 0 0,-4 10-14 0 0,5-10 4 0 0,1 0-72 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3567.8">394 2316 6912 0 0,'0'0'622'0'0,"-4"-14"2274"0"0,2 12-2411 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-2 1 0 0,0-3 0 0 0,1 5-349 0 0,-1 0 0 0 0,1-2-1 0 0,-1 2 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,-3-5 1 0 0,-7-7 402 0 0,7 7-418 0 0,1 2 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-9-3-1 0 0,7 5-53 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 2-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-9 5-1 0 0,0 2 43 0 0,0-1-1 0 0,1 2 1 0 0,-25 20-1 0 0,32-24-74 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 2 0 0 0,1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1 0 0 0 0,-4 12 0 0 0,3-4 18 0 0,2-5-13 0 0,0 0 0 0 0,1 0 0 0 0,-3 14 0 0 0,5-19-21 0 0,-2 10 10 0 0,1 1 0 0 0,0 0-1 0 0,2 0 1 0 0,-1-1 0 0 0,2 1 0 0 0,3 24-1 0 0,-1-24 17 0 0,1-1-1 0 0,0 1 0 0 0,8 19 0 0 0,-9-29-20 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0-1 0 0 0,0 0 0 0 0,10 10 0 0 0,-9-9 4 0 0,1-2 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-2 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,11 0 0 0 0,-14-1-50 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,6-4 1 0 0,-2 0-1189 0 0,0 1 0 0 0,12-13 0 0 0,-8 6-4897 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3977.71">487 2252 15200 0 0,'-8'5'1161'0'0,"-34"15"-603"0"0,35-17-477 0 0,0-1 1 0 0,0 1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 2 0 0 0,-9 10-1 0 0,10-11-16 0 0,0 1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,0 2 0 0 0,0-1-1 0 0,1 2 1 0 0,0-2 0 0 0,0 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,3 16 1 0 0,-2-17 3 0 0,1 2 0 0 0,1-2 0 0 0,0 0 0 0 0,5 10 0 0 0,-7-13-17 0 0,1-1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,4 4 1 0 0,-1-1-57 0 0,0-2 0 0 0,1 0 0 0 0,-1 0 1 0 0,12 2-1 0 0,-16-4 3 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-2 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-2 0 0 0,0 0-1 0 0,2-1-47 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-2-1 0 0,1 1 1 0 0,-1 1 0 0 0,0-2-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0-9-1 0 0,-1 10 4 0 0,1-13-40 0 0,-2 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,-6-30 0 0 0,4 31 80 0 0,2 10 72 0 0,0-1 0 0 0,0 2 0 0 0,-5-14 0 0 0,6 18 868 0 0,1 6-915 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 2 1 0 0,0-2-1 0 0,3 5 1 0 0,2 9-21 0 0,1 7-55 0 0,1-2 0 0 0,0-1 0 0 0,2 0 0 0 0,0 1 0 0 0,22 30 0 0 0,-24-42-119 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4336.83">526 2341 6912 0 0,'0'0'528'0'0,"2"-18"2462"0"0,-1 17-2770 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0-1 0 0 0,0 2 0 0 0,-1-1 0 0 0,3 0 0 0 0,-2 1-75 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 2-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,3 1 0 0 0,1 3-73 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 2 1 0 0,-1-2 0 0 0,4 6-1 0 0,-1-1 38 0 0,0-1-1 0 0,11 12 0 0 0,-8-11 84 0 0,0 1 0 0 0,-1 0 0 0 0,0 1-1 0 0,10 19 1 0 0,-18-30-178 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-9-4 63 0 0,8 2-83 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-2-3-1 0 0,-1-7-75 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,1-1-1 0 0,0-1 0 0 0,0 1 0 0 0,1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,3-13 0 0 0,27-104-4347 0 0,-17 76 1190 0 0,-3 12-1285 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4852.75">794 1886 6912 0 0,'-2'3'482'0'0,"0"0"0"0"0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 2 1 0 0,0-2-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 2 0 0 0,0-1 0 0 0,0 5 1 0 0,2 2 417 0 0,0 0 1 0 0,1-2-1 0 0,5 16 1 0 0,-1-5-925 0 0,-1 12 618 0 0,-5-27-506 0 0,-1 1 0 0 0,1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,4 10-1 0 0,19 46 358 0 0,0 0-78 0 0,-17-47-278 0 0,-3-9-14 0 0,-1 2 0 0 0,-1-2 0 0 0,1 0 0 0 0,-1 2 1 0 0,0-2-1 0 0,0 1 0 0 0,0 1 0 0 0,-1-2 0 0 0,1 10 0 0 0,-1-8-75 0 0,-1-6-1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 2-1 0 0,0-1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 2 1 0 0,0-2 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-2-1 0 0,0 2 1 0 0,0 0-16 0 0,-29-5-455 0 0,25 3 427 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,-6 0-1 0 0,7 1 33 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,-6 7 0 0 0,10-9 8 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 2 0 0 0,1-2 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,2 2 0 0 0,3 2-22 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-2 1 0 0,13 7-1 0 0,-15-10 26 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,4-3 0 0 0,-6 3 0 0 0,5-2-27 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-2 1 0 0,1 1-1 0 0,-1-2 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,7-9 0 0 0,-7 6-292 0 0,-1-1-1 0 0,9-15 0 0 0,-5 7-166 0 0,-8 13 439 0 0,0 1 0 0 0,0-2-1 0 0,0 2 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1-4 0 0 0,-5-36 188 0 0,5 39-66 0 0,-5-7 163 0 0,6 11-214 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 2 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-3-3 1812 0 0,4 10-1832 0 0,1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,7 6-1 0 0,6 9-242 0 0,-9-13 216 0 0,0 0-1087 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5243.91">1035 2184 15552 0 0,'0'0'1937'0'0,"4"13"-957"0"0,-3-9-901 0 0,2 8 72 0 0,0-1-1 0 0,8 17 0 0 0,-6-10-150 0 0,5 0 0 0 0,-6-10 0 0 0,-4-3-18 0 0,0-3-76 0 0,-4-45-194 0 0,3 15 412 0 0,0 20-98 0 0,1-1 0 0 0,0 2 0 0 0,0-2 0 0 0,1-8 0 0 0,5-8 75 0 0,-6 24-99 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-2 1 0 0,0 2-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,3-1 56 0 0,-3 1-56 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 2 0 0 0,21 14-4 0 0,-13-8 4 0 0,38 34-818 0 0,-26-22-1856 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5650.74">1359 2063 14512 0 0,'0'0'1100'0'0,"-9"-13"-608"0"0,-10-4-362 0 0,10 10 125 0 0,8 6-226 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-2 2 0 0 0,-3-1 87 0 0,3 0-83 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 2 1 0 0,1-2-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 5 1 0 0,0-3 7 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,1 6 1 0 0,3 3 22 0 0,-6-11-52 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-2-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,3 4-1 0 0,4 0 62 0 0,-7-4-59 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 2 0 0 0,-1-2 0 0 0,1 0 1 0 0,4-2-1 0 0,-6 4-8 0 0,3-1 0 0 0,6-7-5 0 0,-8 5-4 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1-3 0 0 0,-1 4-15 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,2-3-1 0 0,-2 2-50 0 0,6-11-70 0 0,-5 11 97 0 0,11 3 31 0 0,-10 2 14 0 0,18 1-3 0 0,7-4-275 0 0,-27 0-57 0 0,0-1 127 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-2-1 0 0,-1 1 0 0 0,0 1 1 0 0,0-1-1 0 0,2 1 1 0 0,3-3-3171 0 0,1-3-1956 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6025.77">1377 1868 15696 0 0,'0'0'1571'0'0,"1"1"-1437"0"0,21 18 78 0 0,-17-15-122 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 2 0 0 0,5 6-1 0 0,23 52-3 0 0,-7-12 18 0 0,-21-45-71 0 0,5 10-41 0 0,14 21 0 0 0,-22-37-87 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,2 2-1 0 0,-2-2 68 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-170 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-3 1 0 0,0 3-256 0 0,3-6-4775 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6382.96">1617 1894 13448 0 0,'0'0'298'0'0,"1"9"414"0"0,13 66 918 0 0,-2-31-1039 0 0,-8-33-607 0 0,2 0-142 0 0,-3-10 110 0 0,-2-1 11 0 0,0 0-110 0 0,7 9-784 0 0,-7-9 821 0 0,0 1-36 0 0,-1-1 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,2 0 0 0 0,5-4-4662 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6738.72">1716 1769 12872 0 0,'0'0'289'0'0,"1"-14"708"0"0,1 9-887 0 0,1 0-74 0 0,-2 4 792 0 0,0 3-760 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,2 2 1 0 0,7 7 161 0 0,-1 11 16 0 0,-1-1 1 0 0,0 1-1 0 0,5 26 1 0 0,-10-37-244 0 0,-1-4 157 0 0,-1 0-1 0 0,0-1 1 0 0,0 2 0 0 0,-1-2-1 0 0,1 1 1 0 0,-2 8-1 0 0,-18-12-184 0 0,16-1-6 0 0,-10-4-187 0 0,11 3 180 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-3 1-1 0 0,2 0 34 0 0,-1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 2 1 0 0,0-2 0 0 0,-2 6-1 0 0,4-8 6 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,-1-2 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-7 0 0,1 0-7 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,2 1 0 0 0,0-2-19 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,4-3 1 0 0,6-3-1057 0 0,21-15-1 0 0,-19 9-697 0 0,0 0-2890 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6739.72">1957 1890 15232 0 0,'0'0'1527'0'0,"1"1"-1397"0"0,2 4-69 0 0,1 3 572 0 0,-3-8-586 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 2 0 0 0,1-2 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 126 0 0,1 1-102 0 0,4 4-56 0 0,-5-5-16 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,1-1-26 0 0,2 1-232 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,6-3 0 0 0,0 0-5398 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7082.87">2161 1484 3224 0 0,'4'7'288'0'0,"6"25"2744"0"0,0-5 4610 0 0,-2 0-4038 0 0,0 6-3216 0 0,4 19-319 0 0,4 19-69 0 0,-9-27 1776 0 0,-8-44-1758 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-2-1 0 0 0,3 1-8 0 0,-36-8-271 0 0,25 5 32 0 0,0 0-1 0 0,0 1 1 0 0,-17 0-1 0 0,21 2 244 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-12 4 1 0 0,17-4 19 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 2-1 0 0,0-2 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 4 0 0 0,2-5-9 0 0,-1 0 0 0 0,1 2 0 0 0,-1-2 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,0-1 0 0 0,5 2 13 0 0,0-1-1 0 0,0 0 1 0 0,13 0-1 0 0,-6-1-323 0 0,0-1 0 0 0,-1-1 0 0 0,1-1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0-1-1 0 0,0-1 1 0 0,0 0 0 0 0,14-10 0 0 0,-8 2-831 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1351 72 9216 0 0,'0'0'4992'0'0,"0"2"-4939"0"0,1 3-31 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 10 0 0 0,0 15 160 0 0,2-6 385 0 0,-1 0 0 0 0,-2 24 0 0 0,1 30 465 0 0,2 188 426 0 0,-5-128-1002 0 0,-12 148 463 0 0,7-210-763 0 0,-4 31 108 0 0,-12 80 277 0 0,8-58-389 0 0,-8 77-72 0 0,22-179-80 0 0,2-15 0 0 0,-2 0 0 0 0,1-1 0 0 0,-5 16 0 0 0,0-5 0 0 0,1 0 0 0 0,-3 31 0 0 0,7-47 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,-4 9-1 0 0,4-9-4 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 6-1 0 0,2-10-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="825.66">1306 125 2760 0 0,'-24'20'55'0'0,"-15"7"5698"0"0,-4 4-2660 0 0,29-21-2931 0 0,5-4-20 0 0,0 1 0 0 0,-10 11 0 0 0,17-16-65 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-2 5 0 0 0,-4 7 4244 0 0,11-23-3912 0 0,5-8-94 0 0,-7 12-264 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4-3 0 0 0,0 0 41 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,5-10 1 0 0,8-9 23 0 0,22-36 29 0 0,-1 2-92 0 0,-34 53-42 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,8-5 0 0 0,-12 9 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,5-1 0 0 0,0 0 90 0 0,-6 2 805 0 0,17 29-757 0 0,-14-17-140 0 0,0 0 0 0 0,1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,0-1 1 0 0,13 17 0 0 0,3-2 73 0 0,-7-6 56 0 0,-6-5 10 0 0,12 17 933 0 0,-20-29-779 0 0,-9 9-29 0 0,6-8-259 0 0,-1-2-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0-1 0 0 0,-5 2-1 0 0,-37 2 188 0 0,15-2-138 0 0,-94 22-62 0 0,110-21 38 0 0,0 2-1 0 0,0-1 0 0 0,1 2 1 0 0,0 0-1 0 0,-16 10 0 0 0,-5 6-677 0 0,33-21 320 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2546.73">1231 1810 9184 0 0,'0'0'704'0'0,"6"-3"-448"0"0,12-15 468 0 0,-15 14-428 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,9-5 0 0 0,26-13 1841 0 0,-22 13-1639 0 0,-1 0 0 0 0,29-22 0 0 0,-29 19-371 0 0,1 1 1 0 0,18-10 0 0 0,21-15 332 0 0,-1-4 246 0 0,-9 6-241 0 0,18-13-302 0 0,-51 38-154 0 0,0 0 0 0 0,0 1 1 0 0,1 1-1 0 0,0-1 1 0 0,18-6-1 0 0,-3 4 104 0 0,47-12 0 0 0,-54 16 12 0 0,0 0-1 0 0,31-17 1 0 0,-23 8 1357 0 0,-27 15-1418 0 0,-3-7 0 0 0,-1 1-64 0 0,3-1 1 0 0,1 5-1 0 0,2-17-15 0 0,-1 12-44 0 0,-2 5 58 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,4-3 0 0 0,7-9 1 0 0,-11 11 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,4-2 0 0 0,-3 2 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,2-4 0 0 0,-2 3 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,4-1 1 0 0,12-8 61 0 0,296-196 536 0 0,-315 208-598 0 0,53-32-8 0 0,117-65 94 0 0,-116 67 8 0 0,-30 16 330 0 0,49-20 0 0 0,-50 26-388 0 0,1 0-1 0 0,0 2 1 0 0,0 1-1 0 0,0 1 0 0 0,1 1 1 0 0,37 1-1 0 0,-60 1 40 0 0,1-2-10 0 0,-3 2-1 0 0,-1 0-46 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-3-2 0 0 0,0 1 20 0 0,-19-14-27 0 0,9 8-24 0 0,-1 0-64 0 0,-4-3-22 0 0,-2-3 13 0 0,18 13 79 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-5-5-1 0 0,5 4 7 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-6-3 0 0 0,5 3 13 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-5-6 0 0 0,8 5-5 0 0,0 3-12 0 0,-21-8 88 0 0,21 7-30 0 0,3 2 1 0 0,6 1-44 0 0,17 4-10 0 0,-21-5 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,4 4 0 0 0,12 4 19 0 0,-14-7-5 0 0,0 0 0 0 0,-1 0 0 0 0,10 7 0 0 0,-11-7-9 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,7 2 1 0 0,-6-2-4 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,5 2-1 0 0,18 13 116 0 0,-19-13 132 0 0,-8-3-247 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 2 1 0 0,-5 3-42 0 0,5-3 86 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,-3 3 0 0 0,0 0 53 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,-4 7-1 0 0,7-10-94 0 0,-4 9-14 0 0,5-9 4 0 0,1 0-72 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3567.8">394 2182 6912 0 0,'0'0'622'0'0,"-4"-13"2274"0"0,2 11-2411 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0-4 0 0 0,1 5-349 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,-3-4 1 0 0,-7-8 402 0 0,7 8-418 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-9-2-1 0 0,7 4-53 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-9 5-1 0 0,0 1 43 0 0,0 0-1 0 0,1 1 1 0 0,-25 19-1 0 0,32-22-74 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,-4 11 0 0 0,3-4 18 0 0,2-5-13 0 0,0 0 0 0 0,1 1 0 0 0,-3 12 0 0 0,5-17-21 0 0,-2 9 10 0 0,1 1 0 0 0,0 0-1 0 0,2 0 1 0 0,-1-1 0 0 0,2 1 0 0 0,3 23-1 0 0,-1-23 17 0 0,1-1-1 0 0,0 1 0 0 0,8 18 0 0 0,-9-28-20 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,10 9 0 0 0,-9-9 4 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,11 0 0 0 0,-14-1-50 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,6-5 1 0 0,-2 1-1189 0 0,0 0 0 0 0,12-12 0 0 0,-8 6-4897 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3977.71">487 2122 15200 0 0,'-8'4'1161'0'0,"-34"15"-603"0"0,35-16-477 0 0,0-1 1 0 0,0 1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-9 10-1 0 0,10-10-16 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,3 14 1 0 0,-2-15 3 0 0,1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,5 9 0 0 0,-7-13-17 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,4 4 1 0 0,-1-2-57 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,12 2-1 0 0,-16-4 3 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-2 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,0-1-1 0 0,2-1-47 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-9-1 0 0,-1 9 4 0 0,1-12-40 0 0,-2 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,-6-28 0 0 0,4 29 80 0 0,2 9 72 0 0,0 0 0 0 0,0 1 0 0 0,-5-13 0 0 0,6 17 868 0 0,1 6-915 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,3 5 1 0 0,2 8-21 0 0,1 6-55 0 0,1-1 0 0 0,0-1 0 0 0,2 0 0 0 0,0 0 0 0 0,22 29 0 0 0,-24-39-119 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4336.83">526 2206 6912 0 0,'0'0'528'0'0,"2"-17"2462"0"0,-1 16-2770 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,3 0 0 0 0,-2 1-75 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 2-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,3 1 0 0 0,1 2-73 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,4 6-1 0 0,-1-2 38 0 0,0 0-1 0 0,11 10 0 0 0,-8-9 84 0 0,0 0 0 0 0,-1 1 0 0 0,0 0-1 0 0,10 18 1 0 0,-18-28-178 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-9-4 63 0 0,8 2-83 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-2-3-1 0 0,-1-6-75 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3-11 0 0 0,27-99-4347 0 0,-17 72 1190 0 0,-3 11-1285 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4852.75">794 1777 6912 0 0,'-2'3'482'0'0,"0"0"0"0"0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 5 1 0 0,2 1 417 0 0,0 0 1 0 0,1-1-1 0 0,5 14 1 0 0,-1-4-925 0 0,-1 11 618 0 0,-5-25-506 0 0,-1 1 0 0 0,1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,4 9-1 0 0,19 43 358 0 0,0 1-78 0 0,-17-45-278 0 0,-3-8-14 0 0,-1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 9 0 0 0,-1-7-75 0 0,-1-6-1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-16 0 0,-29-5-455 0 0,25 3 427 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,-6 0-1 0 0,7 1 33 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,-6 6 0 0 0,10-8 8 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,2 1 0 0 0,3 3-22 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,13 6-1 0 0,-15-9 26 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,4-3 0 0 0,-6 3 0 0 0,5-2-27 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-2 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,7-8 0 0 0,-7 5-292 0 0,-1 0-1 0 0,9-15 0 0 0,-5 7-166 0 0,-8 12 439 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1-3 0 0 0,-5-35 188 0 0,5 37-66 0 0,-5-6 163 0 0,6 10-214 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-3-3 1812 0 0,4 10-1832 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,7 5-1 0 0,6 9-242 0 0,-9-12 216 0 0,0-1-1087 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5243.91">1035 2058 15552 0 0,'0'0'1937'0'0,"4"12"-957"0"0,-3-8-901 0 0,2 7 72 0 0,0-1-1 0 0,8 17 0 0 0,-6-10-150 0 0,5 0 0 0 0,-6-10 0 0 0,-4-2-18 0 0,0-3-76 0 0,-4-43-194 0 0,3 15 412 0 0,0 18-98 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-8 0 0 0,5-8 75 0 0,-6 23-99 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,3-1 56 0 0,-3 1-56 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 2 0 0 0,21 13-4 0 0,-13-8 4 0 0,38 33-818 0 0,-26-21-1856 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5650.74">1359 1944 14512 0 0,'0'0'1100'0'0,"-9"-13"-608"0"0,-10-3-362 0 0,10 10 125 0 0,8 5-226 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-2 2 0 0 0,-3-1 87 0 0,3 0-83 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 4 1 0 0,0-2 7 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,1 5 1 0 0,3 3 22 0 0,-6-10-52 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,3 3-1 0 0,4 1 62 0 0,-7-4-59 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,4-1-1 0 0,-6 2-8 0 0,3 0 0 0 0,6-6-5 0 0,-8 4-4 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1-2 0 0 0,-1 3-15 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,2-2-1 0 0,-2 1-50 0 0,6-10-70 0 0,-5 10 97 0 0,11 3 31 0 0,-10 1 14 0 0,18 2-3 0 0,7-4-275 0 0,-27 0-57 0 0,0-1 127 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,2 1 1 0 0,3-3-3171 0 0,1-3-1956 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6025.77">1377 1760 15696 0 0,'0'0'1571'0'0,"1"1"-1437"0"0,21 17 78 0 0,-17-14-122 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,5 7-1 0 0,23 48-3 0 0,-7-11 18 0 0,-21-43-71 0 0,5 10-41 0 0,15 20 0 0 0,-23-35-87 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,2 2-1 0 0,-2-2 68 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-170 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-2 1 0 0,0 2-256 0 0,3-6-4775 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6382.96">1618 1784 13448 0 0,'0'0'298'0'0,"1"9"414"0"0,13 62 918 0 0,-2-30-1039 0 0,-8-31-607 0 0,2 1-142 0 0,-3-10 110 0 0,-2-1 11 0 0,0 0-110 0 0,7 8-784 0 0,-7-8 821 0 0,0 1-36 0 0,-1-1 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,2 0 0 0 0,5-4-4662 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6738.72">1717 1667 12872 0 0,'0'0'289'0'0,"1"-14"708"0"0,1 10-887 0 0,1-1-74 0 0,-2 4 792 0 0,0 3-760 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,2 2 1 0 0,7 7 161 0 0,-1 9 16 0 0,-1 0 1 0 0,0 1-1 0 0,5 24 1 0 0,-10-34-244 0 0,-1-5 157 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-2 7-1 0 0,-18-11-184 0 0,16-1-6 0 0,-10-4-187 0 0,11 3 180 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-3 1-1 0 0,2 0 34 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-2 6-1 0 0,4-8 6 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-7 0 0,1 0-7 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,2 1 0 0 0,0-2-19 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,4-3 1 0 0,6-2-1057 0 0,21-15-1 0 0,-19 9-697 0 0,0 0-2890 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6739.72">1958 1781 15232 0 0,'0'0'1527'0'0,"1"1"-1397"0"0,2 3-69 0 0,1 4 572 0 0,-3-8-586 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 126 0 0,1 1-102 0 0,4 4-56 0 0,-5-5-16 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,1-1-26 0 0,2 1-232 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,6-4 0 0 0,0 0-5398 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7082.87">2162 1398 3224 0 0,'4'7'288'0'0,"6"23"2744"0"0,0-5 4610 0 0,-2 1-4038 0 0,0 5-3216 0 0,4 18-319 0 0,4 18-69 0 0,-9-26 1776 0 0,-8-41-1758 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-2-1 0 0 0,3 1-8 0 0,-36-7-271 0 0,25 4 32 0 0,0 0-1 0 0,0 1 1 0 0,-17 0-1 0 0,21 2 244 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-12 4 1 0 0,17-5 19 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 4 0 0 0,2-5-9 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,0-1 0 0 0,5 2 13 0 0,0-1-1 0 0,0 0 1 0 0,13 0-1 0 0,-6-1-323 0 0,0-1 0 0 0,-1-1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,14-9 0 0 0,-8 2-831 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21036,8 +21097,8 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">56 82 14280 0 0,'-1'1'1102'0'0,"-2"5"-771"0"0,0 0-247 0 0,-13 10-73 0 0,14-13 184 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-2 6 0 0 0,3-8 65 0 0,1 2-184 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,1 1 0 0 0,0 6 0 0 0,3 3 148 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,1-1-1 0 0,10 18 1 0 0,2-4 45 0 0,24 30-1 0 0,-27-40-135 0 0,1 0-1 0 0,26 18 0 0 0,-10-7 11 0 0,57 38-121 0 0,-6-4-24 0 0,16 32-62 0 0,7 39 64 0 0,-102-127 0 0 0,9 15 94 0 0,7 10-3290 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="950.91">611 97 4144 0 0,'0'-2'319'0'0,"8"-46"179"0"0,-5 35-107 0 0,-2 9-32 0 0,0 1 0 0 0,0-2 0 0 0,-1 2-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-8 0 0 0,-19 11 2117 0 0,18 0-2272 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-2 1-1 0 0,-18 20 1658 0 0,12-11-994 0 0,-42 54 1176 0 0,34-42-1455 0 0,-29 32-1 0 0,-31 39 267 0 0,-1 0-10 0 0,38-52-102 0 0,2 2 1 0 0,-61 95-1 0 0,59-68-239 0 0,36-61-264 0 0,4-10-212 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,1-1 240 0 0,10-6-218 0 0,-5 3-79 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,4-6 1 0 0,7-8-61 0 0,27-36 76 0 0,-28 34 14 0 0,20-20 0 0 0,2-4-224 0 0,-27 31 102 0 0,1 1 0 0 0,16-15 0 0 0,4-4-51 0 0,37-50 1 0 0,-12 14 52 0 0,36-47 119 0 0,-85 108 712 0 0,-21 11-456 0 0,7 0-256 0 0,0 0 0 0 0,1 2 0 0 0,-1-2 0 0 0,1 3 0 0 0,0-2 0 0 0,-10 14 0 0 0,2-4 0 0 0,-51 58-208 0 0,5-4 3 0 0,-63 72 16 0 0,54-34-84 0 0,7-8 204 0 0,44-75 69 0 0,14-22-10 0 0,5-3-44 0 0,3-1-10 0 0,12-10 13 0 0,-1 0 0 0 0,0-1 0 0 0,17-20 0 0 0,-14 13 7 0 0,24-19 0 0 0,10-8-22 0 0,-33 28 69 0 0,25-19 0 0 0,-21 19-8 0 0,33-35 0 0 0,-24 11-617 0 0,-29 41 280 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">56 77 14280 0 0,'-1'1'1102'0'0,"-2"4"-771"0"0,0 1-247 0 0,-13 9-73 0 0,14-12 184 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-2 5 0 0 0,3-7 65 0 0,1 2-184 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0 5 0 0 0,3 4 148 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,1-1-1 0 0,10 17 1 0 0,2-3 45 0 0,24 27-1 0 0,-27-37-135 0 0,1 0-1 0 0,26 17 0 0 0,-10-7 11 0 0,57 36-121 0 0,-6-4-24 0 0,16 30-62 0 0,7 37 64 0 0,-102-120 0 0 0,9 15 94 0 0,7 9-3290 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="950.91">611 91 4144 0 0,'0'-2'319'0'0,"8"-43"179"0"0,-5 33-107 0 0,-2 8-32 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-7 0 0 0,-19 10 2117 0 0,18 0-2272 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-2 2-1 0 0,-18 19 1658 0 0,12-11-994 0 0,-42 51 1176 0 0,34-40-1455 0 0,-29 31-1 0 0,-31 35 267 0 0,-1 1-10 0 0,38-48-102 0 0,2 1 1 0 0,-61 89-1 0 0,59-64-239 0 0,36-57-264 0 0,4-9-212 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,1 0 240 0 0,10-5-218 0 0,-5 2-79 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,4-5 1 0 0,7-8-61 0 0,27-34 76 0 0,-28 33 14 0 0,20-20 0 0 0,2-3-224 0 0,-27 29 102 0 0,1 1 0 0 0,16-15 0 0 0,4-3-51 0 0,37-46 1 0 0,-12 12 52 0 0,36-44 119 0 0,-85 102 712 0 0,-21 9-456 0 0,7 1-256 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 2 0 0 0,0-1 0 0 0,-10 13 0 0 0,2-4 0 0 0,-51 54-208 0 0,5-4 3 0 0,-63 68 16 0 0,54-32-84 0 0,7-7 204 0 0,44-71 69 0 0,14-20-10 0 0,5-3-44 0 0,3-1-10 0 0,12-9 13 0 0,-1 0 0 0 0,0-2 0 0 0,17-18 0 0 0,-14 13 7 0 0,24-19 0 0 0,10-7-22 0 0,-33 26 69 0 0,25-17 0 0 0,-21 17-8 0 0,33-33 0 0 0,-24 11-617 0 0,-29 38 280 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21101,7 +21162,7 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">63 658 11056 0 0,'-8'0'4800'0'0,"4"0"-4638"0"0,-28-2 1347 0 0,30 2-1169 0 0,-5 9 752 0 0,6-7-985 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1 3-1 0 0,5 30 48 0 0,-2-16-9 0 0,6 41 38 0 0,12 87 102 0 0,-17-107-145 0 0,-2-23-20 0 0,1 28 0 0 0,-2-33-57 0 0,3 8-46 0 0,-2-1 58 0 0,-2-18-55 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 2-1 0 0,1-2 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 192 0 0,1 0-149 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,2-2 1 0 0,-3 3-27 0 0,6-2 31 0 0,-5 1-59 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,1-2 0 0 0,31-36 183 0 0,-12 5-6 0 0,50-79 12 0 0,-66 105-201 0 0,204-270 134 0 0,-151 216-136 0 0,-7 8 84 0 0,34-33 47 0 0,-49 52-31 0 0,43-54 0 0 0,-42 48 107 0 0,-26 30-178 0 0,17-21 0 0 0,-2 2-24 0 0,-20 25 4 0 0,0-3-1 0 0,-1 2 1 0 0,1-2-1 0 0,-1 2 1 0 0,8-17 0 0 0,-10 14 81 0 0,2 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,11-11 0 0 0,-15 18-85 0 0,-1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-2 0 0 0,0 2 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0-1 0 0 0,10-7 0 0 0,-7 9 5 0 0,-3 1-7 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-2-1 0 0,-1 2 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,7-11-578 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">63 611 11056 0 0,'-8'0'4800'0'0,"4"0"-4638"0"0,-28-2 1347 0 0,30 2-1169 0 0,-5 9 752 0 0,6-8-985 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1 2-1 0 0,5 29 48 0 0,-2-15-9 0 0,6 37 38 0 0,12 82 102 0 0,-17-100-145 0 0,-2-21-20 0 0,1 26 0 0 0,-2-31-57 0 0,3 7-46 0 0,-2 0 58 0 0,-2-17-55 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 192 0 0,1 0-149 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,2-1 1 0 0,-3 2-27 0 0,6-2 31 0 0,-5 1-59 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,1-2 0 0 0,31-33 183 0 0,-12 4-6 0 0,50-73 12 0 0,-66 98-201 0 0,204-251 134 0 0,-151 200-136 0 0,-7 8 84 0 0,34-31 47 0 0,-49 49-31 0 0,43-51 0 0 0,-42 45 107 0 0,-26 28-178 0 0,17-20 0 0 0,-2 2-24 0 0,-20 23 4 0 0,0-2-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,8-15 0 0 0,-10 13 81 0 0,2 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,11-11 0 0 0,-15 17-85 0 0,-1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0-1 0 0 0,10-6 0 0 0,-7 8 5 0 0,-3 1-7 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,7-10-578 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21133,7 +21194,7 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32 1182 18399 0 0,'0'0'1408'0'0,"-3"-13"-800"0"0,2 7-604 0 0,1 5-1 0 0,-1-2 0 0 0,1 2 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-2-2 0 0 0,3 3-3 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 2 10 0 0,-1 0 0 0 0,1 2-1 0 0,0-2 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 2 1 0 0,0 32 76 0 0,1-31-82 0 0,2 25 44 0 0,6 42 0 0 0,0-6-12 0 0,37 224 46 0 0,-42-277-84 0 0,-1-6 70 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-2 0 0 0,8 15-1 0 0,-10-19-28 0 0,-1-1-1 0 0,0 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,3-3 0 0 0,2 0 68 0 0,-1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,8-12 0 0 0,5-6 111 0 0,11-16 43 0 0,-2-1 0 0 0,39-76 0 0 0,-37 63-137 0 0,249-419 46 0 0,-41 135-169 0 0,-169 243-4 0 0,67-128-1 0 0,-115 188-4 0 0,16-21-346 0 0,52-62 0 0 0,-28 39-6927 0 0,-36 44 21 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32 1112 18399 0 0,'0'0'1408'0'0,"-3"-12"-800"0"0,2 6-604 0 0,1 5-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-2-2 0 0 0,3 3-3 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 2 10 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1 2 1 0 0,0 30 76 0 0,1-30-82 0 0,2 25 44 0 0,6 38 0 0 0,0-5-12 0 0,37 211 46 0 0,-42-261-84 0 0,-1-5 70 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1 0 0 0,8 14-1 0 0,-10-19-28 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,3-2 0 0 0,2-1 68 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,8-12 0 0 0,5-6 111 0 0,11-14 43 0 0,-2-2 0 0 0,39-71 0 0 0,-37 59-137 0 0,250-394 46 0 0,-42 127-169 0 0,-169 229-4 0 0,67-121-1 0 0,-115 177-4 0 0,16-20-346 0 0,52-58 0 0 0,-28 37-6927 0 0,-36 41 21 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21165,17 +21226,17 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">64 2162 18399 0 0,'-1'1'109'0'0,"0"0"0"0"0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-3-1 0 0 0,3 1 40 0 0,1 0-150 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 2-1 0 0,0-1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,-1 0 1 0 0,-1 2-33 0 0,2 2 33 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,0-2-1 0 0,1 1 0 0 0,1 10 0 0 0,50 183-390 0 0,0 11 466 0 0,-2-12-76 0 0,-35-132 2 0 0,22 103 0 0 0,5 60 0 0 0,-36-198-444 0 0,0 0 0 0 0,13 36 0 0 0,-6-38-5329 0 0,-8-20 207 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="779.63">4 2338 13824 0 0,'0'-1'122'0'0,"-1"0"1"0"0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-2 0 0 0,3-6 3 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,6-9 0 0 0,5-9 249 0 0,26-44 723 0 0,86-110-1 0 0,-122 172-1096 0 0,2 0-14 0 0,0-2 0 0 0,1 3-1 0 0,0-2 1 0 0,0 2 0 0 0,17-12-1 0 0,-12 15 14 0 0,-11 5-2 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 3-1 0 0,3 4-11 0 0,-1-2 0 0 0,-1 2 0 0 0,1-1 0 0 0,-1 1 0 0 0,2 13 0 0 0,0 6-21 0 0,0 37-1 0 0,-2-25 12 0 0,-1-4-39 0 0,-2-1 1 0 0,-1 2-1 0 0,-2-1 1 0 0,-11 57-1 0 0,-45 139 41 0 0,39-161 22 0 0,9-37 64 0 0,-1-2 0 0 0,-2 0-1 0 0,-27 47 1 0 0,35-67-29 0 0,2-7-18 0 0,0 1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 2 0 0 0,-3 7-1 0 0,5-13-16 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 2 0 0 0,0 0 0 0 0,7 5 0 0 0,-6-7 0 0 0,14 9 0 0 0,-10-9 0 0 0,-2-1 0 0 0,24 6-86 0 0,0-1 0 0 0,0 0 0 0 0,43 0 0 0 0,-24-5-58 0 0,0-2-1 0 0,0-2 0 0 0,-1-3 1 0 0,0-1-1 0 0,60-20 0 0 0,-98 24 136 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1-2 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-2 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,10-15 0 0 0,-13 17 11 0 0,0-1-1 0 0,-1-1 1 0 0,1 2-1 0 0,-1-1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-2-1 0 0,-1 2 1 0 0,1-2-1 0 0,-1 1 1 0 0,0 1-1 0 0,-1-2 1 0 0,0-6-1 0 0,-6-23 0 0 0,-13-61 0 0 0,15 77 0 0 0,2 7 0 0 0,0-1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,0 2 0 0 0,-1-1 0 0 0,-11-19 0 0 0,0 7 0 0 0,11 14 14 0 0,-1 2-1 0 0,0-1 0 0 0,-9-9 1 0 0,3 6 0 0 0,8 8-2 0 0,0 1 0 0 0,0-2 0 0 0,0 3 0 0 0,-1-1 0 0 0,-10-7 0 0 0,15 11 5 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 2 0 0 0,-1-1-1 0 0,0 1-9 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 2 1 0 0,-1-1-1 0 0,1-1 0 0 0,-1 9 0 0 0,-1 6-293 0 0,-2 31-1 0 0,5-42 265 0 0,-1 16 2 0 0,1 0 0 0 0,0-1 0 0 0,2 1 0 0 0,1 1 0 0 0,0-2 0 0 0,2 1 0 0 0,0-1 0 0 0,2 0 0 0 0,15 35 0 0 0,-17-46 48 0 0,1-1-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0-2-1 0 0,20 12 0 0 0,-16-11 99 0 0,0-2 0 0 0,0-1 1 0 0,0 0-1 0 0,28 5 0 0 0,-40-9-106 0 0,14 2-149 0 0,27 0-1 0 0,-26-2-206 0 0,21 3-1 0 0,-31-3 179 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,11-1 1 0 0,1-1-459 0 0,-5 3 138 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3247.3">1113 2077 9672 0 0,'-6'2'243'0'0,"0"0"0"0"0,0 0 0 0 0,1 0 1 0 0,-7 4-1 0 0,10-4-132 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 4 0 0 0,-6 24 514 0 0,2-8-719 0 0,-6 27 0 0 0,9-18-8 0 0,2 0 1 0 0,1-1-1 0 0,2 33 0 0 0,1-1 43 0 0,3 63-14 0 0,-4-110 72 0 0,2 0 1 0 0,0 0-1 0 0,0-2 1 0 0,1 2 0 0 0,1-1-1 0 0,9 20 1 0 0,-13-32 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,6-2 0 0 0,-4 0-5 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-2 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,6-8 0 0 0,2-2-66 0 0,-1-1-1 0 0,0-1 1 0 0,-2-1-1 0 0,1 0 1 0 0,10-28-1 0 0,21-89-182 0 0,-30 95 325 0 0,-7 27-51 0 0,0-1 0 0 0,-1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-4-16 0 0 0,4 20 118 0 0,0-1 0 0 0,0 2 0 0 0,0-1-1 0 0,1-11 1 0 0,0 17-29 0 0,12 4 83 0 0,0 1-179 0 0,-1 0 0 0 0,1 2 0 0 0,-1-1 1 0 0,0 1-1 0 0,20 15 0 0 0,48 46 120 0 0,-54-45-105 0 0,55 48 45 0 0,76 68-10 0 0,-145-127-63 0 0,-1 2 0 0 0,1 0 0 0 0,15 26 0 0 0,19 44 0 0 0,-42-76 0 0 0,7 13 9 0 0,0 0 0 0 0,-2 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,3 21 1 0 0,-6-23 79 0 0,-1-6-11 0 0,0 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,-2 20 0 0 0,-5 3 34 0 0,-1 1 1 0 0,-2-1 0 0 0,-27 65-1 0 0,19-56 185 0 0,11-28-161 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-2 0 0 0 0,-19 26 1 0 0,15-25-19 0 0,-1 0 1 0 0,0-1 0 0 0,-1-1-1 0 0,-1-1 1 0 0,-35 25 0 0 0,51-39-138 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-2 1 0 0,0 2 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1-2-1 0 0,-2-5-143 0 0,0 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-2 0 0 0,-2-17-1 0 0,-1-8-276 0 0,-2-9-315 0 0,-3-67 1 0 0,0-123-1437 0 0,6 103 786 0 0,1 60 694 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3619.72">1478 1726 9760 0 0,'-7'-14'882'0'0,"7"13"-875"0"0,0 1 0 0 0,0-2 0 0 0,-1 2-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-5-3 3810 0 0,5 5-3809 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 2 0 0 0,18 39 326 0 0,13 31-191 0 0,67 154 399 0 0,-34-99-910 0 0,-59-116 368 0 0,0 0 0 0 0,1 0 0 0 0,12 14 0 0 0,10 16 0 0 0,-22-29-68 0 0,1-1 1 0 0,1 0 0 0 0,0-1 0 0 0,0 0-1 0 0,15 12 1 0 0,9 3-4456 0 0,-18-16 26 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3962.81">1916 1596 5984 0 0,'-7'12'165'0'0,"0"1"1276"0"0,1 0 1 0 0,0-1-1 0 0,-6 22 0 0 0,10-29-1036 0 0,0-1-1 0 0,0 2 1 0 0,0-2-1 0 0,-5 9 0 0 0,4-10-363 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 2-1 0 0,-1-2 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 8 0 0 0,1-4-28 0 0,-3 15 11 0 0,2 1 0 0 0,0-1 0 0 0,1 0 0 0 0,5 46 0 0 0,2-27-13 0 0,-4-24-11 0 0,1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,8 21 0 0 0,16 31-16 0 0,-26-65 8 0 0,0-1 1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1-1 0 0,6 5 1 0 0,10 13 110 0 0,-16-18-89 0 0,-2-2 3 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,1 0 0 0 0,-3 0-17 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,14-23-97 0 0,-10 16 25 0 0,-5 7 65 0 0,0 0 1 0 0,0-2-1 0 0,0 2 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1-5-1 0 0,1-9 82 0 0,1-3-117 0 0,0 0 1 0 0,-1 0-1 0 0,-1 0 0 0 0,-2-24 1 0 0,0 6-2 0 0,0 25 41 0 0,0 0 0 0 0,-4-16 0 0 0,0-5 17 0 0,5 30-6 0 0,-1 1-1 0 0,0-2 1 0 0,0 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-3-5-1 0 0,-4-10 88 0 0,5 12 92 0 0,-1 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0 0 0 0 0,-9-12 0 0 0,4 7 21 0 0,6 2-42 0 0,2 8-155 0 0,1 1 0 0 0,0-1 1 0 0,0-1-1 0 0,0 2 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,-1-2 0 0 0,-2 0 55 0 0,4 2-52 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1-1 301 0 0,1 4-246 0 0,16 13-61 0 0,-12-10-11 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,-2 0-1 0 0,1 0 1 0 0,5 9 0 0 0,-4-4-10 0 0,1 0-1 0 0,0-2 1 0 0,1 2 0 0 0,10 10 0 0 0,16 21 13 0 0,-19-17-5 0 0,-4-7-16 0 0,1-1 0 0 0,15 19 0 0 0,-12-14-134 0 0,-13-18 94 0 0,1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,2 2 0 0 0,15 9-2491 0 0,-12-9-2515 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4636.95">2293 1277 12096 0 0,'-2'1'16'0'0,"0"-1"59"0"0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 2 0 0 0,0-2 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,-1 3 0 0 0,-6 6-78 0 0,6-8 49 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,-3 8 1 0 0,-13 27 600 0 0,10-21-619 0 0,1 0 0 0 0,0 0 0 0 0,-6 22 0 0 0,14-37-30 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 2 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,3 7 1 0 0,1 11 100 0 0,-3-17-79 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 2 1 0 0,-1-2 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,2 0 0 0 0,6 7 76 0 0,-6-8-78 0 0,-1 2-1 0 0,1-1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,8 0-1 0 0,7 5 21 0 0,-10-4-36 0 0,-1 0 1 0 0,0 1 0 0 0,0 0 0 0 0,0 2-1 0 0,10 6 1 0 0,16 7 50 0 0,-27-14-52 0 0,1-1 1 0 0,-1 0 0 0 0,12 11-1 0 0,1 1 44 0 0,-16-14-45 0 0,0 1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 2 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,4 10 0 0 0,-5-11 20 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 1-1 0 0,-1-2 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 2-1 0 0,-1-1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-2-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,-3 4 0 0 0,-2 0-22 0 0,1 2 0 0 0,-8 10 0 0 0,9-11 0 0 0,1 0 0 0 0,-16 14 0 0 0,-3-2-5 0 0,19-14-1 0 0,-1-1-1 0 0,1 2 1 0 0,-1-2 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-2-1 0 0,1 1 1 0 0,-15 3 0 0 0,20-7-64 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,-2-1 0 0 0,-13-5-439 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5636.73">2727 390 14600 0 0,'0'0'664'0'0,"1"1"-8"0"0,48 37-392 0 0,12 12-264 0 0,-25-19 0 0 0,-21-17-2 0 0,-1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-2 1 0 0 0,0 0 1 0 0,-1 1-1 0 0,13 25 0 0 0,1 3-63 0 0,-7-16 9 0 0,18 47 0 0 0,-1 7 56 0 0,-11-28 6 0 0,20 69 1 0 0,-38-104 47 0 0,-1-8 65 0 0,-1 1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 26 0 0 0,-4-40 169 0 0,-1-2-267 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,-2 1 0 0 0,-5-4 8 0 0,-49-36 97 0 0,36 22-259 0 0,17 13 99 0 0,0 1-1 0 0,0 0 1 0 0,-8-6-1 0 0,-10-1 38 0 0,-13-8 180 0 0,33 16-178 0 0,0 1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-7 2 0 0 0,10-3-10 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 4-20 0 0,-1-3 20 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 2-1 0 0,1-2 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 2 1 0 0,0-2-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 3 0 0 0,0 0 15 0 0,0-2-1 0 0,0 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 8 1 0 0,2 18 18 0 0,4-11-42 0 0,1 0-1 0 0,14 29 0 0 0,-16-38 7 0 0,1-2 1 0 0,0 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 1 0 0,15 5-1 0 0,-16-8 7 0 0,-1 0 0 0 0,1-2 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,12-1 0 0 0,-10 0 1 0 0,1-1 1 0 0,-1 1 0 0 0,-1-2-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0-1 0 0 0,13-11-1 0 0,-13 10-34 0 0,20-17-135 0 0,49-55 0 0 0,-70 70 142 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-2 1 0 0,4-21-1 0 0,-7 26 23 0 0,1-4 24 0 0,0-2 1 0 0,0 1-1 0 0,-2 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,-4-25 1 0 0,3 28 6 0 0,-1-2 0 0 0,-1 2 1 0 0,1-2-1 0 0,-2 2 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,-1 2-1 0 0,-9-15 1 0 0,9 16 0 0 0,0 0 9 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 2-1 0 0,-1 0 1 0 0,-13-9-1 0 0,19 13 42 0 0,1 1-69 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 2-1 0 0,0-1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,2 2 1 0 0,-1 23 87 0 0,0-25-91 0 0,3 25-30 0 0,1-1 1 0 0,9 36-1 0 0,-9-49 21 0 0,-1-1 1 0 0,2 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,2-2 1 0 0,7 10-1 0 0,-5-7 16 0 0,0-2-1 0 0,1-1 0 0 0,0 2 0 0 0,1-3 0 0 0,0 2 1 0 0,0-2-1 0 0,0 0 0 0 0,1-1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-2 0 0 0,17-1 0 0 0,-22 0 2 0 0,1 0 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-2 0 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1-1 1 0 0,0 1 0 0 0,11-15 0 0 0,-8 8-60 0 0,0 1 0 0 0,-1-2 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-2-1 0 0 0,8-27 1 0 0,-2-6-87 0 0,-2-1-1 0 0,-2 0 1 0 0,-2-1 0 0 0,-2-91 0 0 0,-6 89-3 0 0,-2 1 0 0 0,-17-79 1 0 0,12 88 138 0 0,-2-1 0 0 0,-1 2 0 0 0,-24-48 0 0 0,31 76 0 0 0,-1-1 0 0 0,-1 2 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,-17-18 0 0 0,22 25 21 0 0,-1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,-6 0 1 0 0,11 0 9 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-4 5 0 0 0,3-3 6 0 0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-2 9 1 0 0,-1 3-12 0 0,2-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 19 0 0 0,2-14-11 0 0,0 1 0 0 0,2-1 0 0 0,0 0 0 0 0,1 0 0 0 0,7 24 0 0 0,0-6 112 0 0,27 61 0 0 0,-11-46 138 0 0,47 73 0 0 0,-25-46-127 0 0,-23-38-154 0 0,3-2 0 0 0,0-1 0 0 0,3-2 1 0 0,1-1-1 0 0,69 60 0 0 0,-64-64-273 0 0,-3-1-22 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6421.96">2550 2809 16208 0 0,'-1'0'43'0'0,"1"0"0"0"0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 2 1 0 0,0-2-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1 1-7 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,2 2-1 0 0,30 28-254 0 0,-31-31 290 0 0,9 11-76 0 0,1 1 0 0 0,10 14 0 0 0,1 0-128 0 0,-3 1-87 0 0,-2-1-1 0 0,0 3 0 0 0,26 59 0 0 0,-32-65 147 0 0,34 93-55 0 0,-45-116 128 0 0,6 13 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,0 0 0 0 0,2 15 0 0 0,-5-21 0 0 0,1-2-1 0 0,-1 1 1 0 0,1-2-1 0 0,1 1 1 0 0,6 12-1 0 0,-4-9 20 0 0,-1-1 0 0 0,5 14 0 0 0,-8-15-11 0 0,-2-6-8 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2 1 0 0 0,7 1 0 0 0,-10-1-4 0 0,1-2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-2 0 0 0,0 2 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-2 0 0 0,1-1-7 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,0 0 0 0 0,1-6-1 0 0,-1 5 2 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-4 0 0 0,-3-3-11 0 0,1 0 1 0 0,-1 2 0 0 0,-6-20 0 0 0,-3-15-12 0 0,8 29 33 0 0,-27-136-2 0 0,18 97 2 0 0,8 32-1 0 0,-9-25 0 0 0,9 33 0 0 0,-1-1 0 0 0,2 2 0 0 0,0-1 0 0 0,0-1 0 0 0,0-24-1 0 0,-2-15 2 0 0,2 31-2 0 0,3 21 2 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 2 1 0 0,1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0-1 1 0 0,0 2 0 0 0,0-1-1 0 0,3-1 1 0 0,3-3 63 0 0,-5 5-59 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 2 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,2 1 0 0 0,4 5 20 0 0,-1-1 0 0 0,0 0 0 0 0,9 12 1 0 0,3 4 0 0 0,-2-6 14 0 0,12 18 0 0 0,11 11-3 0 0,9 8-68 0 0,-32-34 12 0 0,0-1 0 0 0,33 26 0 0 0,-27-26 28 0 0,38 25-39 0 0,-54-38 25 0 0,0-1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 2-1 0 0,0-2 1 0 0,12 1 0 0 0,-14-3-1 0 0,0 1 1 0 0,-1-2 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-2 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,6-8 0 0 0,-5 5-11 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-2-1 0 0,-2 2 1 0 0,1-1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-9 1 0 0,-1-9-15 0 0,-1-2 0 0 0,-2 2 0 0 0,0 0 1 0 0,-1-1-1 0 0,-2 1 0 0 0,0 0 0 0 0,-2-1 1 0 0,-1 2-1 0 0,0 0 0 0 0,-19-37 0 0 0,19 47 7 0 0,0-1 1 0 0,-17-20-1 0 0,21 30 26 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,-1 0 0 0 0,0-1 0 0 0,-12-6 1 0 0,16 10 7 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 2 0 0 0,-2 1 0 0 0,1 0 30 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,0 1 0 0 0,-1-2 0 0 0,2 1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 7 0 0 0,0 7 8 0 0,1-1-1 0 0,0 1 1 0 0,2-1-1 0 0,0 1 0 0 0,1-1 1 0 0,1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,2 0-1 0 0,7 18 1 0 0,-7-20-38 0 0,2-1 1 0 0,0-1 0 0 0,0 0-1 0 0,1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,1-1 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,19 13-1 0 0,-15-15-83 0 0,0 1 0 0 0,1-2 0 0 0,0 0 0 0 0,0-2 0 0 0,1 1 0 0 0,0-2 0 0 0,0-1 0 0 0,19 4 0 0 0,-30-8-43 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-2 0 0 0,0 1-1 0 0,1 0 1 0 0,9-5 0 0 0,-9 4-253 0 0,0-3 0 0 0,0 2 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-3 0 0 0,0 2 0 0 0,0-1 0 0 0,9-12 0 0 0,0-2-4074 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7127.24">3617 2250 5064 0 0,'-8'18'395'0'0,"4"-11"-375"0"0,1-1 0 0 0,1 2 0 0 0,-1-1 1 0 0,-1 8-1 0 0,-1 10 2397 0 0,2 0 1 0 0,0 1 0 0 0,1 33-1 0 0,3-18-1825 0 0,2 0 0 0 0,10 48 0 0 0,-8-66-528 0 0,-3-11-15 0 0,0-1 1 0 0,1 1 0 0 0,7 19 0 0 0,2-3 159 0 0,-6-14-73 0 0,-1 0 0 0 0,12 17 0 0 0,-14-27-119 0 0,0 1 1 0 0,0-2 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,7 2 1 0 0,-5-2 22 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,0-1-1 0 0,8 1 0 0 0,-8-1-22 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,7 2-1 0 0,3 4-55 0 0,-1 0-1 0 0,0 1 1 0 0,-1 0-1 0 0,0 2 1 0 0,0-1-1 0 0,-1 2 1 0 0,-1 0-1 0 0,17 20 1 0 0,-12-14-181 0 0,-1 2 0 0 0,-1 0 1 0 0,-1 1-1 0 0,0 1 0 0 0,-2 1 1 0 0,0-1-1 0 0,11 34 1 0 0,-16-35 154 0 0,-1 1 1 0 0,-1 0 0 0 0,-2 0-1 0 0,0 1 1 0 0,0 0 0 0 0,-2-1 0 0 0,-1 1-1 0 0,-1-1 1 0 0,-1 2 0 0 0,-6 33 0 0 0,6-49 37 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,-6 12 1 0 0,8-17 5 0 0,0 0 1 0 0,0 1 0 0 0,-1-2-1 0 0,1 2 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-5 1 0 0 0,6-3-24 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1-2 1 0 0,-1-2-46 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-2-1 0 0,0 1 1 0 0,0 0-1 0 0,-2-8 1 0 0,-4-20 178 0 0,2-1-1 0 0,2 0 1 0 0,-2-47 0 0 0,1 20-6 0 0,-1-71 66 0 0,2 36-248 0 0,-2-218-72 0 0,7 274 168 0 0,8-128 2 0 0,-8 167 5 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-2-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,2-3 1 0 0,5 12 142 0 0,1 5 27 0 0,-2 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,-1 1 1 0 0,-1-2 0 0 0,7 26-1 0 0,9 23 210 0 0,-11-39-346 0 0,0 0 0 0 0,1-1 0 0 0,1 0 0 0 0,1-1 0 0 0,1-1 0 0 0,19 23 1 0 0,-29-39-36 0 0,0 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 2-1 0 0,1-2 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1-1-1 0 0,11 2 1 0 0,-12-2-5 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-2 0 0 0,0 2 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-2-1 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-2 0 0 0,-1 2 1 0 0,0-1-1 0 0,3-4 0 0 0,1-6 18 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1-23 1 0 0,-4 32-15 0 0,2-16-8 0 0,-2-1 0 0 0,0 2 1 0 0,-1-1-1 0 0,-3-30 0 0 0,-2 14-102 0 0,-15-57 0 0 0,13 72 106 0 0,-1 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,-1 0 0 0 0,-27-28 0 0 0,34 39-46 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 1-1 0 0,-1 0 1 0 0,-12-4 0 0 0,18 7 29 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,0 0 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-6 5 0 0 0,1 1-31 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 1 0 0,0 1-1 0 0,-10 16 0 0 0,8-6-80 0 0,0-1 1 0 0,2 1-1 0 0,0 0 0 0 0,1 1 0 0 0,-5 34 1 0 0,9-44-183 0 0,1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,1-1 1 0 0,3 16-1 0 0,1-5-624 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7912.65">4253 1868 15408 0 0,'0'0'745'0'0,"-1"1"-327"0"0,0 0-391 0 0,-1 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 1 1 0 0,1-2 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 5 0 0 0,4 13 10 0 0,0-1-1 0 0,1 1 1 0 0,1-1 0 0 0,1-1 0 0 0,1 0-1 0 0,11 20 1 0 0,-2-7-85 0 0,0 0 1 0 0,2-1-1 0 0,1-1 0 0 0,46 48 0 0 0,-64-74 42 0 0,8 8 12 0 0,1-2-1 0 0,-1 2 1 0 0,2-3-1 0 0,15 11 1 0 0,-25-18-17 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-2 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-2 0 0 0,0 2 0 0 0,6-4 0 0 0,-6 3-18 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-2 0 0 0,0 1 0 0 0,2-4 0 0 0,0-3-32 0 0,-1 0 1 0 0,0-1 0 0 0,1-11-1 0 0,1 1-4 0 0,-4 9 34 0 0,0 0-1 0 0,0 0 1 0 0,-2 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,-5-21 0 0 0,0-6 33 0 0,1 6-25 0 0,-14-50 1 0 0,9 46-27 0 0,6 23 29 0 0,-10-22 0 0 0,-1-6 130 0 0,14 41-109 0 0,1 1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1 73 0 0,1 3-61 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 2-1 0 0,0-1 0 0 0,1 4 1 0 0,-1-5-3 0 0,14 31 53 0 0,23 34 1 0 0,-1-1-7 0 0,-29-53-56 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,1-2 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,14 8 0 0 0,-21-16-1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,5-1 1 0 0,-7 0-9 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-2 0 0 0,0-2 0 0 0,5-9-86 0 0,-2 1-1 0 0,0-2 1 0 0,0 0-1 0 0,-2 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-2 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-2 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-7-26-1 0 0,-3-7 80 0 0,14 57 174 0 0,0-1-1 0 0,0-1 1 0 0,1 2-1 0 0,-1-2 1 0 0,1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,5 4 1 0 0,54 55-404 0 0,-39-39 301 0 0,-15-17-57 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1-1 0 0,1-1 1 0 0,18 9 0 0 0,78 20 4 0 0,-108-35-2 0 0,12 3 86 0 0,0-1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-2 0 0 0,0 0-1 0 0,0-2 1 0 0,0 1 0 0 0,0-1-1 0 0,17-4 1 0 0,-20 3-8 0 0,0 0 0 0 0,0-2 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-2-1 0 0,11-14 0 0 0,-12 14-72 0 0,0-1 1 0 0,-1 1-1 0 0,0-2 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-20-1 0 0,-1 17-1 0 0,-1-2 0 0 0,-1 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,-8-15-1 0 0,2 7 32 0 0,-1 0 0 0 0,0 1-1 0 0,-2 0 1 0 0,0 1 0 0 0,-1 0 0 0 0,-1 2 0 0 0,0-1 0 0 0,-2 2 0 0 0,-29-24-1 0 0,21 21 3 0 0,-47-28-1 0 0,62 42-54 0 0,-1-1-1 0 0,1 2 1 0 0,-1 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,-11 0-1 0 0,8 1-125 0 0,-1 1 1 0 0,1 0-1 0 0,0 1 1 0 0,-1 1-1 0 0,1 2 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1 2 0 0 0,1-1 1 0 0,-26 18-1 0 0,-38 33-2825 0 0,55-37-2170 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8305.64">4340 1433 14600 0 0,'-8'16'1457'0'0,"5"-12"-1344"0"0,14 8-313 0 0,-9-12 171 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,4-1 1 0 0,27-11-305 0 0,-16 6 232 0 0,-6 2 250 0 0,1 0 1 0 0,-1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-2 0 0 0,16-12 0 0 0,-20 15-108 0 0,0-1 0 0 0,-1 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-2 0 0 0,-1 1 0 0 0,4-11 0 0 0,-6 13-31 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-2 1 0 0,0 1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-2-1 0 0,0 1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-7 0 1 0 0,5 1 37 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-7 8 0 0 0,-27 29-712 0 0,2 3 0 0 0,-52 79 0 0 0,62-78 121 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">64 2049 18399 0 0,'-1'1'109'0'0,"0"0"0"0"0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-3-1 0 0 0,3 1 40 0 0,1 0-150 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,-1 0 1 0 0,-1 2-33 0 0,2 2 33 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,1 9 0 0 0,50 174-390 0 0,0 10 466 0 0,-2-12-76 0 0,-35-124 2 0 0,22 97 0 0 0,5 57 0 0 0,-36-187-444 0 0,0-1 0 0 0,13 35 0 0 0,-6-37-5329 0 0,-8-18 207 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="779.63">4 2216 13824 0 0,'0'-1'122'0'0,"-1"0"1"0"0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-2 0 0 0,3-5 3 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,6-9 0 0 0,5-9 249 0 0,26-41 723 0 0,86-105-1 0 0,-122 164-1096 0 0,2-1-14 0 0,0-1 0 0 0,1 2-1 0 0,0-1 1 0 0,0 1 0 0 0,17-11-1 0 0,-12 14 14 0 0,-11 5-2 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 3-1 0 0,3 3-11 0 0,-1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 13 0 0 0,0 6-21 0 0,0 34-1 0 0,-2-23 12 0 0,-1-4-39 0 0,-2 0 1 0 0,-1 1-1 0 0,-2-1 1 0 0,-11 54-1 0 0,-45 132 41 0 0,39-153 22 0 0,9-35 64 0 0,-1-1 0 0 0,-2-1-1 0 0,-27 45 1 0 0,35-64-29 0 0,2-6-18 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-3 7-1 0 0,5-12-16 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0 1 0 0 0,7 5 0 0 0,-6-7 0 0 0,14 8 0 0 0,-10-8 0 0 0,-2-1 0 0 0,24 6-86 0 0,0-1 0 0 0,0-1 0 0 0,43 1 0 0 0,-24-5-58 0 0,0-2-1 0 0,0-2 0 0 0,-1-2 1 0 0,0-2-1 0 0,60-18 0 0 0,-98 22 136 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,10-15 0 0 0,-13 16 11 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,0-7-1 0 0,-6-21 0 0 0,-13-58 0 0 0,15 74 0 0 0,2 5 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-11-18 0 0 0,0 6 0 0 0,11 14 14 0 0,-1 1-1 0 0,0 0 0 0 0,-9-9 1 0 0,3 6 0 0 0,8 7-2 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,-1-1 0 0 0,-10-6 0 0 0,15 10 5 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 1 0 0 0,-1 0-1 0 0,0 1-9 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 8 0 0 0,-1 6-293 0 0,-2 30-1 0 0,5-41 265 0 0,-1 16 2 0 0,1 0 0 0 0,0-1 0 0 0,2 1 0 0 0,1 0 0 0 0,0-1 0 0 0,2 1 0 0 0,0-1 0 0 0,2 0 0 0 0,15 33 0 0 0,-17-44 48 0 0,1 0-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0-2-1 0 0,20 11 0 0 0,-16-11 99 0 0,0-1 0 0 0,0-1 1 0 0,0 0-1 0 0,28 4 0 0 0,-40-8-106 0 0,14 2-149 0 0,27 0-1 0 0,-26-2-206 0 0,21 3-1 0 0,-31-3 179 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,11-1 1 0 0,1-1-459 0 0,-5 3 138 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3247.3">1113 1968 9672 0 0,'-6'2'243'0'0,"0"0"0"0"0,0 0 0 0 0,1 0 1 0 0,-7 4-1 0 0,10-5-132 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 4 0 0 0,-6 22 514 0 0,2-7-719 0 0,-6 26 0 0 0,9-18-8 0 0,2 0 1 0 0,1 0-1 0 0,2 31 0 0 0,1-2 43 0 0,3 61-14 0 0,-4-105 72 0 0,2 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,1-1-1 0 0,9 19 1 0 0,-13-30 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,6-2 0 0 0,-4 0-5 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,6-7 0 0 0,2-3-66 0 0,-1 0-1 0 0,0-1 1 0 0,-2-1-1 0 0,1 0 1 0 0,10-27-1 0 0,21-84-182 0 0,-30 90 325 0 0,-7 25-51 0 0,0 0 0 0 0,-1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-4-14 0 0 0,4 18 118 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,1-10 1 0 0,0 16-29 0 0,12 4 83 0 0,0 1-179 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 1 0 0,0 1-1 0 0,20 14 0 0 0,48 43 120 0 0,-54-42-105 0 0,55 45 45 0 0,76 65-10 0 0,-145-120-63 0 0,-1 1 0 0 0,1 0 0 0 0,15 25 0 0 0,19 42 0 0 0,-42-73 0 0 0,7 13 9 0 0,0 0 0 0 0,-2 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,3 20 1 0 0,-6-22 79 0 0,-1-6-11 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,-2 19 0 0 0,-5 3 34 0 0,-1 1 1 0 0,-2-1 0 0 0,-27 62-1 0 0,19-53 185 0 0,11-27-161 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-2 0 0 0 0,-19 25 1 0 0,15-24-19 0 0,-1 0 1 0 0,0-1 0 0 0,-1-1-1 0 0,-1-1 1 0 0,-35 24 0 0 0,51-37-138 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1-2-1 0 0,-2-4-143 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-2-17-1 0 0,-1-7-276 0 0,-2-9-315 0 0,-3-63 1 0 0,0-117-1437 0 0,6 98 786 0 0,1 57 694 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3619.72">1478 1636 9760 0 0,'-7'-14'882'0'0,"7"13"-875"0"0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-5-3 3810 0 0,5 5-3809 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 2 0 0 0,18 36 326 0 0,13 31-191 0 0,67 145 399 0 0,-34-94-910 0 0,-59-109 368 0 0,0-1 0 0 0,1 0 0 0 0,12 14 0 0 0,10 15 0 0 0,-22-28-68 0 0,1 0 1 0 0,1-1 0 0 0,0 0 0 0 0,0-1-1 0 0,15 12 1 0 0,9 3-4456 0 0,-18-16 26 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3962.81">1916 1512 5984 0 0,'-7'12'165'0'0,"0"0"1276"0"0,1 0 1 0 0,0 0-1 0 0,-6 20 0 0 0,10-27-1036 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-5 8 0 0 0,4-9-363 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 7 0 0 0,1-3-28 0 0,-3 14 11 0 0,2 0 0 0 0,0 0 0 0 0,1 0 0 0 0,5 43 0 0 0,2-25-13 0 0,-4-23-11 0 0,1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,8 20 0 0 0,16 30-16 0 0,-26-63 8 0 0,0 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,6 5 1 0 0,10 11 110 0 0,-16-16-89 0 0,-2-2 3 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,1 0 0 0 0,-3 0-17 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,14-21-97 0 0,-10 14 25 0 0,-5 7 65 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1-4-1 0 0,1-9 82 0 0,1-3-117 0 0,0 0 1 0 0,-1 0-1 0 0,-1 0 0 0 0,-2-23 1 0 0,0 6-2 0 0,0 24 41 0 0,0 0 0 0 0,-4-16 0 0 0,0-4 17 0 0,5 28-6 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-3-4-1 0 0,-4-10 88 0 0,5 11 92 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-9-11 0 0 0,4 7 21 0 0,6 1-42 0 0,2 8-155 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,-1-2 0 0 0,-2 0 55 0 0,4 2-52 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0 301 0 0,1 2-246 0 0,16 14-61 0 0,-12-11-11 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-2 1-1 0 0,1 0 1 0 0,5 8 0 0 0,-4-3-10 0 0,1-1-1 0 0,0-1 1 0 0,1 1 0 0 0,10 10 0 0 0,16 20 13 0 0,-19-16-5 0 0,-4-7-16 0 0,1-1 0 0 0,15 18 0 0 0,-12-13-134 0 0,-13-17 94 0 0,1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,2 2 0 0 0,15 8-2491 0 0,-12-8-2515 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4636.95">2293 1210 12096 0 0,'-2'1'16'0'0,"0"-1"59"0"0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,-1 3 0 0 0,-6 5-78 0 0,6-7 49 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,-3 7 1 0 0,-13 26 600 0 0,10-20-619 0 0,1 0 0 0 0,0 0 0 0 0,-6 21 0 0 0,14-35-30 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,3 6 1 0 0,1 11 100 0 0,-3-16-79 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,2 1 0 0 0,6 7 76 0 0,-6-8-78 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,8 0-1 0 0,7 4 21 0 0,-10-3-36 0 0,-1 0 1 0 0,0 1 0 0 0,0 0 0 0 0,0 1-1 0 0,10 7 1 0 0,16 6 50 0 0,-27-14-52 0 0,1 0 1 0 0,-1 0 0 0 0,12 10-1 0 0,1 1 44 0 0,-16-13-45 0 0,0 1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,4 9 0 0 0,-5-10 20 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,-3 3 0 0 0,-2 1-22 0 0,1 1 0 0 0,-8 10 0 0 0,9-10 0 0 0,1 0 0 0 0,-16 12 0 0 0,-3-1-5 0 0,19-13-1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-15 3 0 0 0,20-7-64 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,-2-1 0 0 0,-13-5-439 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5636.73">2727 370 14600 0 0,'0'0'664'0'0,"1"1"-8"0"0,48 35-392 0 0,12 11-264 0 0,-25-18 0 0 0,-21-15-2 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-2 1 0 0 0,0 0 1 0 0,-1 1-1 0 0,13 24 0 0 0,1 3-63 0 0,-7-16 9 0 0,18 45 0 0 0,-1 7 56 0 0,-11-27 6 0 0,20 65 1 0 0,-38-98 47 0 0,-1-7 65 0 0,-1 0 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 25 0 0 0,-4-38 169 0 0,-1-2-267 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,-2 1 0 0 0,-5-3 8 0 0,-49-35 97 0 0,36 21-259 0 0,17 12 99 0 0,0 1-1 0 0,0 0 1 0 0,-8-5-1 0 0,-10-2 38 0 0,-13-7 180 0 0,33 16-178 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-7 2 0 0 0,10-3-10 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 3-20 0 0,-1-2 20 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 3 0 0 0,0-1 15 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 7 1 0 0,2 17 18 0 0,4-10-42 0 0,1 0-1 0 0,14 28 0 0 0,-16-37 7 0 0,1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,15 6-1 0 0,-16-8 7 0 0,-1-1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,12-1 0 0 0,-10 0 1 0 0,1-1 1 0 0,-1 1 0 0 0,-1-1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,13-11-1 0 0,-13 9-34 0 0,20-16-135 0 0,49-52 0 0 0,-70 67 142 0 0,-1-1 0 0 0,-1 1 0 0 0,1-2 1 0 0,-1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,4-21-1 0 0,-7 26 23 0 0,1-5 24 0 0,0-1 1 0 0,0 1-1 0 0,-2-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,-4-24 1 0 0,3 26 6 0 0,-1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-2 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,-9-14 1 0 0,9 16 0 0 0,0-1 9 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,-13-8-1 0 0,19 12 42 0 0,1 1-69 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,2 2 1 0 0,-1 22 87 0 0,0-24-91 0 0,3 23-30 0 0,1 0 1 0 0,9 34-1 0 0,-9-47 21 0 0,-1 0 1 0 0,2-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,2-1 1 0 0,7 9-1 0 0,-5-7 16 0 0,0-1-1 0 0,1-1 0 0 0,0 1 0 0 0,1-2 0 0 0,0 1 1 0 0,0-1-1 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-2 0 0 0,17-1 0 0 0,-22 0 2 0 0,1 0 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,11-14 0 0 0,-8 8-60 0 0,0 0 0 0 0,-1-1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,-2 0 0 0 0,8-26 1 0 0,-2-5-87 0 0,-2-2-1 0 0,-2 1 1 0 0,-2-1 0 0 0,-2-87 0 0 0,-6 85-3 0 0,-2 0 0 0 0,-17-74 1 0 0,12 83 138 0 0,-2 0 0 0 0,-1 1 0 0 0,-24-46 0 0 0,31 73 0 0 0,-1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,-17-16 0 0 0,22 23 21 0 0,-1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,-6 0 1 0 0,11 0 9 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-4 5 0 0 0,3-3 6 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-2 8 1 0 0,-1 3-12 0 0,2-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0 17 0 0 0,2-13-11 0 0,0 1 0 0 0,2-1 0 0 0,0 0 0 0 0,1 0 0 0 0,7 22 0 0 0,0-5 112 0 0,27 58 0 0 0,-11-44 138 0 0,47 70 0 0 0,-25-44-127 0 0,-23-37-154 0 0,3-1 0 0 0,0-1 0 0 0,3-2 1 0 0,1-1-1 0 0,69 57 0 0 0,-64-60-273 0 0,-3-2-22 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6421.96">2550 2662 16208 0 0,'-1'0'43'0'0,"1"0"0"0"0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1 1-7 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,2 1-1 0 0,30 28-254 0 0,-31-30 290 0 0,9 10-76 0 0,1 1 0 0 0,10 14 0 0 0,1 0-128 0 0,-3 0-87 0 0,-2 0-1 0 0,0 2 0 0 0,26 56 0 0 0,-32-61 147 0 0,34 88-55 0 0,-45-110 128 0 0,6 12 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,2 15 0 0 0,-5-21 0 0 0,1-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,1 1 1 0 0,6 11-1 0 0,-4-9 20 0 0,-1 0 0 0 0,5 13 0 0 0,-8-15-11 0 0,-2-5-8 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2 1 0 0 0,7 1 0 0 0,-10-2-4 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-2 0 0 0,1-1-7 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,0 0 0 0 0,1-5-1 0 0,-1 4 2 0 0,0 0-1 0 0,0 1 1 0 0,0-2-1 0 0,-1 1 1 0 0,1-4 0 0 0,-3-2-11 0 0,1 0 1 0 0,-1 1 0 0 0,-6-18 0 0 0,-3-15-12 0 0,8 28 33 0 0,-27-129-2 0 0,18 91 2 0 0,8 32-1 0 0,-9-25 0 0 0,9 32 0 0 0,-1-1 0 0 0,2 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0-23-1 0 0,-2-14 2 0 0,2 29-2 0 0,3 20 2 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,3-1 1 0 0,3-3 63 0 0,-5 5-59 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 2 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,2 1 0 0 0,4 4 20 0 0,-1 0 0 0 0,0 0 0 0 0,9 11 1 0 0,3 4 0 0 0,-2-6 14 0 0,12 17 0 0 0,11 11-3 0 0,9 7-68 0 0,-32-32 12 0 0,0-1 0 0 0,33 25 0 0 0,-27-25 28 0 0,38 24-39 0 0,-54-37 25 0 0,0 0 0 0 0,1-1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,12 1 0 0 0,-14-3-1 0 0,0 1 1 0 0,-1-2 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,6-8 0 0 0,-5 6-11 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-2 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-8 1 0 0,-1-9-15 0 0,-1-1 0 0 0,-2 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,-2 0 0 0 0,0 0 0 0 0,-2 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,-19-35 0 0 0,19 45 7 0 0,0-1 1 0 0,-17-19-1 0 0,21 28 26 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-12-5 1 0 0,16 9 7 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-2 2 0 0 0,1 0 30 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,2 1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 8 0 0 0,0 6 8 0 0,1-1-1 0 0,0 1 1 0 0,2-1-1 0 0,0 1 0 0 0,1-1 1 0 0,1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,2 0-1 0 0,7 17 1 0 0,-7-19-38 0 0,2-1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,19 13-1 0 0,-15-14-83 0 0,0 0 0 0 0,1-1 0 0 0,0-1 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,0-1 0 0 0,19 3 0 0 0,-30-7-43 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,9-5 0 0 0,-9 4-253 0 0,0-2 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-2 0 0 0,0 1 0 0 0,0-1 0 0 0,9-11 0 0 0,0-2-4074 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7127.24">3617 2132 5064 0 0,'-8'17'395'0'0,"4"-10"-375"0"0,1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,-1 7-1 0 0,-1 10 2397 0 0,2-1 1 0 0,0 2 0 0 0,1 31-1 0 0,3-17-1825 0 0,2 0 0 0 0,10 45 0 0 0,-8-62-528 0 0,-3-11-15 0 0,0 0 1 0 0,1 0 0 0 0,7 18 0 0 0,2-2 159 0 0,-6-14-73 0 0,-1 0 0 0 0,12 17 0 0 0,-14-26-119 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,7 2 1 0 0,-5-3 22 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,0-1-1 0 0,8 1 0 0 0,-8-1-22 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,7 2-1 0 0,3 3-55 0 0,-1 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 1 1 0 0,-1 0-1 0 0,17 20 1 0 0,-12-14-181 0 0,-1 2 0 0 0,-1 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,-2 2 1 0 0,0-1-1 0 0,11 32 1 0 0,-16-33 154 0 0,-1 1 1 0 0,-1 0 0 0 0,-2 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-2-1 0 0 0,-1 1-1 0 0,-1-1 1 0 0,-1 1 0 0 0,-6 32 0 0 0,6-46 37 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,-6 12 1 0 0,8-16 5 0 0,0 0 1 0 0,0 1 0 0 0,-1-2-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-5 1 0 0 0,6-3-24 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1-2 1 0 0,-1-1-46 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-2-7 1 0 0,-4-19 178 0 0,2-1-1 0 0,2 0 1 0 0,-2-45 0 0 0,1 19-6 0 0,-1-67 66 0 0,2 34-248 0 0,-2-206-72 0 0,7 259 168 0 0,8-121 2 0 0,-8 158 5 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,2-3 1 0 0,5 12 142 0 0,1 4 27 0 0,-2 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,-1 1 1 0 0,-1-1 0 0 0,7 24-1 0 0,9 21 210 0 0,-11-36-346 0 0,0 0 0 0 0,1-1 0 0 0,1 0 0 0 0,1-1 0 0 0,1-1 0 0 0,19 21 1 0 0,-29-36-36 0 0,0 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,11 2 1 0 0,-12-2-5 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-2-1 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,3-4 0 0 0,1-5 18 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1-21 1 0 0,-4 30-15 0 0,2-15-8 0 0,-2 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,-3-29 0 0 0,-2 14-102 0 0,-15-54 0 0 0,13 68 106 0 0,-1 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,-1 0 0 0 0,-27-26 0 0 0,34 36-46 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,-12-3 0 0 0,18 6 29 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-6 5 0 0 0,1 0-31 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 1 0 0,0 0-1 0 0,-10 16 0 0 0,8-6-80 0 0,0-1 1 0 0,2 1-1 0 0,0 0 0 0 0,1 1 0 0 0,-5 32 1 0 0,9-41-183 0 0,1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,1 0 1 0 0,3 14-1 0 0,1-4-624 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7912.65">4253 1770 15408 0 0,'0'0'745'0'0,"-1"1"-327"0"0,0 0-391 0 0,-1 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 4 0 0 0,4 13 10 0 0,0-1-1 0 0,1 1 1 0 0,1-1 0 0 0,1-1 0 0 0,1 0-1 0 0,11 19 1 0 0,-2-6-85 0 0,0-1 1 0 0,2-1-1 0 0,1 0 0 0 0,46 45 0 0 0,-64-70 42 0 0,8 7 12 0 0,1-1-1 0 0,-1 1 1 0 0,2-2-1 0 0,15 10 1 0 0,-25-17-17 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-2 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,6-4 0 0 0,-6 3-18 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 0 0 0 0,2-4 0 0 0,0-2-32 0 0,-1-1 1 0 0,0 0 0 0 0,1-11-1 0 0,1 1-4 0 0,-4 9 34 0 0,0 0-1 0 0,0-1 1 0 0,-2 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,-5-21 0 0 0,0-5 33 0 0,1 6-25 0 0,-14-47 1 0 0,9 43-27 0 0,6 21 29 0 0,-10-20 0 0 0,-1-5 130 0 0,14 38-109 0 0,1 1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1 73 0 0,1 3-61 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 4 1 0 0,-1-5-3 0 0,14 29 53 0 0,23 33 1 0 0,-1-2-7 0 0,-29-49-56 0 0,0-1 0 0 0,0 1 0 0 0,1-2 0 0 0,0 1 0 0 0,1-1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,14 8 0 0 0,-21-15-1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,5-1 1 0 0,-7 0-9 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,0-3 0 0 0,5-8-86 0 0,-2 0-1 0 0,0-1 1 0 0,0 0-1 0 0,-2 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-2-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-2 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-7-25-1 0 0,-3-6 80 0 0,14 53 174 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,5 4 1 0 0,54 51-404 0 0,-39-36 301 0 0,-15-16-57 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0-1 0 0,1-1 1 0 0,18 8 0 0 0,78 19 4 0 0,-108-33-2 0 0,12 3 86 0 0,0-1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0-1-1 0 0,17-4 1 0 0,-20 3-8 0 0,0 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,11-14 0 0 0,-12 13-72 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1-18-1 0 0,-1 15-1 0 0,-1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,-8-14-1 0 0,2 6 32 0 0,-1 0 0 0 0,0 1-1 0 0,-2 0 1 0 0,0 1 0 0 0,-1 0 0 0 0,-1 2 0 0 0,0-1 0 0 0,-2 2 0 0 0,-29-23-1 0 0,21 20 3 0 0,-47-27-1 0 0,62 40-54 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,-11 0-1 0 0,8 1-125 0 0,-1 1 1 0 0,1 0-1 0 0,0 1 1 0 0,-1 1-1 0 0,1 1 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-26 17-1 0 0,-38 31-2825 0 0,55-35-2170 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8305.64">4340 1358 14600 0 0,'-8'15'1457'0'0,"5"-11"-1344"0"0,14 7-313 0 0,-9-11 171 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,4-1 1 0 0,27-10-305 0 0,-16 5 232 0 0,-6 2 250 0 0,1 0 1 0 0,-1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1-1 0 0 0,16-12 0 0 0,-20 14-108 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,4-10 0 0 0,-6 12-31 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-7 0 1 0 0,5 1 37 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-7 7 0 0 0,-27 28-712 0 0,2 3 0 0 0,-52 74 0 0 0,62-73 121 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21207,8 +21268,8 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">513 188 19407 0 0,'-13'19'874'0'0,"10"-16"-772"0"0,1 1 1 0 0,-1-1-1 0 0,1 2 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 8-1 0 0,3 6-36 0 0,1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,0-2 0 0 0,2 0 0 0 0,0 1 0 0 0,0-1 0 0 0,2 1 0 0 0,0-2 0 0 0,13 23 0 0 0,2-3-37 0 0,1-3 1 0 0,1 1-1 0 0,37 37 0 0 0,158 139 29 0 0,-115-113-2 0 0,76 59-46 0 0,-59-62-10 0 0,198 200 0 0 0,-104-72 42 0 0,-29-28-1637 0 0,-159-163-213 0 0,-19-19 495 0 0,1-1 1 0 0,16 15 0 0 0,-24-25 1169 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,2 0 1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="371.95">1346 1 10592 0 0,'0'0'818'0'0,"-2"0"-532"0"0,-43 10 4462 0 0,32-5-226 0 0,-3 7-3579 0 0,14-9-650 0 0,-12 8-226 0 0,1 2-1 0 0,1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,1 1-1 0 0,-13 23 1 0 0,-44 105 496 0 0,16-30-363 0 0,-87 151 23 0 0,-156 321 545 0 0,-8 9-511 0 0,27-42-1046 0 0,229-443 282 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">513 178 19407 0 0,'-13'18'874'0'0,"10"-15"-772"0"0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 7-1 0 0,3 6-36 0 0,1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,0-1 0 0 0,2-1 0 0 0,0 1 0 0 0,0-1 0 0 0,2 1 0 0 0,0-2 0 0 0,13 22 0 0 0,2-3-37 0 0,1-2 1 0 0,1 0-1 0 0,37 35 0 0 0,158 132 29 0 0,-115-107-2 0 0,77 56-46 0 0,-60-59-10 0 0,198 189 0 0 0,-104-67 42 0 0,-29-28-1637 0 0,-159-153-213 0 0,-19-19 495 0 0,1 0 1 0 0,16 13 0 0 0,-24-23 1169 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,2 0 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="371.95">1347 1 10592 0 0,'0'0'818'0'0,"-2"0"-532"0"0,-43 9 4462 0 0,32-4-226 0 0,-3 7-3579 0 0,14-10-650 0 0,-12 9-226 0 0,1 1-1 0 0,1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,1 1-1 0 0,-13 22 1 0 0,-44 100 496 0 0,16-29-363 0 0,-88 143 23 0 0,-155 304 545 0 0,-8 8-511 0 0,27-39-1046 0 0,229-420 282 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21240,8 +21301,8 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4 425 15664 0 0,'0'0'48'0'0,"-1"0"1"0"0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,0-2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,3 5 13 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-2-1 0 0,0 1 1 0 0,8 8-1 0 0,7 6-38 0 0,79 118 18 0 0,-22-29-18 0 0,129 123 123 0 0,-82-102-137 0 0,-61-58-80 0 0,56 60-71 0 0,-11-37 267 0 0,120 78 1 0 0,-95-74-349 0 0,157 98 141 0 0,-211-145 134 0 0,-19-13-1408 0 0,107 53-1 0 0,-139-81-4237 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="371.16">1451 0 18455 0 0,'-6'3'127'0'0,"1"1"-1"0"0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 2-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,1 2-1 0 0,0-1 1 0 0,-1 0-1 0 0,2 1 1 0 0,-4 7-1 0 0,-50 171-124 0 0,-33 88-57 0 0,-71 86 158 0 0,47-112 365 0 0,-80 193 494 0 0,42-130-951 0 0,85-178 108 0 0,-13 22 173 0 0,-45 96 82 0 0,17 9-435 0 0,106-255 54 0 0,-2 3-339 0 0,1 0 0 0 0,-1 1-1 0 0,2-1 1 0 0,-1 1 0 0 0,0 10 0 0 0,4-7-761 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4 405 15664 0 0,'0'0'48'0'0,"-1"0"1"0"0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,3 5 13 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,8 7-1 0 0,7 6-38 0 0,79 113 18 0 0,-22-28-18 0 0,129 116 123 0 0,-82-96-137 0 0,-61-55-80 0 0,56 57-71 0 0,-11-36 267 0 0,120 75 1 0 0,-95-71-349 0 0,157 94 141 0 0,-211-139 134 0 0,-19-12-1408 0 0,107 51-1 0 0,-139-77-4237 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="371.16">1451 0 18455 0 0,'-6'3'127'0'0,"1"1"-1"0"0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,2 0 1 0 0,-4 8-1 0 0,-50 162-124 0 0,-33 84-57 0 0,-71 81 158 0 0,47-105 365 0 0,-80 182 494 0 0,42-122-951 0 0,85-171 108 0 0,-13 22 173 0 0,-45 91 82 0 0,17 8-435 0 0,106-242 54 0 0,-2 3-339 0 0,1 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,-1 0 0 0 0,0 11 0 0 0,4-8-761 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21273,12 +21334,12 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1644 800 10592 0 0,'0'0'6575'0'0,"1"1"-6213"0"0,4 3-43 0 0,0 1 0 0 0,-1-1 0 0 0,6 8 0 0 0,9 11 523 0 0,-2-7-573 0 0,1-2 0 0 0,0 1 0 0 0,1-2 0 0 0,33 18-1 0 0,-38-24-222 0 0,29 15 163 0 0,46 16 0 0 0,284 101 254 0 0,-326-122-394 0 0,90 29-38 0 0,-101-36-6 0 0,68 9 1 0 0,-70-14-90 0 0,-19-3-39 0 0,24 2 0 0 0,2-3 5 0 0,39-1 396 0 0,15-5-282 0 0,-72 3 0 0 0,-1 2 0 0 0,1 0 0 0 0,21 5 0 0 0,-38-4-20 0 0,-1 0-2 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,6-2 1 0 0,-2 2 16 0 0,-6 1 191 0 0,-1-1-122 0 0,0 1-81 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,-10-15-110 0 0,9 14 89 0 0,0-2 13 0 0,-2 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-2 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-6-2 0 0 0,-21-10 9 0 0,-8-3 0 0 0,33 15 0 0 0,5 3 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,2-1 0 0 0,-2 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-2 0 0 0 0,-3 0 11 0 0,5 0 106 0 0,21 9-53 0 0,-1 0-40 0 0,1-3-1 0 0,24 7 1 0 0,-27-10-26 0 0,2 2 0 0 0,-2 0 1 0 0,28 15-1 0 0,-20-7 6 0 0,-18-11 0 0 0,-2 0 0 0 0,2 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 2-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,5 9 0 0 0,-7-11 26 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,-1 6 0 0 0,-1-3 85 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-2 0 0 0 0,1 1 1 0 0,-1-2-1 0 0,1 0 0 0 0,-11 8 0 0 0,-5 3-17 0 0,-24 12-72 0 0,39-24-181 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-12 1 0 0 0,5-7-1635 0 0,7 3 219 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="958.55">82 647 12896 0 0,'0'0'997'0'0,"-1"1"-656"0"0,-1 7-181 0 0,2-2 168 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,4 8 1 0 0,23 45 700 0 0,-19-43-1145 0 0,38 75-59 0 0,90 185 400 0 0,-86-147-225 0 0,-48-121-42 0 0,-1 0 0 0 0,3 13-1 0 0,3 8-54 0 0,-9-29 256 0 0,-11-2 16 0 0,4-3-108 0 0,0-2 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,-6-8 1 0 0,-28-38 72 0 0,33 41-148 0 0,-36-52-125 0 0,3-3 0 0 0,-62-134-1 0 0,93 179 134 0 0,-8-32 0 0 0,6 18 0 0 0,-41-163 0 0 0,52 195 54 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-2-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,1-2 0 0 0,-1 1-1 0 0,0 1 1 0 0,0-1 0 0 0,2-2 0 0 0,-2 4-4 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-2 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,4 0 106 0 0,5-1-84 0 0,-2 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,10 6 0 0 0,11 1 29 0 0,81 36-35 0 0,-47-18-132 0 0,-43-19 93 0 0,-1 1-1 0 0,0 2 0 0 0,34 26 0 0 0,49 55 181 0 0,-97-87-156 0 0,0 2 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 2 0 0 0,-1-2 0 0 0,0 3 0 0 0,1-2 0 0 0,3 12 0 0 0,-6-14-37 0 0,-1 2 1 0 0,0-2-1 0 0,1 2 1 0 0,-1-1-1 0 0,-1-1 1 0 0,1 2-1 0 0,-1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-2 13-1 0 0,-4-2-2 0 0,0-1 1 0 0,0 0-1 0 0,-2 0 1 0 0,1-1-1 0 0,-14 17 1 0 0,15-22 55 0 0,-5 5-36 0 0,0 1 1 0 0,-1-1 0 0 0,0-2 0 0 0,-21 19 0 0 0,-65 45-632 0 0,81-64-553 0 0,-24 26 0 0 0,40-39 565 0 0,-1 3 1135 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1589.16">518 497 10592 0 0,'0'0'7126'0'0,"7"6"-6107"0"0,-2-2-810 0 0,1-1 0 0 0,0 2 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,0 0-1 0 0,5 8 0 0 0,3 10-97 0 0,13 29 0 0 0,-11-22-69 0 0,13 39-43 0 0,2 5 0 0 0,-26-70-10 0 0,-1 1 0 0 0,1 1-1 0 0,1 13 1 0 0,9 22-58 0 0,-12-40-37 0 0,-12-21-1569 0 0,-16-44 1195 0 0,2 8 413 0 0,-23-78 1 0 0,47 129 71 0 0,-19-75 116 0 0,18 70-74 0 0,0 0 1 0 0,1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 2-1 0 0,2-17 0 0 0,-1 22-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-2-1 0 0 0,2 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,5-2 0 0 0,-4 1-25 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,4 1 0 0 0,30 13 40 0 0,-1 1-1 0 0,37 24 0 0 0,-43-22-57 0 0,1 1-1 0 0,51 47 1 0 0,-73-58 7 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,0 0 1 0 0,-1 1 0 0 0,7 12-1 0 0,-11-19 6 0 0,0 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,0 1-1 0 0,0-2 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 2 1 0 0,0-2 0 0 0,0 1-1 0 0,0-1 1 0 0,0 2-1 0 0,0-2 1 0 0,-1 0 0 0 0,-3 7-1 0 0,-4 5 206 0 0,0-2-1 0 0,-1 0 0 0 0,-21 24 0 0 0,-41 35-35 0 0,5-5-203 0 0,45-44 20 0 0,-21 23-605 0 0,42-46 343 0 0,-10 6-531 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1972.12">1004 263 18055 0 0,'0'0'407'0'0,"-4"9"990"0"0,3-8-1391 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,3 3 8 0 0,15 22-14 0 0,-10-16 0 0 0,-2 1 0 0 0,1 0 0 0 0,0 1 0 0 0,9 21 0 0 0,-13-22 18 0 0,13 31 105 0 0,16 53 0 0 0,-5-17-123 0 0,-27-73-1 0 0,0-1 0 0 0,0-1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 2 1 0 0,-1-2-1 0 0,3 5 1 0 0,-3-6-69 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2472.07">725 374 15952 0 0,'0'0'1209'0'0,"8"0"-683"0"0,2 0-531 0 0,-1-2 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,16-6 1 0 0,45-25-99 0 0,-40 17 203 0 0,4-2 354 0 0,33-23 0 0 0,-50 28-102 0 0,0 0 1 0 0,-2 1-1 0 0,26-29 0 0 0,25-28-188 0 0,-38 42-1408 0 0,25-33 0 0 0,-42 45-5142 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2473.07">1036 505 14912 0 0,'0'0'686'0'0,"8"-3"225"0"0,-6 2-907 0 0,0-2 0 0 0,1 0-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,4-7 0 0 0,2-1-23 0 0,-2 2-43 0 0,0 1 0 0 0,8-16 0 0 0,8-10 568 0 0,-19 29-255 0 0,9-12 413 0 0,1 1 0 0 0,0 1 0 0 0,28-23-1 0 0,14-8-729 0 0,-9 4-156 0 0,-38 36 191 0 0,51-45-675 0 0,-38 32 363 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1733 756 10592 0 0,'0'0'6575'0'0,"1"1"-6213"0"0,4 3-43 0 0,0 0 0 0 0,-1 0 0 0 0,7 8 0 0 0,9 9 523 0 0,-2-6-573 0 0,1-1 0 0 0,0 0 0 0 0,1-2 0 0 0,35 17-1 0 0,-40-22-222 0 0,30 14 163 0 0,49 15 0 0 0,299 95 254 0 0,-344-115-394 0 0,96 28-38 0 0,-107-35-6 0 0,71 9 1 0 0,-73-13-90 0 0,-20-3-39 0 0,25 1 0 0 0,2-2 5 0 0,42-1 396 0 0,15-4-282 0 0,-76 2 0 0 0,-1 2 0 0 0,1 0 0 0 0,23 4 0 0 0,-41-3-20 0 0,-1 0-2 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,6-1 1 0 0,-1 1 16 0 0,-7 1 191 0 0,-1-1-122 0 0,0 1-81 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,-10-14-110 0 0,9 13 89 0 0,-1-2 13 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-7-3 0 0 0,-22-9 9 0 0,-8-3 0 0 0,35 14 0 0 0,5 3 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-2 0 0 0 0,-4 0 11 0 0,6 0 106 0 0,22 9-53 0 0,-1-1-40 0 0,1-2-1 0 0,26 6 1 0 0,-29-9-26 0 0,1 2 0 0 0,-1 0 1 0 0,30 14-1 0 0,-22-7 6 0 0,-19-10 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,6 8 0 0 0,-8-10 26 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,-2 5 0 0 0,0-2 85 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,-10 7 0 0 0,-7 3-17 0 0,-24 12-72 0 0,41-23-181 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-11 1 0 0 0,4-7-1635 0 0,8 3 219 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="958.55">86 611 12896 0 0,'0'0'997'0'0,"-1"1"-656"0"0,-1 7-181 0 0,2-2 168 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4 9 1 0 0,25 41 700 0 0,-21-40-1145 0 0,41 71-59 0 0,94 175 400 0 0,-90-139-225 0 0,-51-115-42 0 0,-1 1 0 0 0,4 12-1 0 0,2 7-54 0 0,-9-27 256 0 0,-11-2 16 0 0,3-3-108 0 0,1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,-7-7 1 0 0,-29-36 72 0 0,34 39-148 0 0,-37-50-125 0 0,3-2 0 0 0,-66-127-1 0 0,99 169 134 0 0,-9-30 0 0 0,6 17 0 0 0,-43-154 0 0 0,55 184 54 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,1-2 0 0 0,-2 4-4 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,3 0 106 0 0,5-1-84 0 0,-1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,10 5 0 0 0,11 2 29 0 0,86 33-35 0 0,-49-16-132 0 0,-46-19 93 0 0,-1 2-1 0 0,0 1 0 0 0,36 25 0 0 0,51 52 181 0 0,-101-82-156 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,3 11 0 0 0,-6-13-37 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-3 13-1 0 0,-3-2-2 0 0,0-1 1 0 0,-1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,-14 17 1 0 0,16-22 55 0 0,-6 5-36 0 0,1 1 1 0 0,-2-1 0 0 0,0-1 0 0 0,-22 17 0 0 0,-68 42-632 0 0,85-59-553 0 0,-25 23 0 0 0,42-36 565 0 0,-2 3 1135 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1589.16">546 470 10592 0 0,'0'0'7126'0'0,"7"5"-6107"0"0,-1-1-810 0 0,0-1 0 0 0,0 2 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,5 7 0 0 0,4 10-97 0 0,13 27 0 0 0,-11-21-69 0 0,13 37-43 0 0,3 5 0 0 0,-28-66-10 0 0,-1 1 0 0 0,1 0-1 0 0,2 13 1 0 0,8 21-58 0 0,-12-38-37 0 0,-12-20-1569 0 0,-18-42 1195 0 0,3 8 413 0 0,-25-73 1 0 0,50 121 71 0 0,-20-71 116 0 0,19 67-74 0 0,0-1 1 0 0,1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,2-15 0 0 0,-1 20-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,6-2 0 0 0,-5 2-25 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,4 1 0 0 0,32 12 40 0 0,-1 1-1 0 0,39 23 0 0 0,-45-21-57 0 0,0 1-1 0 0,55 44 1 0 0,-78-54 7 0 0,0 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 2-1 0 0,-1-1 1 0 0,-1 1 0 0 0,8 12-1 0 0,-12-18 6 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,-3 6-1 0 0,-4 5 206 0 0,-1-1-1 0 0,0-1 0 0 0,-23 23 0 0 0,-43 33-35 0 0,5-5-203 0 0,48-41 20 0 0,-22 21-605 0 0,44-43 343 0 0,-11 6-531 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1972.12">1058 249 18055 0 0,'0'0'407'0'0,"-4"8"990"0"0,3-7-1391 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,2 3 8 0 0,16 21-14 0 0,-11-16 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,10 20 0 0 0,-13-20 18 0 0,13 28 105 0 0,16 51 0 0 0,-4-16-123 0 0,-29-69-1 0 0,0-2 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,4 5 1 0 0,-4-6-69 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2472.07">764 353 15952 0 0,'0'0'1209'0'0,"9"0"-683"0"0,1 0-531 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0-1 0 0,17-6 1 0 0,48-23-99 0 0,-42 16 203 0 0,4-2 354 0 0,34-22 0 0 0,-52 27-102 0 0,0 0 1 0 0,-2 0-1 0 0,27-26 0 0 0,27-28-188 0 0,-41 41-1408 0 0,27-32 0 0 0,-44 43-5142 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2473.07">1092 477 14912 0 0,'0'0'686'0'0,"8"-3"225"0"0,-6 2-907 0 0,1-1 0 0 0,0-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,4-6 0 0 0,3-2-23 0 0,-3 3-43 0 0,0 0 0 0 0,9-15 0 0 0,8-9 568 0 0,-19 27-255 0 0,8-11 413 0 0,2 1 0 0 0,0 1 0 0 0,29-22-1 0 0,15-8-729 0 0,-10 5-156 0 0,-39 33 191 0 0,53-42-675 0 0,-40 30 363 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21310,7 +21371,7 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">38 1122 13360 0 0,'13'2'753'0'0,"-24"-4"7973"0"0,7-2-7279 0 0,-15-5-202 0 0,19 9-1247 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 2 0 0 0,0-2 0 0 0,-1 0 0 0 0,1 1-1 0 0,0 0 1 0 0,-4 10-77 0 0,4-4 56 0 0,0-2 1 0 0,1 1-1 0 0,0 1 0 0 0,-1-2 0 0 0,2 2 0 0 0,1 6 0 0 0,3 16-41 0 0,6 70-57 0 0,3 26 2 0 0,-4-15 119 0 0,-2-13 0 0 0,-4-60 0 0 0,17 134 0 0 0,-17-108 165 0 0,2 0 0 0 0,23 90 0 0 0,-29-149-105 0 0,1 0 1 0 0,-1 1-1 0 0,1-2 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,5 3-1 0 0,-6-5-24 0 0,0 1 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,3-1 0 0 0,5-5 72 0 0,0 1 0 0 0,-1-2 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1-2-1 0 0,-1 2 0 0 0,12-17 0 0 0,5-11-51 0 0,23-45-1 0 0,-13 21-120 0 0,179-247 359 0 0,-36 55-290 0 0,218-286 59 0 0,-50 128 72 0 0,-282 335-192 0 0,92-79 0 0 0,-93 103-1412 0 0,124-76 0 0 0,-177 122 20 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">38 1054 13360 0 0,'13'2'753'0'0,"-24"-4"7973"0"0,7-2-7279 0 0,-15-4-202 0 0,19 8-1247 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0 0 1 0 0,-4 10-77 0 0,4-5 56 0 0,0-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1-1 0 0 0,2 1 0 0 0,1 7 0 0 0,3 14-41 0 0,6 66-57 0 0,3 24 2 0 0,-4-13 119 0 0,-2-13 0 0 0,-4-57 0 0 0,17 127 0 0 0,-17-102 165 0 0,2 0 0 0 0,23 85 0 0 0,-29-140-105 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,5 3-1 0 0,-6-5-24 0 0,0 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,3-1 0 0 0,5-4 72 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1-1-1 0 0,-1 1 0 0 0,12-15 0 0 0,5-11-51 0 0,23-42-1 0 0,-13 19-120 0 0,179-231 359 0 0,-36 51-290 0 0,219-268 59 0 0,-51 120 72 0 0,-282 315-192 0 0,92-75 0 0 0,-93 97-1412 0 0,124-71 0 0 0,-177 114 20 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21342,12 +21403,12 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1074 78 2760 0 0,'9'-5'3398'0'0,"-25"-6"8223"0"0,16 10-11580 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 1-1 0 0,-1-1 0 0 0,-1 0 1 0 0,0-1 5 0 0,1 1 289 0 0,-22-8 690 0 0,12 7-927 0 0,-11-4-61 0 0,0 2 1 0 0,-43-3 0 0 0,-16 3 247 0 0,-47 0-221 0 0,27 0 0 0 0,-107-1 64 0 0,186 5-128 0 0,-21 2 0 0 0,-10 1 0 0 0,28-3 1 0 0,-5 0 4 0 0,-38 4 0 0 0,50-2 51 0 0,0-1 0 0 0,-24-1 0 0 0,-13-3 1195 0 0,54 3-1163 0 0,-7-4-71 0 0,7 4-6 0 0,0 0 162 0 0,1 1-94 0 0,-3 2-13 0 0,2-3 68 0 0,0 4-126 0 0,1-2 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 2 1 0 0,0 3-1 0 0,0-6-4 0 0,-1 22-29 0 0,0-17 20 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,2 7 0 0 0,-1-1 5 0 0,0-1 0 0 0,0 2 0 0 0,-3 19 0 0 0,1-2 0 0 0,8 128 171 0 0,-4-117-83 0 0,1 0 0 0 0,14 62 1 0 0,-16-93-45 0 0,4 16-11 0 0,11 27 0 0 0,2 11 141 0 0,3 8-95 0 0,4 21 141 0 0,-14-29 289 0 0,-1-10-509 0 0,-6-26 0 0 0,-3-17 0 0 0,0-1 0 0 0,0 18 0 0 0,-2-20 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2 8 0 0 0,0 1 0 0 0,1-7 0 0 0,1 0 0 0 0,-3-7 23 0 0,0 1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 2 1 0 0,1-2-1 0 0,-1 1 0 0 0,1-1 1 0 0,0-1-1 0 0,6 1 0 0 0,1 0-22 0 0,0-1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,18-6 0 0 0,158-56-96 0 0,-166 56 96 0 0,-1-3 0 0 0,33-20 0 0 0,-38 21 0 0 0,-4 2 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,10-11 0 0 0,-18 18 0 0 0,8-8 0 0 0,-6 7 3 0 0,-3 3-4 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-2 0 0 0,9 11-218 0 0,-4-3 208 0 0,-2 3 11 0 0,0 2 0 0 0,1 6 0 0 0,-4-14 0 0 0,4 8 0 0 0,-4-9-2 0 0,1 11 19 0 0,-2-11 159 0 0,0-2-190 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-2-1 0 0,1 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,-1-2-1 0 0,-2-4-25 0 0,-17-59 39 0 0,-6-6-728 0 0,19 39 462 0 0,0 4 276 0 0,8 28-9 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 2 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 11 0 0,-1 0 157 0 0,5-2-80 0 0,-4 3-97 0 0,1-2-1 0 0,-1 2 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,2 0-1 0 0,9 0 16 0 0,-9 0-10 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,5 5-1 0 0,18 5-18 0 0,-18-8 23 0 0,0 1 0 0 0,15 7 0 0 0,-16-7 0 0 0,0 1 0 0 0,1-2 0 0 0,9 3 0 0 0,-15-6 1 0 0,0 1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,3 3-1 0 0,25 13-20 0 0,-17-6-44 0 0,-12-10 142 0 0,-1 0 3 0 0,-1 0-76 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 1-1 0 0,0-2 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,-3 5 259 0 0,3-5-235 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-2-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0-1 0 0,-2 2-10 0 0,-11 7-6 0 0,1 1 1 0 0,-2-3 0 0 0,-19 10-1 0 0,-13 6-14 0 0,4 6-1143 0 0,45-29 1048 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1762.44">165 1175 2304 0 0,'0'0'101'0'0,"0"-1"1"0"0,0-5 1230 0 0,16-17 15243 0 0,-14 28-16419 0 0,0 1 1 0 0,0 0-1 0 0,-1 1 0 0 0,0-2 1 0 0,0 1-1 0 0,0 1 0 0 0,-1 12 1 0 0,0-15-81 0 0,0-3-46 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 1 0 0 0,1 2 0 0 0,-1 2-45 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-2 13 1 0 0,1-9 15 0 0,1 20 71 0 0,0-17 16 0 0,-1-1 1 0 0,-1 16 0 0 0,-1 8-13 0 0,2 52-1 0 0,1-30 189 0 0,-1-26-185 0 0,-1-14-8 0 0,1-1 0 0 0,1 1 0 0 0,4 29 0 0 0,14 21 64 0 0,-12-47-125 0 0,-3-12 29 0 0,-2-5-37 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,6 9-1 0 0,-4-7 31 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-2 1 0 0,1 0-1 0 0,0 0 1 0 0,9 2-1 0 0,10 3-174 0 0,-23-6 156 0 0,1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,5 0 0 0 0,26-1 232 0 0,-1 1-196 0 0,44-5-1 0 0,-48 0-184 0 0,-1-3 0 0 0,0 0 0 0 0,-1-1 1 0 0,54-24-1 0 0,-76 29 84 0 0,-2 1-1 0 0,1 0 0 0 0,0-1 0 0 0,8-7 0 0 0,-10 7 71 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,5-1 1 0 0,-6 2-2 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,5-4-1 0 0,0-1-18 0 0,-6 6 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,2-1 0 0 0,-3 10 0 0 0,-1-6 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,2 1 0 0 0,5 20 0 0 0,-5-10 0 0 0,0 2 0 0 0,-1-1 0 0 0,-1 20 0 0 0,0-19 0 0 0,0-3 4 0 0,0-11-4 0 0,-4 11-22 0 0,5-9-5 0 0,-1-1 15 0 0,0-2 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-3-29 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,-2-4 0 0 0,1 1-12 0 0,-40-132-509 0 0,16 45 362 0 0,26 92 196 0 0,0-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 2-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 0-22 0 0,5-4-103 0 0,-6 4 129 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,33 1 0 0 0,-28-2 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 2 0 0 0,0-1 0 0 0,0 0 0 0 0,7 3 0 0 0,45 9 0 0 0,60 20 424 0 0,-81-16-288 0 0,-34-16-72 0 0,-7 7 327 0 0,-5 2-123 0 0,9-9-249 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-2-1 0 0 0,-1 1 84 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-7 4 0 0 0,-23 12 200 0 0,15-7-460 0 0,9-6-14 0 0,1-1 0 0 0,0 0 1 0 0,-14 5-1 0 0,20-8 103 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-6 8-1 0 0,9-10-138 0 0,-6 0-4129 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3585.4">255 1851 4144 0 0,'0'0'12109'0'0,"0"10"-10925"0"0,6 62 669 0 0,0 8-874 0 0,-4-25-650 0 0,15 84 0 0 0,5 26-254 0 0,19 20 50 0 0,-33-153-125 0 0,1-2 0 0 0,1 2 0 0 0,20 38 0 0 0,-26-63 0 0 0,0 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,1 2 0 0 0,1-2 0 0 0,-1 0 0 0 0,10 9 0 0 0,16 12 118 0 0,-25-23-128 0 0,-1 1-9 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,8 5 0 0 0,-12-6-26 0 0,-2-1 42 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,3-2-1 0 0,11 3 273 0 0,1-1-1 0 0,-1 0 0 0 0,29-3 1 0 0,-36 1-277 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,9-6 0 0 0,-2 0 7 0 0,-7 5 0 0 0,0 0 0 0 0,0-1 0 0 0,10-9 0 0 0,-3-1-148 0 0,-9 12 99 0 0,-1-2-1 0 0,1 2 1 0 0,-1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,4-7-1 0 0,-5 7 50 0 0,-1 3 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,3-3 0 0 0,-2 2 16 0 0,-2 2 376 0 0,0 2-404 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 1 0 0 0,5 5 124 0 0,-6-8-103 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 2 0 0 0,0 0 13 0 0,1 4-8 0 0,1 5-21 0 0,0 0 0 0 0,0 19 0 0 0,-4-20 94 0 0,2-8-102 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 2-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 3-1 0 0,-1 7-52 0 0,-1 7 157 0 0,1-18 19 0 0,0-1-107 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,-2-7 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,2-1 0 0 0,-3-9 0 0 0,3 9 38 0 0,-1 0 0 0 0,0-1-1 0 0,-6-12 1 0 0,4 10-25 0 0,0-1 0 0 0,0 2 0 0 0,-2-16 0 0 0,-5-17-11 0 0,-12-19-94 0 0,19 47 20 0 0,4 5 70 0 0,0 10 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,7 1-2 0 0,-1-1-1 0 0,0 1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,8 4-1 0 0,26 7-43 0 0,-29-11 46 0 0,-1 1 0 0 0,19 10 0 0 0,10 3 0 0 0,-32-14 0 0 0,-4-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,5 4 0 0 0,29 11-72 0 0,-27-10 72 0 0,-6-5 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,4-1 0 0 0,18 4 0 0 0,-17 0 0 0 0,2-1 14 0 0,-8-2 52 0 0,-8-1-33 0 0,1 1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-8 5 0 0 0,-12 2-11 0 0,9-5 30 0 0,13-1-51 0 0,0 0-1 0 0,-2 0 0 0 0,-18 8 0 0 0,11-5-1 0 0,7-3 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 1 1 0 0,-7 7-1 0 0,5-4-95 0 0,4-6-139 0 0,2-1 42 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-3 2-1 0 0,-5 7-5918 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5475.86">444 2763 2304 0 0,'0'0'7357'0'0,"1"1"-6848"0"0,6 5 2131 0 0,-6-4-2242 0 0,4 5 2 0 0,-4-5 13 0 0,4 17 2501 0 0,-2-14-2613 0 0,-1 0-1 0 0,0-1 0 0 0,0 2 0 0 0,-1-1 1 0 0,0 0-1 0 0,2 8 0 0 0,4 16 689 0 0,-3 3-712 0 0,-3-16-147 0 0,2 6 54 0 0,-1-15-92 0 0,1 1 1 0 0,-1 1 0 0 0,1 9-1 0 0,6 22 74 0 0,5 9-25 0 0,5 11 123 0 0,4 16 393 0 0,12 47-518 0 0,-26-89-72 0 0,7 18-17 0 0,-1-3-50 0 0,9 21 128 0 0,-19-54-110 0 0,6 32 0 0 0,3 9 16 0 0,-3-12-24 0 0,2-7-10 0 0,12 65 0 0 0,-14-76 0 0 0,-2-14 0 0 0,-8-11 0 0 0,4 12 0 0 0,-4-11 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2 0 0 0,3 3 0 0 0,-5-5 0 0 0,4 4 24 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,5 0 1 0 0,0 1-10 0 0,1-4 1 0 0,-1 2 0 0 0,1-1 0 0 0,12-3-1 0 0,-10 2-18 0 0,23-1 0 0 0,-30 2 10 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,5-2 0 0 0,-4 1 4 0 0,-1 1-1 0 0,15-2 0 0 0,57-14 55 0 0,-67 16-62 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,12-7 1 0 0,0 1 53 0 0,8-10-119 0 0,-27 17 64 0 0,8-7 0 0 0,-1-1 0 0 0,-9 8 0 0 0,12-7 0 0 0,-6 3 0 0 0,-6 3 30 0 0,-2 3-19 0 0,-3 14 82 0 0,2-13-92 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,1-2 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 2 0 0 0,0-1-9 0 0,0 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 3-1 0 0,2 3-5 0 0,-2-6 14 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,1 7 0 0 0,-2-2 0 0 0,3 1-12 0 0,-3-5-50 0 0,1-3-22 0 0,-6-16-286 0 0,0-11 346 0 0,4 14 1 0 0,0 2 1 0 0,0-2 0 0 0,-1 1 0 0 0,-7-12-1 0 0,2 0-6 0 0,8 18 23 0 0,0 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-2-1 0 0,-3-2 1 0 0,3 4 6 0 0,-1-1 0 0 0,1 1-1 0 0,0-2 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1-8-1 0 0,-2-1-8 0 0,4 6-56 0 0,0 4 3 0 0,4-5 50 0 0,-1 0 23 0 0,-3 6 32 0 0,-1-2-33 0 0,10 5-10 0 0,11 5 0 0 0,-15-2 0 0 0,0-1 0 0 0,1-1 0 0 0,-1 0 0 0 0,11 1 0 0 0,-14-2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,3 2 0 0 0,-3-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,3 1 0 0 0,-3-1 0 0 0,8 1 0 0 0,10 6 0 0 0,32 10 0 0 0,-28-8 0 0 0,7 3 0 0 0,-5-8 344 0 0,-26-4-340 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-7 8 51 0 0,-57 49 1057 0 0,60-54-1112 0 0,-11 5 0 0 0,5-4 0 0 0,4-2-188 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-9 10 0 0 0,14-13 92 0 0,-4-1-1633 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7896.22">753 3953 5064 0 0,'0'0'10496'0'0,"14"26"-7961"0"0,-13-24-2127 0 0,5 8 501 0 0,-2-5-700 0 0,4 17 591 0 0,-1 0 1 0 0,6 36 0 0 0,-13-55-769 0 0,5 17-47 0 0,22 126 318 0 0,-6-21-303 0 0,-16-92 0 0 0,2 5 0 0 0,3 75 0 0 0,-5-76 1 0 0,-4-30-3 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,0 9 1 0 0,2 31-200 0 0,-1-40 179 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,4 9 0 0 0,-4-12 26 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,4 4 0 0 0,-1-2-3 0 0,1 0-13 0 0,-4-3 17 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,3-3 1 0 0,20-9 5 0 0,-6 2-10 0 0,-15 7 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,7-3 0 0 0,-9 4 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,5-3 0 0 0,1 0 0 0 0,70-24 16 0 0,-1-1-206 0 0,-62 24 236 0 0,0-1 1 0 0,0 0 0 0 0,19-12-1 0 0,4-3-58 0 0,-29 15 13 0 0,-9 6-9 0 0,1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,11-7-147 0 0,-6 5 166 0 0,-8-3 86 0 0,0 2 175 0 0,15 5-156 0 0,-7 3-116 0 0,-1 4 12 0 0,-4-5 47 0 0,-1 5-4 0 0,-5-1-57 0 0,3-6-62 0 0,2 0-12 0 0,4 1 40 0 0,-4-1-61 0 0,1-6-72 0 0,-2 4 170 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-2 0 0 0,-2 2 0 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-8-17 4 0 0,-1-2-100 0 0,7 17 31 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,-1-6 1 0 0,-3-6 6 0 0,-3-30-43 0 0,5 24 45 0 0,4 20 56 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-3-5 0 0 0,2-3 53 0 0,6 17 38 0 0,-1-1-107 0 0,3 0 87 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1 1 0 0 0,0-2 0 0 0,-1 1 0 0 0,0 2 0 0 0,7 10 0 0 0,10 9-71 0 0,-17-21 0 0 0,-2-4 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,1-2 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 6 0 0 0,-1-8 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,5 8 0 0 0,2 24 0 0 0,-8-24 0 0 0,-3-3 0 0 0,0-6 0 0 0,2-3 0 0 0,0 2 0 0 0,0 1 0 0 0,-4-8 0 0 0,-9-13 0 0 0,13 19 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-4 0 0 0,-5-7 0 0 0,6 10 0 0 0,-1 2 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1-4 0 0 0,0 3 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-2-4 0 0 0,-7-8 60 0 0,8 13-154 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-3-6 1 0 0,3 3 139 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-12 0 0 0,1 19 168 0 0,0-1-212 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,3 0 0 0 0,2 1 0 0 0,4 0-2 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,8 4 0 0 0,21 4 0 0 0,-37-10 0 0 0,6 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,1 0 0 0 0,-2 1 0 0 0,16 7 0 0 0,-13-6 0 0 0,-8-5 0 0 0,-1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,4 3 0 0 0,1 1 0 0 0,-12 5 11 0 0,4-8 3 0 0,1-1-8 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-2 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,-1 1 0 0 0,-12 9 12 0 0,-1 5 50 0 0,7-8 7 0 0,-1 1-1 0 0,0-1 1 0 0,-1-1 0 0 0,-10 8-1 0 0,-62 38-532 0 0,81-52 396 0 0,-6 5 585 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9607.84">836 4707 11376 0 0,'0'0'1732'0'0,"2"1"-1188"0"0,28 15 2715 0 0,-22-7-2204 0 0,-3 0-570 0 0,-2-6-337 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 5 0 0 0,8 20 401 0 0,20 55 501 0 0,-17-44-812 0 0,1 2-242 0 0,-6-26 13 0 0,-3-8 20 0 0,0 2 1 0 0,6 18 0 0 0,-10-23-23 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,5 6-1 0 0,-6-8-6 0 0,1 1 0 0 0,-1 1 0 0 0,-1-2 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2 8 0 0 0,-2-7 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,3 8 0 0 0,0-2 1 0 0,-1 2 0 0 0,0-2 1 0 0,0 2-1 0 0,-2 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 15 0 0 0,9 22 52 0 0,-9-46-53 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-2 0 0 0,2 4 0 0 0,0 1 7 0 0,1 1 1 0 0,0-2-1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,8 6 0 0 0,-1 2-6 0 0,-10-13-5 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,3 1 1 0 0,39 3-74 0 0,-43-5 73 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,2-2-1 0 0,4 0 4 0 0,-6 2 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,2-3 0 0 0,6-3 0 0 0,-4 3-45 0 0,0 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,8-8 1 0 0,14-11-369 0 0,-27 22 407 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,5-10-75 0 0,5-5-99 0 0,0 2 0 0 0,16-37 1 0 0,-9 16 58 0 0,-12 22 60 0 0,-6 12 63 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,2-1-1 0 0,4-8 2 0 0,-7 10-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,3 0 0 0 0,1 1 22 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,6 4 0 0 0,-3-1-9 0 0,-7-5-5 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 2-1 0 0,3 1 22 0 0,-2-3-19 0 0,2 2-14 0 0,0 11 83 0 0,-4-14-81 0 0,2 3 18 0 0,-2 1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 6 0 0 0,-1-10-16 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 2 1 0 0,0-2-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 1-3 0 0,7 19 134 0 0,-3-14-104 0 0,-3-6-25 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 3 0 0 0,1 2-4 0 0,-6 0-12 0 0,3-6 8 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 2 1 0 0,0-2-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-2 1 0 0,1 2-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-6-12-177 0 0,8 0 37 0 0,-1 12 140 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,-25-57-89 0 0,16 32 75 0 0,10 23 14 0 0,-1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 1 1 0 0,-1-1-1 0 0,-2-4 0 0 0,-11-15-16 0 0,13 17 13 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2 1 0 0,-7-4-1 0 0,6 6 1 0 0,1 1 0 0 0,0-2 0 0 0,-1 0 0 0 0,1 1 0 0 0,-3-5 0 0 0,6 7 9 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-2-1 0 0,-1 2 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 156 0 0,17 10 0 0 0,-7-5-130 0 0,1 0 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,11 0 0 0 0,24 7-25 0 0,12 12 66 0 0,-46-19-26 0 0,-1 1 0 0 0,12 6 0 0 0,9 3 97 0 0,1 1-38 0 0,-11-6-40 0 0,-17-7-60 0 0,10 8 0 0 0,-8-1 0 0 0,-9-4 0 0 0,4-4 1 0 0,-2 2-2 0 0,-2 9 12 0 0,-9 6 53 0 0,12-16 1 0 0,-4 2 211 0 0,-27 22 28 0 0,-26 17-564 0 0,34-25 464 0 0,23-16-204 0 0,0 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 2 0 0 0,-3 9 0 0 0,-5 10-152 0 0,9-20-34 0 0,8 12-2370 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1073 74 2760 0 0,'9'-4'3398'0'0,"-25"-7"8223"0"0,16 10-11580 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,-1 0 1 0 0,0-1 5 0 0,1 1 289 0 0,-22-8 690 0 0,12 7-927 0 0,-11-3-61 0 0,0 1 1 0 0,-43-3 0 0 0,-15 3 247 0 0,-48 1-221 0 0,27-1 0 0 0,-107-1 64 0 0,186 5-128 0 0,-21 2 0 0 0,-10 1 0 0 0,28-3 1 0 0,-5 0 4 0 0,-38 4 0 0 0,50-3 51 0 0,0 0 0 0 0,-24-1 0 0 0,-13-2 1195 0 0,54 2-1163 0 0,-7-4-71 0 0,7 4-6 0 0,0 0 162 0 0,1 1-94 0 0,-3 2-13 0 0,2-3 68 0 0,0 3-126 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 4-1 0 0,0-6-4 0 0,-1 21-29 0 0,0-16 20 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,2 6 0 0 0,-1-1 5 0 0,0 0 0 0 0,0 1 0 0 0,-3 19 0 0 0,1-3 0 0 0,8 123 171 0 0,-4-112-83 0 0,1 0 0 0 0,14 59 1 0 0,-16-89-45 0 0,4 16-11 0 0,11 26 0 0 0,2 10 141 0 0,3 7-95 0 0,4 21 141 0 0,-14-28 289 0 0,-1-10-509 0 0,-6-24 0 0 0,-3-17 0 0 0,0 0 0 0 0,0 16 0 0 0,-2-18 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,2 7 0 0 0,0 1 0 0 0,1-6 0 0 0,1-1 0 0 0,-3-6 23 0 0,0 1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0-1-1 0 0,6 1 0 0 0,1 0-22 0 0,0-1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,18-5 0 0 0,158-54-96 0 0,-166 53 96 0 0,-1-2 0 0 0,33-20 0 0 0,-38 21 0 0 0,-4 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,10-10 0 0 0,-18 17 0 0 0,8-7 0 0 0,-6 6 3 0 0,-3 3-4 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,9 9-218 0 0,-4-2 208 0 0,-2 3 11 0 0,0 1 0 0 0,1 6 0 0 0,-4-13 0 0 0,4 8 0 0 0,-4-9-2 0 0,1 10 19 0 0,-2-10 159 0 0,0-2-190 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,-1-2-1 0 0,-2-4-25 0 0,-17-55 39 0 0,-6-7-728 0 0,19 38 462 0 0,0 3 276 0 0,8 27-9 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 11 0 0,-1 0 157 0 0,5-2-80 0 0,-4 3-97 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,2 0-1 0 0,9 0 16 0 0,-9 0-10 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,5 4-1 0 0,18 6-18 0 0,-18-8 23 0 0,0 0 0 0 0,15 8 0 0 0,-16-7 0 0 0,0 0 0 0 0,0-1 0 0 0,10 3 0 0 0,-15-6 1 0 0,0 1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,3 3-1 0 0,25 12-20 0 0,-17-6-44 0 0,-12-9 142 0 0,-1 0 3 0 0,-1 0-76 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,-3 5 259 0 0,3-5-235 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0-1 0 0,-2 2-10 0 0,-11 7-6 0 0,1 0 1 0 0,-2-2 0 0 0,-18 9-1 0 0,-14 6-14 0 0,4 5-1143 0 0,45-27 1048 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1762.44">165 1119 2304 0 0,'0'0'101'0'0,"0"-1"1"0"0,0-5 1230 0 0,16-16 15243 0 0,-14 27-16419 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 12 1 0 0,0-14-81 0 0,0-3-46 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0 0 0 0,1 3 0 0 0,-1 2-45 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-2 12 1 0 0,1-9 15 0 0,1 20 71 0 0,0-17 16 0 0,-1 0 1 0 0,-1 14 0 0 0,-1 8-13 0 0,2 50-1 0 0,1-29 189 0 0,-1-24-185 0 0,-1-14-8 0 0,1-1 0 0 0,1 1 0 0 0,4 28 0 0 0,14 19 64 0 0,-12-44-125 0 0,-3-11 29 0 0,-2-5-37 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,6 8-1 0 0,-4-6 31 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,9 2-1 0 0,10 2-174 0 0,-23-5 156 0 0,1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,5 0 0 0 0,26-1 232 0 0,-1 1-196 0 0,44-5-1 0 0,-48 0-184 0 0,-1-2 0 0 0,0-1 0 0 0,-1-1 1 0 0,54-22-1 0 0,-76 27 84 0 0,-2 1-1 0 0,1 0 0 0 0,0-1 0 0 0,8-6 0 0 0,-10 6 71 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,5-1 1 0 0,-6 3-2 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,5-4-1 0 0,0 0-18 0 0,-6 5 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,2-1 0 0 0,-3 10 0 0 0,-1-6 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,2 2 0 0 0,5 19 0 0 0,-5-9 0 0 0,0 1 0 0 0,-1-1 0 0 0,-1 20 0 0 0,0-19 0 0 0,0-3 4 0 0,0-10-4 0 0,-4 11-22 0 0,5-9-5 0 0,-1-2 15 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-3-29 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2-4 0 0 0,1 1-12 0 0,-39-125-509 0 0,15 42 362 0 0,26 88 196 0 0,0-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 0-22 0 0,5-3-103 0 0,-6 3 129 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,32 1 0 0 0,-27-2 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,7 3 0 0 0,45 9 0 0 0,60 18 424 0 0,-81-15-288 0 0,-34-15-72 0 0,-7 7 327 0 0,-5 1-123 0 0,9-8-249 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-2 0 0 0 0,-1 1 84 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-7 4 0 0 0,-23 11 200 0 0,15-7-460 0 0,9-5-14 0 0,1-1 0 0 0,0 0 1 0 0,-14 4-1 0 0,20-7 103 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-6 7-1 0 0,9-9-138 0 0,-6 0-4129 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3585.4">255 1763 4144 0 0,'0'0'12109'0'0,"0"9"-10925"0"0,6 60 669 0 0,0 7-874 0 0,-4-24-650 0 0,15 81 0 0 0,5 24-254 0 0,19 19 50 0 0,-33-146-125 0 0,1-1 0 0 0,1 1 0 0 0,20 37 0 0 0,-26-60 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,10 8 0 0 0,16 12 118 0 0,-25-22-128 0 0,-1 0-9 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,8 4 0 0 0,-12-5-26 0 0,-2-1 42 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,3-2-1 0 0,11 3 273 0 0,1-1-1 0 0,-1 0 0 0 0,29-3 1 0 0,-36 1-277 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,9-6 0 0 0,-2 1 7 0 0,-7 4 0 0 0,0 0 0 0 0,0 0 0 0 0,10-10 0 0 0,-3 0-148 0 0,-9 11 99 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,4-8-1 0 0,-5 8 50 0 0,-1 2 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,3-3 0 0 0,-2 2 16 0 0,-2 2 376 0 0,0 2-404 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 1 0 0 0,5 5 124 0 0,-6-8-103 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 2 0 0 0,0 0 13 0 0,1 4-8 0 0,1 4-21 0 0,0 1 0 0 0,0 17 0 0 0,-4-18 94 0 0,2-8-102 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 3-1 0 0,-1 6-52 0 0,-1 7 157 0 0,1-17 19 0 0,0-1-107 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,-2-7 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,2 0 0 0 0,-3-9 0 0 0,3 8 38 0 0,-1 0 0 0 0,0 0-1 0 0,-6-12 1 0 0,4 9-25 0 0,0 0 0 0 0,0 1 0 0 0,-2-14 0 0 0,-5-17-11 0 0,-12-18-94 0 0,19 44 20 0 0,4 6 70 0 0,0 9 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,7 1-2 0 0,-1-1-1 0 0,0 1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,8 4-1 0 0,26 6-43 0 0,-30-10 46 0 0,0 1 0 0 0,19 9 0 0 0,10 3 0 0 0,-32-13 0 0 0,-4-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,5 3 0 0 0,29 12-72 0 0,-27-11 72 0 0,-6-4 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,4-1 0 0 0,18 4 0 0 0,-17-1 0 0 0,2 0 14 0 0,-8-2 52 0 0,-8-1-33 0 0,1 1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-8 4 0 0 0,-12 3-11 0 0,9-5 30 0 0,13-1-51 0 0,0 0-1 0 0,-2-1 0 0 0,-18 9 0 0 0,11-5-1 0 0,7-4 0 0 0,0 1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-7 8-1 0 0,5-5-95 0 0,4-5-139 0 0,2-1 42 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-3 2-1 0 0,-5 6-5918 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5475.86">444 2631 2304 0 0,'0'0'7357'0'0,"1"1"-6848"0"0,6 5 2131 0 0,-6-4-2242 0 0,4 4 2 0 0,-4-4 13 0 0,4 16 2501 0 0,-2-13-2613 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,2 7 0 0 0,4 16 689 0 0,-3 2-712 0 0,-3-14-147 0 0,2 4 54 0 0,-1-13-92 0 0,1 1 1 0 0,-1 0 0 0 0,1 9-1 0 0,6 22 74 0 0,5 7-25 0 0,5 11 123 0 0,4 16 393 0 0,12 44-518 0 0,-26-85-72 0 0,7 18-17 0 0,-1-4-50 0 0,9 21 128 0 0,-19-52-110 0 0,6 31 0 0 0,3 8 16 0 0,-3-11-24 0 0,2-7-10 0 0,12 62 0 0 0,-14-72 0 0 0,-2-14 0 0 0,-8-10 0 0 0,4 12 0 0 0,-4-11 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3 3 0 0 0,-5-5 0 0 0,4 4 24 0 0,0-1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,5 0 1 0 0,0 0-10 0 0,1-2 1 0 0,-1 1 0 0 0,1-1 0 0 0,11-3-1 0 0,-9 2-18 0 0,23-1 0 0 0,-30 2 10 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,5-2 0 0 0,-4 2 4 0 0,-1 0-1 0 0,15-2 0 0 0,57-13 55 0 0,-67 15-62 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,12-6 1 0 0,0 0 53 0 0,8-9-119 0 0,-27 16 64 0 0,8-6 0 0 0,-1-2 0 0 0,-9 8 0 0 0,12-6 0 0 0,-6 2 0 0 0,-6 3 30 0 0,-2 3-19 0 0,-3 13 82 0 0,2-12-92 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 2 0 0 0,0-1-9 0 0,0 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 3-1 0 0,2 3-5 0 0,-2-7 14 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,1 6 0 0 0,-2-1 0 0 0,3 0-12 0 0,-3-4-50 0 0,1-3-22 0 0,-6-15-286 0 0,0-11 346 0 0,4 14 1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,-7-11-1 0 0,2 0-6 0 0,8 18 23 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,-3-3 1 0 0,3 4 6 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-9-1 0 0,-2 0-8 0 0,4 5-56 0 0,0 5 3 0 0,4-6 50 0 0,-1 0 23 0 0,-3 7 32 0 0,-1-3-33 0 0,10 5-10 0 0,11 5 0 0 0,-15-3 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,11 1 0 0 0,-14-2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,3 2 0 0 0,-3-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,3 1 0 0 0,-3-1 0 0 0,8 1 0 0 0,10 5 0 0 0,32 10 0 0 0,-28-7 0 0 0,7 2 0 0 0,-5-7 344 0 0,-26-4-340 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-7 7 51 0 0,-57 48 1057 0 0,60-53-1112 0 0,-11 6 0 0 0,5-4 0 0 0,4-2-188 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-9 9 0 0 0,14-12 92 0 0,-4-1-1633 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7896.22">753 3764 5064 0 0,'0'0'10496'0'0,"14"25"-7961"0"0,-13-23-2127 0 0,5 7 501 0 0,-2-4-700 0 0,4 16 591 0 0,-1 0 1 0 0,6 34 0 0 0,-13-52-769 0 0,5 16-47 0 0,22 120 318 0 0,-6-20-303 0 0,-16-87 0 0 0,2 4 0 0 0,3 71 0 0 0,-5-71 1 0 0,-4-30-3 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 8 1 0 0,2 30-200 0 0,-1-38 179 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,3 8 0 0 0,-3-11 26 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,4 3 0 0 0,-1-1-3 0 0,1 0-13 0 0,-4-3 17 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,3-3 1 0 0,20-8 5 0 0,-6 1-10 0 0,-15 8 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,7-3 0 0 0,-9 4 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,5-2 0 0 0,1-1 0 0 0,70-23 16 0 0,-1 0-206 0 0,-62 22 236 0 0,0-1 1 0 0,0 0 0 0 0,19-11-1 0 0,4-3-58 0 0,-29 15 13 0 0,-9 5-9 0 0,1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,11-7-147 0 0,-6 5 166 0 0,-8-2 86 0 0,0 1 175 0 0,15 5-156 0 0,-7 3-116 0 0,-1 3 12 0 0,-4-4 47 0 0,-1 5-4 0 0,-5-2-57 0 0,3-5-62 0 0,2 0-12 0 0,4 1 40 0 0,-4-1-61 0 0,1-6-72 0 0,-2 4 170 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-2 1 0 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-8-16 4 0 0,-1-2-100 0 0,7 16 31 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1-7 1 0 0,-3-5 6 0 0,-3-29-43 0 0,5 23 45 0 0,4 19 56 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-3-4 0 0 0,2-4 53 0 0,6 17 38 0 0,-1-1-107 0 0,3-1 87 0 0,0 1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,7 11 0 0 0,10 7-71 0 0,-17-19 0 0 0,-2-4 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 5 0 0 0,-1-7 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,5 7 0 0 0,2 24 0 0 0,-8-24 0 0 0,-3-2 0 0 0,0-6 0 0 0,2-3 0 0 0,0 2 0 0 0,0 1 0 0 0,-4-7 0 0 0,-9-13 0 0 0,13 18 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-3 0 0 0,-5-8 0 0 0,6 11 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1-3 0 0 0,0 2 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-2-5 0 0 0,-7-7 60 0 0,8 12-154 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-3-5 1 0 0,3 2 139 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1-11 0 0 0,1 18 168 0 0,0-1-212 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,3 0 0 0 0,2 1 0 0 0,4 0-2 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,8 4 0 0 0,21 3 0 0 0,-37-9 0 0 0,6 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,1 0 0 0 0,-2 0 0 0 0,16 8 0 0 0,-13-6 0 0 0,-8-5 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,4 3 0 0 0,1 1 0 0 0,-12 4 11 0 0,4-7 3 0 0,1-1-8 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-2 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,-1 0 0 0 0,-12 10 12 0 0,-1 4 50 0 0,7-7 7 0 0,-1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,-10 7-1 0 0,-62 36-532 0 0,81-49 396 0 0,-6 5 585 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9607.84">836 4482 11376 0 0,'0'0'1732'0'0,"2"1"-1188"0"0,28 14 2715 0 0,-22-6-2204 0 0,-3-1-570 0 0,-2-5-337 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 5 0 0 0,8 18 401 0 0,20 53 501 0 0,-17-42-812 0 0,1 2-242 0 0,-6-25 13 0 0,-3-7 20 0 0,0 1 1 0 0,6 18 0 0 0,-10-22-23 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,5 5-1 0 0,-6-7-6 0 0,1 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2 7 0 0 0,-2-6 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,3 7 0 0 0,0-1 1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-2 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 15 0 0 0,9 20 52 0 0,-9-43-53 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2 4 0 0 0,0 1 7 0 0,1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,8 5 0 0 0,-1 2-6 0 0,-10-12-5 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,3 1 1 0 0,39 3-74 0 0,-43-5 73 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,2-2-1 0 0,4 0 4 0 0,-6 2 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,2-3 0 0 0,6-3 0 0 0,-4 3-45 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,8-7 1 0 0,14-11-369 0 0,-27 21 407 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,5-9-75 0 0,5-5-99 0 0,0 1 0 0 0,16-34 1 0 0,-9 15 58 0 0,-12 20 60 0 0,-6 12 63 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,2-1-1 0 0,4-7 2 0 0,-7 9-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,3 0 0 0 0,1 1 22 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,6 4 0 0 0,-3-2-9 0 0,-7-4-5 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 2-1 0 0,3 1 22 0 0,-2-3-19 0 0,2 2-14 0 0,0 10 83 0 0,-4-13-81 0 0,2 3 18 0 0,-2 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 5 0 0 0,-1-9-16 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 1-3 0 0,7 18 134 0 0,-3-13-104 0 0,-3-6-25 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 3 0 0 0,1 2-4 0 0,-6 0-12 0 0,3-6 8 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-6-12-177 0 0,8 1 37 0 0,-1 11 140 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,-25-54-89 0 0,16 30 75 0 0,10 22 14 0 0,-1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,-2-4 0 0 0,-11-14-16 0 0,13 17 13 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-7-5-1 0 0,6 6 1 0 0,1 1 0 0 0,0-2 0 0 0,-1 1 0 0 0,1 0 0 0 0,-3-5 0 0 0,6 7 9 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 156 0 0,17 9 0 0 0,-7-4-130 0 0,1 0 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1-1 1 0 0,11 1 0 0 0,24 7-25 0 0,12 11 66 0 0,-46-18-26 0 0,-1 0 0 0 0,12 7 0 0 0,9 2 97 0 0,1 2-38 0 0,-11-7-40 0 0,-17-6-60 0 0,10 8 0 0 0,-8-2 0 0 0,-9-3 0 0 0,4-4 1 0 0,-2 2-2 0 0,-2 9 12 0 0,-9 5 53 0 0,12-15 1 0 0,-4 2 211 0 0,-27 20 28 0 0,-26 17-564 0 0,34-23 464 0 0,23-16-204 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 2 0 0 0,-3 8 0 0 0,-5 10-152 0 0,9-19-34 0 0,8 11-2370 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21379,8 +21440,8 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">62 194 17623 0 0,'-2'4'261'0'0,"0"0"0"0"0,-1 0 0 0 0,1-1 0 0 0,1 1 0 0 0,-4 7-1 0 0,5-9-239 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 2-1 0 0,1-1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,1 3-1 0 0,1 3 167 0 0,0-2 1 0 0,0 1-1 0 0,2 10 0 0 0,-3-10 7 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,7 10 1 0 0,13 17 952 0 0,27 53 0 0 0,-10-18-392 0 0,0-1-364 0 0,52 77 572 0 0,-50-88-876 0 0,3-3-1 0 0,56 54 0 0 0,81 51-85 0 0,-131-116 0 0 0,-4-2-94 0 0,3-3-1 0 0,1-1 0 0 0,77 39 1 0 0,-101-61-290 0 0,-1 3 1 0 0,34 25 0 0 0,-46-28-354 0 0,-12-13 202 0 0,1-11-5962 0 0,-2 3 4587 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="449.91">936 0 15664 0 0,'-23'43'3938'0'0,"-41"58"1"0"0,36-60-3295 0 0,-31 61 1 0 0,-69 146-144 0 0,32-79 251 0 0,-12 25-260 0 0,93-163-426 0 0,-224 424 1373 0 0,155-308-1140 0 0,67-120-411 0 0,-19 43 0 0 0,6-19-264 0 0,25-46-66 0 0,4-5 415 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,2-14-1294 0 0,1-6-58 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">62 185 17623 0 0,'-2'4'261'0'0,"0"-1"0"0"0,-1 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-4 6-1 0 0,5-8-239 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,1 3-1 0 0,1 2 167 0 0,0-1 1 0 0,0 1-1 0 0,2 9 0 0 0,-3-9 7 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,7 9 1 0 0,13 16 952 0 0,27 51 0 0 0,-10-17-392 0 0,0-1-364 0 0,52 73 572 0 0,-50-84-876 0 0,3-2-1 0 0,56 51 0 0 0,81 48-85 0 0,-131-110 0 0 0,-4-2-94 0 0,3-2-1 0 0,1-2 0 0 0,77 37 1 0 0,-101-57-290 0 0,-1 2 1 0 0,34 24 0 0 0,-46-27-354 0 0,-12-12 202 0 0,1-10-5962 0 0,-2 2 4587 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="449.92">936 0 15664 0 0,'-23'41'3938'0'0,"-41"55"1"0"0,36-57-3295 0 0,-31 58 1 0 0,-69 140-144 0 0,32-76 251 0 0,-12 23-260 0 0,93-154-426 0 0,-224 403 1373 0 0,155-293-1140 0 0,67-114-411 0 0,-19 41 0 0 0,6-19-264 0 0,25-43-66 0 0,4-5 415 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,2-13-1294 0 0,1-6-58 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21412,8 +21473,8 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">356 248 23527 0 0,'-8'7'411'0'0,"0"-1"0"0"0,1 1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-11 17 0 0 0,16-21-392 0 0,0 1-1 0 0,1-1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,3 6-1 0 0,2 4 40 0 0,2-1 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1-1 0 0 0,21 21 0 0 0,2 2 18 0 0,50 58 10 0 0,4-5-1 0 0,125 99 0 0 0,-152-132-67 0 0,101 121 0 0 0,-9-8 21 0 0,-70-87-12 0 0,87 110-1 0 0,-87-68 38 0 0,-54-79-1247 0 0,42 54 1 0 0,-59-87-1314 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="395.4">1277 0 25367 0 0,'-11'11'310'0'0,"0"-1"-1"0"0,1 1 0 0 0,1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,1 1 1 0 0,0 0-1 0 0,-9 22 0 0 0,-25 73-408 0 0,-63 162-306 0 0,78-202 405 0 0,-58 103 0 0 0,-51 52 0 0 0,-21 32 220 0 0,-117 168 312 0 0,29-53-353 0 0,163-212-921 0 0,59-114-1967 0 0,15-31-6362 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">356 236 23527 0 0,'-8'6'411'0'0,"0"0"0"0"0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-11 16 0 0 0,16-20-392 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,3 6-1 0 0,2 3 40 0 0,2 0 0 0 0,-1-1 0 0 0,2 0 0 0 0,-1 0 0 0 0,21 19 0 0 0,2 3 18 0 0,50 54 10 0 0,4-4-1 0 0,125 93 0 0 0,-152-124-67 0 0,101 114 0 0 0,-9-7 21 0 0,-70-83-12 0 0,87 104-1 0 0,-87-64 38 0 0,-54-75-1247 0 0,42 51 1 0 0,-59-82-1314 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="395.4">1277 0 25367 0 0,'-11'10'310'0'0,"0"0"-1"0"0,1 0 0 0 0,1 1 1 0 0,0 0-1 0 0,0 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-9 22 0 0 0,-25 68-408 0 0,-63 155-306 0 0,78-193 405 0 0,-58 99 0 0 0,-51 49 0 0 0,-21 30 220 0 0,-117 160 312 0 0,29-50-353 0 0,163-202-921 0 0,59-108-1967 0 0,15-30-6362 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21478,8 +21539,8 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">180 254 23815 0 0,'-2'1'539'0'0,"1"-1"-489"0"0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 2 1 0 0,-1-2-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 2 0 0 0,-1-2 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,2 2-1 0 0,32 46-62 0 0,55 80-94 0 0,-66-99 71 0 0,2-1 0 0 0,31 29 1 0 0,222 220-536 0 0,-36-28 696 0 0,-160-170 62 0 0,103 129 0 0 0,75 87-1890 0 0,-251-284 1282 0 0,3 2-1140 0 0,-4-10-2490 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="527.01">927 0 20791 0 0,'0'0'952'0'0,"-9"11"352"0"0,6-4-1193 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-2 9-1 0 0,-6 23 358 0 0,-11 39 156 0 0,7-23-271 0 0,-9 30 112 0 0,6-20 90 0 0,-42 109 1 0 0,-10-24 115 0 0,-108 176 1 0 0,111-207-488 0 0,-62 160 0 0 0,124-272-178 0 0,-170 334 221 0 0,79-169-570 0 0,78-142 114 0 0,8-18-383 0 0,2-1-1 0 0,0 2 0 0 0,0-1 0 0 0,-4 16 0 0 0,9-19-2532 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">180 243 23815 0 0,'-2'1'539'0'0,"1"-1"-489"0"0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,2 2-1 0 0,32 44-62 0 0,55 76-94 0 0,-66-94 71 0 0,2-1 0 0 0,31 27 1 0 0,222 211-536 0 0,-36-26 696 0 0,-160-164 62 0 0,103 124 0 0 0,75 84-1890 0 0,-251-273 1282 0 0,3 3-1140 0 0,-4-11-2490 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="527.01">927 0 20791 0 0,'0'0'952'0'0,"-9"11"352"0"0,6-5-1193 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,0 0 0 0 0,1-1 1 0 0,-2 10-1 0 0,-6 21 358 0 0,-11 38 156 0 0,7-23-271 0 0,-9 30 112 0 0,6-20 90 0 0,-42 105 1 0 0,-10-24 115 0 0,-108 169 1 0 0,111-198-488 0 0,-62 153 0 0 0,124-260-178 0 0,-170 319 221 0 0,79-161-570 0 0,78-136 114 0 0,8-18-383 0 0,2 0-1 0 0,0 1 0 0 0,0 0 0 0 0,-4 14 0 0 0,9-17-2532 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21511,8 +21572,8 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1031 130 2304 0 0,'-2'1'167'0'0,"-14"8"-1597"0"0,11-7 2853 0 0,0 0 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,-7 7 0 0 0,11-9-923 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 2 0 0 0,0-2 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 1 0 0 0,6 9-342 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1-1 0 0 0,0 1 0 0 0,13 10 0 0 0,-1 0 34 0 0,172 155 805 0 0,-126-119-714 0 0,44 37 116 0 0,71 63-6 0 0,43 74 15 0 0,-100-101-176 0 0,-12-8-246 0 0,-5 6 0 0 0,93 144-1 0 0,-39-28 77 0 0,3-17-967 0 0,-146-203-172 0 0,-11-17-343 0 0,-8-7 1368 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-3-16-2024 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="372.45">2211 1 23551 0 0,'-2'1'1083'0'0,"-45"40"409"0"0,25-24-1486 0 0,1 2 0 0 0,1 0 0 0 0,-28 34 0 0 0,-34 63 499 0 0,-56 69 268 0 0,-260 335 981 0 0,211-280-1331 0 0,-112 155 83 0 0,-137 197-93 0 0,358-489-639 0 0,5 3 0 0 0,-74 142 0 0 0,138-232-255 0 0,0 0 0 0 0,-1-1 0 0 0,-1 0 1 0 0,-21 21-1 0 0,19-21-1626 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1031 125 2304 0 0,'-2'1'167'0'0,"-14"7"-1597"0"0,11-6 2853 0 0,0 0 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,-7 6 0 0 0,11-8-923 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 1 0 0 0,6 8-342 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,13 10 0 0 0,-1 0 34 0 0,172 149 805 0 0,-126-114-714 0 0,44 35 116 0 0,71 61-6 0 0,43 70 15 0 0,-100-96-176 0 0,-12-8-246 0 0,-5 6 0 0 0,93 138-1 0 0,-39-27 77 0 0,3-16-967 0 0,-146-195-172 0 0,-11-16-343 0 0,-8-7 1368 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-3-15-2024 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="372.45">2211 1 23551 0 0,'-2'1'1083'0'0,"-45"38"409"0"0,25-22-1486 0 0,1 1 0 0 0,1 0 0 0 0,-28 33 0 0 0,-34 60 499 0 0,-56 67 268 0 0,-260 321 981 0 0,211-269-1331 0 0,-112 149 83 0 0,-137 189-93 0 0,358-469-639 0 0,5 3 0 0 0,-74 136 0 0 0,138-223-255 0 0,0 0 0 0 0,-1 0 0 0 0,-1-1 1 0 0,-21 21-1 0 0,19-21-1626 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21545,7 +21606,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">303 336 10592 0 0,'0'0'1309'0'0,"-3"-16"6949"0"0,6 19-8183 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,3 7 1 0 0,9 32 27 0 0,-13-42-102 0 0,31 104 333 0 0,16 62-127 0 0,-32-106 311 0 0,-13-51-287 0 0,-3-8 490 0 0,-5-14 914 0 0,-1-2-1691 0 0,-5-8 230 0 0,2-1 1 0 0,0 0-1 0 0,-7-31 1 0 0,-6-17 146 0 0,-6-18-304 0 0,17 53-38 0 0,6 14-276 0 0,15 61 282 0 0,14 47 2 0 0,-17-56-106 0 0,12 31 1 0 0,-1-4 106 0 0,-9-25 15 0 0,-7-28-2 0 0,13 48 27 0 0,10 59 0 0 0,-13-66-326 0 0,-5-21-746 0 0,-5-20 916 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1226.13">1955 389 12528 0 0,'-10'-12'1249'0'0,"1"-10"-538"0"0,0 7 2933 0 0,11 19-1438 0 0,16 52-1891 0 0,-13-38-298 0 0,10 25 0 0 0,13 38-17 0 0,13 25 304 0 0,-38-89-175 0 0,-3-14-81 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,2 3-1 0 0,1 0 44 0 0,-3-4-70 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 0-2 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,1 2-1 0 0,3-1 49 0 0,2-3-43 0 0,-6-1 40 0 0,-2-5 60 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-5-6 0 0 0,3 4 38 0 0,1-1 0 0 0,-6-13-1 0 0,-3-5 63 0 0,10 22-190 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-7 1 0 0,-17-54 69 0 0,14 47-103 0 0,1 0 0 0 0,0-1-1 0 0,-4-31 1 0 0,1 13 53 0 0,2 10-55 0 0,5 23-9 0 0,1 3-44 0 0,6 18-23 0 0,13 50-54 0 0,-17-60 132 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,6 12-1 0 0,-5-11-18 0 0,-1 0-1 0 0,6 16 0 0 0,21 57 8 0 0,-18-56 11 0 0,-10-21 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 3 0 0 0,6 33 0 0 0,-9-32 22 0 0,-4 3 16 0 0,3-5-8 0 0,1-4 51 0 0,-5-15 60 0 0,3 8-141 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-2-5 0 0 0,2 8 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,-1-4 0 0 0,1 4 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-2-5 0 0 0,-1-8 0 0 0,-1 1 0 0 0,0 0 0 0 0,-10-21 0 0 0,4 12 0 0 0,-26-74 64 0 0,32 72-64 0 0,3 7 0 0 0,1 18-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1-1 0 0,21 20-155 0 0,-20-16 156 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,2 4 0 0 0,4 9 0 0 0,-2-5-11 0 0,-1 0 1 0 0,5 16-1 0 0,4 10-90 0 0,-13-36 100 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 1-1 0 0,0-2-3 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,2 3 0 0 0,2 4-8 0 0,-2-7 12 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 3-1 0 0,-1-2-6 0 0,0-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 3 1 0 0,2 1-31 0 0,-4-4 35 0 0,-2 5-156 0 0,2-4 471 0 0,0-2-457 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1226.14">1955 389 12528 0 0,'-10'-12'1249'0'0,"1"-10"-538"0"0,0 7 2933 0 0,11 19-1438 0 0,16 52-1891 0 0,-13-38-298 0 0,10 25 0 0 0,13 38-17 0 0,13 25 304 0 0,-38-89-175 0 0,-3-14-81 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,2 3-1 0 0,1 0 44 0 0,-3-4-70 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 0-2 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,1 2-1 0 0,3-1 49 0 0,2-3-43 0 0,-6-1 40 0 0,-2-5 60 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-5-6 0 0 0,3 4 38 0 0,1-1 0 0 0,-6-13-1 0 0,-3-5 63 0 0,10 22-190 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-7 1 0 0,-17-54 69 0 0,14 47-103 0 0,1 0 0 0 0,0-1-1 0 0,-4-31 1 0 0,1 13 53 0 0,2 10-55 0 0,5 23-9 0 0,1 3-44 0 0,6 18-23 0 0,13 50-54 0 0,-17-60 132 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,6 12-1 0 0,-5-11-18 0 0,-1 0-1 0 0,6 16 0 0 0,21 57 8 0 0,-18-56 11 0 0,-10-21 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 3 0 0 0,6 33 0 0 0,-9-32 22 0 0,-4 3 16 0 0,3-5-8 0 0,1-4 51 0 0,-5-15 60 0 0,3 8-141 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-2-5 0 0 0,2 8 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,-1-4 0 0 0,1 4 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-2-5 0 0 0,-1-8 0 0 0,-1 1 0 0 0,0 0 0 0 0,-10-21 0 0 0,4 12 0 0 0,-26-74 64 0 0,32 72-64 0 0,3 7 0 0 0,1 18-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1-1 0 0,21 20-155 0 0,-20-16 156 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,2 4 0 0 0,4 9 0 0 0,-2-5-11 0 0,-1 0 1 0 0,5 16-1 0 0,4 10-90 0 0,-13-36 100 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 1-1 0 0,0-2-3 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,2 3 0 0 0,2 4-8 0 0,-2-7 12 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 3-1 0 0,-1-2-6 0 0,0-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 3 1 0 0,2 1-31 0 0,-4-4 35 0 0,-2 5-156 0 0,2-4 471 0 0,0-2-457 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3017.77">242 341 4144 0 0,'0'0'319'0'0,"8"-12"4820"0"0,-4 6-3850 0 0,-1 2-539 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,8-6 0 0 0,-7 7 117 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,9-2 0 0 0,2 0-129 0 0,21-4-1 0 0,-16 5-94 0 0,50-4 109 0 0,76-4-336 0 0,-45 7-143 0 0,98-14 159 0 0,-23 10-298 0 0,-76 2-112 0 0,368-39 244 0 0,-268 21 200 0 0,-60 9-202 0 0,-2 4-141 0 0,-41 4 127 0 0,11-1-211 0 0,17-3 121 0 0,-15 2 52 0 0,23 2-50 0 0,-25 2-68 0 0,155-5-52 0 0,-1-1 36 0 0,137-7 953 0 0,-296 14-806 0 0,-17 1 79 0 0,-75 4-244 0 0,1 1 0 0 0,-1 0 0 0 0,15 3 0 0 0,-25-4-60 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,2 2 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,2 4 0 0 0,-3-4 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,4 4 0 0 0,-2-1 0 0 0,0-1 0 0 0,-1 1 0 0 0,8 10 0 0 0,76 126 0 0 0,-83-131 0 0 0,0 0 0 0 0,6 22 0 0 0,4 8 0 0 0,-7-19 0 0 0,-1 1 1 0 0,8 35-1 0 0,-2-4-13 0 0,69 287-71 0 0,-71-296 113 0 0,-1-6 17 0 0,-9-31 7 0 0,-2-7-45 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-2 0 0 0,-2 0-28 0 0,0-1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-2-4 1 0 0,-7-8-25 0 0,-5-6 45 0 0,-14-15 0 0 0,21 27-24 0 0,0-1 0 0 0,-11-17-1 0 0,0 0 24 0 0,46 38-53 0 0,-18-3 18 0 0,1 0-1 0 0,-2 0 1 0 0,1 1 0 0 0,-1 0-1 0 0,9 16 1 0 0,-2-3-2 0 0,-5-9 20 0 0,-1-2-9 0 0,-1-1 1 0 0,1 1-1 0 0,1-2 1 0 0,10 11 0 0 0,-7-6 227 0 0,-10-11-195 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,3 1 0 0 0,0-1-5 0 0,0 1 14 0 0,0-2 50 0 0,-5-1-41 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-2 0 0 0,2-2 156 0 0,-1-1 0 0 0,0 0 0 0 0,1-9 1 0 0,1-2-11 0 0,2-13-104 0 0,-5 23-38 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,3-7 1 0 0,1 1-21 0 0,5-22-1 0 0,-8 23-13 0 0,11-26 0 0 0,-7 22-74 0 0,-5 10 40 0 0,0 1-1 0 0,1 0 1 0 0,5-10-1 0 0,-7 15-159 0 0,-6-5-3955 0 0,1 4 2548 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3857.32">1851 185 3224 0 0,'0'0'8217'0'0,"7"-2"-3892"0"0,-3 6-4138 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 2 0 0 0,0-1 0 0 0,-1 0 0 0 0,3 5 0 0 0,14 40 312 0 0,-13-31-481 0 0,17 56 66 0 0,1-20 187 0 0,-24-51-228 0 0,0 2-21 0 0,2-3 26 0 0,-2-1-32 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,3-11 383 0 0,-3-20 280 0 0,-1 26-469 0 0,-10-46 153 0 0,10 45-338 0 0,-1-1 0 0 0,0 0 0 0 0,-4-11 0 0 0,-1-8-8 0 0,4 13 16 0 0,-9-24-1 0 0,3 9-33 0 0,8 14-15 0 0,0 14-97 0 0,0 8-446 0 0,0 3-1013 0 0,3 0-5103 0 0</inkml:trace>
 </inkml:ink>
@@ -21611,8 +21672,8 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">663 221 23583 0 0,'-1'1'69'0'0,"0"1"-1"0"0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,2 2 1 0 0,12 10-247 0 0,1 1 0 0 0,1-1 1 0 0,0-1-1 0 0,23 12 1 0 0,23 7 123 0 0,-11-7 54 0 0,20 17-2 0 0,107 81 1 0 0,53 68 310 0 0,-76-61 89 0 0,359 273 130 0 0,-343-286-1947 0 0,-87-62 586 0 0,-60-41-1254 0 0,-23-12 1615 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,3-1 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="404.04">1919 1 9672 0 0,'-5'8'790'0'0,"0"1"1"0"0,-10 11 0 0 0,-3-2 3427 0 0,0 1 1 0 0,-22 17-1 0 0,-1-2-1150 0 0,10-6-3043 0 0,11-10 43 0 0,-23 25-1 0 0,-126 138 317 0 0,-200 199 230 0 0,248-252-453 0 0,-222 261 252 0 0,310-351-361 0 0,-89 95 133 0 0,-13 15 6 0 0,109-117-137 0 0,-153 194 112 0 0,157-195-312 0 0,-1-1-1 0 0,-1 0 1 0 0,-1-1-1 0 0,-37 29 1 0 0,57-51-293 0 0,-7 3-497 0 0,11-9 724 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1-11-8222 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">663 212 23583 0 0,'-1'1'69'0'0,"0"0"-1"0"0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,2 2 1 0 0,12 10-247 0 0,1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,23 11 1 0 0,23 7 123 0 0,-11-7 54 0 0,20 16-2 0 0,107 78 1 0 0,54 64 310 0 0,-77-57 89 0 0,359 261 130 0 0,-343-274-1947 0 0,-87-60 586 0 0,-60-38-1254 0 0,-23-12 1615 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,3-1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="404.04">1920 1 9672 0 0,'-5'8'790'0'0,"0"0"1"0"0,-10 11 0 0 0,-3-1 3427 0 0,0 0 1 0 0,-22 16-1 0 0,-1-1-1150 0 0,10-6-3043 0 0,11-10 43 0 0,-23 24-1 0 0,-126 132 317 0 0,-201 191 230 0 0,249-242-453 0 0,-222 251 252 0 0,310-337-361 0 0,-89 91 133 0 0,-13 15 6 0 0,109-112-137 0 0,-153 185 112 0 0,157-186-312 0 0,-1-1-1 0 0,-1-1 1 0 0,-1 0-1 0 0,-37 28 1 0 0,57-50-293 0 0,-7 4-497 0 0,11-9 724 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1-10-8222 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21875,7 +21936,7 @@
       <inkml:brushProperty name="color" value="#FFC114"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1574 214 2304 0 0,'0'0'4356'0'0,"-9"13"1809"0"0,7-3-6050 0 0,1-8-110 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 2 1 0 0,0 15 309 0 0,-6 33 0 0 0,5-43-9 0 0,0 1 0 0 0,1-1 0 0 0,1 13 0 0 0,0 6 72 0 0,0-17-239 0 0,1-2 0 0 0,0 2 0 0 0,0-2 1 0 0,1 0-1 0 0,0 1 0 0 0,9 19 0 0 0,-8-21-41 0 0,-2-3-52 0 0,1-2 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,9 2 0 0 0,2 0 143 0 0,0 0 0 0 0,1 0 0 0 0,16 2 0 0 0,-17-4-147 0 0,0-2-1 0 0,0 1 0 0 0,0-2 1 0 0,0 0-1 0 0,30-2 0 0 0,-21-1-41 0 0,-15 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,14-5 0 0 0,-6-1 57 0 0,-1 1-1 0 0,21-15 1 0 0,-30 17-9 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,9-13-1 0 0,-9 9 51 0 0,1 2-1 0 0,-1-1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0-19 0 0 0,-2 22-45 0 0,1-10 145 0 0,-2-1 0 0 0,0 2 0 0 0,-5-22 0 0 0,-1-3 116 0 0,4 19-161 0 0,-11-35-1 0 0,12 52-125 0 0,-2-10 113 0 0,-2 2 1 0 0,-13-30 0 0 0,17 40-99 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,-4-2 0 0 0,-2-1 18 0 0,-1 2-1 0 0,0 0 0 0 0,0 1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0 1 1 0 0,-15 2-1 0 0,-2-2 59 0 0,23-2-92 0 0,1 1 1 0 0,-1 0 0 0 0,0 1 0 0 0,-7 1-1 0 0,11-1-24 0 0,-13 2 21 0 0,1 2-1 0 0,-22 7 1 0 0,31-9-21 0 0,0-1 0 0 0,1 1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,-2 4 0 0 0,-9 10 2 0 0,12-15-12 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2 6 0 0 0,-28 46-3 0 0,20-23-52 0 0,11-26 64 0 0,-1 1-10 0 0,1-4-33 0 0,-2 2 32 0 0,3-1 22 0 0,0-4 44 0 0,-1 1 14 0 0,0 4-4 0 0,0-3-5 0 0,1-2-57 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 61 0 0,1 0-10 0 0,-3 2 580 0 0,-13-2-614 0 0,15 0-25 0 0,1-2-133 0 0,4-6 29 0 0,-1 4 124 0 0,-3 3 161 0 0,4-4-356 0 0,-2 1 184 0 0,-2 3 197 0 0,0 0-147 0 0,-2-1-44 0 0,-1 0 1 0 0,2 1 170 0 0,1 1-127 0 0,-1-1-48 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-2 0 0 0,-1 2 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-8-4 37 0 0,1 3-45 0 0,-3 2 15 0 0,6-1 28 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-9 5 0 0 0,-17 2 34 0 0,13-4 2 0 0,1 1 1 0 0,-1 2-1 0 0,-29 12 0 0 0,-43 25 563 0 0,81-39-569 0 0,0 2-1 0 0,0-1 1 0 0,-8 9 0 0 0,1-2-28 0 0,-20 18-127 0 0,-61 68 0 0 0,84-85-145 0 0,-23 18 1 0 0,-4 4-33 0 0,-72 93 444 0 0,59-65-144 0 0,24-28-133 0 0,2 1 0 0 0,-28 49 0 0 0,-35 89 114 0 0,-2-11-20 0 0,-7 13 0 0 0,-14 85 0 0 0,85-188 0 0 0,-29 123 0 0 0,-21 192 0 0 0,31-3-97 0 0,27-200-51 0 0,-21 325 136 0 0,29-328 13 0 0,1 246-1 0 0,10-215 0 0 0,1 60 0 0 0,11 66 0 0 0,-6-257 0 0 0,19 200 0 0 0,-11-155 0 0 0,90 605 0 0 0,-32-420 0 0 0,-45-224 0 0 0,50 113 0 0 0,-33-90 0 0 0,72 142 0 0 0,-28-65 0 0 0,-8-21 0 0 0,-66-141 0 0 0,15 24 0 0 0,2-2 0 0 0,47 60 0 0 0,-12-19 0 0 0,181 233 0 0 0,-196-267 0 0 0,72 62 0 0 0,-86-84 0 0 0,39 37 9 0 0,79 70 36 0 0,-106-102-22 0 0,56 34 0 0 0,57 25 45 0 0,40 26-20 0 0,195 116 66 0 0,-210-145-128 0 0,-100-53 18 0 0,44 18 41 0 0,9 5 45 0 0,-34-18 193 0 0,117 34 0 0 0,-198-73-200 0 0,59 20-59 0 0,120 23 0 0 0,-90-31-21 0 0,165 27 42 0 0,-250-44-45 0 0,54 7 0 0 0,59 4 16 0 0,26 4 256 0 0,-110-11-373 0 0,291 37 176 0 0,-241-31-63 0 0,166-5 0 0 0,192-37-238 0 0,-205 4 312 0 0,27-3 32 0 0,-171 20-159 0 0,182-7-134 0 0,-245 15 154 0 0,149 6 290 0 0,-61-3-366 0 0,-88-4 158 0 0,-41 1-26 0 0,-1-1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1-2 0 0 0,17-6 1 0 0,-26 10-32 0 0,-1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1-4 1 0 0,4 0 162 0 0,-7 5-164 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,2 6-3 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 13 0 0 0,-1-13 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2 8 0 0 0,1 2 0 0 0,-2-14 0 0 0,0-6 0 0 0,0-10 0 0 0,-7-7 0 0 0,-22-98 0 0 0,20 98 0 0 0,-10-23 0 0 0,-5-19 0 0 0,18 48 1 0 0,3 12-3 0 0,1 2 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-2-4 0 0 0,2 5-53 0 0,18-5-10 0 0,-14 5 56 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,6 1 0 0 0,15 2-31 0 0,-5-3 50 0 0,0 1 0 0 0,0 2 0 0 0,24 5 0 0 0,18 5 9 0 0,-38-6-9 0 0,-23-8 1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,-4 14 366 0 0,0-9-289 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0-1-1 0 0,-6 3 1 0 0,7-3-270 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-2 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-10-2 0 0 0,14 2-204 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-2 0 0 0,0 1 0 0 0,0 1 1 0 0,1-1-1 0 0,-2-1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1574 205 2304 0 0,'0'0'4356'0'0,"-9"13"1809"0"0,7-4-6050 0 0,1-7-110 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 3 1 0 0,0 14 309 0 0,-6 32 0 0 0,5-41-9 0 0,0 0 0 0 0,1 0 0 0 0,1 12 0 0 0,0 6 72 0 0,0-17-239 0 0,1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,0 0 0 0 0,9 19 0 0 0,-8-20-41 0 0,-2-4-52 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,9 3 0 0 0,2 0 143 0 0,0 0 0 0 0,1-1 0 0 0,16 3 0 0 0,-17-4-147 0 0,0-2-1 0 0,0 1 0 0 0,0-2 1 0 0,0 0-1 0 0,30-2 0 0 0,-21-1-41 0 0,-15 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,14-5 0 0 0,-6 0 57 0 0,-1 0-1 0 0,21-14 1 0 0,-30 16-9 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,9-12-1 0 0,-9 9 51 0 0,1 1-1 0 0,-1-1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0-19 0 0 0,-2 21-45 0 0,1-9 145 0 0,-2-1 0 0 0,0 1 0 0 0,-5-20 0 0 0,-1-3 116 0 0,4 18-161 0 0,-11-34-1 0 0,12 50-125 0 0,-2-9 113 0 0,-2 1 1 0 0,-13-28 0 0 0,17 38-99 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,-4-2 0 0 0,-2 0 18 0 0,-1 1-1 0 0,0 0 0 0 0,0 1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0 1 1 0 0,-15 2-1 0 0,-2-2 59 0 0,23-2-92 0 0,1 1 1 0 0,-1 0 0 0 0,0 1 0 0 0,-7 1-1 0 0,11-1-24 0 0,-13 2 21 0 0,1 1-1 0 0,-22 8 1 0 0,31-9-21 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,-2 4 0 0 0,-9 9 2 0 0,12-14-12 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2 5 0 0 0,-28 45-3 0 0,20-22-52 0 0,11-26 64 0 0,-1 2-10 0 0,1-4-33 0 0,-2 2 32 0 0,3-1 22 0 0,0-4 44 0 0,-1 1 14 0 0,0 3-4 0 0,0-2-5 0 0,1-2-57 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 61 0 0,1 0-10 0 0,-3 2 580 0 0,-13-2-614 0 0,15 0-25 0 0,1-2-133 0 0,4-6 29 0 0,-1 5 124 0 0,-3 2 161 0 0,4-4-356 0 0,-2 1 184 0 0,-2 3 197 0 0,0 0-147 0 0,-2-1-44 0 0,-1 0 1 0 0,2 1 170 0 0,1 1-127 0 0,-1-1-48 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-8-4 37 0 0,1 3-45 0 0,-3 2 15 0 0,6-1 28 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-9 4 0 0 0,-17 3 34 0 0,13-4 2 0 0,1 1 1 0 0,-1 1-1 0 0,-29 13 0 0 0,-43 23 563 0 0,81-37-569 0 0,0 1-1 0 0,0 0 1 0 0,-8 8 0 0 0,1-1-28 0 0,-20 17-127 0 0,-61 65 0 0 0,84-82-145 0 0,-23 18 1 0 0,-4 3-33 0 0,-72 90 444 0 0,59-63-144 0 0,24-26-133 0 0,2 0 0 0 0,-28 48 0 0 0,-35 85 114 0 0,-2-11-20 0 0,-7 13 0 0 0,-14 81 0 0 0,85-180 0 0 0,-29 118 0 0 0,-21 184 0 0 0,31-3-97 0 0,27-191-51 0 0,-21 311 136 0 0,29-314 13 0 0,1 235-1 0 0,10-206 0 0 0,1 58 0 0 0,11 63 0 0 0,-6-246 0 0 0,19 191 0 0 0,-11-148 0 0 0,90 580 0 0 0,-32-403 0 0 0,-45-214 0 0 0,50 108 0 0 0,-33-87 0 0 0,72 137 0 0 0,-28-63 0 0 0,-8-20 0 0 0,-66-135 0 0 0,15 23 0 0 0,2-2 0 0 0,47 57 0 0 0,-12-17 0 0 0,181 223 0 0 0,-196-257 0 0 0,72 60 0 0 0,-86-80 0 0 0,39 35 9 0 0,79 67 36 0 0,-106-97-22 0 0,56 32 0 0 0,57 24 45 0 0,40 25-20 0 0,195 111 66 0 0,-210-139-128 0 0,-100-51 18 0 0,44 18 41 0 0,9 4 45 0 0,-34-17 193 0 0,117 33 0 0 0,-198-70-200 0 0,59 19-59 0 0,120 22 0 0 0,-91-30-21 0 0,166 26 42 0 0,-250-42-45 0 0,54 6 0 0 0,59 5 16 0 0,26 3 256 0 0,-110-10-373 0 0,291 35 176 0 0,-241-30-63 0 0,166-4 0 0 0,192-36-238 0 0,-205 4 312 0 0,27-3 32 0 0,-171 20-159 0 0,182-8-134 0 0,-245 15 154 0 0,149 6 290 0 0,-61-3-366 0 0,-88-4 158 0 0,-41 1-26 0 0,-1-1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1-1 0 0 0,17-7 1 0 0,-26 10-32 0 0,-1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1-3 1 0 0,4-1 162 0 0,-7 5-164 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,2 5-3 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1 12 0 0 0,-1-12 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,2 7 0 0 0,1 3 0 0 0,-2-14 0 0 0,0-6 0 0 0,0-9 0 0 0,-7-7 0 0 0,-22-95 0 0 0,20 95 0 0 0,-10-22 0 0 0,-5-18 0 0 0,18 45 1 0 0,3 13-3 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-2-3 0 0 0,2 4-53 0 0,18-5-10 0 0,-14 5 56 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,6 1 0 0 0,15 2-31 0 0,-5-3 50 0 0,0 1 0 0 0,0 1 0 0 0,24 6 0 0 0,18 4 9 0 0,-38-5-9 0 0,-23-8 1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,-4 13 366 0 0,0-8-289 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,-6 3 1 0 0,7-3-270 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-10-2 0 0 0,14 2-204 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-2-1 0 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21907,9 +21968,9 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2751 374 2304 0 0,'0'0'200'0'0,"-7"0"-200"0"0,1 5 3984 0 0,-3-10-3856 0 0,2 1-272 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="791.47">2688 296 7280 0 0,'0'0'660'0'0,"-9"-5"521"0"0,1-2 309 0 0,3 1-1033 0 0,-1 1 0 0 0,0 0 0 0 0,-13-8 1 0 0,-16-9 174 0 0,-21-6 324 0 0,47 25-625 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,-15 0 0 0 0,3 2 101 0 0,-37 8 0 0 0,45-6-384 0 0,1 2-1 0 0,0 0 1 0 0,0 0 0 0 0,-18 11-1 0 0,10-6-37 0 0,7-3 79 0 0,1 2 0 0 0,0 0 0 0 0,-22 19 0 0 0,29-21-76 0 0,0-2-1 0 0,1 2 0 0 0,-1-1 1 0 0,1 2-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-5 11 0 0 0,8-11-2 0 0,-1-2-1 0 0,1 0 0 0 0,1 0 0 0 0,-1 2 0 0 0,1-2 0 0 0,0 0 0 0 0,0 2 1 0 0,1-2-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0-1 1 0 0,1 2-1 0 0,0-1 0 0 0,0 0 0 0 0,5 7 0 0 0,0-1-26 0 0,0 1 0 0 0,1-2 0 0 0,1 1 0 0 0,0-2 0 0 0,1 0 0 0 0,22 19-1 0 0,-24-23 31 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0-1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0-1 1 0 0,0-1-1 0 0,0 0 1 0 0,22-2-1 0 0,-3-6 160 0 0,1 0 0 0 0,-1-1 0 0 0,-1-2 0 0 0,38-20-1 0 0,-42 18-2 0 0,-1 0 0 0 0,0-2-1 0 0,-2 0 1 0 0,25-22-1 0 0,-24 15-70 0 0,35-43-1 0 0,-51 58-69 0 0,-1-1 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,3-18 0 0 0,-6 17 59 0 0,-1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,-1-2 1 0 0,0 2-1 0 0,0-1 0 0 0,-1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,-7-14 1 0 0,8 19-44 0 0,-1-1 0 0 0,0 2 1 0 0,0-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-2 0 1 0 0,-6-2-1 0 0,-11-6 182 0 0,-1 3 0 0 0,-29-8-1 0 0,43 14-215 0 0,-55-11 53 0 0,16 3-64 0 0,28 7 0 0 0,15 3-10 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 2-1 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 0 0 0 0,-8 8 0 0 0,-26 29-171 0 0,25-25 170 0 0,-11 13-119 0 0,23-29-208 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3777.57">2578 643 2304 0 0,'-8'6'7890'0'0,"-2"-3"-5970"0"0,-32 3-74 0 0,-64-9 3740 0 0,92 3-5190 0 0,-4 0-55 0 0,15 0-329 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3 1 0 0 0,-7 1 34 0 0,-16-2 122 0 0,0 1 0 0 0,1 2 0 0 0,-47 11 0 0 0,50-7-80 0 0,2 0 1 0 0,-1 3-1 0 0,1 0 1 0 0,-27 16-1 0 0,29-11-36 0 0,0-1 0 0 0,-25 25 0 0 0,3-3-32 0 0,-9 3-20 0 0,-41 34 0 0 0,-16 31 0 0 0,-40 69 0 0 0,93-103 0 0 0,23-30 0 0 0,-76 85 0 0 0,64-77 22 0 0,-46 63 0 0 0,72-87 37 0 0,-170 262 30 0 0,88-123-89 0 0,15-29 0 0 0,-102 215 0 0 0,-69 247 0 0 0,222-513 0 0 0,-10 34 167 0 0,-34 140 1 0 0,-10 129-199 0 0,51-125 31 0 0,28-178 0 0 0,-10 108 0 0 0,7 2 0 0 0,19 304 0 0 0,10-334 0 0 0,7 0 0 0 0,7-2 0 0 0,66 212 0 0 0,-69-279 0 0 0,28 84 14 0 0,51 75 121 0 0,-30-77-213 0 0,51 87 11 0 0,20-11 109 0 0,-21-65 30 0 0,-25-37-70 0 0,-60-86-8 0 0,17 28 53 0 0,88 105 0 0 0,-99-142-19 0 0,182 220 27 0 0,13-10-3 0 0,-190-212-40 0 0,60 72 20 0 0,19 20-11 0 0,42 13 36 0 0,-23-21 4 0 0,236 196 237 0 0,-163-146-225 0 0,-67-56-58 0 0,-28-31 21 0 0,-31-25 8 0 0,431 283-108 0 0,-254-219 807 0 0,-171-91-582 0 0,326 155 57 0 0,-339-158-149 0 0,176 79 132 0 0,286 77-89 0 0,-353-131-9 0 0,49 15-62 0 0,-55-22-5 0 0,210 57 83 0 0,-20-46-2 0 0,-28-14 81 0 0,-252-42-187 0 0,12 3-12 0 0,61 10 2 0 0,-110-20 9 0 0,5-3 43 0 0,-54-7-9 0 0,22-1 1 0 0,-17 0-6 0 0,-19 0-36 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,4-2-1 0 0,0-1 79 0 0,-1-1 1 0 0,0 1-1 0 0,7-9 1 0 0,-9 8 95 0 0,0 0-44 0 0,-2 1-108 0 0,1 3-36 0 0,-1 1-20 0 0,1 3 41 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,2 7-1 0 0,-3-8-9 0 0,2 3-3 0 0,1 1-30 0 0,-1-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,3 10 0 0 0,-4-9-39 0 0,1 1 0 0 0,0-1 1 0 0,0 2-1 0 0,1-2 1 0 0,3 9-1 0 0,-3-9 12 0 0,0 0 1 0 0,-1 0-1 0 0,1 2 0 0 0,1 11 0 0 0,4 18 259 0 0,-8-36-133 0 0,-4-4-374 0 0,2 0 291 0 0,-1-1-1 0 0,0 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,2-1-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 2 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1-9 1 0 0,-3-5-25 0 0,-4-27 41 0 0,3 8 0 0 0,-4-4 11 0 0,7 24 3 0 0,-1 1 0 0 0,-8-23 1 0 0,10 23 33 0 0,1 15-43 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 2 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-2-1 0 0 0,0 1-5 0 0,3 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-2 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4-1 0 0 0,1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,12 3 0 0 0,-5-2 0 0 0,-7 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,6 3 0 0 0,-6-1 0 0 0,12 2 0 0 0,-15-5 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4 3 0 0 0,5 0 0 0 0,3-2 0 0 0,-7-2 0 0 0,-2 0 39 0 0,-4 0 868 0 0,0 1-823 0 0,-1-1-84 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,2-1-24 0 0,7 3-163 0 0,6 6-557 0 0,-14-8 872 0 0,-1 0-101 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 2-1 0 0,1-1 1 0 0,1 5-29 0 0,-2-5 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,-2 6 32 0 0,-1-2 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 1 0 0,-7 10-1 0 0,5-9-18 0 0,1 0 0 0 0,0 2 0 0 0,-6 8 0 0 0,-6 14-216 0 0,12-19 208 0 0,4-10-107 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,0 4 1 0 0,-2 0-2720 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2751 359 2304 0 0,'0'0'200'0'0,"-7"0"-200"0"0,1 4 3984 0 0,-3-8-3856 0 0,2 0-272 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="791.47">2688 284 7280 0 0,'0'0'660'0'0,"-9"-5"521"0"0,1-2 309 0 0,3 2-1033 0 0,-1 0 0 0 0,0 0 0 0 0,-13-7 1 0 0,-16-10 174 0 0,-21-4 324 0 0,47 23-625 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,-15 0 0 0 0,3 2 101 0 0,-37 8 0 0 0,45-6-384 0 0,1 1-1 0 0,0 1 1 0 0,0 0 0 0 0,-18 10-1 0 0,10-5-37 0 0,7-3 79 0 0,1 1 0 0 0,0 1 0 0 0,-22 18 0 0 0,29-21-76 0 0,0-1-1 0 0,1 2 0 0 0,-1-1 1 0 0,1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-5 12 0 0 0,8-12-2 0 0,-1-1-1 0 0,1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,5 6 0 0 0,0 0-26 0 0,0 0 0 0 0,1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,22 17-1 0 0,-24-21 31 0 0,0 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0-1-1 0 0,0 0 1 0 0,22-2-1 0 0,-3-5 160 0 0,1-1 0 0 0,-1-1 0 0 0,-1-1 0 0 0,38-20-1 0 0,-42 18-2 0 0,-1-1 0 0 0,0-1-1 0 0,-2-1 1 0 0,25-20-1 0 0,-24 14-70 0 0,35-41-1 0 0,-51 55-69 0 0,-1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,3-18 0 0 0,-6 16 59 0 0,-1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,-7-13 1 0 0,8 18-44 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 1-1 0 0,-2-1 1 0 0,-6-2-1 0 0,-11-5 182 0 0,-1 2 0 0 0,-29-7-1 0 0,43 13-215 0 0,-55-11 53 0 0,16 4-64 0 0,28 6 0 0 0,15 3-10 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 0 0 0 0,-8 7 0 0 0,-26 28-171 0 0,25-23 170 0 0,-11 12-119 0 0,23-28-208 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3777.57">2578 617 2304 0 0,'-8'5'7890'0'0,"-2"-2"-5970"0"0,-32 3-74 0 0,-64-9 3740 0 0,92 3-5190 0 0,-4 0-55 0 0,15 0-329 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3 1 0 0 0,-7 1 34 0 0,-16-2 122 0 0,0 1 0 0 0,1 2 0 0 0,-47 10 0 0 0,50-6-80 0 0,2 0 1 0 0,-1 2-1 0 0,1 1 1 0 0,-27 15-1 0 0,29-11-36 0 0,0 0 0 0 0,-25 23 0 0 0,3-2-32 0 0,-9 2-20 0 0,-41 33 0 0 0,-16 30 0 0 0,-40 66 0 0 0,93-99 0 0 0,23-29 0 0 0,-76 82 0 0 0,64-74 22 0 0,-46 61 0 0 0,72-84 37 0 0,-170 251 30 0 0,88-118-89 0 0,15-27 0 0 0,-102 205 0 0 0,-69 238 0 0 0,222-492 0 0 0,-10 32 167 0 0,-34 134 1 0 0,-10 124-199 0 0,51-119 31 0 0,28-172 0 0 0,-10 105 0 0 0,7 1 0 0 0,19 291 0 0 0,10-319 0 0 0,7-1 0 0 0,7-2 0 0 0,66 204 0 0 0,-69-268 0 0 0,28 81 14 0 0,51 72 121 0 0,-30-75-213 0 0,51 85 11 0 0,20-12 109 0 0,-21-61 30 0 0,-25-37-70 0 0,-60-81-8 0 0,17 26 53 0 0,88 101 0 0 0,-99-136-19 0 0,182 210 27 0 0,13-8-3 0 0,-190-205-40 0 0,60 70 20 0 0,19 19-11 0 0,42 13 36 0 0,-23-21 4 0 0,236 189 237 0 0,-163-141-225 0 0,-67-53-58 0 0,-28-30 21 0 0,-31-25 8 0 0,431 273-108 0 0,-254-211 807 0 0,-171-87-582 0 0,326 149 57 0 0,-339-152-149 0 0,176 76 132 0 0,286 74-89 0 0,-353-126-9 0 0,49 14-62 0 0,-55-20-5 0 0,210 54 83 0 0,-20-44-2 0 0,-28-14 81 0 0,-252-39-187 0 0,12 2-12 0 0,61 9 2 0 0,-110-18 9 0 0,5-3 43 0 0,-54-7-9 0 0,22-1 1 0 0,-17 0-6 0 0,-19 0-36 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,4-2-1 0 0,0-1 79 0 0,-1 0 1 0 0,0 0-1 0 0,7-9 1 0 0,-9 9 95 0 0,0-1-44 0 0,-2 1-108 0 0,1 3-36 0 0,-1 1-20 0 0,1 3 41 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,2 6-1 0 0,-3-7-9 0 0,2 3-3 0 0,1 1-30 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 9 0 0 0,-4-8-39 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,3 8-1 0 0,-3-8 12 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,1 12 0 0 0,4 16 259 0 0,-8-34-133 0 0,-4-4-374 0 0,2 0 291 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,2-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1-8 1 0 0,-3-6-25 0 0,-4-25 41 0 0,3 8 0 0 0,-4-5 11 0 0,7 24 3 0 0,-1 1 0 0 0,-8-23 1 0 0,10 23 33 0 0,1 14-43 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-2-1 0 0 0,0 1-5 0 0,3 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4-1 0 0 0,1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,12 3 0 0 0,-5-2 0 0 0,-7 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,6 3 0 0 0,-6-1 0 0 0,12 2 0 0 0,-15-5 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4 2 0 0 0,5 1 0 0 0,3-2 0 0 0,-7-2 0 0 0,-2 0 39 0 0,-4 0 868 0 0,0 1-823 0 0,-1-1-84 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,2-1-24 0 0,7 3-163 0 0,6 6-557 0 0,-14-8 872 0 0,-1 0-101 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,1 0 1 0 0,1 5-29 0 0,-2-5 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,-2 5 32 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 1 0 0,-7 9-1 0 0,5-8-18 0 0,1 0 0 0 0,0 1 0 0 0,-6 9 0 0 0,-6 12-216 0 0,12-17 208 0 0,4-10-107 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 4 1 0 0,-2 0-2720 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22006,9 +22067,9 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">871 295 18543 0 0,'-13'-4'2008'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="395.68">236 595 19351 0 0,'-5'-3'816'0'0,"-12"-10"394"0"0,16 12-1166 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0 329 0 0,0 1-309 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,1 0-1 0 0,3 3 9 0 0,1 1 0 0 0,0 0-1 0 0,6 6 1 0 0,-6-5 99 0 0,31 32 238 0 0,55 72 0 0 0,-48-57-215 0 0,92 83 0 0 0,-32-34-183 0 0,-102-100-9 0 0,219 225 236 0 0,10-12-309 0 0,-26-13 68 0 0,-62-55 86 0 0,11-15 38 0 0,-131-115-329 0 0,1-1 1 0 0,0-1-1 0 0,1-2 0 0 0,1 0 1 0 0,27 8-1 0 0,-33-16-1549 0 0,-2-4-529 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="798.25">1094 11 5064 0 0,'-24'-11'11590'0'0,"17"11"-7083"0"0,6 0-4329 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,-4 6-168 0 0,1 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 2 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,-1 10 0 0 0,-2 5-41 0 0,-42 161-124 0 0,-6 15 534 0 0,-79 176 260 0 0,88-257-459 0 0,-166 428 829 0 0,-36-35 536 0 0,109-244-702 0 0,43-33-515 0 0,80-200-351 0 0,-1 5-35 0 0,16-38-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 2 0 0 0,-2-4-1985 0 0,1-9 403 0 0,2-2-58 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">871 283 18543 0 0,'-13'-4'2008'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="395.68">236 570 19351 0 0,'-5'-3'816'0'0,"-12"-9"394"0"0,16 11-1166 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 329 0 0,0 0-309 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,1 0-1 0 0,3 3 9 0 0,1 0 0 0 0,0 1-1 0 0,6 6 1 0 0,-6-6 99 0 0,31 32 238 0 0,55 68 0 0 0,-48-54-215 0 0,92 79 0 0 0,-32-32-183 0 0,-102-96-9 0 0,219 215 236 0 0,10-11-309 0 0,-26-12 68 0 0,-62-53 86 0 0,11-15 38 0 0,-131-109-329 0 0,1-2 1 0 0,0-1-1 0 0,1-1 0 0 0,1-1 1 0 0,27 8-1 0 0,-33-15-1549 0 0,-2-4-529 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="798.25">1094 11 5064 0 0,'-24'-11'11590'0'0,"17"11"-7083"0"0,6 0-4329 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,-4 5-168 0 0,1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,-1 11 0 0 0,-2 4-41 0 0,-42 154-124 0 0,-6 15 534 0 0,-79 168 260 0 0,88-246-459 0 0,-166 410 829 0 0,-36-33 536 0 0,109-234-702 0 0,43-32-515 0 0,80-192-351 0 0,-1 6-35 0 0,16-37-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 2 0 0 0,-2-4-1985 0 0,1-8 403 0 0,2-3-58 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22039,7 +22100,7 @@
       <inkml:brushProperty name="height" value="0.02646" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1018 20591 0 0,'0'0'2547'0'0,"3"9"-2100"0"0,7 33-292 0 0,2-2 0 0 0,19 47 0 0 0,-21-59-110 0 0,8 16-157 0 0,2-1 0 0 0,31 49 0 0 0,-44-80 98 0 0,32 50 169 0 0,-34-54-132 0 0,0-2 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,11 8 0 0 0,-14-11-6 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0-2-1 0 0,0 2 1 0 0,0-1-1 0 0,-1 1 0 0 0,4-5 1 0 0,4-3 117 0 0,-1-1 1 0 0,0 0 0 0 0,-1-1-1 0 0,8-16 1 0 0,12-23 589 0 0,36-95 1 0 0,-21 43-641 0 0,82-142 1 0 0,-63 131-197 0 0,209-365-1154 0 0,-243 439 540 0 0,2 2 1 0 0,56-56 0 0 0,-51 58-33 0 0,-10 12-1405 0 0,49-39 0 0 0,-41 38 234 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 974 20591 0 0,'0'0'2547'0'0,"3"8"-2100"0"0,7 32-292 0 0,2-1 0 0 0,19 44 0 0 0,-21-56-110 0 0,8 15-157 0 0,2-1 0 0 0,31 47 0 0 0,-44-77 98 0 0,32 49 169 0 0,-34-53-132 0 0,0-1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,11 7 0 0 0,-14-10-6 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,4-5 1 0 0,4-3 117 0 0,-1 0 1 0 0,0-1 0 0 0,-1 0-1 0 0,8-16 1 0 0,12-22 589 0 0,36-91 1 0 0,-21 42-641 0 0,82-136 1 0 0,-63 124-197 0 0,209-348-1154 0 0,-243 420 540 0 0,2 2 1 0 0,56-54 0 0 0,-51 55-33 0 0,-10 12-1405 0 0,49-37 0 0 0,-41 36 234 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22103,9 +22164,9 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2414 1991 26207 0 0,'15'21'0'0'0,"-2"2"0"0"0,0 0-624 0 0,-4 1-120 0 0,4-4-24 0 0,-4-4-5760 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="467.7">560 427 24015 0 0,'-10'8'2174'0'0,"9"-7"-2165"0"0,1-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 2 1 0 0,1-2-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 2 26 0 0,14 17-51 0 0,0 0 0 0 0,1-1 0 0 0,1 0 0 0 0,25 19 0 0 0,-33-29 10 0 0,28 21-26 0 0,67 41-1 0 0,-5-4 31 0 0,1 7 18 0 0,63 48 84 0 0,-31-25-75 0 0,14 11 36 0 0,-45-28-27 0 0,262 228 148 0 0,-4 28-216 0 0,-230-216-278 0 0,-54-48-1086 0 0,-34-37-2399 0 0,-25-21-4082 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="826.51">2021 1 24503 0 0,'0'0'562'0'0,"-13"5"1336"0"0,10-3-1872 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-4 4 1 0 0,-7 10-27 0 0,7-12 1 0 0,-140 147-152 0 0,114-114 104 0 0,2 0 0 0 0,-35 58 0 0 0,-98 148 48 0 0,27-43 0 0 0,-31 79 70 0 0,30-51 12 0 0,-205 351 310 0 0,29-41 208 0 0,30-47-264 0 0,276-478-373 0 0,-118 229-604 0 0,122-239 281 0 0,0 1 0 0 0,1 0 1 0 0,0 1-1 0 0,-4 10 1 0 0,5 0-6778 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2414 1910 26207 0 0,'15'20'0'0'0,"-2"2"0"0"0,0 0-624 0 0,-4 1-120 0 0,4-4-24 0 0,-4-4-5760 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="467.7">560 410 24015 0 0,'-10'7'2174'0'0,"9"-6"-2165"0"0,1-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 2 26 0 0,14 17-51 0 0,0-1 0 0 0,1-1 0 0 0,1 0 0 0 0,25 19 0 0 0,-33-29 10 0 0,28 21-26 0 0,67 39-1 0 0,-5-3 31 0 0,1 6 18 0 0,63 46 84 0 0,-31-24-75 0 0,14 10 36 0 0,-45-26-27 0 0,262 219 148 0 0,-4 26-216 0 0,-230-207-278 0 0,-54-46-1086 0 0,-34-35-2399 0 0,-25-21-4082 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="826.51">2021 1 24503 0 0,'0'0'562'0'0,"-13"5"1336"0"0,10-3-1872 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-4 4 1 0 0,-7 9-27 0 0,7-11 1 0 0,-140 141-152 0 0,114-110 104 0 0,2 1 0 0 0,-35 55 0 0 0,-98 142 48 0 0,27-42 0 0 0,-31 77 70 0 0,30-49 12 0 0,-205 336 310 0 0,29-39 208 0 0,30-45-264 0 0,276-459-373 0 0,-118 220-604 0 0,122-229 281 0 0,0 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-4 11 1 0 0,5-1-6778 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22169,7 +22230,7 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">927 223 13216 0 0,'0'0'1486'0'0,"-7"3"-531"0"0,-140 37 6160 0 0,80-20-6364 0 0,36-10-385 0 0,1 2 0 0 0,0 0 0 0 0,1 3 0 0 0,1 1-1 0 0,-28 20 1 0 0,-127 110-517 0 0,64-34 151 0 0,19-15 609 0 0,85-81-560 0 0,1 1 0 0 0,2 1 0 0 0,-1 0 0 0 0,-14 28 0 0 0,21-35-7 0 0,5-9-36 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 3 0 0 0,2 4 33 0 0,0-5-11 0 0,-1 1 0 0 0,0-1 1 0 0,0 2-1 0 0,0-2 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-2 8 0 0 0,0-2-10 0 0,1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,1 2 0 0 0,7 12 0 0 0,-5-11-14 0 0,1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,2 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,2-1 0 0 0,0 1 0 0 0,0-2 0 0 0,19 12 1 0 0,12 2 102 0 0,2-2 0 0 0,53 18 0 0 0,-46-19-66 0 0,6 2 103 0 0,89 21 0 0 0,467 45-376 0 0,70-17 232 0 0,-576-56 0 0 0,273 27 0 0 0,211-21 224 0 0,-470-30-162 0 0,-16 2-259 0 0,-22 2 165 0 0,0-4 0 0 0,110-30-1 0 0,-119 24 33 0 0,25-7 0 0 0,31-14 0 0 0,39-12 0 0 0,-128 36 0 0 0,-2-3 0 0 0,44-24 0 0 0,-70 33-13 0 0,0-1-1 0 0,-2 0 1 0 0,2 0-1 0 0,-2-2 1 0 0,0 1-1 0 0,0-2 1 0 0,-1 1 0 0 0,1-1-1 0 0,-3 0 1 0 0,13-21-1 0 0,-11 15-4 0 0,-1-1-1 0 0,-1 2 1 0 0,-1-2-1 0 0,0 0 1 0 0,0-1-1 0 0,-2 1 1 0 0,3-31-1 0 0,-4 34 18 0 0,-2-1-1 0 0,0 2 1 0 0,0-2-1 0 0,-1 0 1 0 0,-1 1-1 0 0,-3-16 1 0 0,-3-9 44 0 0,-3 1 1 0 0,-2 0 0 0 0,0 1-1 0 0,-34-71 1 0 0,27 70-226 0 0,-32-45 0 0 0,38 67 165 0 0,1 1 1 0 0,-2 0-1 0 0,0 1 0 0 0,-27-23 0 0 0,14 18 6 0 0,-1 1 0 0 0,-30-14-1 0 0,-63-27 150 0 0,57 31 205 0 0,4 3-335 0 0,-3 4 0 0 0,-89-19-1 0 0,72 20-5 0 0,-196-40-2 0 0,11 2 0 0 0,20 6 0 0 0,-124 11 0 0 0,-98 43-159 0 0,328 2 44 0 0,-109 13 375 0 0,171-7-348 0 0,-89 26 1 0 0,154-32 86 0 0,-258 74 100 0 0,9 21 8 0 0,131-41-1072 0 0,-45 21-1330 0 0,106-39-1897 0 0,34-18-3315 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">965 212 13216 0 0,'0'0'1486'0'0,"-7"3"-531"0"0,-146 35 6160 0 0,83-19-6364 0 0,38-9-385 0 0,1 1 0 0 0,0 1 0 0 0,0 2 0 0 0,2 1-1 0 0,-29 19 1 0 0,-133 105-517 0 0,67-32 151 0 0,20-15 609 0 0,89-76-560 0 0,0 0 0 0 0,2 1 0 0 0,0 0 0 0 0,-15 27 0 0 0,21-34-7 0 0,6-8-36 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 3 0 0 0,2 3 33 0 0,0-4-11 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-2 7 0 0 0,0-1-10 0 0,1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,7 12 0 0 0,-4-11-14 0 0,0 1 0 0 0,1-2 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,19 11 1 0 0,13 2 102 0 0,1-2 0 0 0,56 17 0 0 0,-47-18-66 0 0,5 2 103 0 0,93 20 0 0 0,486 43-376 0 0,74-16 232 0 0,-601-54 0 0 0,285 26 0 0 0,219-20 224 0 0,-489-28-162 0 0,-16 1-259 0 0,-24 2 165 0 0,0-3 0 0 0,115-29-1 0 0,-124 22 33 0 0,26-6 0 0 0,33-13 0 0 0,40-11 0 0 0,-134 33 0 0 0,-1-2 0 0 0,45-23 0 0 0,-72 31-13 0 0,-1 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1-1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-2 0 0 0 0,1 0-1 0 0,-2-1 1 0 0,13-19-1 0 0,-12 14-4 0 0,-1-1-1 0 0,0 1 1 0 0,-2-1-1 0 0,0 0 1 0 0,0-1-1 0 0,-2 1 1 0 0,4-30-1 0 0,-5 33 18 0 0,-2-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,-1 1-1 0 0,-3-16 1 0 0,-4-8 44 0 0,-2 1 1 0 0,-2 0 0 0 0,-1 1-1 0 0,-35-68 1 0 0,28 67-226 0 0,-33-43 0 0 0,40 64 165 0 0,0 0 1 0 0,-1 1-1 0 0,-1 1 0 0 0,-28-22 0 0 0,15 17 6 0 0,-1 1 0 0 0,-31-14-1 0 0,-66-25 150 0 0,59 29 205 0 0,4 4-335 0 0,-2 3 0 0 0,-93-18-1 0 0,74 19-5 0 0,-203-38-2 0 0,11 1 0 0 0,21 7 0 0 0,-130 10 0 0 0,-101 41-159 0 0,341 2 44 0 0,-113 12 375 0 0,178-6-348 0 0,-93 24 1 0 0,160-30 86 0 0,-268 70 100 0 0,9 20 8 0 0,137-38-1072 0 0,-47 19-1330 0 0,110-37-1897 0 0,35-17-3315 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22201,7 +22262,7 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11 423 2760 0 0,'-2'29'1589'0'0,"-4"-15"196"0"0,5-12-1791 0 0,1 1 347 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 5 1 0 0,1-3-132 0 0,-1 12 273 0 0,0 0 1 0 0,2-1-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-2-1 0 0,10 25 1 0 0,2 9 172 0 0,-1-14-360 0 0,-11-25-150 0 0,1-1 0 0 0,9 17 0 0 0,-11-24-62 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,6 3 1 0 0,27 21 915 0 0,-10-14-800 0 0,1 0 0 0 0,0-2 0 0 0,0-1 0 0 0,54 11-1 0 0,96 4 609 0 0,-122-21-394 0 0,72-4 0 0 0,96 0 286 0 0,-190 3-691 0 0,199 3 990 0 0,-85-13-751 0 0,93 8 120 0 0,-99 5-304 0 0,208 19 172 0 0,-196-10-16 0 0,281 9 764 0 0,-366-19-916 0 0,82 15 0 0 0,-19-2 308 0 0,24-7 88 0 0,41-2-109 0 0,-69-2 18 0 0,164 12-53 0 0,-182-14-320 0 0,-46-3 0 0 0,120-10 221 0 0,-88 1-138 0 0,171-12-69 0 0,-181 13 23 0 0,25-1-8 0 0,-36 9-3 0 0,10 0 77 0 0,117-14 0 0 0,-164 7-25 0 0,43 0-1 0 0,-46 5-24 0 0,-17 0-21 0 0,22 2 0 0 0,90 3 90 0 0,-85-5-62 0 0,109 13-47 0 0,-52-3-16 0 0,107-9 36 0 0,-5 0-2 0 0,40 0-31 0 0,-177 0 0 0 0,98 12 0 0 0,-144-9-1 0 0,22 2-1 0 0,0-2 0 0 0,74-3-1 0 0,9-11-14 0 0,48-6 18 0 0,-149 14-1 0 0,181-33 0 0 0,-48 15 0 0 0,-110 16 0 0 0,146-9 164 0 0,-148 11-270 0 0,66 3 0 0 0,43 14 803 0 0,-29-2-792 0 0,169 28 481 0 0,-239-30-358 0 0,-44-8-30 0 0,268 54-733 0 0,-128-27 691 0 0,-114-23-127 0 0,56 0 404 0 0,-32-3-408 0 0,-43-3 145 0 0,0-1 1 0 0,29-4 0 0 0,-1-2 189 0 0,64-10-302 0 0,-48 6 160 0 0,-35 5-12 0 0,-2 0 1 0 0,1-2-1 0 0,0-1 0 0 0,-1-1 1 0 0,-1-2-1 0 0,24-14 1 0 0,-38 20-19 0 0,-1 0 0 0 0,0-2 0 0 0,0 1-1 0 0,-1 0 1 0 0,12-16 0 0 0,-5 6 10 0 0,-9 8-8 0 0,1 0-1 0 0,9-19 1 0 0,-8 16-87 0 0,28-64-31 0 0,-31 66 139 0 0,0 1 0 0 0,-1 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,3-18-1 0 0,-5 17-13 0 0,0 1 0 0 0,0-2 0 0 0,-1 2 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 2-1 0 0,-1-2 1 0 0,0 2 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-2-1 0 0 0,-8-9 0 0 0,2 5 41 0 0,1 2 1 0 0,-1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,-22-12 1 0 0,-75-37 107 0 0,54 34-79 0 0,-76-42-188 0 0,75 38 95 0 0,0 3 1 0 0,-71-22 0 0 0,105 42 19 0 0,-86-26 6 0 0,-125-22 0 0 0,73 21 0 0 0,82 17 16 0 0,-2 6 0 0 0,1 2 0 0 0,-142 4 0 0 0,175 10-48 0 0,-2 3 0 0 0,2 2 0 0 0,-67 22 0 0 0,76-19-19 0 0,12-5 4 0 0,-1 1 0 0 0,-24 12 0 0 0,28-9 47 0 0,1 2 0 0 0,-37 27 0 0 0,50-34 0 0 0,1 2 0 0 0,-1-1 0 0 0,1 2 0 0 0,0-1 0 0 0,0 2 0 0 0,2-1 0 0 0,-1 1 0 0 0,-9 17 0 0 0,11-17 0 0 0,1-1 0 0 0,0 2 0 0 0,1-2 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 2 0 0 0,1-2 0 0 0,-1 19 0 0 0,2-3 0 0 0,0 1 0 0 0,2-1 0 0 0,8 41 0 0 0,-5-42 21 0 0,23 89 421 0 0,-23-97-349 0 0,1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,16 23 1 0 0,-11-20 6 0 0,-5-8-68 0 0,0-1 1 0 0,1 1-1 0 0,0-2 1 0 0,12 12-1 0 0,3 4-1124 0 0,-22-25 970 0 0,2-1-337 0 0,-2 0 197 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11 406 2760 0 0,'-2'28'1589'0'0,"-4"-15"196"0"0,5-11-1791 0 0,1 1 347 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 5 1 0 0,1-3-132 0 0,-1 11 273 0 0,0 0 1 0 0,2 0-1 0 0,0-1 0 0 0,1 1 1 0 0,0-1-1 0 0,9 23 1 0 0,3 9 172 0 0,-2-13-360 0 0,-10-25-150 0 0,0 0 0 0 0,9 16 0 0 0,-11-23-62 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,5 2 1 0 0,29 21 915 0 0,-11-13-800 0 0,1-1 0 0 0,0-1 0 0 0,1-1 0 0 0,56 10-1 0 0,101 4 609 0 0,-129-20-394 0 0,77-4 0 0 0,100 0 286 0 0,-199 3-691 0 0,208 3 990 0 0,-89-13-751 0 0,99 8 120 0 0,-105 5-304 0 0,218 18 172 0 0,-205-10-16 0 0,295 9 764 0 0,-385-18-916 0 0,86 14 0 0 0,-19-1 308 0 0,25-8 88 0 0,43-1-109 0 0,-73-2 18 0 0,172 11-53 0 0,-190-13-320 0 0,-49-3 0 0 0,126-10 221 0 0,-92 1-138 0 0,179-11-69 0 0,-190 12 23 0 0,27 0-8 0 0,-38 8-3 0 0,10 0 77 0 0,123-14 0 0 0,-172 7-25 0 0,45 1-1 0 0,-49 4-24 0 0,-17 0-21 0 0,23 2 0 0 0,94 3 90 0 0,-88-5-62 0 0,113 12-47 0 0,-54-2-16 0 0,113-9 36 0 0,-6 0-2 0 0,42 0-31 0 0,-186 0 0 0 0,104 11 0 0 0,-153-8-1 0 0,25 2-1 0 0,-1-2 0 0 0,77-3-1 0 0,11-11-14 0 0,49-5 18 0 0,-155 13-1 0 0,189-31 0 0 0,-50 13 0 0 0,-116 17 0 0 0,154-10 164 0 0,-156 11-270 0 0,69 3 0 0 0,46 14 803 0 0,-31-3-792 0 0,178 28 481 0 0,-251-30-358 0 0,-47-7-30 0 0,282 52-733 0 0,-134-26 691 0 0,-120-23-127 0 0,58 1 404 0 0,-33-3-408 0 0,-45-3 145 0 0,0-1 1 0 0,30-4 0 0 0,0-1 189 0 0,66-11-302 0 0,-50 7 160 0 0,-37 4-12 0 0,-1 0 1 0 0,0-1-1 0 0,0-2 0 0 0,-1-1 1 0 0,0-1-1 0 0,24-14 1 0 0,-40 19-19 0 0,0 0 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,12-15 0 0 0,-6 6 10 0 0,-8 7-8 0 0,0 1-1 0 0,10-19 1 0 0,-9 15-87 0 0,30-61-31 0 0,-33 64 139 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,3-17-1 0 0,-5 17-13 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-9-10 0 0 0,3 6 41 0 0,0 1 1 0 0,-1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,-23-12 1 0 0,-78-36 107 0 0,56 33-79 0 0,-80-40-188 0 0,80 37 95 0 0,-1 2 1 0 0,-75-21 0 0 0,111 40 19 0 0,-90-25 6 0 0,-132-20 0 0 0,77 19 0 0 0,86 17 16 0 0,-2 5 0 0 0,1 3 0 0 0,-149 3 0 0 0,183 10-48 0 0,-1 3 0 0 0,1 1 0 0 0,-69 22 0 0 0,79-19-19 0 0,12-4 4 0 0,0 1 0 0 0,-26 11 0 0 0,30-8 47 0 0,1 1 0 0 0,-39 26 0 0 0,53-32 0 0 0,0 2 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,-10 16 0 0 0,12-17 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 18 0 0 0,2-3 0 0 0,0 0 0 0 0,2 0 0 0 0,8 40 0 0 0,-4-41 21 0 0,23 85 421 0 0,-24-93-349 0 0,2 0 1 0 0,0-1-1 0 0,0 1 0 0 0,17 23 1 0 0,-11-20 6 0 0,-6-8-68 0 0,1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,11 11-1 0 0,5 4-1124 0 0,-24-24 970 0 0,2-1-337 0 0,-2 0 197 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,2 1 0 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22233,11 +22294,11 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">597 202 9216 0 0,'0'0'1084'0'0,"-6"17"2794"0"0,5-8-3341 0 0,0-9-479 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,1 2 0 0 0,0-1 121 0 0,5 5 104 0 0,3 1 120 0 0,0 1 0 0 0,11 5 0 0 0,17 14 675 0 0,-19-12-696 0 0,-13-12-300 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1 0-1 0 0,7 6 0 0 0,10 18 222 0 0,29 47 178 0 0,-8-22-472 0 0,-39-49-10 0 0,1-1 0 0 0,0 2 0 0 0,0-2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,5 3 0 0 0,12 8-744 0 0,-13-14 299 0 0,-4-2-2292 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="578.53">943 0 11600 0 0,'0'0'1053'0'0,"-9"13"-842"0"0,3-4-35 0 0,6-8-133 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 2-1 0 0,-8 4 97 0 0,1 0 1 0 0,0 2 0 0 0,-10 9-1 0 0,3-1-76 0 0,-100 106 1951 0 0,32-23-1662 0 0,70-83-319 0 0,2 0 0 0 0,0 1 1 0 0,1 1-1 0 0,-11 24 0 0 0,-5 25-424 0 0,27-66 280 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,2 0-1 0 0,0 1-850 0 0,8 7-1151 0 0,-4-7-2185 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2807.3">666 1826 5064 0 0,'0'0'4980'0'0,"14"-10"-3075"0"0,-7 10-1591 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,8-2 1 0 0,-12 3-239 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,5 0 0 0 0,17 1 362 0 0,59-8 864 0 0,-80 6-1308 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,5 2 0 0 0,-7-3-8 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 3 0 0 0,-1-3 13 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 1 13 0 0,0 2 33 0 0,-1 2-1 0 0,-1-2 1 0 0,1 0 0 0 0,-7 8-1 0 0,-5 8-189 0 0,-17 20 45 0 0,23-30 189 0 0,0-1-1 0 0,-13 24 1 0 0,20-29-90 0 0,4 1 0 0 0,-2-5 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-2 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,20 1-50 0 0,-1-1 0 0 0,0-1 1 0 0,0-1-1 0 0,35-8 1 0 0,-29 5-73 0 0,34-7-457 0 0,-37 3-3742 0 0,-15 4-273 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3359.69">672 1969 10136 0 0,'0'0'777'0'0,"11"-11"-166"0"0,6 3-395 0 0,-1 0 1 0 0,1-1 0 0 0,1 3-1 0 0,0 0 1 0 0,27-6 0 0 0,-41 11-414 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,5-2 0 0 0,-1-1-2670 0 0,2 0-994 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5153.92">419 314 1376 0 0,'0'0'8401'0'0,"-4"-7"-6892"0"0,3 5-1379 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-2 0 0 0,0 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-2 0 0 0 0,-28 4 626 0 0,13 1-513 0 0,-7 5-129 0 0,19-7-120 0 0,0 1 0 0 0,0-1 1 0 0,0-1-1 0 0,-13 2 0 0 0,9-2-29 0 0,0 0-1 0 0,-1 1 0 0 0,-12 5 1 0 0,-15 6 103 0 0,-30 12 77 0 0,58-20-272 0 0,5-2 143 0 0,-2 0 1 0 0,-15 5 0 0 0,19-9-17 0 0,0 0 10 0 0,17 24 44 0 0,-9-17-54 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 9 0 0 0,4 11 0 0 0,-4-14 0 0 0,0 2 0 0 0,-1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1 25 0 0 0,-1-14 0 0 0,-7 184 828 0 0,-5 15 50 0 0,10-171-802 0 0,-4 31-19 0 0,-1 29-21 0 0,4-37-8 0 0,2 19 63 0 0,3-53 0 0 0,0-29 38 0 0,0 0 0 0 0,7 25 1 0 0,-4-25-88 0 0,1 0-1 0 0,1 0 1 0 0,0-2 0 0 0,1 2 0 0 0,0-1 0 0 0,1-1 0 0 0,14 17-1 0 0,-19-24-42 0 0,0-1 0 0 0,1-1 0 0 0,-1 0 0 0 0,6 4 0 0 0,-6-5 16 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,5 6 1 0 0,-7-7 1 0 0,1 1-1 0 0,0-1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,3 1 1 0 0,30 10-6 0 0,-16-7-9 0 0,-14-3 6 0 0,-1-1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,8-1 0 0 0,-6 0 2 0 0,1 1 0 0 0,-1 0 0 0 0,11 1-1 0 0,-17-1-7 0 0,4-1 0 0 0,13-3 0 0 0,2 2-1 0 0,-16 2 17 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,6-2 0 0 0,-5-1 48 0 0,-5 4-62 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1 0 0 0 0,6 9-8 0 0,-7-10 6 0 0,1 3 0 0 0,-1-1 0 0 0,6 17-64 0 0,-5-18 65 0 0,1 12 12 0 0,-2-12 117 0 0,0-2-119 0 0,1 1 0 0 0,-1-2-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0-14 34 0 0,0 0-84 0 0,-2 0-1 0 0,1 0 0 0 0,-2 0 0 0 0,-4-16 0 0 0,4 27 29 0 0,1 1 2 0 0,1 4-44 0 0,8 3-154 0 0,26 6 208 0 0,-29-8 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,6 4 0 0 0,-7-5 7 0 0,-1-1-5 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 67 0 0,-2 0-49 0 0,1 0 0 0 0,-1 2-1 0 0,0-2 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,-2 3 1 0 0,-4 4 21 0 0,-6 2-43 0 0,-2 0-501 0 0,-25 25 0 0 0,37-31-1017 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">598 193 9216 0 0,'0'0'1084'0'0,"-6"16"2794"0"0,5-7-3341 0 0,0-9-479 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 2 0 0 0,0-1 121 0 0,5 5 104 0 0,3 1 120 0 0,0 0 0 0 0,11 6 0 0 0,17 13 675 0 0,-19-12-696 0 0,-13-11-300 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,7 6 0 0 0,10 17 222 0 0,29 44 178 0 0,-8-20-472 0 0,-39-47-10 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,5 3 0 0 0,12 7-744 0 0,-13-13 299 0 0,-4-2-2292 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="578.53">944 0 11600 0 0,'0'0'1053'0'0,"-9"12"-842"0"0,3-3-35 0 0,6-8-133 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 1-1 0 0,-8 5 97 0 0,1 0 1 0 0,0 1 0 0 0,-10 10-1 0 0,3-2-76 0 0,-100 102 1951 0 0,32-23-1662 0 0,70-79-319 0 0,2 1 0 0 0,0 0 1 0 0,1 1-1 0 0,-11 23 0 0 0,-5 24-424 0 0,27-63 280 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,2 1-1 0 0,0 1-850 0 0,8 7-1151 0 0,-4-7-2185 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2807.3">667 1746 5064 0 0,'0'0'4980'0'0,"14"-9"-3075"0"0,-7 9-1591 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,8-2 1 0 0,-12 3-239 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,5 0 0 0 0,17 1 362 0 0,59-8 864 0 0,-80 6-1308 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,5 2 0 0 0,-7-3-8 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 3 0 0 0,-1-3 13 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 1 13 0 0,0 2 33 0 0,-1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-7 7-1 0 0,-5 8-189 0 0,-17 20 45 0 0,23-30 189 0 0,0 0-1 0 0,-13 22 1 0 0,20-27-90 0 0,4 1 0 0 0,-2-5 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,20 1-50 0 0,-1-1 0 0 0,0-1 1 0 0,0-1-1 0 0,35-7 1 0 0,-29 4-73 0 0,34-7-457 0 0,-37 4-3742 0 0,-15 3-273 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3359.69">673 1883 10136 0 0,'0'0'777'0'0,"11"-10"-166"0"0,6 2-395 0 0,-1 0 1 0 0,1 0 0 0 0,1 2-1 0 0,0 0 1 0 0,27-5 0 0 0,-41 10-414 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,5-2 0 0 0,-1-1-2670 0 0,2 1-994 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5153.92">419 300 1376 0 0,'0'0'8401'0'0,"-4"-6"-6892"0"0,3 4-1379 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-2 0 0 0 0,-28 3 626 0 0,13 2-513 0 0,-7 5-129 0 0,19-7-120 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-13 2 0 0 0,9-2-29 0 0,0 0-1 0 0,-1 1 0 0 0,-12 4 1 0 0,-15 7 103 0 0,-30 11 77 0 0,58-20-272 0 0,5-1 143 0 0,-2 0 1 0 0,-15 5 0 0 0,19-9-17 0 0,0 0 10 0 0,17 23 44 0 0,-9-17-54 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 8 0 0 0,4 11 0 0 0,-4-13 0 0 0,0 1 0 0 0,-1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 24 0 0 0,-1-13 0 0 0,-7 176 828 0 0,-5 14 50 0 0,10-163-802 0 0,-4 29-19 0 0,-1 28-21 0 0,4-35-8 0 0,2 18 63 0 0,3-51 0 0 0,0-28 38 0 0,0 1 0 0 0,7 23 1 0 0,-4-24-88 0 0,1 1-1 0 0,1-1 1 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,14 16-1 0 0,-19-24-42 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,6 4 0 0 0,-6-5 16 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,5 6 1 0 0,-7-7 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,3 1 1 0 0,30 9-6 0 0,-16-6-9 0 0,-14-3 6 0 0,-1-1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,8-1 0 0 0,-6 0 2 0 0,1 1 0 0 0,-1 0 0 0 0,11 1-1 0 0,-17-1-7 0 0,4-1 0 0 0,13-3 0 0 0,2 2-1 0 0,-16 2 17 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,6-2 0 0 0,-5 0 48 0 0,-5 3-62 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1 0 0 0 0,6 8-8 0 0,-7-9 6 0 0,1 3 0 0 0,-1-1 0 0 0,6 16-64 0 0,-5-17 65 0 0,1 11 12 0 0,-2-11 117 0 0,0-2-119 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0-13 34 0 0,0 0-84 0 0,-2-1-1 0 0,1 1 0 0 0,-2 0 0 0 0,-4-16 0 0 0,4 26 29 0 0,1 1 2 0 0,1 4-44 0 0,8 3-154 0 0,26 6 208 0 0,-29-8 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,6 5 0 0 0,-7-5 7 0 0,-1-1-5 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 67 0 0,-2 0-49 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,-2 3 1 0 0,-4 4 21 0 0,-6 1-43 0 0,-2 1-501 0 0,-25 23 0 0 0,37-29-1017 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22301,12 +22362,12 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">333 568 13360 0 0,'0'0'1026'0'0,"-5"-14"-150"0"0,5 14-842 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,7 8 405 0 0,-5-5-448 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 2 0 0 0,20 60 42 0 0,15 71 0 0 0,-17-58-29 0 0,13 71-6 0 0,3 11 200 0 0,-8-55-91 0 0,31 94-394 0 0,-54-185 140 0 0,4 9 191 0 0,-8-9-5464 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="391.22">0 745 14712 0 0,'0'0'1334'0'0,"2"-1"-1095"0"0,44-17 971 0 0,-31 12-1132 0 0,0 0-1 0 0,-1-1 0 0 0,0 0 0 0 0,16-11 0 0 0,-20 12-47 0 0,17-13 6 0 0,31-26-1 0 0,-32 23 29 0 0,33-20-1 0 0,166-90-215 0 0,-141 88-2123 0 0,-70 36-3407 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="780.92">164 1073 3224 0 0,'4'-5'2790'0'0,"5"-3"298"0"0,-1-1 1 0 0,12-6-1 0 0,5-5-2459 0 0,1-3-527 0 0,1 1 1 0 0,55-35 0 0 0,185-89-163 0 0,-234 128-53 0 0,-16 9-181 0 0,21-14 1 0 0,-28 16-203 0 0,0 2 1 0 0,16-7-1 0 0,-16 7-69 0 0,4-2-423 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1343.3">711 343 10912 0 0,'-1'-6'530'0'0,"-5"-26"140"0"0,3 27 1544 0 0,3 7-1940 0 0,1 10-129 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,6 20 0 0 0,19 46 97 0 0,-23-66-196 0 0,64 209 226 0 0,-28-85-245 0 0,-28-88-27 0 0,-7-28 0 0 0,7 20 0 0 0,-6-20 4 0 0,0-1 0 0 0,-1 1 0 0 0,4 21 0 0 0,-6-24 56 0 0,10 29 1 0 0,-1-8-6 0 0,-11-32-55 0 0,0-1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,5 5 0 0 0,-5-3 10 0 0,-9-36-192 0 0,-36-152 170 0 0,39 171 12 0 0,-1-2 0 0 0,-7-14 1 0 0,-3-13-14 0 0,-49-163 100 0 0,13 43 167 0 0,49 158-270 0 0,-2-6-39 0 0,1-1-1 0 0,0 2 0 0 0,0-2 0 0 0,-1-15 0 0 0,20 32-21 0 0,-3 2 58 0 0,0 1 0 0 0,-2 2 0 0 0,16 14 0 0 0,6 8 155 0 0,32 21 65 0 0,116 109-403 0 0,-99-87 102 0 0,-59-55 96 0 0,-14-15 5 0 0,0 1 1 0 0,0-2 0 0 0,0 2-1 0 0,1-2 1 0 0,0-1 0 0 0,0 1-1 0 0,22 5 1 0 0,-32-10 20 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-2 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-2-1 0 0,1 2 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-2-1 0 0,1-6 182 0 0,-1 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-2-8 0 0 0,3 13-141 0 0,-5-22 353 0 0,0 0 1 0 0,-2 1-1 0 0,-13-37 0 0 0,13 48-288 0 0,-71-147 312 0 0,-25-23-387 0 0,50 87-542 0 0,50 93 359 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-7 1 0 0,-2-2-973 0 0,3 12 762 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,6-8-1337 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1862.12">1329 77 16208 0 0,'0'0'786'0'0,"-10"7"195"0"0,-2 4-965 0 0,11-10-16 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 1 0 0 0,-1-2 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 3 0 0 0,1-4 0 0 0,-1 3 0 0 0,2 14 0 0 0,-1-16-15 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 2-1 0 0,0-2 1 0 0,0 0 0 0 0,2 1-1 0 0,-2-1 16 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,1 0 27 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-2 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-8 0 0 0,2-5 216 0 0,-2 13-224 0 0,1 1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1-1 1 0 0,-1 2 0 0 0,1-1 0 0 0,-3-2-1 0 0,1 1 12 0 0,1 0-13 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 2 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 2-1 0 0,0-1 1 0 0,0 1 0 0 0,-6-2-1 0 0,7 3-49 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-4 3 0 0 0,5-2-163 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 2 0 0 0,1-2 0 0 0,-1 4 0 0 0,1 5-1353 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2268.54">1618 454 8840 0 0,'-4'4'-311'0'0,"4"-3"563"0"0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 267 0 0,-8-11-25 0 0,8 9-476 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 2 0 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-3-1 0 0 0,0 0 21 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-8 0 0 0 0,11 0-17 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,3-4-5 0 0,-3 4 95 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 6 0 0 0,-1 1-63 0 0,3-10-50 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,2 1 0 0 0,3 11 0 0 0,-1-3 0 0 0,14 3 0 0 0,8-4 336 0 0,-25-10-305 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,7-2 107 0 0,-8 3-34 0 0,6-7-343 0 0,2-1-4097 0 0,-1 4-952 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">333 543 13360 0 0,'0'0'1026'0'0,"-5"-13"-150"0"0,5 13-842 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,7 7 405 0 0,-5-4-448 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 2 0 0 0,20 57 42 0 0,15 68 0 0 0,-17-56-29 0 0,13 69-6 0 0,3 10 200 0 0,-8-53-91 0 0,31 90-394 0 0,-54-176 140 0 0,4 8 191 0 0,-8-9-5464 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="391.22">0 712 14712 0 0,'0'0'1334'0'0,"2"-1"-1095"0"0,44-16 971 0 0,-31 11-1132 0 0,0 1-1 0 0,-1-2 0 0 0,0 0 0 0 0,16-10 0 0 0,-20 11-47 0 0,17-12 6 0 0,31-25-1 0 0,-32 22 29 0 0,33-19-1 0 0,166-86-215 0 0,-141 84-2123 0 0,-70 34-3407 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="780.92">164 1026 3224 0 0,'4'-5'2790'0'0,"5"-3"298"0"0,-1 0 1 0 0,12-7-1 0 0,5-4-2459 0 0,1-3-527 0 0,1 1 1 0 0,55-33 0 0 0,185-86-163 0 0,-234 123-53 0 0,-16 8-181 0 0,21-13 1 0 0,-28 16-203 0 0,0 1 1 0 0,16-7-1 0 0,-16 8-69 0 0,4-3-423 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1343.3">711 328 10912 0 0,'-1'-6'530'0'0,"-5"-24"140"0"0,3 25 1544 0 0,3 7-1940 0 0,1 9-129 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,6 18 0 0 0,19 45 97 0 0,-23-64-196 0 0,65 201 226 0 0,-29-82-245 0 0,-28-84-27 0 0,-7-27 0 0 0,7 19 0 0 0,-6-19 4 0 0,0 0 0 0 0,-1 0 0 0 0,4 20 0 0 0,-6-23 56 0 0,10 28 1 0 0,-1-7-6 0 0,-11-32-55 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,5 4 0 0 0,-5-2 10 0 0,-9-34-192 0 0,-36-146 170 0 0,39 163 12 0 0,-1-1 0 0 0,-7-14 1 0 0,-3-12-14 0 0,-49-156 100 0 0,12 41 167 0 0,50 151-270 0 0,-2-6-39 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1-15 0 0 0,20 30-21 0 0,-3 3 58 0 0,0 1 0 0 0,-1 1 0 0 0,15 14 0 0 0,6 7 155 0 0,32 21 65 0 0,116 104-403 0 0,-99-84 102 0 0,-59-52 96 0 0,-14-14 5 0 0,0 1 1 0 0,0-2 0 0 0,0 1-1 0 0,1-1 1 0 0,0-1 0 0 0,0 0-1 0 0,22 6 1 0 0,-32-10 20 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-2 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-2-1 0 0,1-5 182 0 0,-1-1 0 0 0,1 1 0 0 0,-2 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,-2-9 0 0 0,3 14-141 0 0,-5-22 353 0 0,0 0 1 0 0,-2 1-1 0 0,-13-35 0 0 0,13 45-288 0 0,-71-140 312 0 0,-25-21-387 0 0,50 82-542 0 0,50 89 359 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-6 1 0 0,-2-2-973 0 0,3 11 762 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,6-7-1337 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1862.12">1330 74 16208 0 0,'0'0'786'0'0,"-10"6"195"0"0,-2 5-965 0 0,11-10-16 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 3 0 0 0,1-4 0 0 0,-1 3 0 0 0,2 13 0 0 0,-1-15-15 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,2 1-1 0 0,-2-1 16 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,1 0 27 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-7 0 0 0,2-6 216 0 0,-2 14-224 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-3-2-1 0 0,1 1 12 0 0,1 0-13 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-6-2-1 0 0,7 3-49 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-4 3 0 0 0,5-2-163 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 4 0 0 0,1 5-1353 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2268.54">1619 434 8840 0 0,'-4'4'-311'0'0,"4"-3"563"0"0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 267 0 0,-8-10-25 0 0,8 8-476 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-3-1 0 0 0,0 0 21 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-8 0 0 0 0,11 0-17 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 2 0 0 0,3-3-5 0 0,-3 4 95 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 6 0 0 0,-1 0-63 0 0,3-9-50 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,2 1 0 0 0,3 11 0 0 0,-1-4 0 0 0,14 3 0 0 0,8-3 336 0 0,-25-10-305 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,7-2 107 0 0,-8 3-34 0 0,6-6-343 0 0,2-2-4097 0 0,-1 4-952 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22370,11 +22431,11 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">115 1516 7832 0 0,'-1'0'66'0'0,"-1"-1"0"0"0,2 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1-1 0 0 0,-1 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1-2 0 0 0,1 2 34 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-2 1 0 0,0 2 0 0 0,0-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-34 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-2 1 0 0,-1-17 494 0 0,-1-1 0 0 0,-1 2 0 0 0,0-1 0 0 0,-6-19 0 0 0,-4-27-197 0 0,7 35-264 0 0,-15-45-1 0 0,13 46-23 0 0,-7-5-60 0 0,15 34-17 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 6-13 0 0,1 6-30 0 0,2 1-1 0 0,1 14 1 0 0,2 5 6 0 0,-3-14 14 0 0,2 0-1 0 0,-1 0 1 0 0,2 0-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,13 16 1 0 0,90 129 103 0 0,-87-130-80 0 0,-2 1 0 0 0,33 62 0 0 0,-51-87-12 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 2 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 15 0 0 0,-2-23 16 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 2-1 0 0,0-2 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-3 0 47 0 0,-1-1-31 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-4-4 0 0 0,-17-5-12 0 0,9-1 99 0 0,22 7-225 0 0,0 1 0 0 0,13-3 1 0 0,43-13-70 0 0,-54 16 184 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,9-8 1 0 0,-10 8-170 0 0,0-1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,-1-1-1 0 0,1-2 1 0 0,-1 2-1 0 0,6-12 1 0 0,-8 8-4942 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="388.59">284 978 12816 0 0,'5'7'618'0'0,"12"17"-327"0"0,-2 0-1 0 0,25 52 0 0 0,-7-10-103 0 0,64 119-497 0 0,-66-128-1060 0 0,-31-57 1306 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 1-1 0 0,0 1-763 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="735.19">150 1154 7368 0 0,'-4'-11'960'0'0,"4"11"-877"0"0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-2-1 0 0,23-36 3684 0 0,-21 32-3635 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 2-1 0 0,0-1 0 0 0,7-5 0 0 0,6-9-13 0 0,35-39-120 0 0,-26 30 35 0 0,35-49 0 0 0,-59 75-64 0 0,55-85-2478 0 0,-49 77 1161 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="736.19">336 1300 5064 0 0,'12'-14'448'0'0,"-7"6"-352"0"0,3-1-96 0 0,-2-2 0 0 0,2-9 648 0 0,3 2 120 0 0,2-2 16 0 0,-2-1 8 0 0,1-2-632 0 0,-2 0-160 0 0,0 2 0 0 0,4 0 0 0 0,-2 2 0 0 0,-1-1-160 0 0,2 2 16 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1224.3">593 755 4144 0 0,'0'0'319'0'0,"3"15"69"0"0,-2-11 307 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 2 0 0 0,3 3 0 0 0,25 46-69 0 0,-14-28-696 0 0,-2 2 0 0 0,14 37 0 0 0,-23-48 59 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,-1 0 0 0 0,3 32 1 0 0,-4-42 1 0 0,-2-7 14 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 3 1 0 0,0-3 422 0 0,-4-4 23 0 0,1-2-435 0 0,0-2 0 0 0,1 2 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-2 0 0 0,-2-5 0 0 0,-3-11 148 0 0,-3-6 66 0 0,6 15-144 0 0,-1 2-1 0 0,-8-18 1 0 0,-6-7-87 0 0,-11-21 64 0 0,17 39-26 0 0,-18-28 20 0 0,21 30 34 0 0,10 17-88 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,10 5 28 0 0,149 104-216 0 0,-146-100 172 0 0,1-1 1 0 0,0-1 0 0 0,1-1-1 0 0,0 1 1 0 0,18 2 0 0 0,-25-7 72 0 0,-1-1 1 0 0,1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,2 0 1 0 0,10-3 0 0 0,-15 3-29 0 0,-2 0 0 0 0,2 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-2-1 1 0 0,2 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,1-7 1 0 0,0-6 170 0 0,0 0 1 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-1 2 0 0 0,0-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,-10-21-1 0 0,16 35-201 0 0,-5-10-73 0 0,-1 1 0 0 0,0-1 0 0 0,0 2 0 0 0,-1-1 0 0 0,-12-13-1 0 0,6 8-414 0 0,10 12 333 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-7-5 0 0 0,7 7-597 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,2 0 0 0 0,-5 0 0 0 0,-2 1-4591 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">132 1477 7832 0 0,'-1'0'66'0'0,"-1"-1"0"0"0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1-2 0 0 0,1 2 34 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-34 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-2 1 0 0,-1-16 494 0 0,-1-1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,-6-19 0 0 0,-5-25-197 0 0,8 33-264 0 0,-17-43-1 0 0,15 44-23 0 0,-8-5-60 0 0,17 33-17 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 6-13 0 0,1 6-30 0 0,2 0-1 0 0,2 14 1 0 0,1 5 6 0 0,-2-14 14 0 0,1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,1 0 1 0 0,1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,15 16 1 0 0,104 124 103 0 0,-101-125-80 0 0,-1 0 0 0 0,37 61 0 0 0,-59-85-12 0 0,1 0 0 0 0,-2 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1 14 0 0 0,-2-22 16 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,-2 0 47 0 0,-1-1-31 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,-4-3 0 0 0,-20-6-12 0 0,11-1 99 0 0,25 8-225 0 0,0 0 0 0 0,15-3 1 0 0,50-12-70 0 0,-63 15 184 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,10-7 1 0 0,-11 7-170 0 0,0-1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,-1-1-1 0 0,1-1 1 0 0,-1 1-1 0 0,6-11 1 0 0,-8 7-4942 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="388.59">326 960 12816 0 0,'6'7'618'0'0,"13"16"-327"0"0,-1 0-1 0 0,27 50 0 0 0,-7-10-103 0 0,74 115-497 0 0,-77-123-1060 0 0,-35-55 1306 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 1-1 0 0,0 0-763 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="735.19">172 1129 7368 0 0,'-5'-10'960'0'0,"5"10"-877"0"0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-2-1 0 0,27-34 3684 0 0,-25 30-3635 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,7-5 0 0 0,8-8-13 0 0,40-38-120 0 0,-30 29 35 0 0,40-47 0 0 0,-68 72-64 0 0,63-81-2478 0 0,-56 73 1161 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="736.19">386 1270 5064 0 0,'13'-14'448'0'0,"-7"6"-352"0"0,3 0-96 0 0,-2-3 0 0 0,2-8 648 0 0,4 2 120 0 0,2-3 16 0 0,-2 0 8 0 0,0-2-632 0 0,-1 0-160 0 0,0 2 0 0 0,4 0 0 0 0,-3 1 0 0 0,0 0-160 0 0,2 2 16 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1224.3">681 746 4144 0 0,'0'0'319'0'0,"3"14"69"0"0,-2-10 307 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,4 4 0 0 0,29 44-69 0 0,-17-27-696 0 0,-2 2 0 0 0,16 35 0 0 0,-26-45 59 0 0,0 0 0 0 0,0 0 1 0 0,-2 1-1 0 0,0-1 0 0 0,2 31 1 0 0,-3-40 1 0 0,-3-7 14 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 3 1 0 0,0-3 422 0 0,-4-4 23 0 0,0-2-435 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1-6 0 0 0,-5-10 148 0 0,-2-6 66 0 0,6 15-144 0 0,0 1-1 0 0,-10-17 1 0 0,-7-6-87 0 0,-13-21 64 0 0,21 38-26 0 0,-22-28 20 0 0,24 30 34 0 0,12 16-88 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,11 5 28 0 0,172 100-216 0 0,-168-97 172 0 0,1 0 1 0 0,0-1 0 0 0,1-1-1 0 0,0 0 1 0 0,21 3 0 0 0,-29-7 72 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 0 1 0 0,12-3 0 0 0,-18 3-29 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-7 1 0 0,1-5 170 0 0,-1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-13-19-1 0 0,19 33-201 0 0,-6-10-73 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1 0 0 0 0,-14-14-1 0 0,7 9-414 0 0,12 11 333 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-7-4 0 0 0,8 6-597 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-5 0 0 0 0,-2 1-4591 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22406,12 +22467,12 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">764 643 6912 0 0,'0'0'528'0'0,"-6"-14"4032"0"0,7 13-4527 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-2 0 0 0,0 2 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 2 1 0 0,33 10 1028 0 0,-24-8-904 0 0,77 32-114 0 0,-37-14-24 0 0,-38-16-8 0 0,0 2 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 1 1 0 0,13 12-1 0 0,-14-8 235 0 0,-10-12 532 0 0,-14-11 966 0 0,6 5-1342 0 0,0-1 1 0 0,1 1-1 0 0,0-2 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-7-14-1 0 0,0-3-72 0 0,-14-34-1 0 0,-3-24-892 0 0,3-2 0 0 0,3-1 0 0 0,-21-148 0 0 0,35 147-5136 0 0,5 42 110 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2913.4">41 2726 4608 0 0,'-11'-30'842'0'0,"8"22"134"0"0,0 0-1 0 0,-4-15 1 0 0,1-3 469 0 0,2-1 0 0 0,-3-48 0 0 0,7 55-1203 0 0,1-2 0 0 0,0 0 0 0 0,2 1 0 0 0,0-1 0 0 0,1 2 0 0 0,2-1 0 0 0,12-36 0 0 0,-15 51-224 0 0,1 1 0 0 0,-1-2 0 0 0,1 1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 1 0 0 0,1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-2 0 0 0,0 2 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,9-3-1 0 0,-10 4-10 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,3 5 0 0 0,3 7-27 0 0,0-1 0 0 0,-1 2 1 0 0,-1 0-1 0 0,-1-1 0 0 0,7 26 1 0 0,16 85-222 0 0,-20-73 169 0 0,-3 1 0 0 0,-2 0 0 0 0,-3-1 0 0 0,-1 1 0 0 0,-3 0 0 0 0,-18 97 1 0 0,17-132 205 0 0,0 0 1 0 0,-2-1 0 0 0,0 0 0 0 0,-12 22 0 0 0,14-30-54 0 0,-1-1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-2 1-1 0 0,1-1 1 0 0,-13 10 0 0 0,13-13 15 0 0,-1 2 33 0 0,-1-1 0 0 0,0 1 0 0 0,-12 5 0 0 0,18-10-61 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-6-2-1 0 0,7 2-33 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-2-1 0 0,-1 2 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,2-2 0 0 0,-1-2-22 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 2-1 0 0,5-8 0 0 0,2-1-12 0 0,1 2 0 0 0,1-1 0 0 0,-1 1 0 0 0,2 2 0 0 0,0-2-1 0 0,21-12 1 0 0,-10 11-67 0 0,0-1 0 0 0,1 2 0 0 0,30-9 0 0 0,-36 13 7 0 0,27-15 0 0 0,-12 4 7 0 0,-20 13-201 0 0,-1-2-1 0 0,0 1 1 0 0,-1-3-1 0 0,0 2 0 0 0,0-2 1 0 0,-1-1-1 0 0,0 1 0 0 0,-1-2 1 0 0,0 1-1 0 0,15-23 1 0 0,-12 11-5397 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3274.06">413 2038 15320 0 0,'0'0'1534'0'0,"1"1"-1403"0"0,7 12-138 0 0,1 1 1 0 0,1-2-1 0 0,15 17 0 0 0,15 19-110 0 0,71 98-189 0 0,-47-63-10 0 0,-37-46-1016 0 0,3 0 1 0 0,50 48-1 0 0,-74-80 1016 0 0,0-1 1 0 0,0 0-1 0 0,14 7 1 0 0,-15-8 137 0 0,-2 0-78 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3632.15">416 2117 12896 0 0,'0'0'1400'0'0,"6"-2"-1400"0"0,3-4 0 0 0,-3-2 0 0 0,7-1 544 0 0,0 0 72 0 0,3-5 24 0 0,-5-1-1 0 0,2-1-511 0 0,0 1-128 0 0,-4-6 0 0 0,4 4 0 0 0,3 2-559 0 0,-4 1-161 0 0,13-21-32 0 0,-3 9-8 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3633.15">485 2512 13272 0 0,'0'0'605'0'0,"6"-5"206"0"0,-2 2-802 0 0,-1 2-4 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,2-5 0 0 0,4-5 31 0 0,1-1 0 0 0,20-19 1 0 0,-1 2-39 0 0,-24 25-223 0 0,63-75 662 0 0,-38 47-4500 0 0,-13 15-670 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4181.42">786 1784 10136 0 0,'0'7'1049'0'0,"2"6"-430"0"0,-1 1 0 0 0,2-1 0 0 0,0 0-1 0 0,5 17 1 0 0,0-3-401 0 0,1 1-217 0 0,1 0 1 0 0,1-1-1 0 0,1 0 0 0 0,22 34 1 0 0,2-9-205 0 0,2 5-444 0 0,0-2-1173 0 0,-31-45 1290 0 0,-2-3 173 0 0,-13-9 659 0 0,-1-3-33 0 0,1 0 0 0 0,0-1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,-8-14 0 0 0,-3-9-137 0 0,-19-48 0 0 0,12 24-194 0 0,-32-76-296 0 0,54 120 454 0 0,3 11-93 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,16 10 187 0 0,-14-8-174 0 0,28 21 146 0 0,-24-15-157 0 0,0-3 0 0 0,1 1 0 0 0,0-1-1 0 0,13 8 1 0 0,28 9 42 0 0,9 5-124 0 0,99 31 1 0 0,-146-55 67 0 0,1-1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,0-1-1 0 0,16-1 1 0 0,-27 1 34 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,2-3 0 0 0,-2 2 103 0 0,0 0 1 0 0,1 0-1 0 0,-2-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,0-2 1 0 0,1 2-1 0 0,-1-1 1 0 0,0-4-1 0 0,-2-5 532 0 0,1-1-1 0 0,-2 1 1 0 0,0-1 0 0 0,-6-16-1 0 0,6 20-422 0 0,-3-8-52 0 0,0 2 1 0 0,-1-1-1 0 0,-1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 1 0 0 0,-1 0-1 0 0,-1 1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-23-16-1 0 0,-170-119-1116 0 0,188 137-801 0 0,0-1-5271 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">764 620 6912 0 0,'0'0'528'0'0,"-6"-14"4032"0"0,7 13-4527 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,33 11 1028 0 0,-24-8-904 0 0,77 31-114 0 0,-37-14-24 0 0,-38-15-8 0 0,0 1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 1 0 0,13 13-1 0 0,-14-9 235 0 0,-10-11 532 0 0,-14-10 966 0 0,6 4-1342 0 0,0-1 1 0 0,1 1-1 0 0,0-2 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-7-13-1 0 0,0-3-72 0 0,-14-33-1 0 0,-3-23-892 0 0,3-2 0 0 0,3-1 0 0 0,-21-143 0 0 0,35 142-5136 0 0,5 41 110 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2913.4">41 2628 4608 0 0,'-11'-29'842'0'0,"8"21"134"0"0,0 0-1 0 0,-4-14 1 0 0,1-3 469 0 0,2-1 0 0 0,-3-46 0 0 0,7 52-1203 0 0,1-1 0 0 0,0 0 0 0 0,2 1 0 0 0,0-1 0 0 0,1 1 0 0 0,2 0 0 0 0,12-35 0 0 0,-15 49-224 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,9-3-1 0 0,-10 4-10 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,3 5 0 0 0,3 6-27 0 0,0 0 0 0 0,-1 1 1 0 0,-1 0-1 0 0,-1 0 0 0 0,7 24 1 0 0,16 83-222 0 0,-20-71 169 0 0,-3 1 0 0 0,-2 0 0 0 0,-3-1 0 0 0,-1 1 0 0 0,-3 0 0 0 0,-18 94 1 0 0,17-128 205 0 0,0 0 1 0 0,-2 0 0 0 0,0-1 0 0 0,-12 22 0 0 0,14-30-54 0 0,-1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-2 0-1 0 0,1 0 1 0 0,-13 9 0 0 0,13-12 15 0 0,-1 2 33 0 0,-1-1 0 0 0,0 1 0 0 0,-12 4 0 0 0,18-9-61 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-6-2-1 0 0,7 2-33 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,2-2 0 0 0,-1-2-22 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,5-8 0 0 0,2 0-12 0 0,1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 2 0 0 0,0-1-1 0 0,21-12 1 0 0,-10 10-67 0 0,0 0 0 0 0,1 1 0 0 0,30-8 0 0 0,-36 12 7 0 0,27-14 0 0 0,-12 4 7 0 0,-20 12-201 0 0,-1-2-1 0 0,0 1 1 0 0,-1-2-1 0 0,0 1 0 0 0,0-2 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,15-22 1 0 0,-12 11-5397 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3274.06">413 1964 15320 0 0,'0'0'1534'0'0,"1"1"-1403"0"0,7 12-138 0 0,1 0 1 0 0,1-1-1 0 0,15 16 0 0 0,15 18-110 0 0,71 95-189 0 0,-47-61-10 0 0,-37-44-1016 0 0,3-1 1 0 0,50 47-1 0 0,-74-77 1016 0 0,0-1 1 0 0,0 0-1 0 0,14 6 1 0 0,-15-7 137 0 0,-2 0-78 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3632.15">416 2041 12896 0 0,'0'0'1400'0'0,"6"-2"-1400"0"0,3-4 0 0 0,-3-2 0 0 0,7-1 544 0 0,0 1 72 0 0,3-6 24 0 0,-5 0-1 0 0,2-2-511 0 0,0 2-128 0 0,-4-6 0 0 0,4 3 0 0 0,3 3-559 0 0,-4 0-161 0 0,13-19-32 0 0,-3 8-8 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3633.15">485 2421 13272 0 0,'0'0'605'0'0,"6"-5"206"0"0,-2 3-802 0 0,-1 1-4 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,2-4 0 0 0,4-6 31 0 0,1 0 0 0 0,20-19 1 0 0,-1 2-39 0 0,-24 24-223 0 0,63-72 662 0 0,-38 45-4500 0 0,-13 15-670 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4181.42">786 1720 10136 0 0,'0'6'1049'0'0,"2"7"-430"0"0,-1 0 0 0 0,2 0 0 0 0,0-1-1 0 0,5 17 1 0 0,0-3-401 0 0,1 1-217 0 0,1 0 1 0 0,1-1-1 0 0,1 0 0 0 0,22 33 1 0 0,2-9-205 0 0,2 5-444 0 0,0-2-1173 0 0,-31-43 1290 0 0,-2-3 173 0 0,-13-9 659 0 0,-1-3-33 0 0,1 0 0 0 0,0-1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-8-13 0 0 0,-3-9-137 0 0,-19-46 0 0 0,12 23-194 0 0,-32-74-296 0 0,54 117 454 0 0,3 10-93 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,16 9 187 0 0,-14-7-174 0 0,28 21 146 0 0,-24-16-157 0 0,0-2 0 0 0,1 1 0 0 0,0-1-1 0 0,13 7 1 0 0,28 9 42 0 0,9 5-124 0 0,99 30 1 0 0,-146-53 67 0 0,1-1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,0-1-1 0 0,16-1 1 0 0,-27 1 34 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,2-3 0 0 0,-2 2 103 0 0,0 0 1 0 0,1 0-1 0 0,-2-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0-4-1 0 0,-2-5 532 0 0,1 0-1 0 0,-2 0 1 0 0,0 0 0 0 0,-6-16-1 0 0,6 19-422 0 0,-3-7-52 0 0,0 1 1 0 0,-1 0-1 0 0,-1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 1-1 0 0,-1 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,-23-16-1 0 0,-170-115-1116 0 0,188 133-801 0 0,0-2-5271 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22476,17 +22537,17 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">161 1118 10592 0 0,'0'0'3012'0'0,"3"6"-1074"0"0,0 4-1725 0 0,0 0-1 0 0,7 13 1 0 0,1 6-193 0 0,25 102-20 0 0,8 17-12 0 0,-18-56-86 0 0,-1-8 32 0 0,-12-45 67 0 0,57 158-74 0 0,-58-161 12 0 0,-8-25-50 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,9 13 0 0 0,-12-21 62 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 5 0 0 0,-1-5-47 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1-1 0 0 0,3 4 0 0 0,5 5-493 0 0,-3-2-3 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="389.96">1 1649 14544 0 0,'0'0'1100'0'0,"1"-1"-744"0"0,137-98 595 0 0,-118 84-915 0 0,-1-3 0 0 0,0 0 1 0 0,19-26-1 0 0,16-15-82 0 0,-35 40-154 0 0,-8 6-126 0 0,0 2-1 0 0,25-18 0 0 0,-18 15-1718 0 0,21-19 0 0 0,-31 25 1 0 0,7-5-2164 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="763.71">152 1774 17911 0 0,'0'0'820'0'0,"2"-1"-16"0"0,16-5-802 0 0,-1-2-1 0 0,1 0 0 0 0,-1-1 1 0 0,0-2-1 0 0,-1 1 0 0 0,18-15 1 0 0,5-5-448 0 0,-11 14 9 0 0,-19 9 189 0 0,1 2 0 0 0,10-11 0 0 0,-3 4-301 0 0,1 0 0 0 0,-1 2 0 0 0,34-14-1 0 0,-15 7-514 0 0,-19 8-1048 0 0,20-16 0 0 0,-33 22 1829 0 0,18-10-1363 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1201.5">595 1196 14368 0 0,'0'0'30'0'0,"0"0"1"0"0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,8 22 58 0 0,0 2-36 0 0,27 98-54 0 0,1 7 1 0 0,-26-93-25 0 0,-5-23-14 0 0,-3 1-1 0 0,5 17 1 0 0,7 36-424 0 0,-3-30 607 0 0,-43-168-105 0 0,16 70-262 0 0,7 29 171 0 0,-1-2-7 0 0,-28-66 1 0 0,-4 16 126 0 0,42 81 232 0 0,6 7-168 0 0,7 11 56 0 0,-1 7-82 0 0,2-1 0 0 0,1-1 0 0 0,29 33-1 0 0,-31-39-105 0 0,-5-7 0 0 0,0 1 0 0 0,-1-2 0 0 0,2 1 0 0 0,12 8 0 0 0,-8-9 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,1-2 0 0 0,0-1 0 0 0,-1 0 0 0 0,19 1 0 0 0,-16-3-5 0 0,0 0 0 0 0,32-3 0 0 0,-43 1 17 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1-2 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,6-6-1 0 0,-8 7 23 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-2-1 0 0 0,0 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,-2-4-1 0 0,0-6 112 0 0,-1 2 0 0 0,-9-21 1 0 0,12 31-149 0 0,-2-6 3 0 0,-1 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,-4-6 1 0 0,-9-13 19 0 0,9 11 31 0 0,-1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,-17-14 1 0 0,3 4-435 0 0,-56-32-1 0 0,44 28-3130 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1565.54">1059 919 12752 0 0,'0'0'618'0'0,"1"2"-267"0"0,12 20 100 0 0,-9-12-440 0 0,1-2 0 0 0,11 14 0 0 0,-7-7 53 0 0,-3-12-53 0 0,-2-1-1 0 0,-4-2-3 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,5-12 150 0 0,-5 8-73 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,-3-9 0 0 0,-1-7 283 0 0,4 17-347 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-2 0 0 0,-1 2 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,-6-5 0 0 0,5 7-61 0 0,3 1-171 0 0,-11 9-4590 0 0,11-1 117 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1924.9">1293 1144 3680 0 0,'1'0'284'0'0,"11"7"603"0"0,-10-7-245 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,1-1 0 0 0,5-3-406 0 0,-7 3-192 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1-1 1 0 0,0 2 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,0-2 0 0 0,-4-4-11 0 0,1 2 1 0 0,0 0 0 0 0,-1-1 0 0 0,-12-10 0 0 0,16 16-6 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-5-1-1 0 0,5 1 3 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1-1 0 0 0,-1 3 0 0 0,-1 2-15 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 1 0 0,2-1-1 0 0,-5 13 0 0 0,1-5-518 0 0,3-8 213 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2687.61">1843 862 14224 0 0,'0'0'322'0'0,"-1"-17"781"0"0,-3-16-961 0 0,-5-30-5 0 0,-2 13-89 0 0,-3 0 0 0 0,-29-77 0 0 0,-3-1 54 0 0,32 81-76 0 0,14 47-14 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-2 0 0 0,0 2 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,-3 10 169 0 0,3 19-6 0 0,4-10-175 0 0,0 0 0 0 0,1 0 0 0 0,1-2 0 0 0,1 2 0 0 0,0-1 0 0 0,2-1 0 0 0,13 25 0 0 0,-13-27-1 0 0,1-1 0 0 0,12 15 0 0 0,9 13 0 0 0,45 67-64 0 0,-68-95 53 0 0,1 0-1 0 0,6 16 1 0 0,-12-26 9 0 0,0 1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-2-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 8 0 0 0,-1 0 44 0 0,1-11-35 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-2 4 1 0 0,-2 1 30 0 0,4-6-36 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,-2 0 0 0 0,-46 28-1 0 0,50-29 10 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,6-8 19 0 0,17-13-184 0 0,4-3 38 0 0,46-53-1 0 0,-44 40-820 0 0,-19 19-3855 0 0,-5 7-19 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3034.86">1873 246 3224 0 0,'-25'-7'9003'0'0,"26"11"-6240"0"0,5 10-4222 0 0,-3-7 2377 0 0,81 154-279 0 0,-32-80-774 0 0,0-1 142 0 0,28 63-831 0 0,-80-142 461 0 0,4 3 514 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3383.13">1719 503 16208 0 0,'0'0'1627'0'0,"1"-2"-1487"0"0,7-2-131 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-2-2 0 0 0,1 1-1 0 0,-2 0 1 0 0,11-13 0 0 0,0 1 0 0 0,9-13 13 0 0,-17 20 10 0 0,0 1 1 0 0,1 1 0 0 0,14-14-1 0 0,6-5-113 0 0,-23 21-20 0 0,2 1 0 0 0,-1 0 0 0 0,8-6 0 0 0,30-22-1213 0 0,-30 19-686 0 0,-9 10-3256 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3756.62">1883 590 11600 0 0,'0'0'1053'0'0,"10"8"70"0"0,-8-8-1099 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,3-3 0 0 0,3-2-92 0 0,-1-1-1 0 0,9-11 0 0 0,-12 13 45 0 0,91-113-6168 0 0,-79 98 4624 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4106.06">2061 125 14600 0 0,'0'0'705'0'0,"0"1"-310"0"0,3 6-290 0 0,-1-2 0 0 0,1 0 1 0 0,0 0-1 0 0,7 8 1 0 0,8 15-133 0 0,55 107 27 0 0,-19-30-472 0 0,-45-89 326 0 0,-7-12 175 0 0,1 0 1 0 0,-1 2-1 0 0,1-2 0 0 0,0-1 1 0 0,5 6-1 0 0,7 8 61 0 0,-15-16-90 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1-8 9 0 0,1 9-7 0 0,-1-7 6 0 0,0 1 0 0 0,-1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,-5-10 0 0 0,-25-30 67 0 0,17 24 39 0 0,-21-22-90 0 0,26 30-1 0 0,0 0-1 0 0,0 0 1 0 0,-13-25-1 0 0,18 30 10 0 0,4 3-17 0 0,-1 2-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-2-7 0 0 0,2 7 8 0 0,2 4-17 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,6-1 169 0 0,4 2 22 0 0,-4 1-126 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,7 7 0 0 0,6 2 46 0 0,7 6 14 0 0,-9-6-9 0 0,26 14-1 0 0,-2-5-37 0 0,44 19-134 0 0,-72-35-22 0 0,-1-1-1 0 0,2-1 1 0 0,-1 0-1 0 0,-1-1 1 0 0,2-1-1 0 0,11 0 0 0 0,-15-1 29 0 0,4 1 78 0 0,0-1 0 0 0,1-1 0 0 0,20-4 0 0 0,-29 4 13 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0-1 1 0 0,4-6-1 0 0,-5 7 21 0 0,-1 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-2 0 0 0,1 1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-6 0 0 0,-1 4 48 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-2 2 0 0 0,1-1 0 0 0,-5-5 1 0 0,-2-4 87 0 0,-2 0 1 0 0,0 2 0 0 0,1-1 0 0 0,-24-16 0 0 0,21 18-178 0 0,-1 1 0 0 0,0 1 1 0 0,-30-15-1 0 0,-49-13-654 0 0,33 14-1668 0 0,46 17-4323 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">170 1070 10592 0 0,'0'0'3012'0'0,"3"6"-1074"0"0,0 3-1725 0 0,1 1-1 0 0,6 12 1 0 0,2 6-193 0 0,26 97-20 0 0,8 17-12 0 0,-18-54-86 0 0,-2-8 32 0 0,-12-42 67 0 0,60 150-74 0 0,-61-153 12 0 0,-9-25-50 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,8 12 0 0 0,-12-20 62 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 5 0 0 0,-1-5-47 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1-1 0 0 0,3 4 0 0 0,6 4-493 0 0,-4-1-3 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="389.96">1 1578 14544 0 0,'0'0'1100'0'0,"1"-1"-744"0"0,145-93 595 0 0,-125 79-915 0 0,-1-2 0 0 0,0 0 1 0 0,20-25-1 0 0,17-15-82 0 0,-37 39-154 0 0,-8 6-126 0 0,0 1-1 0 0,26-17 0 0 0,-19 15-1718 0 0,22-19 0 0 0,-33 25 1 0 0,8-6-2164 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="763.71">161 1698 17911 0 0,'0'0'820'0'0,"2"-1"-16"0"0,17-5-802 0 0,-1-1-1 0 0,1-1 0 0 0,-1-1 1 0 0,0-1-1 0 0,-1 0 0 0 0,18-14 1 0 0,7-4-448 0 0,-13 12 9 0 0,-19 10 189 0 0,0 1 0 0 0,12-10 0 0 0,-4 3-301 0 0,0 1 0 0 0,1 1 0 0 0,34-13-1 0 0,-15 7-514 0 0,-20 7-1048 0 0,21-15 0 0 0,-34 21 1829 0 0,18-9-1363 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1201.5">629 1145 14368 0 0,'0'0'30'0'0,"0"0"1"0"0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,8 21 58 0 0,1 2-36 0 0,28 93-54 0 0,1 8 1 0 0,-28-90-25 0 0,-5-21-14 0 0,-2 0-1 0 0,4 17 1 0 0,8 34-424 0 0,-4-29 607 0 0,-44-160-105 0 0,16 67-262 0 0,7 27 171 0 0,-1-2-7 0 0,-29-62 1 0 0,-4 14 126 0 0,44 78 232 0 0,6 7-168 0 0,8 11 56 0 0,-1 6-82 0 0,2-1 0 0 0,0-1 0 0 0,32 32-1 0 0,-33-38-105 0 0,-6-6 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,14 7 0 0 0,-10-8 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,1-1 0 0 0,-1 0 0 0 0,20 1 0 0 0,-17-3-5 0 0,0 0 0 0 0,33-3 0 0 0,-45 1 17 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,5-6-1 0 0,-8 7 23 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,-2-4-1 0 0,-1-5 112 0 0,0 1 0 0 0,-9-19 1 0 0,12 29-149 0 0,-3-6 3 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,-5-7 1 0 0,-9-12 19 0 0,10 11 31 0 0,-2-1 0 0 0,1 2 0 0 0,-2 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,-17-14 1 0 0,2 4-435 0 0,-58-31-1 0 0,45 27-3130 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1565.54">1119 880 12752 0 0,'0'0'618'0'0,"1"2"-267"0"0,13 19 100 0 0,-10-12-440 0 0,2-1 0 0 0,10 13 0 0 0,-6-7 53 0 0,-4-11-53 0 0,-1-1-1 0 0,-5-2-3 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,5-11 150 0 0,-5 7-73 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-3-10 0 0 0,-1-6 283 0 0,4 16-347 0 0,0 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-6-4 0 0 0,4 6-61 0 0,4 1-171 0 0,-11 9-4590 0 0,11-2 117 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1924.9">1367 1095 3680 0 0,'1'0'284'0'0,"11"7"603"0"0,-10-7-245 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,2-1 0 0 0,4-3-406 0 0,-7 3-192 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,0-2 0 0 0,-4-3-11 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,-13-11 0 0 0,17 16-6 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-5-1-1 0 0,5 1 3 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,-1 3 0 0 0,-2 2-15 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,2-1-1 0 0,-6 12 0 0 0,2-4-518 0 0,3-9 213 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2687.61">1948 825 14224 0 0,'0'0'322'0'0,"-1"-16"781"0"0,-3-16-961 0 0,-6-28-5 0 0,-2 12-89 0 0,-2 0 0 0 0,-32-73 0 0 0,-2-2 54 0 0,33 78-76 0 0,15 45-14 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,-3 9 169 0 0,3 19-6 0 0,4-10-175 0 0,0 0 0 0 0,2 0 0 0 0,0-1 0 0 0,1 1 0 0 0,1-1 0 0 0,1-1 0 0 0,14 25 0 0 0,-13-27-1 0 0,0-1 0 0 0,13 15 0 0 0,10 12 0 0 0,47 65-64 0 0,-71-92 53 0 0,0 0-1 0 0,7 16 1 0 0,-13-25 9 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 7 0 0 0,-1 1 44 0 0,1-11-35 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-2 3 1 0 0,-2 2 30 0 0,4-6-36 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,-2 1 0 0 0,-49 27-1 0 0,53-28 10 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,7-8 19 0 0,17-12-184 0 0,4-3 38 0 0,49-50-1 0 0,-46 37-820 0 0,-20 19-3855 0 0,-6 6-19 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3034.86">1980 235 3224 0 0,'-27'-6'9003'0'0,"28"10"-6240"0"0,6 9-4222 0 0,-4-6 2377 0 0,85 147-279 0 0,-33-77-774 0 0,0 0 142 0 0,30 60-831 0 0,-85-136 461 0 0,4 3 514 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3383.13">1817 481 16208 0 0,'0'0'1627'0'0,"1"-1"-1487"0"0,7-3-131 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,10-12 0 0 0,1 1 0 0 0,10-13 13 0 0,-19 20 10 0 0,1 0 1 0 0,0 1 0 0 0,16-13-1 0 0,5-4-113 0 0,-23 19-20 0 0,1 1 0 0 0,-1 0 0 0 0,9-5 0 0 0,32-22-1213 0 0,-32 19-686 0 0,-10 9-3256 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3756.62">1990 565 11600 0 0,'0'0'1053'0'0,"11"7"70"0"0,-9-7-1099 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,4-3 0 0 0,2-2-92 0 0,-1 0-1 0 0,10-12 0 0 0,-13 14 45 0 0,97-109-6168 0 0,-84 93 4624 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4106.06">2178 120 14600 0 0,'0'0'705'0'0,"0"1"-310"0"0,3 5-290 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,7 7 1 0 0,9 15-133 0 0,59 102 27 0 0,-21-28-472 0 0,-48-86 326 0 0,-7-11 175 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0-1 1 0 0,5 6-1 0 0,8 7 61 0 0,-16-15-90 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1-8 9 0 0,1 9-7 0 0,-2-6 6 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,-6-9 0 0 0,-25-29 67 0 0,17 23 39 0 0,-22-22-90 0 0,27 30-1 0 0,0 0-1 0 0,1-1 1 0 0,-15-23-1 0 0,20 28 10 0 0,4 4-17 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-2-6 0 0 0,2 6 8 0 0,2 4-17 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,6-1 169 0 0,5 2 22 0 0,-5 1-126 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,6 6 0 0 0,7 3 46 0 0,8 5 14 0 0,-11-6-9 0 0,29 14-1 0 0,-3-5-37 0 0,47 19-134 0 0,-77-35-22 0 0,0 0-1 0 0,1-1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1-1-1 0 0,13 0 0 0 0,-17-1 29 0 0,5 1 78 0 0,0-1 0 0 0,0-1 0 0 0,22-4 0 0 0,-31 4 13 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0-1 1 0 0,4-5-1 0 0,-5 6 21 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-6 0 0 0,-1 4 48 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-5-5 1 0 0,-3-3 87 0 0,-1 0 1 0 0,-1 1 0 0 0,1 0 0 0 0,-24-16 0 0 0,21 17-178 0 0,-1 2 0 0 0,0 0 1 0 0,-31-14-1 0 0,-53-12-654 0 0,36 13-1668 0 0,48 16-4323 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22518,7 +22579,7 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">44 1 6968 0 0,'0'0'812'0'0,"0"15"577"0"0,0-3-700 0 0,0 19 103 0 0,1 0-1 0 0,4 31 1 0 0,0-8-344 0 0,-5-37-117 0 0,5 24 1 0 0,-2-15-174 0 0,-1 0 1 0 0,0 27-1 0 0,-1 5-169 0 0,1 114 294 0 0,0-9-294 0 0,1-30 125 0 0,4 40-92 0 0,3 349 292 0 0,-11-365 20 0 0,-6 82 26 0 0,1-43 326 0 0,2-111-836 0 0,1-15 163 0 0,0 133 334 0 0,19 175 1012 0 0,-15-310-1316 0 0,-2 72 666 0 0,-3-100-246 0 0,-13 57 0 0 0,-2 42-319 0 0,19-134-142 0 0,-2 18-2 0 0,2-14 0 0 0,-1 2 0 0 0,0-2 0 0 0,-1 1 0 0 0,0 0 0 0 0,-5 13 0 0 0,5-17 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 12 0 0 0,2-9 0 0 0,-1 0 0 0 0,0 1 0 0 0,-6 13 0 0 0,2 2-12 0 0,5-18-36 0 0,1 16-17 0 0,1-16 41 0 0,0-5-25 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,-1 4 1 0 0,1 1-374 0 0,0-7 294 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">44 1 6968 0 0,'0'0'812'0'0,"0"14"577"0"0,0-2-700 0 0,0 18 103 0 0,1-1-1 0 0,5 31 1 0 0,-1-9-344 0 0,-5-34-117 0 0,5 22 1 0 0,-2-14-174 0 0,-1 0 1 0 0,0 25-1 0 0,-1 6-169 0 0,1 109 294 0 0,0-9-294 0 0,1-29 125 0 0,4 39-92 0 0,3 334 292 0 0,-11-350 20 0 0,-6 79 26 0 0,1-41 326 0 0,2-107-836 0 0,1-14 163 0 0,0 128 334 0 0,19 167 1012 0 0,-15-297-1316 0 0,-2 69 666 0 0,-3-96-246 0 0,-13 55 0 0 0,-3 40-319 0 0,20-128-142 0 0,-2 17-2 0 0,2-13 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-5 12 0 0 0,5-16 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 11 0 0 0,2-8 0 0 0,-1 0 0 0 0,0 0 0 0 0,-6 13 0 0 0,2 2-12 0 0,5-17-36 0 0,1 15-17 0 0,1-15 41 0 0,0-5-25 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,-1 3 1 0 0,1 2-374 0 0,0-7 294 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22550,12 +22611,12 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">355 79 11720 0 0,'0'0'532'0'0,"-2"0"-4"0"0,-11-6-316 0 0,11 5-193 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0-1 1 0 0,0 0-1 0 0,-2-1 1 0 0,3 3 121 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,-1 0 1 0 0,0 1 223 0 0,-8 1 523 0 0,5-2-485 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,2 0 0 0 0,-11 7 0 0 0,-25 25 1323 0 0,-40 44-1 0 0,61-56-1170 0 0,0-1 1 0 0,1 3-1 0 0,-25 44 1 0 0,39-61-517 0 0,0 2 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 11 0 0 0,-3 8 457 0 0,4-22-406 0 0,1 0 1 0 0,-1 1-1 0 0,1-2 1 0 0,0 2-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-2-1 0 0,6 10 1 0 0,-3-8-103 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,0-1 1 0 0,11 10-1 0 0,-11-11 43 0 0,1 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,14 4 0 0 0,-8-5-41 0 0,1 1-1 0 0,-2-2 1 0 0,15-1-1 0 0,-16 0-19 0 0,-1-2-1 0 0,0 0 0 0 0,1 0 0 0 0,11-7 0 0 0,14-2 217 0 0,-29 8-208 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0-1-1 0 0,7-7 1 0 0,7-7 31 0 0,-10 11-88 0 0,-2 1 1 0 0,1-2 0 0 0,-1 0 0 0 0,9-12 0 0 0,-14 15-67 0 0,1 1-1 0 0,0-2 0 0 0,0 2 1 0 0,-2 0-1 0 0,1-2 0 0 0,0 1 1 0 0,-1-1-1 0 0,3-10 0 0 0,-5 11 146 0 0,0 6 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-2 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2 0 1 0 0,-1 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 1-1 0 0,1-2 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 2 0 0 0,0 2 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1-1 0 0 0,0 2 1 0 0,3 5-1 0 0,1 2 0 0 0,2 0 0 0 0,-1 0 0 0 0,2-1 0 0 0,18 21 0 0 0,-25-31 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-2-1 0 0 0,2 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 2 0 0 0,1-3 0 0 0,-2 1 0 0 0,1 0 0 0 0,6 0 0 0 0,-5-1 0 0 0,2 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,7-4 0 0 0,0 0 0 0 0,0-2 0 0 0,-1 1 0 0 0,-1-2 0 0 0,2 1 0 0 0,16-18 0 0 0,-20 17 0 0 0,1-1 0 0 0,11-16 0 0 0,-17 21 0 0 0,-1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0-5 0 0 0,-2 8 55 0 0,0 1 0 0 0,0-2 0 0 0,1 2 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,2-4 0 0 0,-2 4 47 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0-2 0 0 0,-1 3-81 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-2-1 0 0 0,-2-3-18 0 0,1 2-1 0 0,-1-2 1 0 0,0 1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 2 1 0 0,2-1-1 0 0,-2 1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-8 2 1 0 0,-5 1-59 0 0,-1 1 0 0 0,1 1-1 0 0,-18 6 1 0 0,17-3-148 0 0,15-7-39 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,0 1-1 0 0,-4 1 1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="954.54">1017 92 15056 0 0,'4'7'1563'0'0,"-3"-1"-1218"0"0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 2 0 0 0,-1 5 0 0 0,0 6 693 0 0,0 10-110 0 0,-1-1 0 0 0,-3 1 0 0 0,0-1 1 0 0,-9 32-1 0 0,-5 22-266 0 0,-20 187-408 0 0,39-258-318 0 0,-1 0 0 0 0,1-2-1 0 0,1 2 1 0 0,2 19 0 0 0,-3-29 30 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 2 0 0 0,1-2 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,13-21-7162 0 0,-7 6 139 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1310.08">1053 1 18943 0 0,'0'1'432'0'0,"1"12"-101"0"0,0-1 1 0 0,0 0-1 0 0,2-1 0 0 0,5 19 0 0 0,2 10-205 0 0,-6-18 422 0 0,8 31 1460 0 0,-9-43-1441 0 0,-1 0 1 0 0,2 15 0 0 0,1 6 279 0 0,23 89 33 0 0,-20-89-880 0 0,-6-22-17 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 12 0 0 0,1 17-880 0 0,1-5-5033 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1847.85">950 494 11520 0 0,'0'0'528'0'0,"11"11"192"0"0,-5-7-387 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0-2-1 0 0,0 0 1 0 0,1 0 0 0 0,-2 0-1 0 0,2-1 1 0 0,0 0-1 0 0,-2 0 1 0 0,2-1 0 0 0,-1 2-1 0 0,1-4 1 0 0,0 2-1 0 0,-2-1 1 0 0,2 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 0-1 0 0,11-6 1 0 0,2-1-245 0 0,-1-1 0 0 0,0-1 0 0 0,0 0 0 0 0,-2-2 0 0 0,1-1 1 0 0,16-19-1 0 0,-5-9-583 0 0,-23 34 335 0 0,-1 2-1 0 0,-1-2 1 0 0,1 1-1 0 0,-1-1 0 0 0,4-12 1 0 0,-1 1-193 0 0,-4 12 301 0 0,0-1 0 0 0,-1 1 0 0 0,1-2 0 0 0,-2 2 0 0 0,1-2 0 0 0,-1 2 0 0 0,0-2 0 0 0,-2-13 0 0 0,0-11 111 0 0,3 32-43 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0-2 1 0 0,0 2 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-2-1 0 0 0,2 1 16 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 2-1 0 0,1-2 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-9 23 792 0 0,7-20-678 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 9-1 0 0,1-10-44 0 0,-1 5 157 0 0,1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,4 11 0 0 0,-1-10-182 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,2-1 1 0 0,-2 0-1 0 0,3 0 1 0 0,-1 0-1 0 0,0-2 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-2 1 0 0,1-1-1 0 0,-1 2 0 0 0,2-2 1 0 0,12 3-1 0 0,37 12-25 0 0,-56-18-65 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 0 0 0,2 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-2 0 0 0 0,1-2 0 0 0,0 2 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,2-4 0 0 0,1-4-25 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1-22 0 0 0,-1 34 35 0 0,-2 5 0 0 0,-3 6 0 0 0,5-5 8 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 2 1 0 0,1 9 0 0 0,1 0 1 0 0,-2-12-8 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1-1 0 0 0,-1 2 0 0 0,1-1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 2 0 0 0,0-2-1 0 0,0 0 1 0 0,3 3 0 0 0,-2-2 7 0 0,1-1 0 0 0,-2 0 0 0 0,2 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0-1 0 0 0,1 1 0 0 0,-2-1 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,1-1 1 0 0,3-1 0 0 0,1 1-8 0 0,-2-1 0 0 0,2-1 0 0 0,-2 0 0 0 0,2 0 0 0 0,10-10 0 0 0,-17 13 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1-4 0 0 0,0 1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,-5-1 0 0 0,2-4-569 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2564.53">1861 307 3224 0 0,'-14'1'143'0'0,"13"-1"-119"0"0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 4 1297 0 0,0-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 2-1 0 0,0-1 1 0 0,0-1 0 0 0,0 1-1 0 0,2 5 1 0 0,5 10 2910 0 0,-7-15-4014 0 0,2 7 500 0 0,-1 0-1 0 0,3 15 0 0 0,-4-23-623 0 0,-1 1-1 0 0,1-2 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,2 3 1 0 0,10 12 315 0 0,-7-1-405 0 0,0 0 1 0 0,0 1-1 0 0,5 27 0 0 0,-7-35-4 0 0,-4-8 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,5-6 0 0 0,0-8 0 0 0,2-28 0 0 0,-7 34 0 0 0,0 1 0 0 0,0-1 0 0 0,2 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 2 0 0 0,1-1 0 0 0,2-7 0 0 0,3 1 0 0 0,-2 3 0 0 0,-1 0 0 0 0,10-10 0 0 0,-14 16 0 0 0,1 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-2 0 0 0,-2 2 0 0 0,2-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,2-1 0 0 0,-3 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 1 0 0 0,1 0 0 0 0,0 3 3 0 0,0-2 0 0 0,0 0 0 0 0,0 2 0 0 0,-2-2-1 0 0,1 1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 7-1 0 0,-1-3 42 0 0,1 13 710 0 0,4 11 352 0 0,7 16-1470 0 0,-12-37 167 0 0,-4-20 122 0 0,2 0 136 0 0,0-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 2-1 0 0,7-10 1 0 0,-1-3-161 0 0,-7 17 74 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-2 0 0 0,0 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 0 0 0 0,1 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,3-3 0 0 0,0 2 88 0 0,-2 0 1 0 0,1 1 0 0 0,-2 0 0 0 0,2 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,3 1 0 0 0,7 1-63 0 0,-10 2 0 0 0,-2 0 0 0 0,3 0 0 0 0,-1 1 0 0 0,-2-1 0 0 0,2 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-2 0 0 0 0,3 5 0 0 0,19 41 0 0 0,-16-31 0 0 0,9 20 0 0 0,-9-20 0 0 0,-8-19-3 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,-4 0-296 0 0,4-1 274 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 2-1 0 0,0-2 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,7 2-1134 0 0,-1-4-2879 0 0,6-5-7899 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3273.03">2410 340 18631 0 0,'-1'1'53'0'0,"-1"1"102"0"0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 3 1 0 0,2-2-130 0 0,0-2-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-2-1 0 0,-1 1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,2 1-1 0 0,-2-1-78 0 0,5 8 954 0 0,1-1 1 0 0,-1 1 0 0 0,1-2-1 0 0,13 16 1 0 0,-12-16-799 0 0,0 2 0 0 0,0 0 0 0 0,5 9 0 0 0,2 3-106 0 0,2 10 3 0 0,-4-8 0 0 0,-7 2 0 0 0,-5-25 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3-7 0 0 0,-2 1 0 0 0,1-2 0 0 0,-1 2 0 0 0,1-11 0 0 0,-2 10 0 0 0,0 2 0 0 0,0-2 0 0 0,1 2 0 0 0,1 0 0 0 0,-1-2 0 0 0,3-6 0 0 0,10-25 0 0 0,-12 30 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,2-1 0 0 0,0 2 0 0 0,0-2 0 0 0,1 2 0 0 0,6-9 0 0 0,-3 5-75 0 0,-5 7 29 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,3-2 1 0 0,-6 5 61 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 2 0 0 0,0-2 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 2 0 0 0,3 12 66 0 0,1-1 0 0 0,8 19 0 0 0,-2-3-80 0 0,-5-14-2 0 0,-5-12 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,4 5 0 0 0,-4-5 0 0 0,-2-3 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 2 0 0 0,-1-1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-2 0 0 0 0,2 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 0 0 0,2 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 0 0 0,6-3 0 0 0,-5 3 0 0 0,-2 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-2 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,2-6 0 0 0,11-41 0 0 0,6 101 0 0 0,-16-41 0 0 0,-1-2 0 0 0,2 1 0 0 0,0-2 0 0 0,1 2 0 0 0,-1-2 0 0 0,1 2 0 0 0,0-3 0 0 0,0 2 0 0 0,0-1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,14 6 0 0 0,-15-7 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-2 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1 0 0 0 0,11-4 0 0 0,-16 3 89 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1-1 1 0 0,1 2 0 0 0,-1-1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,2-7 1 0 0,-2 3-89 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,-3-14 0 0 0,2 17 0 0 0,2 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,-1 2 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-5-2 0 0 0,-13-7-20 0 0,0 1-1 0 0,0 2 1 0 0,0-1-1 0 0,-1 3 1 0 0,-26-5 0 0 0,-28-11-74 0 0,54 16-23 0 0,15 5-388 0 0,-2-1 1 0 0,2-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,2 0 1 0 0,-2 0-1 0 0,-5-6 1 0 0,1-2-895 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">376 74 11720 0 0,'0'0'532'0'0,"-2"0"-4"0"0,-12-6-316 0 0,12 5-193 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0-1 1 0 0,0 1-1 0 0,-2-2 1 0 0,3 3 121 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,-1 0 1 0 0,0 0 223 0 0,-9 2 523 0 0,6-2-485 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-10 8 0 0 0,-28 22 1323 0 0,-41 42-1 0 0,63-53-1170 0 0,1 0 1 0 0,1 2-1 0 0,-26 41 1 0 0,40-56-517 0 0,1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 9 0 0 0,-2 8 457 0 0,4-20-406 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,5 9 1 0 0,-3-8-103 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 1 0 0,12 9-1 0 0,-11-10 43 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 0-1 0 0,14 3 0 0 0,-8-4-41 0 0,0 1-1 0 0,-1-2 1 0 0,16-1-1 0 0,-18 0-19 0 0,0-2-1 0 0,0 1 0 0 0,0-1 0 0 0,12-6 0 0 0,15-3 217 0 0,-30 9-208 0 0,-1 0 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,6-7 1 0 0,9-7 31 0 0,-12 11-88 0 0,-1 0 1 0 0,0-1 0 0 0,0 0 0 0 0,8-12 0 0 0,-13 15-67 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,3-10 0 0 0,-5 11 146 0 0,0 5 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-2 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 2 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,0 1 1 0 0,3 5-1 0 0,2 3 0 0 0,1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,20 20 0 0 0,-27-29 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,0 0 0 0 0,6 0 0 0 0,-4-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,8-3 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,18-16 0 0 0,-21 15 0 0 0,0 0 0 0 0,12-15 0 0 0,-18 19 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-6 0 0 0,-2 8 55 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,2-3 0 0 0,-2 3 47 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 2-81 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-2-1 0 0 0,-2-3-18 0 0,1 2-1 0 0,-2-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-9 2 1 0 0,-5 1-59 0 0,-1 1 0 0 0,1 0-1 0 0,-19 7 1 0 0,18-4-148 0 0,16-6-39 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,-3 1 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="954.54">1076 86 15056 0 0,'4'6'1563'0'0,"-2"0"-1218"0"0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 5 0 0 0,0 6 693 0 0,0 9-110 0 0,-2-1 0 0 0,-2 1 0 0 0,0-1 1 0 0,-10 30-1 0 0,-5 20-266 0 0,-21 175-408 0 0,41-241-318 0 0,-1 0 0 0 0,1-1-1 0 0,1 1 1 0 0,2 18 0 0 0,-3-27 30 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,13-19-7162 0 0,-6 5 139 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1310.08">1114 1 18943 0 0,'0'1'432'0'0,"1"11"-101"0"0,0-1 1 0 0,1 0-1 0 0,1 0 0 0 0,5 17 0 0 0,3 9-205 0 0,-7-17 422 0 0,9 30 1460 0 0,-10-41-1441 0 0,-1 0 1 0 0,2 15 0 0 0,1 4 279 0 0,25 84 33 0 0,-21-83-880 0 0,-7-21-17 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 12 0 0 0,2 15-880 0 0,0-4-5033 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1847.85">1005 460 11520 0 0,'0'0'528'0'0,"12"10"192"0"0,-6-6-387 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0-2 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 0-1 0 0,12-5 1 0 0,2-2-245 0 0,-1 0 0 0 0,0-1 0 0 0,0-1 0 0 0,-2-1 0 0 0,1-1 1 0 0,17-17-1 0 0,-5-10-583 0 0,-25 33 335 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,4-12 1 0 0,0 2-193 0 0,-5 10 301 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-2 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-2-12 0 0 0,0-11 111 0 0,3 30-43 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-2-1 0 0 0,2 1 16 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-10 21 792 0 0,8-18-678 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 8-1 0 0,1-9-44 0 0,-1 4 157 0 0,1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,5 11 0 0 0,-2-10-182 0 0,1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,2 1 1 0 0,-1-1-1 0 0,1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,13 3-1 0 0,40 10-25 0 0,-60-16-65 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,2-5 0 0 0,1-3-25 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-19 0 0 0,-1 31 35 0 0,-2 4 0 0 0,-3 7 0 0 0,5-6 8 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,2 9 0 0 0,0 0 1 0 0,-2-11-8 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,3 3 0 0 0,-2-3 7 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,4-2 0 0 0,0 1-8 0 0,-1-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,11-9 0 0 0,-18 12 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1-4 0 0 0,0 2 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-5-1 0 0 0,1-3-569 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2564.53">1969 286 3224 0 0,'-15'1'143'0'0,"14"-1"-119"0"0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 3 1297 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,3 4 1 0 0,4 10 2910 0 0,-7-14-4014 0 0,2 6 500 0 0,0 0-1 0 0,2 15 0 0 0,-4-22-623 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,3 3 1 0 0,9 11 315 0 0,-6-1-405 0 0,-1 0 1 0 0,0 1-1 0 0,6 25 0 0 0,-8-33-4 0 0,-4-7 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,5-6 0 0 0,0-7 0 0 0,2-26 0 0 0,-7 32 0 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,3-7 0 0 0,2 1 0 0 0,-2 2 0 0 0,0 1 0 0 0,9-10 0 0 0,-13 16 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,3-1 0 0 0,-4 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,2 1 0 0 0,0 0 0 0 0,0 2 3 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 6-1 0 0,-1-3 42 0 0,2 13 710 0 0,3 9 352 0 0,8 16-1470 0 0,-13-35 167 0 0,-4-18 122 0 0,2-1 136 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,6-9 1 0 0,0-2-161 0 0,-8 15 74 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,4-2 0 0 0,-1 1 88 0 0,-2 0 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,4 1 0 0 0,7 1-63 0 0,-11 2 0 0 0,-2 0 0 0 0,3 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 4 0 0 0,20 39 0 0 0,-16-30 0 0 0,9 20 0 0 0,-10-20 0 0 0,-8-17-3 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,-4 0-296 0 0,4-1 274 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,8 2-1134 0 0,-2-4-2879 0 0,7-4-7899 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3273.03">2550 317 18631 0 0,'-1'1'53'0'0,"-1"0"102"0"0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 3 1 0 0,1-3-130 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,2 1-1 0 0,-2-1-78 0 0,5 7 954 0 0,1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,14 14 1 0 0,-12-14-799 0 0,-1 1 0 0 0,0 0 0 0 0,6 9 0 0 0,2 3-106 0 0,2 9 3 0 0,-4-8 0 0 0,-8 2 0 0 0,-5-23 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3-6 0 0 0,-2 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-10 0 0 0,-2 10 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,3-6 0 0 0,11-24 0 0 0,-13 29 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,7-8 0 0 0,-3 5-75 0 0,-6 6 29 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,4-1 1 0 0,-7 4 61 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,3 12 66 0 0,1-1 0 0 0,9 18 0 0 0,-2-3-80 0 0,-6-13-2 0 0,-5-11 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4 4 0 0 0,-4-4 0 0 0,-2-3 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3 1 0 0 0,1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,5-2 0 0 0,-5 2 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2-5 0 0 0,12-39 0 0 0,6 95 0 0 0,-17-39 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,15 5 0 0 0,-16-6 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,12-3 0 0 0,-16 2 89 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,2-6 1 0 0,-2 3-89 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-3-12 0 0 0,2 15 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-5-2 0 0 0,-14-6-20 0 0,0 1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 2 1 0 0,-28-4 0 0 0,-29-10-74 0 0,57 14-23 0 0,15 5-388 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,-6-5 1 0 0,2-2-895 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22651,13 +22712,13 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">789 814 12528 0 0,'0'0'1133'0'0,"0"1"-936"0"0,-2 3-145 0 0,1-2 37 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,3 4-1 0 0,24 36 106 0 0,66 108 16 0 0,-80-129-182 0 0,1 1-1 0 0,29 33 1 0 0,-8-11 312 0 0,-3-14 508 0 0,-33-29-814 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-12 457 0 0,-1-19-521 0 0,-1 29 98 0 0,8-311 248 0 0,-8 310-322 0 0,18-218-68 0 0,27-71-783 0 0,-2 10-6113 0 0,-34 211 1582 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1174.06">120 2662 13360 0 0,'-75'6'1560'0'0,"74"-6"-1558"0"0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,0-2-1 0 0,-1-4-4 0 0,0-1 0 0 0,0-1 0 0 0,-1-12 0 0 0,3 19 5 0 0,-3-27 89 0 0,2 0 1 0 0,3-43 0 0 0,-1 56 40 0 0,1 0 1 0 0,1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,11-29 0 0 0,-12 41-106 0 0,0-1 0 0 0,-1 0 1 0 0,2 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,9-2 0 0 0,-8 1-28 0 0,1 2-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,13 6-1 0 0,-15-5-16 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-2 1 0 0 0,1 1 1 0 0,0-2-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 6 1 0 0,2 8-91 0 0,-2 1 1 0 0,0 0 0 0 0,-2 27 0 0 0,1-43 91 0 0,-25 195-773 0 0,15-135 820 0 0,1-15-50 0 0,5-30 247 0 0,1-2-1 0 0,0 2 1 0 0,0 19 0 0 0,3-37-201 0 0,0 1 1 0 0,0-1-1 0 0,0 2 1 0 0,0-2-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,1 0-2 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,4-1 0 0 0,3-1-30 0 0,-1-1 0 0 0,1-1 0 0 0,11-7 0 0 0,58-51 56 0 0,125-107-143 0 0,-186 154-25 0 0,20-26 0 0 0,-11 12-4806 0 0,-12 16-215 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1529.11">347 1945 16439 0 0,'0'0'1651'0'0,"4"15"-1494"0"0,13 3-260 0 0,1 1-1 0 0,0 0 0 0 0,32 21 0 0 0,-3-1-179 0 0,20 16 182 0 0,-41-35 64 0 0,0 2 0 0 0,-2 0 0 0 0,0 1 0 0 0,28 37 0 0 0,-40-43-135 0 0,-2-1 0 0 0,0 2 0 0 0,0 0 0 0 0,-2-1 0 0 0,0 2-1 0 0,7 26 1 0 0,-6-10-2017 0 0,-6-20-2896 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1916.33">435 2197 12872 0 0,'0'0'1286'0'0,"9"-3"-1164"0"0,11-10-153 0 0,0 0 0 0 0,-1-3 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1-2 0 0 0,19-24 1 0 0,-2 3 36 0 0,101-127 52 0 0,-107 133-622 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2277.31">636 2346 12840 0 0,'0'0'1286'0'0,"9"-9"-1164"0"0,16-6-408 0 0,-2-2 0 0 0,0 0 0 0 0,0-1 0 0 0,-2-2 0 0 0,-1-1 1 0 0,0 0-1 0 0,21-30 0 0 0,-30 37-4067 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2633.59">811 1796 3224 0 0,'-3'8'283'0'0,"1"-4"-241"0"0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-2 7 1 0 0,2 4 2126 0 0,6 0 3338 0 0,14 10-2057 0 0,-11-15-3472 0 0,0 1 0 0 0,1-2-1 0 0,16 14 1 0 0,9 7 27 0 0,55 63 1 0 0,-77-75 59 0 0,-12-17 70 0 0,-6-12-343 0 0,-2-7 98 0 0,-12-18 0 0 0,4 7 167 0 0,-72-115 266 0 0,44 83-323 0 0,42 56 0 0 0,3-1 16 0 0,0 6 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 1 0 0,27 8-263 0 0,-27-7 227 0 0,145 69-189 0 0,-64-23 100 0 0,29 15 88 0 0,-98-53 30 0 0,0-2 1 0 0,1-1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-2 0 0 0,1-1-1 0 0,0 0 1 0 0,16 1 0 0 0,-30-4 34 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,3-2-1 0 0,-3 2 12 0 0,0-2 1 0 0,0 2-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 2-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,0-2-1 0 0,-3-11 199 0 0,0 1-1 0 0,0 0 0 0 0,-2 1 1 0 0,1-2-1 0 0,-2 3 0 0 0,0-2 1 0 0,0 2-1 0 0,-1-1 1 0 0,-1 1-1 0 0,-12-14 0 0 0,-20-17-279 0 0,-2 2 0 0 0,-49-35-1 0 0,63 52-910 0 0,14 11 455 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-329.95">1551 1475 12872 0 0,'0'0'1286'0'0,"-5"-2"544"0"0,5 3-1790 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 81 0 0,0 0-82 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,9 11 74 0 0,1 1 0 0 0,0-2 0 0 0,19 19 0 0 0,-2-12 294 0 0,-22-14-344 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,5 4 0 0 0,-7-5-40 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,6 1 0 0 0,-6-2 22 0 0,12 3 4 0 0,-14-3-37 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,2-2 0 0 0,1-5 93 0 0,-1 2 0 0 0,0-1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1-10 0 0 0,5-56 545 0 0,-6 44-550 0 0,11-142-18 0 0,5-48-7 0 0,-13 162-179 0 0,11-76 382 0 0,-12 110-1139 0 0,1 0 0 0 0,1 1 1 0 0,16-39-1 0 0,-6 27-6047 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">789 782 12528 0 0,'0'0'1133'0'0,"0"1"-936"0"0,-2 3-145 0 0,1-2 37 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,3 4-1 0 0,24 34 106 0 0,66 104 16 0 0,-80-123-182 0 0,1 0-1 0 0,29 32 1 0 0,-8-11 312 0 0,-3-13 508 0 0,-33-28-814 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-12 457 0 0,-1-17-521 0 0,-1 27 98 0 0,8-299 248 0 0,-8 298-322 0 0,18-209-68 0 0,27-69-783 0 0,-2 10-6113 0 0,-34 203 1582 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1174.06">120 2558 13360 0 0,'-75'6'1560'0'0,"74"-6"-1558"0"0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-3-1 0 0,-1-4-4 0 0,0-1 0 0 0,0 0 0 0 0,-1-12 0 0 0,3 18 5 0 0,-3-26 89 0 0,2 0 1 0 0,3-41 0 0 0,-1 54 40 0 0,1-1 1 0 0,1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,11-27 0 0 0,-12 39-106 0 0,0-1 0 0 0,-1 1 1 0 0,2 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,9-2 0 0 0,-8 2-28 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,13 5-1 0 0,-15-4-16 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-2 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 5 1 0 0,2 9-91 0 0,-2 0 1 0 0,0 0 0 0 0,-2 26 0 0 0,1-41 91 0 0,-25 187-773 0 0,15-129 820 0 0,1-15-50 0 0,5-29 247 0 0,1-1-1 0 0,0 1 1 0 0,0 19 0 0 0,3-36-201 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,1 0-2 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,4-1 0 0 0,3-1-30 0 0,-1-1 0 0 0,1 0 0 0 0,11-8 0 0 0,58-48 56 0 0,125-104-143 0 0,-186 149-25 0 0,20-25 0 0 0,-11 11-4806 0 0,-12 15-215 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1529.11">347 1869 16439 0 0,'0'0'1651'0'0,"4"14"-1494"0"0,13 4-260 0 0,1 0-1 0 0,0 0 0 0 0,32 21 0 0 0,-3-2-179 0 0,20 16 182 0 0,-41-34 64 0 0,0 2 0 0 0,-2 0 0 0 0,0 1 0 0 0,28 36 0 0 0,-40-42-135 0 0,-2 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-2 0 0 0 0,0 1-1 0 0,7 25 1 0 0,-6-9-2017 0 0,-6-20-2896 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1916.33">435 2111 12872 0 0,'0'0'1286'0'0,"9"-3"-1164"0"0,11-9-153 0 0,0-1 0 0 0,-1-2 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-2 0 0 0,19-24 1 0 0,-2 4 36 0 0,101-123 52 0 0,-107 129-622 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2277.31">636 2254 12840 0 0,'0'0'1286'0'0,"9"-8"-1164"0"0,16-7-408 0 0,-2-1 0 0 0,0-1 0 0 0,0 0 0 0 0,-2-2 0 0 0,-1-1 1 0 0,0 0-1 0 0,21-29 0 0 0,-30 35-4067 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2633.59">811 1726 3224 0 0,'-3'7'283'0'0,"1"-3"-241"0"0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-2 6 1 0 0,2 5 2126 0 0,6-1 3338 0 0,14 10-2057 0 0,-11-14-3472 0 0,0 0 0 0 0,1-1-1 0 0,16 13 1 0 0,9 7 27 0 0,55 60 1 0 0,-77-71 59 0 0,-12-17 70 0 0,-6-12-343 0 0,-2-6 98 0 0,-12-18 0 0 0,4 7 167 0 0,-72-110 266 0 0,44 79-323 0 0,42 54 0 0 0,3 0 16 0 0,0 5 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 1 0 0,27 8-263 0 0,-27-7 227 0 0,145 66-189 0 0,-64-22 100 0 0,29 15 88 0 0,-98-52 30 0 0,0-1 1 0 0,1-1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1-1-1 0 0,0 0 1 0 0,16 1 0 0 0,-30-4 34 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,3-2-1 0 0,-3 2 12 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,0-2-1 0 0,-3-10 199 0 0,0 0-1 0 0,0 1 0 0 0,-2 0 1 0 0,1-1-1 0 0,-2 2 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,-1 0-1 0 0,-12-13 0 0 0,-20-16-279 0 0,-2 2 0 0 0,-49-34-1 0 0,63 49-910 0 0,14 12 455 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="429166.78">1551 1417 12872 0 0,'0'0'1286'0'0,"-5"-2"544"0"0,5 3-1790 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 81 0 0,0 0-82 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,9 11 74 0 0,1 0 0 0 0,0-1 0 0 0,19 18 0 0 0,-2-12 294 0 0,-22-13-344 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,5 3 0 0 0,-7-4-40 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,6 1 0 0 0,-6-2 22 0 0,12 3 4 0 0,-14-3-37 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,2-2 0 0 0,1-4 93 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1-9 0 0 0,5-54 545 0 0,-6 42-550 0 0,11-136-18 0 0,5-47-7 0 0,-13 157-179 0 0,11-74 382 0 0,-12 106-1139 0 0,1 0 0 0 0,1 0 1 0 0,16-36-1 0 0,-6 25-6047 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22689,21 +22750,21 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">125 1235 3224 0 0,'-5'21'164'0'0,"-2"-8"8737"0"0,4-27-8542 0 0,-2-7 335 0 0,0-1 1 0 0,-3-44 0 0 0,4 28-161 0 0,-5-45 565 0 0,-7-54-245 0 0,11 108-722 0 0,-2 1 0 0 0,-15-49 0 0 0,-6-12 12 0 0,43 104-228 0 0,10 13 139 0 0,-2 2 0 0 0,-2 2 0 0 0,27 47 0 0 0,-2-1-208 0 0,71 95-214 0 0,-82-123 559 0 0,30 60 0 0 0,-61-103-159 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,3 11 1 0 0,-5-14-33 0 0,1 1 0 0 0,0-2 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,-3 8 0 0 0,3-9 5 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 2 1 0 0,0-2-1 0 0,-2 1 0 0 0,-1-1 17 0 0,0 1-1 0 0,0-1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-5-3-1 0 0,-3 2-8 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2031.01">308 307 8928 0 0,'0'0'808'0'0,"7"-16"64"0"0,-7 16-872 0 0,0 0 32 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,-1 3 33 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 5-1 0 0,2-3 135 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,4 5 0 0 0,19 30 1119 0 0,-21-35-1187 0 0,111 157 2370 0 0,-85-116-2308 0 0,39 81 0 0 0,-2 18-129 0 0,-9-22-11 0 0,-49-109 6 0 0,-7-11-370 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,-1-1 0 0 0,1 0 0 0 0,1 4-1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2454.34">164 600 13272 0 0,'0'0'1201'0'0,"9"-9"-249"0"0,79-112 1932 0 0,-82 113-2903 0 0,16-28 74 0 0,-14 22-55 0 0,1 0-1 0 0,0 0 1 0 0,19-19-1 0 0,-12 15-68 0 0,16-15-195 0 0,-30 32 58 0 0,0-2 0 0 0,0 1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,4-1 1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2849.65">298 811 11976 0 0,'1'1'128'0'0,"0"0"0"0"0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,2 1 0 0 0,0-1-12 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,4-2 0 0 0,24-13 1336 0 0,-14 7-1351 0 0,-2-1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1-2 0 0 0,22-21 1 0 0,50-74-2096 0 0,-58 70-1327 0 0,-17 22-1577 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3255.37">615 143 14424 0 0,'-2'11'234'0'0,"2"-9"-124"0"0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 4 1 0 0,14 43-86 0 0,2-1 0 0 0,2-1 0 0 0,39 69 0 0 0,-33-75-176 0 0,1-1 0 0 0,31 36 1 0 0,-30-40-195 0 0,-22-30 293 0 0,4 6-162 0 0,12 20 0 0 0,-20-31 234 0 0,-1-5 26 0 0,-2-7 37 0 0,-58-111 36 0 0,12 28-267 0 0,-46-94-28 0 0,84 170 183 0 0,-11-16 0 0 0,1 1 280 0 0,19 32 117 0 0,2 6-302 0 0,0 1 1 0 0,0-2-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 2 1 0 0,0-2-1 0 0,0 0 0 0 0,6 8 1 0 0,0 1 26 0 0,-2-2-131 0 0,0-1-1 0 0,1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,2-1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-2-1 0 0,0 0 1 0 0,15 7 0 0 0,3-2-26 0 0,1 0 1 0 0,0-2-1 0 0,1-1 1 0 0,0-2-1 0 0,0-2 1 0 0,39 2 0 0 0,-62-6 35 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,13-5 0 0 0,-17 5 27 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,2-5-1 0 0,-2 2 99 0 0,0 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-2-1 0 0,-1 2 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-2 1 0 0,-1 2-1 0 0,1 0 1 0 0,-1-1-1 0 0,-1 1 1 0 0,1 1-1 0 0,-5-10 1 0 0,0 4-10 0 0,0-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 2 0 0 0,-20-16-1 0 0,-3 2-188 0 0,0 2 0 0 0,-2 1 0 0 0,-51-23 0 0 0,1 10-2688 0 0,65 26 1337 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3768.78">731 1674 1376 0 0,'-9'5'189'0'0,"0"1"-1"0"0,-12 10 1 0 0,15-11 1517 0 0,0-1 0 0 0,0 2 1 0 0,0-2-1 0 0,-1 0 1 0 0,0-1-1 0 0,-10 5 0 0 0,15-7-1567 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-6-2 0 0 0,8 1-101 0 0,0 1 1 0 0,0-1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-2 0 0 0,0 2 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,1-2 0 0 0,-1-4 4 0 0,1-1 1 0 0,0 1-1 0 0,1-2 0 0 0,0 2 0 0 0,0 0 0 0 0,1-1 0 0 0,0 2 0 0 0,7-15 0 0 0,-7 16-38 0 0,0-1 1 0 0,1 1 0 0 0,-1 1 0 0 0,2-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,7-4 0 0 0,-10 7-11 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,2 0 0 0 0,-1 0 3 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,2 3 0 0 0,3 4 62 0 0,0 0 1 0 0,-1 1-1 0 0,10 20 0 0 0,-16-30-58 0 0,9 21-54 0 0,-2 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,5 39 1 0 0,9 30-125 0 0,-19-87 191 0 0,1 0 1 0 0,-1 2-1 0 0,1-2 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 1-1 0 0,1-2 0 0 0,6 6 1 0 0,-8-8-8 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,2-2 1 0 0,10-5 52 0 0,-1 0 1 0 0,0-2-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,13-21 0 0 0,-15 20-340 0 0,-1-1 0 0 0,0 1 0 0 0,7-29 0 0 0,-9 29-476 0 0,-4-1-9 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4173.59">851 1222 16495 0 0,'0'0'802'0'0,"1"2"-352"0"0,6 6-262 0 0,0-1 0 0 0,13 12 0 0 0,-13-12-114 0 0,0 1-1 0 0,0-1 0 0 0,11 17 0 0 0,10 12 170 0 0,135 124-408 0 0,-135-131-135 0 0,-14-17-265 0 0,-2 1 0 0 0,15 18 0 0 0,-20-24 8 0 0,3 6 133 0 0,-7-6-3884 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4551.6">635 1416 16559 0 0,'0'0'1658'0'0,"7"-4"-1500"0"0,1-4-37 0 0,0-2-1 0 0,0 2 1 0 0,-1-3 0 0 0,0 2-1 0 0,0-2 1 0 0,-1 1-1 0 0,9-24 1 0 0,15-22 466 0 0,-10 25-505 0 0,51-75-757 0 0,-49 74 47 0 0,-12 18-237 0 0,1-1 0 0 0,0 1 0 0 0,19-19 0 0 0,-26 30 240 0 0,11-8-186 0 0,-2 10-3793 0 0,-6 3 630 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4552.6">936 1462 14136 0 0,'0'0'624'0'0,"0"10"648"0"0,7-14-1088 0 0,2-2 0 0 0,-3 4-184 0 0,1-7 0 0 0,-1 3 0 0 0,3-6-64 0 0,0 1-368 0 0,1-3-72 0 0,0-5-8 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4991.96">1131 954 11920 0 0,'0'0'1082'0'0,"3"9"-451"0"0,71 142 1560 0 0,-45-86-2199 0 0,-14-35 35 0 0,-2-1 0 0 0,-2 1 1 0 0,15 52-1 0 0,-26-79-52 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,2 2 0 0 0,-2-3-109 0 0,-1 2 440 0 0,-5-7-252 0 0,-5-7-78 0 0,1-8 58 0 0,1 0 0 0 0,1-1 1 0 0,-6-21-1 0 0,-13-35 101 0 0,10 39-135 0 0,-66-140 0 0 0,70 155-15 0 0,11 21-54 0 0,10 8 6 0 0,14 13 230 0 0,-14-10-123 0 0,1-2 0 0 0,13 9 0 0 0,8 4-61 0 0,1-1 0 0 0,1-2 1 0 0,47 19-1 0 0,-74-35 15 0 0,21 9-76 0 0,0-3-1 0 0,38 8 1 0 0,-52-13 72 0 0,0-1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,0-1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,-1-1 1 0 0,25-11 0 0 0,-34 13 10 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1-1 0 0 0,3-3-1 0 0,-3 3 66 0 0,1-1 0 0 0,-1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,-1-6 0 0 0,0 0 105 0 0,-1 0-1 0 0,-1 0 1 0 0,0 2 0 0 0,0-2 0 0 0,-1 1 0 0 0,-8-16 0 0 0,-36-55 406 0 0,45 78-565 0 0,-20-30 51 0 0,-1 3 0 0 0,-2 0 0 0 0,-1 1 0 0 0,-1 2-1 0 0,-1 1 1 0 0,-42-29 0 0 0,51 42-158 0 0,-1 0 1 0 0,0 1-1 0 0,0 1 0 0 0,-1 1 0 0 0,-23-7 0 0 0,43 16 10 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-3-1-1 0 0,4 0-4 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0 0-1 0 0,-1 11-784 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5702.16">1153 2265 16008 0 0,'0'0'1603'0'0,"0"-2"-1463"0"0,0-4-137 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-2 0 0 0,0 2 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,6-6 0 0 0,-6 7 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,9 2 0 0 0,-6 0-76 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,9 13 1 0 0,-5-3-63 0 0,0 0 1 0 0,0-1-1 0 0,-2 2 1 0 0,0 0-1 0 0,7 26 1 0 0,-12-37 138 0 0,-1 1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0 8-1 0 0,-1 2 154 0 0,1-17 128 0 0,9-18-288 0 0,-1 1-6 0 0,-5 8 9 0 0,2 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,7-7 0 0 0,-11 13 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,2 0 1 0 0,3 0-1 0 0,-3 0-11 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 2 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,4 4 0 0 0,0 3 1 0 0,-1-2 1 0 0,0 1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 2-1 0 0,0-1 1 0 0,-1 0 0 0 0,6 19-1 0 0,-6-13-9 0 0,0 1 0 0 0,-1 0 0 0 0,-1 1-1 0 0,0-2 1 0 0,-1 19 0 0 0,-2 5 155 0 0,-2-2 0 0 0,-2 1 0 0 0,-1 0 1 0 0,-12 39-1 0 0,14-63 66 0 0,0-1 1 0 0,-1 0-1 0 0,-10 23 1 0 0,13-32-176 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-3 2-1 0 0,4-3-61 0 0,1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-3-2 0 0 0,0-2-303 0 0,-1-2 1 0 0,1 2-1 0 0,0-1 1 0 0,1-1-1 0 0,-5-14 1 0 0,4 13-122 0 0,2-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-20 0 0 0,1 8-82 0 0,-5-34-914 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6071.14">1484 2004 17071 0 0,'1'1'388'0'0,"3"3"-238"0"0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,10 3 1 0 0,14 8-160 0 0,133 88-276 0 0,-86-50-728 0 0,-63-42 145 0 0,0 2 0 0 0,0 0 0 0 0,15 18 0 0 0,-10-11-653 0 0,-9-7 567 0 0,0-2 0 0 0,0 3 1 0 0,-1-2-1 0 0,0 2 0 0 0,0-1 0 0 0,-2 1 0 0 0,1 0 1 0 0,4 13-1 0 0,-11-23 952 0 0,0-2 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 8 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-2-3 0 0 0,-23-24-13 0 0,25 27 11 0 0,-10-13-3 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6445.66">1415 2141 3224 0 0,'-13'15'7667'0'0,"14"-22"-6298"0"0,1-1-1024 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,5-7 0 0 0,27-40 471 0 0,-11 18-222 0 0,58-86-383 0 0,-62 94-820 0 0,2 1 1 0 0,31-31 0 0 0,-45 50-15 0 0,2-3-145 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6446.66">1644 2267 17103 0 0,'0'21'760'0'0,"3"-15"152"0"0,1 2-728 0 0,2-6-184 0 0,6-2 0 0 0,-2-5 0 0 0,2-4 0 0 0,-2-2 0 0 0,2-3-184 0 0,-2-2-40 0 0,3-4-16 0 0,-1-4 0 0 0,0 1-1064 0 0,1-2-207 0 0,5-29-49 0 0,-1 13-8 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6978.85">1889 1591 14944 0 0,'3'17'205'0'0,"1"0"0"0"0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,1 1 0 0 0,0-2-1 0 0,18 28 1 0 0,39 58-204 0 0,14 19-2547 0 0,-75-116 1831 0 0,-4-3 298 0 0,-8-6 195 0 0,-12-15 210 0 0,-20-38-38 0 0,25 35 35 0 0,-27-32 0 0 0,-23-23 15 0 0,-3-4 0 0 0,64 77 2 0 0,3 3 1 0 0,-1-2 0 0 0,1 1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-2-4-1 0 0,22 9 412 0 0,-7 3-252 0 0,0 1 0 0 0,0-1 0 0 0,11 10 1 0 0,21 12 23 0 0,80 42-617 0 0,-99-54 132 0 0,-15-10 243 0 0,0 0 1 0 0,1-1-1 0 0,15 3 1 0 0,-8-2 142 0 0,-9-2-4 0 0,1-2 0 0 0,0 2 1 0 0,0-2-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1-2 0 0 0,1 2 0 0 0,0-1 1 0 0,0-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,10-14 0 0 0,-11 11 240 0 0,-1-1 0 0 0,-1 1-1 0 0,0-2 1 0 0,0 1 0 0 0,0 0 0 0 0,-2-1 0 0 0,3-12-1 0 0,-4 17-189 0 0,-1-2-1 0 0,0 1 1 0 0,0 1 0 0 0,0-2-1 0 0,-1 1 1 0 0,-3-13-1 0 0,0-2 60 0 0,3 16-141 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 2 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-2 1 0 0,0 2 0 0 0,0 0-1 0 0,0 1 1 0 0,-7-7 0 0 0,-9-6 153 0 0,-42-30 1 0 0,42 34-142 0 0,-15-11-67 0 0,-2 2-1 0 0,-48-22 1 0 0,12 13-5740 0 0,42 21-358 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">125 1179 3224 0 0,'-5'20'164'0'0,"-2"-7"8737"0"0,4-27-8542 0 0,-2-6 335 0 0,0-1 1 0 0,-3-42 0 0 0,4 27-161 0 0,-5-43 565 0 0,-7-52-245 0 0,11 103-722 0 0,-2 1 0 0 0,-15-46 0 0 0,-6-12 12 0 0,43 99-228 0 0,10 13 139 0 0,-2 2 0 0 0,-2 1 0 0 0,27 46 0 0 0,-2-2-208 0 0,71 91-214 0 0,-82-117 559 0 0,30 57 0 0 0,-61-98-159 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,3 10 1 0 0,-5-13-33 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-3 8 0 0 0,3-10 5 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,-2 1 0 0 0,-1-1 17 0 0,0 1-1 0 0,0-1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-5-2-1 0 0,-3 1-8 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2031.01">308 293 8928 0 0,'0'0'808'0'0,"7"-15"64"0"0,-7 15-872 0 0,0 0 32 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,-1 3 33 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 5-1 0 0,2-4 135 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,4 5 0 0 0,19 28 1119 0 0,-21-33-1187 0 0,111 149 2370 0 0,-85-110-2308 0 0,39 78 0 0 0,-2 16-129 0 0,-9-20-11 0 0,-49-105 6 0 0,-7-10-370 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 4-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2454.34">164 573 13272 0 0,'0'0'1201'0'0,"9"-9"-249"0"0,79-106 1932 0 0,-82 107-2903 0 0,16-26 74 0 0,-14 20-55 0 0,1 1-1 0 0,0 0 1 0 0,19-19-1 0 0,-12 15-68 0 0,16-15-195 0 0,-30 31 58 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,4-1 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2849.65">298 774 11976 0 0,'1'1'128'0'0,"0"0"0"0"0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,2 1 0 0 0,0-1-12 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,4-2 0 0 0,24-12 1336 0 0,-14 6-1351 0 0,-2-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1-1 0 0 0,22-21 1 0 0,50-70-2096 0 0,-58 67-1327 0 0,-17 21-1577 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3255.37">615 137 14424 0 0,'-2'10'234'0'0,"2"-8"-124"0"0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 4 1 0 0,14 41-86 0 0,2-2 0 0 0,2 0 0 0 0,39 66 0 0 0,-33-72-176 0 0,1-1 0 0 0,31 35 1 0 0,-30-39-195 0 0,-22-28 293 0 0,4 5-162 0 0,12 20 0 0 0,-20-30 234 0 0,-1-5 26 0 0,-2-6 37 0 0,-58-107 36 0 0,12 27-267 0 0,-46-89-28 0 0,84 162 183 0 0,-11-16 0 0 0,1 2 280 0 0,19 30 117 0 0,2 6-302 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,6 7 1 0 0,0 2 26 0 0,-2-3-131 0 0,0 0-1 0 0,1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,2 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,15 6 0 0 0,3-1-26 0 0,1-1 1 0 0,0-1-1 0 0,1-2 1 0 0,0-1-1 0 0,0-2 1 0 0,39 2 0 0 0,-62-6 35 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,13-5 0 0 0,-17 5 27 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,2-6-1 0 0,-2 2 99 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-5-9 1 0 0,0 3-10 0 0,0 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-20-15-1 0 0,-3 2-188 0 0,0 2 0 0 0,-2 1 0 0 0,-51-22 0 0 0,1 10-2688 0 0,65 24 1337 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3768.78">731 1598 1376 0 0,'-9'5'189'0'0,"0"1"-1"0"0,-12 9 1 0 0,15-10 1517 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,0-1-1 0 0,-10 4 0 0 0,15-6-1567 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-6-2 0 0 0,8 1-101 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,1-2 0 0 0,-1-4 4 0 0,1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,7-14 0 0 0,-7 15-38 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,7-4 0 0 0,-10 7-11 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,2 0 0 0 0,-1 0 3 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,2 2 0 0 0,3 5 62 0 0,0 0 1 0 0,-1 0-1 0 0,10 20 0 0 0,-16-29-58 0 0,9 20-54 0 0,-2 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,5 37 1 0 0,9 29-125 0 0,-19-83 191 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,6 6 1 0 0,-8-8-8 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,2-1 1 0 0,10-6 52 0 0,-1 0 1 0 0,0-1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,13-21 0 0 0,-15 20-340 0 0,-1-1 0 0 0,0 0 0 0 0,7-27 0 0 0,-9 28-476 0 0,-4-1-9 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4173.59">851 1167 16495 0 0,'0'0'802'0'0,"1"2"-352"0"0,6 5-262 0 0,0 0 0 0 0,13 11 0 0 0,-13-11-114 0 0,0 0-1 0 0,0 0 0 0 0,11 16 0 0 0,10 11 170 0 0,135 119-408 0 0,-135-125-135 0 0,-14-17-265 0 0,-2 2 0 0 0,14 16 0 0 0,-19-22 8 0 0,3 5 133 0 0,-7-5-3884 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4551.6">635 1352 16559 0 0,'0'0'1658'0'0,"7"-4"-1500"0"0,1-4-37 0 0,0-1-1 0 0,0 1 1 0 0,-1-2 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,9-22 1 0 0,15-22 466 0 0,-10 25-505 0 0,51-73-757 0 0,-49 72 47 0 0,-12 16-237 0 0,1 0 0 0 0,0 1 0 0 0,19-19 0 0 0,-26 29 240 0 0,11-7-186 0 0,-2 9-3793 0 0,-6 3 630 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4552.6">936 1396 14136 0 0,'0'0'624'0'0,"0"9"648"0"0,7-12-1088 0 0,2-3 0 0 0,-3 4-184 0 0,1-7 0 0 0,-1 4 0 0 0,3-7-64 0 0,0 2-368 0 0,1-4-72 0 0,0-4-8 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4991.97">1131 911 11920 0 0,'0'0'1082'0'0,"3"8"-451"0"0,70 137 1560 0 0,-44-83-2199 0 0,-14-34 35 0 0,-2 0 0 0 0,-2 1 1 0 0,15 49-1 0 0,-26-75-52 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,2 2 0 0 0,-2-3-109 0 0,-1 2 440 0 0,-5-7-252 0 0,-5-7-78 0 0,1-7 58 0 0,1 0 0 0 0,1-1 1 0 0,-6-20-1 0 0,-13-34 101 0 0,10 38-135 0 0,-65-134 0 0 0,69 148-15 0 0,11 20-54 0 0,10 8 6 0 0,14 12 230 0 0,-14-10-123 0 0,1-1 0 0 0,12 8 0 0 0,9 4-61 0 0,1-1 0 0 0,1-1 1 0 0,47 17-1 0 0,-74-33 15 0 0,21 8-76 0 0,0-2-1 0 0,38 7 1 0 0,-52-12 72 0 0,0-1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,0-1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,-1-1 1 0 0,25-10 0 0 0,-34 12 10 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,3-4-1 0 0,-3 3 66 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1-6 0 0 0,0 1 105 0 0,-1-1-1 0 0,-1 1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-8-15 0 0 0,-36-52 406 0 0,45 74-565 0 0,-20-28 51 0 0,-1 2 0 0 0,-2 0 0 0 0,-1 2 0 0 0,-1 1-1 0 0,-1 1 1 0 0,-42-27 0 0 0,51 39-158 0 0,-1 1 1 0 0,0 0-1 0 0,0 2 0 0 0,-1 0 0 0 0,-23-6 0 0 0,43 15 10 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-3-1-1 0 0,4 0-4 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1-1 0 0,-1 11-784 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5702.16">1153 2162 16008 0 0,'0'0'1603'0'0,"0"-1"-1463"0"0,0-5-137 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,5-5 0 0 0,-5 6 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,9 2 0 0 0,-6 0-76 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,9 12 1 0 0,-5-3-63 0 0,0 0 1 0 0,0 0-1 0 0,-2 1 1 0 0,0 0-1 0 0,7 25 1 0 0,-12-35 138 0 0,-1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 8-1 0 0,-1 3 154 0 0,1-17 128 0 0,9-18-288 0 0,-1 2-6 0 0,-5 7 9 0 0,2 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,7-8 0 0 0,-11 13 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,2 0 1 0 0,3 0-1 0 0,-3 0-11 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,4 4 0 0 0,0 2 1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,6 17-1 0 0,-6-11-9 0 0,0 0 0 0 0,-1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 17 0 0 0,-2 5 155 0 0,-2-1 0 0 0,-2 0 0 0 0,-1 0 1 0 0,-12 38-1 0 0,14-61 66 0 0,0 0 1 0 0,-1-1-1 0 0,-10 22 1 0 0,13-30-176 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-3 2-1 0 0,4-3-61 0 0,1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-3-2 0 0 0,0-2-303 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-5-14 1 0 0,4 12-122 0 0,2 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1-18 0 0 0,1 7-82 0 0,-5-33-914 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6071.14">1483 1913 17071 0 0,'1'1'388'0'0,"3"3"-238"0"0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,10 3 1 0 0,14 7-160 0 0,133 85-276 0 0,-86-49-728 0 0,-63-39 145 0 0,0 1 0 0 0,0 1 0 0 0,15 17 0 0 0,-10-11-653 0 0,-9-7 567 0 0,0-1 0 0 0,0 2 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-2 0 0 0 0,1 1 1 0 0,4 12-1 0 0,-11-23 952 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 8 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-2-3 0 0 0,-23-22-13 0 0,25 25 11 0 0,-10-13-3 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6445.66">1414 2044 3224 0 0,'-13'14'7667'0'0,"14"-20"-6298"0"0,1-2-1024 0 0,-1 1 0 0 0,2 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,5-8 0 0 0,27-37 471 0 0,-11 16-222 0 0,58-81-383 0 0,-62 89-820 0 0,2 1 1 0 0,31-29 0 0 0,-45 47-15 0 0,2-2-145 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6446.66">1643 2164 17103 0 0,'0'20'760'0'0,"3"-14"152"0"0,1 2-728 0 0,2-6-184 0 0,6-2 0 0 0,-2-5 0 0 0,2-4 0 0 0,-2-1 0 0 0,2-4-184 0 0,-2-1-40 0 0,3-4-16 0 0,-1-4 0 0 0,0 1-1064 0 0,1-2-207 0 0,5-27-49 0 0,-1 12-8 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6978.85">1888 1519 14944 0 0,'3'16'205'0'0,"1"0"0"0"0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,18 26 1 0 0,39 55-204 0 0,14 19-2547 0 0,-75-111 1831 0 0,-4-3 298 0 0,-8-6 195 0 0,-12-14 210 0 0,-20-37-38 0 0,25 34 35 0 0,-27-30 0 0 0,-23-23 15 0 0,-3-3 0 0 0,64 73 2 0 0,3 3 1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-2-4-1 0 0,22 9 412 0 0,-7 3-252 0 0,0 1 0 0 0,0-1 0 0 0,11 9 1 0 0,21 12 23 0 0,80 40-617 0 0,-99-52 132 0 0,-15-9 243 0 0,0-1 1 0 0,1 0-1 0 0,15 3 1 0 0,-8-2 142 0 0,-9-2-4 0 0,1-2 0 0 0,0 1 1 0 0,0-1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,0-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,10-13 0 0 0,-11 10 240 0 0,-1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-2 0 0 0 0,3-12-1 0 0,-4 16-189 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,-3-12-1 0 0,0-2 60 0 0,3 15-141 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 1 1 0 0,-7-6 0 0 0,-9-7 153 0 0,-42-27 1 0 0,42 31-142 0 0,-15-10-67 0 0,-2 2-1 0 0,-48-21 1 0 0,12 13-5740 0 0,42 19-358 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22799,7 +22860,7 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">75 1 4144 0 0,'0'0'182'0'0,"-2"0"-30"0"0,-6 9 6251 0 0,9-8-6099 0 0,-1 0-1 0 0,1 0 1 0 0,-1 2-1 0 0,1-2 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0 1-1 0 0,-2 15 72 0 0,-2-8-154 0 0,1 19 611 0 0,-15 39 306 0 0,13-52-890 0 0,2-1 0 0 0,1 1 0 0 0,-1 17-1 0 0,2-24-194 0 0,-12 204 778 0 0,13-167-764 0 0,1-33-63 0 0,-1 0-1 0 0,-1 16 0 0 0,-3 19 130 0 0,3 75 0 0 0,2-57-122 0 0,-3 10 12 0 0,1 39 372 0 0,-1 2 51 0 0,3 90 112 0 0,-3-94-284 0 0,-1 64 117 0 0,3 20-174 0 0,0-24 63 0 0,3 53 400 0 0,0-160-604 0 0,13 203 424 0 0,-8-18-428 0 0,-8-244-72 0 0,-5 103 11 0 0,0-45 53 0 0,3-21 6 0 0,1-26-54 0 0,1 2 0 0 0,2 26-1 0 0,3 1-3 0 0,-1-11 115 0 0,-3-15-127 0 0,0-10 31 0 0,0-1 0 0 0,-2 14 0 0 0,0 10 25 0 0,3 21-232 0 0,-1-53 110 0 0,1 4 67 0 0,-1-4 320 0 0,-1-8-3489 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">74 1 4144 0 0,'0'0'182'0'0,"-2"0"-30"0"0,-6 9 6251 0 0,9-8-6099 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0 1-1 0 0,-2 14 72 0 0,-2-7-154 0 0,1 18 611 0 0,-15 37 306 0 0,14-50-890 0 0,1 0 0 0 0,1 0 0 0 0,-1 17-1 0 0,2-24-194 0 0,-12 197 778 0 0,13-161-764 0 0,1-31-63 0 0,-1-1-1 0 0,-1 16 0 0 0,-3 18 130 0 0,3 72 0 0 0,2-55-122 0 0,-3 10 12 0 0,1 38 372 0 0,-1 1 51 0 0,3 87 112 0 0,-3-91-284 0 0,-1 62 117 0 0,3 20-174 0 0,0-24 63 0 0,3 51 400 0 0,0-154-604 0 0,13 195 424 0 0,-8-17-428 0 0,-8-234-72 0 0,-5 99 11 0 0,0-44 53 0 0,3-20 6 0 0,1-24-54 0 0,1 1 0 0 0,2 25-1 0 0,3 1-3 0 0,-1-10 115 0 0,-3-15-127 0 0,0-10 31 0 0,0 0 0 0 0,-2 13 0 0 0,0 10 25 0 0,3 19-232 0 0,-1-50 110 0 0,1 4 67 0 0,-1-4 320 0 0,-1-8-3489 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -23201,25 +23262,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AAFF62-1A67-4655-990A-DD45A9DF8368}">
   <dimension ref="B27:Y215"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A133" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView showGridLines="0" topLeftCell="D114" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q115" sqref="Q115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.73046875" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" customWidth="1"/>
+    <col min="8" max="8" width="12.3984375" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="27" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:15" x14ac:dyDescent="0.45">
       <c r="H27" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:15" x14ac:dyDescent="0.45">
       <c r="H28" s="2" t="s">
         <v>1</v>
       </c>
@@ -23245,7 +23306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:15" x14ac:dyDescent="0.45">
       <c r="H29" s="2" t="s">
         <v>8</v>
       </c>
@@ -23271,7 +23332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:15" x14ac:dyDescent="0.45">
       <c r="H30" s="2" t="s">
         <v>13</v>
       </c>
@@ -23297,7 +23358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:15" x14ac:dyDescent="0.45">
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -23307,7 +23368,7 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:15" x14ac:dyDescent="0.45">
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -23317,7 +23378,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.45">
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -23327,7 +23388,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.45">
       <c r="H36" s="1" t="s">
         <v>18</v>
       </c>
@@ -23335,7 +23396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.45">
       <c r="H37" s="2" t="s">
         <v>19</v>
       </c>
@@ -23352,7 +23413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.45">
       <c r="H38" s="2" t="s">
         <v>17</v>
       </c>
@@ -23367,7 +23428,7 @@
       </c>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.45">
       <c r="H39" s="2" t="s">
         <v>21</v>
       </c>
@@ -23378,22 +23439,22 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="42" spans="2:15" ht="21" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:15" ht="21" x14ac:dyDescent="0.65">
       <c r="B42" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B46" s="5" t="s">
         <v>32</v>
       </c>
@@ -23401,7 +23462,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B47" s="6" t="s">
         <v>34</v>
       </c>
@@ -23409,7 +23470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B48" s="2" t="s">
         <v>8</v>
       </c>
@@ -23417,7 +23478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B49" s="2" t="s">
         <v>13</v>
       </c>
@@ -23425,7 +23486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B52" s="5" t="s">
         <v>32</v>
       </c>
@@ -23433,7 +23494,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B53" s="6" t="s">
         <v>2</v>
       </c>
@@ -23444,7 +23505,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
         <v>14</v>
       </c>
@@ -23455,7 +23516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.45">
       <c r="C55" t="s">
         <v>35</v>
       </c>
@@ -23463,7 +23524,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.45">
       <c r="C56" t="s">
         <v>36</v>
       </c>
@@ -23471,7 +23532,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B59" s="5" t="s">
         <v>32</v>
       </c>
@@ -23491,7 +23552,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
         <v>38</v>
       </c>
@@ -23511,7 +23572,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
         <v>8</v>
       </c>
@@ -23546,7 +23607,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.45">
       <c r="Q62" t="s">
         <v>45</v>
       </c>
@@ -23563,7 +23624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B63" s="5" t="s">
         <v>32</v>
       </c>
@@ -23580,7 +23641,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
         <v>4</v>
       </c>
@@ -23591,7 +23652,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:25" x14ac:dyDescent="0.45">
       <c r="J65" s="5" t="s">
         <v>32</v>
       </c>
@@ -23602,7 +23663,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:25" x14ac:dyDescent="0.45">
       <c r="J66" t="s">
         <v>40</v>
       </c>
@@ -23622,7 +23683,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B67" s="5" t="s">
         <v>32</v>
       </c>
@@ -23648,7 +23709,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
         <v>39</v>
       </c>
@@ -23662,12 +23723,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B69" s="7">
         <v>44197</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B73" s="5" t="s">
         <v>32</v>
       </c>
@@ -23684,7 +23745,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
         <v>2</v>
       </c>
@@ -23701,12 +23762,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.45">
       <c r="X77" s="5" t="s">
         <v>32</v>
       </c>
@@ -23714,7 +23775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:25" x14ac:dyDescent="0.45">
       <c r="S78" t="s">
         <v>34</v>
       </c>
@@ -23731,7 +23792,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B79" s="5" t="s">
         <v>32</v>
       </c>
@@ -23748,7 +23809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B80" s="1" t="s">
         <v>38</v>
       </c>
@@ -23756,7 +23817,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
         <v>8</v>
       </c>
@@ -23764,17 +23825,17 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:9" ht="21" x14ac:dyDescent="0.65">
       <c r="B84" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B85" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C86" t="s">
         <v>55</v>
       </c>
@@ -23782,12 +23843,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B88" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H92" s="1" t="s">
         <v>57</v>
       </c>
@@ -23795,7 +23856,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H93" s="11" t="s">
         <v>58</v>
       </c>
@@ -23803,17 +23864,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H94" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H95" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:12" x14ac:dyDescent="0.45">
       <c r="H101" s="1" t="s">
         <v>68</v>
       </c>
@@ -23824,7 +23885,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:12" x14ac:dyDescent="0.45">
       <c r="H102" s="11" t="s">
         <v>63</v>
       </c>
@@ -23835,7 +23896,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:12" x14ac:dyDescent="0.45">
       <c r="H103" s="11" t="s">
         <v>64</v>
       </c>
@@ -23846,7 +23907,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="104" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:12" x14ac:dyDescent="0.45">
       <c r="H104" t="s">
         <v>65</v>
       </c>
@@ -23854,7 +23915,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:12" x14ac:dyDescent="0.45">
       <c r="H105" t="s">
         <v>66</v>
       </c>
@@ -23862,7 +23923,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="106" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:12" x14ac:dyDescent="0.45">
       <c r="H106" t="s">
         <v>67</v>
       </c>
@@ -23870,32 +23931,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="107" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:12" x14ac:dyDescent="0.45">
       <c r="L107" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:12" x14ac:dyDescent="0.45">
       <c r="E109" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="110" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:12" x14ac:dyDescent="0.45">
       <c r="E110" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="117" spans="2:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:13" ht="21" x14ac:dyDescent="0.65">
       <c r="B117" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B118" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C120" t="s">
         <v>72</v>
       </c>
@@ -23906,12 +23967,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B122" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:13" x14ac:dyDescent="0.45">
       <c r="I127" s="1" t="s">
         <v>76</v>
       </c>
@@ -23922,7 +23983,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:13" x14ac:dyDescent="0.45">
       <c r="I128" s="11" t="s">
         <v>77</v>
       </c>
@@ -23933,7 +23994,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="129" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="8:13" x14ac:dyDescent="0.45">
       <c r="I129" t="s">
         <v>78</v>
       </c>
@@ -23944,7 +24005,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="8:13" x14ac:dyDescent="0.45">
       <c r="I130" t="s">
         <v>79</v>
       </c>
@@ -23952,12 +24013,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="131" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="8:13" x14ac:dyDescent="0.45">
       <c r="I131" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="134" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="8:13" x14ac:dyDescent="0.45">
       <c r="I134" t="s">
         <v>32</v>
       </c>
@@ -23965,7 +24026,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="135" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="8:13" x14ac:dyDescent="0.45">
       <c r="H135" s="12" t="s">
         <v>78</v>
       </c>
@@ -23973,7 +24034,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="136" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="8:13" x14ac:dyDescent="0.45">
       <c r="H136" t="s">
         <v>81</v>
       </c>
@@ -23981,12 +24042,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="137" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="8:13" x14ac:dyDescent="0.45">
       <c r="J137" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="139" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="8:13" x14ac:dyDescent="0.45">
       <c r="I139" t="s">
         <v>32</v>
       </c>
@@ -23994,7 +24055,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="140" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="8:13" x14ac:dyDescent="0.45">
       <c r="H140" t="s">
         <v>77</v>
       </c>
@@ -24002,7 +24063,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="141" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="8:13" x14ac:dyDescent="0.45">
       <c r="H141" s="8" t="s">
         <v>82</v>
       </c>
@@ -24010,7 +24071,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="143" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="8:13" x14ac:dyDescent="0.45">
       <c r="I143" t="s">
         <v>32</v>
       </c>
@@ -24018,7 +24079,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="144" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="8:13" x14ac:dyDescent="0.45">
       <c r="H144" s="11" t="s">
         <v>77</v>
       </c>
@@ -24026,7 +24087,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="145" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H145" s="8" t="s">
         <v>82</v>
       </c>
@@ -24034,37 +24095,37 @@
         <v>44336</v>
       </c>
     </row>
-    <row r="150" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="8:10" x14ac:dyDescent="0.45">
       <c r="I150" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="151" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="8:10" x14ac:dyDescent="0.45">
       <c r="I151" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="152" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="8:10" x14ac:dyDescent="0.45">
       <c r="I152" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="153" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="8:10" x14ac:dyDescent="0.45">
       <c r="I153" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="154" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="8:10" x14ac:dyDescent="0.45">
       <c r="I154" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="155" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="8:10" x14ac:dyDescent="0.45">
       <c r="I155" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.45">
       <c r="I162" t="s">
         <v>64</v>
       </c>
@@ -24072,12 +24133,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:10" x14ac:dyDescent="0.45">
       <c r="I163" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:10" x14ac:dyDescent="0.45">
       <c r="I168" s="12" t="s">
         <v>85</v>
       </c>
@@ -24085,7 +24146,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:10" x14ac:dyDescent="0.45">
       <c r="I169" t="s">
         <v>90</v>
       </c>
@@ -24093,17 +24154,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B174" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B175" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B176" s="2" t="s">
         <v>1</v>
       </c>
@@ -24132,7 +24193,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B177" s="2" t="s">
         <v>8</v>
       </c>
@@ -24161,7 +24222,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B178" s="2" t="s">
         <v>13</v>
       </c>
@@ -24190,7 +24251,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -24201,7 +24262,7 @@
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -24212,7 +24273,7 @@
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -24223,7 +24284,7 @@
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
     </row>
-    <row r="185" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:11" ht="21" x14ac:dyDescent="0.65">
       <c r="B185" s="4" t="s">
         <v>100</v>
       </c>
@@ -24237,7 +24298,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B186" s="13" t="s">
         <v>101</v>
       </c>
@@ -24248,7 +24309,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:11" x14ac:dyDescent="0.45">
       <c r="G187" t="s">
         <v>109</v>
       </c>
@@ -24256,7 +24317,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B189" t="s">
         <v>32</v>
       </c>
@@ -24270,7 +24331,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:11" x14ac:dyDescent="0.45">
       <c r="G191" t="s">
         <v>32</v>
       </c>
@@ -24284,7 +24345,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:11" x14ac:dyDescent="0.45">
       <c r="G192" s="14" t="s">
         <v>46</v>
       </c>
@@ -24298,7 +24359,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="193" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="7:11" x14ac:dyDescent="0.45">
       <c r="G193" t="s">
         <v>103</v>
       </c>
@@ -24312,7 +24373,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="194" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="7:11" x14ac:dyDescent="0.45">
       <c r="G194" t="s">
         <v>103</v>
       </c>
@@ -24326,7 +24387,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="195" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="7:11" x14ac:dyDescent="0.45">
       <c r="G195" t="s">
         <v>106</v>
       </c>
@@ -24340,12 +24401,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="198" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="7:11" x14ac:dyDescent="0.45">
       <c r="G198" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="199" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="7:11" x14ac:dyDescent="0.45">
       <c r="G199" s="14" t="s">
         <v>46</v>
       </c>
@@ -24356,7 +24417,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="200" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="7:11" x14ac:dyDescent="0.45">
       <c r="G200" t="s">
         <v>103</v>
       </c>
@@ -24367,7 +24428,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="201" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="7:11" x14ac:dyDescent="0.45">
       <c r="G201" t="s">
         <v>106</v>
       </c>
@@ -24378,12 +24439,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="204" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="7:11" x14ac:dyDescent="0.45">
       <c r="G204" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="205" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="7:11" x14ac:dyDescent="0.45">
       <c r="G205" s="14" t="s">
         <v>115</v>
       </c>
@@ -24391,7 +24452,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="206" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="7:11" x14ac:dyDescent="0.45">
       <c r="G206" t="s">
         <v>89</v>
       </c>
@@ -24399,7 +24460,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="207" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="7:11" x14ac:dyDescent="0.45">
       <c r="G207" t="s">
         <v>89</v>
       </c>
@@ -24407,7 +24468,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="208" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="7:11" x14ac:dyDescent="0.45">
       <c r="G208" t="s">
         <v>121</v>
       </c>
@@ -24415,7 +24476,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="209" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G209" t="s">
         <v>121</v>
       </c>
@@ -24423,12 +24484,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="211" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G211" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="213" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G213" s="14" t="s">
         <v>115</v>
       </c>
@@ -24439,7 +24500,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="214" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G214" t="s">
         <v>89</v>
       </c>
@@ -24450,7 +24511,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="215" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G215" t="s">
         <v>121</v>
       </c>
@@ -24474,19 +24535,19 @@
   <dimension ref="C2:X37"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V2" sqref="V2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="9" max="13" width="10.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="22.06640625" customWidth="1"/>
+    <col min="9" max="13" width="10.6640625" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:24" x14ac:dyDescent="0.45">
       <c r="E2" s="16" t="s">
         <v>171</v>
       </c>
@@ -24513,7 +24574,7 @@
       <c r="W2" s="16"/>
       <c r="X2" s="16"/>
     </row>
-    <row r="3" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:24" x14ac:dyDescent="0.45">
       <c r="E3" t="s">
         <v>172</v>
       </c>
@@ -24524,7 +24585,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:24" x14ac:dyDescent="0.45">
       <c r="E4" t="s">
         <v>173</v>
       </c>
@@ -24535,7 +24596,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:24" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>174</v>
       </c>
@@ -24549,7 +24610,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:24" x14ac:dyDescent="0.45">
       <c r="F6" t="s">
         <v>126</v>
       </c>
@@ -24557,8 +24618,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D7" s="22" t="s">
+    <row r="7" spans="4:24" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
         <v>126</v>
       </c>
       <c r="F7" t="s">
@@ -24586,17 +24647,17 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D8" s="22" t="s">
+    <row r="8" spans="4:24" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
         <v>127</v>
       </c>
       <c r="F8" t="s">
         <v>128</v>
       </c>
-      <c r="N8" s="23" t="s">
+      <c r="N8" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="P8" s="24" t="s">
+      <c r="P8" s="17" t="s">
         <v>134</v>
       </c>
       <c r="R8" s="17" t="s">
@@ -24612,17 +24673,17 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D9" s="22" t="s">
+    <row r="9" spans="4:24" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
         <v>128</v>
       </c>
       <c r="F9" t="s">
         <v>129</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="N9" t="s">
         <v>126</v>
       </c>
-      <c r="P9" s="25" t="s">
+      <c r="P9" t="s">
         <v>135</v>
       </c>
       <c r="R9" t="s">
@@ -24638,20 +24699,20 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D10" s="22" t="s">
+    <row r="10" spans="4:24" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
         <v>129</v>
       </c>
       <c r="F10" t="s">
         <v>130</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N10" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="N10" t="s">
         <v>127</v>
       </c>
-      <c r="P10" s="25" t="s">
+      <c r="P10" t="s">
         <v>136</v>
       </c>
       <c r="R10" t="s">
@@ -24667,17 +24728,15 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D11" s="22" t="s">
+    <row r="11" spans="4:24" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
         <v>130</v>
       </c>
       <c r="F11" t="s">
         <v>131</v>
       </c>
-      <c r="J11" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="N11" s="13" t="s">
+      <c r="J11" s="17"/>
+      <c r="N11" t="s">
         <v>128</v>
       </c>
       <c r="R11" t="s">
@@ -24687,28 +24746,26 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D12" s="22" t="s">
+    <row r="12" spans="4:24" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
         <v>131</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="J12" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="N12" s="22" t="s">
+      <c r="J12" s="17"/>
+      <c r="N12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D13" s="23" t="s">
+    <row r="13" spans="4:24" x14ac:dyDescent="0.45">
+      <c r="D13" s="17" t="s">
         <v>132</v>
       </c>
       <c r="F13" t="s">
         <v>133</v>
       </c>
-      <c r="N13" s="22" t="s">
+      <c r="N13" t="s">
         <v>130</v>
       </c>
       <c r="T13" s="1" t="s">
@@ -24718,14 +24775,14 @@
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D14" s="22" t="s">
+    <row r="14" spans="4:24" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
         <v>133</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="N14" s="22" t="s">
+      <c r="N14" t="s">
         <v>131</v>
       </c>
       <c r="P14" s="1" t="s">
@@ -24744,23 +24801,23 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D15" s="24" t="s">
+    <row r="15" spans="4:24" x14ac:dyDescent="0.45">
+      <c r="D15" s="17" t="s">
         <v>134</v>
       </c>
       <c r="F15" t="s">
         <v>135</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="N15" t="s">
         <v>133</v>
       </c>
-      <c r="P15" s="26" t="s">
+      <c r="P15" s="17" t="s">
         <v>137</v>
       </c>
       <c r="R15" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" t="s">
         <v>127</v>
       </c>
       <c r="V15" s="17" t="s">
@@ -24770,20 +24827,20 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D16" s="25" t="s">
+    <row r="16" spans="4:24" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
         <v>135</v>
       </c>
       <c r="F16" t="s">
         <v>136</v>
       </c>
-      <c r="P16" s="27" t="s">
+      <c r="P16" t="s">
         <v>138</v>
       </c>
       <c r="R16" t="s">
         <v>138</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" t="s">
         <v>128</v>
       </c>
       <c r="V16" t="s">
@@ -24793,14 +24850,14 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D17" s="25" t="s">
+    <row r="17" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
         <v>136</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="P17" s="27" t="s">
+      <c r="P17" t="s">
         <v>140</v>
       </c>
       <c r="R17" t="s">
@@ -24810,14 +24867,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D18" s="26" t="s">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="D18" s="17" t="s">
         <v>137</v>
       </c>
       <c r="F18" t="s">
         <v>138</v>
       </c>
-      <c r="P18" s="27" t="s">
+      <c r="P18" t="s">
         <v>139</v>
       </c>
       <c r="T18" s="1" t="s">
@@ -24827,8 +24884,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D19" s="27" t="s">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
         <v>138</v>
       </c>
       <c r="F19" t="s">
@@ -24847,8 +24904,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D20" s="27" t="s">
+    <row r="20" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
         <v>139</v>
       </c>
       <c r="F20" t="s">
@@ -24867,8 +24924,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D21" s="27" t="s">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="D21" t="s">
         <v>140</v>
       </c>
       <c r="G21" t="s">
@@ -24887,7 +24944,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.45">
       <c r="V24" s="1" t="s">
         <v>177</v>
       </c>
@@ -24895,7 +24952,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C25" s="1" t="s">
         <v>165</v>
       </c>
@@ -24903,7 +24960,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C26" s="11" t="s">
         <v>132</v>
       </c>
@@ -24920,7 +24977,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C27" s="8" t="s">
         <v>166</v>
       </c>
@@ -24934,7 +24991,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C28" s="8" t="s">
         <v>169</v>
       </c>
@@ -24948,7 +25005,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C34" s="11" t="s">
         <v>132</v>
       </c>
@@ -24956,7 +25013,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C36" s="11" t="s">
         <v>132</v>
       </c>
@@ -24964,7 +25021,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C37" s="8" t="s">
         <v>166</v>
       </c>
@@ -24977,21 +25034,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB86B55-7516-4BE8-96F7-362FE8235654}">
-  <dimension ref="D1:AD56"/>
+  <dimension ref="D1:V56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="O50" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D77" sqref="D77"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="11" width="0" hidden="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:22" x14ac:dyDescent="0.45">
       <c r="G1" s="16" t="s">
         <v>171</v>
       </c>
@@ -25012,14 +25063,8 @@
       </c>
       <c r="U1" s="16"/>
       <c r="V1" s="16"/>
-      <c r="Z1" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
     </row>
-    <row r="2" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:22" x14ac:dyDescent="0.45">
       <c r="G2" t="s">
         <v>172</v>
       </c>
@@ -25030,9 +25075,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:22" x14ac:dyDescent="0.45">
       <c r="G3" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="P3" s="19" t="s">
         <v>180</v>
@@ -25041,7 +25086,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:22" x14ac:dyDescent="0.45">
       <c r="G4" t="s">
         <v>174</v>
       </c>
@@ -25053,44 +25098,24 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E5" s="28" t="s">
+    <row r="5" spans="5:22" x14ac:dyDescent="0.45">
+      <c r="E5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E6" s="28" t="s">
+    <row r="6" spans="5:22" x14ac:dyDescent="0.45">
+      <c r="E6" t="s">
         <v>142</v>
       </c>
       <c r="H6" t="s">
         <v>141</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="X6" s="31"/>
-      <c r="Z6" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD6" s="31"/>
+      <c r="M6" t="s">
+        <v>213</v>
+      </c>
     </row>
-    <row r="7" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E7" s="30" t="s">
+    <row r="7" spans="5:22" x14ac:dyDescent="0.45">
+      <c r="E7" s="15" t="s">
         <v>143</v>
       </c>
       <c r="H7" t="s">
@@ -25099,545 +25124,197 @@
       <c r="M7" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="P7" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="R7" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="T7" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="V7" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="X7" s="29"/>
-      <c r="Z7" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB7" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD7" s="29"/>
     </row>
-    <row r="8" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E8" s="30" t="s">
+    <row r="8" spans="5:22" x14ac:dyDescent="0.45">
+      <c r="E8" s="15" t="s">
         <v>144</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>143</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="P8" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="R8" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="T8" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="V8" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="X8" s="29"/>
-      <c r="Z8" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB8" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD8" s="29"/>
+        <v>162</v>
+      </c>
     </row>
-    <row r="9" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E9" s="30" t="s">
+    <row r="9" spans="5:22" x14ac:dyDescent="0.45">
+      <c r="E9" s="15" t="s">
         <v>145</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="M9" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="P9" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="R9" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="T9" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="V9" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z9" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB9" s="30" t="s">
-        <v>164</v>
-      </c>
     </row>
-    <row r="10" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E10" s="29" t="s">
+    <row r="10" spans="5:22" x14ac:dyDescent="0.45">
+      <c r="E10" s="17" t="s">
         <v>146</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="P10" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="R10" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="T10" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z10" s="30" t="s">
-        <v>152</v>
-      </c>
     </row>
-    <row r="11" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E11" s="30" t="s">
+    <row r="11" spans="5:22" x14ac:dyDescent="0.45">
+      <c r="E11" s="15" t="s">
         <v>147</v>
       </c>
       <c r="H11" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="P11" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="T11" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z11" s="30" t="s">
-        <v>153</v>
-      </c>
     </row>
-    <row r="12" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E12" s="30" t="s">
+    <row r="12" spans="5:22" x14ac:dyDescent="0.45">
+      <c r="E12" s="15" t="s">
         <v>148</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="M12" s="17" t="s">
+    </row>
+    <row r="13" spans="5:22" x14ac:dyDescent="0.45">
+      <c r="E13" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="P12" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="T12" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z12" s="30" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E13" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" s="28"/>
       <c r="H13" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="M13" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="P13" s="30" t="s">
-        <v>161</v>
-      </c>
     </row>
-    <row r="14" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E14" s="30" t="s">
+    <row r="14" spans="5:22" x14ac:dyDescent="0.45">
+      <c r="E14" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="F14" s="28"/>
       <c r="H14" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="S14" s="28"/>
     </row>
-    <row r="15" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E15" s="30" t="s">
+    <row r="15" spans="5:22" x14ac:dyDescent="0.45">
+      <c r="E15" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="F15" s="28"/>
       <c r="H15" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="T15" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>233</v>
-      </c>
     </row>
-    <row r="16" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E16" s="30" t="s">
+    <row r="16" spans="5:22" x14ac:dyDescent="0.45">
+      <c r="E16" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="28"/>
       <c r="H16" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="T16" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="V16" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="X16" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z16" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB16" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD16" s="29" t="s">
-        <v>146</v>
-      </c>
     </row>
-    <row r="17" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E17" s="30" t="s">
+    <row r="17" spans="5:9" x14ac:dyDescent="0.45">
+      <c r="E17" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="F17" s="28"/>
       <c r="H17" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="T17" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="V17" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="X17" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z17" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB17" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD17" s="29" t="s">
-        <v>149</v>
-      </c>
     </row>
-    <row r="18" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E18" s="15" t="s">
         <v>154</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="R18" s="29"/>
-      <c r="V18" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="X18" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB18" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD18" s="30" t="s">
-        <v>154</v>
-      </c>
     </row>
-    <row r="19" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E19" s="15" t="s">
         <v>155</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="R19" s="29"/>
-      <c r="V19" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="X19" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB19" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD19" s="15" t="s">
-        <v>155</v>
-      </c>
     </row>
-    <row r="20" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E20" s="30" t="s">
+    <row r="20" spans="5:9" x14ac:dyDescent="0.45">
+      <c r="E20" s="15" t="s">
         <v>156</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="R20" s="30"/>
-      <c r="X20" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD20" s="29"/>
     </row>
-    <row r="21" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E21" s="30" t="s">
+    <row r="21" spans="5:9" x14ac:dyDescent="0.45">
+      <c r="E21" s="15" t="s">
         <v>157</v>
       </c>
       <c r="H21" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="R21" s="30"/>
-      <c r="T21" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>99</v>
-      </c>
     </row>
-    <row r="22" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E22" s="30" t="s">
+    <row r="22" spans="5:9" x14ac:dyDescent="0.45">
+      <c r="E22" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q22" s="28"/>
-      <c r="T22" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="V22" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z22" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB22" s="28" t="s">
-        <v>141</v>
-      </c>
     </row>
-    <row r="23" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E23" s="30" t="s">
+    <row r="23" spans="5:9" x14ac:dyDescent="0.45">
+      <c r="E23" s="15" t="s">
         <v>159</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="P23" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="V23" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z23" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB23" s="28" t="s">
-        <v>142</v>
-      </c>
     </row>
-    <row r="24" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E24" s="30" t="s">
+    <row r="24" spans="5:9" x14ac:dyDescent="0.45">
+      <c r="E24" s="15" t="s">
         <v>160</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="P24" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q24" s="28"/>
-      <c r="T24" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="V24" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z24" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB24" s="30" t="s">
-        <v>143</v>
-      </c>
     </row>
-    <row r="25" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E25" s="30" t="s">
+    <row r="25" spans="5:9" x14ac:dyDescent="0.45">
+      <c r="E25" s="15" t="s">
         <v>161</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="P25" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q25" s="28"/>
-      <c r="T25" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="V25" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z25" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB25" s="30" t="s">
-        <v>144</v>
-      </c>
     </row>
-    <row r="26" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E26" s="29" t="s">
+    <row r="26" spans="5:9" x14ac:dyDescent="0.45">
+      <c r="E26" s="17" t="s">
         <v>162</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="P26" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q26" s="28"/>
-      <c r="T26" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="V26" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z26" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB26" s="30" t="s">
-        <v>145</v>
-      </c>
     </row>
-    <row r="27" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E27" s="30" t="s">
+    <row r="27" spans="5:9" x14ac:dyDescent="0.45">
+      <c r="E27" s="15" t="s">
         <v>163</v>
       </c>
       <c r="H27" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="P27" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q27" s="28"/>
     </row>
-    <row r="28" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E28" s="30" t="s">
+    <row r="28" spans="5:9" x14ac:dyDescent="0.45">
+      <c r="E28" s="15" t="s">
         <v>164</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="P28" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q28" s="28"/>
     </row>
-    <row r="29" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:9" x14ac:dyDescent="0.45">
       <c r="H29" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="P29" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q29" s="28"/>
-      <c r="Z29" s="1" t="s">
-        <v>210</v>
-      </c>
     </row>
-    <row r="30" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="P30" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q30" s="28"/>
-      <c r="Z30" s="17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:9" x14ac:dyDescent="0.45">
       <c r="I31" t="s">
         <v>175</v>
       </c>
-      <c r="P31" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q31" s="28"/>
-      <c r="Z31" s="17" t="s">
-        <v>146</v>
-      </c>
     </row>
-    <row r="32" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="P32" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q32" s="28"/>
-      <c r="Z32" s="17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="P33" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q33" s="28"/>
-    </row>
-    <row r="34" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="P34" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q34" s="28"/>
-      <c r="Z34" s="1"/>
-    </row>
-    <row r="35" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D35" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P35" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z35" s="17"/>
     </row>
-    <row r="36" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D36" t="s">
         <v>141</v>
       </c>
@@ -25647,12 +25324,8 @@
       <c r="I36" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="P36" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z36" s="17"/>
     </row>
-    <row r="37" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D37" t="s">
         <v>191</v>
       </c>
@@ -25666,7 +25339,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E38" t="s">
         <v>193</v>
       </c>
@@ -25677,7 +25350,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E39" t="s">
         <v>194</v>
       </c>
@@ -25688,7 +25361,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.45">
       <c r="I40" t="s">
         <v>196</v>
       </c>
@@ -25696,7 +25369,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.45">
       <c r="I41" t="s">
         <v>196</v>
       </c>
@@ -25704,7 +25377,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D43" s="5" t="s">
         <v>32</v>
       </c>
@@ -25712,7 +25385,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D44" s="15" t="s">
         <v>146</v>
       </c>
@@ -25720,7 +25393,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D45" t="s">
         <v>192</v>
       </c>
@@ -25731,7 +25404,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D46" t="s">
         <v>193</v>
       </c>
@@ -25748,7 +25421,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.45">
       <c r="I47" t="s">
         <v>201</v>
       </c>
@@ -25759,7 +25432,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.45">
       <c r="I48" t="s">
         <v>203</v>
       </c>
@@ -25770,7 +25443,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.45">
       <c r="I49" t="s">
         <v>207</v>
       </c>
@@ -25781,7 +25454,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D51" s="20" t="s">
         <v>146</v>
       </c>
@@ -25795,7 +25468,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D52" t="s">
         <v>192</v>
       </c>
@@ -25809,7 +25482,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D53" t="s">
         <v>192</v>
       </c>
@@ -25829,7 +25502,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D54" t="s">
         <v>197</v>
       </c>
@@ -25849,7 +25522,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:11" x14ac:dyDescent="0.45">
       <c r="I55" t="s">
         <v>192</v>
       </c>
@@ -25857,7 +25530,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="56" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:11" x14ac:dyDescent="0.45">
       <c r="I56" t="s">
         <v>197</v>
       </c>
@@ -25866,12 +25539,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="Z1:AC1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -25880,102 +25549,103 @@
   <dimension ref="D7:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="12" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
-    <row r="13" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="14" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="16" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D23" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D24" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>